--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda2.0_localhost_4.1.1.1\Veda\Veda_models\Demo_models\ETH01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFC0E88-E730-4629-9D77-2014643503DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17DA5FF-C5EE-43DA-A0C2-E61A5E334F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -350,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="2" shapeId="0" xr:uid="{CC8E5D4E-1B3A-43C8-A112-A6697F95B4CC}">
+    <comment ref="I18" authorId="2" shapeId="0" xr:uid="{CC8E5D4E-1B3A-43C8-A112-A6697F95B4CC}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="2" shapeId="0" xr:uid="{B82C1148-4753-4923-93C2-C67B5D40F340}">
+    <comment ref="R18" authorId="2" shapeId="0" xr:uid="{B82C1148-4753-4923-93C2-C67B5D40F340}">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S15" authorId="1" shapeId="0" xr:uid="{968CFA1B-C5E9-492D-A0A2-485C997CC98A}">
+    <comment ref="S18" authorId="1" shapeId="0" xr:uid="{968CFA1B-C5E9-492D-A0A2-485C997CC98A}">
       <text>
         <r>
           <rPr>
@@ -515,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T15" authorId="2" shapeId="0" xr:uid="{A0615139-A259-4F4D-937C-E8C54FC43716}">
+    <comment ref="T18" authorId="2" shapeId="0" xr:uid="{A0615139-A259-4F4D-937C-E8C54FC43716}">
       <text>
         <r>
           <rPr>
@@ -578,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L16" authorId="2" shapeId="0" xr:uid="{028E65FC-6C67-4206-97D8-90E7E85C9E5E}">
+    <comment ref="L19" authorId="2" shapeId="0" xr:uid="{028E65FC-6C67-4206-97D8-90E7E85C9E5E}">
       <text>
         <r>
           <rPr>
@@ -1132,7 +1132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V12" authorId="2" shapeId="0" xr:uid="{B8BF4189-7AEB-4804-8932-33CB73FCE7E5}">
+    <comment ref="V13" authorId="2" shapeId="0" xr:uid="{B8BF4189-7AEB-4804-8932-33CB73FCE7E5}">
       <text>
         <r>
           <rPr>
@@ -1225,7 +1225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W12" authorId="1" shapeId="0" xr:uid="{5D6B271C-ECB1-4F2A-B44A-CFC55CCC04E5}">
+    <comment ref="W13" authorId="1" shapeId="0" xr:uid="{5D6B271C-ECB1-4F2A-B44A-CFC55CCC04E5}">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X12" authorId="2" shapeId="0" xr:uid="{2D72E718-CBF9-42D3-993C-F0AD66976F32}">
+    <comment ref="X13" authorId="2" shapeId="0" xr:uid="{2D72E718-CBF9-42D3-993C-F0AD66976F32}">
       <text>
         <r>
           <rPr>
@@ -1313,7 +1313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="2" shapeId="0" xr:uid="{0B963EA5-F116-4DDE-B632-C6029837D6FB}">
+    <comment ref="P14" authorId="2" shapeId="0" xr:uid="{0B963EA5-F116-4DDE-B632-C6029837D6FB}">
       <text>
         <r>
           <rPr>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="270">
   <si>
     <t>CommName</t>
   </si>
@@ -2040,18 +2040,12 @@
     <t>Share-I~2030~UP</t>
   </si>
   <si>
-    <t>Share-I~2050~UP</t>
-  </si>
-  <si>
     <t>Input Share</t>
   </si>
   <si>
     <t>Kiln</t>
   </si>
   <si>
-    <t>Coal to heat heat transformation technology</t>
-  </si>
-  <si>
     <t>MW</t>
   </si>
   <si>
@@ -2085,9 +2079,6 @@
     <t>conversion factor from cap to act</t>
   </si>
   <si>
-    <t>Electricity for Machine drive</t>
-  </si>
-  <si>
     <t>DM3</t>
   </si>
   <si>
@@ -2326,6 +2317,60 @@
   </si>
   <si>
     <t>Annual energy consumption devided by the product of annual hours*effficiency</t>
+  </si>
+  <si>
+    <t>CONOILIMP</t>
+  </si>
+  <si>
+    <t>CONELC</t>
+  </si>
+  <si>
+    <t>Construction oil</t>
+  </si>
+  <si>
+    <t>Construction Electricity</t>
+  </si>
+  <si>
+    <t>ICI</t>
+  </si>
+  <si>
+    <t>Internal combustion engine</t>
+  </si>
+  <si>
+    <t>Electricity for machine drive</t>
+  </si>
+  <si>
+    <t>Construction oil-imported</t>
+  </si>
+  <si>
+    <t>CONMDRIVE</t>
+  </si>
+  <si>
+    <t>Construction machine drive</t>
+  </si>
+  <si>
+    <t>Construction  electricity</t>
+  </si>
+  <si>
+    <t>Manufacturing electricity</t>
+  </si>
+  <si>
+    <t>Manufacturing heat</t>
+  </si>
+  <si>
+    <t>MWa</t>
+  </si>
+  <si>
+    <t>Coal to heat transformation technology</t>
+  </si>
+  <si>
+    <t>Share-I~2052~UP</t>
+  </si>
+  <si>
+    <t>MACHIND</t>
+  </si>
+  <si>
+    <t>Electricity to drive manufacturing machines</t>
   </si>
 </sst>
 </file>
@@ -2867,7 +2912,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3148,6 +3193,7 @@
     <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="9" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -4000,13 +4046,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>133299</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4114,13 +4160,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4776,7 +4822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40EA534-E44A-461C-9315-2313911B2BEB}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -4848,7 +4894,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>127</v>
@@ -5533,13 +5579,13 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -5585,7 +5631,7 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D40" s="18">
         <f>D18/(D18+E18)</f>
@@ -5679,7 +5725,7 @@
         <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E47" s="122">
         <f>E18/(D18+E18)</f>
@@ -5691,7 +5737,7 @@
         <v>0.25338314270268686</v>
       </c>
       <c r="L47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -5699,7 +5745,7 @@
         <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J48" s="122">
         <v>1</v>
@@ -5709,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.25">
@@ -5817,8 +5863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5880,7 +5926,7 @@
         <v>125</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>94</v>
@@ -5889,7 +5935,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>127</v>
@@ -6706,13 +6752,13 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -6758,7 +6804,7 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D40" s="18">
         <f>D18/(D18+E18)</f>
@@ -6852,7 +6898,7 @@
         <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E47" s="122">
         <f>E18/(D18+E18)</f>
@@ -6864,7 +6910,7 @@
         <v>0.25338314270268686</v>
       </c>
       <c r="L47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -6872,7 +6918,7 @@
         <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J48" s="122">
         <v>1</v>
@@ -6882,7 +6928,7 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.25">
@@ -6991,7 +7037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:P3"/>
     </sheetView>
   </sheetViews>
@@ -7053,10 +7099,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:T10"/>
+    <sheetView topLeftCell="A6" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7075,7 +7121,7 @@
     <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.109375" customWidth="1"/>
     <col min="14" max="14" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.33203125" customWidth="1"/>
+    <col min="15" max="15" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.109375" customWidth="1"/>
     <col min="17" max="17" width="11.5546875" customWidth="1"/>
     <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -7112,7 +7158,7 @@
         <v>Coal</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G2" s="7" t="str">
         <f>EBF!P2</f>
@@ -7135,10 +7181,10 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G3" s="7" t="str">
         <f>EBF!P2</f>
@@ -7180,7 +7226,7 @@
         <v>85</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G4" s="7" t="str">
         <f>EBF!P2</f>
@@ -7226,18 +7272,18 @@
         <v>153</v>
       </c>
       <c r="O5" s="67" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P5" s="67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="67" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="R5" s="67"/>
       <c r="S5" s="67"/>
       <c r="T5" s="67" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -7251,41 +7297,53 @@
         <v>154</v>
       </c>
       <c r="O6" s="67" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P6" s="67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="67" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="R6" s="67"/>
       <c r="S6" s="67"/>
       <c r="T6" s="67" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" t="s">
+        <v>125</v>
+      </c>
       <c r="L7" s="67" t="s">
         <v>74</v>
       </c>
       <c r="M7" s="71"/>
       <c r="N7" s="67" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O7" s="67" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P7" s="67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="67" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="R7" s="67"/>
       <c r="S7" s="67"/>
       <c r="T7" s="67" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -7294,16 +7352,16 @@
       </c>
       <c r="M8" s="71"/>
       <c r="N8" s="67" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="O8" s="67" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P8" s="67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="67" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="R8" s="67"/>
       <c r="S8" s="67"/>
@@ -7311,462 +7369,590 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L9" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="71"/>
-      <c r="N9" s="67" t="s">
-        <v>184</v>
-      </c>
-      <c r="O9" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="P9" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q9" s="67" t="s">
-        <v>187</v>
-      </c>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67" t="s">
-        <v>188</v>
-      </c>
-    </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L10" s="67" t="s">
         <v>82</v>
       </c>
       <c r="M10" s="71"/>
       <c r="N10" s="67" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O10" s="67" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="P10" s="67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="67" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="R10" s="67"/>
       <c r="S10" s="67"/>
       <c r="T10" s="67" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L11" s="67"/>
+      <c r="L11" s="67" t="s">
+        <v>82</v>
+      </c>
       <c r="M11" s="71"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
+      <c r="N11" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="O11" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="P11" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q11" s="67" t="s">
+        <v>184</v>
+      </c>
       <c r="R11" s="67"/>
       <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
+      <c r="T11" s="67" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L12" s="67"/>
+      <c r="L12" s="67" t="s">
+        <v>74</v>
+      </c>
       <c r="M12" s="71"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
+      <c r="N12" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="O12" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="P12" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q12" s="67" t="s">
+        <v>184</v>
+      </c>
       <c r="R12" s="67"/>
       <c r="S12" s="67"/>
       <c r="T12" s="67"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="L13" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="71"/>
+      <c r="N13" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="O13" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="P13" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q13" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F14" s="3" t="s">
+      <c r="L14" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="71"/>
+      <c r="N14" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="O14" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="P14" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q14" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L15" s="67"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="L14" s="66" t="s">
+      <c r="H17" s="3"/>
+      <c r="L17" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="66"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="M17" s="66"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G18" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H18" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I18" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="L15" s="68" t="s">
+      <c r="J18" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="69" t="s">
+      <c r="M18" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="68" t="s">
+      <c r="N18" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="O15" s="68" t="s">
+      <c r="O18" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="68" t="s">
+      <c r="P18" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="68" t="s">
+      <c r="Q18" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="68" t="s">
+      <c r="R18" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="S15" s="68" t="s">
+      <c r="S18" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="T15" s="68" t="s">
+      <c r="T18" s="68" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+    <row r="19" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I19" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="80" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" s="70" t="s">
+      <c r="J19" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="70" t="s">
+      <c r="M19" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="70" t="s">
+      <c r="N19" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="70" t="s">
+      <c r="O19" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="70" t="s">
+      <c r="P19" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" s="70" t="s">
+      <c r="Q19" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="R16" s="70" t="s">
+      <c r="R19" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="S16" s="70" t="s">
+      <c r="S19" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="T16" s="70" t="s">
+      <c r="T19" s="70" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+    <row r="20" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="str">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="I17" s="8" t="str">
+      <c r="H20" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I20" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="L17" s="70" t="s">
+      <c r="J20" s="81"/>
+      <c r="L20" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="67" t="str">
-        <f>N18</f>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="67" t="str">
+        <f>N21</f>
         <v>MINCOA</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="67" t="str">
+      <c r="C21" s="1"/>
+      <c r="D21" s="67" t="str">
         <f>N5</f>
         <v>MANCOALMIN</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E21" s="1">
         <v>2022</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G21" s="49">
         <v>2673000</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H21" s="50">
         <v>4.5449999999999999</v>
       </c>
-      <c r="I18" s="92">
+      <c r="I21" s="92">
         <f>EBF!D5</f>
         <v>4518.7614720000001</v>
       </c>
-      <c r="J18" s="129">
+      <c r="J21" s="129">
         <v>8.76</v>
       </c>
-      <c r="L18" s="67" t="str">
+      <c r="L21" s="67" t="str">
         <f>EBF!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71" t="str">
-        <f>$L$18&amp;$C$2</f>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71" t="str">
+        <f>$L$21&amp;$C$2</f>
         <v>MINCOA</v>
       </c>
-      <c r="O18" s="73" t="str">
+      <c r="O21" s="73" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Coal </v>
       </c>
-      <c r="P18" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="67" t="str">
-        <f t="shared" ref="B19:B21" si="0">N19</f>
+      <c r="P21" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="67" t="str">
+        <f t="shared" ref="B22:B24" si="0">N22</f>
         <v>IMPCOA</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="67" t="str">
+      <c r="C22" s="1"/>
+      <c r="D22" s="67" t="str">
         <f>N6</f>
         <v>MANCOALIMP</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E22" s="1">
         <v>2022</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="64">
+      <c r="G22" s="63"/>
+      <c r="H22" s="64">
         <v>21.004999999999999</v>
       </c>
-      <c r="I19" s="93">
+      <c r="I22" s="93">
         <f>EBF!D6</f>
         <v>3157.9140017999998</v>
       </c>
-      <c r="J19" s="129">
+      <c r="J22" s="129">
         <v>8.76</v>
       </c>
-      <c r="L19" s="71" t="str">
+      <c r="L22" s="71" t="str">
         <f>EBF!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71" t="str">
-        <f>$L$19&amp;$C$2</f>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71" t="str">
+        <f>$L$22&amp;$C$2</f>
         <v>IMPCOA</v>
       </c>
-      <c r="O19" s="73" t="str">
+      <c r="O22" s="73" t="str">
         <f>"Import of "&amp;$D$2&amp;" "</f>
         <v xml:space="preserve">Import of Coal </v>
       </c>
-      <c r="P19" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="67" t="str">
+      <c r="P22" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="67" t="str">
         <f t="shared" si="0"/>
         <v>IMPOIL</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="67" t="str">
-        <f t="shared" ref="D20:D21" si="1">N7</f>
+      <c r="C23" s="1"/>
+      <c r="D23" s="67" t="str">
+        <f t="shared" ref="D23:D24" si="1">N7</f>
         <v>MANOILIMP</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E23" s="1">
         <v>2022</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H23" s="50">
         <v>29.234999999999999</v>
       </c>
-      <c r="I20" s="93">
+      <c r="I23" s="93">
         <f>EBF!E18</f>
         <v>2605.3284096000002</v>
       </c>
-      <c r="J20" s="129">
+      <c r="J23" s="129">
         <v>8.76</v>
       </c>
-      <c r="L20" t="str">
+      <c r="L23" t="str">
         <f>EBF!B6</f>
         <v>IMP</v>
       </c>
-      <c r="N20" s="71" t="str">
-        <f>$L$20&amp;$C$3</f>
+      <c r="N23" s="71" t="str">
+        <f>$L$23&amp;$C$3</f>
         <v>IMPOIL</v>
       </c>
-      <c r="O20" s="73" t="str">
+      <c r="O23" s="73" t="str">
         <f>"Import of "&amp;$D$3&amp;" "</f>
         <v xml:space="preserve">Import of Oil </v>
       </c>
-      <c r="P20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="67" t="str">
+      <c r="P23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="67" t="str">
         <f t="shared" si="0"/>
         <v>ELCELC</v>
       </c>
-      <c r="D21" s="67" t="str">
+      <c r="D24" s="67" t="str">
         <f t="shared" si="1"/>
-        <v>MANELC</v>
-      </c>
-      <c r="E21" s="1">
+        <v>ELC</v>
+      </c>
+      <c r="E24" s="1">
         <v>2022</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H24" s="50">
         <v>100</v>
       </c>
-      <c r="I21" s="93">
+      <c r="I24" s="93">
         <f>EBF!J18</f>
         <v>2861.7898970999995</v>
       </c>
-      <c r="J21" s="129">
+      <c r="J24" s="129">
         <v>8.76</v>
       </c>
-      <c r="L21" t="str">
+      <c r="L24" t="str">
         <f>EBF!B11</f>
         <v>ELC</v>
       </c>
-      <c r="N21" s="71" t="str">
-        <f>$L$21&amp;$C$4</f>
+      <c r="N24" s="71" t="str">
+        <f>$L$24&amp;$C$4</f>
         <v>ELCELC</v>
       </c>
-      <c r="O21" s="73" t="str">
-        <f>"Import of "&amp;$D$4&amp;" "</f>
-        <v xml:space="preserve">Import of Electricity </v>
-      </c>
-      <c r="P21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
-      <c r="C23" s="1" t="s">
+      <c r="O24" s="73" t="str">
+        <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
+        <v xml:space="preserve">Domestic Supply of Electricity </v>
+      </c>
+      <c r="P24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="129"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="73"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="129"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="73"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="67" t="str">
+        <f>N23</f>
+        <v>IMPOIL</v>
+      </c>
+      <c r="D27" s="67" t="str">
+        <f>N13</f>
+        <v>CONMDRIVE</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="H27" s="50">
+        <f>H23</f>
+        <v>29.234999999999999</v>
+      </c>
+      <c r="I27" s="93">
+        <f>EBF!E19</f>
+        <v>8782.1658503999988</v>
+      </c>
+      <c r="J27" s="129">
+        <v>8.76</v>
+      </c>
+      <c r="N27" s="71"/>
+      <c r="O27" s="73"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="67" t="str">
+        <f>N24</f>
+        <v>ELCELC</v>
+      </c>
+      <c r="D28" s="67" t="str">
+        <f>N14</f>
+        <v>CONELC</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="H28" s="50">
+        <f>H24</f>
+        <v>100</v>
+      </c>
+      <c r="I28" s="93">
+        <f>EBF!J19</f>
+        <v>150.62052090000017</v>
+      </c>
+      <c r="J28" s="129">
+        <v>8.76</v>
+      </c>
+      <c r="N28" s="71"/>
+      <c r="O28" s="73"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="49"/>
+      <c r="C30" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="48"/>
-      <c r="C24" s="1" t="s">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="48"/>
+      <c r="C31" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7779,10 +7965,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
-  <dimension ref="B1:X29"/>
+  <dimension ref="B1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7954,21 +8140,21 @@
       </c>
       <c r="Q5" s="96"/>
       <c r="R5" s="96" t="s">
+        <v>181</v>
+      </c>
+      <c r="S5" s="96" t="s">
+        <v>182</v>
+      </c>
+      <c r="T5" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="U5" s="96" t="s">
         <v>184</v>
-      </c>
-      <c r="S5" s="96" t="s">
-        <v>185</v>
-      </c>
-      <c r="T5" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="U5" s="96" t="s">
-        <v>187</v>
       </c>
       <c r="V5" s="96"/>
       <c r="W5" s="96"/>
       <c r="X5" s="96" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
@@ -7985,16 +8171,16 @@
       </c>
       <c r="Q6" s="96"/>
       <c r="R6" s="96" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="S6" s="96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="T6" s="96" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U6" s="96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="V6" s="96"/>
       <c r="W6" s="96"/>
@@ -8036,317 +8222,284 @@
       <c r="X8" s="96"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="P9" s="96"/>
+      <c r="P9" s="96" t="s">
+        <v>82</v>
+      </c>
       <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
+      <c r="R9" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="S9" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="T9" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="U9" s="96" t="s">
+        <v>184</v>
+      </c>
       <c r="V9" s="96"/>
       <c r="W9" s="96"/>
       <c r="X9" s="96"/>
     </row>
-    <row r="10" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H10" s="100" t="s">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P10" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="S10" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="T10" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="U10" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="96"/>
+    </row>
+    <row r="11" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H11" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="100"/>
-    </row>
-    <row r="11" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D11" s="3" t="s">
+      <c r="I11" s="100"/>
+    </row>
+    <row r="12" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="101">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="101">
         <v>0.2</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="95" t="s">
+      <c r="I12" s="101"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-    </row>
-    <row r="12" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="55" t="s">
+      <c r="Q12" s="95"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="96"/>
+    </row>
+    <row r="13" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C13" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D13" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E13" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="104" t="s">
+      <c r="F13" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G13" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="104" t="s">
+      <c r="H13" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I12" s="104" t="s">
+      <c r="I13" s="104" t="s">
+        <v>267</v>
+      </c>
+      <c r="J13" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="103" t="s">
+        <v>186</v>
+      </c>
+      <c r="M13" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="X13" s="97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="J12" s="103" t="s">
-        <v>109</v>
-      </c>
-      <c r="K12" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="L12" s="103" t="s">
+      <c r="G14" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="106" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="106" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="106" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="M14" s="107" t="s">
         <v>189</v>
       </c>
-      <c r="M12" s="105" t="s">
-        <v>190</v>
-      </c>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="S12" s="97" t="s">
-        <v>2</v>
-      </c>
-      <c r="T12" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="U12" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="V12" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="W12" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="X12" s="97" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="106" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="106" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="106" t="s">
-        <v>160</v>
-      </c>
-      <c r="I13" s="106" t="s">
-        <v>160</v>
-      </c>
-      <c r="J13" s="107" t="s">
-        <v>113</v>
-      </c>
-      <c r="K13" s="106" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" s="106" t="s">
-        <v>191</v>
-      </c>
-      <c r="M13" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="99" t="s">
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" s="99" t="s">
+      <c r="Q14" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="99" t="s">
+      <c r="R14" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="99" t="s">
+      <c r="S14" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="99" t="s">
+      <c r="T14" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="U13" s="99" t="s">
+      <c r="U14" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="V13" s="99" t="s">
+      <c r="V14" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="W13" s="99" t="s">
+      <c r="W14" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="X13" s="99" t="s">
+      <c r="X14" s="99" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="109" t="s">
+    <row r="15" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110" t="str">
-        <f>E2&amp;"a"</f>
-        <v>GWha</v>
-      </c>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="110" t="s">
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="L14" s="110"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="99" t="s">
+      <c r="L15" s="110"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="94" t="str">
-        <f>R$15</f>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="99"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="99"/>
+      <c r="X15" s="99"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="94" t="str">
+        <f>R$16</f>
         <v>Kiln</v>
       </c>
-      <c r="C15" s="94" t="str">
+      <c r="C16" s="94" t="str">
         <f>Sector_Fuels!N5</f>
         <v>MANCOALMIN</v>
       </c>
-      <c r="D15" s="94" t="str">
-        <f>Sector_Fuels!N9</f>
+      <c r="D16" s="94" t="str">
+        <f>Sector_Fuels!N10</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E15" s="117">
-        <f>EBF!D5/(DemTechs_INDF!G15*DemTechs_INDF!F28)</f>
-        <v>0.93789154669987551</v>
-      </c>
-      <c r="F15" s="113">
+      <c r="E16" s="117">
+        <f>EBF!D5/(DemTechs_INDF!G16*DemTechs_INDF!F29)*1000</f>
+        <v>937.89154669987556</v>
+      </c>
+      <c r="F16" s="113">
         <v>0.44</v>
-      </c>
-      <c r="G15" s="114">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H15" s="115">
-        <f>1-H16-H17</f>
-        <v>0.502</v>
-      </c>
-      <c r="I15" s="115">
-        <f>1-I16-I17</f>
-        <v>0.65159999999999996</v>
-      </c>
-      <c r="J15" s="114">
-        <v>0.9</v>
-      </c>
-      <c r="K15" s="116">
-        <v>25</v>
-      </c>
-      <c r="L15" s="116">
-        <v>144094</v>
-      </c>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="R15" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="S15" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="T15" s="96" t="str">
-        <f>$E$2</f>
-        <v>GWh</v>
-      </c>
-      <c r="U15" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="94" t="str">
-        <f>R$15</f>
-        <v>Kiln</v>
-      </c>
-      <c r="C16" s="94" t="str">
-        <f>Sector_Fuels!N6</f>
-        <v>MANCOALIMP</v>
-      </c>
-      <c r="D16" s="94" t="str">
-        <f>Sector_Fuels!N9</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="E16" s="117">
-        <f>EBF!D6/(DemTechs_INDF!G16*DemTechs_INDF!F28)</f>
-        <v>0.65544084719800744</v>
-      </c>
-      <c r="F16" s="113">
-        <v>0.31</v>
       </c>
       <c r="G16" s="114">
         <v>0.55000000000000004</v>
       </c>
       <c r="H16" s="115">
-        <f>IF(F16=0,20%,F16*(1-H11))</f>
-        <v>0.248</v>
+        <f>1-H17-H18</f>
+        <v>0.55159999999999998</v>
       </c>
       <c r="I16" s="115">
-        <f>IF(H16=0,20%,H16*(1-H11))</f>
-        <v>0.19840000000000002</v>
+        <f>1-I17-I18</f>
+        <v>0.59128000000000003</v>
       </c>
       <c r="J16" s="114">
         <v>0.9</v>
       </c>
-      <c r="K16" s="116">
-        <v>25</v>
+      <c r="K16" s="144">
+        <v>30</v>
       </c>
       <c r="L16" s="116">
         <v>144094</v>
@@ -8358,181 +8511,299 @@
         <v>115</v>
       </c>
       <c r="R16" s="94" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="S16" s="94" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="T16" s="96" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
       <c r="U16" s="96" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V16" s="96"/>
       <c r="W16" s="96"/>
       <c r="X16" s="96"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="94" t="str">
         <f>R$16</f>
+        <v>Kiln</v>
+      </c>
+      <c r="C17" s="94" t="str">
+        <f>Sector_Fuels!N6</f>
+        <v>MANCOALIMP</v>
+      </c>
+      <c r="D17" s="94" t="str">
+        <f>Sector_Fuels!N10</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E17" s="117">
+        <f>EBF!D6/(DemTechs_INDF!G17*DemTechs_INDF!F29)*1000</f>
+        <v>655.44084719800742</v>
+      </c>
+      <c r="F17" s="113">
+        <v>0.31</v>
+      </c>
+      <c r="G17" s="114">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H17" s="115">
+        <f>IF(F$17=0,20%,F$17*(1-H$12)^2)</f>
+        <v>0.19840000000000005</v>
+      </c>
+      <c r="I17" s="115">
+        <f>IF(F$17=0,20%,F$17*(1-H$12)^3)</f>
+        <v>0.15872000000000003</v>
+      </c>
+      <c r="J17" s="114">
+        <v>0.9</v>
+      </c>
+      <c r="K17" s="144">
+        <v>30</v>
+      </c>
+      <c r="L17" s="116">
+        <v>144094</v>
+      </c>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="R17" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="S17" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="T17" s="96" t="str">
+        <f>$E$2</f>
+        <v>GWh</v>
+      </c>
+      <c r="U17" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="94" t="str">
+        <f>R$17</f>
         <v>Boiler</v>
       </c>
-      <c r="C17" s="94" t="str">
+      <c r="C18" s="94" t="str">
         <f>Sector_Fuels!N7</f>
         <v>MANOILIMP</v>
       </c>
-      <c r="D17" s="94" t="str">
-        <f>Sector_Fuels!N9</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="E17" s="117">
-        <f>EBF!E18/(DemTechs_INDF!G17*DemTechs_INDF!F28)</f>
-        <v>0.39654922520547947</v>
-      </c>
-      <c r="F17" s="113">
-        <v>0.25</v>
-      </c>
-      <c r="G17" s="114">
-        <v>0.75</v>
-      </c>
-      <c r="H17" s="115">
-        <f>IF(F17=0,20%,F17*(1))</f>
-        <v>0.25</v>
-      </c>
-      <c r="I17" s="115">
-        <f>IF(F17=0,20%,F17*(1-2*H11))</f>
-        <v>0.15</v>
-      </c>
-      <c r="J17" s="117">
-        <v>0.9</v>
-      </c>
-      <c r="K17" s="116">
-        <v>30</v>
-      </c>
-      <c r="L17" s="116">
-        <v>60000</v>
-      </c>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="P17" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="R17" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="S17" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="T17" s="96" t="str">
-        <f t="shared" ref="T17" si="0">$E$2</f>
-        <v>GWh</v>
-      </c>
-      <c r="U17" s="96" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="94" t="str">
-        <f>R$17</f>
-        <v>Electricity</v>
-      </c>
-      <c r="C18" s="94" t="str">
-        <f>Sector_Fuels!N8</f>
-        <v>MANELC</v>
-      </c>
       <c r="D18" s="94" t="str">
         <f>Sector_Fuels!N10</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E18" s="117">
+        <f>EBF!E18/(DemTechs_INDF!G18*DemTechs_INDF!F29)*1000</f>
+        <v>396.54922520547944</v>
+      </c>
+      <c r="F18" s="113">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="114">
+        <v>0.75</v>
+      </c>
+      <c r="H18" s="115">
+        <f>IF(F$18=0,20%,F$18*(1))</f>
+        <v>0.25</v>
+      </c>
+      <c r="I18" s="115">
+        <f>IF(F$18=0,20%,F$18*(1))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J18" s="117">
+        <v>0.9</v>
+      </c>
+      <c r="K18" s="116">
+        <v>30</v>
+      </c>
+      <c r="L18" s="116">
+        <v>60000</v>
+      </c>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="P18" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="R18" s="94" t="s">
+        <v>268</v>
+      </c>
+      <c r="S18" s="94" t="s">
+        <v>269</v>
+      </c>
+      <c r="T18" s="96" t="str">
+        <f t="shared" ref="T18" si="0">$E$2</f>
+        <v>GWh</v>
+      </c>
+      <c r="U18" s="96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="94" t="str">
+        <f>R$18</f>
+        <v>MACHIND</v>
+      </c>
+      <c r="C19" s="94" t="str">
+        <f>Sector_Fuels!N8</f>
+        <v>ELC</v>
+      </c>
+      <c r="D19" s="94" t="str">
+        <f>Sector_Fuels!N11</f>
         <v>MANELC</v>
       </c>
-      <c r="E18" s="117">
-        <f>EBF!K18/(DemTechs_INDF!G18*DemTechs_INDF!F28)</f>
-        <v>1.5004519805136987</v>
-      </c>
-      <c r="F18" s="124">
+      <c r="E19" s="117">
+        <f>EBF!K18/(DemTechs_INDF!G19*DemTechs_INDF!F29)*1000</f>
+        <v>1500.4519805136986</v>
+      </c>
+      <c r="F19" s="124">
         <v>1</v>
       </c>
-      <c r="G18" s="123">
+      <c r="G19" s="123">
         <v>1</v>
       </c>
-      <c r="H18" s="125">
+      <c r="H19" s="125">
         <v>1</v>
       </c>
-      <c r="I18" s="126">
+      <c r="I19" s="126">
         <v>1</v>
       </c>
-      <c r="J18" s="123">
+      <c r="J19" s="123">
         <v>1</v>
       </c>
-      <c r="K18" s="123">
+      <c r="K19" s="123">
         <v>50</v>
       </c>
-      <c r="P18" s="94"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="F21" s="119"/>
       <c r="H21" s="119"/>
       <c r="I21" s="119"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G22" s="21"/>
-      <c r="J22" s="120"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="94" t="str">
+        <f>Sector_Fuels!N13</f>
+        <v>CONMDRIVE</v>
+      </c>
+      <c r="D22" s="94" t="str">
+        <f>Sector_Fuels!N13</f>
+        <v>CONMDRIVE</v>
+      </c>
+      <c r="F22" s="119">
+        <v>1</v>
+      </c>
+      <c r="G22" s="94">
+        <v>1</v>
+      </c>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="P22" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="S22" s="123" t="s">
+        <v>257</v>
+      </c>
+      <c r="T22" s="127" t="s">
+        <v>169</v>
+      </c>
+      <c r="U22" s="127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="94" t="str">
+        <f>Sector_Fuels!N14</f>
+        <v>CONELC</v>
+      </c>
+      <c r="D23" s="94" t="str">
+        <f>Sector_Fuels!N14</f>
+        <v>CONELC</v>
+      </c>
+      <c r="F23" s="119">
+        <v>1</v>
+      </c>
+      <c r="G23" s="21">
+        <v>1</v>
+      </c>
       <c r="J23" s="120"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="116"/>
-      <c r="C24" s="94" t="s">
+      <c r="P23" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="R23" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="S23" s="94" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J24" s="120"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="116"/>
+      <c r="C25" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="J24" s="120"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="121"/>
-      <c r="C25" s="94" t="s">
+      <c r="J25" s="120"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" s="121"/>
+      <c r="C26" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="J25" s="120"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E26" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="F26" s="94" t="s">
-        <v>254</v>
-      </c>
       <c r="J26" s="120"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E28" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="F28" s="94">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E27" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="F27" s="94" t="s">
+        <v>251</v>
+      </c>
+      <c r="J27" s="120"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E29" s="94" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="94">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E29" s="21"/>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E30" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8540,14 +8811,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:K59"/>
   <sheetViews>
-    <sheetView zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A13" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -8591,13 +8865,13 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="130" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C6" s="130" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="130" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E6" s="130">
         <v>2022</v>
@@ -8609,42 +8883,42 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="133" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="133" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D7" s="133" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E7" s="133" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F7" s="138"/>
       <c r="G7" s="138"/>
       <c r="H7" s="130" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I7" s="130" t="s">
         <v>0</v>
       </c>
       <c r="J7" s="130" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K7" s="130">
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="132" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="132"/>
       <c r="D8" s="132"/>
       <c r="E8" s="132" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F8" s="138"/>
       <c r="G8" s="138"/>
@@ -8652,14 +8926,14 @@
         <v>81</v>
       </c>
       <c r="I8" s="140" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J8" s="140"/>
       <c r="K8" s="140"/>
     </row>
     <row r="9" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="134" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C9" s="134" t="str">
         <f>DemTechs_INDF!R5</f>
@@ -8682,7 +8956,7 @@
     </row>
     <row r="10" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="134" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C10" s="134" t="str">
         <f>DemTechs_INDF!R6</f>
@@ -8696,14 +8970,14 @@
         <v>2605.3284096000002</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J10" s="94" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K10" s="141">
         <v>0.75</v>
@@ -8716,14 +8990,14 @@
       <c r="E11" s="47"/>
       <c r="G11" s="5"/>
       <c r="H11" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J11" s="94" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K11" s="141">
         <v>0.25</v>
@@ -8733,45 +9007,72 @@
       <c r="B12" s="1"/>
       <c r="E12" s="21"/>
       <c r="H12" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J12" s="94" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K12" s="141">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
+      <c r="B13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" t="str">
+        <f>DemTechs_INDF!R9</f>
+        <v>CONELC</v>
+      </c>
+      <c r="D13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="5">
+        <f>EBF!J19</f>
+        <v>150.62052090000017</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J13" s="142" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K13" s="143">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" t="str">
+        <f>DemTechs_INDF!R10</f>
+        <v>CONOILIMP</v>
+      </c>
+      <c r="D14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="5">
+        <f>EBF!E19</f>
+        <v>8782.1658503999988</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K14" s="141">
         <v>1.0416666666666666E-2</v>
@@ -8780,14 +9081,14 @@
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
       <c r="H15" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K15" s="141">
         <v>1.0416666666666666E-2</v>
@@ -8795,14 +9096,14 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H16" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K16" s="141">
         <v>1.0416666666666666E-2</v>
@@ -8810,14 +9111,14 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H17" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I17" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K17" s="143">
         <v>1.0416666666666666E-2</v>
@@ -8825,14 +9126,14 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H18" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I18" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K18" s="141">
         <v>1.0416666666666666E-2</v>
@@ -8840,14 +9141,14 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H19" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K19" s="141">
         <v>1.0416666666666666E-2</v>
@@ -8855,14 +9156,14 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H20" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I20" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K20" s="141">
         <v>1.0416666666666666E-2</v>
@@ -8874,14 +9175,14 @@
         <v>99</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K21" s="143">
         <v>1.0416666666666666E-2</v>
@@ -8893,14 +9194,14 @@
         <v>100</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I22" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K22" s="141">
         <v>1.0416666666666666E-2</v>
@@ -8908,14 +9209,14 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H23" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I23" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K23" s="141">
         <v>1.0416666666666666E-2</v>
@@ -8923,14 +9224,14 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H24" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K24" s="141">
         <v>1.0416666666666666E-2</v>
@@ -8938,14 +9239,14 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H25" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K25" s="143">
         <v>1.0416666666666666E-2</v>
@@ -8953,14 +9254,14 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H26" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I26" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K26" s="141">
         <v>1.0416666666666666E-2</v>
@@ -8968,14 +9269,14 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H27" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I27" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K27" s="141">
         <v>1.0416666666666666E-2</v>
@@ -8983,14 +9284,14 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H28" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I28" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K28" s="141">
         <v>1.0416666666666666E-2</v>
@@ -8998,14 +9299,14 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H29" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I29" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K29" s="143">
         <v>1.0416666666666666E-2</v>
@@ -9013,14 +9314,14 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H30" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I30" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J30" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K30" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9028,14 +9329,14 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H31" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I31" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K31" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9043,14 +9344,14 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H32" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I32" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K32" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9058,14 +9359,14 @@
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H33" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I33" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K33" s="143">
         <v>1.0416666666666666E-2</v>
@@ -9073,14 +9374,14 @@
     </row>
     <row r="34" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H34" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I34" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K34" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9088,14 +9389,14 @@
     </row>
     <row r="35" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H35" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I35" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K35" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9103,14 +9404,14 @@
     </row>
     <row r="36" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H36" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I36" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K36" s="141">
         <v>3.125E-2</v>
@@ -9118,14 +9419,14 @@
     </row>
     <row r="37" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H37" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I37" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K37" s="143">
         <v>3.125E-2</v>
@@ -9133,14 +9434,14 @@
     </row>
     <row r="38" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H38" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I38" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K38" s="141">
         <v>3.125E-2</v>
@@ -9148,14 +9449,14 @@
     </row>
     <row r="39" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H39" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I39" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K39" s="141">
         <v>3.125E-2</v>
@@ -9163,14 +9464,14 @@
     </row>
     <row r="40" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H40" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I40" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J40" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K40" s="141">
         <v>3.125E-2</v>
@@ -9178,14 +9479,14 @@
     </row>
     <row r="41" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H41" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I41" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K41" s="143">
         <v>3.125E-2</v>
@@ -9193,14 +9494,14 @@
     </row>
     <row r="42" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H42" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I42" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K42" s="141">
         <v>3.125E-2</v>
@@ -9208,14 +9509,14 @@
     </row>
     <row r="43" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H43" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I43" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J43" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K43" s="141">
         <v>3.125E-2</v>
@@ -9223,14 +9524,14 @@
     </row>
     <row r="44" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H44" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I44" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J44" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K44" s="141">
         <v>3.125E-2</v>
@@ -9238,14 +9539,14 @@
     </row>
     <row r="45" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H45" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I45" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J45" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K45" s="143">
         <v>3.125E-2</v>
@@ -9253,14 +9554,14 @@
     </row>
     <row r="46" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H46" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I46" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K46" s="141">
         <v>3.125E-2</v>
@@ -9268,14 +9569,14 @@
     </row>
     <row r="47" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H47" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I47" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J47" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K47" s="141">
         <v>3.125E-2</v>
@@ -9283,14 +9584,14 @@
     </row>
     <row r="48" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H48" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I48" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J48" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K48" s="141">
         <v>3.125E-2</v>
@@ -9298,14 +9599,14 @@
     </row>
     <row r="49" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H49" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I49" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K49" s="143">
         <v>3.125E-2</v>
@@ -9313,14 +9614,14 @@
     </row>
     <row r="50" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H50" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I50" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J50" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K50" s="141">
         <v>3.125E-2</v>
@@ -9328,14 +9629,14 @@
     </row>
     <row r="51" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H51" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I51" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J51" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K51" s="141">
         <v>3.125E-2</v>
@@ -9343,14 +9644,14 @@
     </row>
     <row r="52" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H52" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I52" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J52" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K52" s="141">
         <v>3.125E-2</v>
@@ -9358,14 +9659,14 @@
     </row>
     <row r="53" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H53" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I53" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J53" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K53" s="143">
         <v>3.125E-2</v>
@@ -9373,14 +9674,14 @@
     </row>
     <row r="54" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H54" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I54" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J54" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K54" s="141">
         <v>3.125E-2</v>
@@ -9388,14 +9689,14 @@
     </row>
     <row r="55" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H55" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I55" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J55" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K55" s="141">
         <v>3.125E-2</v>
@@ -9403,14 +9704,14 @@
     </row>
     <row r="56" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H56" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I56" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J56" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K56" s="141">
         <v>3.125E-2</v>
@@ -9418,14 +9719,14 @@
     </row>
     <row r="57" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H57" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I57" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J57" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K57" s="143">
         <v>3.125E-2</v>
@@ -9433,14 +9734,14 @@
     </row>
     <row r="58" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H58" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I58" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J58" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K58" s="141">
         <v>3.125E-2</v>
@@ -9448,14 +9749,14 @@
     </row>
     <row r="59" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H59" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I59" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K59" s="141">
         <v>3.125E-2</v>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17DA5FF-C5EE-43DA-A0C2-E61A5E334F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFA99E4-C962-4CD9-A28A-2FC5C468482D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="269">
   <si>
     <t>CommName</t>
   </si>
@@ -2091,9 +2091,6 @@
     <t>MANELC</t>
   </si>
   <si>
-    <t>Manufacturing electricity -domestic</t>
-  </si>
-  <si>
     <t>Manufacturing coal-domestic</t>
   </si>
   <si>
@@ -2367,10 +2364,10 @@
     <t>Share-I~2052~UP</t>
   </si>
   <si>
-    <t>MACHIND</t>
-  </si>
-  <si>
-    <t>Electricity to drive manufacturing machines</t>
+    <t>RNW</t>
+  </si>
+  <si>
+    <t>Renewable based electricity-domestic</t>
   </si>
 </sst>
 </file>
@@ -4894,7 +4891,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>127</v>
@@ -5935,7 +5932,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>127</v>
@@ -7101,8 +7098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="A7" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7220,7 +7217,7 @@
     </row>
     <row r="4" spans="2:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>267</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>85</v>
@@ -7272,18 +7269,18 @@
         <v>153</v>
       </c>
       <c r="O5" s="67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P5" s="67" t="s">
         <v>169</v>
       </c>
       <c r="Q5" s="67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R5" s="67"/>
       <c r="S5" s="67"/>
       <c r="T5" s="67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -7297,18 +7294,18 @@
         <v>154</v>
       </c>
       <c r="O6" s="67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P6" s="67" t="s">
         <v>169</v>
       </c>
       <c r="Q6" s="67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R6" s="67"/>
       <c r="S6" s="67"/>
       <c r="T6" s="67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -7332,18 +7329,18 @@
         <v>174</v>
       </c>
       <c r="O7" s="67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P7" s="67" t="s">
         <v>169</v>
       </c>
       <c r="Q7" s="67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R7" s="67"/>
       <c r="S7" s="67"/>
       <c r="T7" s="67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -7352,16 +7349,16 @@
       </c>
       <c r="M8" s="71"/>
       <c r="N8" s="67" t="s">
-        <v>46</v>
+        <v>267</v>
       </c>
       <c r="O8" s="67" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="P8" s="67" t="s">
         <v>169</v>
       </c>
       <c r="Q8" s="67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R8" s="67"/>
       <c r="S8" s="67"/>
@@ -7375,21 +7372,21 @@
       </c>
       <c r="M10" s="71"/>
       <c r="N10" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O10" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P10" s="67" t="s">
         <v>169</v>
       </c>
       <c r="Q10" s="67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R10" s="67"/>
       <c r="S10" s="67"/>
       <c r="T10" s="67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -7401,13 +7398,13 @@
         <v>175</v>
       </c>
       <c r="O11" s="67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P11" s="67" t="s">
         <v>169</v>
       </c>
       <c r="Q11" s="67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R11" s="67"/>
       <c r="S11" s="67"/>
@@ -7421,16 +7418,16 @@
       </c>
       <c r="M12" s="71"/>
       <c r="N12" s="67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O12" s="67" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P12" s="67" t="s">
         <v>169</v>
       </c>
       <c r="Q12" s="67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R12" s="67"/>
       <c r="S12" s="67"/>
@@ -7442,16 +7439,16 @@
       </c>
       <c r="M13" s="71"/>
       <c r="N13" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="O13" s="67" t="s">
         <v>260</v>
-      </c>
-      <c r="O13" s="67" t="s">
-        <v>261</v>
       </c>
       <c r="P13" s="67" t="s">
         <v>169</v>
       </c>
       <c r="Q13" s="67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R13" s="67"/>
       <c r="S13" s="67"/>
@@ -7463,16 +7460,16 @@
       </c>
       <c r="M14" s="71"/>
       <c r="N14" s="67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O14" s="67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P14" s="67" t="s">
         <v>169</v>
       </c>
       <c r="Q14" s="67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R14" s="67"/>
       <c r="S14" s="67"/>
@@ -7637,7 +7634,7 @@
         <v>GWh</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I20" s="8" t="str">
         <f>$E$2</f>
@@ -7799,11 +7796,11 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>ELCELC</v>
+        <v>ELCRNW</v>
       </c>
       <c r="D24" s="67" t="str">
         <f t="shared" si="1"/>
-        <v>ELC</v>
+        <v>RNW</v>
       </c>
       <c r="E24" s="1">
         <v>2022</v>
@@ -7827,7 +7824,7 @@
       </c>
       <c r="N24" s="71" t="str">
         <f>$L$24&amp;$C$4</f>
-        <v>ELCELC</v>
+        <v>ELCRNW</v>
       </c>
       <c r="O24" s="73" t="str">
         <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
@@ -7889,7 +7886,7 @@
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="67" t="str">
         <f>N24</f>
-        <v>ELCELC</v>
+        <v>ELCRNW</v>
       </c>
       <c r="D28" s="67" t="str">
         <f>N14</f>
@@ -7968,7 +7965,7 @@
   <dimension ref="B1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8140,21 +8137,21 @@
       </c>
       <c r="Q5" s="96"/>
       <c r="R5" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="S5" s="96" t="s">
         <v>181</v>
-      </c>
-      <c r="S5" s="96" t="s">
-        <v>182</v>
       </c>
       <c r="T5" s="96" t="s">
         <v>169</v>
       </c>
       <c r="U5" s="96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V5" s="96"/>
       <c r="W5" s="96"/>
       <c r="X5" s="96" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
@@ -8174,13 +8171,13 @@
         <v>175</v>
       </c>
       <c r="S6" s="96" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T6" s="96" t="s">
         <v>169</v>
       </c>
       <c r="U6" s="96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V6" s="96"/>
       <c r="W6" s="96"/>
@@ -8227,16 +8224,16 @@
       </c>
       <c r="Q9" s="96"/>
       <c r="R9" s="96" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S9" s="96" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T9" s="96" t="s">
         <v>169</v>
       </c>
       <c r="U9" s="96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V9" s="96"/>
       <c r="W9" s="96"/>
@@ -8248,16 +8245,16 @@
       </c>
       <c r="Q10" s="96"/>
       <c r="R10" s="96" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S10" s="96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T10" s="96" t="s">
         <v>169</v>
       </c>
       <c r="U10" s="96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V10" s="96"/>
       <c r="W10" s="96"/>
@@ -8320,7 +8317,7 @@
         <v>158</v>
       </c>
       <c r="I13" s="104" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J13" s="103" t="s">
         <v>109</v>
@@ -8329,10 +8326,10 @@
         <v>110</v>
       </c>
       <c r="L13" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="M13" s="105" t="s">
         <v>186</v>
-      </c>
-      <c r="M13" s="105" t="s">
-        <v>187</v>
       </c>
       <c r="N13" s="105"/>
       <c r="O13" s="105"/>
@@ -8396,10 +8393,10 @@
         <v>121</v>
       </c>
       <c r="L14" s="106" t="s">
+        <v>187</v>
+      </c>
+      <c r="M14" s="107" t="s">
         <v>188</v>
-      </c>
-      <c r="M14" s="107" t="s">
-        <v>189</v>
       </c>
       <c r="N14" s="108"/>
       <c r="O14" s="108"/>
@@ -8438,7 +8435,7 @@
       <c r="C15" s="109"/>
       <c r="D15" s="109"/>
       <c r="E15" s="110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F15" s="110"/>
       <c r="G15" s="110"/>
@@ -8514,7 +8511,7 @@
         <v>160</v>
       </c>
       <c r="S16" s="94" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T16" s="96" t="str">
         <f>$E$2</f>
@@ -8636,10 +8633,10 @@
         <v>115</v>
       </c>
       <c r="R18" s="94" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="S18" s="94" t="s">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c r="T18" s="96" t="str">
         <f t="shared" ref="T18" si="0">$E$2</f>
@@ -8652,11 +8649,11 @@
     <row r="19" spans="2:24" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="94" t="str">
         <f>R$18</f>
-        <v>MACHIND</v>
+        <v>ELC</v>
       </c>
       <c r="C19" s="94" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>ELC</v>
+        <v>RNW</v>
       </c>
       <c r="D19" s="94" t="str">
         <f>Sector_Fuels!N11</f>
@@ -8697,7 +8694,7 @@
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C22" s="94" t="str">
         <f>Sector_Fuels!N13</f>
@@ -8720,10 +8717,10 @@
       </c>
       <c r="Q22" s="123"/>
       <c r="R22" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="S22" s="123" t="s">
         <v>256</v>
-      </c>
-      <c r="S22" s="123" t="s">
-        <v>257</v>
       </c>
       <c r="T22" s="127" t="s">
         <v>169</v>
@@ -8758,7 +8755,7 @@
         <v>85</v>
       </c>
       <c r="S23" s="94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
@@ -8780,16 +8777,16 @@
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E27" s="94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F27" s="94" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J27" s="120"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E29" s="94" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F29" s="94">
         <f>24*365</f>
@@ -8865,13 +8862,13 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="130" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="130" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="130" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="130">
         <v>2022</v>
@@ -8888,24 +8885,24 @@
         <v>81</v>
       </c>
       <c r="C7" s="133" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="133" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="133" t="s">
+      <c r="E7" s="133" t="s">
         <v>193</v>
-      </c>
-      <c r="E7" s="133" t="s">
-        <v>194</v>
       </c>
       <c r="F7" s="138"/>
       <c r="G7" s="138"/>
       <c r="H7" s="130" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="130" t="s">
         <v>0</v>
       </c>
       <c r="J7" s="130" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K7" s="130">
         <v>2022</v>
@@ -8926,14 +8923,14 @@
         <v>81</v>
       </c>
       <c r="I8" s="140" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J8" s="140"/>
       <c r="K8" s="140"/>
     </row>
     <row r="9" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="134" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="134" t="str">
         <f>DemTechs_INDF!R5</f>
@@ -8956,7 +8953,7 @@
     </row>
     <row r="10" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="134" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="134" t="str">
         <f>DemTechs_INDF!R6</f>
@@ -8970,14 +8967,14 @@
         <v>2605.3284096000002</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J10" s="94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K10" s="141">
         <v>0.75</v>
@@ -8990,14 +8987,14 @@
       <c r="E11" s="47"/>
       <c r="G11" s="5"/>
       <c r="H11" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J11" s="94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K11" s="141">
         <v>0.25</v>
@@ -9007,14 +9004,14 @@
       <c r="B12" s="1"/>
       <c r="E12" s="21"/>
       <c r="H12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J12" s="94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K12" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9022,7 +9019,7 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" t="str">
         <f>DemTechs_INDF!R9</f>
@@ -9036,14 +9033,14 @@
         <v>150.62052090000017</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J13" s="142" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K13" s="143">
         <v>1.0416666666666666E-2</v>
@@ -9051,7 +9048,7 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" t="str">
         <f>DemTechs_INDF!R10</f>
@@ -9065,14 +9062,14 @@
         <v>8782.1658503999988</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9081,14 +9078,14 @@
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
       <c r="H15" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K15" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9096,14 +9093,14 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K16" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9111,14 +9108,14 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H17" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I17" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K17" s="143">
         <v>1.0416666666666666E-2</v>
@@ -9126,14 +9123,14 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H18" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I18" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K18" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9141,14 +9138,14 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H19" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K19" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9156,14 +9153,14 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H20" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I20" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K20" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9175,14 +9172,14 @@
         <v>99</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K21" s="143">
         <v>1.0416666666666666E-2</v>
@@ -9194,14 +9191,14 @@
         <v>100</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I22" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K22" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9209,14 +9206,14 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H23" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I23" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K23" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9224,14 +9221,14 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H24" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K24" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9239,14 +9236,14 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H25" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K25" s="143">
         <v>1.0416666666666666E-2</v>
@@ -9254,14 +9251,14 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H26" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I26" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K26" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9269,14 +9266,14 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H27" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I27" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K27" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9284,14 +9281,14 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I28" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K28" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9299,14 +9296,14 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H29" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I29" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K29" s="143">
         <v>1.0416666666666666E-2</v>
@@ -9314,14 +9311,14 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H30" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I30" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K30" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9329,14 +9326,14 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H31" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I31" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K31" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9344,14 +9341,14 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H32" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I32" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K32" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9359,14 +9356,14 @@
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H33" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I33" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K33" s="143">
         <v>1.0416666666666666E-2</v>
@@ -9374,14 +9371,14 @@
     </row>
     <row r="34" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H34" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I34" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K34" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9389,14 +9386,14 @@
     </row>
     <row r="35" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H35" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I35" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K35" s="141">
         <v>1.0416666666666666E-2</v>
@@ -9404,14 +9401,14 @@
     </row>
     <row r="36" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H36" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I36" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K36" s="141">
         <v>3.125E-2</v>
@@ -9419,14 +9416,14 @@
     </row>
     <row r="37" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H37" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I37" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K37" s="143">
         <v>3.125E-2</v>
@@ -9434,14 +9431,14 @@
     </row>
     <row r="38" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H38" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I38" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K38" s="141">
         <v>3.125E-2</v>
@@ -9449,14 +9446,14 @@
     </row>
     <row r="39" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H39" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I39" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K39" s="141">
         <v>3.125E-2</v>
@@ -9464,14 +9461,14 @@
     </row>
     <row r="40" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H40" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I40" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K40" s="141">
         <v>3.125E-2</v>
@@ -9479,14 +9476,14 @@
     </row>
     <row r="41" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H41" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I41" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K41" s="143">
         <v>3.125E-2</v>
@@ -9494,14 +9491,14 @@
     </row>
     <row r="42" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H42" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I42" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K42" s="141">
         <v>3.125E-2</v>
@@ -9509,14 +9506,14 @@
     </row>
     <row r="43" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H43" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I43" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K43" s="141">
         <v>3.125E-2</v>
@@ -9524,14 +9521,14 @@
     </row>
     <row r="44" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H44" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I44" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K44" s="141">
         <v>3.125E-2</v>
@@ -9539,14 +9536,14 @@
     </row>
     <row r="45" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H45" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I45" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K45" s="143">
         <v>3.125E-2</v>
@@ -9554,14 +9551,14 @@
     </row>
     <row r="46" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H46" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I46" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K46" s="141">
         <v>3.125E-2</v>
@@ -9569,14 +9566,14 @@
     </row>
     <row r="47" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H47" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I47" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K47" s="141">
         <v>3.125E-2</v>
@@ -9584,14 +9581,14 @@
     </row>
     <row r="48" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H48" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I48" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K48" s="141">
         <v>3.125E-2</v>
@@ -9599,14 +9596,14 @@
     </row>
     <row r="49" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H49" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I49" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K49" s="143">
         <v>3.125E-2</v>
@@ -9614,14 +9611,14 @@
     </row>
     <row r="50" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H50" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I50" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K50" s="141">
         <v>3.125E-2</v>
@@ -9629,14 +9626,14 @@
     </row>
     <row r="51" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H51" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I51" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K51" s="141">
         <v>3.125E-2</v>
@@ -9644,14 +9641,14 @@
     </row>
     <row r="52" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H52" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I52" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K52" s="141">
         <v>3.125E-2</v>
@@ -9659,14 +9656,14 @@
     </row>
     <row r="53" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H53" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I53" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K53" s="143">
         <v>3.125E-2</v>
@@ -9674,14 +9671,14 @@
     </row>
     <row r="54" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H54" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I54" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K54" s="141">
         <v>3.125E-2</v>
@@ -9689,14 +9686,14 @@
     </row>
     <row r="55" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H55" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I55" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K55" s="141">
         <v>3.125E-2</v>
@@ -9704,14 +9701,14 @@
     </row>
     <row r="56" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H56" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I56" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K56" s="141">
         <v>3.125E-2</v>
@@ -9719,14 +9716,14 @@
     </row>
     <row r="57" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H57" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I57" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K57" s="143">
         <v>3.125E-2</v>
@@ -9734,14 +9731,14 @@
     </row>
     <row r="58" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H58" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I58" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K58" s="141">
         <v>3.125E-2</v>
@@ -9749,14 +9746,14 @@
     </row>
     <row r="59" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H59" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I59" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
       <c r="J59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K59" s="141">
         <v>3.125E-2</v>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFA99E4-C962-4CD9-A28A-2FC5C468482D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB25A68-36E9-436C-B67F-AE8B069CEC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="288" windowWidth="23232" windowHeight="12576" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Sector_Fuels" sheetId="137" r:id="rId4"/>
     <sheet name="DemTechs_INDF" sheetId="143" r:id="rId5"/>
     <sheet name="Demands" sheetId="145" r:id="rId6"/>
+    <sheet name="Emi" sheetId="146" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -1561,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="273">
   <si>
     <t>CommName</t>
   </si>
@@ -2368,6 +2369,18 @@
   </si>
   <si>
     <t>Renewable based electricity-domestic</t>
+  </si>
+  <si>
+    <t>Dynamic coefficients for combustion emissions in transport</t>
+  </si>
+  <si>
+    <t>~COMEMI</t>
+  </si>
+  <si>
+    <t>kt/GWh</t>
+  </si>
+  <si>
+    <t>GRID</t>
   </si>
 </sst>
 </file>
@@ -2379,10 +2392,17 @@
     <numFmt numFmtId="165" formatCode="General_)"/>
     <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2549,8 +2569,14 @@
       <sz val="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2645,6 +2671,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2874,331 +2906,349 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="6" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="7" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="6" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="7" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="18" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="19" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="17" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="16" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="6" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="17" fillId="6" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="23" fillId="13" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="24" fillId="13" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="3" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="9" fontId="17" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="9" fontId="18" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="15" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="13" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="23" fillId="13" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="8" fillId="15" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="13" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="24" fillId="13" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="9" fontId="7" fillId="17" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="23" fillId="17" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="7" fillId="17" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="17" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="17" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="24" fillId="17" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="17" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="8" fillId="17" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="7" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="7" fillId="15" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="15" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="8" borderId="10" xfId="7" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="8" borderId="10" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="34">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="20% - Accent5 2" xfId="21" xr:uid="{E1B1E490-7605-42BA-88C1-54B79AE47809}"/>
     <cellStyle name="20% - Accent5 2 2" xfId="31" xr:uid="{9A77BCA1-6431-4844-B2C6-C94657613BD6}"/>
     <cellStyle name="20% - Accent5 3" xfId="23" xr:uid="{DA259BB9-02EC-43FA-87ED-DF1C9674376E}"/>
     <cellStyle name="20% - Accent5 3 2" xfId="32" xr:uid="{11218C35-6A74-4BF8-9F7B-075BB6A7712F}"/>
     <cellStyle name="20% - Accent5 4" xfId="26" xr:uid="{ABDC135E-9A4A-4078-8504-7FAED0F441DB}"/>
+    <cellStyle name="20% - Accent5 5" xfId="33" xr:uid="{CC4422F1-4577-475D-9062-5705E5BAA574}"/>
     <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -4334,6 +4384,114 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA0B9D3-D018-429C-864E-35772BF3A006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2200275"/>
+          <a:ext cx="4419600" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Define transport</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> carbon dioxide emission coefficients for each unit of fuel commodity consumed.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -7024,7 +7182,7 @@
       <c r="E67" s="90"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7098,8 +7256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="D1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7217,7 +7375,7 @@
     </row>
     <row r="4" spans="2:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>85</v>
@@ -7796,7 +7954,7 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>ELCRNW</v>
+        <v>ELCGRID</v>
       </c>
       <c r="D24" s="67" t="str">
         <f t="shared" si="1"/>
@@ -7824,7 +7982,7 @@
       </c>
       <c r="N24" s="71" t="str">
         <f>$L$24&amp;$C$4</f>
-        <v>ELCRNW</v>
+        <v>ELCGRID</v>
       </c>
       <c r="O24" s="73" t="str">
         <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
@@ -7886,7 +8044,7 @@
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="67" t="str">
         <f>N24</f>
-        <v>ELCRNW</v>
+        <v>ELCGRID</v>
       </c>
       <c r="D28" s="67" t="str">
         <f>N14</f>
@@ -7965,7 +8123,7 @@
   <dimension ref="B1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9762,4 +9920,128 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E959CB-7164-414F-B6F7-22B95D131062}">
+  <dimension ref="B3:I24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="145" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+    </row>
+    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+    </row>
+    <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B5" s="147" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="148"/>
+    </row>
+    <row r="6" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="149" t="str">
+        <f>Sector_Fuels!N5</f>
+        <v>MANCOALMIN</v>
+      </c>
+      <c r="D6" s="149" t="str">
+        <f>Sector_Fuels!N6</f>
+        <v>MANCOALIMP</v>
+      </c>
+      <c r="E6" s="149" t="str">
+        <f>Sector_Fuels!N7</f>
+        <v>MANOILIMP</v>
+      </c>
+      <c r="F6" s="149" t="str">
+        <f>Sector_Fuels!N8</f>
+        <v>RNW</v>
+      </c>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="150" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="150" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="150" t="s">
+        <v>271</v>
+      </c>
+      <c r="E7" s="150" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="150" t="s">
+        <v>271</v>
+      </c>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="151" t="str">
+        <f>DemTechs_INDF!R7</f>
+        <v>MANCO2</v>
+      </c>
+      <c r="C8" s="152">
+        <v>347494</v>
+      </c>
+      <c r="D8" s="152">
+        <v>347494</v>
+      </c>
+      <c r="E8" s="152">
+        <v>279515</v>
+      </c>
+      <c r="F8" s="152">
+        <v>0</v>
+      </c>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="135"/>
+      <c r="C23" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="48"/>
+      <c r="C24" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB25A68-36E9-436C-B67F-AE8B069CEC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEACE82-8CC2-43D7-928E-105988478951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="288" windowWidth="23232" windowHeight="12576" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="274">
   <si>
     <t>CommName</t>
   </si>
@@ -2365,9 +2365,6 @@
     <t>Share-I~2052~UP</t>
   </si>
   <si>
-    <t>RNW</t>
-  </si>
-  <si>
     <t>Renewable based electricity-domestic</t>
   </si>
   <si>
@@ -2381,6 +2378,12 @@
   </si>
   <si>
     <t>GRID</t>
+  </si>
+  <si>
+    <t>GRIDELC</t>
+  </si>
+  <si>
+    <t>GRID Electricity</t>
   </si>
 </sst>
 </file>
@@ -7256,8 +7259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7378,7 +7381,7 @@
         <v>272</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>273</v>
       </c>
       <c r="E4" s="82" t="s">
         <v>169</v>
@@ -7507,10 +7510,10 @@
       </c>
       <c r="M8" s="71"/>
       <c r="N8" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="67" t="s">
         <v>267</v>
-      </c>
-      <c r="O8" s="67" t="s">
-        <v>268</v>
       </c>
       <c r="P8" s="67" t="s">
         <v>169</v>
@@ -7954,11 +7957,11 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>ELCGRID</v>
+        <v>GRID</v>
       </c>
       <c r="D24" s="67" t="str">
         <f t="shared" si="1"/>
-        <v>RNW</v>
+        <v>ELC</v>
       </c>
       <c r="E24" s="1">
         <v>2022</v>
@@ -7980,13 +7983,12 @@
         <f>EBF!B11</f>
         <v>ELC</v>
       </c>
-      <c r="N24" s="71" t="str">
-        <f>$L$24&amp;$C$4</f>
-        <v>ELCGRID</v>
+      <c r="N24" s="71" t="s">
+        <v>271</v>
       </c>
       <c r="O24" s="73" t="str">
         <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
-        <v xml:space="preserve">Domestic Supply of Electricity </v>
+        <v xml:space="preserve">Domestic Supply of GRID Electricity </v>
       </c>
       <c r="P24" t="s">
         <v>169</v>
@@ -8044,7 +8046,7 @@
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="67" t="str">
         <f>N24</f>
-        <v>ELCGRID</v>
+        <v>GRID</v>
       </c>
       <c r="D28" s="67" t="str">
         <f>N14</f>
@@ -8122,8 +8124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8811,7 +8813,7 @@
       </c>
       <c r="C19" s="94" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>RNW</v>
+        <v>ELC</v>
       </c>
       <c r="D19" s="94" t="str">
         <f>Sector_Fuels!N11</f>
@@ -8966,7 +8968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -9940,7 +9942,7 @@
   <sheetData>
     <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="145" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="145"/>
       <c r="D3" s="145"/>
@@ -9959,7 +9961,7 @@
     </row>
     <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="147" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" s="148"/>
     </row>
@@ -9981,7 +9983,7 @@
       </c>
       <c r="F6" s="149" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>RNW</v>
+        <v>ELC</v>
       </c>
       <c r="G6" s="149"/>
       <c r="H6" s="149"/>
@@ -9992,16 +9994,16 @@
         <v>87</v>
       </c>
       <c r="C7" s="150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D7" s="150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E7" s="150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F7" s="150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G7" s="150"/>
       <c r="H7" s="150"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEACE82-8CC2-43D7-928E-105988478951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6301BC6E-0427-46B5-BE8E-DE53E1E42870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -7259,8 +7259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="A2" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8124,8 +8124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="B3" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8328,7 +8328,7 @@
       </c>
       <c r="Q6" s="96"/>
       <c r="R6" s="96" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="S6" s="96" t="s">
         <v>182</v>
@@ -8630,8 +8630,8 @@
         <f>Sector_Fuels!N5</f>
         <v>MANCOALMIN</v>
       </c>
-      <c r="D16" s="94" t="str">
-        <f>Sector_Fuels!N10</f>
+      <c r="D16" s="96" t="str">
+        <f>R5</f>
         <v>MANHEAT</v>
       </c>
       <c r="E16" s="117">
@@ -8693,8 +8693,8 @@
         <f>Sector_Fuels!N6</f>
         <v>MANCOALIMP</v>
       </c>
-      <c r="D17" s="94" t="str">
-        <f>Sector_Fuels!N10</f>
+      <c r="D17" s="96" t="str">
+        <f>R5</f>
         <v>MANHEAT</v>
       </c>
       <c r="E17" s="117">
@@ -8756,8 +8756,8 @@
         <f>Sector_Fuels!N7</f>
         <v>MANOILIMP</v>
       </c>
-      <c r="D18" s="94" t="str">
-        <f>Sector_Fuels!N10</f>
+      <c r="D18" s="96" t="str">
+        <f>R5</f>
         <v>MANHEAT</v>
       </c>
       <c r="E18" s="117">
@@ -8815,9 +8815,9 @@
         <f>Sector_Fuels!N8</f>
         <v>ELC</v>
       </c>
-      <c r="D19" s="94" t="str">
-        <f>Sector_Fuels!N11</f>
-        <v>MANELC</v>
+      <c r="D19" s="96" t="str">
+        <f>R6</f>
+        <v>ELC</v>
       </c>
       <c r="E19" s="117">
         <f>EBF!K18/(DemTechs_INDF!G19*DemTechs_INDF!F29)*1000</f>
@@ -9117,7 +9117,7 @@
       </c>
       <c r="C10" s="134" t="str">
         <f>DemTechs_INDF!R6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="D10" s="134" t="str">
         <f>E$2</f>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="I10" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J10" s="94" t="s">
         <v>197</v>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="I11" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J11" s="94" t="s">
         <v>198</v>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="I12" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J12" s="94" t="s">
         <v>199</v>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="I13" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J13" s="142" t="s">
         <v>200</v>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="I14" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J14" t="s">
         <v>201</v>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="I15" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J15" t="s">
         <v>202</v>
@@ -9257,7 +9257,7 @@
       </c>
       <c r="I16" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J16" t="s">
         <v>203</v>
@@ -9272,7 +9272,7 @@
       </c>
       <c r="I17" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J17" t="s">
         <v>204</v>
@@ -9287,7 +9287,7 @@
       </c>
       <c r="I18" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J18" t="s">
         <v>205</v>
@@ -9302,7 +9302,7 @@
       </c>
       <c r="I19" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J19" t="s">
         <v>206</v>
@@ -9317,7 +9317,7 @@
       </c>
       <c r="I20" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J20" t="s">
         <v>207</v>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="I21" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J21" t="s">
         <v>208</v>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="I22" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J22" t="s">
         <v>209</v>
@@ -9370,7 +9370,7 @@
       </c>
       <c r="I23" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J23" t="s">
         <v>210</v>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I24" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J24" t="s">
         <v>211</v>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="I25" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J25" t="s">
         <v>212</v>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="I26" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J26" t="s">
         <v>213</v>
@@ -9430,7 +9430,7 @@
       </c>
       <c r="I27" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J27" t="s">
         <v>214</v>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="I28" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J28" t="s">
         <v>215</v>
@@ -9460,7 +9460,7 @@
       </c>
       <c r="I29" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J29" t="s">
         <v>216</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="I30" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J30" t="s">
         <v>217</v>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="I31" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J31" t="s">
         <v>218</v>
@@ -9505,7 +9505,7 @@
       </c>
       <c r="I32" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J32" t="s">
         <v>219</v>
@@ -9520,7 +9520,7 @@
       </c>
       <c r="I33" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J33" t="s">
         <v>220</v>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="I34" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J34" t="s">
         <v>221</v>
@@ -9550,7 +9550,7 @@
       </c>
       <c r="I35" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J35" t="s">
         <v>222</v>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="I36" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J36" t="s">
         <v>223</v>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="I37" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J37" t="s">
         <v>224</v>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="I38" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J38" t="s">
         <v>225</v>
@@ -9610,7 +9610,7 @@
       </c>
       <c r="I39" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J39" t="s">
         <v>226</v>
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I40" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J40" t="s">
         <v>227</v>
@@ -9640,7 +9640,7 @@
       </c>
       <c r="I41" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J41" t="s">
         <v>228</v>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="I42" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J42" t="s">
         <v>229</v>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="I43" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J43" t="s">
         <v>230</v>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="I44" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J44" t="s">
         <v>231</v>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="I45" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J45" t="s">
         <v>232</v>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="I46" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J46" t="s">
         <v>233</v>
@@ -9730,7 +9730,7 @@
       </c>
       <c r="I47" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J47" t="s">
         <v>234</v>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="I48" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J48" t="s">
         <v>235</v>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="I49" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J49" t="s">
         <v>236</v>
@@ -9775,7 +9775,7 @@
       </c>
       <c r="I50" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J50" t="s">
         <v>237</v>
@@ -9790,7 +9790,7 @@
       </c>
       <c r="I51" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J51" t="s">
         <v>238</v>
@@ -9805,7 +9805,7 @@
       </c>
       <c r="I52" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J52" t="s">
         <v>239</v>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="I53" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J53" t="s">
         <v>240</v>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="I54" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J54" t="s">
         <v>241</v>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="I55" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J55" t="s">
         <v>242</v>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I56" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J56" t="s">
         <v>243</v>
@@ -9880,7 +9880,7 @@
       </c>
       <c r="I57" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J57" t="s">
         <v>244</v>
@@ -9895,7 +9895,7 @@
       </c>
       <c r="I58" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J58" t="s">
         <v>245</v>
@@ -9910,7 +9910,7 @@
       </c>
       <c r="I59" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="J59" t="s">
         <v>246</v>
@@ -9928,7 +9928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E959CB-7164-414F-B6F7-22B95D131062}">
   <dimension ref="B3:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6301BC6E-0427-46B5-BE8E-DE53E1E42870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6DAA8F-B5F2-43CD-93FD-D475CE4284A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -7259,8 +7259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9928,7 +9928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E959CB-7164-414F-B6F7-22B95D131062}">
   <dimension ref="B3:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6DAA8F-B5F2-43CD-93FD-D475CE4284A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE38B429-70B5-48B9-AD96-B866591C345D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -7259,7 +7259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView topLeftCell="E8" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -8124,8 +8124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8968,7 +8968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE38B429-70B5-48B9-AD96-B866591C345D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354BE081-9ED3-4B07-A3E2-4A130C6C0FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7259,8 +7259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="A2" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7510,7 +7510,7 @@
       </c>
       <c r="M8" s="71"/>
       <c r="N8" s="67" t="s">
-        <v>46</v>
+        <v>272</v>
       </c>
       <c r="O8" s="67" t="s">
         <v>267</v>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="D24" s="67" t="str">
         <f t="shared" si="1"/>
-        <v>ELC</v>
+        <v>GRIDELC</v>
       </c>
       <c r="E24" s="1">
         <v>2022</v>
@@ -8124,8 +8124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="C19" s="94" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>ELC</v>
+        <v>GRIDELC</v>
       </c>
       <c r="D19" s="96" t="str">
         <f>R6</f>
@@ -8969,7 +8969,7 @@
   <dimension ref="B1:K59"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9929,7 +9929,7 @@
   <dimension ref="B3:I24"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="F6" s="149" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>ELC</v>
+        <v>GRIDELC</v>
       </c>
       <c r="G6" s="149"/>
       <c r="H6" s="149"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354BE081-9ED3-4B07-A3E2-4A130C6C0FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578998C2-BC57-420D-AD31-E5F246F89F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="275">
   <si>
     <t>CommName</t>
   </si>
@@ -2384,6 +2384,9 @@
   </si>
   <si>
     <t>GRID Electricity</t>
+  </si>
+  <si>
+    <t>MANELCGRID</t>
   </si>
 </sst>
 </file>
@@ -7260,7 +7263,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7510,7 +7513,7 @@
       </c>
       <c r="M8" s="71"/>
       <c r="N8" s="67" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O8" s="67" t="s">
         <v>267</v>
@@ -7957,11 +7960,11 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>GRID</v>
+        <v>GRIDELC</v>
       </c>
       <c r="D24" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>GRIDELC</v>
+        <f>N8</f>
+        <v>MANELCGRID</v>
       </c>
       <c r="E24" s="1">
         <v>2022</v>
@@ -7979,12 +7982,11 @@
       <c r="J24" s="129">
         <v>8.76</v>
       </c>
-      <c r="L24" t="str">
-        <f>EBF!B11</f>
-        <v>ELC</v>
+      <c r="L24" t="s">
+        <v>271</v>
       </c>
       <c r="N24" s="71" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O24" s="73" t="str">
         <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
@@ -8046,7 +8048,7 @@
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="67" t="str">
         <f>N24</f>
-        <v>GRID</v>
+        <v>GRIDELC</v>
       </c>
       <c r="D28" s="67" t="str">
         <f>N14</f>
@@ -8124,8 +8126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8796,7 +8798,7 @@
         <v>46</v>
       </c>
       <c r="S18" s="94" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="T18" s="96" t="str">
         <f t="shared" ref="T18" si="0">$E$2</f>
@@ -8813,7 +8815,7 @@
       </c>
       <c r="C19" s="94" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>GRIDELC</v>
+        <v>MANELCGRID</v>
       </c>
       <c r="D19" s="96" t="str">
         <f>R6</f>
@@ -9983,7 +9985,7 @@
       </c>
       <c r="F6" s="149" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>GRIDELC</v>
+        <v>MANELCGRID</v>
       </c>
       <c r="G6" s="149"/>
       <c r="H6" s="149"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578998C2-BC57-420D-AD31-E5F246F89F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDFF445-6902-4479-8809-BC7BEE9F05B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="274">
   <si>
     <t>CommName</t>
   </si>
@@ -2377,16 +2377,13 @@
     <t>kt/GWh</t>
   </si>
   <si>
-    <t>GRID</t>
-  </si>
-  <si>
     <t>GRIDELC</t>
   </si>
   <si>
     <t>GRID Electricity</t>
   </si>
   <si>
-    <t>MANELCGRID</t>
+    <t>Manufacturing  Electricity for machine drive and other services</t>
   </si>
 </sst>
 </file>
@@ -7262,8 +7259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A6" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7381,10 +7378,10 @@
     </row>
     <row r="4" spans="2:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="E4" s="82" t="s">
         <v>169</v>
@@ -7513,7 +7510,7 @@
       </c>
       <c r="M8" s="71"/>
       <c r="N8" s="67" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="O8" s="67" t="s">
         <v>267</v>
@@ -7922,7 +7919,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="67" t="str">
-        <f t="shared" ref="D23:D24" si="1">N7</f>
+        <f t="shared" ref="D23" si="1">N7</f>
         <v>MANOILIMP</v>
       </c>
       <c r="E23" s="1">
@@ -7964,7 +7961,7 @@
       </c>
       <c r="D24" s="67" t="str">
         <f>N8</f>
-        <v>MANELCGRID</v>
+        <v>MANELC</v>
       </c>
       <c r="E24" s="1">
         <v>2022</v>
@@ -7983,10 +7980,10 @@
         <v>8.76</v>
       </c>
       <c r="L24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" s="71" t="s">
         <v>271</v>
-      </c>
-      <c r="N24" s="71" t="s">
-        <v>272</v>
       </c>
       <c r="O24" s="73" t="str">
         <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
@@ -8126,8 +8123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8330,7 +8327,7 @@
       </c>
       <c r="Q6" s="96"/>
       <c r="R6" s="96" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="S6" s="96" t="s">
         <v>182</v>
@@ -8798,7 +8795,7 @@
         <v>46</v>
       </c>
       <c r="S18" s="94" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="T18" s="96" t="str">
         <f t="shared" ref="T18" si="0">$E$2</f>
@@ -8815,11 +8812,11 @@
       </c>
       <c r="C19" s="94" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>MANELCGRID</v>
+        <v>MANELC</v>
       </c>
       <c r="D19" s="96" t="str">
         <f>R6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="E19" s="117">
         <f>EBF!K18/(DemTechs_INDF!G19*DemTechs_INDF!F29)*1000</f>
@@ -9119,7 +9116,7 @@
       </c>
       <c r="C10" s="134" t="str">
         <f>DemTechs_INDF!R6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="D10" s="134" t="str">
         <f>E$2</f>
@@ -9133,7 +9130,7 @@
       </c>
       <c r="I10" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J10" s="94" t="s">
         <v>197</v>
@@ -9153,7 +9150,7 @@
       </c>
       <c r="I11" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J11" s="94" t="s">
         <v>198</v>
@@ -9170,7 +9167,7 @@
       </c>
       <c r="I12" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J12" s="94" t="s">
         <v>199</v>
@@ -9199,7 +9196,7 @@
       </c>
       <c r="I13" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J13" s="142" t="s">
         <v>200</v>
@@ -9228,7 +9225,7 @@
       </c>
       <c r="I14" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J14" t="s">
         <v>201</v>
@@ -9244,7 +9241,7 @@
       </c>
       <c r="I15" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J15" t="s">
         <v>202</v>
@@ -9259,7 +9256,7 @@
       </c>
       <c r="I16" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J16" t="s">
         <v>203</v>
@@ -9274,7 +9271,7 @@
       </c>
       <c r="I17" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J17" t="s">
         <v>204</v>
@@ -9289,7 +9286,7 @@
       </c>
       <c r="I18" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J18" t="s">
         <v>205</v>
@@ -9304,7 +9301,7 @@
       </c>
       <c r="I19" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J19" t="s">
         <v>206</v>
@@ -9319,7 +9316,7 @@
       </c>
       <c r="I20" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J20" t="s">
         <v>207</v>
@@ -9338,7 +9335,7 @@
       </c>
       <c r="I21" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J21" t="s">
         <v>208</v>
@@ -9357,7 +9354,7 @@
       </c>
       <c r="I22" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J22" t="s">
         <v>209</v>
@@ -9372,7 +9369,7 @@
       </c>
       <c r="I23" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J23" t="s">
         <v>210</v>
@@ -9387,7 +9384,7 @@
       </c>
       <c r="I24" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J24" t="s">
         <v>211</v>
@@ -9402,7 +9399,7 @@
       </c>
       <c r="I25" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J25" t="s">
         <v>212</v>
@@ -9417,7 +9414,7 @@
       </c>
       <c r="I26" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J26" t="s">
         <v>213</v>
@@ -9432,7 +9429,7 @@
       </c>
       <c r="I27" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J27" t="s">
         <v>214</v>
@@ -9447,7 +9444,7 @@
       </c>
       <c r="I28" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J28" t="s">
         <v>215</v>
@@ -9462,7 +9459,7 @@
       </c>
       <c r="I29" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J29" t="s">
         <v>216</v>
@@ -9477,7 +9474,7 @@
       </c>
       <c r="I30" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J30" t="s">
         <v>217</v>
@@ -9492,7 +9489,7 @@
       </c>
       <c r="I31" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J31" t="s">
         <v>218</v>
@@ -9507,7 +9504,7 @@
       </c>
       <c r="I32" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J32" t="s">
         <v>219</v>
@@ -9522,7 +9519,7 @@
       </c>
       <c r="I33" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J33" t="s">
         <v>220</v>
@@ -9537,7 +9534,7 @@
       </c>
       <c r="I34" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J34" t="s">
         <v>221</v>
@@ -9552,7 +9549,7 @@
       </c>
       <c r="I35" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J35" t="s">
         <v>222</v>
@@ -9567,7 +9564,7 @@
       </c>
       <c r="I36" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J36" t="s">
         <v>223</v>
@@ -9582,7 +9579,7 @@
       </c>
       <c r="I37" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J37" t="s">
         <v>224</v>
@@ -9597,7 +9594,7 @@
       </c>
       <c r="I38" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J38" t="s">
         <v>225</v>
@@ -9612,7 +9609,7 @@
       </c>
       <c r="I39" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J39" t="s">
         <v>226</v>
@@ -9627,7 +9624,7 @@
       </c>
       <c r="I40" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J40" t="s">
         <v>227</v>
@@ -9642,7 +9639,7 @@
       </c>
       <c r="I41" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J41" t="s">
         <v>228</v>
@@ -9657,7 +9654,7 @@
       </c>
       <c r="I42" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J42" t="s">
         <v>229</v>
@@ -9672,7 +9669,7 @@
       </c>
       <c r="I43" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J43" t="s">
         <v>230</v>
@@ -9687,7 +9684,7 @@
       </c>
       <c r="I44" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J44" t="s">
         <v>231</v>
@@ -9702,7 +9699,7 @@
       </c>
       <c r="I45" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J45" t="s">
         <v>232</v>
@@ -9717,7 +9714,7 @@
       </c>
       <c r="I46" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J46" t="s">
         <v>233</v>
@@ -9732,7 +9729,7 @@
       </c>
       <c r="I47" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J47" t="s">
         <v>234</v>
@@ -9747,7 +9744,7 @@
       </c>
       <c r="I48" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J48" t="s">
         <v>235</v>
@@ -9762,7 +9759,7 @@
       </c>
       <c r="I49" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J49" t="s">
         <v>236</v>
@@ -9777,7 +9774,7 @@
       </c>
       <c r="I50" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J50" t="s">
         <v>237</v>
@@ -9792,7 +9789,7 @@
       </c>
       <c r="I51" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J51" t="s">
         <v>238</v>
@@ -9807,7 +9804,7 @@
       </c>
       <c r="I52" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J52" t="s">
         <v>239</v>
@@ -9822,7 +9819,7 @@
       </c>
       <c r="I53" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J53" t="s">
         <v>240</v>
@@ -9837,7 +9834,7 @@
       </c>
       <c r="I54" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J54" t="s">
         <v>241</v>
@@ -9852,7 +9849,7 @@
       </c>
       <c r="I55" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J55" t="s">
         <v>242</v>
@@ -9867,7 +9864,7 @@
       </c>
       <c r="I56" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J56" t="s">
         <v>243</v>
@@ -9882,7 +9879,7 @@
       </c>
       <c r="I57" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J57" t="s">
         <v>244</v>
@@ -9897,7 +9894,7 @@
       </c>
       <c r="I58" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J58" t="s">
         <v>245</v>
@@ -9912,7 +9909,7 @@
       </c>
       <c r="I59" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="J59" t="s">
         <v>246</v>
@@ -9985,7 +9982,7 @@
       </c>
       <c r="F6" s="149" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>MANELCGRID</v>
+        <v>MANELC</v>
       </c>
       <c r="G6" s="149"/>
       <c r="H6" s="149"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDFF445-6902-4479-8809-BC7BEE9F05B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E20D2-DA7F-477C-9FC0-368CE31AE48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -7259,8 +7259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7510,7 +7510,7 @@
       </c>
       <c r="M8" s="71"/>
       <c r="N8" s="67" t="s">
-        <v>175</v>
+        <v>271</v>
       </c>
       <c r="O8" s="67" t="s">
         <v>267</v>
@@ -7955,13 +7955,15 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="67" t="str">
-        <f t="shared" si="0"/>
+      <c r="B24" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="71" t="str">
+        <f>N8</f>
         <v>GRIDELC</v>
       </c>
-      <c r="D24" s="67" t="str">
-        <f>N8</f>
-        <v>MANELC</v>
+      <c r="D24" s="67" t="s">
+        <v>175</v>
       </c>
       <c r="E24" s="1">
         <v>2022</v>
@@ -7979,19 +7981,8 @@
       <c r="J24" s="129">
         <v>8.76</v>
       </c>
-      <c r="L24" t="s">
-        <v>46</v>
-      </c>
-      <c r="N24" s="71" t="s">
-        <v>271</v>
-      </c>
-      <c r="O24" s="73" t="str">
-        <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
-        <v xml:space="preserve">Domestic Supply of GRID Electricity </v>
-      </c>
-      <c r="P24" t="s">
-        <v>169</v>
-      </c>
+      <c r="N24" s="71"/>
+      <c r="O24" s="73"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="67"/>
@@ -8043,9 +8034,8 @@
       <c r="O27" s="73"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="67" t="str">
-        <f>N24</f>
-        <v>GRIDELC</v>
+      <c r="B28" s="67" t="s">
+        <v>271</v>
       </c>
       <c r="D28" s="67" t="str">
         <f>N14</f>
@@ -8123,7 +8113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -8812,7 +8802,7 @@
       </c>
       <c r="C19" s="94" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>MANELC</v>
+        <v>GRIDELC</v>
       </c>
       <c r="D19" s="96" t="str">
         <f>R6</f>
@@ -9982,7 +9972,7 @@
       </c>
       <c r="F6" s="149" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>MANELC</v>
+        <v>GRIDELC</v>
       </c>
       <c r="G6" s="149"/>
       <c r="H6" s="149"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E20D2-DA7F-477C-9FC0-368CE31AE48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20789EA-D8DE-49FA-A963-32EE00DE35BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7260,7 +7260,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L8" s="67" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="M8" s="71"/>
       <c r="N8" s="67" t="s">
@@ -7866,7 +7866,7 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="67" t="str">
-        <f t="shared" ref="B22:B24" si="0">N22</f>
+        <f t="shared" ref="B22:B23" si="0">N22</f>
         <v>IMPCOA</v>
       </c>
       <c r="C22" s="1"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20789EA-D8DE-49FA-A963-32EE00DE35BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2486AC10-7A98-481B-A7C3-7289E137556C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -7259,8 +7259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="C4" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8113,8 +8113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21:U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8778,26 +8778,10 @@
       </c>
       <c r="M18" s="116"/>
       <c r="N18" s="116"/>
-      <c r="P18" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="R18" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="S18" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="T18" s="96" t="str">
-        <f t="shared" ref="T18" si="0">$E$2</f>
-        <v>GWh</v>
-      </c>
-      <c r="U18" s="96" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="19" spans="2:24" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="94" t="str">
-        <f>R$18</f>
+        <f>R$21</f>
         <v>ELC</v>
       </c>
       <c r="C19" s="94" t="str">
@@ -8840,6 +8824,22 @@
       <c r="F21" s="119"/>
       <c r="H21" s="119"/>
       <c r="I21" s="119"/>
+      <c r="P21" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="R21" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21" s="94" t="s">
+        <v>273</v>
+      </c>
+      <c r="T21" s="96" t="str">
+        <f t="shared" ref="T21" si="0">$E$2</f>
+        <v>GWh</v>
+      </c>
+      <c r="U21" s="96" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="94" t="s">

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2486AC10-7A98-481B-A7C3-7289E137556C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEE04F2-6E46-4621-BB28-DC007022EBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="279">
   <si>
     <t>CommName</t>
   </si>
@@ -2110,9 +2110,6 @@
     <t>Manufacturing Heat</t>
   </si>
   <si>
-    <t>Manufacturing Electricity</t>
-  </si>
-  <si>
     <t>LO</t>
   </si>
   <si>
@@ -2384,6 +2381,24 @@
   </si>
   <si>
     <t>Manufacturing  Electricity for machine drive and other services</t>
+  </si>
+  <si>
+    <t>ELCRNW</t>
+  </si>
+  <si>
+    <t>GRID</t>
+  </si>
+  <si>
+    <t>Grid electricity</t>
+  </si>
+  <si>
+    <t>Manufacturing ElectricitySupply-ELC</t>
+  </si>
+  <si>
+    <t>Electricity share</t>
+  </si>
+  <si>
+    <t>Fossil share</t>
   </si>
 </sst>
 </file>
@@ -2431,6 +2446,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2571,6 +2587,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2945,7 +2962,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3033,7 +3050,6 @@
     <xf numFmtId="165" fontId="13" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3243,6 +3259,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -4391,6 +4409,81 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2191</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>21561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>931427</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>75778</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77100577-490B-1FEB-45C4-A6AA00BFC058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3411804" y="3190942"/>
+          <a:ext cx="2762588" cy="918210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>The demand value at 2050 is the average value of the energy demand projaction of Asfaw for 2048 and 2050</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -4980,8 +5073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40EA534-E44A-461C-9315-2313911B2BEB}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A9" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5077,10 +5170,10 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -5092,10 +5185,10 @@
       <c r="B5" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="57">
         <v>16266.24</v>
       </c>
       <c r="E5" s="25">
@@ -5127,7 +5220,7 @@
       <c r="B6" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="60" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="35">
@@ -5152,7 +5245,7 @@
       <c r="B7" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="60" t="s">
         <v>132</v>
       </c>
       <c r="D7" s="35"/>
@@ -5167,7 +5260,7 @@
       <c r="K7" s="26"/>
     </row>
     <row r="8" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="38" t="s">
@@ -5208,7 +5301,7 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="4"/>
@@ -5308,7 +5401,7 @@
       <c r="C13" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="58">
         <f>SUM(D10:D12)</f>
         <v>-27634</v>
       </c>
@@ -5343,7 +5436,7 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="61" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="4"/>
@@ -5547,14 +5640,14 @@
         <v>72</v>
       </c>
       <c r="D23" s="32"/>
-      <c r="E23" s="74">
+      <c r="E23" s="73">
         <v>4304.424</v>
       </c>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
       <c r="K23" s="34">
         <f t="shared" si="3"/>
         <v>4304.424</v>
@@ -5582,7 +5675,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="55" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="38" t="s">
@@ -5592,22 +5685,22 @@
         <f t="shared" ref="D25:K25" si="4">SUM(D15:D24)</f>
         <v>27634.417000000001</v>
       </c>
-      <c r="E25" s="75">
+      <c r="E25" s="74">
         <f t="shared" si="4"/>
         <v>214114</v>
       </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75">
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74">
         <f>SUM(I15:I24)</f>
         <v>1403878.2620000001</v>
       </c>
-      <c r="J25" s="75">
+      <c r="J25" s="74">
         <f>SUM(J15:J24)</f>
         <v>42202.942000000003</v>
       </c>
-      <c r="K25" s="76">
+      <c r="K25" s="75">
         <f t="shared" si="4"/>
         <v>1687829.6209999998</v>
       </c>
@@ -5795,7 +5888,7 @@
         <f>D18/(D18+E18)</f>
         <v>0.7466168572973132</v>
       </c>
-      <c r="E40" s="122">
+      <c r="E40" s="121">
         <f>E18/(D18+E18)</f>
         <v>0.25338314270268686</v>
       </c>
@@ -5854,7 +5947,7 @@
       <c r="J45" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="K45" s="91" t="s">
+      <c r="K45" s="90" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5865,12 +5958,12 @@
       <c r="C46" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="122">
+      <c r="D46" s="121">
         <f>D18/(D18+E18)</f>
         <v>0.7466168572973132</v>
       </c>
-      <c r="E46" s="122"/>
-      <c r="K46" s="128">
+      <c r="E46" s="121"/>
+      <c r="K46" s="127">
         <f>SUM(D46:J46)</f>
         <v>0.7466168572973132</v>
       </c>
@@ -5885,12 +5978,12 @@
       <c r="C47" t="s">
         <v>167</v>
       </c>
-      <c r="E47" s="122">
+      <c r="E47" s="121">
         <f>E18/(D18+E18)</f>
         <v>0.25338314270268686</v>
       </c>
-      <c r="J47" s="122"/>
-      <c r="K47" s="128">
+      <c r="J47" s="121"/>
+      <c r="K47" s="127">
         <f>SUM(D47:J47)</f>
         <v>0.25338314270268686</v>
       </c>
@@ -5905,10 +5998,10 @@
       <c r="C48" t="s">
         <v>172</v>
       </c>
-      <c r="J48" s="122">
+      <c r="J48" s="121">
         <v>1</v>
       </c>
-      <c r="K48" s="128">
+      <c r="K48" s="127">
         <f>SUM(D48:J48)</f>
         <v>1</v>
       </c>
@@ -5917,73 +6010,73 @@
       </c>
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J49" s="122"/>
-      <c r="K49" s="128"/>
+      <c r="J49" s="121"/>
+      <c r="K49" s="127"/>
     </row>
     <row r="50" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J50" s="122"/>
-      <c r="K50" s="128"/>
+      <c r="J50" s="121"/>
+      <c r="K50" s="127"/>
     </row>
     <row r="51" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J51" s="122"/>
-      <c r="K51" s="128"/>
+      <c r="J51" s="121"/>
+      <c r="K51" s="127"/>
     </row>
     <row r="52" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J52" s="122"/>
-      <c r="K52" s="128"/>
+      <c r="J52" s="121"/>
+      <c r="K52" s="127"/>
     </row>
     <row r="53" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J53" s="122"/>
-      <c r="K53" s="128"/>
+      <c r="J53" s="121"/>
+      <c r="K53" s="127"/>
     </row>
     <row r="54" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J54" s="122"/>
-      <c r="K54" s="128"/>
+      <c r="J54" s="121"/>
+      <c r="K54" s="127"/>
     </row>
     <row r="55" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J55" s="122"/>
-      <c r="K55" s="128"/>
+      <c r="J55" s="121"/>
+      <c r="K55" s="127"/>
     </row>
     <row r="56" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J56" s="122"/>
-      <c r="K56" s="128"/>
+      <c r="J56" s="121"/>
+      <c r="K56" s="127"/>
     </row>
     <row r="57" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J57" s="122"/>
-      <c r="K57" s="128"/>
+      <c r="J57" s="121"/>
+      <c r="K57" s="127"/>
     </row>
     <row r="58" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J58" s="122"/>
-      <c r="K58" s="128"/>
+      <c r="J58" s="121"/>
+      <c r="K58" s="127"/>
     </row>
     <row r="59" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J59" s="122"/>
-      <c r="K59" s="128"/>
+      <c r="J59" s="121"/>
+      <c r="K59" s="127"/>
     </row>
     <row r="60" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J60" s="122"/>
-      <c r="K60" s="128"/>
+      <c r="J60" s="121"/>
+      <c r="K60" s="127"/>
     </row>
     <row r="61" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J61" s="122"/>
-      <c r="K61" s="128"/>
+      <c r="J61" s="121"/>
+      <c r="K61" s="127"/>
     </row>
     <row r="62" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J62" s="122"/>
-      <c r="K62" s="128"/>
+      <c r="J62" s="121"/>
+      <c r="K62" s="127"/>
     </row>
     <row r="63" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J63" s="122"/>
-      <c r="K63" s="128"/>
+      <c r="J63" s="121"/>
+      <c r="K63" s="127"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="83" t="s">
+      <c r="C65" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="D65" s="84" t="s">
+      <c r="D65" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="E65" s="85" t="s">
+      <c r="E65" s="84" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5991,13 +6084,13 @@
       <c r="B66" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="86" t="s">
+      <c r="C66" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="86" t="s">
+      <c r="D66" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="E66" s="87" t="s">
+      <c r="E66" s="86" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6005,11 +6098,11 @@
       <c r="B67" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="88">
+      <c r="C67" s="87">
         <v>1</v>
       </c>
-      <c r="D67" s="89"/>
-      <c r="E67" s="90"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6022,7 +6115,7 @@
   <dimension ref="B1:R67"/>
   <sheetViews>
     <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6118,10 +6211,10 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -6133,40 +6226,40 @@
       <c r="B5" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="58">
-        <f>'EBF TJ'!D5*0.2778</f>
-        <v>4518.7614720000001</v>
-      </c>
-      <c r="E5" s="58">
-        <f>'EBF TJ'!E5*0.2778</f>
+      <c r="D5" s="57">
+        <f>'EBF TJ'!D5*0.2777778</f>
+        <v>4518.4003614720004</v>
+      </c>
+      <c r="E5" s="57">
+        <f>'EBF TJ'!E5*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="F5" s="58">
-        <f>'EBF TJ'!F5*0.2778</f>
-        <v>16772.152775999999</v>
-      </c>
-      <c r="G5" s="58">
-        <f>'EBF TJ'!G5*0.2778</f>
-        <v>35.002800000000001</v>
-      </c>
-      <c r="H5" s="58">
-        <f>'EBF TJ'!H5*0.2778</f>
-        <v>529.04232000000002</v>
-      </c>
-      <c r="I5" s="58">
-        <f>'EBF TJ'!I5*0.2778</f>
-        <v>482308.55715359998</v>
-      </c>
-      <c r="J5" s="58">
-        <f>'EBF TJ'!J5*0.2778</f>
-        <v>17336.197895999998</v>
+      <c r="F5" s="57">
+        <f>'EBF TJ'!F5*0.2777778</f>
+        <v>16770.812452776001</v>
+      </c>
+      <c r="G5" s="57">
+        <f>'EBF TJ'!G5*0.2777778</f>
+        <v>35.000002800000004</v>
+      </c>
+      <c r="H5" s="57">
+        <f>'EBF TJ'!H5*0.2777778</f>
+        <v>529.00004232000003</v>
+      </c>
+      <c r="I5" s="57">
+        <f>'EBF TJ'!I5*0.2777778</f>
+        <v>482270.01413715363</v>
+      </c>
+      <c r="J5" s="57">
+        <f>'EBF TJ'!J5*0.2777778</f>
+        <v>17334.812497896</v>
       </c>
       <c r="K5" s="26">
         <f>SUM(D5:J5)</f>
-        <v>521499.71441759996</v>
+        <v>521458.03949441767</v>
       </c>
       <c r="O5" s="5"/>
     </row>
@@ -6174,54 +6267,81 @@
       <c r="B6" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="58">
-        <f>'EBF TJ'!D6*0.2778</f>
-        <v>3157.9140017999998</v>
-      </c>
-      <c r="E6" s="58">
-        <f>'EBF TJ'!E6*0.2778</f>
-        <v>59357.628230399998</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="58">
-        <f>'EBF TJ'!J6*0.2778</f>
+      <c r="D6" s="57">
+        <f>'EBF TJ'!D6*0.2777778</f>
+        <v>3157.6616415018002</v>
+      </c>
+      <c r="E6" s="57">
+        <f>'EBF TJ'!E6*0.2777778</f>
+        <v>59352.884748230397</v>
+      </c>
+      <c r="F6" s="57">
+        <f>'EBF TJ'!F6*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="57">
+        <f>'EBF TJ'!G6*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="57">
+        <f>'EBF TJ'!H6*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="57">
+        <f>'EBF TJ'!I6*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="57">
+        <f>'EBF TJ'!J6*0.2777778</f>
         <v>0</v>
       </c>
       <c r="K6" s="26">
         <f>SUM(D6:J6)</f>
-        <v>62515.542232199994</v>
+        <v>62510.546389732197</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="58">
-        <f>'EBF TJ'!D7*0.2778</f>
+      <c r="D7" s="57">
+        <f>'EBF TJ'!D7*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="58">
-        <f>'EBF TJ'!J7*0.2778</f>
-        <v>-1750.1399999999999</v>
+      <c r="E7" s="57">
+        <f>'EBF TJ'!E7*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="57">
+        <f>'EBF TJ'!F7*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="57">
+        <f>'EBF TJ'!G7*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="57">
+        <f>'EBF TJ'!H7*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="57">
+        <f>'EBF TJ'!I7*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="57">
+        <f>'EBF TJ'!J7*0.2777778</f>
+        <v>-1750.0001400000001</v>
       </c>
       <c r="K7" s="26"/>
     </row>
     <row r="8" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="38" t="s">
@@ -6229,40 +6349,40 @@
       </c>
       <c r="D8" s="38">
         <f>SUM(D5:D6)</f>
-        <v>7676.6754738</v>
+        <v>7676.0620029738002</v>
       </c>
       <c r="E8" s="38">
         <f t="shared" ref="E8:K8" si="0">SUM(E5:E6)</f>
-        <v>59357.628230399998</v>
+        <v>59352.884748230397</v>
       </c>
       <c r="F8" s="38">
         <f t="shared" si="0"/>
-        <v>16772.152775999999</v>
+        <v>16770.812452776001</v>
       </c>
       <c r="G8" s="38">
         <f>SUM(G5:G7)</f>
-        <v>35.002800000000001</v>
+        <v>35.000002800000004</v>
       </c>
       <c r="H8" s="38">
         <f>SUM(H5:H7)</f>
-        <v>529.04232000000002</v>
+        <v>529.00004232000003</v>
       </c>
       <c r="I8" s="38">
         <f>SUM(I5:I7)</f>
-        <v>482308.55715359998</v>
+        <v>482270.01413715363</v>
       </c>
       <c r="J8" s="38">
         <f>SUM(J5+J6-J7)</f>
-        <v>19086.337895999997</v>
+        <v>19084.812637896001</v>
       </c>
       <c r="K8" s="38">
         <f t="shared" si="0"/>
-        <v>584015.25664979999</v>
+        <v>583968.58588414988</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="4"/>
@@ -6288,8 +6408,8 @@
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30">
-        <f>'EBF TJ'!J10*0.2778</f>
-        <v>-58.060199999999995</v>
+        <f>'EBF TJ'!J10*0.2777778</f>
+        <v>-58.055560200000002</v>
       </c>
       <c r="K10" s="31"/>
     </row>
@@ -6300,20 +6420,20 @@
       <c r="C11" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139">
-        <f>'EBF TJ'!E11*0.2778</f>
-        <v>-2.0001600000000002</v>
-      </c>
-      <c r="F11" s="139">
-        <f>'EBF TJ'!F11*0.2778</f>
-        <v>-16772.152775999999</v>
-      </c>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138">
+        <f>'EBF TJ'!E11*0.2777778</f>
+        <v>-2.0000001600000004</v>
+      </c>
+      <c r="F11" s="138">
+        <f>'EBF TJ'!F11*0.2777778</f>
+        <v>-16770.812452776001</v>
+      </c>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
@@ -6323,47 +6443,50 @@
         <v>138</v>
       </c>
       <c r="D12" s="30">
-        <f>'EBF TJ'!D12*0.2778</f>
-        <v>-7676.7251999999999</v>
+        <f>'EBF TJ'!D12*0.2777778</f>
+        <v>-7676.1117252000004</v>
       </c>
       <c r="E12" s="30">
-        <f>'EBF TJ'!E12*0.2778</f>
-        <v>-59359.628390400001</v>
+        <f>'EBF TJ'!E12*0.2777778</f>
+        <v>-59354.884748390403</v>
       </c>
       <c r="F12" s="30">
-        <f>'EBF TJ'!F12*0.2778</f>
+        <f>'EBF TJ'!F12*0.2777778</f>
         <v>0</v>
       </c>
       <c r="G12" s="30">
-        <f>'EBF TJ'!G12*0.2778</f>
+        <f>'EBF TJ'!G12*0.2777778</f>
         <v>0</v>
       </c>
       <c r="H12" s="30">
-        <f>'EBF TJ'!H12*0.2778</f>
+        <f>'EBF TJ'!H12*0.2777778</f>
         <v>0</v>
       </c>
       <c r="I12" s="30">
-        <f>'EBF TJ'!I12*0.2778</f>
-        <v>-482308.55715359998</v>
+        <f>'EBF TJ'!I12*0.2777778</f>
+        <v>-482270.01413715363</v>
       </c>
       <c r="J12" s="30">
-        <f>'EBF TJ'!J12*0.2778</f>
+        <f>'EBF TJ'!J12*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="K12" s="31"/>
+      <c r="K12" s="30">
+        <f>SUM(D12:J12)</f>
+        <v>-549301.01061074401</v>
+      </c>
     </row>
     <row r="13" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="58">
         <f>SUM(D10:D12)</f>
-        <v>-7676.7251999999999</v>
+        <v>-7676.1117252000004</v>
       </c>
       <c r="E13" s="40">
         <f>SUM(E10:E12)</f>
-        <v>-59361.628550400004</v>
+        <v>-59356.884748550401</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
@@ -6371,16 +6494,16 @@
       <c r="I13" s="40"/>
       <c r="J13" s="40">
         <f>SUM(J10:J12)</f>
-        <v>-58.060199999999995</v>
+        <v>-58.055560200000002</v>
       </c>
       <c r="K13" s="41">
         <f>SUM(K10:K12)</f>
-        <v>0</v>
+        <v>-549301.01061074401</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="61" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="4"/>
@@ -6400,36 +6523,36 @@
         <v>62</v>
       </c>
       <c r="D15" s="32">
-        <f>'EBF TJ'!D15*0.2778</f>
+        <f>'EBF TJ'!D15*0.2777778</f>
         <v>0</v>
       </c>
       <c r="E15" s="32">
-        <f>'EBF TJ'!E15*0.2778</f>
-        <v>1360.8177455999999</v>
+        <f>'EBF TJ'!E15*0.2777778</f>
+        <v>1360.7089977456001</v>
       </c>
       <c r="F15" s="32">
-        <f>'EBF TJ'!F15*0.2778</f>
+        <f>'EBF TJ'!F15*0.2777778</f>
         <v>0</v>
       </c>
       <c r="G15" s="32">
-        <f>'EBF TJ'!G15*0.2778</f>
+        <f>'EBF TJ'!G15*0.2777778</f>
         <v>0</v>
       </c>
       <c r="H15" s="32">
-        <f>'EBF TJ'!H15*0.2778</f>
+        <f>'EBF TJ'!H15*0.2777778</f>
         <v>0</v>
       </c>
       <c r="I15" s="32">
-        <f>'EBF TJ'!I15*0.2778</f>
-        <v>385711.09469699999</v>
+        <f>'EBF TJ'!I15*0.2777778</f>
+        <v>385680.271132197</v>
       </c>
       <c r="J15" s="32">
-        <f>'EBF TJ'!J15*0.2778</f>
-        <v>6094.607529599999</v>
+        <f>'EBF TJ'!J15*0.2777778</f>
+        <v>6094.1204875295998</v>
       </c>
       <c r="K15" s="34">
         <f t="shared" ref="K15:K24" si="1">SUM(D15:J15)</f>
-        <v>393166.51997219998</v>
+        <v>393135.1006174722</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
@@ -6440,36 +6563,36 @@
         <v>64</v>
       </c>
       <c r="D16" s="32">
-        <f>'EBF TJ'!D16*0.2778</f>
+        <f>'EBF TJ'!D16*0.2777778</f>
         <v>0</v>
       </c>
       <c r="E16" s="32">
-        <f>'EBF TJ'!E16*0.2778</f>
-        <v>854.75004119999994</v>
+        <f>'EBF TJ'!E16*0.2777778</f>
+        <v>854.6817350412</v>
       </c>
       <c r="F16" s="32">
-        <f>'EBF TJ'!F16*0.2778</f>
+        <f>'EBF TJ'!F16*0.2777778</f>
         <v>0</v>
       </c>
       <c r="G16" s="32">
-        <f>'EBF TJ'!G16*0.2778</f>
+        <f>'EBF TJ'!G16*0.2777778</f>
         <v>0</v>
       </c>
       <c r="H16" s="32">
-        <f>'EBF TJ'!H16*0.2778</f>
+        <f>'EBF TJ'!H16*0.2777778</f>
         <v>0</v>
       </c>
       <c r="I16" s="32">
-        <f>'EBF TJ'!I16*0.2778</f>
-        <v>4175.4367860000002</v>
+        <f>'EBF TJ'!I16*0.2777778</f>
+        <v>4175.1031117860002</v>
       </c>
       <c r="J16" s="32">
-        <f>'EBF TJ'!J16*0.2778</f>
-        <v>2570.4356183999998</v>
+        <f>'EBF TJ'!J16*0.2777778</f>
+        <v>2570.2302056183999</v>
       </c>
       <c r="K16" s="34">
         <f t="shared" si="1"/>
-        <v>7600.6224456</v>
+        <v>7600.0150524456003</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -6480,31 +6603,31 @@
         <v>66</v>
       </c>
       <c r="D17" s="32">
-        <f>'EBF TJ'!D17*0.2778</f>
+        <f>'EBF TJ'!D17*0.2777778</f>
         <v>0</v>
       </c>
       <c r="E17" s="32">
-        <f>'EBF TJ'!E17*0.2778</f>
+        <f>'EBF TJ'!E17*0.2777778</f>
         <v>0</v>
       </c>
       <c r="F17" s="32">
-        <f>'EBF TJ'!F17*0.2778</f>
+        <f>'EBF TJ'!F17*0.2777778</f>
         <v>0</v>
       </c>
       <c r="G17" s="32">
-        <f>'EBF TJ'!G17*0.2778</f>
+        <f>'EBF TJ'!G17*0.2777778</f>
         <v>0</v>
       </c>
       <c r="H17" s="32">
-        <f>'EBF TJ'!H17*0.2778</f>
+        <f>'EBF TJ'!H17*0.2777778</f>
         <v>0</v>
       </c>
       <c r="I17" s="32">
-        <f>'EBF TJ'!I17*0.2778</f>
+        <f>'EBF TJ'!I17*0.2777778</f>
         <v>0</v>
       </c>
       <c r="J17" s="32">
-        <f>'EBF TJ'!J17*0.2778</f>
+        <f>'EBF TJ'!J17*0.2777778</f>
         <v>0</v>
       </c>
       <c r="K17" s="34">
@@ -6520,36 +6643,36 @@
         <v>134</v>
       </c>
       <c r="D18" s="32">
-        <f>'EBF TJ'!D18*0.2778</f>
-        <v>7676.8410426</v>
+        <f>'EBF TJ'!D18*0.2777778</f>
+        <v>7676.2275585426005</v>
       </c>
       <c r="E18" s="32">
-        <f>'EBF TJ'!E18*0.2778</f>
-        <v>2605.3284096000002</v>
+        <f>'EBF TJ'!E18*0.2777778</f>
+        <v>2605.1202084096003</v>
       </c>
       <c r="F18" s="32">
-        <f>'EBF TJ'!F18*0.2778</f>
+        <f>'EBF TJ'!F18*0.2777778</f>
         <v>0</v>
       </c>
       <c r="G18" s="32">
-        <f>'EBF TJ'!G18*0.2778</f>
+        <f>'EBF TJ'!G18*0.2777778</f>
         <v>0</v>
       </c>
       <c r="H18" s="32">
-        <f>'EBF TJ'!H18*0.2778</f>
+        <f>'EBF TJ'!H18*0.2777778</f>
         <v>0</v>
       </c>
       <c r="I18" s="32">
-        <f>'EBF TJ'!I18*0.2778</f>
+        <f>'EBF TJ'!I18*0.2777778</f>
         <v>0</v>
       </c>
       <c r="J18" s="32">
-        <f>'EBF TJ'!J18*0.2778</f>
-        <v>2861.7898970999995</v>
+        <f>'EBF TJ'!J18*0.2777778</f>
+        <v>2861.5612011470998</v>
       </c>
       <c r="K18" s="34">
         <f t="shared" si="1"/>
-        <v>13143.959349299999</v>
+        <v>13142.9089680993</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -6560,36 +6683,36 @@
         <v>136</v>
       </c>
       <c r="D19" s="32">
-        <f>'EBF TJ'!D19*0.2778</f>
+        <f>'EBF TJ'!D19*0.2777778</f>
         <v>0</v>
       </c>
       <c r="E19" s="32">
-        <f>'EBF TJ'!E19*0.2778</f>
-        <v>8782.1658503999988</v>
+        <f>'EBF TJ'!E19*0.2777778</f>
+        <v>8781.4640358504003</v>
       </c>
       <c r="F19" s="32">
-        <f>'EBF TJ'!F19*0.2778</f>
+        <f>'EBF TJ'!F19*0.2777778</f>
         <v>0</v>
       </c>
       <c r="G19" s="32">
-        <f>'EBF TJ'!G19*0.2778</f>
+        <f>'EBF TJ'!G19*0.2777778</f>
         <v>0</v>
       </c>
       <c r="H19" s="32">
-        <f>'EBF TJ'!H19*0.2778</f>
+        <f>'EBF TJ'!H19*0.2777778</f>
         <v>0</v>
       </c>
       <c r="I19" s="32">
-        <f>'EBF TJ'!I19*0.2778</f>
+        <f>'EBF TJ'!I19*0.2777778</f>
         <v>0</v>
       </c>
       <c r="J19" s="32">
-        <f>'EBF TJ'!J19*0.2778</f>
-        <v>150.62052090000017</v>
+        <f>'EBF TJ'!J19*0.2777778</f>
+        <v>150.60848427090019</v>
       </c>
       <c r="K19" s="34">
         <f t="shared" si="1"/>
-        <v>8932.7863712999988</v>
+        <v>8932.0725201213008</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -6600,36 +6723,36 @@
         <v>137</v>
       </c>
       <c r="D20" s="32">
-        <f>'EBF TJ'!D20*0.2778</f>
+        <f>'EBF TJ'!D20*0.2777778</f>
         <v>0</v>
       </c>
       <c r="E20" s="32">
-        <f>'EBF TJ'!E20*0.2778</f>
-        <v>2025.1100514</v>
+        <f>'EBF TJ'!E20*0.2777778</f>
+        <v>2024.9482175514001</v>
       </c>
       <c r="F20" s="32">
-        <f>'EBF TJ'!F20*0.2778</f>
+        <f>'EBF TJ'!F20*0.2777778</f>
         <v>0</v>
       </c>
       <c r="G20" s="32">
-        <f>'EBF TJ'!G20*0.2778</f>
+        <f>'EBF TJ'!G20*0.2777778</f>
         <v>0</v>
       </c>
       <c r="H20" s="32">
-        <f>'EBF TJ'!H20*0.2778</f>
+        <f>'EBF TJ'!H20*0.2777778</f>
         <v>0</v>
       </c>
       <c r="I20" s="32">
-        <f>'EBF TJ'!I20*0.2778</f>
+        <f>'EBF TJ'!I20*0.2777778</f>
         <v>0</v>
       </c>
       <c r="J20" s="32">
-        <f>'EBF TJ'!J20*0.2778</f>
+        <f>'EBF TJ'!J20*0.2777778</f>
         <v>0</v>
       </c>
       <c r="K20" s="34">
         <f t="shared" si="1"/>
-        <v>2025.1100514</v>
+        <v>2024.9482175514001</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -6640,36 +6763,36 @@
         <v>69</v>
       </c>
       <c r="D21" s="32">
-        <f>'EBF TJ'!D21*0.2778</f>
+        <f>'EBF TJ'!D21*0.2777778</f>
         <v>0</v>
       </c>
       <c r="E21" s="32">
-        <f>'EBF TJ'!E21*0.2778</f>
-        <v>27881.631463199999</v>
+        <f>'EBF TJ'!E21*0.2777778</f>
+        <v>27879.403341463199</v>
       </c>
       <c r="F21" s="32">
-        <f>'EBF TJ'!F21*0.2778</f>
+        <f>'EBF TJ'!F21*0.2777778</f>
         <v>0</v>
       </c>
       <c r="G21" s="32">
-        <f>'EBF TJ'!G21*0.2778</f>
+        <f>'EBF TJ'!G21*0.2777778</f>
         <v>0</v>
       </c>
       <c r="H21" s="32">
-        <f>'EBF TJ'!H21*0.2778</f>
+        <f>'EBF TJ'!H21*0.2777778</f>
         <v>0</v>
       </c>
       <c r="I21" s="32">
-        <f>'EBF TJ'!I21*0.2778</f>
-        <v>110.84970059999999</v>
+        <f>'EBF TJ'!I21*0.2777778</f>
+        <v>110.84084220060001</v>
       </c>
       <c r="J21" s="32">
-        <f>'EBF TJ'!J21*0.2778</f>
-        <v>46.523721600000002</v>
+        <f>'EBF TJ'!J21*0.2777778</f>
+        <v>46.520003721600006</v>
       </c>
       <c r="K21" s="34">
         <f t="shared" si="1"/>
-        <v>28039.004885399998</v>
+        <v>28036.764187385401</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -6680,36 +6803,36 @@
         <v>71</v>
       </c>
       <c r="D22" s="32">
-        <f>'EBF TJ'!D22*0.2778</f>
+        <f>'EBF TJ'!D22*0.2777778</f>
         <v>0</v>
       </c>
       <c r="E22" s="32">
-        <f>'EBF TJ'!E22*0.2778</f>
-        <v>2025.1100514</v>
+        <f>'EBF TJ'!E22*0.2777778</f>
+        <v>2024.9482175514001</v>
       </c>
       <c r="F22" s="32">
-        <f>'EBF TJ'!F22*0.2778</f>
+        <f>'EBF TJ'!F22*0.2777778</f>
         <v>0</v>
       </c>
       <c r="G22" s="32">
-        <f>'EBF TJ'!G22*0.2778</f>
+        <f>'EBF TJ'!G22*0.2777778</f>
         <v>0</v>
       </c>
       <c r="H22" s="32">
-        <f>'EBF TJ'!H22*0.2778</f>
+        <f>'EBF TJ'!H22*0.2777778</f>
         <v>0</v>
       </c>
       <c r="I22" s="32">
-        <f>'EBF TJ'!I22*0.2778</f>
+        <f>'EBF TJ'!I22*0.2777778</f>
         <v>0</v>
       </c>
       <c r="J22" s="32">
-        <f>'EBF TJ'!J22*0.2778</f>
+        <f>'EBF TJ'!J22*0.2777778</f>
         <v>0</v>
       </c>
       <c r="K22" s="34">
         <f t="shared" si="1"/>
-        <v>2025.1100514</v>
+        <v>2024.9482175514001</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -6719,18 +6842,37 @@
       <c r="C23" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="74">
-        <v>4304.424</v>
-      </c>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="77">
+      <c r="D23" s="32">
+        <f>'EBF TJ'!D23*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="32">
+        <f>'EBF TJ'!E23*0.2777778</f>
+        <v>1195.6734289872002</v>
+      </c>
+      <c r="F23" s="32">
+        <f>'EBF TJ'!F23*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="32">
+        <f>'EBF TJ'!G23*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="32">
+        <f>'EBF TJ'!H23*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="32">
+        <f>'EBF TJ'!I23*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="32">
+        <f>'EBF TJ'!J23*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="76">
         <f t="shared" si="1"/>
-        <v>4304.424</v>
+        <v>1195.6734289872002</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -6740,22 +6882,41 @@
       <c r="C24" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33">
-        <v>45897</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="78">
+      <c r="D24" s="32">
+        <f>'EBF TJ'!D24*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="32">
+        <f>'EBF TJ'!E24*0.2777778</f>
+        <v>12749.167686600002</v>
+      </c>
+      <c r="F24" s="32">
+        <f>'EBF TJ'!F24*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="32">
+        <f>'EBF TJ'!G24*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="32">
+        <f>'EBF TJ'!H24*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="32">
+        <f>'EBF TJ'!I24*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="32">
+        <f>'EBF TJ'!J24*0.2777778</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="77">
         <f t="shared" si="1"/>
-        <v>45897</v>
+        <v>12749.167686600002</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="55" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="38" t="s">
@@ -6763,26 +6924,26 @@
       </c>
       <c r="D25" s="36">
         <f t="shared" ref="D25:K25" si="2">SUM(D15:D24)</f>
-        <v>7676.8410426</v>
-      </c>
-      <c r="E25" s="75">
+        <v>7676.2275585426005</v>
+      </c>
+      <c r="E25" s="74">
         <f t="shared" si="2"/>
-        <v>95736.337612799995</v>
-      </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75">
+        <v>59476.115869200003</v>
+      </c>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74">
         <f>SUM(I15:I24)</f>
-        <v>389997.38118359999</v>
-      </c>
-      <c r="J25" s="75">
+        <v>389966.21508618363</v>
+      </c>
+      <c r="J25" s="74">
         <f>SUM(J15:J24)</f>
-        <v>11723.977287599999</v>
-      </c>
-      <c r="K25" s="76">
+        <v>11723.040382287601</v>
+      </c>
+      <c r="K25" s="75">
         <f t="shared" si="2"/>
-        <v>505134.53712660004</v>
+        <v>468841.59889621375</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -6932,7 +7093,7 @@
       </c>
       <c r="D38" s="15">
         <f>D5/(D18+E18)</f>
-        <v>0.43947549133545488</v>
+        <v>0.43947549133545494</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -6968,7 +7129,7 @@
         <f>D18/(D18+E18)</f>
         <v>0.7466168572973132</v>
       </c>
-      <c r="E40" s="122">
+      <c r="E40" s="121">
         <f>E18/(D18+E18)</f>
         <v>0.25338314270268686</v>
       </c>
@@ -7027,7 +7188,7 @@
       <c r="J45" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="K45" s="91" t="s">
+      <c r="K45" s="90" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7038,12 +7199,12 @@
       <c r="C46" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="122">
+      <c r="D46" s="121">
         <f>D18/(D18+E18)</f>
         <v>0.7466168572973132</v>
       </c>
-      <c r="E46" s="122"/>
-      <c r="K46" s="128">
+      <c r="E46" s="121"/>
+      <c r="K46" s="127">
         <f>SUM(D46:J46)</f>
         <v>0.7466168572973132</v>
       </c>
@@ -7058,12 +7219,12 @@
       <c r="C47" t="s">
         <v>167</v>
       </c>
-      <c r="E47" s="122">
+      <c r="E47" s="121">
         <f>E18/(D18+E18)</f>
         <v>0.25338314270268686</v>
       </c>
-      <c r="J47" s="122"/>
-      <c r="K47" s="128">
+      <c r="J47" s="121"/>
+      <c r="K47" s="127">
         <f>SUM(D47:J47)</f>
         <v>0.25338314270268686</v>
       </c>
@@ -7078,10 +7239,10 @@
       <c r="C48" t="s">
         <v>172</v>
       </c>
-      <c r="J48" s="122">
+      <c r="J48" s="121">
         <v>1</v>
       </c>
-      <c r="K48" s="128">
+      <c r="K48" s="127">
         <f>SUM(D48:J48)</f>
         <v>1</v>
       </c>
@@ -7090,73 +7251,73 @@
       </c>
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J49" s="122"/>
-      <c r="K49" s="128"/>
+      <c r="J49" s="121"/>
+      <c r="K49" s="127"/>
     </row>
     <row r="50" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J50" s="122"/>
-      <c r="K50" s="128"/>
+      <c r="J50" s="121"/>
+      <c r="K50" s="127"/>
     </row>
     <row r="51" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J51" s="122"/>
-      <c r="K51" s="128"/>
+      <c r="J51" s="121"/>
+      <c r="K51" s="127"/>
     </row>
     <row r="52" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J52" s="122"/>
-      <c r="K52" s="128"/>
+      <c r="J52" s="121"/>
+      <c r="K52" s="127"/>
     </row>
     <row r="53" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J53" s="122"/>
-      <c r="K53" s="128"/>
+      <c r="J53" s="121"/>
+      <c r="K53" s="127"/>
     </row>
     <row r="54" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J54" s="122"/>
-      <c r="K54" s="128"/>
+      <c r="J54" s="121"/>
+      <c r="K54" s="127"/>
     </row>
     <row r="55" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J55" s="122"/>
-      <c r="K55" s="128"/>
+      <c r="J55" s="121"/>
+      <c r="K55" s="127"/>
     </row>
     <row r="56" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J56" s="122"/>
-      <c r="K56" s="128"/>
+      <c r="J56" s="121"/>
+      <c r="K56" s="127"/>
     </row>
     <row r="57" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J57" s="122"/>
-      <c r="K57" s="128"/>
+      <c r="J57" s="121"/>
+      <c r="K57" s="127"/>
     </row>
     <row r="58" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J58" s="122"/>
-      <c r="K58" s="128"/>
+      <c r="J58" s="121"/>
+      <c r="K58" s="127"/>
     </row>
     <row r="59" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J59" s="122"/>
-      <c r="K59" s="128"/>
+      <c r="J59" s="121"/>
+      <c r="K59" s="127"/>
     </row>
     <row r="60" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J60" s="122"/>
-      <c r="K60" s="128"/>
+      <c r="J60" s="121"/>
+      <c r="K60" s="127"/>
     </row>
     <row r="61" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J61" s="122"/>
-      <c r="K61" s="128"/>
+      <c r="J61" s="121"/>
+      <c r="K61" s="127"/>
     </row>
     <row r="62" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J62" s="122"/>
-      <c r="K62" s="128"/>
+      <c r="J62" s="121"/>
+      <c r="K62" s="127"/>
     </row>
     <row r="63" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J63" s="122"/>
-      <c r="K63" s="128"/>
+      <c r="J63" s="121"/>
+      <c r="K63" s="127"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="83" t="s">
+      <c r="C65" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="D65" s="84" t="s">
+      <c r="D65" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="E65" s="85" t="s">
+      <c r="E65" s="84" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7164,13 +7325,13 @@
       <c r="B66" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="86" t="s">
+      <c r="C66" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="86" t="s">
+      <c r="D66" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="E66" s="87" t="s">
+      <c r="E66" s="86" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7178,11 +7339,11 @@
       <c r="B67" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="88">
+      <c r="C67" s="87">
         <v>1</v>
       </c>
-      <c r="D67" s="89"/>
-      <c r="E67" s="90"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="89"/>
     </row>
   </sheetData>
   <phoneticPr fontId="27" type="noConversion"/>
@@ -7209,15 +7370,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="50" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7227,21 +7388,21 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
@@ -7259,8 +7420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:O24"/>
+    <sheetView topLeftCell="A9" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7322,17 +7483,17 @@
         <f>EBF!P2</f>
         <v>TH$2022</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
     </row>
     <row r="3" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
@@ -7348,125 +7509,125 @@
         <f>EBF!P2</f>
         <v>TH$2022</v>
       </c>
-      <c r="L3" s="68" t="s">
+      <c r="L3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="69" t="s">
+      <c r="M3" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="68" t="s">
+      <c r="O3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="68" t="s">
+      <c r="P3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="68" t="s">
+      <c r="Q3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="68" t="s">
+      <c r="R3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="68" t="s">
+      <c r="S3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="68" t="s">
+      <c r="T3" s="67" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="81" t="s">
         <v>169</v>
       </c>
       <c r="G4" s="7" t="str">
         <f>EBF!P2</f>
         <v>TH$2022</v>
       </c>
-      <c r="L4" s="70" t="s">
+      <c r="L4" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="70" t="s">
+      <c r="M4" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="70" t="s">
+      <c r="T4" s="69" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="82"/>
-      <c r="L5" s="67" t="s">
+      <c r="E5" s="81"/>
+      <c r="L5" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="67" t="s">
+      <c r="M5" s="70"/>
+      <c r="N5" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="O5" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="P5" s="67" t="s">
+      <c r="P5" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="Q5" s="67" t="s">
+      <c r="Q5" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66" t="s">
         <v>183</v>
-      </c>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="67" t="s">
+      <c r="M6" s="70"/>
+      <c r="N6" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="O6" s="67" t="s">
+      <c r="O6" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="P6" s="67" t="s">
+      <c r="P6" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="Q6" s="67" t="s">
+      <c r="Q6" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66" t="s">
         <v>183</v>
-      </c>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -7482,170 +7643,170 @@
       <c r="G7" t="s">
         <v>125</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="67" t="s">
+      <c r="M7" s="70"/>
+      <c r="N7" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="O7" s="67" t="s">
+      <c r="O7" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="P7" s="67" t="s">
+      <c r="P7" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="Q7" s="67" t="s">
+      <c r="Q7" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L8" s="67" t="s">
+      <c r="L8" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="70"/>
+      <c r="N8" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q8" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="71"/>
-      <c r="N8" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="O8" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="P8" s="67" t="s">
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L10" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="70"/>
+      <c r="N10" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="P10" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="Q8" s="67" t="s">
+      <c r="Q10" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67" t="s">
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L11" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="70"/>
+      <c r="N11" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="O11" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="P11" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q11" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L10" s="67" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L12" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="70"/>
+      <c r="N12" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q12" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L13" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="71"/>
-      <c r="N10" s="67" t="s">
-        <v>180</v>
-      </c>
-      <c r="O10" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="P10" s="67" t="s">
+      <c r="M13" s="70"/>
+      <c r="N13" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="O13" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="P13" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="Q10" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L11" s="67" t="s">
+      <c r="Q13" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L14" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="71"/>
-      <c r="N11" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="O11" s="67" t="s">
-        <v>262</v>
-      </c>
-      <c r="P11" s="67" t="s">
+      <c r="M14" s="70"/>
+      <c r="N14" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="O14" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="P14" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="Q11" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L12" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="71"/>
-      <c r="N12" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="O12" s="67" t="s">
-        <v>258</v>
-      </c>
-      <c r="P12" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q12" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L13" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="71"/>
-      <c r="N13" s="67" t="s">
-        <v>259</v>
-      </c>
-      <c r="O13" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="P13" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q13" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L14" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="71"/>
-      <c r="N14" s="67" t="s">
-        <v>252</v>
-      </c>
-      <c r="O14" s="67" t="s">
-        <v>261</v>
-      </c>
-      <c r="P14" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q14" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
+      <c r="Q14" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L15" s="67"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L16" s="1"/>
@@ -7662,17 +7823,17 @@
         <v>13</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="L17" s="66" t="s">
+      <c r="L17" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="66"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
@@ -7690,43 +7851,43 @@
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="65" t="s">
+      <c r="H18" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="65" t="s">
+      <c r="I18" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="79" t="s">
+      <c r="J18" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="L18" s="68" t="s">
+      <c r="L18" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="69" t="s">
+      <c r="M18" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="68" t="s">
+      <c r="N18" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="O18" s="68" t="s">
+      <c r="O18" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="P18" s="68" t="s">
+      <c r="P18" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="68" t="s">
+      <c r="Q18" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="68" t="s">
+      <c r="R18" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="S18" s="68" t="s">
+      <c r="S18" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="T18" s="68" t="s">
+      <c r="T18" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7751,34 +7912,34 @@
       <c r="I19" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="80" t="s">
+      <c r="J19" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="L19" s="70" t="s">
+      <c r="L19" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="70" t="s">
+      <c r="M19" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="70" t="s">
+      <c r="N19" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="70" t="s">
+      <c r="O19" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="P19" s="70" t="s">
+      <c r="P19" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="70" t="s">
+      <c r="Q19" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R19" s="70" t="s">
+      <c r="R19" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="S19" s="70" t="s">
+      <c r="S19" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="T19" s="70" t="s">
+      <c r="T19" s="69" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7795,32 +7956,32 @@
         <v>GWh</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I20" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="J20" s="81"/>
-      <c r="L20" s="70" t="s">
+      <c r="J20" s="80"/>
+      <c r="L20" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="67" t="str">
+      <c r="B21" s="66" t="str">
         <f>N21</f>
         <v>MINCOA</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="67" t="str">
+      <c r="D21" s="66" t="str">
         <f>N5</f>
         <v>MANCOALMIN</v>
       </c>
@@ -7830,47 +7991,47 @@
       <c r="F21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="48">
         <v>2673000</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="49">
         <v>4.5449999999999999</v>
       </c>
-      <c r="I21" s="92">
+      <c r="I21" s="91">
         <f>EBF!D5</f>
-        <v>4518.7614720000001</v>
-      </c>
-      <c r="J21" s="129">
+        <v>4518.4003614720004</v>
+      </c>
+      <c r="J21" s="128">
         <v>8.76</v>
       </c>
-      <c r="L21" s="67" t="str">
+      <c r="L21" s="66" t="str">
         <f>EBF!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71" t="str">
+      <c r="M21" s="70"/>
+      <c r="N21" s="70" t="str">
         <f>$L$21&amp;$C$2</f>
         <v>MINCOA</v>
       </c>
-      <c r="O21" s="73" t="str">
+      <c r="O21" s="72" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Coal </v>
       </c>
-      <c r="P21" s="71" t="s">
+      <c r="P21" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="67" t="str">
+      <c r="B22" s="66" t="str">
         <f t="shared" ref="B22:B23" si="0">N22</f>
         <v>IMPCOA</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="67" t="str">
+      <c r="D22" s="66" t="str">
         <f>N6</f>
         <v>MANCOALIMP</v>
       </c>
@@ -7880,45 +8041,45 @@
       <c r="F22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="64">
+      <c r="G22" s="62"/>
+      <c r="H22" s="63">
         <v>21.004999999999999</v>
       </c>
-      <c r="I22" s="93">
+      <c r="I22" s="92">
         <f>EBF!D6</f>
-        <v>3157.9140017999998</v>
-      </c>
-      <c r="J22" s="129">
+        <v>3157.6616415018002</v>
+      </c>
+      <c r="J22" s="128">
         <v>8.76</v>
       </c>
-      <c r="L22" s="71" t="str">
+      <c r="L22" s="70" t="str">
         <f>EBF!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71" t="str">
+      <c r="M22" s="70"/>
+      <c r="N22" s="70" t="str">
         <f>$L$22&amp;$C$2</f>
         <v>IMPCOA</v>
       </c>
-      <c r="O22" s="73" t="str">
+      <c r="O22" s="72" t="str">
         <f>"Import of "&amp;$D$2&amp;" "</f>
         <v xml:space="preserve">Import of Coal </v>
       </c>
-      <c r="P22" s="71" t="s">
+      <c r="P22" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="67" t="str">
+      <c r="B23" s="66" t="str">
         <f t="shared" si="0"/>
         <v>IMPOIL</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="67" t="str">
+      <c r="D23" s="66" t="str">
         <f t="shared" ref="D23" si="1">N7</f>
         <v>MANOILIMP</v>
       </c>
@@ -7928,25 +8089,25 @@
       <c r="F23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="49">
         <v>29.234999999999999</v>
       </c>
-      <c r="I23" s="93">
+      <c r="I23" s="92">
         <f>EBF!E18</f>
-        <v>2605.3284096000002</v>
-      </c>
-      <c r="J23" s="129">
+        <v>2605.1202084096003</v>
+      </c>
+      <c r="J23" s="128">
         <v>8.76</v>
       </c>
       <c r="L23" t="str">
         <f>EBF!B6</f>
         <v>IMP</v>
       </c>
-      <c r="N23" s="71" t="str">
+      <c r="N23" s="70" t="str">
         <f>$L$23&amp;$C$3</f>
         <v>IMPOIL</v>
       </c>
-      <c r="O23" s="73" t="str">
+      <c r="O23" s="72" t="str">
         <f>"Import of "&amp;$D$3&amp;" "</f>
         <v xml:space="preserve">Import of Oil </v>
       </c>
@@ -7955,14 +8116,14 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="71" t="str">
+      <c r="C24" s="70" t="str">
         <f>N8</f>
-        <v>GRIDELC</v>
-      </c>
-      <c r="D24" s="67" t="s">
+        <v>ELCRNW</v>
+      </c>
+      <c r="D24" s="66" t="s">
         <v>175</v>
       </c>
       <c r="E24" s="1">
@@ -7971,47 +8132,57 @@
       <c r="F24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="49">
         <v>100</v>
       </c>
-      <c r="I24" s="93">
+      <c r="I24" s="92">
         <f>EBF!J18</f>
-        <v>2861.7898970999995</v>
-      </c>
-      <c r="J24" s="129">
+        <v>2861.5612011470998</v>
+      </c>
+      <c r="J24" s="128">
         <v>8.76</v>
       </c>
-      <c r="N24" s="71"/>
-      <c r="O24" s="73"/>
+      <c r="L24" t="s">
+        <v>274</v>
+      </c>
+      <c r="N24" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="P24" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="67"/>
-      <c r="D25" s="67"/>
+      <c r="B25" s="66"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="129"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="73"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="128"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="72"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="67"/>
-      <c r="D26" s="67"/>
+      <c r="B26" s="66"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="129"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="73"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="128"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="72"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="67" t="str">
+      <c r="B27" s="66" t="str">
         <f>N23</f>
         <v>IMPOIL</v>
       </c>
-      <c r="D27" s="67" t="str">
+      <c r="D27" s="66" t="str">
         <f>N13</f>
         <v>CONMDRIVE</v>
       </c>
@@ -8019,25 +8190,25 @@
         <v>2022</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="H27" s="50">
+      <c r="H27" s="49">
         <f>H23</f>
         <v>29.234999999999999</v>
       </c>
-      <c r="I27" s="93">
+      <c r="I27" s="92">
         <f>EBF!E19</f>
-        <v>8782.1658503999988</v>
-      </c>
-      <c r="J27" s="129">
+        <v>8781.4640358504003</v>
+      </c>
+      <c r="J27" s="128">
         <v>8.76</v>
       </c>
-      <c r="N27" s="71"/>
-      <c r="O27" s="73"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="72"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="D28" s="67" t="str">
+      <c r="B28" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="66" t="str">
         <f>N14</f>
         <v>CONELC</v>
       </c>
@@ -8045,28 +8216,28 @@
         <v>2022</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="H28" s="50">
+      <c r="H28" s="49">
         <f>H24</f>
         <v>100</v>
       </c>
-      <c r="I28" s="93">
+      <c r="I28" s="92">
         <f>EBF!J19</f>
-        <v>150.62052090000017</v>
-      </c>
-      <c r="J28" s="129">
+        <v>150.60848427090019</v>
+      </c>
+      <c r="J28" s="128">
         <v>8.76</v>
       </c>
-      <c r="N28" s="71"/>
-      <c r="O28" s="73"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="72"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="48"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="1" t="s">
         <v>100</v>
       </c>
@@ -8113,35 +8284,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21:U21"/>
+    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="94" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="94" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" style="94" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="94" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="94" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="94" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="94" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="94" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="94" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="94" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="94" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="94" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.109375" style="94" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="94" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.109375" style="94" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="63.88671875" style="94" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.21875" style="94" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" style="94" customWidth="1"/>
-    <col min="22" max="22" width="13.44140625" style="94" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" style="94" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" style="94" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="94"/>
+    <col min="1" max="1" width="3" style="93" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="93" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" style="93" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="93" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="93" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="93" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="93" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="93" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="93" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="93" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.109375" style="93" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="93" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.109375" style="93" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" style="93" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="63.88671875" style="93" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.21875" style="93" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" style="93" customWidth="1"/>
+    <col min="22" max="22" width="13.44140625" style="93" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" style="93" customWidth="1"/>
+    <col min="24" max="24" width="8.44140625" style="93" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
@@ -8176,7 +8347,7 @@
         <f>EBF!C18</f>
         <v>Manufacturing</v>
       </c>
-      <c r="D2" s="53" t="str">
+      <c r="D2" s="52" t="str">
         <f>"Demand Technologies"</f>
         <v>Demand Technologies</v>
       </c>
@@ -8194,226 +8365,226 @@
       <c r="J2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="95" t="s">
+      <c r="P2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="P3" s="97" t="s">
+      <c r="P3" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="98" t="s">
+      <c r="Q3" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="97" t="s">
+      <c r="R3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="97" t="s">
+      <c r="S3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="97" t="s">
+      <c r="T3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="97" t="s">
+      <c r="U3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="97" t="s">
+      <c r="V3" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="97" t="s">
+      <c r="W3" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="97" t="s">
+      <c r="X3" s="96" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="P4" s="99" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="P4" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="99" t="s">
+      <c r="Q4" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="99" t="s">
+      <c r="R4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="99" t="s">
+      <c r="S4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="99" t="s">
+      <c r="T4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="99" t="s">
+      <c r="U4" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="99" t="s">
+      <c r="V4" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="99" t="s">
+      <c r="W4" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="99" t="s">
+      <c r="X4" s="98" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="P5" s="96" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="P5" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96" t="s">
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="S5" s="96" t="s">
+      <c r="S5" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="T5" s="96" t="s">
+      <c r="T5" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="U5" s="96" t="s">
+      <c r="U5" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="6" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="P6" s="96" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="P6" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96" t="s">
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="S6" s="96" t="s">
+      <c r="S6" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="T6" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="U6" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="T6" s="96" t="s">
-        <v>169</v>
-      </c>
-      <c r="U6" s="96" t="s">
-        <v>183</v>
-      </c>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96" t="s">
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="P7" s="96" t="s">
+      <c r="P7" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96" t="str">
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95" t="str">
         <f>$B$2&amp;EBF!C65</f>
         <v>MANCO2</v>
       </c>
-      <c r="S7" s="96" t="str">
+      <c r="S7" s="95" t="str">
         <f>$C$2&amp;" "&amp;EBF!C65</f>
         <v>Manufacturing CO2</v>
       </c>
-      <c r="T7" s="96" t="str">
+      <c r="T7" s="95" t="str">
         <f>EBF!R2</f>
         <v>kt</v>
       </c>
-      <c r="U7" s="96"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="96"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="95"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="P9" s="96" t="s">
+      <c r="P9" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96" t="s">
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="S9" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="T9" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="U9" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P10" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="S10" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="S9" s="96" t="s">
-        <v>254</v>
-      </c>
-      <c r="T9" s="96" t="s">
+      <c r="T10" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="U9" s="96" t="s">
-        <v>183</v>
-      </c>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="P10" s="96" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96" t="s">
-        <v>251</v>
-      </c>
-      <c r="S10" s="96" t="s">
-        <v>253</v>
-      </c>
-      <c r="T10" s="96" t="s">
-        <v>169</v>
-      </c>
-      <c r="U10" s="96" t="s">
-        <v>183</v>
-      </c>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
+      <c r="U10" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
     </row>
     <row r="11" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H11" s="100" t="s">
+      <c r="H11" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="I11" s="100"/>
+      <c r="I11" s="99"/>
     </row>
     <row r="12" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
@@ -8421,523 +8592,541 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="H12" s="101">
+      <c r="H12" s="100">
         <v>0.2</v>
       </c>
-      <c r="I12" s="101"/>
+      <c r="I12" s="100"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="95" t="s">
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
     </row>
     <row r="13" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="104" t="s">
+      <c r="F13" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="103" t="s">
+      <c r="G13" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="104" t="s">
+      <c r="H13" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="104" t="s">
-        <v>266</v>
-      </c>
-      <c r="J13" s="103" t="s">
+      <c r="I13" s="103" t="s">
+        <v>265</v>
+      </c>
+      <c r="J13" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="103" t="s">
+      <c r="K13" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="L13" s="103" t="s">
+      <c r="L13" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="M13" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="M13" s="105" t="s">
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="X13" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="S13" s="97" t="s">
-        <v>2</v>
-      </c>
-      <c r="T13" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="U13" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="V13" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="W13" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="X13" s="97" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="106" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="I14" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="J14" s="107" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="106" t="s">
-        <v>121</v>
-      </c>
-      <c r="L14" s="106" t="s">
+      <c r="M14" s="106" t="s">
         <v>187</v>
       </c>
-      <c r="M14" s="107" t="s">
-        <v>188</v>
-      </c>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="99" t="s">
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="Q14" s="99" t="s">
+      <c r="Q14" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="99" t="s">
+      <c r="R14" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="S14" s="99" t="s">
+      <c r="S14" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="T14" s="99" t="s">
+      <c r="T14" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="U14" s="99" t="s">
+      <c r="U14" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="V14" s="99" t="s">
+      <c r="V14" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="W14" s="99" t="s">
+      <c r="W14" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="X14" s="99" t="s">
+      <c r="X14" s="98" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110" t="s">
-        <v>264</v>
-      </c>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="110" t="s">
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="110"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="99" t="s">
+      <c r="L15" s="109"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="99"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="99"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="94" t="str">
+      <c r="B16" s="93" t="str">
         <f>R$16</f>
         <v>Kiln</v>
       </c>
-      <c r="C16" s="94" t="str">
+      <c r="C16" s="93" t="str">
         <f>Sector_Fuels!N5</f>
         <v>MANCOALMIN</v>
       </c>
-      <c r="D16" s="96" t="str">
+      <c r="D16" s="95" t="str">
         <f>R5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E16" s="117">
+      <c r="E16" s="116">
         <f>EBF!D5/(DemTechs_INDF!G16*DemTechs_INDF!F29)*1000</f>
-        <v>937.89154669987556</v>
-      </c>
-      <c r="F16" s="113">
+        <v>937.81659640348698</v>
+      </c>
+      <c r="F16" s="112">
         <v>0.44</v>
       </c>
-      <c r="G16" s="114">
+      <c r="G16" s="113">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H16" s="115">
+      <c r="H16" s="114">
         <f>1-H17-H18</f>
         <v>0.55159999999999998</v>
       </c>
-      <c r="I16" s="115">
+      <c r="I16" s="114">
         <f>1-I17-I18</f>
         <v>0.59128000000000003</v>
       </c>
-      <c r="J16" s="114">
+      <c r="J16" s="113">
         <v>0.9</v>
       </c>
-      <c r="K16" s="144">
+      <c r="K16" s="143">
         <v>30</v>
       </c>
-      <c r="L16" s="116">
+      <c r="L16" s="115">
         <v>144094</v>
       </c>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="94" t="s">
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="R16" s="94" t="s">
+      <c r="R16" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="S16" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="T16" s="96" t="str">
+      <c r="S16" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="T16" s="95" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="U16" s="96" t="s">
+      <c r="U16" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="94" t="str">
+      <c r="B17" s="93" t="str">
         <f>R$16</f>
         <v>Kiln</v>
       </c>
-      <c r="C17" s="94" t="str">
+      <c r="C17" s="93" t="str">
         <f>Sector_Fuels!N6</f>
         <v>MANCOALIMP</v>
       </c>
-      <c r="D17" s="96" t="str">
+      <c r="D17" s="95" t="str">
         <f>R5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E17" s="117">
+      <c r="E17" s="116">
         <f>EBF!D6/(DemTechs_INDF!G17*DemTechs_INDF!F29)*1000</f>
-        <v>655.44084719800742</v>
-      </c>
-      <c r="F17" s="113">
+        <v>655.38846855579084</v>
+      </c>
+      <c r="F17" s="112">
         <v>0.31</v>
       </c>
-      <c r="G17" s="114">
+      <c r="G17" s="113">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H17" s="115">
+      <c r="H17" s="114">
         <f>IF(F$17=0,20%,F$17*(1-H$12)^2)</f>
         <v>0.19840000000000005</v>
       </c>
-      <c r="I17" s="115">
+      <c r="I17" s="114">
         <f>IF(F$17=0,20%,F$17*(1-H$12)^3)</f>
         <v>0.15872000000000003</v>
       </c>
-      <c r="J17" s="114">
+      <c r="J17" s="113">
         <v>0.9</v>
       </c>
-      <c r="K17" s="144">
+      <c r="K17" s="143">
         <v>30</v>
       </c>
-      <c r="L17" s="116">
+      <c r="L17" s="115">
         <v>144094</v>
       </c>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="94" t="s">
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="R17" s="94" t="s">
+      <c r="R17" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="S17" s="94" t="s">
+      <c r="S17" s="93" t="s">
         <v>163</v>
       </c>
-      <c r="T17" s="96" t="str">
+      <c r="T17" s="95" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="U17" s="96" t="s">
+      <c r="U17" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="94" t="str">
+      <c r="B18" s="93" t="str">
         <f>R$17</f>
         <v>Boiler</v>
       </c>
-      <c r="C18" s="94" t="str">
+      <c r="C18" s="93" t="str">
         <f>Sector_Fuels!N7</f>
         <v>MANOILIMP</v>
       </c>
-      <c r="D18" s="96" t="str">
+      <c r="D18" s="95" t="str">
         <f>R5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E18" s="117">
+      <c r="E18" s="116">
         <f>EBF!E18/(DemTechs_INDF!G18*DemTechs_INDF!F29)*1000</f>
-        <v>396.54922520547944</v>
-      </c>
-      <c r="F18" s="113">
+        <v>396.51753552657539</v>
+      </c>
+      <c r="F18" s="112">
         <v>0.25</v>
       </c>
-      <c r="G18" s="114">
+      <c r="G18" s="113">
         <v>0.75</v>
       </c>
-      <c r="H18" s="115">
+      <c r="H18" s="114">
         <f>IF(F$18=0,20%,F$18*(1))</f>
         <v>0.25</v>
       </c>
-      <c r="I18" s="115">
+      <c r="I18" s="114">
         <f>IF(F$18=0,20%,F$18*(1))</f>
         <v>0.25</v>
       </c>
-      <c r="J18" s="117">
+      <c r="J18" s="116">
         <v>0.9</v>
       </c>
-      <c r="K18" s="116">
+      <c r="K18" s="115">
         <v>30</v>
       </c>
-      <c r="L18" s="116">
+      <c r="L18" s="115">
         <v>60000</v>
       </c>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-    </row>
-    <row r="19" spans="2:24" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="94" t="str">
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="P18" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="R18" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="S18" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="T18" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="U18" s="93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="93" t="str">
         <f>R$21</f>
         <v>ELC</v>
       </c>
-      <c r="C19" s="94" t="str">
+      <c r="C19" s="93" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>GRIDELC</v>
-      </c>
-      <c r="D19" s="96" t="str">
+        <v>ELCRNW</v>
+      </c>
+      <c r="D19" s="95" t="str">
         <f>R6</f>
         <v>MANELC</v>
       </c>
-      <c r="E19" s="117">
+      <c r="E19" s="116">
         <f>EBF!K18/(DemTechs_INDF!G19*DemTechs_INDF!F29)*1000</f>
-        <v>1500.4519805136986</v>
-      </c>
-      <c r="F19" s="124">
+        <v>1500.3320739839382</v>
+      </c>
+      <c r="F19" s="123">
         <v>1</v>
       </c>
-      <c r="G19" s="123">
+      <c r="G19" s="122">
         <v>1</v>
       </c>
-      <c r="H19" s="125">
+      <c r="H19" s="124">
         <v>1</v>
       </c>
-      <c r="I19" s="126">
+      <c r="I19" s="125">
         <v>1</v>
       </c>
-      <c r="J19" s="123">
+      <c r="J19" s="122">
         <v>1</v>
       </c>
-      <c r="K19" s="123">
+      <c r="K19" s="122">
         <v>50</v>
       </c>
+      <c r="L19" s="122">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="F20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
+      <c r="F20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="F21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="P21" s="94" t="s">
+      <c r="F21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="P21" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="R21" s="94" t="s">
+      <c r="R21" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="S21" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="T21" s="96" t="str">
+      <c r="S21" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="T21" s="95" t="str">
         <f t="shared" ref="T21" si="0">$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="U21" s="96" t="s">
+      <c r="U21" s="95" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="94" t="str">
+      <c r="B22" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="93" t="str">
         <f>Sector_Fuels!N13</f>
         <v>CONMDRIVE</v>
       </c>
-      <c r="D22" s="94" t="str">
+      <c r="D22" s="93" t="str">
         <f>Sector_Fuels!N13</f>
         <v>CONMDRIVE</v>
       </c>
-      <c r="F22" s="119">
+      <c r="F22" s="118">
         <v>1</v>
       </c>
-      <c r="G22" s="94">
+      <c r="G22" s="93">
         <v>1</v>
       </c>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="P22" s="94" t="s">
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="P22" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="94" t="s">
+      <c r="Q22" s="122"/>
+      <c r="R22" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="S22" s="122" t="s">
         <v>255</v>
       </c>
-      <c r="S22" s="123" t="s">
-        <v>256</v>
-      </c>
-      <c r="T22" s="127" t="s">
+      <c r="T22" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="U22" s="127" t="s">
+      <c r="U22" s="126" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="94" t="str">
+      <c r="C23" s="93" t="str">
         <f>Sector_Fuels!N14</f>
         <v>CONELC</v>
       </c>
-      <c r="D23" s="94" t="str">
+      <c r="D23" s="93" t="str">
         <f>Sector_Fuels!N14</f>
         <v>CONELC</v>
       </c>
-      <c r="F23" s="119">
+      <c r="F23" s="118">
         <v>1</v>
       </c>
       <c r="G23" s="21">
         <v>1</v>
       </c>
-      <c r="J23" s="120"/>
-      <c r="P23" s="94" t="s">
+      <c r="J23" s="119"/>
+      <c r="P23" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="R23" s="94" t="s">
+      <c r="R23" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="S23" s="94" t="s">
-        <v>257</v>
+      <c r="S23" s="93" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="J24" s="120"/>
+      <c r="J24" s="119"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="116"/>
-      <c r="C25" s="94" t="s">
+      <c r="B25" s="115"/>
+      <c r="C25" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="J25" s="120"/>
+      <c r="J25" s="119"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="121"/>
-      <c r="C26" s="94" t="s">
+      <c r="B26" s="120"/>
+      <c r="C26" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="J26" s="120"/>
+      <c r="J26" s="119"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E27" s="94" t="s">
+      <c r="E27" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="F27" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" s="119"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E29" s="93" t="s">
         <v>248</v>
       </c>
-      <c r="F27" s="94" t="s">
-        <v>250</v>
-      </c>
-      <c r="J27" s="120"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E29" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="F29" s="94">
+      <c r="F29" s="93">
         <f>24*365</f>
         <v>8760</v>
       </c>
@@ -8955,10 +9144,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
-  <dimension ref="B1:K59"/>
+  <dimension ref="B1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8966,11 +9155,13 @@
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
@@ -8983,11 +9174,11 @@
       <c r="E1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>82</v>
       </c>
@@ -8997,919 +9188,970 @@
         <f>EBF!Q2</f>
         <v>GWh</v>
       </c>
-      <c r="G2" s="7" t="str">
+      <c r="I2" s="7" t="str">
         <f>EBF!P2</f>
         <v>TH$2022</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="131" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="131"/>
+      <c r="D5" s="130"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="130" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="129" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="129" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="E6" s="129">
+        <v>2022</v>
+      </c>
+      <c r="F6" s="129">
+        <v>2050</v>
+      </c>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="L6" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="B7" s="132" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="132" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="132" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="132" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="132" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="129" t="s">
+        <v>188</v>
+      </c>
+      <c r="K7" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="L7" s="129" t="s">
+        <v>194</v>
+      </c>
+      <c r="M7" s="129">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="131" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="130">
-        <v>2022</v>
-      </c>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="J6" s="131" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="133" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="133" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="133" t="s">
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+    </row>
+    <row r="9" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="133" t="s">
         <v>193</v>
       </c>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="130" t="s">
-        <v>189</v>
-      </c>
-      <c r="I7" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="130" t="s">
-        <v>195</v>
-      </c>
-      <c r="K7" s="130">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="132" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="140" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-    </row>
-    <row r="9" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="134" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="134" t="str">
+      <c r="C9" s="133" t="str">
         <f>DemTechs_INDF!R5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="D9" s="134" t="str">
+      <c r="D9" s="133" t="str">
         <f>E$2</f>
         <v>GWh</v>
       </c>
-      <c r="E9" s="136">
+      <c r="E9" s="135">
         <f>EBF!D18-EBF!D6+EBF!D5</f>
-        <v>9037.6885127999994</v>
-      </c>
-      <c r="H9" s="9" t="s">
+        <v>9036.9662785128003</v>
+      </c>
+      <c r="F9" s="135">
+        <f>182694.6233*0.7</f>
+        <v>127886.23630999999</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="J9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="134" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="134" t="str">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="133" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="133" t="str">
         <f>DemTechs_INDF!R6</f>
         <v>MANELC</v>
       </c>
-      <c r="D10" s="134" t="str">
+      <c r="D10" s="133" t="str">
         <f>E$2</f>
         <v>GWh</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="135">
         <v>2605.3284096000002</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I10" s="1" t="str">
+      <c r="F10" s="135">
+        <v>78297.695699999997</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J10" s="94" t="s">
-        <v>197</v>
-      </c>
-      <c r="K10" s="141">
+      <c r="L10" s="93" t="s">
+        <v>196</v>
+      </c>
+      <c r="M10" s="140">
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="47"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I11" s="1" t="str">
+    <row r="11" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="140"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="153" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="152">
+        <f>E10/(E$9+E$10)</f>
+        <v>0.22378134890024159</v>
+      </c>
+      <c r="F12" s="152">
+        <f>F10/(F$9+F$10)</f>
+        <v>0.379746835443038</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K12" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J11" s="94" t="s">
-        <v>198</v>
-      </c>
-      <c r="K11" s="141">
+      <c r="L12" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="M12" s="140">
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="E12" s="21"/>
-      <c r="H12" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I12" s="1" t="str">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="D13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" s="152">
+        <f>E9/(E$9+E$10)</f>
+        <v>0.77621865109975841</v>
+      </c>
+      <c r="F13" s="152">
+        <f>F9/(F$9+F$10)</f>
+        <v>0.620253164556962</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="L13" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" s="140">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f>DemTechs_INDF!R$6</f>
+        <v>MANELC</v>
+      </c>
+      <c r="L14" s="141" t="s">
         <v>199</v>
       </c>
-      <c r="K12" s="141">
+      <c r="M14" s="142">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" t="str">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f>DemTechs_INDF!R$6</f>
+        <v>MANELC</v>
+      </c>
+      <c r="L15" t="s">
+        <v>200</v>
+      </c>
+      <c r="M15" s="140">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="5"/>
+      <c r="J16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f>DemTechs_INDF!R$6</f>
+        <v>MANELC</v>
+      </c>
+      <c r="L16" t="s">
+        <v>201</v>
+      </c>
+      <c r="M16" s="140">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f>DemTechs_INDF!R$6</f>
+        <v>MANELC</v>
+      </c>
+      <c r="L17" t="s">
+        <v>202</v>
+      </c>
+      <c r="M17" s="140">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f>DemTechs_INDF!R$6</f>
+        <v>MANELC</v>
+      </c>
+      <c r="L18" t="s">
+        <v>203</v>
+      </c>
+      <c r="M18" s="142">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" t="str">
         <f>DemTechs_INDF!R9</f>
         <v>CONELC</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D19" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E19" s="5">
         <f>EBF!J19</f>
-        <v>150.62052090000017</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I13" s="1" t="str">
+        <v>150.60848427090019</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J13" s="142" t="s">
-        <v>200</v>
-      </c>
-      <c r="K13" s="143">
+      <c r="L19" t="s">
+        <v>204</v>
+      </c>
+      <c r="M19" s="140">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" t="str">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" t="str">
         <f>DemTechs_INDF!R10</f>
         <v>CONOILIMP</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D20" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E20" s="5">
         <f>EBF!E19</f>
-        <v>8782.1658503999988</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I14" s="1" t="str">
+        <v>8781.4640358504003</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J14" t="s">
-        <v>201</v>
-      </c>
-      <c r="K14" s="141">
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" s="140">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
-      <c r="H15" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I15" s="1" t="str">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J15" t="s">
-        <v>202</v>
-      </c>
-      <c r="K15" s="141">
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" s="140">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H16" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I16" s="1" t="str">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="134"/>
+      <c r="C22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J16" t="s">
-        <v>203</v>
-      </c>
-      <c r="K16" s="141">
+      <c r="L22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" s="142">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H17" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I17" s="1" t="str">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="47"/>
+      <c r="C23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J17" t="s">
-        <v>204</v>
-      </c>
-      <c r="K17" s="143">
+      <c r="L23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" s="140">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H18" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I18" s="1" t="str">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J18" t="s">
-        <v>205</v>
-      </c>
-      <c r="K18" s="141">
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" s="140">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H19" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I19" s="1" t="str">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J19" t="s">
-        <v>206</v>
-      </c>
-      <c r="K19" s="141">
+      <c r="L25" t="s">
+        <v>210</v>
+      </c>
+      <c r="M25" s="140">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H20" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I20" s="1" t="str">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J20" t="s">
-        <v>207</v>
-      </c>
-      <c r="K20" s="141">
+      <c r="L26" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" s="142">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="135"/>
-      <c r="C21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I21" s="1" t="str">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K27" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J21" t="s">
-        <v>208</v>
-      </c>
-      <c r="K21" s="143">
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" s="140">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="48"/>
-      <c r="C22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I22" s="1" t="str">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J22" t="s">
-        <v>209</v>
-      </c>
-      <c r="K22" s="141">
+      <c r="L28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" s="140">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H23" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I23" s="1" t="str">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J23" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" s="141">
+      <c r="L29" t="s">
+        <v>214</v>
+      </c>
+      <c r="M29" s="140">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H24" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I24" s="1" t="str">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J24" t="s">
-        <v>211</v>
-      </c>
-      <c r="K24" s="141">
+      <c r="L30" t="s">
+        <v>215</v>
+      </c>
+      <c r="M30" s="142">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H25" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I25" s="1" t="str">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K31" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J25" t="s">
-        <v>212</v>
-      </c>
-      <c r="K25" s="143">
+      <c r="L31" t="s">
+        <v>216</v>
+      </c>
+      <c r="M31" s="140">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H26" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I26" s="1" t="str">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K32" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J26" t="s">
-        <v>213</v>
-      </c>
-      <c r="K26" s="141">
+      <c r="L32" t="s">
+        <v>217</v>
+      </c>
+      <c r="M32" s="140">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H27" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I27" s="1" t="str">
+    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K33" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J27" t="s">
-        <v>214</v>
-      </c>
-      <c r="K27" s="141">
+      <c r="L33" t="s">
+        <v>218</v>
+      </c>
+      <c r="M33" s="140">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H28" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I28" s="1" t="str">
+    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K34" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J28" t="s">
-        <v>215</v>
-      </c>
-      <c r="K28" s="141">
+      <c r="L34" t="s">
+        <v>219</v>
+      </c>
+      <c r="M34" s="142">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H29" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I29" s="1" t="str">
+    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K35" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J29" t="s">
-        <v>216</v>
-      </c>
-      <c r="K29" s="143">
+      <c r="L35" t="s">
+        <v>220</v>
+      </c>
+      <c r="M35" s="140">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H30" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I30" s="1" t="str">
+    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K36" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J30" t="s">
-        <v>217</v>
-      </c>
-      <c r="K30" s="141">
+      <c r="L36" t="s">
+        <v>221</v>
+      </c>
+      <c r="M36" s="140">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H31" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I31" s="1" t="str">
+    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K37" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J31" t="s">
-        <v>218</v>
-      </c>
-      <c r="K31" s="141">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H32" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I32" s="1" t="str">
+      <c r="L37" t="s">
+        <v>222</v>
+      </c>
+      <c r="M37" s="140">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K38" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J32" t="s">
-        <v>219</v>
-      </c>
-      <c r="K32" s="141">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I33" s="1" t="str">
+      <c r="L38" t="s">
+        <v>223</v>
+      </c>
+      <c r="M38" s="142">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J39" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K39" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J33" t="s">
-        <v>220</v>
-      </c>
-      <c r="K33" s="143">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H34" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I34" s="1" t="str">
+      <c r="L39" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" s="140">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K40" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J34" t="s">
-        <v>221</v>
-      </c>
-      <c r="K34" s="141">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I35" s="1" t="str">
+      <c r="L40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M40" s="140">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J41" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K41" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J35" t="s">
-        <v>222</v>
-      </c>
-      <c r="K35" s="141">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I36" s="1" t="str">
+      <c r="L41" t="s">
+        <v>226</v>
+      </c>
+      <c r="M41" s="140">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K42" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J36" t="s">
-        <v>223</v>
-      </c>
-      <c r="K36" s="141">
+      <c r="L42" t="s">
+        <v>227</v>
+      </c>
+      <c r="M42" s="142">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H37" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I37" s="1" t="str">
+    <row r="43" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K43" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J37" t="s">
-        <v>224</v>
-      </c>
-      <c r="K37" s="143">
+      <c r="L43" t="s">
+        <v>228</v>
+      </c>
+      <c r="M43" s="140">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H38" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I38" s="1" t="str">
+    <row r="44" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J44" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K44" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J38" t="s">
-        <v>225</v>
-      </c>
-      <c r="K38" s="141">
+      <c r="L44" t="s">
+        <v>229</v>
+      </c>
+      <c r="M44" s="140">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H39" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I39" s="1" t="str">
+    <row r="45" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J45" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K45" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J39" t="s">
-        <v>226</v>
-      </c>
-      <c r="K39" s="141">
+      <c r="L45" t="s">
+        <v>230</v>
+      </c>
+      <c r="M45" s="140">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H40" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I40" s="1" t="str">
+    <row r="46" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K46" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J40" t="s">
-        <v>227</v>
-      </c>
-      <c r="K40" s="141">
+      <c r="L46" t="s">
+        <v>231</v>
+      </c>
+      <c r="M46" s="142">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H41" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I41" s="1" t="str">
+    <row r="47" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J47" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K47" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J41" t="s">
-        <v>228</v>
-      </c>
-      <c r="K41" s="143">
+      <c r="L47" t="s">
+        <v>232</v>
+      </c>
+      <c r="M47" s="140">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="42" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H42" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I42" s="1" t="str">
+    <row r="48" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K48" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J42" t="s">
-        <v>229</v>
-      </c>
-      <c r="K42" s="141">
+      <c r="L48" t="s">
+        <v>233</v>
+      </c>
+      <c r="M48" s="140">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="43" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H43" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I43" s="1" t="str">
+    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K49" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J43" t="s">
-        <v>230</v>
-      </c>
-      <c r="K43" s="141">
+      <c r="L49" t="s">
+        <v>234</v>
+      </c>
+      <c r="M49" s="140">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="44" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H44" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I44" s="1" t="str">
+    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K50" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J44" t="s">
-        <v>231</v>
-      </c>
-      <c r="K44" s="141">
+      <c r="L50" t="s">
+        <v>235</v>
+      </c>
+      <c r="M50" s="142">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="45" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H45" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I45" s="1" t="str">
+    <row r="51" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K51" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J45" t="s">
-        <v>232</v>
-      </c>
-      <c r="K45" s="143">
+      <c r="L51" t="s">
+        <v>236</v>
+      </c>
+      <c r="M51" s="140">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="46" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H46" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I46" s="1" t="str">
+    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K52" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J46" t="s">
-        <v>233</v>
-      </c>
-      <c r="K46" s="141">
+      <c r="L52" t="s">
+        <v>237</v>
+      </c>
+      <c r="M52" s="140">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="47" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H47" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I47" s="1" t="str">
+    <row r="53" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J53" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K53" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J47" t="s">
-        <v>234</v>
-      </c>
-      <c r="K47" s="141">
+      <c r="L53" t="s">
+        <v>238</v>
+      </c>
+      <c r="M53" s="140">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="48" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H48" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I48" s="1" t="str">
+    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J54" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K54" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J48" t="s">
-        <v>235</v>
-      </c>
-      <c r="K48" s="141">
+      <c r="L54" t="s">
+        <v>239</v>
+      </c>
+      <c r="M54" s="142">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H49" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I49" s="1" t="str">
+    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J55" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K55" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J49" t="s">
-        <v>236</v>
-      </c>
-      <c r="K49" s="143">
+      <c r="L55" t="s">
+        <v>240</v>
+      </c>
+      <c r="M55" s="140">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H50" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I50" s="1" t="str">
+    <row r="56" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J56" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K56" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J50" t="s">
-        <v>237</v>
-      </c>
-      <c r="K50" s="141">
+      <c r="L56" t="s">
+        <v>241</v>
+      </c>
+      <c r="M56" s="140">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H51" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I51" s="1" t="str">
+    <row r="57" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K57" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J51" t="s">
-        <v>238</v>
-      </c>
-      <c r="K51" s="141">
+      <c r="L57" t="s">
+        <v>242</v>
+      </c>
+      <c r="M57" s="140">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H52" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I52" s="1" t="str">
+    <row r="58" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J58" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K58" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J52" t="s">
-        <v>239</v>
-      </c>
-      <c r="K52" s="141">
+      <c r="L58" t="s">
+        <v>243</v>
+      </c>
+      <c r="M58" s="142">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H53" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I53" s="1" t="str">
+    <row r="59" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K59" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J53" t="s">
-        <v>240</v>
-      </c>
-      <c r="K53" s="143">
+      <c r="L59" t="s">
+        <v>244</v>
+      </c>
+      <c r="M59" s="140">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H54" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I54" s="1" t="str">
+    <row r="60" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K60" s="1" t="str">
         <f>DemTechs_INDF!R$6</f>
         <v>MANELC</v>
       </c>
-      <c r="J54" t="s">
-        <v>241</v>
-      </c>
-      <c r="K54" s="141">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H55" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I55" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="J55" t="s">
-        <v>242</v>
-      </c>
-      <c r="K55" s="141">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H56" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I56" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="J56" t="s">
-        <v>243</v>
-      </c>
-      <c r="K56" s="141">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H57" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I57" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="J57" t="s">
-        <v>244</v>
-      </c>
-      <c r="K57" s="143">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H58" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I58" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="L60" t="s">
         <v>245</v>
       </c>
-      <c r="K58" s="141">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H59" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I59" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="J59" t="s">
-        <v>246</v>
-      </c>
-      <c r="K59" s="141">
+      <c r="M60" s="140">
         <v>3.125E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9930,103 +10172,103 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="144" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+    </row>
+    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+    </row>
+    <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B5" s="146" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-    </row>
-    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-    </row>
-    <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B5" s="147" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="148"/>
+      <c r="C5" s="147"/>
     </row>
     <row r="6" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="149" t="str">
+      <c r="C6" s="148" t="str">
         <f>Sector_Fuels!N5</f>
         <v>MANCOALMIN</v>
       </c>
-      <c r="D6" s="149" t="str">
+      <c r="D6" s="148" t="str">
         <f>Sector_Fuels!N6</f>
         <v>MANCOALIMP</v>
       </c>
-      <c r="E6" s="149" t="str">
+      <c r="E6" s="148" t="str">
         <f>Sector_Fuels!N7</f>
         <v>MANOILIMP</v>
       </c>
-      <c r="F6" s="149" t="str">
+      <c r="F6" s="148" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>GRIDELC</v>
-      </c>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
+        <v>ELCRNW</v>
+      </c>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="150" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="150" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="150" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" s="150" t="s">
-        <v>270</v>
-      </c>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
+      <c r="C7" s="149" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="149" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="149" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="149" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="151" t="str">
+      <c r="B8" s="150" t="str">
         <f>DemTechs_INDF!R7</f>
         <v>MANCO2</v>
       </c>
-      <c r="C8" s="152">
+      <c r="C8" s="151">
         <v>347494</v>
       </c>
-      <c r="D8" s="152">
+      <c r="D8" s="151">
         <v>347494</v>
       </c>
-      <c r="E8" s="152">
+      <c r="E8" s="151">
         <v>279515</v>
       </c>
-      <c r="F8" s="152">
+      <c r="F8" s="151">
         <v>0</v>
       </c>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
       <c r="I8" s="1"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="135"/>
+      <c r="B23" s="134"/>
       <c r="C23" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="48"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="1" t="s">
         <v>100</v>
       </c>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEE04F2-6E46-4621-BB28-DC007022EBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE7DEBD-F659-4F49-A7E7-8848B3F2ECDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -834,7 +834,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{2A0D7E80-5B80-433D-8263-BA3B897C06A1}">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{2A0D7E80-5B80-433D-8263-BA3B897C06A1}">
       <text>
         <r>
           <rPr>
@@ -948,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="1" shapeId="0" xr:uid="{43B8DB13-97B8-4A90-8E0C-84FAE4CBD2EE}">
+    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{43B8DB13-97B8-4A90-8E0C-84FAE4CBD2EE}">
       <text>
         <r>
           <rPr>
@@ -974,7 +974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{2086376C-E954-4E0A-86A9-0D188820E5D4}">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{2086376C-E954-4E0A-86A9-0D188820E5D4}">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{C18132A6-0DCC-46ED-9E3E-6E9D416748A3}">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{C18132A6-0DCC-46ED-9E3E-6E9D416748A3}">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="2" shapeId="0" xr:uid="{EFF6FA36-E1C1-4FF3-A44F-72D97BD59DA1}">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{EFF6FA36-E1C1-4FF3-A44F-72D97BD59DA1}">
       <text>
         <r>
           <rPr>
@@ -1133,7 +1133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V13" authorId="2" shapeId="0" xr:uid="{B8BF4189-7AEB-4804-8932-33CB73FCE7E5}">
+    <comment ref="T13" authorId="2" shapeId="0" xr:uid="{B8BF4189-7AEB-4804-8932-33CB73FCE7E5}">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W13" authorId="1" shapeId="0" xr:uid="{5D6B271C-ECB1-4F2A-B44A-CFC55CCC04E5}">
+    <comment ref="U13" authorId="1" shapeId="0" xr:uid="{5D6B271C-ECB1-4F2A-B44A-CFC55CCC04E5}">
       <text>
         <r>
           <rPr>
@@ -1251,7 +1251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X13" authorId="2" shapeId="0" xr:uid="{2D72E718-CBF9-42D3-993C-F0AD66976F32}">
+    <comment ref="V13" authorId="2" shapeId="0" xr:uid="{2D72E718-CBF9-42D3-993C-F0AD66976F32}">
       <text>
         <r>
           <rPr>
@@ -1314,7 +1314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="2" shapeId="0" xr:uid="{0B963EA5-F116-4DDE-B632-C6029837D6FB}">
+    <comment ref="N14" authorId="2" shapeId="0" xr:uid="{0B963EA5-F116-4DDE-B632-C6029837D6FB}">
       <text>
         <r>
           <rPr>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="277">
   <si>
     <t>CommName</t>
   </si>
@@ -2032,15 +2032,9 @@
     <t>ENV</t>
   </si>
   <si>
-    <t>Relaxation factor</t>
-  </si>
-  <si>
     <t>Share-I~UP</t>
   </si>
   <si>
-    <t>Share-I~2030~UP</t>
-  </si>
-  <si>
     <t>Input Share</t>
   </si>
   <si>
@@ -2359,9 +2353,6 @@
     <t>Coal to heat transformation technology</t>
   </si>
   <si>
-    <t>Share-I~2052~UP</t>
-  </si>
-  <si>
     <t>Renewable based electricity-domestic</t>
   </si>
   <si>
@@ -2399,6 +2390,9 @@
   </si>
   <si>
     <t>Fossil share</t>
+  </si>
+  <si>
+    <t>Demand Driver(Annual growth)</t>
   </si>
 </sst>
 </file>
@@ -2596,7 +2590,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2697,6 +2691,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2962,7 +2962,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3164,10 +3164,6 @@
     <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="9" fontId="18" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3201,7 +3197,6 @@
     </xf>
     <xf numFmtId="9" fontId="8" fillId="15" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="13" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="24" fillId="13" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
@@ -3211,8 +3206,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="9" fontId="8" fillId="17" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="24" fillId="17" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="8" fillId="17" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="8" fillId="17" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="8" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3261,6 +3254,26 @@
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="8" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -4226,13 +4239,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
@@ -4412,11 +4425,11 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>2191</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>21561</xdr:rowOff>
+      <xdr:rowOff>17751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>931427</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>92721</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>75778</xdr:rowOff>
     </xdr:to>
@@ -4433,8 +4446,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3411804" y="3190942"/>
-          <a:ext cx="2762588" cy="918210"/>
+          <a:off x="3774260" y="3494797"/>
+          <a:ext cx="3757233" cy="922021"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4470,8 +4483,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>The demand value at 2050 is the average value of the energy demand projaction of Asfaw for 2048 and 2050</a:t>
+            <a:t>The</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> demand driver growth rate is computed based historical growth data of the respective energy consumption between 2019 and 2023</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5145,7 +5163,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>127</v>
@@ -5830,13 +5848,13 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -5882,13 +5900,13 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D40" s="18">
         <f>D18/(D18+E18)</f>
         <v>0.7466168572973132</v>
       </c>
-      <c r="E40" s="121">
+      <c r="E40" s="118">
         <f>E18/(D18+E18)</f>
         <v>0.25338314270268686</v>
       </c>
@@ -5958,12 +5976,12 @@
       <c r="C46" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="121">
+      <c r="D46" s="118">
         <f>D18/(D18+E18)</f>
         <v>0.7466168572973132</v>
       </c>
-      <c r="E46" s="121"/>
-      <c r="K46" s="127">
+      <c r="E46" s="118"/>
+      <c r="K46" s="122">
         <f>SUM(D46:J46)</f>
         <v>0.7466168572973132</v>
       </c>
@@ -5976,19 +5994,19 @@
         <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E47" s="121">
+        <v>165</v>
+      </c>
+      <c r="E47" s="118">
         <f>E18/(D18+E18)</f>
         <v>0.25338314270268686</v>
       </c>
-      <c r="J47" s="121"/>
-      <c r="K47" s="127">
+      <c r="J47" s="118"/>
+      <c r="K47" s="122">
         <f>SUM(D47:J47)</f>
         <v>0.25338314270268686</v>
       </c>
       <c r="L47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -5996,78 +6014,78 @@
         <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
-      </c>
-      <c r="J48" s="121">
+        <v>170</v>
+      </c>
+      <c r="J48" s="118">
         <v>1</v>
       </c>
-      <c r="K48" s="127">
+      <c r="K48" s="122">
         <f>SUM(D48:J48)</f>
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J49" s="121"/>
-      <c r="K49" s="127"/>
+      <c r="J49" s="118"/>
+      <c r="K49" s="122"/>
     </row>
     <row r="50" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J50" s="121"/>
-      <c r="K50" s="127"/>
+      <c r="J50" s="118"/>
+      <c r="K50" s="122"/>
     </row>
     <row r="51" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J51" s="121"/>
-      <c r="K51" s="127"/>
+      <c r="J51" s="118"/>
+      <c r="K51" s="122"/>
     </row>
     <row r="52" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J52" s="121"/>
-      <c r="K52" s="127"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="122"/>
     </row>
     <row r="53" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J53" s="121"/>
-      <c r="K53" s="127"/>
+      <c r="J53" s="118"/>
+      <c r="K53" s="122"/>
     </row>
     <row r="54" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J54" s="121"/>
-      <c r="K54" s="127"/>
+      <c r="J54" s="118"/>
+      <c r="K54" s="122"/>
     </row>
     <row r="55" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J55" s="121"/>
-      <c r="K55" s="127"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="122"/>
     </row>
     <row r="56" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J56" s="121"/>
-      <c r="K56" s="127"/>
+      <c r="J56" s="118"/>
+      <c r="K56" s="122"/>
     </row>
     <row r="57" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J57" s="121"/>
-      <c r="K57" s="127"/>
+      <c r="J57" s="118"/>
+      <c r="K57" s="122"/>
     </row>
     <row r="58" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J58" s="121"/>
-      <c r="K58" s="127"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="122"/>
     </row>
     <row r="59" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J59" s="121"/>
-      <c r="K59" s="127"/>
+      <c r="J59" s="118"/>
+      <c r="K59" s="122"/>
     </row>
     <row r="60" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J60" s="121"/>
-      <c r="K60" s="127"/>
+      <c r="J60" s="118"/>
+      <c r="K60" s="122"/>
     </row>
     <row r="61" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J61" s="121"/>
-      <c r="K61" s="127"/>
+      <c r="J61" s="118"/>
+      <c r="K61" s="122"/>
     </row>
     <row r="62" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J62" s="121"/>
-      <c r="K62" s="127"/>
+      <c r="J62" s="118"/>
+      <c r="K62" s="122"/>
     </row>
     <row r="63" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J63" s="121"/>
-      <c r="K63" s="127"/>
+      <c r="J63" s="118"/>
+      <c r="K63" s="122"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C65" s="82" t="s">
@@ -6115,7 +6133,7 @@
   <dimension ref="B1:R67"/>
   <sheetViews>
     <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6177,7 +6195,7 @@
         <v>125</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>94</v>
@@ -6186,7 +6204,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>127</v>
@@ -6420,20 +6438,20 @@
       <c r="C11" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138">
+      <c r="D11" s="133"/>
+      <c r="E11" s="133">
         <f>'EBF TJ'!E11*0.2777778</f>
         <v>-2.0000001600000004</v>
       </c>
-      <c r="F11" s="138">
+      <c r="F11" s="133">
         <f>'EBF TJ'!F11*0.2777778</f>
         <v>-16770.812452776001</v>
       </c>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
@@ -6635,42 +6653,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
+    <row r="18" spans="2:12" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="151">
         <f>'EBF TJ'!D18*0.2777778</f>
         <v>7676.2275585426005</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="151">
         <f>'EBF TJ'!E18*0.2777778</f>
         <v>2605.1202084096003</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="151">
         <f>'EBF TJ'!F18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="151">
         <f>'EBF TJ'!G18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="151">
         <f>'EBF TJ'!H18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="151">
         <f>'EBF TJ'!I18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="151">
         <f>'EBF TJ'!J18*0.2777778</f>
         <v>2861.5612011470998</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="152">
         <f t="shared" si="1"/>
         <v>13142.9089680993</v>
       </c>
@@ -7071,13 +7089,13 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -7123,13 +7141,13 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D40" s="18">
         <f>D18/(D18+E18)</f>
         <v>0.7466168572973132</v>
       </c>
-      <c r="E40" s="121">
+      <c r="E40" s="118">
         <f>E18/(D18+E18)</f>
         <v>0.25338314270268686</v>
       </c>
@@ -7199,12 +7217,12 @@
       <c r="C46" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="121">
+      <c r="D46" s="118">
         <f>D18/(D18+E18)</f>
         <v>0.7466168572973132</v>
       </c>
-      <c r="E46" s="121"/>
-      <c r="K46" s="127">
+      <c r="E46" s="118"/>
+      <c r="K46" s="122">
         <f>SUM(D46:J46)</f>
         <v>0.7466168572973132</v>
       </c>
@@ -7217,19 +7235,19 @@
         <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E47" s="121">
+        <v>165</v>
+      </c>
+      <c r="E47" s="118">
         <f>E18/(D18+E18)</f>
         <v>0.25338314270268686</v>
       </c>
-      <c r="J47" s="121"/>
-      <c r="K47" s="127">
+      <c r="J47" s="118"/>
+      <c r="K47" s="122">
         <f>SUM(D47:J47)</f>
         <v>0.25338314270268686</v>
       </c>
       <c r="L47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -7237,78 +7255,78 @@
         <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
-      </c>
-      <c r="J48" s="121">
+        <v>170</v>
+      </c>
+      <c r="J48" s="118">
         <v>1</v>
       </c>
-      <c r="K48" s="127">
+      <c r="K48" s="122">
         <f>SUM(D48:J48)</f>
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J49" s="121"/>
-      <c r="K49" s="127"/>
+      <c r="J49" s="118"/>
+      <c r="K49" s="122"/>
     </row>
     <row r="50" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J50" s="121"/>
-      <c r="K50" s="127"/>
+      <c r="J50" s="118"/>
+      <c r="K50" s="122"/>
     </row>
     <row r="51" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J51" s="121"/>
-      <c r="K51" s="127"/>
+      <c r="J51" s="118"/>
+      <c r="K51" s="122"/>
     </row>
     <row r="52" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J52" s="121"/>
-      <c r="K52" s="127"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="122"/>
     </row>
     <row r="53" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J53" s="121"/>
-      <c r="K53" s="127"/>
+      <c r="J53" s="118"/>
+      <c r="K53" s="122"/>
     </row>
     <row r="54" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J54" s="121"/>
-      <c r="K54" s="127"/>
+      <c r="J54" s="118"/>
+      <c r="K54" s="122"/>
     </row>
     <row r="55" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J55" s="121"/>
-      <c r="K55" s="127"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="122"/>
     </row>
     <row r="56" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J56" s="121"/>
-      <c r="K56" s="127"/>
+      <c r="J56" s="118"/>
+      <c r="K56" s="122"/>
     </row>
     <row r="57" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J57" s="121"/>
-      <c r="K57" s="127"/>
+      <c r="J57" s="118"/>
+      <c r="K57" s="122"/>
     </row>
     <row r="58" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J58" s="121"/>
-      <c r="K58" s="127"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="122"/>
     </row>
     <row r="59" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J59" s="121"/>
-      <c r="K59" s="127"/>
+      <c r="J59" s="118"/>
+      <c r="K59" s="122"/>
     </row>
     <row r="60" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J60" s="121"/>
-      <c r="K60" s="127"/>
+      <c r="J60" s="118"/>
+      <c r="K60" s="122"/>
     </row>
     <row r="61" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J61" s="121"/>
-      <c r="K61" s="127"/>
+      <c r="J61" s="118"/>
+      <c r="K61" s="122"/>
     </row>
     <row r="62" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J62" s="121"/>
-      <c r="K62" s="127"/>
+      <c r="J62" s="118"/>
+      <c r="K62" s="122"/>
     </row>
     <row r="63" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J63" s="121"/>
-      <c r="K63" s="127"/>
+      <c r="J63" s="118"/>
+      <c r="K63" s="122"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C65" s="82" t="s">
@@ -7420,7 +7438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -7477,7 +7495,7 @@
         <v>Coal</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G2" s="7" t="str">
         <f>EBF!P2</f>
@@ -7500,10 +7518,10 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G3" s="7" t="str">
         <f>EBF!P2</f>
@@ -7542,10 +7560,10 @@
         <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G4" s="7" t="str">
         <f>EBF!P2</f>
@@ -7591,18 +7609,18 @@
         <v>153</v>
       </c>
       <c r="O5" s="66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P5" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
       <c r="T5" s="66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -7616,18 +7634,18 @@
         <v>154</v>
       </c>
       <c r="O6" s="66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q6" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R6" s="66"/>
       <c r="S6" s="66"/>
       <c r="T6" s="66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -7638,7 +7656,7 @@
         <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G7" t="s">
         <v>125</v>
@@ -7648,21 +7666,21 @@
       </c>
       <c r="M7" s="70"/>
       <c r="N7" s="66" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O7" s="66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P7" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R7" s="66"/>
       <c r="S7" s="66"/>
       <c r="T7" s="66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -7671,16 +7689,16 @@
       </c>
       <c r="M8" s="70"/>
       <c r="N8" s="66" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O8" s="66" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P8" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R8" s="66"/>
       <c r="S8" s="66"/>
@@ -7694,21 +7712,21 @@
       </c>
       <c r="M10" s="70"/>
       <c r="N10" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="O10" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="P10" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q10" s="66" t="s">
         <v>180</v>
-      </c>
-      <c r="O10" s="66" t="s">
-        <v>262</v>
-      </c>
-      <c r="P10" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q10" s="66" t="s">
-        <v>182</v>
       </c>
       <c r="R10" s="66"/>
       <c r="S10" s="66"/>
       <c r="T10" s="66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -7717,16 +7735,16 @@
       </c>
       <c r="M11" s="70"/>
       <c r="N11" s="66" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O11" s="66" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P11" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R11" s="66"/>
       <c r="S11" s="66"/>
@@ -7740,16 +7758,16 @@
       </c>
       <c r="M12" s="70"/>
       <c r="N12" s="66" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O12" s="66" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P12" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R12" s="66"/>
       <c r="S12" s="66"/>
@@ -7761,16 +7779,16 @@
       </c>
       <c r="M13" s="70"/>
       <c r="N13" s="66" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O13" s="66" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P13" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R13" s="66"/>
       <c r="S13" s="66"/>
@@ -7782,16 +7800,16 @@
       </c>
       <c r="M14" s="70"/>
       <c r="N14" s="66" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O14" s="66" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P14" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R14" s="66"/>
       <c r="S14" s="66"/>
@@ -7861,7 +7879,7 @@
         <v>80</v>
       </c>
       <c r="J18" s="78" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L18" s="67" t="s">
         <v>11</v>
@@ -7913,7 +7931,7 @@
         <v>88</v>
       </c>
       <c r="J19" s="79" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L19" s="69" t="s">
         <v>38</v>
@@ -7956,7 +7974,7 @@
         <v>GWh</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I20" s="8" t="str">
         <f>$E$2</f>
@@ -8001,7 +8019,7 @@
         <f>EBF!D5</f>
         <v>4518.4003614720004</v>
       </c>
-      <c r="J21" s="128">
+      <c r="J21" s="123">
         <v>8.76</v>
       </c>
       <c r="L21" s="66" t="str">
@@ -8018,7 +8036,7 @@
         <v xml:space="preserve">Domestic Supply of Coal </v>
       </c>
       <c r="P21" s="70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q21" s="70"/>
       <c r="R21" s="70"/>
@@ -8049,7 +8067,7 @@
         <f>EBF!D6</f>
         <v>3157.6616415018002</v>
       </c>
-      <c r="J22" s="128">
+      <c r="J22" s="123">
         <v>8.76</v>
       </c>
       <c r="L22" s="70" t="str">
@@ -8066,7 +8084,7 @@
         <v xml:space="preserve">Import of Coal </v>
       </c>
       <c r="P22" s="70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="70"/>
       <c r="R22" s="70"/>
@@ -8096,7 +8114,7 @@
         <f>EBF!E18</f>
         <v>2605.1202084096003</v>
       </c>
-      <c r="J23" s="128">
+      <c r="J23" s="123">
         <v>8.76</v>
       </c>
       <c r="L23" t="str">
@@ -8112,7 +8130,7 @@
         <v xml:space="preserve">Import of Oil </v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
@@ -8124,7 +8142,7 @@
         <v>ELCRNW</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E24" s="1">
         <v>2022</v>
@@ -8139,20 +8157,20 @@
         <f>EBF!J18</f>
         <v>2861.5612011470998</v>
       </c>
-      <c r="J24" s="128">
+      <c r="J24" s="123">
         <v>8.76</v>
       </c>
       <c r="L24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N24" s="70" t="s">
         <v>46</v>
       </c>
       <c r="O24" s="72" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
@@ -8162,7 +8180,7 @@
       <c r="F25" s="1"/>
       <c r="H25" s="49"/>
       <c r="I25" s="92"/>
-      <c r="J25" s="128"/>
+      <c r="J25" s="123"/>
       <c r="N25" s="70"/>
       <c r="O25" s="72"/>
     </row>
@@ -8173,7 +8191,7 @@
       <c r="F26" s="1"/>
       <c r="H26" s="49"/>
       <c r="I26" s="92"/>
-      <c r="J26" s="128"/>
+      <c r="J26" s="123"/>
       <c r="N26" s="70"/>
       <c r="O26" s="72"/>
     </row>
@@ -8198,7 +8216,7 @@
         <f>EBF!E19</f>
         <v>8781.4640358504003</v>
       </c>
-      <c r="J27" s="128">
+      <c r="J27" s="123">
         <v>8.76</v>
       </c>
       <c r="N27" s="70"/>
@@ -8206,7 +8224,7 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="66" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D28" s="66" t="str">
         <f>N14</f>
@@ -8224,7 +8242,7 @@
         <f>EBF!J19</f>
         <v>150.60848427090019</v>
       </c>
-      <c r="J28" s="128">
+      <c r="J28" s="123">
         <v>8.76</v>
       </c>
       <c r="N28" s="70"/>
@@ -8282,10 +8300,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
-  <dimension ref="B1:X30"/>
+  <dimension ref="B1:V30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A13" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8297,25 +8315,23 @@
     <col min="5" max="5" width="20" style="93" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" style="93" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="93" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="93" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="93" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="93" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.109375" style="93" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="93" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.109375" style="93" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" style="93" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="63.88671875" style="93" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.21875" style="93" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" style="93" customWidth="1"/>
-    <col min="22" max="22" width="13.44140625" style="93" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" style="93" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" style="93" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="93"/>
+    <col min="8" max="8" width="7.88671875" style="93" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="93" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.109375" style="93" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="93" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" style="93" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="93" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="63.88671875" style="93" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.21875" style="93" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" style="93" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" style="93" customWidth="1"/>
+    <col min="21" max="21" width="13.88671875" style="93" customWidth="1"/>
+    <col min="22" max="22" width="8.44140625" style="93" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
@@ -8332,13 +8348,11 @@
         <v>79</v>
       </c>
       <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="str">
         <f>EBF!B18</f>
         <v>MAN</v>
@@ -8360,174 +8374,168 @@
         <v>TH$2022</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="94" t="s">
+      <c r="N2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
       <c r="R2" s="95"/>
       <c r="S2" s="95"/>
       <c r="T2" s="95"/>
       <c r="U2" s="95"/>
       <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N3" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="97" t="s">
+        <v>30</v>
+      </c>
       <c r="P3" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="97" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="96" t="s">
+        <v>3</v>
       </c>
       <c r="R3" s="96" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S3" s="96" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T3" s="96" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U3" s="96" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V3" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="X3" s="96" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
       <c r="F4" s="53"/>
       <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="N4" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="98" t="s">
+        <v>31</v>
+      </c>
       <c r="P4" s="98" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="98" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R4" s="98" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="S4" s="98" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="T4" s="98" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="U4" s="98" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="V4" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="98" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="N5" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="95"/>
       <c r="P5" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q5" s="95"/>
+        <v>178</v>
+      </c>
+      <c r="Q5" s="95" t="s">
+        <v>179</v>
+      </c>
       <c r="R5" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="S5" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="S5" s="95" t="s">
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="T5" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="U5" s="95" t="s">
-        <v>182</v>
-      </c>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="N6" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="95"/>
       <c r="P6" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q6" s="95"/>
+        <v>173</v>
+      </c>
+      <c r="Q6" s="95" t="s">
+        <v>273</v>
+      </c>
       <c r="R6" s="95" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="S6" s="95" t="s">
-        <v>276</v>
-      </c>
-      <c r="T6" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="U6" s="95" t="s">
-        <v>182</v>
-      </c>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="P7" s="95" t="s">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N7" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95" t="str">
+      <c r="O7" s="95"/>
+      <c r="P7" s="95" t="str">
         <f>$B$2&amp;EBF!C65</f>
         <v>MANCO2</v>
       </c>
-      <c r="S7" s="95" t="str">
+      <c r="Q7" s="95" t="str">
         <f>$C$2&amp;" "&amp;EBF!C65</f>
         <v>Manufacturing CO2</v>
       </c>
-      <c r="T7" s="95" t="str">
+      <c r="R7" s="95" t="str">
         <f>EBF!R2</f>
         <v>kt</v>
       </c>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
       <c r="U7" s="95"/>
       <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
       <c r="P8" s="95"/>
       <c r="Q8" s="95"/>
       <c r="R8" s="95"/>
@@ -8535,86 +8543,74 @@
       <c r="T8" s="95"/>
       <c r="U8" s="95"/>
       <c r="V8" s="95"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="95"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N9" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="95"/>
       <c r="P9" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q9" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="R9" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="S9" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N10" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="S9" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="T9" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="U9" s="95" t="s">
-        <v>182</v>
-      </c>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O10" s="95"/>
       <c r="P10" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10" s="95"/>
+        <v>248</v>
+      </c>
+      <c r="Q10" s="95" t="s">
+        <v>250</v>
+      </c>
       <c r="R10" s="95" t="s">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="S10" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="T10" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="U10" s="95" t="s">
-        <v>182</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
       <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-    </row>
-    <row r="11" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H11" s="99" t="s">
-        <v>156</v>
-      </c>
-      <c r="I11" s="99"/>
-    </row>
-    <row r="12" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="H12" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="94" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
       <c r="R12" s="95"/>
       <c r="S12" s="95"/>
       <c r="T12" s="95"/>
       <c r="U12" s="95"/>
       <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-    </row>
-    <row r="13" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="54" t="s">
         <v>1</v>
       </c>
@@ -8624,166 +8620,152 @@
       <c r="D13" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="102" t="s">
+      <c r="E13" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="103" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="103" t="s">
-        <v>265</v>
-      </c>
-      <c r="J13" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" s="102" t="s">
+      <c r="G14" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="M13" s="104" t="s">
+      <c r="K14" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="S13" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="T13" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="U13" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="V13" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="W13" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="X13" s="96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="105" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="I14" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="J14" s="106" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="L14" s="105" t="s">
-        <v>186</v>
-      </c>
-      <c r="M14" s="106" t="s">
-        <v>187</v>
-      </c>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="98" t="s">
+        <v>31</v>
+      </c>
       <c r="P14" s="98" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="98" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="R14" s="98" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S14" s="98" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T14" s="98" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="U14" s="98" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="V14" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="W14" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="X14" s="98" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="108" t="s">
+    <row r="15" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="109" t="s">
-        <v>263</v>
-      </c>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="109" t="s">
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="107" t="s">
         <v>114</v>
       </c>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
       <c r="L15" s="109"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="98" t="s">
+      <c r="M15" s="109"/>
+      <c r="N15" s="98" t="s">
         <v>81</v>
       </c>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
       <c r="Q15" s="98"/>
       <c r="R15" s="98"/>
       <c r="S15" s="98"/>
       <c r="T15" s="98"/>
       <c r="U15" s="98"/>
       <c r="V15" s="98"/>
-      <c r="W15" s="98"/>
-      <c r="X15" s="98"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="93" t="str">
-        <f>R$16</f>
+        <f>P$16</f>
         <v>Kiln</v>
       </c>
       <c r="C16" s="93" t="str">
@@ -8791,62 +8773,54 @@
         <v>MANCOALMIN</v>
       </c>
       <c r="D16" s="95" t="str">
-        <f>R5</f>
+        <f>P5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E16" s="116">
+      <c r="E16" s="113">
         <f>EBF!D5/(DemTechs_INDF!G16*DemTechs_INDF!F29)*1000</f>
         <v>937.81659640348698</v>
       </c>
-      <c r="F16" s="112">
+      <c r="F16" s="110">
         <v>0.44</v>
       </c>
-      <c r="G16" s="113">
+      <c r="G16" s="111">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H16" s="114">
-        <f>1-H17-H18</f>
-        <v>0.55159999999999998</v>
-      </c>
-      <c r="I16" s="114">
-        <f>1-I17-I18</f>
-        <v>0.59128000000000003</v>
-      </c>
-      <c r="J16" s="113">
+      <c r="H16" s="111">
         <v>0.9</v>
       </c>
-      <c r="K16" s="143">
+      <c r="I16" s="138">
         <v>30</v>
       </c>
-      <c r="L16" s="115">
+      <c r="J16" s="112">
         <v>144094</v>
       </c>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="93" t="s">
+        <v>115</v>
+      </c>
       <c r="P16" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="R16" s="93" t="s">
-        <v>160</v>
-      </c>
-      <c r="S16" s="93" t="s">
-        <v>264</v>
-      </c>
-      <c r="T16" s="95" t="str">
+        <v>158</v>
+      </c>
+      <c r="Q16" s="93" t="s">
+        <v>262</v>
+      </c>
+      <c r="R16" s="95" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="U16" s="95" t="s">
-        <v>161</v>
-      </c>
+      <c r="S16" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
       <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="93" t="str">
-        <f>R$16</f>
+        <f>P$16</f>
         <v>Kiln</v>
       </c>
       <c r="C17" s="93" t="str">
@@ -8854,62 +8828,54 @@
         <v>MANCOALIMP</v>
       </c>
       <c r="D17" s="95" t="str">
-        <f>R5</f>
+        <f>P5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E17" s="116">
+      <c r="E17" s="113">
         <f>EBF!D6/(DemTechs_INDF!G17*DemTechs_INDF!F29)*1000</f>
         <v>655.38846855579084</v>
       </c>
-      <c r="F17" s="112">
+      <c r="F17" s="110">
         <v>0.31</v>
       </c>
-      <c r="G17" s="113">
+      <c r="G17" s="111">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H17" s="114">
-        <f>IF(F$17=0,20%,F$17*(1-H$12)^2)</f>
-        <v>0.19840000000000005</v>
-      </c>
-      <c r="I17" s="114">
-        <f>IF(F$17=0,20%,F$17*(1-H$12)^3)</f>
-        <v>0.15872000000000003</v>
-      </c>
-      <c r="J17" s="113">
+      <c r="H17" s="111">
         <v>0.9</v>
       </c>
-      <c r="K17" s="143">
+      <c r="I17" s="138">
         <v>30</v>
       </c>
-      <c r="L17" s="115">
+      <c r="J17" s="112">
         <v>144094</v>
       </c>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="93" t="s">
+        <v>115</v>
+      </c>
       <c r="P17" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="R17" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="S17" s="93" t="s">
-        <v>163</v>
-      </c>
-      <c r="T17" s="95" t="str">
+        <v>160</v>
+      </c>
+      <c r="Q17" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="R17" s="95" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="U17" s="95" t="s">
-        <v>161</v>
-      </c>
+      <c r="S17" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
       <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="93" t="str">
-        <f>R$17</f>
+        <f>P$17</f>
         <v>Boiler</v>
       </c>
       <c r="C18" s="93" t="str">
@@ -8917,57 +8883,49 @@
         <v>MANOILIMP</v>
       </c>
       <c r="D18" s="95" t="str">
-        <f>R5</f>
+        <f>P5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E18" s="116">
+      <c r="E18" s="113">
         <f>EBF!E18/(DemTechs_INDF!G18*DemTechs_INDF!F29)*1000</f>
         <v>396.51753552657539</v>
       </c>
-      <c r="F18" s="112">
+      <c r="F18" s="110">
         <v>0.25</v>
       </c>
-      <c r="G18" s="113">
+      <c r="G18" s="111">
         <v>0.75</v>
       </c>
-      <c r="H18" s="114">
-        <f>IF(F$18=0,20%,F$18*(1))</f>
-        <v>0.25</v>
-      </c>
-      <c r="I18" s="114">
-        <f>IF(F$18=0,20%,F$18*(1))</f>
-        <v>0.25</v>
-      </c>
-      <c r="J18" s="116">
+      <c r="H18" s="113">
         <v>0.9</v>
       </c>
-      <c r="K18" s="115">
+      <c r="I18" s="112">
         <v>30</v>
       </c>
-      <c r="L18" s="115">
+      <c r="J18" s="112">
         <v>60000</v>
       </c>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="N18" s="93" t="s">
+        <v>115</v>
+      </c>
       <c r="P18" s="93" t="s">
-        <v>115</v>
+        <v>46</v>
+      </c>
+      <c r="Q18" s="93" t="s">
+        <v>269</v>
       </c>
       <c r="R18" s="93" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="S18" s="93" t="s">
-        <v>272</v>
-      </c>
-      <c r="T18" s="93" t="s">
-        <v>169</v>
-      </c>
-      <c r="U18" s="93" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" s="122" customFormat="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="93" t="str">
-        <f>R$21</f>
+        <f>P$21</f>
         <v>ELC</v>
       </c>
       <c r="C19" s="93" t="str">
@@ -8975,64 +8933,54 @@
         <v>ELCRNW</v>
       </c>
       <c r="D19" s="95" t="str">
-        <f>R6</f>
+        <f>P6</f>
         <v>MANELC</v>
       </c>
-      <c r="E19" s="116">
+      <c r="E19" s="113">
         <f>EBF!K18/(DemTechs_INDF!G19*DemTechs_INDF!F29)*1000</f>
         <v>1500.3320739839382</v>
       </c>
-      <c r="F19" s="123">
+      <c r="F19" s="120">
         <v>1</v>
       </c>
-      <c r="G19" s="122">
+      <c r="G19" s="119">
         <v>1</v>
       </c>
-      <c r="H19" s="124">
+      <c r="H19" s="119">
         <v>1</v>
       </c>
-      <c r="I19" s="125">
-        <v>1</v>
-      </c>
-      <c r="J19" s="122">
-        <v>1</v>
-      </c>
-      <c r="K19" s="122">
+      <c r="I19" s="119">
         <v>50</v>
       </c>
-      <c r="L19" s="122">
+      <c r="J19" s="119">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="F20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="F21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F20" s="114"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F21" s="115"/>
+      <c r="N21" s="93" t="s">
+        <v>115</v>
+      </c>
       <c r="P21" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="R21" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="S21" s="93" t="s">
-        <v>272</v>
-      </c>
-      <c r="T21" s="95" t="str">
-        <f t="shared" ref="T21" si="0">$E$2</f>
+      <c r="Q21" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="R21" s="95" t="str">
+        <f t="shared" ref="R21" si="0">$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="U21" s="95" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S21" s="95" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="93" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C22" s="93" t="str">
         <f>Sector_Fuels!N13</f>
@@ -9042,32 +8990,30 @@
         <f>Sector_Fuels!N13</f>
         <v>CONMDRIVE</v>
       </c>
-      <c r="F22" s="118">
+      <c r="F22" s="115">
         <v>1</v>
       </c>
       <c r="G22" s="93">
         <v>1</v>
       </c>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
+      <c r="N22" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="O22" s="119"/>
       <c r="P22" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="93" t="s">
-        <v>254</v>
-      </c>
-      <c r="S22" s="122" t="s">
-        <v>255</v>
-      </c>
-      <c r="T22" s="126" t="s">
-        <v>169</v>
-      </c>
-      <c r="U22" s="126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="Q22" s="119" t="s">
+        <v>253</v>
+      </c>
+      <c r="R22" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="S22" s="121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="93" t="s">
         <v>85</v>
       </c>
@@ -9079,59 +9025,59 @@
         <f>Sector_Fuels!N14</f>
         <v>CONELC</v>
       </c>
-      <c r="F23" s="118">
+      <c r="F23" s="115">
         <v>1</v>
       </c>
       <c r="G23" s="21">
         <v>1</v>
       </c>
-      <c r="J23" s="119"/>
+      <c r="H23" s="116"/>
+      <c r="N23" s="93" t="s">
+        <v>115</v>
+      </c>
       <c r="P23" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="R23" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="S23" s="93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="J24" s="119"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="115"/>
+      <c r="Q23" s="93" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="H24" s="116"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="112"/>
       <c r="C25" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="J25" s="119"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="120"/>
+      <c r="H25" s="116"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="117"/>
       <c r="C26" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="J26" s="119"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="H26" s="116"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E27" s="93" t="s">
+        <v>245</v>
+      </c>
+      <c r="F27" s="93" t="s">
         <v>247</v>
       </c>
-      <c r="F27" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="J27" s="119"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="H27" s="116"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E29" s="93" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F29" s="93">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E30" s="21"/>
     </row>
   </sheetData>
@@ -9144,10 +9090,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
-  <dimension ref="B1:M60"/>
+  <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="D8" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9156,12 +9102,12 @@
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
@@ -9174,11 +9120,11 @@
       <c r="E1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>82</v>
       </c>
@@ -9188,970 +9134,1109 @@
         <f>EBF!Q2</f>
         <v>GWh</v>
       </c>
-      <c r="I2" s="7" t="str">
+      <c r="F2" s="7" t="str">
         <f>EBF!P2</f>
         <v>TH$2022</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="130" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K3" s="156"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="130"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="129" t="s">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="124">
+        <v>2022</v>
+      </c>
+      <c r="F6" s="124">
+        <v>2025</v>
+      </c>
+      <c r="G6" s="124">
+        <v>2030</v>
+      </c>
+      <c r="H6" s="124">
+        <v>2035</v>
+      </c>
+      <c r="I6" s="124">
+        <v>2040</v>
+      </c>
+      <c r="J6" s="124">
+        <v>2045</v>
+      </c>
+      <c r="K6" s="124">
+        <v>2050</v>
+      </c>
+      <c r="L6" s="154"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="131"/>
+      <c r="Q6" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="2:18" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B7" s="127" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="127" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="D7" s="127" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="127" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="127" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="127" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="127" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="127" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="127" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="127" t="s">
+        <v>190</v>
+      </c>
+      <c r="L7" s="155"/>
+      <c r="M7" s="157" t="s">
+        <v>276</v>
+      </c>
+      <c r="N7" s="132"/>
+      <c r="O7" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="P7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="129" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="129">
+      <c r="Q7" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="R7" s="124">
         <v>2022</v>
       </c>
-      <c r="F6" s="129">
-        <v>2050</v>
-      </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="L6" s="130" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="132" t="s">
+    </row>
+    <row r="8" spans="2:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="L8" s="155"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="132" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="132" t="s">
+      <c r="P8" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
+    </row>
+    <row r="9" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="128" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="132" t="s">
-        <v>192</v>
-      </c>
-      <c r="F7" s="132" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="K7" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="129" t="s">
-        <v>194</v>
-      </c>
-      <c r="M7" s="129">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="131" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="131" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="139" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="139" t="s">
-        <v>190</v>
-      </c>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-    </row>
-    <row r="9" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="133" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="133" t="str">
-        <f>DemTechs_INDF!R5</f>
+      <c r="C9" s="128" t="str">
+        <f>DemTechs_INDF!P5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="D9" s="133" t="str">
+      <c r="D9" s="128" t="str">
         <f>E$2</f>
         <v>GWh</v>
       </c>
-      <c r="E9" s="135">
-        <f>EBF!D18-EBF!D6+EBF!D5</f>
-        <v>9036.9662785128003</v>
-      </c>
-      <c r="F9" s="135">
-        <f>182694.6233*0.7</f>
-        <v>127886.23630999999</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="J9" s="9" t="s">
+      <c r="E9" s="130">
+        <f>EBF!D18+EBF!E18</f>
+        <v>10281.3477669522</v>
+      </c>
+      <c r="F9" s="130">
+        <f>$E$9*(1+$M$9)^(F6-$E$6)</f>
+        <v>14405.897122659175</v>
+      </c>
+      <c r="G9" s="130">
+        <f t="shared" ref="G9:K9" si="0">$E$9*(1+$M$9)^(G6-$E$6)</f>
+        <v>25274.975404905261</v>
+      </c>
+      <c r="H9" s="130">
+        <f t="shared" si="0"/>
+        <v>44344.644160602315</v>
+      </c>
+      <c r="I9" s="130">
+        <f t="shared" si="0"/>
+        <v>77802.151504717243</v>
+      </c>
+      <c r="J9" s="130">
+        <f t="shared" si="0"/>
+        <v>136502.95076988969</v>
+      </c>
+      <c r="K9" s="130">
+        <f t="shared" si="0"/>
+        <v>239492.80589955384</v>
+      </c>
+      <c r="M9" s="159">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="O9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="133" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="133" t="str">
-        <f>DemTechs_INDF!R6</f>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="128" t="str">
+        <f>DemTechs_INDF!P6</f>
         <v>MANELC</v>
       </c>
-      <c r="D10" s="133" t="str">
+      <c r="D10" s="128" t="str">
         <f>E$2</f>
         <v>GWh</v>
       </c>
-      <c r="E10" s="135">
-        <v>2605.3284096000002</v>
-      </c>
-      <c r="F10" s="135">
-        <v>78297.695699999997</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="E10" s="130">
+        <f>EBF!J18</f>
+        <v>2861.5612011470998</v>
+      </c>
+      <c r="F10" s="130">
+        <f>$E$10*(1+$M$10)^(F6-$E$6)</f>
+        <v>3350.6176459935423</v>
+      </c>
+      <c r="G10" s="130">
+        <f t="shared" ref="G10:K10" si="1">$E$10*(1+$M$10)^(G6-$E$6)</f>
+        <v>4358.4084284728824</v>
+      </c>
+      <c r="H10" s="130">
+        <f t="shared" si="1"/>
+        <v>5669.320118366044</v>
+      </c>
+      <c r="I10" s="130">
+        <f t="shared" si="1"/>
+        <v>7374.5246990933629</v>
+      </c>
+      <c r="J10" s="130">
+        <f t="shared" si="1"/>
+        <v>9592.6166457525742</v>
+      </c>
+      <c r="K10" s="130">
+        <f t="shared" si="1"/>
+        <v>12477.860996747662</v>
+      </c>
+      <c r="M10" s="160">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q10" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="R10" s="135">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="K11" s="5">
+        <f>K9+K10</f>
+        <v>251970.6668963015</v>
+      </c>
+      <c r="M11" s="158"/>
+      <c r="O11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q11" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="K10" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+      <c r="R11" s="135">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="148" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="147">
+        <f>E10/(E$9+E$10)</f>
+        <v>0.21772662415091906</v>
+      </c>
+      <c r="F12" s="147">
+        <f>F10/(F$9+F$10)</f>
+        <v>0.18869793366819429</v>
+      </c>
+      <c r="G12" s="147">
+        <f t="shared" ref="G12:K12" si="2">G10/(G$9+G$10)</f>
+        <v>0.14707764907913431</v>
+      </c>
+      <c r="H12" s="147">
+        <f t="shared" si="2"/>
+        <v>0.11335474402196269</v>
+      </c>
+      <c r="I12" s="147">
+        <f t="shared" si="2"/>
+        <v>8.6579155559529136E-2</v>
+      </c>
+      <c r="J12" s="147">
+        <f t="shared" si="2"/>
+        <v>6.5659874665886034E-2</v>
+      </c>
+      <c r="K12" s="147">
+        <f t="shared" si="2"/>
+        <v>4.9521085729724738E-2</v>
+      </c>
+      <c r="M12" s="158"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L10" s="93" t="s">
+      <c r="Q12" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="M10" s="140">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="140"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="152">
-        <f>E10/(E$9+E$10)</f>
-        <v>0.22378134890024159</v>
-      </c>
-      <c r="F12" s="152">
-        <f>F10/(F$9+F$10)</f>
-        <v>0.379746835443038</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K12" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="L12" s="93" t="s">
-        <v>197</v>
-      </c>
-      <c r="M12" s="140">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="R12" s="135">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="D13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E13" s="152">
+        <v>275</v>
+      </c>
+      <c r="E13" s="147">
         <f>E9/(E$9+E$10)</f>
-        <v>0.77621865109975841</v>
-      </c>
-      <c r="F13" s="152">
+        <v>0.78227337584908085</v>
+      </c>
+      <c r="F13" s="147">
         <f>F9/(F$9+F$10)</f>
-        <v>0.620253164556962</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K13" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+        <v>0.81130206633180579</v>
+      </c>
+      <c r="G13" s="147">
+        <f t="shared" ref="G13:K13" si="3">G9/(G$9+G$10)</f>
+        <v>0.85292235092086577</v>
+      </c>
+      <c r="H13" s="147">
+        <f t="shared" si="3"/>
+        <v>0.88664525597803734</v>
+      </c>
+      <c r="I13" s="147">
+        <f t="shared" si="3"/>
+        <v>0.91342084444047078</v>
+      </c>
+      <c r="J13" s="147">
+        <f t="shared" si="3"/>
+        <v>0.93434012533411404</v>
+      </c>
+      <c r="K13" s="147">
+        <f t="shared" si="3"/>
+        <v>0.95047891427027531</v>
+      </c>
+      <c r="M13" s="158"/>
+      <c r="O13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L13" s="93" t="s">
+      <c r="Q13" s="136" t="s">
+        <v>197</v>
+      </c>
+      <c r="R13" s="137">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q14" t="s">
         <v>198</v>
       </c>
-      <c r="M13" s="140">
+      <c r="R14" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J14" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K14" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L14" s="141" t="s">
+      <c r="Q15" t="s">
         <v>199</v>
       </c>
-      <c r="M14" s="142">
+      <c r="R15" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J15" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K15" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="E16" s="5"/>
+      <c r="O16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L15" t="s">
+      <c r="Q16" t="s">
         <v>200</v>
       </c>
-      <c r="M15" s="140">
+      <c r="R16" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
-      <c r="J16" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K16" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L16" t="s">
+      <c r="Q17" t="s">
         <v>201</v>
       </c>
-      <c r="M16" s="140">
+      <c r="R17" s="137">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J17" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K17" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P18" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L17" t="s">
+      <c r="Q18" t="s">
         <v>202</v>
       </c>
-      <c r="M17" s="140">
+      <c r="R18" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K18" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="L18" t="s">
-        <v>203</v>
-      </c>
-      <c r="M18" s="142">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C19" t="str">
-        <f>DemTechs_INDF!R9</f>
+        <f>DemTechs_INDF!P9</f>
         <v>CONELC</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E19" s="5">
         <f>EBF!J19</f>
         <v>150.60848427090019</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K19" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+      <c r="O19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P19" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L19" t="s">
-        <v>204</v>
-      </c>
-      <c r="M19" s="140">
+      <c r="Q19" t="s">
+        <v>203</v>
+      </c>
+      <c r="R19" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C20" t="str">
-        <f>DemTechs_INDF!R10</f>
+        <f>DemTechs_INDF!P10</f>
         <v>CONOILIMP</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E20" s="5">
         <f>EBF!E19</f>
         <v>8781.4640358504003</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K20" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+      <c r="O20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P20" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L20" t="s">
+      <c r="Q20" t="s">
+        <v>204</v>
+      </c>
+      <c r="R20" s="135">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P21" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q21" t="s">
         <v>205</v>
       </c>
-      <c r="M20" s="140">
+      <c r="R21" s="137">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J21" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K21" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="L21" t="s">
-        <v>206</v>
-      </c>
-      <c r="M21" s="140">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="134"/>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="129"/>
       <c r="C22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K22" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+      <c r="O22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L22" t="s">
-        <v>207</v>
-      </c>
-      <c r="M22" s="142">
+      <c r="Q22" t="s">
+        <v>206</v>
+      </c>
+      <c r="R22" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="47"/>
       <c r="C23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K23" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+      <c r="O23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P23" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L23" t="s">
+      <c r="Q23" t="s">
+        <v>207</v>
+      </c>
+      <c r="R23" s="135">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q24" t="s">
         <v>208</v>
       </c>
-      <c r="M23" s="140">
+      <c r="R24" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J24" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K24" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O25" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L24" t="s">
+      <c r="Q25" t="s">
         <v>209</v>
       </c>
-      <c r="M24" s="140">
+      <c r="R25" s="137">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J25" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K25" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P26" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L25" t="s">
+      <c r="Q26" t="s">
         <v>210</v>
       </c>
-      <c r="M25" s="140">
+      <c r="R26" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J26" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K26" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P27" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L26" t="s">
+      <c r="Q27" t="s">
         <v>211</v>
       </c>
-      <c r="M26" s="142">
+      <c r="R27" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J27" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K27" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O28" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P28" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L27" t="s">
+      <c r="Q28" t="s">
         <v>212</v>
       </c>
-      <c r="M27" s="140">
+      <c r="R28" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J28" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K28" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P29" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L28" t="s">
+      <c r="Q29" t="s">
         <v>213</v>
       </c>
-      <c r="M28" s="140">
+      <c r="R29" s="137">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J29" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K29" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P30" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L29" t="s">
+      <c r="Q30" t="s">
         <v>214</v>
       </c>
-      <c r="M29" s="140">
+      <c r="R30" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K30" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P31" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L30" t="s">
+      <c r="Q31" t="s">
         <v>215</v>
       </c>
-      <c r="M30" s="142">
+      <c r="R31" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J31" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K31" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O32" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P32" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L31" t="s">
+      <c r="Q32" t="s">
         <v>216</v>
       </c>
-      <c r="M31" s="140">
+      <c r="R32" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J32" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K32" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="33" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L32" t="s">
+      <c r="Q33" t="s">
         <v>217</v>
       </c>
-      <c r="M32" s="140">
+      <c r="R33" s="137">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J33" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K33" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="34" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L33" t="s">
+      <c r="Q34" t="s">
         <v>218</v>
       </c>
-      <c r="M33" s="140">
+      <c r="R34" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J34" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K34" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="35" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L34" t="s">
+      <c r="Q35" t="s">
         <v>219</v>
       </c>
-      <c r="M34" s="142">
+      <c r="R35" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J35" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K35" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="36" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L35" t="s">
+      <c r="Q36" t="s">
         <v>220</v>
       </c>
-      <c r="M35" s="140">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J36" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K36" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+      <c r="R36" s="135">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P37" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L36" t="s">
+      <c r="Q37" t="s">
         <v>221</v>
       </c>
-      <c r="M36" s="140">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K37" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+      <c r="R37" s="137">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O38" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L37" t="s">
+      <c r="Q38" t="s">
         <v>222</v>
       </c>
-      <c r="M37" s="140">
+      <c r="R38" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="38" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J38" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K38" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="39" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O39" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P39" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L38" t="s">
+      <c r="Q39" t="s">
         <v>223</v>
       </c>
-      <c r="M38" s="142">
+      <c r="R39" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="39" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J39" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K39" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="40" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O40" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P40" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L39" t="s">
+      <c r="Q40" t="s">
         <v>224</v>
       </c>
-      <c r="M39" s="140">
+      <c r="R40" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="40" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J40" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K40" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="41" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P41" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L40" t="s">
+      <c r="Q41" t="s">
         <v>225</v>
       </c>
-      <c r="M40" s="140">
+      <c r="R41" s="137">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="41" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J41" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K41" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="42" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O42" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P42" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L41" t="s">
+      <c r="Q42" t="s">
         <v>226</v>
       </c>
-      <c r="M41" s="140">
+      <c r="R42" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="42" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J42" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K42" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="43" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O43" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P43" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L42" t="s">
+      <c r="Q43" t="s">
         <v>227</v>
       </c>
-      <c r="M42" s="142">
+      <c r="R43" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="43" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J43" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K43" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="44" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O44" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P44" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L43" t="s">
+      <c r="Q44" t="s">
         <v>228</v>
       </c>
-      <c r="M43" s="140">
+      <c r="R44" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="44" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J44" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K44" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="45" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O45" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P45" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L44" t="s">
+      <c r="Q45" t="s">
         <v>229</v>
       </c>
-      <c r="M44" s="140">
+      <c r="R45" s="137">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="45" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J45" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K45" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="46" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P46" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L45" t="s">
+      <c r="Q46" t="s">
         <v>230</v>
       </c>
-      <c r="M45" s="140">
+      <c r="R46" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="46" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J46" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K46" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="47" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P47" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L46" t="s">
+      <c r="Q47" t="s">
         <v>231</v>
       </c>
-      <c r="M46" s="142">
+      <c r="R47" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="47" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J47" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K47" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="48" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P48" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L47" t="s">
+      <c r="Q48" t="s">
         <v>232</v>
       </c>
-      <c r="M47" s="140">
+      <c r="R48" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="48" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J48" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K48" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="49" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P49" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L48" t="s">
+      <c r="Q49" t="s">
         <v>233</v>
       </c>
-      <c r="M48" s="140">
+      <c r="R49" s="137">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J49" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K49" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="50" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O50" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P50" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L49" t="s">
+      <c r="Q50" t="s">
         <v>234</v>
       </c>
-      <c r="M49" s="140">
+      <c r="R50" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J50" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K50" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="51" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O51" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P51" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L50" t="s">
+      <c r="Q51" t="s">
         <v>235</v>
       </c>
-      <c r="M50" s="142">
+      <c r="R51" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="51" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J51" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K51" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="52" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O52" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P52" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L51" t="s">
+      <c r="Q52" t="s">
         <v>236</v>
       </c>
-      <c r="M51" s="140">
+      <c r="R52" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J52" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K52" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="53" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O53" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P53" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L52" t="s">
+      <c r="Q53" t="s">
         <v>237</v>
       </c>
-      <c r="M52" s="140">
+      <c r="R53" s="137">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J53" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K53" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="54" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O54" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P54" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L53" t="s">
+      <c r="Q54" t="s">
         <v>238</v>
       </c>
-      <c r="M53" s="140">
+      <c r="R54" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J54" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K54" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="55" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O55" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P55" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L54" t="s">
+      <c r="Q55" t="s">
         <v>239</v>
       </c>
-      <c r="M54" s="142">
+      <c r="R55" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J55" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K55" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="56" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O56" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P56" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L55" t="s">
+      <c r="Q56" t="s">
         <v>240</v>
       </c>
-      <c r="M55" s="140">
+      <c r="R56" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="56" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J56" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K56" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="57" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O57" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P57" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L56" t="s">
+      <c r="Q57" t="s">
         <v>241</v>
       </c>
-      <c r="M56" s="140">
+      <c r="R57" s="137">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="57" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J57" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K57" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="58" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O58" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P58" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L57" t="s">
+      <c r="Q58" t="s">
         <v>242</v>
       </c>
-      <c r="M57" s="140">
+      <c r="R58" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="58" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J58" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K58" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
+    <row r="59" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O59" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P59" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="L58" t="s">
+      <c r="Q59" t="s">
         <v>243</v>
       </c>
-      <c r="M58" s="142">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J59" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K59" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="L59" t="s">
-        <v>244</v>
-      </c>
-      <c r="M59" s="140">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J60" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K60" s="1" t="str">
-        <f>DemTechs_INDF!R$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="L60" t="s">
-        <v>245</v>
-      </c>
-      <c r="M60" s="140">
+      <c r="R59" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10159,7 +10244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E959CB-7164-414F-B6F7-22B95D131062}">
   <dimension ref="B3:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -10172,97 +10257,97 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="144" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
+      <c r="B3" s="139" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
     </row>
     <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
     </row>
     <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B5" s="146" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" s="147"/>
+      <c r="B5" s="141" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="142"/>
     </row>
     <row r="6" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="148" t="str">
+      <c r="C6" s="143" t="str">
         <f>Sector_Fuels!N5</f>
         <v>MANCOALMIN</v>
       </c>
-      <c r="D6" s="148" t="str">
+      <c r="D6" s="143" t="str">
         <f>Sector_Fuels!N6</f>
         <v>MANCOALIMP</v>
       </c>
-      <c r="E6" s="148" t="str">
+      <c r="E6" s="143" t="str">
         <f>Sector_Fuels!N7</f>
         <v>MANOILIMP</v>
       </c>
-      <c r="F6" s="148" t="str">
+      <c r="F6" s="143" t="str">
         <f>Sector_Fuels!N8</f>
         <v>ELCRNW</v>
       </c>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="149" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="149" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="149" t="s">
-        <v>269</v>
-      </c>
-      <c r="F7" s="149" t="s">
-        <v>269</v>
-      </c>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
+      <c r="C7" s="144" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="144" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="144" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="144" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="150" t="str">
-        <f>DemTechs_INDF!R7</f>
+      <c r="B8" s="145" t="str">
+        <f>DemTechs_INDF!P7</f>
         <v>MANCO2</v>
       </c>
-      <c r="C8" s="151">
+      <c r="C8" s="146">
         <v>347494</v>
       </c>
-      <c r="D8" s="151">
+      <c r="D8" s="146">
         <v>347494</v>
       </c>
-      <c r="E8" s="151">
+      <c r="E8" s="146">
         <v>279515</v>
       </c>
-      <c r="F8" s="151">
+      <c r="F8" s="146">
         <v>0</v>
       </c>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
       <c r="I8" s="1"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="134"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="1" t="s">
         <v>99</v>
       </c>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE7DEBD-F659-4F49-A7E7-8848B3F2ECDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FE2A34-D34A-47D4-810F-1A810C5DCD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="278">
   <si>
     <t>CommName</t>
   </si>
@@ -2393,6 +2393,9 @@
   </si>
   <si>
     <t>Demand Driver(Annual growth)</t>
+  </si>
+  <si>
+    <t>DayNite</t>
   </si>
 </sst>
 </file>
@@ -2590,7 +2593,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2697,6 +2700,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2962,7 +2971,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3261,7 +3270,7 @@
     <xf numFmtId="1" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="7" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3274,6 +3283,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -5091,8 +5101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40EA534-E44A-461C-9315-2313911B2BEB}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7438,7 +7448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -8302,8 +8312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8478,9 +8488,7 @@
       </c>
       <c r="T5" s="95"/>
       <c r="U5" s="95"/>
-      <c r="V5" s="95" t="s">
-        <v>181</v>
-      </c>
+      <c r="V5" s="95"/>
     </row>
     <row r="6" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="53"/>
@@ -8507,9 +8515,7 @@
       </c>
       <c r="T6" s="95"/>
       <c r="U6" s="95"/>
-      <c r="V6" s="95" t="s">
-        <v>46</v>
-      </c>
+      <c r="V6" s="95"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N7" s="95" t="s">
@@ -8922,6 +8928,9 @@
       <c r="S18" s="93" t="s">
         <v>159</v>
       </c>
+      <c r="T18" s="161" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="19" spans="2:22" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="93" t="str">
@@ -8976,6 +8985,9 @@
       </c>
       <c r="S21" s="95" t="s">
         <v>159</v>
+      </c>
+      <c r="T21" s="161" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
@@ -9092,7 +9104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FE2A34-D34A-47D4-810F-1A810C5DCD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F23D0B1-715D-4E65-AAB0-78D4DDDDF9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="277">
   <si>
     <t>CommName</t>
   </si>
@@ -2372,9 +2372,6 @@
   </si>
   <si>
     <t>Manufacturing  Electricity for machine drive and other services</t>
-  </si>
-  <si>
-    <t>ELCRNW</t>
   </si>
   <si>
     <t>GRID</t>
@@ -2971,7 +2968,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3284,6 +3281,7 @@
     <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -5101,7 +5099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40EA534-E44A-461C-9315-2313911B2BEB}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -7448,8 +7446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7698,8 +7696,8 @@
         <v>74</v>
       </c>
       <c r="M8" s="70"/>
-      <c r="N8" s="66" t="s">
-        <v>270</v>
+      <c r="N8" s="162" t="s">
+        <v>46</v>
       </c>
       <c r="O8" s="66" t="s">
         <v>263</v>
@@ -8149,7 +8147,7 @@
       </c>
       <c r="C24" s="70" t="str">
         <f>N8</f>
-        <v>ELCRNW</v>
+        <v>ELC</v>
       </c>
       <c r="D24" s="66" t="s">
         <v>173</v>
@@ -8171,13 +8169,13 @@
         <v>8.76</v>
       </c>
       <c r="L24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" s="70" t="s">
+        <v>270</v>
+      </c>
+      <c r="O24" s="72" t="s">
         <v>271</v>
-      </c>
-      <c r="N24" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="O24" s="72" t="s">
-        <v>272</v>
       </c>
       <c r="P24" t="s">
         <v>167</v>
@@ -8312,8 +8310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8505,7 +8503,7 @@
         <v>173</v>
       </c>
       <c r="Q6" s="95" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R6" s="95" t="s">
         <v>167</v>
@@ -8929,17 +8927,17 @@
         <v>159</v>
       </c>
       <c r="T18" s="161" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="2:22" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="93" t="str">
-        <f>P$21</f>
+        <f>P$18</f>
         <v>ELC</v>
       </c>
       <c r="C19" s="93" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>ELCRNW</v>
+        <v>ELC</v>
       </c>
       <c r="D19" s="95" t="str">
         <f>P6</f>
@@ -8987,7 +8985,7 @@
         <v>159</v>
       </c>
       <c r="T21" s="161" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
@@ -9104,7 +9102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView topLeftCell="D6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -9233,7 +9231,7 @@
       </c>
       <c r="L7" s="155"/>
       <c r="M7" s="157" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N7" s="132"/>
       <c r="O7" s="124" t="s">
@@ -9424,7 +9422,7 @@
       <c r="B12" s="128"/>
       <c r="C12" s="128"/>
       <c r="D12" s="148" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E12" s="147">
         <f>E10/(E$9+E$10)</f>
@@ -9473,7 +9471,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E13" s="147">
         <f>E9/(E$9+E$10)</f>
@@ -10311,7 +10309,7 @@
       </c>
       <c r="F6" s="143" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>ELCRNW</v>
+        <v>ELC</v>
       </c>
       <c r="G6" s="143"/>
       <c r="H6" s="143"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F23D0B1-715D-4E65-AAB0-78D4DDDDF9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE01724-435E-4A3C-B384-BCC5796BAA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="277">
   <si>
     <t>CommName</t>
   </si>
@@ -2968,7 +2968,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3282,6 +3282,7 @@
     <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -7447,7 +7448,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7564,8 +7565,8 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
-        <v>46</v>
+      <c r="C4" s="163" t="s">
+        <v>270</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>268</v>
@@ -8053,7 +8054,7 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="66" t="str">
-        <f t="shared" ref="B22:B23" si="0">N22</f>
+        <f t="shared" ref="B22:B24" si="0">N22</f>
         <v>IMPCOA</v>
       </c>
       <c r="C22" s="1"/>
@@ -8142,13 +8143,11 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="70" t="str">
-        <f>N8</f>
-        <v>ELC</v>
-      </c>
+      <c r="B24" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>ELCGRID</v>
+      </c>
+      <c r="C24" s="70"/>
       <c r="D24" s="66" t="s">
         <v>173</v>
       </c>
@@ -8171,8 +8170,9 @@
       <c r="L24" t="s">
         <v>46</v>
       </c>
-      <c r="N24" s="70" t="s">
-        <v>270</v>
+      <c r="N24" s="70" t="str">
+        <f>$L$24&amp;$C$4</f>
+        <v>ELCGRID</v>
       </c>
       <c r="O24" s="72" t="s">
         <v>271</v>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE01724-435E-4A3C-B384-BCC5796BAA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DA0072-96AA-4259-95CB-D94B128C3FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -7447,8 +7447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8310,8 +8310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="P2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9102,7 +9102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DA0072-96AA-4259-95CB-D94B128C3FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E17AAA-18C2-47FA-ADD2-3A067F54692E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="276">
   <si>
     <t>CommName</t>
   </si>
@@ -2105,9 +2105,6 @@
   </si>
   <si>
     <t>LO</t>
-  </si>
-  <si>
-    <t>HTHEAT</t>
   </si>
   <si>
     <t>INVCOST</t>
@@ -7448,7 +7445,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7566,10 +7563,10 @@
     </row>
     <row r="4" spans="2:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="163" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4" s="81" t="s">
         <v>167</v>
@@ -7628,9 +7625,7 @@
       </c>
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
-      <c r="T5" s="66" t="s">
-        <v>181</v>
-      </c>
+      <c r="T5" s="66"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
@@ -7653,9 +7648,7 @@
       </c>
       <c r="R6" s="66"/>
       <c r="S6" s="66"/>
-      <c r="T6" s="66" t="s">
-        <v>181</v>
-      </c>
+      <c r="T6" s="66"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -7688,9 +7681,7 @@
       </c>
       <c r="R7" s="66"/>
       <c r="S7" s="66"/>
-      <c r="T7" s="66" t="s">
-        <v>181</v>
-      </c>
+      <c r="T7" s="66"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L8" s="66" t="s">
@@ -7701,7 +7692,7 @@
         <v>46</v>
       </c>
       <c r="O8" s="66" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P8" s="66" t="s">
         <v>167</v>
@@ -7711,9 +7702,7 @@
       </c>
       <c r="R8" s="66"/>
       <c r="S8" s="66"/>
-      <c r="T8" s="66" t="s">
-        <v>46</v>
-      </c>
+      <c r="T8" s="66"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L10" s="66" t="s">
@@ -7724,7 +7713,7 @@
         <v>178</v>
       </c>
       <c r="O10" s="66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P10" s="66" t="s">
         <v>167</v>
@@ -7734,9 +7723,7 @@
       </c>
       <c r="R10" s="66"/>
       <c r="S10" s="66"/>
-      <c r="T10" s="66" t="s">
-        <v>181</v>
-      </c>
+      <c r="T10" s="66"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L11" s="66" t="s">
@@ -7747,7 +7734,7 @@
         <v>173</v>
       </c>
       <c r="O11" s="66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P11" s="66" t="s">
         <v>167</v>
@@ -7757,9 +7744,7 @@
       </c>
       <c r="R11" s="66"/>
       <c r="S11" s="66"/>
-      <c r="T11" s="66" t="s">
-        <v>46</v>
-      </c>
+      <c r="T11" s="66"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L12" s="66" t="s">
@@ -7767,10 +7752,10 @@
       </c>
       <c r="M12" s="70"/>
       <c r="N12" s="66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O12" s="66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P12" s="66" t="s">
         <v>167</v>
@@ -7788,10 +7773,10 @@
       </c>
       <c r="M13" s="70"/>
       <c r="N13" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="O13" s="66" t="s">
         <v>256</v>
-      </c>
-      <c r="O13" s="66" t="s">
-        <v>257</v>
       </c>
       <c r="P13" s="66" t="s">
         <v>167</v>
@@ -7809,10 +7794,10 @@
       </c>
       <c r="M14" s="70"/>
       <c r="N14" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O14" s="66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P14" s="66" t="s">
         <v>167</v>
@@ -7983,7 +7968,7 @@
         <v>GWh</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I20" s="8" t="str">
         <f>$E$2</f>
@@ -8175,7 +8160,7 @@
         <v>ELCGRID</v>
       </c>
       <c r="O24" s="72" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P24" t="s">
         <v>167</v>
@@ -8232,7 +8217,7 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D28" s="66" t="str">
         <f>N14</f>
@@ -8310,7 +8295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V30"/>
   <sheetViews>
-    <sheetView topLeftCell="P2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -8503,7 +8488,7 @@
         <v>173</v>
       </c>
       <c r="Q6" s="95" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R6" s="95" t="s">
         <v>167</v>
@@ -8554,10 +8539,10 @@
       </c>
       <c r="O9" s="95"/>
       <c r="P9" s="95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="95" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R9" s="95" t="s">
         <v>167</v>
@@ -8575,10 +8560,10 @@
       </c>
       <c r="O10" s="95"/>
       <c r="P10" s="95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="95" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R10" s="95" t="s">
         <v>167</v>
@@ -8640,10 +8625,10 @@
         <v>110</v>
       </c>
       <c r="J13" s="100" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" s="102" t="s">
         <v>182</v>
-      </c>
-      <c r="K13" s="102" t="s">
-        <v>183</v>
       </c>
       <c r="L13" s="102"/>
       <c r="M13" s="102"/>
@@ -8701,10 +8686,10 @@
         <v>121</v>
       </c>
       <c r="J14" s="103" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="104" t="s">
         <v>184</v>
-      </c>
-      <c r="K14" s="104" t="s">
-        <v>185</v>
       </c>
       <c r="L14" s="105"/>
       <c r="M14" s="105"/>
@@ -8743,7 +8728,7 @@
       <c r="C15" s="106"/>
       <c r="D15" s="106"/>
       <c r="E15" s="107" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F15" s="107"/>
       <c r="G15" s="107"/>
@@ -8809,7 +8794,7 @@
         <v>158</v>
       </c>
       <c r="Q16" s="93" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R16" s="95" t="str">
         <f>$E$2</f>
@@ -8918,7 +8903,7 @@
         <v>46</v>
       </c>
       <c r="Q18" s="93" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R18" s="93" t="s">
         <v>167</v>
@@ -8927,7 +8912,7 @@
         <v>159</v>
       </c>
       <c r="T18" s="161" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="2:22" s="119" customFormat="1" x14ac:dyDescent="0.25">
@@ -8975,7 +8960,7 @@
         <v>46</v>
       </c>
       <c r="Q21" s="93" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R21" s="95" t="str">
         <f t="shared" ref="R21" si="0">$E$2</f>
@@ -8985,12 +8970,12 @@
         <v>159</v>
       </c>
       <c r="T21" s="161" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="93" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C22" s="93" t="str">
         <f>Sector_Fuels!N13</f>
@@ -9011,10 +8996,10 @@
       </c>
       <c r="O22" s="119"/>
       <c r="P22" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q22" s="119" t="s">
         <v>252</v>
-      </c>
-      <c r="Q22" s="119" t="s">
-        <v>253</v>
       </c>
       <c r="R22" s="121" t="s">
         <v>167</v>
@@ -9049,7 +9034,7 @@
         <v>85</v>
       </c>
       <c r="Q23" s="93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
@@ -9071,16 +9056,16 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E27" s="93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F27" s="93" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H27" s="116"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E29" s="93" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F29" s="93">
         <f>24*365</f>
@@ -9161,13 +9146,13 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="124" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="124" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E6" s="124">
         <v>2022</v>
@@ -9203,45 +9188,45 @@
         <v>81</v>
       </c>
       <c r="C7" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="127" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="E7" s="127" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="127" t="s">
-        <v>190</v>
-      </c>
       <c r="F7" s="127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G7" s="127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H7" s="127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J7" s="127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K7" s="127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L7" s="155"/>
       <c r="M7" s="157" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N7" s="132"/>
       <c r="O7" s="124" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P7" s="124" t="s">
         <v>0</v>
       </c>
       <c r="Q7" s="124" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R7" s="124">
         <v>2022</v>
@@ -9281,14 +9266,14 @@
         <v>81</v>
       </c>
       <c r="P8" s="134" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="134"/>
       <c r="R8" s="134"/>
     </row>
     <row r="9" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="128" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="128" t="str">
         <f>DemTechs_INDF!P5</f>
@@ -9338,7 +9323,7 @@
     </row>
     <row r="10" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="128" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="128" t="str">
         <f>DemTechs_INDF!P6</f>
@@ -9380,14 +9365,14 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P10" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q10" s="93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R10" s="135">
         <v>0.75</v>
@@ -9405,14 +9390,14 @@
       </c>
       <c r="M11" s="158"/>
       <c r="O11" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P11" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q11" s="93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R11" s="135">
         <v>0.25</v>
@@ -9422,7 +9407,7 @@
       <c r="B12" s="128"/>
       <c r="C12" s="128"/>
       <c r="D12" s="148" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E12" s="147">
         <f>E10/(E$9+E$10)</f>
@@ -9455,14 +9440,14 @@
       <c r="M12" s="158"/>
       <c r="N12" s="5"/>
       <c r="O12" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P12" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q12" s="93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R12" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9471,7 +9456,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E13" s="147">
         <f>E9/(E$9+E$10)</f>
@@ -9503,14 +9488,14 @@
       </c>
       <c r="M13" s="158"/>
       <c r="O13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P13" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q13" s="136" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R13" s="137">
         <v>1.0416666666666666E-2</v>
@@ -9518,14 +9503,14 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P14" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R14" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9533,14 +9518,14 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P15" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R15" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9549,14 +9534,14 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E16" s="5"/>
       <c r="O16" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P16" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R16" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9564,14 +9549,14 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O17" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P17" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R17" s="137">
         <v>1.0416666666666666E-2</v>
@@ -9579,14 +9564,14 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O18" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P18" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R18" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9594,7 +9579,7 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" t="str">
         <f>DemTechs_INDF!P9</f>
@@ -9608,14 +9593,14 @@
         <v>150.60848427090019</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P19" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R19" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9623,7 +9608,7 @@
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" t="str">
         <f>DemTechs_INDF!P10</f>
@@ -9637,14 +9622,14 @@
         <v>8781.4640358504003</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P20" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R20" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9652,14 +9637,14 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O21" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P21" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R21" s="137">
         <v>1.0416666666666666E-2</v>
@@ -9671,14 +9656,14 @@
         <v>99</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P22" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R22" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9690,14 +9675,14 @@
         <v>100</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P23" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R23" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9705,14 +9690,14 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P24" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R24" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9720,14 +9705,14 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P25" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R25" s="137">
         <v>1.0416666666666666E-2</v>
@@ -9735,14 +9720,14 @@
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O26" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P26" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R26" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9750,14 +9735,14 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O27" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P27" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R27" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9765,14 +9750,14 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O28" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P28" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R28" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9780,14 +9765,14 @@
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P29" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R29" s="137">
         <v>1.0416666666666666E-2</v>
@@ -9795,14 +9780,14 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P30" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R30" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9810,14 +9795,14 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O31" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P31" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R31" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9825,14 +9810,14 @@
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O32" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P32" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R32" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9840,14 +9825,14 @@
     </row>
     <row r="33" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O33" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P33" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R33" s="137">
         <v>1.0416666666666666E-2</v>
@@ -9855,14 +9840,14 @@
     </row>
     <row r="34" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O34" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P34" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R34" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9870,14 +9855,14 @@
     </row>
     <row r="35" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O35" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P35" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R35" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9885,14 +9870,14 @@
     </row>
     <row r="36" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O36" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P36" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R36" s="135">
         <v>3.125E-2</v>
@@ -9900,14 +9885,14 @@
     </row>
     <row r="37" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O37" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P37" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R37" s="137">
         <v>3.125E-2</v>
@@ -9915,14 +9900,14 @@
     </row>
     <row r="38" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O38" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P38" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R38" s="135">
         <v>3.125E-2</v>
@@ -9930,14 +9915,14 @@
     </row>
     <row r="39" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O39" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P39" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R39" s="135">
         <v>3.125E-2</v>
@@ -9945,14 +9930,14 @@
     </row>
     <row r="40" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O40" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P40" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R40" s="135">
         <v>3.125E-2</v>
@@ -9960,14 +9945,14 @@
     </row>
     <row r="41" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O41" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P41" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R41" s="137">
         <v>3.125E-2</v>
@@ -9975,14 +9960,14 @@
     </row>
     <row r="42" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O42" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P42" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R42" s="135">
         <v>3.125E-2</v>
@@ -9990,14 +9975,14 @@
     </row>
     <row r="43" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O43" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P43" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R43" s="135">
         <v>3.125E-2</v>
@@ -10005,14 +9990,14 @@
     </row>
     <row r="44" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O44" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P44" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R44" s="135">
         <v>3.125E-2</v>
@@ -10020,14 +10005,14 @@
     </row>
     <row r="45" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O45" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P45" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R45" s="137">
         <v>3.125E-2</v>
@@ -10035,14 +10020,14 @@
     </row>
     <row r="46" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O46" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P46" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R46" s="135">
         <v>3.125E-2</v>
@@ -10050,14 +10035,14 @@
     </row>
     <row r="47" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O47" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P47" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R47" s="135">
         <v>3.125E-2</v>
@@ -10065,14 +10050,14 @@
     </row>
     <row r="48" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O48" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P48" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R48" s="135">
         <v>3.125E-2</v>
@@ -10080,14 +10065,14 @@
     </row>
     <row r="49" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O49" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P49" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R49" s="137">
         <v>3.125E-2</v>
@@ -10095,14 +10080,14 @@
     </row>
     <row r="50" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O50" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P50" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R50" s="135">
         <v>3.125E-2</v>
@@ -10110,14 +10095,14 @@
     </row>
     <row r="51" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O51" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P51" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R51" s="135">
         <v>3.125E-2</v>
@@ -10125,14 +10110,14 @@
     </row>
     <row r="52" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O52" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P52" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R52" s="135">
         <v>3.125E-2</v>
@@ -10140,14 +10125,14 @@
     </row>
     <row r="53" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O53" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P53" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R53" s="137">
         <v>3.125E-2</v>
@@ -10155,14 +10140,14 @@
     </row>
     <row r="54" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O54" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P54" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R54" s="135">
         <v>3.125E-2</v>
@@ -10170,14 +10155,14 @@
     </row>
     <row r="55" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O55" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P55" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R55" s="135">
         <v>3.125E-2</v>
@@ -10185,14 +10170,14 @@
     </row>
     <row r="56" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O56" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P56" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R56" s="135">
         <v>3.125E-2</v>
@@ -10200,14 +10185,14 @@
     </row>
     <row r="57" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O57" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P57" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R57" s="137">
         <v>3.125E-2</v>
@@ -10215,14 +10200,14 @@
     </row>
     <row r="58" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O58" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P58" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R58" s="135">
         <v>3.125E-2</v>
@@ -10230,14 +10215,14 @@
     </row>
     <row r="59" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O59" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P59" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R59" s="135">
         <v>3.125E-2</v>
@@ -10268,7 +10253,7 @@
   <sheetData>
     <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="139" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C3" s="139"/>
       <c r="D3" s="139"/>
@@ -10287,7 +10272,7 @@
     </row>
     <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="141" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" s="142"/>
     </row>
@@ -10320,16 +10305,16 @@
         <v>87</v>
       </c>
       <c r="C7" s="144" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" s="144" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E7" s="144" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F7" s="144" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G7" s="144"/>
       <c r="H7" s="144"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E17AAA-18C2-47FA-ADD2-3A067F54692E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9439135-45BB-43B9-8786-54D364C99B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -7444,8 +7444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8133,8 +8133,8 @@
         <v>ELCGRID</v>
       </c>
       <c r="C24" s="70"/>
-      <c r="D24" s="66" t="s">
-        <v>173</v>
+      <c r="D24" s="162" t="s">
+        <v>46</v>
       </c>
       <c r="E24" s="1">
         <v>2022</v>
@@ -8295,8 +8295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V30"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9439135-45BB-43B9-8786-54D364C99B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B04713-AB1B-4C60-879D-64D1DFED0A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -2350,9 +2350,6 @@
     <t>Coal to heat transformation technology</t>
   </si>
   <si>
-    <t>Renewable based electricity-domestic</t>
-  </si>
-  <si>
     <t>Dynamic coefficients for combustion emissions in transport</t>
   </si>
   <si>
@@ -2390,6 +2387,9 @@
   </si>
   <si>
     <t>DayNite</t>
+  </si>
+  <si>
+    <t>Electricity from Grid</t>
   </si>
 </sst>
 </file>
@@ -7444,8 +7444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7563,10 +7563,10 @@
     </row>
     <row r="4" spans="2:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="163" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E4" s="81" t="s">
         <v>167</v>
@@ -7689,10 +7689,10 @@
       </c>
       <c r="M8" s="70"/>
       <c r="N8" s="162" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="66" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="O8" s="162" t="s">
+        <v>275</v>
       </c>
       <c r="P8" s="66" t="s">
         <v>167</v>
@@ -8160,7 +8160,7 @@
         <v>ELCGRID</v>
       </c>
       <c r="O24" s="72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P24" t="s">
         <v>167</v>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D28" s="66" t="str">
         <f>N14</f>
@@ -8295,7 +8295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -8488,7 +8488,7 @@
         <v>173</v>
       </c>
       <c r="Q6" s="95" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R6" s="95" t="s">
         <v>167</v>
@@ -8903,7 +8903,7 @@
         <v>46</v>
       </c>
       <c r="Q18" s="93" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R18" s="93" t="s">
         <v>167</v>
@@ -8912,7 +8912,7 @@
         <v>159</v>
       </c>
       <c r="T18" s="161" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="2:22" s="119" customFormat="1" x14ac:dyDescent="0.25">
@@ -8922,7 +8922,7 @@
       </c>
       <c r="C19" s="93" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>ELC</v>
+        <v>GRIDELC</v>
       </c>
       <c r="D19" s="95" t="str">
         <f>P6</f>
@@ -8960,7 +8960,7 @@
         <v>46</v>
       </c>
       <c r="Q21" s="93" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R21" s="95" t="str">
         <f t="shared" ref="R21" si="0">$E$2</f>
@@ -8970,7 +8970,7 @@
         <v>159</v>
       </c>
       <c r="T21" s="161" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="L7" s="155"/>
       <c r="M7" s="157" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N7" s="132"/>
       <c r="O7" s="124" t="s">
@@ -9407,7 +9407,7 @@
       <c r="B12" s="128"/>
       <c r="C12" s="128"/>
       <c r="D12" s="148" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E12" s="147">
         <f>E10/(E$9+E$10)</f>
@@ -9456,7 +9456,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E13" s="147">
         <f>E9/(E$9+E$10)</f>
@@ -10253,7 +10253,7 @@
   <sheetData>
     <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="139" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" s="139"/>
       <c r="D3" s="139"/>
@@ -10272,7 +10272,7 @@
     </row>
     <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="141" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" s="142"/>
     </row>
@@ -10294,7 +10294,7 @@
       </c>
       <c r="F6" s="143" t="str">
         <f>Sector_Fuels!N8</f>
-        <v>ELC</v>
+        <v>GRIDELC</v>
       </c>
       <c r="G6" s="143"/>
       <c r="H6" s="143"/>
@@ -10305,16 +10305,16 @@
         <v>87</v>
       </c>
       <c r="C7" s="144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D7" s="144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E7" s="144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G7" s="144"/>
       <c r="H7" s="144"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B04713-AB1B-4C60-879D-64D1DFED0A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FD4223-E92A-41ED-8331-D4836D7F40F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
     <sheet name="EBF" sheetId="133" r:id="rId2"/>
     <sheet name="RES&amp;OBJ" sheetId="135" r:id="rId3"/>
-    <sheet name="Sector_Fuels" sheetId="137" r:id="rId4"/>
+    <sheet name="PRI_Sector_Fuels" sheetId="137" r:id="rId4"/>
     <sheet name="DemTechs_INDF" sheetId="143" r:id="rId5"/>
     <sheet name="Demands" sheetId="145" r:id="rId6"/>
     <sheet name="Emi" sheetId="146" r:id="rId7"/>
@@ -7444,8 +7444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8295,8 +8295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8758,7 +8758,7 @@
         <v>Kiln</v>
       </c>
       <c r="C16" s="93" t="str">
-        <f>Sector_Fuels!N5</f>
+        <f>PRI_Sector_Fuels!N5</f>
         <v>MANCOALMIN</v>
       </c>
       <c r="D16" s="95" t="str">
@@ -8813,7 +8813,7 @@
         <v>Kiln</v>
       </c>
       <c r="C17" s="93" t="str">
-        <f>Sector_Fuels!N6</f>
+        <f>PRI_Sector_Fuels!N6</f>
         <v>MANCOALIMP</v>
       </c>
       <c r="D17" s="95" t="str">
@@ -8868,7 +8868,7 @@
         <v>Boiler</v>
       </c>
       <c r="C18" s="93" t="str">
-        <f>Sector_Fuels!N7</f>
+        <f>PRI_Sector_Fuels!N7</f>
         <v>MANOILIMP</v>
       </c>
       <c r="D18" s="95" t="str">
@@ -8921,7 +8921,7 @@
         <v>ELC</v>
       </c>
       <c r="C19" s="93" t="str">
-        <f>Sector_Fuels!N8</f>
+        <f>PRI_Sector_Fuels!N8</f>
         <v>GRIDELC</v>
       </c>
       <c r="D19" s="95" t="str">
@@ -8978,11 +8978,11 @@
         <v>251</v>
       </c>
       <c r="C22" s="93" t="str">
-        <f>Sector_Fuels!N13</f>
+        <f>PRI_Sector_Fuels!N13</f>
         <v>CONMDRIVE</v>
       </c>
       <c r="D22" s="93" t="str">
-        <f>Sector_Fuels!N13</f>
+        <f>PRI_Sector_Fuels!N13</f>
         <v>CONMDRIVE</v>
       </c>
       <c r="F22" s="115">
@@ -9013,11 +9013,11 @@
         <v>85</v>
       </c>
       <c r="C23" s="93" t="str">
-        <f>Sector_Fuels!N14</f>
+        <f>PRI_Sector_Fuels!N14</f>
         <v>CONELC</v>
       </c>
       <c r="D23" s="93" t="str">
-        <f>Sector_Fuels!N14</f>
+        <f>PRI_Sector_Fuels!N14</f>
         <v>CONELC</v>
       </c>
       <c r="F23" s="115">
@@ -10281,19 +10281,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="143" t="str">
-        <f>Sector_Fuels!N5</f>
+        <f>PRI_Sector_Fuels!N5</f>
         <v>MANCOALMIN</v>
       </c>
       <c r="D6" s="143" t="str">
-        <f>Sector_Fuels!N6</f>
+        <f>PRI_Sector_Fuels!N6</f>
         <v>MANCOALIMP</v>
       </c>
       <c r="E6" s="143" t="str">
-        <f>Sector_Fuels!N7</f>
+        <f>PRI_Sector_Fuels!N7</f>
         <v>MANOILIMP</v>
       </c>
       <c r="F6" s="143" t="str">
-        <f>Sector_Fuels!N8</f>
+        <f>PRI_Sector_Fuels!N8</f>
         <v>GRIDELC</v>
       </c>
       <c r="G6" s="143"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FD4223-E92A-41ED-8331-D4836D7F40F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267FBAF4-5F45-4FA1-B791-CF69F0BD8BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="277">
   <si>
     <t>CommName</t>
   </si>
@@ -2390,6 +2390,9 @@
   </si>
   <si>
     <t>Electricity from Grid</t>
+  </si>
+  <si>
+    <t>ELCGRID</t>
   </si>
 </sst>
 </file>
@@ -7444,8 +7447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8129,8 +8132,8 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v>ELCGRID</v>
+        <f>N8</f>
+        <v>GRIDELC</v>
       </c>
       <c r="C24" s="70"/>
       <c r="D24" s="162" t="s">
@@ -8152,19 +8155,8 @@
       <c r="J24" s="123">
         <v>8.76</v>
       </c>
-      <c r="L24" t="s">
-        <v>46</v>
-      </c>
-      <c r="N24" s="70" t="str">
-        <f>$L$24&amp;$C$4</f>
-        <v>ELCGRID</v>
-      </c>
-      <c r="O24" s="72" t="s">
-        <v>269</v>
-      </c>
-      <c r="P24" t="s">
-        <v>167</v>
-      </c>
+      <c r="N24" s="70"/>
+      <c r="O24" s="72"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="66"/>
@@ -8185,8 +8177,18 @@
       <c r="H26" s="49"/>
       <c r="I26" s="92"/>
       <c r="J26" s="123"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="72"/>
+      <c r="L26" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="O26" s="72" t="s">
+        <v>269</v>
+      </c>
+      <c r="P26" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="66" t="str">
@@ -8295,8 +8297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A8" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267FBAF4-5F45-4FA1-B791-CF69F0BD8BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B80D417-24D4-462A-84BB-6A2BF7888717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -351,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="2" shapeId="0" xr:uid="{CC8E5D4E-1B3A-43C8-A112-A6697F95B4CC}">
+    <comment ref="I24" authorId="2" shapeId="0" xr:uid="{CC8E5D4E-1B3A-43C8-A112-A6697F95B4CC}">
       <text>
         <r>
           <rPr>
@@ -398,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R18" authorId="2" shapeId="0" xr:uid="{B82C1148-4753-4923-93C2-C67B5D40F340}">
+    <comment ref="R24" authorId="2" shapeId="0" xr:uid="{B82C1148-4753-4923-93C2-C67B5D40F340}">
       <text>
         <r>
           <rPr>
@@ -491,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S18" authorId="1" shapeId="0" xr:uid="{968CFA1B-C5E9-492D-A0A2-485C997CC98A}">
+    <comment ref="S24" authorId="1" shapeId="0" xr:uid="{968CFA1B-C5E9-492D-A0A2-485C997CC98A}">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T18" authorId="2" shapeId="0" xr:uid="{A0615139-A259-4F4D-937C-E8C54FC43716}">
+    <comment ref="T24" authorId="2" shapeId="0" xr:uid="{A0615139-A259-4F4D-937C-E8C54FC43716}">
       <text>
         <r>
           <rPr>
@@ -579,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L19" authorId="2" shapeId="0" xr:uid="{028E65FC-6C67-4206-97D8-90E7E85C9E5E}">
+    <comment ref="L25" authorId="2" shapeId="0" xr:uid="{028E65FC-6C67-4206-97D8-90E7E85C9E5E}">
       <text>
         <r>
           <rPr>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="293">
   <si>
     <t>CommName</t>
   </si>
@@ -2393,6 +2393,54 @@
   </si>
   <si>
     <t>ELCGRID</t>
+  </si>
+  <si>
+    <t>WINDELC</t>
+  </si>
+  <si>
+    <t>SOLELC</t>
+  </si>
+  <si>
+    <t>Wind Electricity</t>
+  </si>
+  <si>
+    <t>Solar Electricity</t>
+  </si>
+  <si>
+    <t>SOLTHT</t>
+  </si>
+  <si>
+    <t>Solar thermal</t>
+  </si>
+  <si>
+    <t>MANBIOMIN</t>
+  </si>
+  <si>
+    <t>MANGASMIN</t>
+  </si>
+  <si>
+    <t>NGAS</t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>Ngas</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>Solar to heat transformation technology</t>
+  </si>
+  <si>
+    <t>Furnace</t>
+  </si>
+  <si>
+    <t>Electricity to MANHEAT</t>
   </si>
 </sst>
 </file>
@@ -2968,7 +3016,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3283,6 +3331,16 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="24" fillId="17" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -4136,13 +4194,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>133299</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4250,13 +4308,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7445,10 +7503,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7607,9 +7665,20 @@
       </c>
     </row>
     <row r="5" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="81"/>
+      <c r="C5" s="164" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="164" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="164"/>
+      <c r="G5" s="7">
+        <f>EBF!P3</f>
+        <v>0</v>
+      </c>
       <c r="L5" s="66" t="s">
         <v>74</v>
       </c>
@@ -7630,9 +7699,21 @@
       <c r="S5" s="66"/>
       <c r="T5" s="66"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    <row r="6" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C6" s="164" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="164" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="164"/>
+      <c r="G6" s="7">
+        <f>EBF!P4</f>
+        <v>0</v>
+      </c>
       <c r="L6" s="66" t="s">
         <v>74</v>
       </c>
@@ -7653,18 +7734,20 @@
       <c r="S6" s="66"/>
       <c r="T6" s="66"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="164" t="s">
         <v>124</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="G7" t="s">
-        <v>125</v>
+      <c r="F7" s="164"/>
+      <c r="G7" s="7">
+        <f>EBF!P5</f>
+        <v>0</v>
       </c>
       <c r="L7" s="66" t="s">
         <v>74</v>
@@ -7686,7 +7769,21 @@
       <c r="S7" s="66"/>
       <c r="T7" s="66"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="164" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="164" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="164"/>
+      <c r="G8" s="7">
+        <f>EBF!P6</f>
+        <v>0</v>
+      </c>
       <c r="L8" s="66" t="s">
         <v>74</v>
       </c>
@@ -7707,582 +7804,871 @@
       <c r="S8" s="66"/>
       <c r="T8" s="66"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L10" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="O10" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="P10" s="66" t="s">
+    <row r="9" spans="2:20" s="164" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="165" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165" t="s">
+        <v>277</v>
+      </c>
+      <c r="O9" s="165" t="s">
+        <v>279</v>
+      </c>
+      <c r="P9" s="165" t="s">
         <v>167</v>
       </c>
-      <c r="Q10" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L11" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="O11" s="66" t="s">
-        <v>258</v>
-      </c>
-      <c r="P11" s="66" t="s">
+      <c r="Q9" s="165"/>
+      <c r="R9" s="165"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="165"/>
+    </row>
+    <row r="10" spans="2:20" s="164" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="165" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165" t="s">
+        <v>278</v>
+      </c>
+      <c r="O10" s="165" t="s">
+        <v>280</v>
+      </c>
+      <c r="P10" s="165" t="s">
         <v>167</v>
       </c>
-      <c r="Q11" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L12" s="66" t="s">
+      <c r="Q10" s="165"/>
+      <c r="R10" s="165"/>
+      <c r="S10" s="165"/>
+      <c r="T10" s="165"/>
+    </row>
+    <row r="11" spans="2:20" s="164" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="70"/>
-      <c r="N12" s="66" t="s">
-        <v>247</v>
-      </c>
-      <c r="O12" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="P12" s="66" t="s">
+      <c r="M11" s="165"/>
+      <c r="N11" s="165" t="s">
+        <v>281</v>
+      </c>
+      <c r="O11" s="165" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="165" t="s">
         <v>167</v>
       </c>
-      <c r="Q12" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L13" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="70"/>
-      <c r="N13" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="O13" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="P13" s="66" t="s">
+      <c r="Q11" s="165"/>
+      <c r="R11" s="165"/>
+      <c r="S11" s="165"/>
+      <c r="T11" s="165"/>
+    </row>
+    <row r="12" spans="2:20" s="164" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="165" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165" t="s">
+        <v>283</v>
+      </c>
+      <c r="O12" s="165" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" s="165" t="s">
         <v>167</v>
       </c>
-      <c r="Q13" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="165"/>
+      <c r="S12" s="165"/>
+      <c r="T12" s="165"/>
+    </row>
+    <row r="13" spans="2:20" s="164" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="165" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="165"/>
+      <c r="N13" s="165" t="s">
+        <v>284</v>
+      </c>
+      <c r="O13" s="165" t="s">
+        <v>285</v>
+      </c>
+      <c r="P13" s="165" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="165"/>
+      <c r="S13" s="165"/>
+      <c r="T13" s="165"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L14" s="66" t="s">
-        <v>82</v>
-      </c>
+      <c r="L14" s="66"/>
       <c r="M14" s="70"/>
-      <c r="N14" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="O14" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="P14" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q14" s="66" t="s">
-        <v>180</v>
-      </c>
+      <c r="N14" s="162"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
       <c r="R14" s="66"/>
       <c r="S14" s="66"/>
       <c r="T14" s="66"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L15" s="66"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-    </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="L16" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="70"/>
+      <c r="N16" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="O16" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="P16" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q16" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F17" s="3" t="s">
+      <c r="L17" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="70"/>
+      <c r="N17" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="P17" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q17" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L18" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="70"/>
+      <c r="N18" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="O18" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="P18" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q18" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L19" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="70"/>
+      <c r="N19" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="O19" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="P19" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q19" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L20" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" s="70"/>
+      <c r="N20" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="O20" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="P20" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q20" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L21" s="66"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="L17" s="65" t="s">
+      <c r="H23" s="3"/>
+      <c r="L23" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="65"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="M23" s="65"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G24" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="64" t="s">
+      <c r="H24" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="64" t="s">
+      <c r="I24" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="78" t="s">
+      <c r="J24" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="L18" s="67" t="s">
+      <c r="L24" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="68" t="s">
+      <c r="M24" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="67" t="s">
+      <c r="N24" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="O18" s="67" t="s">
+      <c r="O24" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="P18" s="67" t="s">
+      <c r="P24" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="67" t="s">
+      <c r="Q24" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="67" t="s">
+      <c r="R24" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="S18" s="67" t="s">
+      <c r="S24" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="T18" s="67" t="s">
+      <c r="T24" s="67" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+    <row r="25" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I25" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="79" t="s">
+      <c r="J25" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="L19" s="69" t="s">
+      <c r="L25" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="69" t="s">
+      <c r="M25" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="69" t="s">
+      <c r="N25" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="69" t="s">
+      <c r="O25" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="P19" s="69" t="s">
+      <c r="P25" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="69" t="s">
+      <c r="Q25" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R19" s="69" t="s">
+      <c r="R25" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="S19" s="69" t="s">
+      <c r="S25" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="T19" s="69" t="s">
+      <c r="T25" s="69" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+    <row r="26" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8" t="str">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H26" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="I20" s="8" t="str">
+      <c r="I26" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="J20" s="80"/>
-      <c r="L20" s="69" t="s">
+      <c r="J26" s="80"/>
+      <c r="L26" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="66" t="str">
-        <f>N21</f>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="66" t="str">
+        <f>N27</f>
         <v>MINCOA</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="66" t="str">
+      <c r="C27" s="1"/>
+      <c r="D27" s="66" t="str">
         <f>N5</f>
         <v>MANCOALMIN</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E27" s="1">
         <v>2022</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G27" s="48">
         <v>2673000</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H27" s="49">
         <v>4.5449999999999999</v>
       </c>
-      <c r="I21" s="91">
+      <c r="I27" s="91">
         <f>EBF!D5</f>
         <v>4518.4003614720004</v>
       </c>
-      <c r="J21" s="123">
+      <c r="J27" s="123">
         <v>8.76</v>
       </c>
-      <c r="L21" s="66" t="str">
+      <c r="L27" s="66" t="str">
         <f>EBF!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70" t="str">
-        <f>$L$21&amp;$C$2</f>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70" t="str">
+        <f>$L$27&amp;$C$2</f>
         <v>MINCOA</v>
       </c>
-      <c r="O21" s="72" t="str">
+      <c r="O27" s="72" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Coal </v>
       </c>
-      <c r="P21" s="70" t="s">
+      <c r="P27" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="66" t="str">
-        <f t="shared" ref="B22:B24" si="0">N22</f>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="66" t="str">
+        <f t="shared" ref="B28:B29" si="0">N28</f>
         <v>IMPCOA</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="66" t="str">
+      <c r="C28" s="1"/>
+      <c r="D28" s="66" t="str">
         <f>N6</f>
         <v>MANCOALIMP</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E28" s="1">
         <v>2022</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63">
+      <c r="G28" s="62"/>
+      <c r="H28" s="63">
         <v>21.004999999999999</v>
       </c>
-      <c r="I22" s="92">
+      <c r="I28" s="92">
         <f>EBF!D6</f>
         <v>3157.6616415018002</v>
       </c>
-      <c r="J22" s="123">
+      <c r="J28" s="123">
         <v>8.76</v>
       </c>
-      <c r="L22" s="70" t="str">
+      <c r="L28" s="70" t="str">
         <f>EBF!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70" t="str">
-        <f>$L$22&amp;$C$2</f>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70" t="str">
+        <f>$L$28&amp;$C$2</f>
         <v>IMPCOA</v>
       </c>
-      <c r="O22" s="72" t="str">
+      <c r="O28" s="72" t="str">
         <f>"Import of "&amp;$D$2&amp;" "</f>
         <v xml:space="preserve">Import of Coal </v>
       </c>
-      <c r="P22" s="70" t="s">
+      <c r="P28" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="66" t="str">
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="66" t="str">
         <f t="shared" si="0"/>
         <v>IMPOIL</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="66" t="str">
-        <f t="shared" ref="D23" si="1">N7</f>
+      <c r="C29" s="1"/>
+      <c r="D29" s="66" t="str">
+        <f t="shared" ref="D29" si="1">N7</f>
         <v>MANOILIMP</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E29" s="1">
         <v>2022</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H29" s="49">
         <v>29.234999999999999</v>
       </c>
-      <c r="I23" s="92">
+      <c r="I29" s="92">
         <f>EBF!E18</f>
         <v>2605.1202084096003</v>
       </c>
-      <c r="J23" s="123">
+      <c r="J29" s="123">
         <v>8.76</v>
       </c>
-      <c r="L23" t="str">
+      <c r="L29" t="str">
         <f>EBF!B6</f>
         <v>IMP</v>
       </c>
-      <c r="N23" s="70" t="str">
-        <f>$L$23&amp;$C$3</f>
+      <c r="N29" s="70" t="str">
+        <f>$L$29&amp;$C$3</f>
         <v>IMPOIL</v>
       </c>
-      <c r="O23" s="72" t="str">
+      <c r="O29" s="72" t="str">
         <f>"Import of "&amp;$D$3&amp;" "</f>
         <v xml:space="preserve">Import of Oil </v>
       </c>
-      <c r="P23" t="s">
+      <c r="P29" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="66" t="str">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="66" t="str">
         <f>N8</f>
         <v>GRIDELC</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="162" t="s">
+      <c r="C30" s="70"/>
+      <c r="D30" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E30" s="1">
         <v>2022</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H30" s="49">
         <v>100</v>
       </c>
-      <c r="I24" s="92">
+      <c r="I30" s="92">
         <f>EBF!J18</f>
         <v>2861.5612011470998</v>
       </c>
-      <c r="J24" s="123">
+      <c r="J30" s="123">
         <v>8.76</v>
       </c>
-      <c r="N24" s="70"/>
-      <c r="O24" s="72"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="123"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="72"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="123"/>
-      <c r="L26" t="s">
+      <c r="L30" s="164" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" s="164"/>
+      <c r="N30" s="165" t="str">
+        <f>$L$29&amp;$C$7</f>
+        <v>IMPBIO</v>
+      </c>
+      <c r="O30" s="166" t="str">
+        <f>"Domestic Supply of "&amp;$D$7&amp;" "</f>
+        <v xml:space="preserve">Domestic Supply of Biomass </v>
+      </c>
+      <c r="P30" s="164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="66" t="str">
+        <f t="shared" ref="B31:B35" si="2">N9</f>
+        <v>WINDELC</v>
+      </c>
+      <c r="C31" s="70"/>
+      <c r="D31" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="70" t="s">
+      <c r="E31" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="123"/>
+      <c r="L31" s="164" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="164"/>
+      <c r="N31" s="165" t="str">
+        <f>$L$29&amp;$C$8</f>
+        <v>IMPGAS</v>
+      </c>
+      <c r="O31" s="166" t="str">
+        <f>"Domestic Supply of "&amp;$D$8&amp;" "</f>
+        <v xml:space="preserve">Domestic Supply of Ngas </v>
+      </c>
+      <c r="P31" s="164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>SOLELC</v>
+      </c>
+      <c r="C32" s="70"/>
+      <c r="D32" s="162" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="123"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="72"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>SOLTHT</v>
+      </c>
+      <c r="C33" s="70"/>
+      <c r="D33" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="123"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="72"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="66" t="str">
+        <f>N12</f>
+        <v>MANBIOMIN</v>
+      </c>
+      <c r="C34" s="70"/>
+      <c r="D34" s="162" t="str">
+        <f>N12</f>
+        <v>MANBIOMIN</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="123"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="72"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>MANGASMIN</v>
+      </c>
+      <c r="C35" s="70"/>
+      <c r="D35" s="162" t="str">
+        <f>N13</f>
+        <v>MANGASMIN</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="123"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="72"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="66"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="123"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="72"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="66"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="162"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="123"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="72"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="66"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="162"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="123"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="72"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="66"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="162"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="123"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="72"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="66"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="162"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="123"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="72"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="123"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="72"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="123"/>
+      <c r="L42" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" s="70" t="s">
         <v>276</v>
       </c>
-      <c r="O26" s="72" t="s">
+      <c r="O42" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P42" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="66" t="str">
-        <f>N23</f>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="66" t="str">
+        <f>N29</f>
         <v>IMPOIL</v>
       </c>
-      <c r="D27" s="66" t="str">
-        <f>N13</f>
+      <c r="D43" s="66" t="str">
+        <f>N19</f>
         <v>CONMDRIVE</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E43" s="1">
         <v>2022</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="H27" s="49">
-        <f>H23</f>
+      <c r="F43" s="1"/>
+      <c r="H43" s="49">
+        <f>H29</f>
         <v>29.234999999999999</v>
       </c>
-      <c r="I27" s="92">
+      <c r="I43" s="92">
         <f>EBF!E19</f>
         <v>8781.4640358504003</v>
       </c>
-      <c r="J27" s="123">
+      <c r="J43" s="123">
         <v>8.76</v>
       </c>
-      <c r="N27" s="70"/>
-      <c r="O27" s="72"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="66" t="s">
+      <c r="N43" s="70"/>
+      <c r="O43" s="72"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="D28" s="66" t="str">
-        <f>N14</f>
+      <c r="D44" s="66" t="str">
+        <f>N20</f>
         <v>CONELC</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E44" s="1">
         <v>2022</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="H28" s="49">
-        <f>H24</f>
+      <c r="F44" s="1"/>
+      <c r="H44" s="49">
+        <f>H30</f>
         <v>100</v>
       </c>
-      <c r="I28" s="92">
+      <c r="I44" s="92">
         <f>EBF!J19</f>
         <v>150.60848427090019</v>
       </c>
-      <c r="J28" s="123">
+      <c r="J44" s="123">
         <v>8.76</v>
       </c>
-      <c r="N28" s="70"/>
-      <c r="O28" s="72"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="48"/>
-      <c r="C30" s="1" t="s">
+      <c r="N44" s="70"/>
+      <c r="O44" s="72"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="48"/>
+      <c r="C46" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="47"/>
-      <c r="C31" s="1" t="s">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="47"/>
+      <c r="C47" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+    <row r="49" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8295,10 +8681,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
-  <dimension ref="B1:V30"/>
+  <dimension ref="B1:V37"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8768,7 +9154,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="E16" s="113">
-        <f>EBF!D5/(DemTechs_INDF!G16*DemTechs_INDF!F29)*1000</f>
+        <f>EBF!D5/(DemTechs_INDF!G16*DemTechs_INDF!F36)*1000</f>
         <v>937.81659640348698</v>
       </c>
       <c r="F16" s="110">
@@ -8823,7 +9209,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="E17" s="113">
-        <f>EBF!D6/(DemTechs_INDF!G17*DemTechs_INDF!F29)*1000</f>
+        <f>EBF!D6/(DemTechs_INDF!G17*DemTechs_INDF!F36)*1000</f>
         <v>655.38846855579084</v>
       </c>
       <c r="F17" s="110">
@@ -8878,7 +9264,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="E18" s="113">
-        <f>EBF!E18/(DemTechs_INDF!G18*DemTechs_INDF!F29)*1000</f>
+        <f>EBF!E18/(DemTechs_INDF!G18*DemTechs_INDF!F36)*1000</f>
         <v>396.51753552657539</v>
       </c>
       <c r="F18" s="110">
@@ -8917,165 +9303,391 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="2:22" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="93" t="str">
+    <row r="19" spans="2:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="99" t="str">
         <f>P$18</f>
         <v>ELC</v>
       </c>
-      <c r="C19" s="93" t="str">
+      <c r="C19" s="99" t="str">
         <f>PRI_Sector_Fuels!N8</f>
         <v>GRIDELC</v>
       </c>
-      <c r="D19" s="95" t="str">
+      <c r="D19" s="168" t="str">
+        <f>P$6</f>
+        <v>MANELC</v>
+      </c>
+      <c r="E19" s="169">
+        <f>EBF!K18/(DemTechs_INDF!G19*DemTechs_INDF!F36)*1000</f>
+        <v>1500.3320739839382</v>
+      </c>
+      <c r="F19" s="170">
+        <v>1</v>
+      </c>
+      <c r="G19" s="167">
+        <v>1</v>
+      </c>
+      <c r="H19" s="167">
+        <v>1</v>
+      </c>
+      <c r="I19" s="167">
+        <v>50</v>
+      </c>
+      <c r="J19" s="167">
+        <v>0</v>
+      </c>
+      <c r="N19" s="167" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19" s="167" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q19" s="167" t="s">
+        <v>290</v>
+      </c>
+      <c r="R19" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="S19" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="T19" s="171" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="99" t="str">
+        <f>P18</f>
+        <v>ELC</v>
+      </c>
+      <c r="C20" s="99" t="str">
+        <f>PRI_Sector_Fuels!N9</f>
+        <v>WINDELC</v>
+      </c>
+      <c r="D20" s="168" t="str">
+        <f t="shared" ref="D20:D21" si="0">P$6</f>
+        <v>MANELC</v>
+      </c>
+      <c r="E20" s="169">
+        <v>0</v>
+      </c>
+      <c r="F20" s="170">
+        <v>1</v>
+      </c>
+      <c r="G20" s="167">
+        <v>1</v>
+      </c>
+      <c r="H20" s="167">
+        <v>1</v>
+      </c>
+      <c r="I20" s="167">
+        <v>50</v>
+      </c>
+      <c r="J20" s="167">
+        <v>0</v>
+      </c>
+      <c r="N20" s="167" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="167" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q20" s="167" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="99" t="str">
+        <f>P18</f>
+        <v>ELC</v>
+      </c>
+      <c r="C21" s="99" t="str">
+        <f>PRI_Sector_Fuels!N10</f>
+        <v>SOLELC</v>
+      </c>
+      <c r="D21" s="168" t="str">
+        <f t="shared" si="0"/>
+        <v>MANELC</v>
+      </c>
+      <c r="E21" s="169">
+        <v>0</v>
+      </c>
+      <c r="F21" s="170">
+        <v>1</v>
+      </c>
+      <c r="G21" s="167">
+        <v>1</v>
+      </c>
+      <c r="H21" s="167">
+        <v>1</v>
+      </c>
+      <c r="I21" s="167">
+        <v>50</v>
+      </c>
+      <c r="J21" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="99" t="str">
+        <f>P19</f>
+        <v>CSP</v>
+      </c>
+      <c r="C22" s="99" t="str">
+        <f>PRI_Sector_Fuels!N11</f>
+        <v>SOLTHT</v>
+      </c>
+      <c r="D22" s="168" t="str">
+        <f>P$5</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E22" s="169">
+        <v>0</v>
+      </c>
+      <c r="F22" s="170">
+        <v>1</v>
+      </c>
+      <c r="G22" s="167">
+        <v>1</v>
+      </c>
+      <c r="H22" s="167">
+        <v>1</v>
+      </c>
+      <c r="I22" s="167">
+        <v>50</v>
+      </c>
+      <c r="J22" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="99" t="str">
+        <f>P16</f>
+        <v>Kiln</v>
+      </c>
+      <c r="C23" s="99" t="str">
+        <f>PRI_Sector_Fuels!N$12</f>
+        <v>MANBIOMIN</v>
+      </c>
+      <c r="D23" s="168" t="str">
+        <f t="shared" ref="D23:D25" si="1">P$5</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E23" s="169">
+        <v>0</v>
+      </c>
+      <c r="F23" s="170">
+        <v>1</v>
+      </c>
+      <c r="G23" s="167">
+        <v>1</v>
+      </c>
+      <c r="H23" s="167">
+        <v>1</v>
+      </c>
+      <c r="I23" s="167">
+        <v>50</v>
+      </c>
+      <c r="J23" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="99" t="str">
+        <f>P17</f>
+        <v>Boiler</v>
+      </c>
+      <c r="C24" s="99" t="str">
+        <f>PRI_Sector_Fuels!N$12</f>
+        <v>MANBIOMIN</v>
+      </c>
+      <c r="D24" s="168" t="str">
+        <f t="shared" si="1"/>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E24" s="169">
+        <v>0</v>
+      </c>
+      <c r="F24" s="170">
+        <v>1</v>
+      </c>
+      <c r="G24" s="167">
+        <v>1</v>
+      </c>
+      <c r="H24" s="167">
+        <v>1</v>
+      </c>
+      <c r="I24" s="167">
+        <v>50</v>
+      </c>
+      <c r="J24" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="99" t="str">
+        <f>P20</f>
+        <v>Furnace</v>
+      </c>
+      <c r="C25" s="168" t="str">
         <f>P6</f>
         <v>MANELC</v>
       </c>
-      <c r="E19" s="113">
-        <f>EBF!K18/(DemTechs_INDF!G19*DemTechs_INDF!F29)*1000</f>
-        <v>1500.3320739839382</v>
-      </c>
-      <c r="F19" s="120">
+      <c r="D25" s="168" t="str">
+        <f t="shared" si="1"/>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E25" s="169">
+        <v>0</v>
+      </c>
+      <c r="F25" s="170">
         <v>1</v>
       </c>
-      <c r="G19" s="119">
+      <c r="G25" s="167">
         <v>1</v>
       </c>
-      <c r="H19" s="119">
+      <c r="H25" s="167">
         <v>1</v>
       </c>
-      <c r="I19" s="119">
+      <c r="I25" s="167">
         <v>50</v>
       </c>
-      <c r="J19" s="119">
+      <c r="J25" s="167">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F20" s="114"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F21" s="115"/>
-      <c r="N21" s="93" t="s">
+    <row r="26" spans="2:22" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="120"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F27" s="114"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F28" s="115"/>
+      <c r="N28" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="P21" s="93" t="s">
+      <c r="P28" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="Q21" s="93" t="s">
+      <c r="Q28" s="93" t="s">
         <v>267</v>
       </c>
-      <c r="R21" s="95" t="str">
-        <f t="shared" ref="R21" si="0">$E$2</f>
+      <c r="R28" s="95" t="str">
+        <f t="shared" ref="R28" si="2">$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="S21" s="95" t="s">
+      <c r="S28" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="T21" s="161" t="s">
+      <c r="T28" s="161" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="93" t="s">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="93" t="s">
         <v>251</v>
       </c>
-      <c r="C22" s="93" t="str">
-        <f>PRI_Sector_Fuels!N13</f>
+      <c r="C29" s="93" t="str">
+        <f>PRI_Sector_Fuels!N19</f>
         <v>CONMDRIVE</v>
       </c>
-      <c r="D22" s="93" t="str">
-        <f>PRI_Sector_Fuels!N13</f>
+      <c r="D29" s="93" t="str">
+        <f>PRI_Sector_Fuels!N19</f>
         <v>CONMDRIVE</v>
       </c>
-      <c r="F22" s="115">
+      <c r="F29" s="115">
         <v>1</v>
       </c>
-      <c r="G22" s="93">
+      <c r="G29" s="93">
         <v>1</v>
       </c>
-      <c r="N22" s="93" t="s">
+      <c r="N29" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="O22" s="119"/>
-      <c r="P22" s="93" t="s">
+      <c r="O29" s="119"/>
+      <c r="P29" s="93" t="s">
         <v>251</v>
       </c>
-      <c r="Q22" s="119" t="s">
+      <c r="Q29" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="R22" s="121" t="s">
+      <c r="R29" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="S22" s="121" t="s">
+      <c r="S29" s="121" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="93" t="s">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="93" t="str">
-        <f>PRI_Sector_Fuels!N14</f>
+      <c r="C30" s="93" t="str">
+        <f>PRI_Sector_Fuels!N20</f>
         <v>CONELC</v>
       </c>
-      <c r="D23" s="93" t="str">
-        <f>PRI_Sector_Fuels!N14</f>
+      <c r="D30" s="93" t="str">
+        <f>PRI_Sector_Fuels!N20</f>
         <v>CONELC</v>
       </c>
-      <c r="F23" s="115">
+      <c r="F30" s="115">
         <v>1</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G30" s="21">
         <v>1</v>
       </c>
-      <c r="H23" s="116"/>
-      <c r="N23" s="93" t="s">
+      <c r="H30" s="116"/>
+      <c r="N30" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="P23" s="93" t="s">
+      <c r="P30" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="Q23" s="93" t="s">
+      <c r="Q30" s="93" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="H24" s="116"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="112"/>
-      <c r="C25" s="93" t="s">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="H31" s="116"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="112"/>
+      <c r="C32" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="116"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="117"/>
-      <c r="C26" s="93" t="s">
+      <c r="H32" s="116"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="117"/>
+      <c r="C33" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="116"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E27" s="93" t="s">
+      <c r="H33" s="116"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E34" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="F27" s="93" t="s">
+      <c r="F34" s="93" t="s">
         <v>246</v>
       </c>
-      <c r="H27" s="116"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E29" s="93" t="s">
+      <c r="H34" s="116"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E36" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="93">
+      <c r="F36" s="93">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E30" s="21"/>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B80D417-24D4-462A-84BB-6A2BF7888717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C08BA16-2117-4288-9E85-3BC73EF6C0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="294">
   <si>
     <t>CommName</t>
   </si>
@@ -2441,6 +2441,9 @@
   </si>
   <si>
     <t>Electricity to MANHEAT</t>
+  </si>
+  <si>
+    <t>Manufacturing electricity supply</t>
   </si>
 </sst>
 </file>
@@ -3259,7 +3262,6 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="9" fontId="8" fillId="17" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="8" fillId="17" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="8" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3341,6 +3343,7 @@
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="24" fillId="17" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -6048,7 +6051,7 @@
         <v>0.7466168572973132</v>
       </c>
       <c r="E46" s="118"/>
-      <c r="K46" s="122">
+      <c r="K46" s="121">
         <f>SUM(D46:J46)</f>
         <v>0.7466168572973132</v>
       </c>
@@ -6068,7 +6071,7 @@
         <v>0.25338314270268686</v>
       </c>
       <c r="J47" s="118"/>
-      <c r="K47" s="122">
+      <c r="K47" s="121">
         <f>SUM(D47:J47)</f>
         <v>0.25338314270268686</v>
       </c>
@@ -6086,7 +6089,7 @@
       <c r="J48" s="118">
         <v>1</v>
       </c>
-      <c r="K48" s="122">
+      <c r="K48" s="121">
         <f>SUM(D48:J48)</f>
         <v>1</v>
       </c>
@@ -6096,63 +6099,63 @@
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J49" s="118"/>
-      <c r="K49" s="122"/>
+      <c r="K49" s="121"/>
     </row>
     <row r="50" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J50" s="118"/>
-      <c r="K50" s="122"/>
+      <c r="K50" s="121"/>
     </row>
     <row r="51" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J51" s="118"/>
-      <c r="K51" s="122"/>
+      <c r="K51" s="121"/>
     </row>
     <row r="52" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J52" s="118"/>
-      <c r="K52" s="122"/>
+      <c r="K52" s="121"/>
     </row>
     <row r="53" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J53" s="118"/>
-      <c r="K53" s="122"/>
+      <c r="K53" s="121"/>
     </row>
     <row r="54" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J54" s="118"/>
-      <c r="K54" s="122"/>
+      <c r="K54" s="121"/>
     </row>
     <row r="55" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J55" s="118"/>
-      <c r="K55" s="122"/>
+      <c r="K55" s="121"/>
     </row>
     <row r="56" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J56" s="118"/>
-      <c r="K56" s="122"/>
+      <c r="K56" s="121"/>
     </row>
     <row r="57" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J57" s="118"/>
-      <c r="K57" s="122"/>
+      <c r="K57" s="121"/>
     </row>
     <row r="58" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J58" s="118"/>
-      <c r="K58" s="122"/>
+      <c r="K58" s="121"/>
     </row>
     <row r="59" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J59" s="118"/>
-      <c r="K59" s="122"/>
+      <c r="K59" s="121"/>
     </row>
     <row r="60" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J60" s="118"/>
-      <c r="K60" s="122"/>
+      <c r="K60" s="121"/>
     </row>
     <row r="61" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J61" s="118"/>
-      <c r="K61" s="122"/>
+      <c r="K61" s="121"/>
     </row>
     <row r="62" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J62" s="118"/>
-      <c r="K62" s="122"/>
+      <c r="K62" s="121"/>
     </row>
     <row r="63" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J63" s="118"/>
-      <c r="K63" s="122"/>
+      <c r="K63" s="121"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C65" s="82" t="s">
@@ -6505,20 +6508,20 @@
       <c r="C11" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133">
+      <c r="D11" s="132"/>
+      <c r="E11" s="132">
         <f>'EBF TJ'!E11*0.2777778</f>
         <v>-2.0000001600000004</v>
       </c>
-      <c r="F11" s="133">
+      <c r="F11" s="132">
         <f>'EBF TJ'!F11*0.2777778</f>
         <v>-16770.812452776001</v>
       </c>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
@@ -6720,42 +6723,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="153" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="149" t="s">
+    <row r="18" spans="2:12" s="152" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f>'EBF TJ'!D18*0.2777778</f>
         <v>7676.2275585426005</v>
       </c>
-      <c r="E18" s="151">
+      <c r="E18" s="150">
         <f>'EBF TJ'!E18*0.2777778</f>
         <v>2605.1202084096003</v>
       </c>
-      <c r="F18" s="151">
+      <c r="F18" s="150">
         <f>'EBF TJ'!F18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G18" s="151">
+      <c r="G18" s="150">
         <f>'EBF TJ'!G18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="H18" s="151">
+      <c r="H18" s="150">
         <f>'EBF TJ'!H18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="I18" s="151">
+      <c r="I18" s="150">
         <f>'EBF TJ'!I18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="J18" s="151">
+      <c r="J18" s="150">
         <f>'EBF TJ'!J18*0.2777778</f>
         <v>2861.5612011470998</v>
       </c>
-      <c r="K18" s="152">
+      <c r="K18" s="151">
         <f t="shared" si="1"/>
         <v>13142.9089680993</v>
       </c>
@@ -7289,7 +7292,7 @@
         <v>0.7466168572973132</v>
       </c>
       <c r="E46" s="118"/>
-      <c r="K46" s="122">
+      <c r="K46" s="121">
         <f>SUM(D46:J46)</f>
         <v>0.7466168572973132</v>
       </c>
@@ -7309,7 +7312,7 @@
         <v>0.25338314270268686</v>
       </c>
       <c r="J47" s="118"/>
-      <c r="K47" s="122">
+      <c r="K47" s="121">
         <f>SUM(D47:J47)</f>
         <v>0.25338314270268686</v>
       </c>
@@ -7327,7 +7330,7 @@
       <c r="J48" s="118">
         <v>1</v>
       </c>
-      <c r="K48" s="122">
+      <c r="K48" s="121">
         <f>SUM(D48:J48)</f>
         <v>1</v>
       </c>
@@ -7337,63 +7340,63 @@
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J49" s="118"/>
-      <c r="K49" s="122"/>
+      <c r="K49" s="121"/>
     </row>
     <row r="50" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J50" s="118"/>
-      <c r="K50" s="122"/>
+      <c r="K50" s="121"/>
     </row>
     <row r="51" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J51" s="118"/>
-      <c r="K51" s="122"/>
+      <c r="K51" s="121"/>
     </row>
     <row r="52" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J52" s="118"/>
-      <c r="K52" s="122"/>
+      <c r="K52" s="121"/>
     </row>
     <row r="53" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J53" s="118"/>
-      <c r="K53" s="122"/>
+      <c r="K53" s="121"/>
     </row>
     <row r="54" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J54" s="118"/>
-      <c r="K54" s="122"/>
+      <c r="K54" s="121"/>
     </row>
     <row r="55" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J55" s="118"/>
-      <c r="K55" s="122"/>
+      <c r="K55" s="121"/>
     </row>
     <row r="56" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J56" s="118"/>
-      <c r="K56" s="122"/>
+      <c r="K56" s="121"/>
     </row>
     <row r="57" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J57" s="118"/>
-      <c r="K57" s="122"/>
+      <c r="K57" s="121"/>
     </row>
     <row r="58" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J58" s="118"/>
-      <c r="K58" s="122"/>
+      <c r="K58" s="121"/>
     </row>
     <row r="59" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J59" s="118"/>
-      <c r="K59" s="122"/>
+      <c r="K59" s="121"/>
     </row>
     <row r="60" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J60" s="118"/>
-      <c r="K60" s="122"/>
+      <c r="K60" s="121"/>
     </row>
     <row r="61" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J61" s="118"/>
-      <c r="K61" s="122"/>
+      <c r="K61" s="121"/>
     </row>
     <row r="62" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J62" s="118"/>
-      <c r="K62" s="122"/>
+      <c r="K62" s="121"/>
     </row>
     <row r="63" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J63" s="118"/>
-      <c r="K63" s="122"/>
+      <c r="K63" s="121"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C65" s="82" t="s">
@@ -7623,7 +7626,7 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="162" t="s">
         <v>268</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -7665,16 +7668,16 @@
       </c>
     </row>
     <row r="5" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="163" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="164" t="s">
+      <c r="D5" s="163" t="s">
         <v>142</v>
       </c>
       <c r="E5" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="164"/>
+      <c r="F5" s="163"/>
       <c r="G5" s="7">
         <f>EBF!P3</f>
         <v>0</v>
@@ -7700,16 +7703,16 @@
       <c r="T5" s="66"/>
     </row>
     <row r="6" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="164" t="s">
+      <c r="D6" s="163" t="s">
         <v>141</v>
       </c>
       <c r="E6" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="164"/>
+      <c r="F6" s="163"/>
       <c r="G6" s="7">
         <f>EBF!P4</f>
         <v>0</v>
@@ -7735,16 +7738,16 @@
       <c r="T6" s="66"/>
     </row>
     <row r="7" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="163" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="163" t="s">
         <v>124</v>
       </c>
       <c r="E7" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="164"/>
+      <c r="F7" s="163"/>
       <c r="G7" s="7">
         <f>EBF!P5</f>
         <v>0</v>
@@ -7770,16 +7773,16 @@
       <c r="T7" s="66"/>
     </row>
     <row r="8" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="163" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="163" t="s">
         <v>288</v>
       </c>
       <c r="E8" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="164"/>
+      <c r="F8" s="163"/>
       <c r="G8" s="7">
         <f>EBF!P6</f>
         <v>0</v>
@@ -7788,10 +7791,10 @@
         <v>74</v>
       </c>
       <c r="M8" s="70"/>
-      <c r="N8" s="162" t="s">
+      <c r="N8" s="161" t="s">
         <v>265</v>
       </c>
-      <c r="O8" s="162" t="s">
+      <c r="O8" s="161" t="s">
         <v>275</v>
       </c>
       <c r="P8" s="66" t="s">
@@ -7804,106 +7807,106 @@
       <c r="S8" s="66"/>
       <c r="T8" s="66"/>
     </row>
-    <row r="9" spans="2:20" s="164" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L9" s="165" t="s">
+    <row r="9" spans="2:20" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="165"/>
-      <c r="N9" s="165" t="s">
+      <c r="M9" s="164"/>
+      <c r="N9" s="164" t="s">
         <v>277</v>
       </c>
-      <c r="O9" s="165" t="s">
+      <c r="O9" s="164" t="s">
         <v>279</v>
       </c>
-      <c r="P9" s="165" t="s">
+      <c r="P9" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="165"/>
-      <c r="S9" s="165"/>
-      <c r="T9" s="165"/>
-    </row>
-    <row r="10" spans="2:20" s="164" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L10" s="165" t="s">
+      <c r="Q9" s="164"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+    </row>
+    <row r="10" spans="2:20" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165" t="s">
+      <c r="M10" s="164"/>
+      <c r="N10" s="164" t="s">
         <v>278</v>
       </c>
-      <c r="O10" s="165" t="s">
+      <c r="O10" s="164" t="s">
         <v>280</v>
       </c>
-      <c r="P10" s="165" t="s">
+      <c r="P10" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="165"/>
-      <c r="S10" s="165"/>
-      <c r="T10" s="165"/>
-    </row>
-    <row r="11" spans="2:20" s="164" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L11" s="165" t="s">
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="164"/>
+    </row>
+    <row r="11" spans="2:20" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165" t="s">
+      <c r="M11" s="164"/>
+      <c r="N11" s="164" t="s">
         <v>281</v>
       </c>
-      <c r="O11" s="165" t="s">
+      <c r="O11" s="164" t="s">
         <v>282</v>
       </c>
-      <c r="P11" s="165" t="s">
+      <c r="P11" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="165"/>
-      <c r="S11" s="165"/>
-      <c r="T11" s="165"/>
-    </row>
-    <row r="12" spans="2:20" s="164" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L12" s="165" t="s">
+      <c r="Q11" s="164"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
+    </row>
+    <row r="12" spans="2:20" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165" t="s">
+      <c r="M12" s="164"/>
+      <c r="N12" s="164" t="s">
         <v>283</v>
       </c>
-      <c r="O12" s="165" t="s">
+      <c r="O12" s="164" t="s">
         <v>124</v>
       </c>
-      <c r="P12" s="165" t="s">
+      <c r="P12" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="165"/>
-      <c r="S12" s="165"/>
-      <c r="T12" s="165"/>
-    </row>
-    <row r="13" spans="2:20" s="164" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L13" s="165" t="s">
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="164"/>
+      <c r="T12" s="164"/>
+    </row>
+    <row r="13" spans="2:20" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="165"/>
-      <c r="N13" s="165" t="s">
+      <c r="M13" s="164"/>
+      <c r="N13" s="164" t="s">
         <v>284</v>
       </c>
-      <c r="O13" s="165" t="s">
+      <c r="O13" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="P13" s="165" t="s">
+      <c r="P13" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="165"/>
-      <c r="S13" s="165"/>
-      <c r="T13" s="165"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="164"/>
+      <c r="S13" s="164"/>
+      <c r="T13" s="164"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L14" s="66"/>
       <c r="M14" s="70"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="162"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
       <c r="P14" s="66"/>
       <c r="Q14" s="66"/>
       <c r="R14" s="66"/>
@@ -8219,7 +8222,7 @@
         <f>EBF!D5</f>
         <v>4518.4003614720004</v>
       </c>
-      <c r="J27" s="123">
+      <c r="J27" s="122">
         <v>8.76</v>
       </c>
       <c r="L27" s="66" t="str">
@@ -8267,7 +8270,7 @@
         <f>EBF!D6</f>
         <v>3157.6616415018002</v>
       </c>
-      <c r="J28" s="123">
+      <c r="J28" s="122">
         <v>8.76</v>
       </c>
       <c r="L28" s="70" t="str">
@@ -8314,7 +8317,7 @@
         <f>EBF!E18</f>
         <v>2605.1202084096003</v>
       </c>
-      <c r="J29" s="123">
+      <c r="J29" s="122">
         <v>8.76</v>
       </c>
       <c r="L29" t="str">
@@ -8339,7 +8342,7 @@
         <v>GRIDELC</v>
       </c>
       <c r="C30" s="70"/>
-      <c r="D30" s="162" t="s">
+      <c r="D30" s="161" t="s">
         <v>46</v>
       </c>
       <c r="E30" s="1">
@@ -8355,22 +8358,22 @@
         <f>EBF!J18</f>
         <v>2861.5612011470998</v>
       </c>
-      <c r="J30" s="123">
+      <c r="J30" s="122">
         <v>8.76</v>
       </c>
-      <c r="L30" s="164" t="s">
+      <c r="L30" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="M30" s="164"/>
-      <c r="N30" s="165" t="str">
+      <c r="M30" s="163"/>
+      <c r="N30" s="164" t="str">
         <f>$L$29&amp;$C$7</f>
         <v>IMPBIO</v>
       </c>
-      <c r="O30" s="166" t="str">
+      <c r="O30" s="165" t="str">
         <f>"Domestic Supply of "&amp;$D$7&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Biomass </v>
       </c>
-      <c r="P30" s="164" t="s">
+      <c r="P30" s="163" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8380,7 +8383,7 @@
         <v>WINDELC</v>
       </c>
       <c r="C31" s="70"/>
-      <c r="D31" s="162" t="s">
+      <c r="D31" s="161" t="s">
         <v>46</v>
       </c>
       <c r="E31" s="1">
@@ -8389,20 +8392,20 @@
       <c r="F31" s="1"/>
       <c r="H31" s="49"/>
       <c r="I31" s="92"/>
-      <c r="J31" s="123"/>
-      <c r="L31" s="164" t="s">
+      <c r="J31" s="122"/>
+      <c r="L31" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="M31" s="164"/>
-      <c r="N31" s="165" t="str">
+      <c r="M31" s="163"/>
+      <c r="N31" s="164" t="str">
         <f>$L$29&amp;$C$8</f>
         <v>IMPGAS</v>
       </c>
-      <c r="O31" s="166" t="str">
+      <c r="O31" s="165" t="str">
         <f>"Domestic Supply of "&amp;$D$8&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Ngas </v>
       </c>
-      <c r="P31" s="164" t="s">
+      <c r="P31" s="163" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8412,7 +8415,7 @@
         <v>SOLELC</v>
       </c>
       <c r="C32" s="70"/>
-      <c r="D32" s="162" t="s">
+      <c r="D32" s="161" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="1">
@@ -8421,7 +8424,7 @@
       <c r="F32" s="1"/>
       <c r="H32" s="49"/>
       <c r="I32" s="92"/>
-      <c r="J32" s="123"/>
+      <c r="J32" s="122"/>
       <c r="N32" s="70"/>
       <c r="O32" s="72"/>
     </row>
@@ -8431,7 +8434,7 @@
         <v>SOLTHT</v>
       </c>
       <c r="C33" s="70"/>
-      <c r="D33" s="162" t="s">
+      <c r="D33" s="161" t="s">
         <v>178</v>
       </c>
       <c r="E33" s="1">
@@ -8440,7 +8443,7 @@
       <c r="F33" s="1"/>
       <c r="H33" s="49"/>
       <c r="I33" s="92"/>
-      <c r="J33" s="123"/>
+      <c r="J33" s="122"/>
       <c r="N33" s="70"/>
       <c r="O33" s="72"/>
     </row>
@@ -8450,7 +8453,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="C34" s="70"/>
-      <c r="D34" s="162" t="str">
+      <c r="D34" s="161" t="str">
         <f>N12</f>
         <v>MANBIOMIN</v>
       </c>
@@ -8460,7 +8463,7 @@
       <c r="F34" s="1"/>
       <c r="H34" s="49"/>
       <c r="I34" s="92"/>
-      <c r="J34" s="123"/>
+      <c r="J34" s="122"/>
       <c r="N34" s="70"/>
       <c r="O34" s="72"/>
     </row>
@@ -8470,7 +8473,7 @@
         <v>MANGASMIN</v>
       </c>
       <c r="C35" s="70"/>
-      <c r="D35" s="162" t="str">
+      <c r="D35" s="161" t="str">
         <f>N13</f>
         <v>MANGASMIN</v>
       </c>
@@ -8480,67 +8483,67 @@
       <c r="F35" s="1"/>
       <c r="H35" s="49"/>
       <c r="I35" s="92"/>
-      <c r="J35" s="123"/>
+      <c r="J35" s="122"/>
       <c r="N35" s="70"/>
       <c r="O35" s="72"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="66"/>
       <c r="C36" s="70"/>
-      <c r="D36" s="162"/>
+      <c r="D36" s="161"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="H36" s="49"/>
       <c r="I36" s="92"/>
-      <c r="J36" s="123"/>
+      <c r="J36" s="122"/>
       <c r="N36" s="70"/>
       <c r="O36" s="72"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="66"/>
       <c r="C37" s="70"/>
-      <c r="D37" s="162"/>
+      <c r="D37" s="161"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="H37" s="49"/>
       <c r="I37" s="92"/>
-      <c r="J37" s="123"/>
+      <c r="J37" s="122"/>
       <c r="N37" s="70"/>
       <c r="O37" s="72"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="66"/>
       <c r="C38" s="70"/>
-      <c r="D38" s="162"/>
+      <c r="D38" s="161"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="H38" s="49"/>
       <c r="I38" s="92"/>
-      <c r="J38" s="123"/>
+      <c r="J38" s="122"/>
       <c r="N38" s="70"/>
       <c r="O38" s="72"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="66"/>
       <c r="C39" s="70"/>
-      <c r="D39" s="162"/>
+      <c r="D39" s="161"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="H39" s="49"/>
       <c r="I39" s="92"/>
-      <c r="J39" s="123"/>
+      <c r="J39" s="122"/>
       <c r="N39" s="70"/>
       <c r="O39" s="72"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="66"/>
       <c r="C40" s="70"/>
-      <c r="D40" s="162"/>
+      <c r="D40" s="161"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="H40" s="49"/>
       <c r="I40" s="92"/>
-      <c r="J40" s="123"/>
+      <c r="J40" s="122"/>
       <c r="N40" s="70"/>
       <c r="O40" s="72"/>
     </row>
@@ -8551,7 +8554,7 @@
       <c r="F41" s="1"/>
       <c r="H41" s="49"/>
       <c r="I41" s="92"/>
-      <c r="J41" s="123"/>
+      <c r="J41" s="122"/>
       <c r="N41" s="70"/>
       <c r="O41" s="72"/>
     </row>
@@ -8562,7 +8565,7 @@
       <c r="F42" s="1"/>
       <c r="H42" s="49"/>
       <c r="I42" s="92"/>
-      <c r="J42" s="123"/>
+      <c r="J42" s="122"/>
       <c r="L42" t="s">
         <v>46</v>
       </c>
@@ -8597,7 +8600,7 @@
         <f>EBF!E19</f>
         <v>8781.4640358504003</v>
       </c>
-      <c r="J43" s="123">
+      <c r="J43" s="122">
         <v>8.76</v>
       </c>
       <c r="N43" s="70"/>
@@ -8623,7 +8626,7 @@
         <f>EBF!J19</f>
         <v>150.60848427090019</v>
       </c>
-      <c r="J44" s="123">
+      <c r="J44" s="122">
         <v>8.76</v>
       </c>
       <c r="N44" s="70"/>
@@ -8683,8 +8686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9166,7 +9169,7 @@
       <c r="H16" s="111">
         <v>0.9</v>
       </c>
-      <c r="I16" s="138">
+      <c r="I16" s="137">
         <v>30</v>
       </c>
       <c r="J16" s="112">
@@ -9221,7 +9224,7 @@
       <c r="H17" s="111">
         <v>0.9</v>
       </c>
-      <c r="I17" s="138">
+      <c r="I17" s="137">
         <v>30</v>
       </c>
       <c r="J17" s="112">
@@ -9299,11 +9302,11 @@
       <c r="S18" s="93" t="s">
         <v>159</v>
       </c>
-      <c r="T18" s="161" t="s">
+      <c r="T18" s="160" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="2:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="99" t="str">
         <f>P$18</f>
         <v>ELC</v>
@@ -9312,36 +9315,36 @@
         <f>PRI_Sector_Fuels!N8</f>
         <v>GRIDELC</v>
       </c>
-      <c r="D19" s="168" t="str">
+      <c r="D19" s="167" t="str">
         <f>P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="E19" s="169">
+      <c r="E19" s="168">
         <f>EBF!K18/(DemTechs_INDF!G19*DemTechs_INDF!F36)*1000</f>
         <v>1500.3320739839382</v>
       </c>
-      <c r="F19" s="170">
+      <c r="F19" s="169">
         <v>1</v>
       </c>
-      <c r="G19" s="167">
+      <c r="G19" s="166">
         <v>1</v>
       </c>
-      <c r="H19" s="167">
+      <c r="H19" s="166">
         <v>1</v>
       </c>
-      <c r="I19" s="167">
+      <c r="I19" s="166">
         <v>50</v>
       </c>
-      <c r="J19" s="167">
+      <c r="J19" s="166">
         <v>0</v>
       </c>
-      <c r="N19" s="167" t="s">
+      <c r="N19" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="P19" s="167" t="s">
+      <c r="P19" s="166" t="s">
         <v>289</v>
       </c>
-      <c r="Q19" s="167" t="s">
+      <c r="Q19" s="166" t="s">
         <v>290</v>
       </c>
       <c r="R19" s="99" t="s">
@@ -9350,11 +9353,11 @@
       <c r="S19" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="T19" s="171" t="s">
+      <c r="T19" s="170" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="2:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="99" t="str">
         <f>P18</f>
         <v>ELC</v>
@@ -9363,39 +9366,39 @@
         <f>PRI_Sector_Fuels!N9</f>
         <v>WINDELC</v>
       </c>
-      <c r="D20" s="168" t="str">
+      <c r="D20" s="167" t="str">
         <f t="shared" ref="D20:D21" si="0">P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="E20" s="169">
+      <c r="E20" s="168">
         <v>0</v>
       </c>
-      <c r="F20" s="170">
+      <c r="F20" s="169">
         <v>1</v>
       </c>
-      <c r="G20" s="167">
+      <c r="G20" s="166">
         <v>1</v>
       </c>
-      <c r="H20" s="167">
+      <c r="H20" s="166">
         <v>1</v>
       </c>
-      <c r="I20" s="167">
+      <c r="I20" s="166">
         <v>50</v>
       </c>
-      <c r="J20" s="167">
+      <c r="J20" s="166">
         <v>0</v>
       </c>
-      <c r="N20" s="167" t="s">
+      <c r="N20" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="P20" s="167" t="s">
+      <c r="P20" s="166" t="s">
         <v>291</v>
       </c>
-      <c r="Q20" s="167" t="s">
+      <c r="Q20" s="166" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="2:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="99" t="str">
         <f>P18</f>
         <v>ELC</v>
@@ -9404,30 +9407,39 @@
         <f>PRI_Sector_Fuels!N10</f>
         <v>SOLELC</v>
       </c>
-      <c r="D21" s="168" t="str">
+      <c r="D21" s="167" t="str">
         <f t="shared" si="0"/>
         <v>MANELC</v>
       </c>
-      <c r="E21" s="169">
+      <c r="E21" s="168">
         <v>0</v>
       </c>
-      <c r="F21" s="170">
+      <c r="F21" s="169">
         <v>1</v>
       </c>
-      <c r="G21" s="167">
+      <c r="G21" s="166">
         <v>1</v>
       </c>
-      <c r="H21" s="167">
+      <c r="H21" s="166">
         <v>1</v>
       </c>
-      <c r="I21" s="167">
+      <c r="I21" s="166">
         <v>50</v>
       </c>
-      <c r="J21" s="167">
+      <c r="J21" s="166">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q21" s="166" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="99" t="str">
         <f>P19</f>
         <v>CSP</v>
@@ -9436,30 +9448,30 @@
         <f>PRI_Sector_Fuels!N11</f>
         <v>SOLTHT</v>
       </c>
-      <c r="D22" s="168" t="str">
+      <c r="D22" s="167" t="str">
         <f>P$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E22" s="169">
+      <c r="E22" s="168">
         <v>0</v>
       </c>
-      <c r="F22" s="170">
+      <c r="F22" s="169">
         <v>1</v>
       </c>
-      <c r="G22" s="167">
+      <c r="G22" s="166">
         <v>1</v>
       </c>
-      <c r="H22" s="167">
+      <c r="H22" s="166">
         <v>1</v>
       </c>
-      <c r="I22" s="167">
+      <c r="I22" s="166">
         <v>50</v>
       </c>
-      <c r="J22" s="167">
+      <c r="J22" s="166">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="99" t="str">
         <f>P16</f>
         <v>Kiln</v>
@@ -9468,30 +9480,30 @@
         <f>PRI_Sector_Fuels!N$12</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D23" s="168" t="str">
-        <f t="shared" ref="D23:D25" si="1">P$5</f>
+      <c r="D23" s="167" t="str">
+        <f t="shared" ref="D23:D26" si="1">P$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E23" s="169">
+      <c r="E23" s="168">
         <v>0</v>
       </c>
-      <c r="F23" s="170">
+      <c r="F23" s="169">
         <v>1</v>
       </c>
-      <c r="G23" s="167">
+      <c r="G23" s="166">
         <v>1</v>
       </c>
-      <c r="H23" s="167">
+      <c r="H23" s="166">
         <v>1</v>
       </c>
-      <c r="I23" s="167">
+      <c r="I23" s="166">
         <v>50</v>
       </c>
-      <c r="J23" s="167">
+      <c r="J23" s="166">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="99" t="str">
         <f>P17</f>
         <v>Boiler</v>
@@ -9500,67 +9512,91 @@
         <f>PRI_Sector_Fuels!N$12</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D24" s="168" t="str">
+      <c r="D24" s="167" t="str">
         <f t="shared" si="1"/>
         <v>MANHEAT</v>
       </c>
-      <c r="E24" s="169">
+      <c r="E24" s="168">
         <v>0</v>
       </c>
-      <c r="F24" s="170">
+      <c r="F24" s="169">
         <v>1</v>
       </c>
-      <c r="G24" s="167">
+      <c r="G24" s="166">
         <v>1</v>
       </c>
-      <c r="H24" s="167">
+      <c r="H24" s="166">
         <v>1</v>
       </c>
-      <c r="I24" s="167">
+      <c r="I24" s="166">
         <v>50</v>
       </c>
-      <c r="J24" s="167">
+      <c r="J24" s="166">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99" t="str">
         <f>P20</f>
         <v>Furnace</v>
       </c>
-      <c r="C25" s="168" t="str">
-        <f>P6</f>
+      <c r="C25" s="167" t="str">
+        <f>P21</f>
         <v>MANELC</v>
       </c>
-      <c r="D25" s="168" t="str">
+      <c r="D25" s="167" t="str">
         <f t="shared" si="1"/>
         <v>MANHEAT</v>
       </c>
-      <c r="E25" s="169">
+      <c r="E25" s="168">
         <v>0</v>
       </c>
-      <c r="F25" s="170">
+      <c r="F25" s="169">
         <v>1</v>
       </c>
-      <c r="G25" s="167">
+      <c r="G25" s="166">
         <v>1</v>
       </c>
-      <c r="H25" s="167">
+      <c r="H25" s="166">
         <v>1</v>
       </c>
-      <c r="I25" s="167">
+      <c r="I25" s="166">
         <v>50</v>
       </c>
-      <c r="J25" s="167">
+      <c r="J25" s="166">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:22" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="120"/>
+      <c r="B26" s="171" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="95" t="str">
+        <f>P21</f>
+        <v>MANELC</v>
+      </c>
+      <c r="D26" s="167" t="str">
+        <f t="shared" si="1"/>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E26" s="168">
+        <v>0</v>
+      </c>
+      <c r="F26" s="169">
+        <v>1</v>
+      </c>
+      <c r="G26" s="166">
+        <v>1</v>
+      </c>
+      <c r="H26" s="166">
+        <v>1</v>
+      </c>
+      <c r="I26" s="166">
+        <v>50</v>
+      </c>
+      <c r="J26" s="166">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F27" s="114"/>
@@ -9583,7 +9619,7 @@
       <c r="S28" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="T28" s="161" t="s">
+      <c r="T28" s="160" t="s">
         <v>274</v>
       </c>
     </row>
@@ -9615,10 +9651,10 @@
       <c r="Q29" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="R29" s="121" t="s">
+      <c r="R29" s="120" t="s">
         <v>167</v>
       </c>
-      <c r="S29" s="121" t="s">
+      <c r="S29" s="120" t="s">
         <v>159</v>
       </c>
     </row>
@@ -9701,7 +9737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -9749,183 +9785,183 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K3" s="156"/>
+      <c r="K3" s="155"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="125"/>
+      <c r="D5" s="124"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="124">
+      <c r="E6" s="123">
         <v>2022</v>
       </c>
-      <c r="F6" s="124">
+      <c r="F6" s="123">
         <v>2025</v>
       </c>
-      <c r="G6" s="124">
+      <c r="G6" s="123">
         <v>2030</v>
       </c>
-      <c r="H6" s="124">
+      <c r="H6" s="123">
         <v>2035</v>
       </c>
-      <c r="I6" s="124">
+      <c r="I6" s="123">
         <v>2040</v>
       </c>
-      <c r="J6" s="124">
+      <c r="J6" s="123">
         <v>2045</v>
       </c>
-      <c r="K6" s="124">
+      <c r="K6" s="123">
         <v>2050</v>
       </c>
-      <c r="L6" s="154"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="131"/>
-      <c r="Q6" s="125" t="s">
+      <c r="L6" s="153"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="130"/>
+      <c r="Q6" s="124" t="s">
         <v>13</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:18" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="126" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="F7" s="127" t="s">
+      <c r="F7" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="127" t="s">
+      <c r="G7" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="H7" s="127" t="s">
+      <c r="H7" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="J7" s="127" t="s">
+      <c r="J7" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="K7" s="127" t="s">
+      <c r="K7" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="L7" s="155"/>
-      <c r="M7" s="157" t="s">
+      <c r="L7" s="154"/>
+      <c r="M7" s="156" t="s">
         <v>273</v>
       </c>
-      <c r="N7" s="132"/>
-      <c r="O7" s="124" t="s">
+      <c r="N7" s="131"/>
+      <c r="O7" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="P7" s="124" t="s">
+      <c r="P7" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="Q7" s="124" t="s">
+      <c r="Q7" s="123" t="s">
         <v>191</v>
       </c>
-      <c r="R7" s="124">
+      <c r="R7" s="123">
         <v>2022</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126" t="s">
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="126" t="s">
+      <c r="G8" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="H8" s="126" t="s">
+      <c r="H8" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="126" t="s">
+      <c r="I8" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="J8" s="126" t="s">
+      <c r="J8" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="126" t="s">
+      <c r="K8" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="L8" s="155"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="134" t="s">
+      <c r="L8" s="154"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="P8" s="134" t="s">
+      <c r="P8" s="133" t="s">
         <v>187</v>
       </c>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="134"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="133"/>
     </row>
     <row r="9" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="127" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="128" t="str">
+      <c r="C9" s="127" t="str">
         <f>DemTechs_INDF!P5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="D9" s="128" t="str">
+      <c r="D9" s="127" t="str">
         <f>E$2</f>
         <v>GWh</v>
       </c>
-      <c r="E9" s="130">
+      <c r="E9" s="129">
         <f>EBF!D18+EBF!E18</f>
         <v>10281.3477669522</v>
       </c>
-      <c r="F9" s="130">
+      <c r="F9" s="129">
         <f>$E$9*(1+$M$9)^(F6-$E$6)</f>
         <v>14405.897122659175</v>
       </c>
-      <c r="G9" s="130">
+      <c r="G9" s="129">
         <f t="shared" ref="G9:K9" si="0">$E$9*(1+$M$9)^(G6-$E$6)</f>
         <v>25274.975404905261</v>
       </c>
-      <c r="H9" s="130">
+      <c r="H9" s="129">
         <f t="shared" si="0"/>
         <v>44344.644160602315</v>
       </c>
-      <c r="I9" s="130">
+      <c r="I9" s="129">
         <f t="shared" si="0"/>
         <v>77802.151504717243</v>
       </c>
-      <c r="J9" s="130">
+      <c r="J9" s="129">
         <f t="shared" si="0"/>
         <v>136502.95076988969</v>
       </c>
-      <c r="K9" s="130">
+      <c r="K9" s="129">
         <f t="shared" si="0"/>
         <v>239492.80589955384</v>
       </c>
-      <c r="M9" s="159">
+      <c r="M9" s="158">
         <v>0.11899999999999999</v>
       </c>
       <c r="O9" s="9" t="s">
@@ -9936,46 +9972,46 @@
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="127" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="128" t="str">
+      <c r="C10" s="127" t="str">
         <f>DemTechs_INDF!P6</f>
         <v>MANELC</v>
       </c>
-      <c r="D10" s="128" t="str">
+      <c r="D10" s="127" t="str">
         <f>E$2</f>
         <v>GWh</v>
       </c>
-      <c r="E10" s="130">
+      <c r="E10" s="129">
         <f>EBF!J18</f>
         <v>2861.5612011470998</v>
       </c>
-      <c r="F10" s="130">
+      <c r="F10" s="129">
         <f>$E$10*(1+$M$10)^(F6-$E$6)</f>
         <v>3350.6176459935423</v>
       </c>
-      <c r="G10" s="130">
+      <c r="G10" s="129">
         <f t="shared" ref="G10:K10" si="1">$E$10*(1+$M$10)^(G6-$E$6)</f>
         <v>4358.4084284728824</v>
       </c>
-      <c r="H10" s="130">
+      <c r="H10" s="129">
         <f t="shared" si="1"/>
         <v>5669.320118366044</v>
       </c>
-      <c r="I10" s="130">
+      <c r="I10" s="129">
         <f t="shared" si="1"/>
         <v>7374.5246990933629</v>
       </c>
-      <c r="J10" s="130">
+      <c r="J10" s="129">
         <f t="shared" si="1"/>
         <v>9592.6166457525742</v>
       </c>
-      <c r="K10" s="130">
+      <c r="K10" s="129">
         <f t="shared" si="1"/>
         <v>12477.860996747662</v>
       </c>
-      <c r="M10" s="160">
+      <c r="M10" s="159">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -9988,21 +10024,21 @@
       <c r="Q10" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="R10" s="135">
+      <c r="R10" s="134">
         <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
       <c r="K11" s="5">
         <f>K9+K10</f>
         <v>251970.6668963015</v>
       </c>
-      <c r="M11" s="158"/>
+      <c r="M11" s="157"/>
       <c r="O11" s="1" t="s">
         <v>192</v>
       </c>
@@ -10013,45 +10049,45 @@
       <c r="Q11" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="R11" s="135">
+      <c r="R11" s="134">
         <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="148" t="s">
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="147" t="s">
         <v>271</v>
       </c>
-      <c r="E12" s="147">
+      <c r="E12" s="146">
         <f>E10/(E$9+E$10)</f>
         <v>0.21772662415091906</v>
       </c>
-      <c r="F12" s="147">
+      <c r="F12" s="146">
         <f>F10/(F$9+F$10)</f>
         <v>0.18869793366819429</v>
       </c>
-      <c r="G12" s="147">
+      <c r="G12" s="146">
         <f t="shared" ref="G12:K12" si="2">G10/(G$9+G$10)</f>
         <v>0.14707764907913431</v>
       </c>
-      <c r="H12" s="147">
+      <c r="H12" s="146">
         <f t="shared" si="2"/>
         <v>0.11335474402196269</v>
       </c>
-      <c r="I12" s="147">
+      <c r="I12" s="146">
         <f t="shared" si="2"/>
         <v>8.6579155559529136E-2</v>
       </c>
-      <c r="J12" s="147">
+      <c r="J12" s="146">
         <f t="shared" si="2"/>
         <v>6.5659874665886034E-2</v>
       </c>
-      <c r="K12" s="147">
+      <c r="K12" s="146">
         <f t="shared" si="2"/>
         <v>4.9521085729724738E-2</v>
       </c>
-      <c r="M12" s="158"/>
+      <c r="M12" s="157"/>
       <c r="N12" s="5"/>
       <c r="O12" s="1" t="s">
         <v>192</v>
@@ -10063,7 +10099,7 @@
       <c r="Q12" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="R12" s="135">
+      <c r="R12" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10072,35 +10108,35 @@
       <c r="D13" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="147">
+      <c r="E13" s="146">
         <f>E9/(E$9+E$10)</f>
         <v>0.78227337584908085</v>
       </c>
-      <c r="F13" s="147">
+      <c r="F13" s="146">
         <f>F9/(F$9+F$10)</f>
         <v>0.81130206633180579</v>
       </c>
-      <c r="G13" s="147">
+      <c r="G13" s="146">
         <f t="shared" ref="G13:K13" si="3">G9/(G$9+G$10)</f>
         <v>0.85292235092086577</v>
       </c>
-      <c r="H13" s="147">
+      <c r="H13" s="146">
         <f t="shared" si="3"/>
         <v>0.88664525597803734</v>
       </c>
-      <c r="I13" s="147">
+      <c r="I13" s="146">
         <f t="shared" si="3"/>
         <v>0.91342084444047078</v>
       </c>
-      <c r="J13" s="147">
+      <c r="J13" s="146">
         <f t="shared" si="3"/>
         <v>0.93434012533411404</v>
       </c>
-      <c r="K13" s="147">
+      <c r="K13" s="146">
         <f t="shared" si="3"/>
         <v>0.95047891427027531</v>
       </c>
-      <c r="M13" s="158"/>
+      <c r="M13" s="157"/>
       <c r="O13" s="1" t="s">
         <v>192</v>
       </c>
@@ -10108,10 +10144,10 @@
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q13" s="136" t="s">
+      <c r="Q13" s="135" t="s">
         <v>196</v>
       </c>
-      <c r="R13" s="137">
+      <c r="R13" s="136">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10126,7 +10162,7 @@
       <c r="Q14" t="s">
         <v>197</v>
       </c>
-      <c r="R14" s="135">
+      <c r="R14" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10141,7 +10177,7 @@
       <c r="Q15" t="s">
         <v>198</v>
       </c>
-      <c r="R15" s="135">
+      <c r="R15" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10157,7 +10193,7 @@
       <c r="Q16" t="s">
         <v>199</v>
       </c>
-      <c r="R16" s="135">
+      <c r="R16" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10172,7 +10208,7 @@
       <c r="Q17" t="s">
         <v>200</v>
       </c>
-      <c r="R17" s="137">
+      <c r="R17" s="136">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10187,7 +10223,7 @@
       <c r="Q18" t="s">
         <v>201</v>
       </c>
-      <c r="R18" s="135">
+      <c r="R18" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10216,7 +10252,7 @@
       <c r="Q19" t="s">
         <v>202</v>
       </c>
-      <c r="R19" s="135">
+      <c r="R19" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10245,7 +10281,7 @@
       <c r="Q20" t="s">
         <v>203</v>
       </c>
-      <c r="R20" s="135">
+      <c r="R20" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10260,12 +10296,12 @@
       <c r="Q21" t="s">
         <v>204</v>
       </c>
-      <c r="R21" s="137">
+      <c r="R21" s="136">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="129"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="1" t="s">
         <v>99</v>
       </c>
@@ -10279,7 +10315,7 @@
       <c r="Q22" t="s">
         <v>205</v>
       </c>
-      <c r="R22" s="135">
+      <c r="R22" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10298,7 +10334,7 @@
       <c r="Q23" t="s">
         <v>206</v>
       </c>
-      <c r="R23" s="135">
+      <c r="R23" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10313,7 +10349,7 @@
       <c r="Q24" t="s">
         <v>207</v>
       </c>
-      <c r="R24" s="135">
+      <c r="R24" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10328,7 +10364,7 @@
       <c r="Q25" t="s">
         <v>208</v>
       </c>
-      <c r="R25" s="137">
+      <c r="R25" s="136">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10343,7 +10379,7 @@
       <c r="Q26" t="s">
         <v>209</v>
       </c>
-      <c r="R26" s="135">
+      <c r="R26" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10358,7 +10394,7 @@
       <c r="Q27" t="s">
         <v>210</v>
       </c>
-      <c r="R27" s="135">
+      <c r="R27" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10373,7 +10409,7 @@
       <c r="Q28" t="s">
         <v>211</v>
       </c>
-      <c r="R28" s="135">
+      <c r="R28" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10388,7 +10424,7 @@
       <c r="Q29" t="s">
         <v>212</v>
       </c>
-      <c r="R29" s="137">
+      <c r="R29" s="136">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10403,7 +10439,7 @@
       <c r="Q30" t="s">
         <v>213</v>
       </c>
-      <c r="R30" s="135">
+      <c r="R30" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10418,7 +10454,7 @@
       <c r="Q31" t="s">
         <v>214</v>
       </c>
-      <c r="R31" s="135">
+      <c r="R31" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10433,7 +10469,7 @@
       <c r="Q32" t="s">
         <v>215</v>
       </c>
-      <c r="R32" s="135">
+      <c r="R32" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10448,7 +10484,7 @@
       <c r="Q33" t="s">
         <v>216</v>
       </c>
-      <c r="R33" s="137">
+      <c r="R33" s="136">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10463,7 +10499,7 @@
       <c r="Q34" t="s">
         <v>217</v>
       </c>
-      <c r="R34" s="135">
+      <c r="R34" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10478,7 +10514,7 @@
       <c r="Q35" t="s">
         <v>218</v>
       </c>
-      <c r="R35" s="135">
+      <c r="R35" s="134">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10493,7 +10529,7 @@
       <c r="Q36" t="s">
         <v>219</v>
       </c>
-      <c r="R36" s="135">
+      <c r="R36" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10508,7 +10544,7 @@
       <c r="Q37" t="s">
         <v>220</v>
       </c>
-      <c r="R37" s="137">
+      <c r="R37" s="136">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10523,7 +10559,7 @@
       <c r="Q38" t="s">
         <v>221</v>
       </c>
-      <c r="R38" s="135">
+      <c r="R38" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10538,7 +10574,7 @@
       <c r="Q39" t="s">
         <v>222</v>
       </c>
-      <c r="R39" s="135">
+      <c r="R39" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10553,7 +10589,7 @@
       <c r="Q40" t="s">
         <v>223</v>
       </c>
-      <c r="R40" s="135">
+      <c r="R40" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10568,7 +10604,7 @@
       <c r="Q41" t="s">
         <v>224</v>
       </c>
-      <c r="R41" s="137">
+      <c r="R41" s="136">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10583,7 +10619,7 @@
       <c r="Q42" t="s">
         <v>225</v>
       </c>
-      <c r="R42" s="135">
+      <c r="R42" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10598,7 +10634,7 @@
       <c r="Q43" t="s">
         <v>226</v>
       </c>
-      <c r="R43" s="135">
+      <c r="R43" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10613,7 +10649,7 @@
       <c r="Q44" t="s">
         <v>227</v>
       </c>
-      <c r="R44" s="135">
+      <c r="R44" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10628,7 +10664,7 @@
       <c r="Q45" t="s">
         <v>228</v>
       </c>
-      <c r="R45" s="137">
+      <c r="R45" s="136">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10643,7 +10679,7 @@
       <c r="Q46" t="s">
         <v>229</v>
       </c>
-      <c r="R46" s="135">
+      <c r="R46" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10658,7 +10694,7 @@
       <c r="Q47" t="s">
         <v>230</v>
       </c>
-      <c r="R47" s="135">
+      <c r="R47" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10673,7 +10709,7 @@
       <c r="Q48" t="s">
         <v>231</v>
       </c>
-      <c r="R48" s="135">
+      <c r="R48" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10688,7 +10724,7 @@
       <c r="Q49" t="s">
         <v>232</v>
       </c>
-      <c r="R49" s="137">
+      <c r="R49" s="136">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10703,7 +10739,7 @@
       <c r="Q50" t="s">
         <v>233</v>
       </c>
-      <c r="R50" s="135">
+      <c r="R50" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10718,7 +10754,7 @@
       <c r="Q51" t="s">
         <v>234</v>
       </c>
-      <c r="R51" s="135">
+      <c r="R51" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10733,7 +10769,7 @@
       <c r="Q52" t="s">
         <v>235</v>
       </c>
-      <c r="R52" s="135">
+      <c r="R52" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10748,7 +10784,7 @@
       <c r="Q53" t="s">
         <v>236</v>
       </c>
-      <c r="R53" s="137">
+      <c r="R53" s="136">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10763,7 +10799,7 @@
       <c r="Q54" t="s">
         <v>237</v>
       </c>
-      <c r="R54" s="135">
+      <c r="R54" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10778,7 +10814,7 @@
       <c r="Q55" t="s">
         <v>238</v>
       </c>
-      <c r="R55" s="135">
+      <c r="R55" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10793,7 +10829,7 @@
       <c r="Q56" t="s">
         <v>239</v>
       </c>
-      <c r="R56" s="135">
+      <c r="R56" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10808,7 +10844,7 @@
       <c r="Q57" t="s">
         <v>240</v>
       </c>
-      <c r="R57" s="137">
+      <c r="R57" s="136">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10823,7 +10859,7 @@
       <c r="Q58" t="s">
         <v>241</v>
       </c>
-      <c r="R58" s="135">
+      <c r="R58" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10838,7 +10874,7 @@
       <c r="Q59" t="s">
         <v>242</v>
       </c>
-      <c r="R59" s="135">
+      <c r="R59" s="134">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10866,97 +10902,97 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="138" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
     </row>
     <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
     </row>
     <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="142"/>
+      <c r="C5" s="141"/>
     </row>
     <row r="6" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="143" t="str">
+      <c r="C6" s="142" t="str">
         <f>PRI_Sector_Fuels!N5</f>
         <v>MANCOALMIN</v>
       </c>
-      <c r="D6" s="143" t="str">
+      <c r="D6" s="142" t="str">
         <f>PRI_Sector_Fuels!N6</f>
         <v>MANCOALIMP</v>
       </c>
-      <c r="E6" s="143" t="str">
+      <c r="E6" s="142" t="str">
         <f>PRI_Sector_Fuels!N7</f>
         <v>MANOILIMP</v>
       </c>
-      <c r="F6" s="143" t="str">
+      <c r="F6" s="142" t="str">
         <f>PRI_Sector_Fuels!N8</f>
         <v>GRIDELC</v>
       </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="143" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="144" t="s">
+      <c r="D7" s="143" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="144" t="s">
+      <c r="E7" s="143" t="s">
         <v>264</v>
       </c>
-      <c r="F7" s="144" t="s">
+      <c r="F7" s="143" t="s">
         <v>264</v>
       </c>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="145" t="str">
+      <c r="B8" s="144" t="str">
         <f>DemTechs_INDF!P7</f>
         <v>MANCO2</v>
       </c>
-      <c r="C8" s="146">
+      <c r="C8" s="145">
         <v>347494</v>
       </c>
-      <c r="D8" s="146">
+      <c r="D8" s="145">
         <v>347494</v>
       </c>
-      <c r="E8" s="146">
+      <c r="E8" s="145">
         <v>279515</v>
       </c>
-      <c r="F8" s="146">
+      <c r="F8" s="145">
         <v>0</v>
       </c>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
       <c r="I8" s="1"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="129"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="1" t="s">
         <v>99</v>
       </c>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C08BA16-2117-4288-9E85-3BC73EF6C0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182F0552-07BA-47F6-93E4-8A5EBCEEDD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="293">
   <si>
     <t>CommName</t>
   </si>
@@ -2441,9 +2441,6 @@
   </si>
   <si>
     <t>Electricity to MANHEAT</t>
-  </si>
-  <si>
-    <t>Manufacturing electricity supply</t>
   </si>
 </sst>
 </file>
@@ -8686,8 +8683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:J26"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9397,6 +9394,12 @@
       <c r="Q20" s="166" t="s">
         <v>292</v>
       </c>
+      <c r="R20" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="S20" s="99" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="21" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="99" t="str">
@@ -9429,15 +9432,7 @@
       <c r="J21" s="166">
         <v>0</v>
       </c>
-      <c r="N21" s="166" t="s">
-        <v>115</v>
-      </c>
-      <c r="P21" s="95" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q21" s="166" t="s">
-        <v>293</v>
-      </c>
+      <c r="P21" s="95"/>
     </row>
     <row r="22" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="99" t="str">
@@ -9541,8 +9536,8 @@
         <v>Furnace</v>
       </c>
       <c r="C25" s="167" t="str">
-        <f>P21</f>
-        <v>MANELC</v>
+        <f>P18</f>
+        <v>ELC</v>
       </c>
       <c r="D25" s="167" t="str">
         <f t="shared" si="1"/>
@@ -9572,8 +9567,8 @@
         <v>160</v>
       </c>
       <c r="C26" s="95" t="str">
-        <f>P21</f>
-        <v>MANELC</v>
+        <f>P18</f>
+        <v>ELC</v>
       </c>
       <c r="D26" s="167" t="str">
         <f t="shared" si="1"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182F0552-07BA-47F6-93E4-8A5EBCEEDD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C65430B-C15D-4BC7-8FB1-6A2C8395EC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1133,7 +1133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T13" authorId="2" shapeId="0" xr:uid="{B8BF4189-7AEB-4804-8932-33CB73FCE7E5}">
+    <comment ref="T14" authorId="2" shapeId="0" xr:uid="{B8BF4189-7AEB-4804-8932-33CB73FCE7E5}">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U13" authorId="1" shapeId="0" xr:uid="{5D6B271C-ECB1-4F2A-B44A-CFC55CCC04E5}">
+    <comment ref="U14" authorId="1" shapeId="0" xr:uid="{5D6B271C-ECB1-4F2A-B44A-CFC55CCC04E5}">
       <text>
         <r>
           <rPr>
@@ -1251,7 +1251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V13" authorId="2" shapeId="0" xr:uid="{2D72E718-CBF9-42D3-993C-F0AD66976F32}">
+    <comment ref="V14" authorId="2" shapeId="0" xr:uid="{2D72E718-CBF9-42D3-993C-F0AD66976F32}">
       <text>
         <r>
           <rPr>
@@ -1314,7 +1314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="2" shapeId="0" xr:uid="{0B963EA5-F116-4DDE-B632-C6029837D6FB}">
+    <comment ref="N15" authorId="2" shapeId="0" xr:uid="{0B963EA5-F116-4DDE-B632-C6029837D6FB}">
       <text>
         <r>
           <rPr>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="293">
   <si>
     <t>CommName</t>
   </si>
@@ -3016,7 +3016,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3341,6 +3341,7 @@
     <xf numFmtId="9" fontId="24" fillId="17" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -4308,13 +4309,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7505,7 +7506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -8681,10 +8682,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
-  <dimension ref="B1:V37"/>
+  <dimension ref="B1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19:S20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8888,56 +8889,54 @@
       <c r="U6" s="95"/>
       <c r="V6" s="95"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N7" s="95" t="s">
-        <v>155</v>
+    <row r="7" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="N7" s="172" t="s">
+        <v>82</v>
       </c>
       <c r="O7" s="95"/>
-      <c r="P7" s="95" t="str">
-        <f>$B$2&amp;EBF!C65</f>
-        <v>MANCO2</v>
-      </c>
-      <c r="Q7" s="95" t="str">
-        <f>$C$2&amp;" "&amp;EBF!C65</f>
-        <v>Manufacturing CO2</v>
-      </c>
-      <c r="R7" s="95" t="str">
-        <f>EBF!R2</f>
-        <v>kt</v>
-      </c>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
       <c r="S7" s="95"/>
       <c r="T7" s="95"/>
       <c r="U7" s="95"/>
       <c r="V7" s="95"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N8" s="95"/>
+      <c r="N8" s="95" t="s">
+        <v>155</v>
+      </c>
       <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
+      <c r="P8" s="95" t="str">
+        <f>$B$2&amp;EBF!C65</f>
+        <v>MANCO2</v>
+      </c>
+      <c r="Q8" s="95" t="str">
+        <f>$C$2&amp;" "&amp;EBF!C65</f>
+        <v>Manufacturing CO2</v>
+      </c>
+      <c r="R8" s="95" t="str">
+        <f>EBF!R2</f>
+        <v>kt</v>
+      </c>
       <c r="S8" s="95"/>
       <c r="T8" s="95"/>
       <c r="U8" s="95"/>
       <c r="V8" s="95"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N9" s="95" t="s">
-        <v>82</v>
-      </c>
+      <c r="N9" s="95"/>
       <c r="O9" s="95"/>
-      <c r="P9" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q9" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="R9" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="S9" s="95" t="s">
-        <v>180</v>
-      </c>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
       <c r="T9" s="95"/>
       <c r="U9" s="95"/>
       <c r="V9" s="95"/>
@@ -8948,10 +8947,10 @@
       </c>
       <c r="O10" s="95"/>
       <c r="P10" s="95" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="95" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R10" s="95" t="s">
         <v>167</v>
@@ -8963,257 +8962,223 @@
       <c r="U10" s="95"/>
       <c r="V10" s="95"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N11" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q11" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="R11" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="S11" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="94" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="94"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-    </row>
-    <row r="13" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="54" t="s">
+      <c r="O13" s="94"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+    </row>
+    <row r="14" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C14" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D14" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E14" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="F14" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="100" t="s">
+      <c r="G14" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="100" t="s">
+      <c r="H14" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="I13" s="100" t="s">
+      <c r="I14" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="100" t="s">
+      <c r="J14" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="K13" s="102" t="s">
+      <c r="K14" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="96" t="s">
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="97" t="s">
+      <c r="O14" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="96" t="s">
+      <c r="P14" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="96" t="s">
+      <c r="Q14" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="96" t="s">
+      <c r="R14" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="96" t="s">
+      <c r="S14" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="96" t="s">
+      <c r="T14" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="U13" s="96" t="s">
+      <c r="U14" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="V13" s="96" t="s">
+      <c r="V14" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="103" t="s">
+    <row r="15" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C15" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D15" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E15" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F15" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G15" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="104" t="s">
+      <c r="H15" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="103" t="s">
+      <c r="I15" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="103" t="s">
+      <c r="J15" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="K14" s="104" t="s">
+      <c r="K15" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="98" t="s">
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="98" t="s">
+      <c r="O15" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="98" t="s">
+      <c r="P15" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="Q14" s="98" t="s">
+      <c r="Q15" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="98" t="s">
+      <c r="R15" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="98" t="s">
+      <c r="S15" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="98" t="s">
+      <c r="T15" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="98" t="s">
+      <c r="U15" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="V14" s="98" t="s">
+      <c r="V15" s="98" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="106" t="s">
+    <row r="16" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="107" t="s">
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="107" t="s">
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="98" t="s">
+      <c r="J16" s="107"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="98"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="93" t="str">
-        <f>P$16</f>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="93" t="str">
+        <f>P$17</f>
         <v>Kiln</v>
       </c>
-      <c r="C16" s="93" t="str">
+      <c r="C17" s="93" t="str">
         <f>PRI_Sector_Fuels!N5</f>
         <v>MANCOALMIN</v>
-      </c>
-      <c r="D16" s="95" t="str">
-        <f>P5</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="E16" s="113">
-        <f>EBF!D5/(DemTechs_INDF!G16*DemTechs_INDF!F36)*1000</f>
-        <v>937.81659640348698</v>
-      </c>
-      <c r="F16" s="110">
-        <v>0.44</v>
-      </c>
-      <c r="G16" s="111">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H16" s="111">
-        <v>0.9</v>
-      </c>
-      <c r="I16" s="137">
-        <v>30</v>
-      </c>
-      <c r="J16" s="112">
-        <v>144094</v>
-      </c>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="P16" s="93" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q16" s="93" t="s">
-        <v>261</v>
-      </c>
-      <c r="R16" s="95" t="str">
-        <f>$E$2</f>
-        <v>GWh</v>
-      </c>
-      <c r="S16" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="93" t="str">
-        <f>P$16</f>
-        <v>Kiln</v>
-      </c>
-      <c r="C17" s="93" t="str">
-        <f>PRI_Sector_Fuels!N6</f>
-        <v>MANCOALIMP</v>
       </c>
       <c r="D17" s="95" t="str">
         <f>P5</f>
         <v>MANHEAT</v>
       </c>
       <c r="E17" s="113">
-        <f>EBF!D6/(DemTechs_INDF!G17*DemTechs_INDF!F36)*1000</f>
-        <v>655.38846855579084</v>
+        <f>EBF!D5/(DemTechs_INDF!G17*DemTechs_INDF!F37)*1000</f>
+        <v>937.81659640348698</v>
       </c>
       <c r="F17" s="110">
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="G17" s="111">
         <v>0.55000000000000004</v>
@@ -9234,10 +9199,10 @@
         <v>115</v>
       </c>
       <c r="P17" s="93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="93" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="R17" s="95" t="str">
         <f>$E$2</f>
@@ -9253,165 +9218,173 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="93" t="str">
         <f>P$17</f>
-        <v>Boiler</v>
+        <v>Kiln</v>
       </c>
       <c r="C18" s="93" t="str">
-        <f>PRI_Sector_Fuels!N7</f>
-        <v>MANOILIMP</v>
+        <f>PRI_Sector_Fuels!N6</f>
+        <v>MANCOALIMP</v>
       </c>
       <c r="D18" s="95" t="str">
         <f>P5</f>
         <v>MANHEAT</v>
       </c>
       <c r="E18" s="113">
-        <f>EBF!E18/(DemTechs_INDF!G18*DemTechs_INDF!F36)*1000</f>
-        <v>396.51753552657539</v>
+        <f>EBF!D6/(DemTechs_INDF!G18*DemTechs_INDF!F37)*1000</f>
+        <v>655.38846855579084</v>
       </c>
       <c r="F18" s="110">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="G18" s="111">
-        <v>0.75</v>
-      </c>
-      <c r="H18" s="113">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H18" s="111">
         <v>0.9</v>
       </c>
-      <c r="I18" s="112">
+      <c r="I18" s="137">
         <v>30</v>
       </c>
       <c r="J18" s="112">
-        <v>60000</v>
+        <v>144094</v>
       </c>
       <c r="K18" s="112"/>
       <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
       <c r="N18" s="93" t="s">
         <v>115</v>
       </c>
       <c r="P18" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q18" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="R18" s="95" t="str">
+        <f>$E$2</f>
+        <v>GWh</v>
+      </c>
+      <c r="S18" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="93" t="str">
+        <f>P$18</f>
+        <v>Boiler</v>
+      </c>
+      <c r="C19" s="93" t="str">
+        <f>PRI_Sector_Fuels!N7</f>
+        <v>MANOILIMP</v>
+      </c>
+      <c r="D19" s="95" t="str">
+        <f>P5</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E19" s="113">
+        <f>EBF!E18/(DemTechs_INDF!G19*DemTechs_INDF!F37)*1000</f>
+        <v>396.51753552657539</v>
+      </c>
+      <c r="F19" s="110">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="111">
+        <v>0.75</v>
+      </c>
+      <c r="H19" s="113">
+        <v>0.9</v>
+      </c>
+      <c r="I19" s="112">
+        <v>30</v>
+      </c>
+      <c r="J19" s="112">
+        <v>60000</v>
+      </c>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="N19" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="Q18" s="93" t="s">
+      <c r="Q19" s="93" t="s">
         <v>267</v>
       </c>
-      <c r="R18" s="93" t="s">
+      <c r="R19" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="S18" s="93" t="s">
+      <c r="S19" s="93" t="s">
         <v>159</v>
       </c>
-      <c r="T18" s="160" t="s">
+      <c r="T19" s="160" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="99" t="str">
-        <f>P$18</f>
+    <row r="20" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="99" t="str">
+        <f>P$19</f>
         <v>ELC</v>
       </c>
-      <c r="C19" s="99" t="str">
+      <c r="C20" s="99" t="str">
         <f>PRI_Sector_Fuels!N8</f>
         <v>GRIDELC</v>
       </c>
-      <c r="D19" s="167" t="str">
+      <c r="D20" s="167" t="str">
         <f>P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="E19" s="168">
-        <f>EBF!K18/(DemTechs_INDF!G19*DemTechs_INDF!F36)*1000</f>
+      <c r="E20" s="168">
+        <f>EBF!K18/(DemTechs_INDF!G20*DemTechs_INDF!F37)*1000</f>
         <v>1500.3320739839382</v>
       </c>
-      <c r="F19" s="169">
+      <c r="F20" s="169">
         <v>1</v>
       </c>
-      <c r="G19" s="166">
+      <c r="G20" s="166">
         <v>1</v>
       </c>
-      <c r="H19" s="166">
+      <c r="H20" s="166">
         <v>1</v>
       </c>
-      <c r="I19" s="166">
+      <c r="I20" s="166">
         <v>50</v>
       </c>
-      <c r="J19" s="166">
+      <c r="J20" s="166">
         <v>0</v>
       </c>
-      <c r="N19" s="166" t="s">
+      <c r="N20" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="P19" s="166" t="s">
+      <c r="P20" s="166" t="s">
         <v>289</v>
       </c>
-      <c r="Q19" s="166" t="s">
+      <c r="Q20" s="166" t="s">
         <v>290</v>
       </c>
-      <c r="R19" s="99" t="s">
+      <c r="R20" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="S19" s="99" t="s">
+      <c r="S20" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="T19" s="170" t="s">
+      <c r="T20" s="170" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="99" t="str">
-        <f>P18</f>
+    <row r="21" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="99" t="str">
+        <f>P19</f>
         <v>ELC</v>
       </c>
-      <c r="C20" s="99" t="str">
+      <c r="C21" s="99" t="str">
         <f>PRI_Sector_Fuels!N9</f>
         <v>WINDELC</v>
       </c>
-      <c r="D20" s="167" t="str">
-        <f t="shared" ref="D20:D21" si="0">P$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="E20" s="168">
-        <v>0</v>
-      </c>
-      <c r="F20" s="169">
-        <v>1</v>
-      </c>
-      <c r="G20" s="166">
-        <v>1</v>
-      </c>
-      <c r="H20" s="166">
-        <v>1</v>
-      </c>
-      <c r="I20" s="166">
-        <v>50</v>
-      </c>
-      <c r="J20" s="166">
-        <v>0</v>
-      </c>
-      <c r="N20" s="166" t="s">
-        <v>115</v>
-      </c>
-      <c r="P20" s="166" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q20" s="166" t="s">
-        <v>292</v>
-      </c>
-      <c r="R20" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="S20" s="99" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="99" t="str">
-        <f>P18</f>
-        <v>ELC</v>
-      </c>
-      <c r="C21" s="99" t="str">
-        <f>PRI_Sector_Fuels!N10</f>
-        <v>SOLELC</v>
-      </c>
       <c r="D21" s="167" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D21:D22" si="0">P$6</f>
         <v>MANELC</v>
       </c>
       <c r="E21" s="168">
@@ -9432,51 +9405,66 @@
       <c r="J21" s="166">
         <v>0</v>
       </c>
-      <c r="P21" s="95"/>
+      <c r="N21" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" s="166" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q21" s="166" t="s">
+        <v>292</v>
+      </c>
+      <c r="R21" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="S21" s="99" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="22" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="99" t="str">
         <f>P19</f>
+        <v>ELC</v>
+      </c>
+      <c r="C22" s="99" t="str">
+        <f>PRI_Sector_Fuels!N10</f>
+        <v>SOLELC</v>
+      </c>
+      <c r="D22" s="167" t="str">
+        <f t="shared" si="0"/>
+        <v>MANELC</v>
+      </c>
+      <c r="E22" s="168">
+        <v>0</v>
+      </c>
+      <c r="F22" s="169">
+        <v>1</v>
+      </c>
+      <c r="G22" s="166">
+        <v>1</v>
+      </c>
+      <c r="H22" s="166">
+        <v>1</v>
+      </c>
+      <c r="I22" s="166">
+        <v>50</v>
+      </c>
+      <c r="J22" s="166">
+        <v>0</v>
+      </c>
+      <c r="P22" s="95"/>
+    </row>
+    <row r="23" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="99" t="str">
+        <f>P20</f>
         <v>CSP</v>
       </c>
-      <c r="C22" s="99" t="str">
+      <c r="C23" s="99" t="str">
         <f>PRI_Sector_Fuels!N11</f>
         <v>SOLTHT</v>
       </c>
-      <c r="D22" s="167" t="str">
+      <c r="D23" s="167" t="str">
         <f>P$5</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="E22" s="168">
-        <v>0</v>
-      </c>
-      <c r="F22" s="169">
-        <v>1</v>
-      </c>
-      <c r="G22" s="166">
-        <v>1</v>
-      </c>
-      <c r="H22" s="166">
-        <v>1</v>
-      </c>
-      <c r="I22" s="166">
-        <v>50</v>
-      </c>
-      <c r="J22" s="166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="99" t="str">
-        <f>P16</f>
-        <v>Kiln</v>
-      </c>
-      <c r="C23" s="99" t="str">
-        <f>PRI_Sector_Fuels!N$12</f>
-        <v>MANBIOMIN</v>
-      </c>
-      <c r="D23" s="167" t="str">
-        <f t="shared" ref="D23:D26" si="1">P$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="E23" s="168">
@@ -9501,14 +9489,14 @@
     <row r="24" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="99" t="str">
         <f>P17</f>
-        <v>Boiler</v>
+        <v>Kiln</v>
       </c>
       <c r="C24" s="99" t="str">
         <f>PRI_Sector_Fuels!N$12</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="D24" s="167" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D24:D27" si="1">P$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="E24" s="168">
@@ -9532,12 +9520,12 @@
     </row>
     <row r="25" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99" t="str">
-        <f>P20</f>
-        <v>Furnace</v>
-      </c>
-      <c r="C25" s="167" t="str">
         <f>P18</f>
-        <v>ELC</v>
+        <v>Boiler</v>
+      </c>
+      <c r="C25" s="99" t="str">
+        <f>PRI_Sector_Fuels!N$12</f>
+        <v>MANBIOMIN</v>
       </c>
       <c r="D25" s="167" t="str">
         <f t="shared" si="1"/>
@@ -9562,12 +9550,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:22" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="171" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="95" t="str">
-        <f>P18</f>
+    <row r="26" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="99" t="str">
+        <f>P21</f>
+        <v>Furnace</v>
+      </c>
+      <c r="C26" s="167" t="str">
+        <f>PRI_Sector_Fuels!D30</f>
         <v>ELC</v>
       </c>
       <c r="D26" s="167" t="str">
@@ -9593,132 +9582,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F27" s="114"/>
+    <row r="27" spans="2:22" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="171" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="95" t="str">
+        <f>PRI_Sector_Fuels!D30</f>
+        <v>ELC</v>
+      </c>
+      <c r="D27" s="167" t="str">
+        <f t="shared" si="1"/>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E27" s="168">
+        <v>0</v>
+      </c>
+      <c r="F27" s="169">
+        <v>1</v>
+      </c>
+      <c r="G27" s="166">
+        <v>1</v>
+      </c>
+      <c r="H27" s="166">
+        <v>1</v>
+      </c>
+      <c r="I27" s="166">
+        <v>50</v>
+      </c>
+      <c r="J27" s="166">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F28" s="115"/>
-      <c r="N28" s="93" t="s">
+      <c r="F28" s="114"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F29" s="115"/>
+      <c r="N29" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="P28" s="93" t="s">
+      <c r="P29" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="Q28" s="93" t="s">
+      <c r="Q29" s="93" t="s">
         <v>267</v>
       </c>
-      <c r="R28" s="95" t="str">
-        <f t="shared" ref="R28" si="2">$E$2</f>
+      <c r="R29" s="95" t="str">
+        <f t="shared" ref="R29" si="2">$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="S28" s="95" t="s">
+      <c r="S29" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="T28" s="160" t="s">
+      <c r="T29" s="160" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="93" t="s">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="93" t="s">
         <v>251</v>
       </c>
-      <c r="C29" s="93" t="str">
+      <c r="C30" s="93" t="str">
         <f>PRI_Sector_Fuels!N19</f>
         <v>CONMDRIVE</v>
       </c>
-      <c r="D29" s="93" t="str">
+      <c r="D30" s="93" t="str">
         <f>PRI_Sector_Fuels!N19</f>
         <v>CONMDRIVE</v>
       </c>
-      <c r="F29" s="115">
+      <c r="F30" s="115">
         <v>1</v>
       </c>
-      <c r="G29" s="93">
+      <c r="G30" s="93">
         <v>1</v>
       </c>
-      <c r="N29" s="93" t="s">
+      <c r="N30" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="O29" s="119"/>
-      <c r="P29" s="93" t="s">
+      <c r="O30" s="119"/>
+      <c r="P30" s="93" t="s">
         <v>251</v>
       </c>
-      <c r="Q29" s="119" t="s">
+      <c r="Q30" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="R29" s="120" t="s">
+      <c r="R30" s="120" t="s">
         <v>167</v>
       </c>
-      <c r="S29" s="120" t="s">
+      <c r="S30" s="120" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="93" t="s">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="93" t="str">
+      <c r="C31" s="93" t="str">
         <f>PRI_Sector_Fuels!N20</f>
         <v>CONELC</v>
       </c>
-      <c r="D30" s="93" t="str">
+      <c r="D31" s="93" t="str">
         <f>PRI_Sector_Fuels!N20</f>
         <v>CONELC</v>
       </c>
-      <c r="F30" s="115">
+      <c r="F31" s="115">
         <v>1</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G31" s="21">
         <v>1</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="N30" s="93" t="s">
+      <c r="H31" s="116"/>
+      <c r="N31" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="P30" s="93" t="s">
+      <c r="P31" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="Q30" s="93" t="s">
+      <c r="Q31" s="93" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="H31" s="116"/>
-    </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="112"/>
-      <c r="C32" s="93" t="s">
+      <c r="H32" s="116"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="112"/>
+      <c r="C33" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="H32" s="116"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="117"/>
-      <c r="C33" s="93" t="s">
+      <c r="H33" s="116"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="117"/>
+      <c r="C34" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="H33" s="116"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="93" t="s">
+      <c r="H34" s="116"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E35" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="F34" s="93" t="s">
+      <c r="F35" s="93" t="s">
         <v>246</v>
       </c>
-      <c r="H34" s="116"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="93" t="s">
+      <c r="H35" s="116"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="F36" s="93">
+      <c r="F37" s="93">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="21"/>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E38" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10227,7 +10247,7 @@
         <v>190</v>
       </c>
       <c r="C19" t="str">
-        <f>DemTechs_INDF!P9</f>
+        <f>DemTechs_INDF!P10</f>
         <v>CONELC</v>
       </c>
       <c r="D19" t="s">
@@ -10256,7 +10276,7 @@
         <v>190</v>
       </c>
       <c r="C20" t="str">
-        <f>DemTechs_INDF!P10</f>
+        <f>DemTechs_INDF!P11</f>
         <v>CONOILIMP</v>
       </c>
       <c r="D20" t="s">
@@ -10967,7 +10987,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="144" t="str">
-        <f>DemTechs_INDF!P7</f>
+        <f>DemTechs_INDF!P8</f>
         <v>MANCO2</v>
       </c>
       <c r="C8" s="145">

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C65430B-C15D-4BC7-8FB1-6A2C8395EC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F43CDC-2B3E-459E-AB6B-3F10FBD70FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="293">
   <si>
     <t>CommName</t>
   </si>
@@ -3016,7 +3016,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3253,7 +3253,6 @@
     <xf numFmtId="2" fontId="8" fillId="13" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="9" applyFill="1"/>
@@ -4309,13 +4308,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5159,7 +5158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40EA534-E44A-461C-9315-2313911B2BEB}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -5974,7 +5973,7 @@
         <f>D18/(D18+E18)</f>
         <v>0.7466168572973132</v>
       </c>
-      <c r="E40" s="118">
+      <c r="E40" s="117">
         <f>E18/(D18+E18)</f>
         <v>0.25338314270268686</v>
       </c>
@@ -6044,12 +6043,12 @@
       <c r="C46" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="118">
+      <c r="D46" s="117">
         <f>D18/(D18+E18)</f>
         <v>0.7466168572973132</v>
       </c>
-      <c r="E46" s="118"/>
-      <c r="K46" s="121">
+      <c r="E46" s="117"/>
+      <c r="K46" s="120">
         <f>SUM(D46:J46)</f>
         <v>0.7466168572973132</v>
       </c>
@@ -6064,12 +6063,12 @@
       <c r="C47" t="s">
         <v>165</v>
       </c>
-      <c r="E47" s="118">
+      <c r="E47" s="117">
         <f>E18/(D18+E18)</f>
         <v>0.25338314270268686</v>
       </c>
-      <c r="J47" s="118"/>
-      <c r="K47" s="121">
+      <c r="J47" s="117"/>
+      <c r="K47" s="120">
         <f>SUM(D47:J47)</f>
         <v>0.25338314270268686</v>
       </c>
@@ -6084,10 +6083,10 @@
       <c r="C48" t="s">
         <v>170</v>
       </c>
-      <c r="J48" s="118">
+      <c r="J48" s="117">
         <v>1</v>
       </c>
-      <c r="K48" s="121">
+      <c r="K48" s="120">
         <f>SUM(D48:J48)</f>
         <v>1</v>
       </c>
@@ -6096,64 +6095,64 @@
       </c>
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J49" s="118"/>
-      <c r="K49" s="121"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="120"/>
     </row>
     <row r="50" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J50" s="118"/>
-      <c r="K50" s="121"/>
+      <c r="J50" s="117"/>
+      <c r="K50" s="120"/>
     </row>
     <row r="51" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J51" s="118"/>
-      <c r="K51" s="121"/>
+      <c r="J51" s="117"/>
+      <c r="K51" s="120"/>
     </row>
     <row r="52" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J52" s="118"/>
-      <c r="K52" s="121"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="120"/>
     </row>
     <row r="53" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J53" s="118"/>
-      <c r="K53" s="121"/>
+      <c r="J53" s="117"/>
+      <c r="K53" s="120"/>
     </row>
     <row r="54" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J54" s="118"/>
-      <c r="K54" s="121"/>
+      <c r="J54" s="117"/>
+      <c r="K54" s="120"/>
     </row>
     <row r="55" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J55" s="118"/>
-      <c r="K55" s="121"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="120"/>
     </row>
     <row r="56" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J56" s="118"/>
-      <c r="K56" s="121"/>
+      <c r="J56" s="117"/>
+      <c r="K56" s="120"/>
     </row>
     <row r="57" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J57" s="118"/>
-      <c r="K57" s="121"/>
+      <c r="J57" s="117"/>
+      <c r="K57" s="120"/>
     </row>
     <row r="58" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J58" s="118"/>
-      <c r="K58" s="121"/>
+      <c r="J58" s="117"/>
+      <c r="K58" s="120"/>
     </row>
     <row r="59" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J59" s="118"/>
-      <c r="K59" s="121"/>
+      <c r="J59" s="117"/>
+      <c r="K59" s="120"/>
     </row>
     <row r="60" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J60" s="118"/>
-      <c r="K60" s="121"/>
+      <c r="J60" s="117"/>
+      <c r="K60" s="120"/>
     </row>
     <row r="61" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J61" s="118"/>
-      <c r="K61" s="121"/>
+      <c r="J61" s="117"/>
+      <c r="K61" s="120"/>
     </row>
     <row r="62" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J62" s="118"/>
-      <c r="K62" s="121"/>
+      <c r="J62" s="117"/>
+      <c r="K62" s="120"/>
     </row>
     <row r="63" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J63" s="118"/>
-      <c r="K63" s="121"/>
+      <c r="J63" s="117"/>
+      <c r="K63" s="120"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C65" s="82" t="s">
@@ -6506,20 +6505,20 @@
       <c r="C11" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132">
+      <c r="D11" s="131"/>
+      <c r="E11" s="131">
         <f>'EBF TJ'!E11*0.2777778</f>
         <v>-2.0000001600000004</v>
       </c>
-      <c r="F11" s="132">
+      <c r="F11" s="131">
         <f>'EBF TJ'!F11*0.2777778</f>
         <v>-16770.812452776001</v>
       </c>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
@@ -6721,42 +6720,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="148" t="s">
+    <row r="18" spans="2:12" s="151" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="149" t="s">
+      <c r="C18" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="150">
+      <c r="D18" s="149">
         <f>'EBF TJ'!D18*0.2777778</f>
         <v>7676.2275585426005</v>
       </c>
-      <c r="E18" s="150">
+      <c r="E18" s="149">
         <f>'EBF TJ'!E18*0.2777778</f>
         <v>2605.1202084096003</v>
       </c>
-      <c r="F18" s="150">
+      <c r="F18" s="149">
         <f>'EBF TJ'!F18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G18" s="150">
+      <c r="G18" s="149">
         <f>'EBF TJ'!G18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="H18" s="150">
+      <c r="H18" s="149">
         <f>'EBF TJ'!H18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="I18" s="150">
+      <c r="I18" s="149">
         <f>'EBF TJ'!I18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="J18" s="150">
+      <c r="J18" s="149">
         <f>'EBF TJ'!J18*0.2777778</f>
         <v>2861.5612011470998</v>
       </c>
-      <c r="K18" s="151">
+      <c r="K18" s="150">
         <f t="shared" si="1"/>
         <v>13142.9089680993</v>
       </c>
@@ -7215,7 +7214,7 @@
         <f>D18/(D18+E18)</f>
         <v>0.7466168572973132</v>
       </c>
-      <c r="E40" s="118">
+      <c r="E40" s="117">
         <f>E18/(D18+E18)</f>
         <v>0.25338314270268686</v>
       </c>
@@ -7285,12 +7284,12 @@
       <c r="C46" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="118">
+      <c r="D46" s="117">
         <f>D18/(D18+E18)</f>
         <v>0.7466168572973132</v>
       </c>
-      <c r="E46" s="118"/>
-      <c r="K46" s="121">
+      <c r="E46" s="117"/>
+      <c r="K46" s="120">
         <f>SUM(D46:J46)</f>
         <v>0.7466168572973132</v>
       </c>
@@ -7305,12 +7304,12 @@
       <c r="C47" t="s">
         <v>165</v>
       </c>
-      <c r="E47" s="118">
+      <c r="E47" s="117">
         <f>E18/(D18+E18)</f>
         <v>0.25338314270268686</v>
       </c>
-      <c r="J47" s="118"/>
-      <c r="K47" s="121">
+      <c r="J47" s="117"/>
+      <c r="K47" s="120">
         <f>SUM(D47:J47)</f>
         <v>0.25338314270268686</v>
       </c>
@@ -7325,10 +7324,10 @@
       <c r="C48" t="s">
         <v>170</v>
       </c>
-      <c r="J48" s="118">
+      <c r="J48" s="117">
         <v>1</v>
       </c>
-      <c r="K48" s="121">
+      <c r="K48" s="120">
         <f>SUM(D48:J48)</f>
         <v>1</v>
       </c>
@@ -7337,64 +7336,64 @@
       </c>
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J49" s="118"/>
-      <c r="K49" s="121"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="120"/>
     </row>
     <row r="50" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J50" s="118"/>
-      <c r="K50" s="121"/>
+      <c r="J50" s="117"/>
+      <c r="K50" s="120"/>
     </row>
     <row r="51" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J51" s="118"/>
-      <c r="K51" s="121"/>
+      <c r="J51" s="117"/>
+      <c r="K51" s="120"/>
     </row>
     <row r="52" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J52" s="118"/>
-      <c r="K52" s="121"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="120"/>
     </row>
     <row r="53" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J53" s="118"/>
-      <c r="K53" s="121"/>
+      <c r="J53" s="117"/>
+      <c r="K53" s="120"/>
     </row>
     <row r="54" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J54" s="118"/>
-      <c r="K54" s="121"/>
+      <c r="J54" s="117"/>
+      <c r="K54" s="120"/>
     </row>
     <row r="55" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J55" s="118"/>
-      <c r="K55" s="121"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="120"/>
     </row>
     <row r="56" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J56" s="118"/>
-      <c r="K56" s="121"/>
+      <c r="J56" s="117"/>
+      <c r="K56" s="120"/>
     </row>
     <row r="57" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J57" s="118"/>
-      <c r="K57" s="121"/>
+      <c r="J57" s="117"/>
+      <c r="K57" s="120"/>
     </row>
     <row r="58" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J58" s="118"/>
-      <c r="K58" s="121"/>
+      <c r="J58" s="117"/>
+      <c r="K58" s="120"/>
     </row>
     <row r="59" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J59" s="118"/>
-      <c r="K59" s="121"/>
+      <c r="J59" s="117"/>
+      <c r="K59" s="120"/>
     </row>
     <row r="60" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J60" s="118"/>
-      <c r="K60" s="121"/>
+      <c r="J60" s="117"/>
+      <c r="K60" s="120"/>
     </row>
     <row r="61" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J61" s="118"/>
-      <c r="K61" s="121"/>
+      <c r="J61" s="117"/>
+      <c r="K61" s="120"/>
     </row>
     <row r="62" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J62" s="118"/>
-      <c r="K62" s="121"/>
+      <c r="J62" s="117"/>
+      <c r="K62" s="120"/>
     </row>
     <row r="63" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J63" s="118"/>
-      <c r="K63" s="121"/>
+      <c r="J63" s="117"/>
+      <c r="K63" s="120"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C65" s="82" t="s">
@@ -7624,7 +7623,7 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="161" t="s">
         <v>268</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -7666,16 +7665,16 @@
       </c>
     </row>
     <row r="5" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="163" t="s">
+      <c r="C5" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="163" t="s">
+      <c r="D5" s="162" t="s">
         <v>142</v>
       </c>
       <c r="E5" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="163"/>
+      <c r="F5" s="162"/>
       <c r="G5" s="7">
         <f>EBF!P3</f>
         <v>0</v>
@@ -7701,16 +7700,16 @@
       <c r="T5" s="66"/>
     </row>
     <row r="6" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="162" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="163" t="s">
+      <c r="D6" s="162" t="s">
         <v>141</v>
       </c>
       <c r="E6" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="163"/>
+      <c r="F6" s="162"/>
       <c r="G6" s="7">
         <f>EBF!P4</f>
         <v>0</v>
@@ -7736,16 +7735,16 @@
       <c r="T6" s="66"/>
     </row>
     <row r="7" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="163" t="s">
+      <c r="C7" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="162" t="s">
         <v>124</v>
       </c>
       <c r="E7" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="163"/>
+      <c r="F7" s="162"/>
       <c r="G7" s="7">
         <f>EBF!P5</f>
         <v>0</v>
@@ -7771,16 +7770,16 @@
       <c r="T7" s="66"/>
     </row>
     <row r="8" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="162" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="163" t="s">
+      <c r="D8" s="162" t="s">
         <v>288</v>
       </c>
       <c r="E8" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="163"/>
+      <c r="F8" s="162"/>
       <c r="G8" s="7">
         <f>EBF!P6</f>
         <v>0</v>
@@ -7789,10 +7788,10 @@
         <v>74</v>
       </c>
       <c r="M8" s="70"/>
-      <c r="N8" s="161" t="s">
+      <c r="N8" s="160" t="s">
         <v>265</v>
       </c>
-      <c r="O8" s="161" t="s">
+      <c r="O8" s="160" t="s">
         <v>275</v>
       </c>
       <c r="P8" s="66" t="s">
@@ -7805,106 +7804,106 @@
       <c r="S8" s="66"/>
       <c r="T8" s="66"/>
     </row>
-    <row r="9" spans="2:20" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L9" s="164" t="s">
+    <row r="9" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164" t="s">
+      <c r="M9" s="163"/>
+      <c r="N9" s="163" t="s">
         <v>277</v>
       </c>
-      <c r="O9" s="164" t="s">
+      <c r="O9" s="163" t="s">
         <v>279</v>
       </c>
-      <c r="P9" s="164" t="s">
+      <c r="P9" s="163" t="s">
         <v>167</v>
       </c>
-      <c r="Q9" s="164"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="164"/>
-      <c r="T9" s="164"/>
-    </row>
-    <row r="10" spans="2:20" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L10" s="164" t="s">
+      <c r="Q9" s="163"/>
+      <c r="R9" s="163"/>
+      <c r="S9" s="163"/>
+      <c r="T9" s="163"/>
+    </row>
+    <row r="10" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164" t="s">
+      <c r="M10" s="163"/>
+      <c r="N10" s="163" t="s">
         <v>278</v>
       </c>
-      <c r="O10" s="164" t="s">
+      <c r="O10" s="163" t="s">
         <v>280</v>
       </c>
-      <c r="P10" s="164" t="s">
+      <c r="P10" s="163" t="s">
         <v>167</v>
       </c>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
-    </row>
-    <row r="11" spans="2:20" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L11" s="164" t="s">
+      <c r="Q10" s="163"/>
+      <c r="R10" s="163"/>
+      <c r="S10" s="163"/>
+      <c r="T10" s="163"/>
+    </row>
+    <row r="11" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164" t="s">
+      <c r="M11" s="163"/>
+      <c r="N11" s="163" t="s">
         <v>281</v>
       </c>
-      <c r="O11" s="164" t="s">
+      <c r="O11" s="163" t="s">
         <v>282</v>
       </c>
-      <c r="P11" s="164" t="s">
+      <c r="P11" s="163" t="s">
         <v>167</v>
       </c>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
-    </row>
-    <row r="12" spans="2:20" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L12" s="164" t="s">
+      <c r="Q11" s="163"/>
+      <c r="R11" s="163"/>
+      <c r="S11" s="163"/>
+      <c r="T11" s="163"/>
+    </row>
+    <row r="12" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164" t="s">
+      <c r="M12" s="163"/>
+      <c r="N12" s="163" t="s">
         <v>283</v>
       </c>
-      <c r="O12" s="164" t="s">
+      <c r="O12" s="163" t="s">
         <v>124</v>
       </c>
-      <c r="P12" s="164" t="s">
+      <c r="P12" s="163" t="s">
         <v>167</v>
       </c>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-    </row>
-    <row r="13" spans="2:20" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L13" s="164" t="s">
+      <c r="Q12" s="163"/>
+      <c r="R12" s="163"/>
+      <c r="S12" s="163"/>
+      <c r="T12" s="163"/>
+    </row>
+    <row r="13" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="164"/>
-      <c r="N13" s="164" t="s">
+      <c r="M13" s="163"/>
+      <c r="N13" s="163" t="s">
         <v>284</v>
       </c>
-      <c r="O13" s="164" t="s">
+      <c r="O13" s="163" t="s">
         <v>285</v>
       </c>
-      <c r="P13" s="164" t="s">
+      <c r="P13" s="163" t="s">
         <v>167</v>
       </c>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="164"/>
-      <c r="S13" s="164"/>
-      <c r="T13" s="164"/>
+      <c r="Q13" s="163"/>
+      <c r="R13" s="163"/>
+      <c r="S13" s="163"/>
+      <c r="T13" s="163"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L14" s="66"/>
       <c r="M14" s="70"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
       <c r="P14" s="66"/>
       <c r="Q14" s="66"/>
       <c r="R14" s="66"/>
@@ -8220,7 +8219,7 @@
         <f>EBF!D5</f>
         <v>4518.4003614720004</v>
       </c>
-      <c r="J27" s="122">
+      <c r="J27" s="121">
         <v>8.76</v>
       </c>
       <c r="L27" s="66" t="str">
@@ -8268,7 +8267,7 @@
         <f>EBF!D6</f>
         <v>3157.6616415018002</v>
       </c>
-      <c r="J28" s="122">
+      <c r="J28" s="121">
         <v>8.76</v>
       </c>
       <c r="L28" s="70" t="str">
@@ -8315,7 +8314,7 @@
         <f>EBF!E18</f>
         <v>2605.1202084096003</v>
       </c>
-      <c r="J29" s="122">
+      <c r="J29" s="121">
         <v>8.76</v>
       </c>
       <c r="L29" t="str">
@@ -8340,7 +8339,7 @@
         <v>GRIDELC</v>
       </c>
       <c r="C30" s="70"/>
-      <c r="D30" s="161" t="s">
+      <c r="D30" s="160" t="s">
         <v>46</v>
       </c>
       <c r="E30" s="1">
@@ -8356,22 +8355,22 @@
         <f>EBF!J18</f>
         <v>2861.5612011470998</v>
       </c>
-      <c r="J30" s="122">
+      <c r="J30" s="121">
         <v>8.76</v>
       </c>
-      <c r="L30" s="163" t="s">
+      <c r="L30" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="M30" s="163"/>
-      <c r="N30" s="164" t="str">
+      <c r="M30" s="162"/>
+      <c r="N30" s="163" t="str">
         <f>$L$29&amp;$C$7</f>
         <v>IMPBIO</v>
       </c>
-      <c r="O30" s="165" t="str">
+      <c r="O30" s="164" t="str">
         <f>"Domestic Supply of "&amp;$D$7&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Biomass </v>
       </c>
-      <c r="P30" s="163" t="s">
+      <c r="P30" s="162" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8381,7 +8380,7 @@
         <v>WINDELC</v>
       </c>
       <c r="C31" s="70"/>
-      <c r="D31" s="161" t="s">
+      <c r="D31" s="160" t="s">
         <v>46</v>
       </c>
       <c r="E31" s="1">
@@ -8390,20 +8389,20 @@
       <c r="F31" s="1"/>
       <c r="H31" s="49"/>
       <c r="I31" s="92"/>
-      <c r="J31" s="122"/>
-      <c r="L31" s="163" t="s">
+      <c r="J31" s="121"/>
+      <c r="L31" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="M31" s="163"/>
-      <c r="N31" s="164" t="str">
+      <c r="M31" s="162"/>
+      <c r="N31" s="163" t="str">
         <f>$L$29&amp;$C$8</f>
         <v>IMPGAS</v>
       </c>
-      <c r="O31" s="165" t="str">
+      <c r="O31" s="164" t="str">
         <f>"Domestic Supply of "&amp;$D$8&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Ngas </v>
       </c>
-      <c r="P31" s="163" t="s">
+      <c r="P31" s="162" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8413,7 +8412,7 @@
         <v>SOLELC</v>
       </c>
       <c r="C32" s="70"/>
-      <c r="D32" s="161" t="s">
+      <c r="D32" s="160" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="1">
@@ -8422,7 +8421,7 @@
       <c r="F32" s="1"/>
       <c r="H32" s="49"/>
       <c r="I32" s="92"/>
-      <c r="J32" s="122"/>
+      <c r="J32" s="121"/>
       <c r="N32" s="70"/>
       <c r="O32" s="72"/>
     </row>
@@ -8432,7 +8431,7 @@
         <v>SOLTHT</v>
       </c>
       <c r="C33" s="70"/>
-      <c r="D33" s="161" t="s">
+      <c r="D33" s="160" t="s">
         <v>178</v>
       </c>
       <c r="E33" s="1">
@@ -8441,7 +8440,7 @@
       <c r="F33" s="1"/>
       <c r="H33" s="49"/>
       <c r="I33" s="92"/>
-      <c r="J33" s="122"/>
+      <c r="J33" s="121"/>
       <c r="N33" s="70"/>
       <c r="O33" s="72"/>
     </row>
@@ -8451,7 +8450,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="C34" s="70"/>
-      <c r="D34" s="161" t="str">
+      <c r="D34" s="160" t="str">
         <f>N12</f>
         <v>MANBIOMIN</v>
       </c>
@@ -8461,7 +8460,7 @@
       <c r="F34" s="1"/>
       <c r="H34" s="49"/>
       <c r="I34" s="92"/>
-      <c r="J34" s="122"/>
+      <c r="J34" s="121"/>
       <c r="N34" s="70"/>
       <c r="O34" s="72"/>
     </row>
@@ -8471,7 +8470,7 @@
         <v>MANGASMIN</v>
       </c>
       <c r="C35" s="70"/>
-      <c r="D35" s="161" t="str">
+      <c r="D35" s="160" t="str">
         <f>N13</f>
         <v>MANGASMIN</v>
       </c>
@@ -8481,67 +8480,67 @@
       <c r="F35" s="1"/>
       <c r="H35" s="49"/>
       <c r="I35" s="92"/>
-      <c r="J35" s="122"/>
+      <c r="J35" s="121"/>
       <c r="N35" s="70"/>
       <c r="O35" s="72"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="66"/>
       <c r="C36" s="70"/>
-      <c r="D36" s="161"/>
+      <c r="D36" s="160"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="H36" s="49"/>
       <c r="I36" s="92"/>
-      <c r="J36" s="122"/>
+      <c r="J36" s="121"/>
       <c r="N36" s="70"/>
       <c r="O36" s="72"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="66"/>
       <c r="C37" s="70"/>
-      <c r="D37" s="161"/>
+      <c r="D37" s="160"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="H37" s="49"/>
       <c r="I37" s="92"/>
-      <c r="J37" s="122"/>
+      <c r="J37" s="121"/>
       <c r="N37" s="70"/>
       <c r="O37" s="72"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="66"/>
       <c r="C38" s="70"/>
-      <c r="D38" s="161"/>
+      <c r="D38" s="160"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="H38" s="49"/>
       <c r="I38" s="92"/>
-      <c r="J38" s="122"/>
+      <c r="J38" s="121"/>
       <c r="N38" s="70"/>
       <c r="O38" s="72"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="66"/>
       <c r="C39" s="70"/>
-      <c r="D39" s="161"/>
+      <c r="D39" s="160"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="H39" s="49"/>
       <c r="I39" s="92"/>
-      <c r="J39" s="122"/>
+      <c r="J39" s="121"/>
       <c r="N39" s="70"/>
       <c r="O39" s="72"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="66"/>
       <c r="C40" s="70"/>
-      <c r="D40" s="161"/>
+      <c r="D40" s="160"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="H40" s="49"/>
       <c r="I40" s="92"/>
-      <c r="J40" s="122"/>
+      <c r="J40" s="121"/>
       <c r="N40" s="70"/>
       <c r="O40" s="72"/>
     </row>
@@ -8552,7 +8551,7 @@
       <c r="F41" s="1"/>
       <c r="H41" s="49"/>
       <c r="I41" s="92"/>
-      <c r="J41" s="122"/>
+      <c r="J41" s="121"/>
       <c r="N41" s="70"/>
       <c r="O41" s="72"/>
     </row>
@@ -8563,7 +8562,7 @@
       <c r="F42" s="1"/>
       <c r="H42" s="49"/>
       <c r="I42" s="92"/>
-      <c r="J42" s="122"/>
+      <c r="J42" s="121"/>
       <c r="L42" t="s">
         <v>46</v>
       </c>
@@ -8598,7 +8597,7 @@
         <f>EBF!E19</f>
         <v>8781.4640358504003</v>
       </c>
-      <c r="J43" s="122">
+      <c r="J43" s="121">
         <v>8.76</v>
       </c>
       <c r="N43" s="70"/>
@@ -8624,7 +8623,7 @@
         <f>EBF!J19</f>
         <v>150.60848427090019</v>
       </c>
-      <c r="J44" s="122">
+      <c r="J44" s="121">
         <v>8.76</v>
       </c>
       <c r="N44" s="70"/>
@@ -8682,10 +8681,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
-  <dimension ref="B1:V38"/>
+  <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8896,7 +8895,7 @@
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
-      <c r="N7" s="172" t="s">
+      <c r="N7" s="171" t="s">
         <v>82</v>
       </c>
       <c r="O7" s="95"/>
@@ -9174,7 +9173,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="E17" s="113">
-        <f>EBF!D5/(DemTechs_INDF!G17*DemTechs_INDF!F37)*1000</f>
+        <f>EBF!D5/(DemTechs_INDF!G17*DemTechs_INDF!F38)*1000</f>
         <v>937.81659640348698</v>
       </c>
       <c r="F17" s="110">
@@ -9186,7 +9185,7 @@
       <c r="H17" s="111">
         <v>0.9</v>
       </c>
-      <c r="I17" s="137">
+      <c r="I17" s="136">
         <v>30</v>
       </c>
       <c r="J17" s="112">
@@ -9229,7 +9228,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="E18" s="113">
-        <f>EBF!D6/(DemTechs_INDF!G18*DemTechs_INDF!F37)*1000</f>
+        <f>EBF!D6/(DemTechs_INDF!G18*DemTechs_INDF!F38)*1000</f>
         <v>655.38846855579084</v>
       </c>
       <c r="F18" s="110">
@@ -9241,7 +9240,7 @@
       <c r="H18" s="111">
         <v>0.9</v>
       </c>
-      <c r="I18" s="137">
+      <c r="I18" s="136">
         <v>30</v>
       </c>
       <c r="J18" s="112">
@@ -9284,7 +9283,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="E19" s="113">
-        <f>EBF!E18/(DemTechs_INDF!G19*DemTechs_INDF!F37)*1000</f>
+        <f>EBF!E18/(DemTechs_INDF!G19*DemTechs_INDF!F38)*1000</f>
         <v>396.51753552657539</v>
       </c>
       <c r="F19" s="110">
@@ -9319,11 +9318,11 @@
       <c r="S19" s="93" t="s">
         <v>159</v>
       </c>
-      <c r="T19" s="160" t="s">
+      <c r="T19" s="159" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="99" t="str">
         <f>P$19</f>
         <v>ELC</v>
@@ -9332,36 +9331,36 @@
         <f>PRI_Sector_Fuels!N8</f>
         <v>GRIDELC</v>
       </c>
-      <c r="D20" s="167" t="str">
+      <c r="D20" s="166" t="str">
         <f>P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="E20" s="168">
-        <f>EBF!K18/(DemTechs_INDF!G20*DemTechs_INDF!F37)*1000</f>
+      <c r="E20" s="167">
+        <f>EBF!K18/(DemTechs_INDF!G20*DemTechs_INDF!F38)*1000</f>
         <v>1500.3320739839382</v>
       </c>
-      <c r="F20" s="169">
+      <c r="F20" s="168">
         <v>1</v>
       </c>
-      <c r="G20" s="166">
+      <c r="G20" s="165">
         <v>1</v>
       </c>
-      <c r="H20" s="166">
+      <c r="H20" s="165">
         <v>1</v>
       </c>
-      <c r="I20" s="166">
+      <c r="I20" s="165">
         <v>50</v>
       </c>
-      <c r="J20" s="166">
+      <c r="J20" s="165">
         <v>0</v>
       </c>
-      <c r="N20" s="166" t="s">
+      <c r="N20" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="P20" s="166" t="s">
+      <c r="P20" s="165" t="s">
         <v>289</v>
       </c>
-      <c r="Q20" s="166" t="s">
+      <c r="Q20" s="165" t="s">
         <v>290</v>
       </c>
       <c r="R20" s="99" t="s">
@@ -9370,11 +9369,11 @@
       <c r="S20" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="T20" s="170" t="s">
+      <c r="T20" s="169" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="99" t="str">
         <f>P19</f>
         <v>ELC</v>
@@ -9383,35 +9382,35 @@
         <f>PRI_Sector_Fuels!N9</f>
         <v>WINDELC</v>
       </c>
-      <c r="D21" s="167" t="str">
+      <c r="D21" s="166" t="str">
         <f t="shared" ref="D21:D22" si="0">P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="E21" s="168">
+      <c r="E21" s="167">
         <v>0</v>
       </c>
-      <c r="F21" s="169">
+      <c r="F21" s="168">
         <v>1</v>
       </c>
-      <c r="G21" s="166">
+      <c r="G21" s="165">
         <v>1</v>
       </c>
-      <c r="H21" s="166">
+      <c r="H21" s="165">
         <v>1</v>
       </c>
-      <c r="I21" s="166">
+      <c r="I21" s="165">
         <v>50</v>
       </c>
-      <c r="J21" s="166">
+      <c r="J21" s="165">
         <v>0</v>
       </c>
-      <c r="N21" s="166" t="s">
+      <c r="N21" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="P21" s="166" t="s">
+      <c r="P21" s="165" t="s">
         <v>291</v>
       </c>
-      <c r="Q21" s="166" t="s">
+      <c r="Q21" s="165" t="s">
         <v>292</v>
       </c>
       <c r="R21" s="99" t="s">
@@ -9421,7 +9420,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="99" t="str">
         <f>P19</f>
         <v>ELC</v>
@@ -9430,31 +9429,31 @@
         <f>PRI_Sector_Fuels!N10</f>
         <v>SOLELC</v>
       </c>
-      <c r="D22" s="167" t="str">
+      <c r="D22" s="166" t="str">
         <f t="shared" si="0"/>
         <v>MANELC</v>
       </c>
-      <c r="E22" s="168">
+      <c r="E22" s="167">
         <v>0</v>
       </c>
-      <c r="F22" s="169">
+      <c r="F22" s="168">
         <v>1</v>
       </c>
-      <c r="G22" s="166">
+      <c r="G22" s="165">
         <v>1</v>
       </c>
-      <c r="H22" s="166">
+      <c r="H22" s="165">
         <v>1</v>
       </c>
-      <c r="I22" s="166">
+      <c r="I22" s="165">
         <v>50</v>
       </c>
-      <c r="J22" s="166">
+      <c r="J22" s="165">
         <v>0</v>
       </c>
       <c r="P22" s="95"/>
     </row>
-    <row r="23" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="99" t="str">
         <f>P20</f>
         <v>CSP</v>
@@ -9463,30 +9462,30 @@
         <f>PRI_Sector_Fuels!N11</f>
         <v>SOLTHT</v>
       </c>
-      <c r="D23" s="167" t="str">
+      <c r="D23" s="166" t="str">
         <f>P$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E23" s="168">
+      <c r="E23" s="167">
         <v>0</v>
       </c>
-      <c r="F23" s="169">
+      <c r="F23" s="168">
         <v>1</v>
       </c>
-      <c r="G23" s="166">
+      <c r="G23" s="165">
         <v>1</v>
       </c>
-      <c r="H23" s="166">
+      <c r="H23" s="165">
         <v>1</v>
       </c>
-      <c r="I23" s="166">
+      <c r="I23" s="165">
         <v>50</v>
       </c>
-      <c r="J23" s="166">
+      <c r="J23" s="165">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="99" t="str">
         <f>P17</f>
         <v>Kiln</v>
@@ -9495,30 +9494,30 @@
         <f>PRI_Sector_Fuels!N$12</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D24" s="167" t="str">
-        <f t="shared" ref="D24:D27" si="1">P$5</f>
+      <c r="D24" s="166" t="str">
+        <f t="shared" ref="D24:D28" si="1">P$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E24" s="168">
+      <c r="E24" s="167">
         <v>0</v>
       </c>
-      <c r="F24" s="169">
+      <c r="F24" s="168">
         <v>1</v>
       </c>
-      <c r="G24" s="166">
+      <c r="G24" s="165">
         <v>1</v>
       </c>
-      <c r="H24" s="166">
+      <c r="H24" s="165">
         <v>1</v>
       </c>
-      <c r="I24" s="166">
+      <c r="I24" s="165">
         <v>50</v>
       </c>
-      <c r="J24" s="166">
+      <c r="J24" s="165">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99" t="str">
         <f>P18</f>
         <v>Boiler</v>
@@ -9527,218 +9526,256 @@
         <f>PRI_Sector_Fuels!N$12</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D25" s="167" t="str">
+      <c r="D25" s="166" t="str">
         <f t="shared" si="1"/>
         <v>MANHEAT</v>
       </c>
-      <c r="E25" s="168">
+      <c r="E25" s="167">
         <v>0</v>
       </c>
-      <c r="F25" s="169">
+      <c r="F25" s="168">
         <v>1</v>
       </c>
-      <c r="G25" s="166">
+      <c r="G25" s="165">
         <v>1</v>
       </c>
-      <c r="H25" s="166">
+      <c r="H25" s="165">
         <v>1</v>
       </c>
-      <c r="I25" s="166">
+      <c r="I25" s="165">
         <v>50</v>
       </c>
-      <c r="J25" s="166">
+      <c r="J25" s="165">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:22" s="166" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="99" t="str">
         <f>P21</f>
         <v>Furnace</v>
       </c>
-      <c r="C26" s="167" t="str">
+      <c r="C26" s="166" t="str">
         <f>PRI_Sector_Fuels!D30</f>
         <v>ELC</v>
       </c>
-      <c r="D26" s="167" t="str">
+      <c r="D26" s="166" t="str">
         <f t="shared" si="1"/>
         <v>MANHEAT</v>
       </c>
-      <c r="E26" s="168">
+      <c r="E26" s="167">
         <v>0</v>
       </c>
-      <c r="F26" s="169">
+      <c r="F26" s="168">
         <v>1</v>
       </c>
-      <c r="G26" s="166">
+      <c r="G26" s="165">
         <v>1</v>
       </c>
-      <c r="H26" s="166">
+      <c r="H26" s="165">
         <v>1</v>
       </c>
-      <c r="I26" s="166">
+      <c r="I26" s="165">
         <v>50</v>
       </c>
-      <c r="J26" s="166">
+      <c r="J26" s="165">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:22" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="171" t="s">
+    <row r="27" spans="2:22" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="170" t="s">
         <v>160</v>
       </c>
       <c r="C27" s="95" t="str">
         <f>PRI_Sector_Fuels!D30</f>
         <v>ELC</v>
       </c>
-      <c r="D27" s="167" t="str">
+      <c r="D27" s="166" t="str">
         <f t="shared" si="1"/>
         <v>MANHEAT</v>
       </c>
-      <c r="E27" s="168">
+      <c r="E27" s="167">
         <v>0</v>
       </c>
-      <c r="F27" s="169">
+      <c r="F27" s="168">
         <v>1</v>
       </c>
-      <c r="G27" s="166">
+      <c r="G27" s="165">
         <v>1</v>
       </c>
-      <c r="H27" s="166">
+      <c r="H27" s="165">
         <v>1</v>
       </c>
-      <c r="I27" s="166">
+      <c r="I27" s="165">
         <v>50</v>
       </c>
-      <c r="J27" s="166">
+      <c r="J27" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F28" s="114"/>
+      <c r="B28" s="170" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="93" t="str">
+        <f>PRI_Sector_Fuels!D35</f>
+        <v>MANGASMIN</v>
+      </c>
+      <c r="D28" s="166" t="str">
+        <f t="shared" si="1"/>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E28" s="167">
+        <v>0</v>
+      </c>
+      <c r="F28" s="168">
+        <v>1</v>
+      </c>
+      <c r="G28" s="165">
+        <v>1</v>
+      </c>
+      <c r="H28" s="165">
+        <v>1</v>
+      </c>
+      <c r="I28" s="165">
+        <v>50</v>
+      </c>
+      <c r="J28" s="165">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F29" s="115"/>
-      <c r="N29" s="93" t="s">
+      <c r="B29" s="170"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F30" s="114"/>
+      <c r="N30" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="P29" s="93" t="s">
+      <c r="P30" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="Q29" s="93" t="s">
+      <c r="Q30" s="93" t="s">
         <v>267</v>
       </c>
-      <c r="R29" s="95" t="str">
-        <f t="shared" ref="R29" si="2">$E$2</f>
+      <c r="R30" s="95" t="str">
+        <f t="shared" ref="R30" si="2">$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="S29" s="95" t="s">
+      <c r="S30" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="T29" s="160" t="s">
+      <c r="T30" s="159" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="93" t="s">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="93" t="s">
         <v>251</v>
       </c>
-      <c r="C30" s="93" t="str">
+      <c r="C31" s="93" t="str">
         <f>PRI_Sector_Fuels!N19</f>
         <v>CONMDRIVE</v>
       </c>
-      <c r="D30" s="93" t="str">
+      <c r="D31" s="93" t="str">
         <f>PRI_Sector_Fuels!N19</f>
         <v>CONMDRIVE</v>
       </c>
-      <c r="F30" s="115">
+      <c r="F31" s="114">
         <v>1</v>
       </c>
-      <c r="G30" s="93">
+      <c r="G31" s="93">
         <v>1</v>
       </c>
-      <c r="N30" s="93" t="s">
+      <c r="N31" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="O30" s="119"/>
-      <c r="P30" s="93" t="s">
+      <c r="O31" s="118"/>
+      <c r="P31" s="93" t="s">
         <v>251</v>
       </c>
-      <c r="Q30" s="119" t="s">
+      <c r="Q31" s="118" t="s">
         <v>252</v>
       </c>
-      <c r="R30" s="120" t="s">
+      <c r="R31" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="S30" s="120" t="s">
+      <c r="S31" s="119" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="93" t="s">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="93" t="str">
+      <c r="C32" s="93" t="str">
         <f>PRI_Sector_Fuels!N20</f>
         <v>CONELC</v>
       </c>
-      <c r="D31" s="93" t="str">
+      <c r="D32" s="93" t="str">
         <f>PRI_Sector_Fuels!N20</f>
         <v>CONELC</v>
       </c>
-      <c r="F31" s="115">
+      <c r="F32" s="114">
         <v>1</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G32" s="21">
         <v>1</v>
       </c>
-      <c r="H31" s="116"/>
-      <c r="N31" s="93" t="s">
+      <c r="H32" s="115"/>
+      <c r="N32" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="P31" s="93" t="s">
+      <c r="P32" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="Q31" s="93" t="s">
+      <c r="Q32" s="93" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="H32" s="116"/>
-    </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="112"/>
-      <c r="C33" s="93" t="s">
+      <c r="H33" s="115"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="112"/>
+      <c r="C34" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="H33" s="116"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="117"/>
-      <c r="C34" s="93" t="s">
+      <c r="H34" s="115"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="116"/>
+      <c r="C35" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="116"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="93" t="s">
+      <c r="H35" s="115"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E36" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="F35" s="93" t="s">
+      <c r="F36" s="93" t="s">
         <v>246</v>
       </c>
-      <c r="H35" s="116"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="93" t="s">
+      <c r="H36" s="115"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E38" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="F37" s="93">
+      <c r="F38" s="93">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="21"/>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9800,183 +9837,183 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K3" s="155"/>
+      <c r="K3" s="154"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="124"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="122" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="123">
+      <c r="E6" s="122">
         <v>2022</v>
       </c>
-      <c r="F6" s="123">
+      <c r="F6" s="122">
         <v>2025</v>
       </c>
-      <c r="G6" s="123">
+      <c r="G6" s="122">
         <v>2030</v>
       </c>
-      <c r="H6" s="123">
+      <c r="H6" s="122">
         <v>2035</v>
       </c>
-      <c r="I6" s="123">
+      <c r="I6" s="122">
         <v>2040</v>
       </c>
-      <c r="J6" s="123">
+      <c r="J6" s="122">
         <v>2045</v>
       </c>
-      <c r="K6" s="123">
+      <c r="K6" s="122">
         <v>2050</v>
       </c>
-      <c r="L6" s="153"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="130"/>
-      <c r="Q6" s="124" t="s">
+      <c r="L6" s="152"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="129"/>
+      <c r="Q6" s="123" t="s">
         <v>13</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:18" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="126" t="s">
+      <c r="G7" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="H7" s="126" t="s">
+      <c r="H7" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="126" t="s">
+      <c r="I7" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="J7" s="126" t="s">
+      <c r="J7" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="K7" s="126" t="s">
+      <c r="K7" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="L7" s="154"/>
-      <c r="M7" s="156" t="s">
+      <c r="L7" s="153"/>
+      <c r="M7" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="N7" s="131"/>
-      <c r="O7" s="123" t="s">
+      <c r="N7" s="130"/>
+      <c r="O7" s="122" t="s">
         <v>185</v>
       </c>
-      <c r="P7" s="123" t="s">
+      <c r="P7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="Q7" s="123" t="s">
+      <c r="Q7" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="R7" s="123">
+      <c r="R7" s="122">
         <v>2022</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125" t="s">
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="125" t="s">
+      <c r="F8" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="125" t="s">
+      <c r="G8" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="H8" s="125" t="s">
+      <c r="H8" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="125" t="s">
+      <c r="I8" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="J8" s="125" t="s">
+      <c r="J8" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="125" t="s">
+      <c r="K8" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="L8" s="154"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="133" t="s">
+      <c r="L8" s="153"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="P8" s="133" t="s">
+      <c r="P8" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="Q8" s="133"/>
-      <c r="R8" s="133"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
     </row>
     <row r="9" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="127" t="str">
+      <c r="C9" s="126" t="str">
         <f>DemTechs_INDF!P5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="D9" s="127" t="str">
+      <c r="D9" s="126" t="str">
         <f>E$2</f>
         <v>GWh</v>
       </c>
-      <c r="E9" s="129">
+      <c r="E9" s="128">
         <f>EBF!D18+EBF!E18</f>
         <v>10281.3477669522</v>
       </c>
-      <c r="F9" s="129">
+      <c r="F9" s="128">
         <f>$E$9*(1+$M$9)^(F6-$E$6)</f>
         <v>14405.897122659175</v>
       </c>
-      <c r="G9" s="129">
+      <c r="G9" s="128">
         <f t="shared" ref="G9:K9" si="0">$E$9*(1+$M$9)^(G6-$E$6)</f>
         <v>25274.975404905261</v>
       </c>
-      <c r="H9" s="129">
+      <c r="H9" s="128">
         <f t="shared" si="0"/>
         <v>44344.644160602315</v>
       </c>
-      <c r="I9" s="129">
+      <c r="I9" s="128">
         <f t="shared" si="0"/>
         <v>77802.151504717243</v>
       </c>
-      <c r="J9" s="129">
+      <c r="J9" s="128">
         <f t="shared" si="0"/>
         <v>136502.95076988969</v>
       </c>
-      <c r="K9" s="129">
+      <c r="K9" s="128">
         <f t="shared" si="0"/>
         <v>239492.80589955384</v>
       </c>
-      <c r="M9" s="158">
+      <c r="M9" s="157">
         <v>0.11899999999999999</v>
       </c>
       <c r="O9" s="9" t="s">
@@ -9987,46 +10024,46 @@
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="127" t="str">
+      <c r="C10" s="126" t="str">
         <f>DemTechs_INDF!P6</f>
         <v>MANELC</v>
       </c>
-      <c r="D10" s="127" t="str">
+      <c r="D10" s="126" t="str">
         <f>E$2</f>
         <v>GWh</v>
       </c>
-      <c r="E10" s="129">
+      <c r="E10" s="128">
         <f>EBF!J18</f>
         <v>2861.5612011470998</v>
       </c>
-      <c r="F10" s="129">
+      <c r="F10" s="128">
         <f>$E$10*(1+$M$10)^(F6-$E$6)</f>
         <v>3350.6176459935423</v>
       </c>
-      <c r="G10" s="129">
+      <c r="G10" s="128">
         <f t="shared" ref="G10:K10" si="1">$E$10*(1+$M$10)^(G6-$E$6)</f>
         <v>4358.4084284728824</v>
       </c>
-      <c r="H10" s="129">
+      <c r="H10" s="128">
         <f t="shared" si="1"/>
         <v>5669.320118366044</v>
       </c>
-      <c r="I10" s="129">
+      <c r="I10" s="128">
         <f t="shared" si="1"/>
         <v>7374.5246990933629</v>
       </c>
-      <c r="J10" s="129">
+      <c r="J10" s="128">
         <f t="shared" si="1"/>
         <v>9592.6166457525742</v>
       </c>
-      <c r="K10" s="129">
+      <c r="K10" s="128">
         <f t="shared" si="1"/>
         <v>12477.860996747662</v>
       </c>
-      <c r="M10" s="159">
+      <c r="M10" s="158">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -10039,21 +10076,21 @@
       <c r="Q10" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="R10" s="134">
+      <c r="R10" s="133">
         <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
       <c r="K11" s="5">
         <f>K9+K10</f>
         <v>251970.6668963015</v>
       </c>
-      <c r="M11" s="157"/>
+      <c r="M11" s="156"/>
       <c r="O11" s="1" t="s">
         <v>192</v>
       </c>
@@ -10064,45 +10101,45 @@
       <c r="Q11" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="R11" s="134">
+      <c r="R11" s="133">
         <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="147" t="s">
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="146" t="s">
         <v>271</v>
       </c>
-      <c r="E12" s="146">
+      <c r="E12" s="145">
         <f>E10/(E$9+E$10)</f>
         <v>0.21772662415091906</v>
       </c>
-      <c r="F12" s="146">
+      <c r="F12" s="145">
         <f>F10/(F$9+F$10)</f>
         <v>0.18869793366819429</v>
       </c>
-      <c r="G12" s="146">
+      <c r="G12" s="145">
         <f t="shared" ref="G12:K12" si="2">G10/(G$9+G$10)</f>
         <v>0.14707764907913431</v>
       </c>
-      <c r="H12" s="146">
+      <c r="H12" s="145">
         <f t="shared" si="2"/>
         <v>0.11335474402196269</v>
       </c>
-      <c r="I12" s="146">
+      <c r="I12" s="145">
         <f t="shared" si="2"/>
         <v>8.6579155559529136E-2</v>
       </c>
-      <c r="J12" s="146">
+      <c r="J12" s="145">
         <f t="shared" si="2"/>
         <v>6.5659874665886034E-2</v>
       </c>
-      <c r="K12" s="146">
+      <c r="K12" s="145">
         <f t="shared" si="2"/>
         <v>4.9521085729724738E-2</v>
       </c>
-      <c r="M12" s="157"/>
+      <c r="M12" s="156"/>
       <c r="N12" s="5"/>
       <c r="O12" s="1" t="s">
         <v>192</v>
@@ -10114,7 +10151,7 @@
       <c r="Q12" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="R12" s="134">
+      <c r="R12" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10123,35 +10160,35 @@
       <c r="D13" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="146">
+      <c r="E13" s="145">
         <f>E9/(E$9+E$10)</f>
         <v>0.78227337584908085</v>
       </c>
-      <c r="F13" s="146">
+      <c r="F13" s="145">
         <f>F9/(F$9+F$10)</f>
         <v>0.81130206633180579</v>
       </c>
-      <c r="G13" s="146">
+      <c r="G13" s="145">
         <f t="shared" ref="G13:K13" si="3">G9/(G$9+G$10)</f>
         <v>0.85292235092086577</v>
       </c>
-      <c r="H13" s="146">
+      <c r="H13" s="145">
         <f t="shared" si="3"/>
         <v>0.88664525597803734</v>
       </c>
-      <c r="I13" s="146">
+      <c r="I13" s="145">
         <f t="shared" si="3"/>
         <v>0.91342084444047078</v>
       </c>
-      <c r="J13" s="146">
+      <c r="J13" s="145">
         <f t="shared" si="3"/>
         <v>0.93434012533411404</v>
       </c>
-      <c r="K13" s="146">
+      <c r="K13" s="145">
         <f t="shared" si="3"/>
         <v>0.95047891427027531</v>
       </c>
-      <c r="M13" s="157"/>
+      <c r="M13" s="156"/>
       <c r="O13" s="1" t="s">
         <v>192</v>
       </c>
@@ -10159,10 +10196,10 @@
         <f>DemTechs_INDF!P$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q13" s="135" t="s">
+      <c r="Q13" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="R13" s="136">
+      <c r="R13" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10177,7 +10214,7 @@
       <c r="Q14" t="s">
         <v>197</v>
       </c>
-      <c r="R14" s="134">
+      <c r="R14" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10192,7 +10229,7 @@
       <c r="Q15" t="s">
         <v>198</v>
       </c>
-      <c r="R15" s="134">
+      <c r="R15" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10208,7 +10245,7 @@
       <c r="Q16" t="s">
         <v>199</v>
       </c>
-      <c r="R16" s="134">
+      <c r="R16" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10223,7 +10260,7 @@
       <c r="Q17" t="s">
         <v>200</v>
       </c>
-      <c r="R17" s="136">
+      <c r="R17" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10238,7 +10275,7 @@
       <c r="Q18" t="s">
         <v>201</v>
       </c>
-      <c r="R18" s="134">
+      <c r="R18" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10267,7 +10304,7 @@
       <c r="Q19" t="s">
         <v>202</v>
       </c>
-      <c r="R19" s="134">
+      <c r="R19" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10296,7 +10333,7 @@
       <c r="Q20" t="s">
         <v>203</v>
       </c>
-      <c r="R20" s="134">
+      <c r="R20" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10311,12 +10348,12 @@
       <c r="Q21" t="s">
         <v>204</v>
       </c>
-      <c r="R21" s="136">
+      <c r="R21" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="128"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="1" t="s">
         <v>99</v>
       </c>
@@ -10330,7 +10367,7 @@
       <c r="Q22" t="s">
         <v>205</v>
       </c>
-      <c r="R22" s="134">
+      <c r="R22" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10349,7 +10386,7 @@
       <c r="Q23" t="s">
         <v>206</v>
       </c>
-      <c r="R23" s="134">
+      <c r="R23" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10364,7 +10401,7 @@
       <c r="Q24" t="s">
         <v>207</v>
       </c>
-      <c r="R24" s="134">
+      <c r="R24" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10379,7 +10416,7 @@
       <c r="Q25" t="s">
         <v>208</v>
       </c>
-      <c r="R25" s="136">
+      <c r="R25" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10394,7 +10431,7 @@
       <c r="Q26" t="s">
         <v>209</v>
       </c>
-      <c r="R26" s="134">
+      <c r="R26" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10409,7 +10446,7 @@
       <c r="Q27" t="s">
         <v>210</v>
       </c>
-      <c r="R27" s="134">
+      <c r="R27" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10424,7 +10461,7 @@
       <c r="Q28" t="s">
         <v>211</v>
       </c>
-      <c r="R28" s="134">
+      <c r="R28" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10439,7 +10476,7 @@
       <c r="Q29" t="s">
         <v>212</v>
       </c>
-      <c r="R29" s="136">
+      <c r="R29" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10454,7 +10491,7 @@
       <c r="Q30" t="s">
         <v>213</v>
       </c>
-      <c r="R30" s="134">
+      <c r="R30" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10469,7 +10506,7 @@
       <c r="Q31" t="s">
         <v>214</v>
       </c>
-      <c r="R31" s="134">
+      <c r="R31" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10484,7 +10521,7 @@
       <c r="Q32" t="s">
         <v>215</v>
       </c>
-      <c r="R32" s="134">
+      <c r="R32" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10499,7 +10536,7 @@
       <c r="Q33" t="s">
         <v>216</v>
       </c>
-      <c r="R33" s="136">
+      <c r="R33" s="135">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10514,7 +10551,7 @@
       <c r="Q34" t="s">
         <v>217</v>
       </c>
-      <c r="R34" s="134">
+      <c r="R34" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10529,7 +10566,7 @@
       <c r="Q35" t="s">
         <v>218</v>
       </c>
-      <c r="R35" s="134">
+      <c r="R35" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -10544,7 +10581,7 @@
       <c r="Q36" t="s">
         <v>219</v>
       </c>
-      <c r="R36" s="134">
+      <c r="R36" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10559,7 +10596,7 @@
       <c r="Q37" t="s">
         <v>220</v>
       </c>
-      <c r="R37" s="136">
+      <c r="R37" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10574,7 +10611,7 @@
       <c r="Q38" t="s">
         <v>221</v>
       </c>
-      <c r="R38" s="134">
+      <c r="R38" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10589,7 +10626,7 @@
       <c r="Q39" t="s">
         <v>222</v>
       </c>
-      <c r="R39" s="134">
+      <c r="R39" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10604,7 +10641,7 @@
       <c r="Q40" t="s">
         <v>223</v>
       </c>
-      <c r="R40" s="134">
+      <c r="R40" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10619,7 +10656,7 @@
       <c r="Q41" t="s">
         <v>224</v>
       </c>
-      <c r="R41" s="136">
+      <c r="R41" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10634,7 +10671,7 @@
       <c r="Q42" t="s">
         <v>225</v>
       </c>
-      <c r="R42" s="134">
+      <c r="R42" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10649,7 +10686,7 @@
       <c r="Q43" t="s">
         <v>226</v>
       </c>
-      <c r="R43" s="134">
+      <c r="R43" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10664,7 +10701,7 @@
       <c r="Q44" t="s">
         <v>227</v>
       </c>
-      <c r="R44" s="134">
+      <c r="R44" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10679,7 +10716,7 @@
       <c r="Q45" t="s">
         <v>228</v>
       </c>
-      <c r="R45" s="136">
+      <c r="R45" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10694,7 +10731,7 @@
       <c r="Q46" t="s">
         <v>229</v>
       </c>
-      <c r="R46" s="134">
+      <c r="R46" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10709,7 +10746,7 @@
       <c r="Q47" t="s">
         <v>230</v>
       </c>
-      <c r="R47" s="134">
+      <c r="R47" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10724,7 +10761,7 @@
       <c r="Q48" t="s">
         <v>231</v>
       </c>
-      <c r="R48" s="134">
+      <c r="R48" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10739,7 +10776,7 @@
       <c r="Q49" t="s">
         <v>232</v>
       </c>
-      <c r="R49" s="136">
+      <c r="R49" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10754,7 +10791,7 @@
       <c r="Q50" t="s">
         <v>233</v>
       </c>
-      <c r="R50" s="134">
+      <c r="R50" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10769,7 +10806,7 @@
       <c r="Q51" t="s">
         <v>234</v>
       </c>
-      <c r="R51" s="134">
+      <c r="R51" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10784,7 +10821,7 @@
       <c r="Q52" t="s">
         <v>235</v>
       </c>
-      <c r="R52" s="134">
+      <c r="R52" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10799,7 +10836,7 @@
       <c r="Q53" t="s">
         <v>236</v>
       </c>
-      <c r="R53" s="136">
+      <c r="R53" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10814,7 +10851,7 @@
       <c r="Q54" t="s">
         <v>237</v>
       </c>
-      <c r="R54" s="134">
+      <c r="R54" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10829,7 +10866,7 @@
       <c r="Q55" t="s">
         <v>238</v>
       </c>
-      <c r="R55" s="134">
+      <c r="R55" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10844,7 +10881,7 @@
       <c r="Q56" t="s">
         <v>239</v>
       </c>
-      <c r="R56" s="134">
+      <c r="R56" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10859,7 +10896,7 @@
       <c r="Q57" t="s">
         <v>240</v>
       </c>
-      <c r="R57" s="136">
+      <c r="R57" s="135">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10874,7 +10911,7 @@
       <c r="Q58" t="s">
         <v>241</v>
       </c>
-      <c r="R58" s="134">
+      <c r="R58" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10889,7 +10926,7 @@
       <c r="Q59" t="s">
         <v>242</v>
       </c>
-      <c r="R59" s="134">
+      <c r="R59" s="133">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -10917,97 +10954,97 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="137" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
     </row>
     <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
     </row>
     <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="139" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="141"/>
+      <c r="C5" s="140"/>
     </row>
     <row r="6" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="142" t="str">
+      <c r="C6" s="141" t="str">
         <f>PRI_Sector_Fuels!N5</f>
         <v>MANCOALMIN</v>
       </c>
-      <c r="D6" s="142" t="str">
+      <c r="D6" s="141" t="str">
         <f>PRI_Sector_Fuels!N6</f>
         <v>MANCOALIMP</v>
       </c>
-      <c r="E6" s="142" t="str">
+      <c r="E6" s="141" t="str">
         <f>PRI_Sector_Fuels!N7</f>
         <v>MANOILIMP</v>
       </c>
-      <c r="F6" s="142" t="str">
+      <c r="F6" s="141" t="str">
         <f>PRI_Sector_Fuels!N8</f>
         <v>GRIDELC</v>
       </c>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="142" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="143" t="s">
+      <c r="D7" s="142" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="143" t="s">
+      <c r="E7" s="142" t="s">
         <v>264</v>
       </c>
-      <c r="F7" s="143" t="s">
+      <c r="F7" s="142" t="s">
         <v>264</v>
       </c>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="144" t="str">
+      <c r="B8" s="143" t="str">
         <f>DemTechs_INDF!P8</f>
         <v>MANCO2</v>
       </c>
-      <c r="C8" s="145">
+      <c r="C8" s="144">
         <v>347494</v>
       </c>
-      <c r="D8" s="145">
+      <c r="D8" s="144">
         <v>347494</v>
       </c>
-      <c r="E8" s="145">
+      <c r="E8" s="144">
         <v>279515</v>
       </c>
-      <c r="F8" s="145">
+      <c r="F8" s="144">
         <v>0</v>
       </c>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
       <c r="I8" s="1"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="128"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="1" t="s">
         <v>99</v>
       </c>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F43CDC-2B3E-459E-AB6B-3F10FBD70FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C12416-3676-4839-B945-E3802E7A9A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -351,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I24" authorId="2" shapeId="0" xr:uid="{CC8E5D4E-1B3A-43C8-A112-A6697F95B4CC}">
+    <comment ref="I25" authorId="2" shapeId="0" xr:uid="{CC8E5D4E-1B3A-43C8-A112-A6697F95B4CC}">
       <text>
         <r>
           <rPr>
@@ -398,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R24" authorId="2" shapeId="0" xr:uid="{B82C1148-4753-4923-93C2-C67B5D40F340}">
+    <comment ref="R25" authorId="2" shapeId="0" xr:uid="{B82C1148-4753-4923-93C2-C67B5D40F340}">
       <text>
         <r>
           <rPr>
@@ -491,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S24" authorId="1" shapeId="0" xr:uid="{968CFA1B-C5E9-492D-A0A2-485C997CC98A}">
+    <comment ref="S25" authorId="1" shapeId="0" xr:uid="{968CFA1B-C5E9-492D-A0A2-485C997CC98A}">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T24" authorId="2" shapeId="0" xr:uid="{A0615139-A259-4F4D-937C-E8C54FC43716}">
+    <comment ref="T25" authorId="2" shapeId="0" xr:uid="{A0615139-A259-4F4D-937C-E8C54FC43716}">
       <text>
         <r>
           <rPr>
@@ -579,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L25" authorId="2" shapeId="0" xr:uid="{028E65FC-6C67-4206-97D8-90E7E85C9E5E}">
+    <comment ref="L26" authorId="2" shapeId="0" xr:uid="{028E65FC-6C67-4206-97D8-90E7E85C9E5E}">
       <text>
         <r>
           <rPr>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="294">
   <si>
     <t>CommName</t>
   </si>
@@ -2441,6 +2441,9 @@
   </si>
   <si>
     <t>Electricity to MANHEAT</t>
+  </si>
+  <si>
+    <t>Total manufacturing electricity supply</t>
   </si>
 </sst>
 </file>
@@ -4194,13 +4197,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>133299</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5158,7 +5161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40EA534-E44A-461C-9315-2313911B2BEB}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -7503,10 +7506,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7900,36 +7903,34 @@
       <c r="T13" s="163"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L14" s="66"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="66"/>
+      <c r="L14" s="163" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="O14" s="163" t="s">
+        <v>293</v>
+      </c>
+      <c r="P14" s="163" t="s">
+        <v>167</v>
+      </c>
       <c r="Q14" s="66"/>
       <c r="R14" s="66"/>
       <c r="S14" s="66"/>
       <c r="T14" s="66"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L16" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="70"/>
-      <c r="N16" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="O16" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="P16" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q16" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L15" s="160"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="160"/>
+      <c r="O15" s="160"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L17" s="66" t="s">
@@ -7937,10 +7938,10 @@
       </c>
       <c r="M17" s="70"/>
       <c r="N17" s="66" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O17" s="66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P17" s="66" t="s">
         <v>167</v>
@@ -7954,14 +7955,14 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L18" s="66" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M18" s="70"/>
       <c r="N18" s="66" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="O18" s="66" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P18" s="66" t="s">
         <v>167</v>
@@ -7975,14 +7976,14 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L19" s="66" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M19" s="70"/>
       <c r="N19" s="66" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="O19" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P19" s="66" t="s">
         <v>167</v>
@@ -8000,10 +8001,10 @@
       </c>
       <c r="M20" s="70"/>
       <c r="N20" s="66" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="O20" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P20" s="66" t="s">
         <v>167</v>
@@ -8016,272 +8017,245 @@
       <c r="T20" s="66"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L21" s="66"/>
+      <c r="L21" s="66" t="s">
+        <v>82</v>
+      </c>
       <c r="M21" s="70"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
+      <c r="N21" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="O21" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="P21" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q21" s="66" t="s">
+        <v>180</v>
+      </c>
       <c r="R21" s="66"/>
       <c r="S21" s="66"/>
       <c r="T21" s="66"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F23" s="3" t="s">
+      <c r="L23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="L23" s="65" t="s">
+      <c r="H24" s="3"/>
+      <c r="L24" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M23" s="65"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="M24" s="65"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G25" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="64" t="s">
+      <c r="H25" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="64" t="s">
+      <c r="I25" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="78" t="s">
+      <c r="J25" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="L24" s="67" t="s">
+      <c r="L25" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="68" t="s">
+      <c r="M25" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="N24" s="67" t="s">
+      <c r="N25" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="67" t="s">
+      <c r="O25" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="P24" s="67" t="s">
+      <c r="P25" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="Q24" s="67" t="s">
+      <c r="Q25" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="R24" s="67" t="s">
+      <c r="R25" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="S24" s="67" t="s">
+      <c r="S25" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="T24" s="67" t="s">
+      <c r="T25" s="67" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J25" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q25" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="R25" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="S25" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="T25" s="69" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="S26" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="T26" s="69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8" t="str">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="I26" s="8" t="str">
+      <c r="I27" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="J26" s="80"/>
-      <c r="L26" s="69" t="s">
+      <c r="J27" s="80"/>
+      <c r="L27" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="66" t="str">
-        <f>N27</f>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="66" t="str">
+        <f>N28</f>
         <v>MINCOA</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="66" t="str">
+      <c r="C28" s="1"/>
+      <c r="D28" s="66" t="str">
         <f>N5</f>
         <v>MANCOALMIN</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>2022</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G28" s="48">
         <v>2673000</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H28" s="49">
         <v>4.5449999999999999</v>
       </c>
-      <c r="I27" s="91">
+      <c r="I28" s="91">
         <f>EBF!D5</f>
         <v>4518.4003614720004</v>
       </c>
-      <c r="J27" s="121">
+      <c r="J28" s="121">
         <v>8.76</v>
       </c>
-      <c r="L27" s="66" t="str">
+      <c r="L28" s="66" t="str">
         <f>EBF!$B$5</f>
         <v>MIN</v>
-      </c>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70" t="str">
-        <f>$L$27&amp;$C$2</f>
-        <v>MINCOA</v>
-      </c>
-      <c r="O27" s="72" t="str">
-        <f>"Domestic Supply of "&amp;$D$2&amp;" "</f>
-        <v xml:space="preserve">Domestic Supply of Coal </v>
-      </c>
-      <c r="P27" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="66" t="str">
-        <f t="shared" ref="B28:B29" si="0">N28</f>
-        <v>IMPCOA</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="66" t="str">
-        <f>N6</f>
-        <v>MANCOALIMP</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63">
-        <v>21.004999999999999</v>
-      </c>
-      <c r="I28" s="92">
-        <f>EBF!D6</f>
-        <v>3157.6616415018002</v>
-      </c>
-      <c r="J28" s="121">
-        <v>8.76</v>
-      </c>
-      <c r="L28" s="70" t="str">
-        <f>EBF!$B$6</f>
-        <v>IMP</v>
       </c>
       <c r="M28" s="70"/>
       <c r="N28" s="70" t="str">
         <f>$L$28&amp;$C$2</f>
-        <v>IMPCOA</v>
+        <v>MINCOA</v>
       </c>
       <c r="O28" s="72" t="str">
-        <f>"Import of "&amp;$D$2&amp;" "</f>
-        <v xml:space="preserve">Import of Coal </v>
+        <f>"Domestic Supply of "&amp;$D$2&amp;" "</f>
+        <v xml:space="preserve">Domestic Supply of Coal </v>
       </c>
       <c r="P28" s="70" t="s">
         <v>167</v>
@@ -8293,91 +8267,98 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="66" t="str">
+        <f t="shared" ref="B29:B30" si="0">N29</f>
+        <v>IMPCOA</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="66" t="str">
+        <f>N6</f>
+        <v>MANCOALIMP</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63">
+        <v>21.004999999999999</v>
+      </c>
+      <c r="I29" s="92">
+        <f>EBF!D6</f>
+        <v>3157.6616415018002</v>
+      </c>
+      <c r="J29" s="121">
+        <v>8.76</v>
+      </c>
+      <c r="L29" s="70" t="str">
+        <f>EBF!$B$6</f>
+        <v>IMP</v>
+      </c>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70" t="str">
+        <f>$L$29&amp;$C$2</f>
+        <v>IMPCOA</v>
+      </c>
+      <c r="O29" s="72" t="str">
+        <f>"Import of "&amp;$D$2&amp;" "</f>
+        <v xml:space="preserve">Import of Coal </v>
+      </c>
+      <c r="P29" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="66" t="str">
         <f t="shared" si="0"/>
         <v>IMPOIL</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="66" t="str">
-        <f t="shared" ref="D29" si="1">N7</f>
+      <c r="C30" s="1"/>
+      <c r="D30" s="66" t="str">
+        <f t="shared" ref="D30" si="1">N7</f>
         <v>MANOILIMP</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <v>2022</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H30" s="49">
         <v>29.234999999999999</v>
       </c>
-      <c r="I29" s="92">
+      <c r="I30" s="92">
         <f>EBF!E18</f>
         <v>2605.1202084096003</v>
       </c>
-      <c r="J29" s="121">
+      <c r="J30" s="121">
         <v>8.76</v>
       </c>
-      <c r="L29" t="str">
+      <c r="L30" t="str">
         <f>EBF!B6</f>
         <v>IMP</v>
       </c>
-      <c r="N29" s="70" t="str">
-        <f>$L$29&amp;$C$3</f>
+      <c r="N30" s="70" t="str">
+        <f>$L$30&amp;$C$3</f>
         <v>IMPOIL</v>
       </c>
-      <c r="O29" s="72" t="str">
+      <c r="O30" s="72" t="str">
         <f>"Import of "&amp;$D$3&amp;" "</f>
         <v xml:space="preserve">Import of Oil </v>
       </c>
-      <c r="P29" t="s">
+      <c r="P30" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="66" t="str">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="66" t="str">
         <f>N8</f>
         <v>GRIDELC</v>
-      </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="160" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="49">
-        <v>100</v>
-      </c>
-      <c r="I30" s="92">
-        <f>EBF!J18</f>
-        <v>2861.5612011470998</v>
-      </c>
-      <c r="J30" s="121">
-        <v>8.76</v>
-      </c>
-      <c r="L30" s="162" t="s">
-        <v>50</v>
-      </c>
-      <c r="M30" s="162"/>
-      <c r="N30" s="163" t="str">
-        <f>$L$29&amp;$C$7</f>
-        <v>IMPBIO</v>
-      </c>
-      <c r="O30" s="164" t="str">
-        <f>"Domestic Supply of "&amp;$D$7&amp;" "</f>
-        <v xml:space="preserve">Domestic Supply of Biomass </v>
-      </c>
-      <c r="P30" s="162" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="66" t="str">
-        <f t="shared" ref="B31:B35" si="2">N9</f>
-        <v>WINDELC</v>
       </c>
       <c r="C31" s="70"/>
       <c r="D31" s="160" t="s">
@@ -8386,21 +8367,30 @@
       <c r="E31" s="1">
         <v>2022</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="121"/>
+      <c r="F31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="49">
+        <v>100</v>
+      </c>
+      <c r="I31" s="92">
+        <f>EBF!J18</f>
+        <v>2861.5612011470998</v>
+      </c>
+      <c r="J31" s="121">
+        <v>8.76</v>
+      </c>
       <c r="L31" s="162" t="s">
         <v>50</v>
       </c>
       <c r="M31" s="162"/>
       <c r="N31" s="163" t="str">
-        <f>$L$29&amp;$C$8</f>
-        <v>IMPGAS</v>
+        <f>$L$30&amp;$C$7</f>
+        <v>IMPBIO</v>
       </c>
       <c r="O31" s="164" t="str">
-        <f>"Domestic Supply of "&amp;$D$8&amp;" "</f>
-        <v xml:space="preserve">Domestic Supply of Ngas </v>
+        <f>"Domestic Supply of "&amp;$D$7&amp;" "</f>
+        <v xml:space="preserve">Domestic Supply of Biomass </v>
       </c>
       <c r="P31" s="162" t="s">
         <v>167</v>
@@ -8408,8 +8398,8 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="66" t="str">
-        <f t="shared" si="2"/>
-        <v>SOLELC</v>
+        <f t="shared" ref="B32:B36" si="2">N9</f>
+        <v>WINDELC</v>
       </c>
       <c r="C32" s="70"/>
       <c r="D32" s="160" t="s">
@@ -8422,17 +8412,30 @@
       <c r="H32" s="49"/>
       <c r="I32" s="92"/>
       <c r="J32" s="121"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="72"/>
+      <c r="L32" s="162" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="162"/>
+      <c r="N32" s="163" t="str">
+        <f>$L$30&amp;$C$8</f>
+        <v>IMPGAS</v>
+      </c>
+      <c r="O32" s="164" t="str">
+        <f>"Domestic Supply of "&amp;$D$8&amp;" "</f>
+        <v xml:space="preserve">Domestic Supply of Ngas </v>
+      </c>
+      <c r="P32" s="162" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="66" t="str">
         <f t="shared" si="2"/>
-        <v>SOLTHT</v>
+        <v>SOLELC</v>
       </c>
       <c r="C33" s="70"/>
       <c r="D33" s="160" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="E33" s="1">
         <v>2022</v>
@@ -8446,13 +8449,12 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="66" t="str">
-        <f>N12</f>
-        <v>MANBIOMIN</v>
+        <f t="shared" si="2"/>
+        <v>SOLTHT</v>
       </c>
       <c r="C34" s="70"/>
-      <c r="D34" s="160" t="str">
-        <f>N12</f>
-        <v>MANBIOMIN</v>
+      <c r="D34" s="160" t="s">
+        <v>178</v>
       </c>
       <c r="E34" s="1">
         <v>2022</v>
@@ -8466,13 +8468,13 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="66" t="str">
-        <f t="shared" si="2"/>
-        <v>MANGASMIN</v>
+        <f>N12</f>
+        <v>MANBIOMIN</v>
       </c>
       <c r="C35" s="70"/>
       <c r="D35" s="160" t="str">
-        <f>N13</f>
-        <v>MANGASMIN</v>
+        <f>N12</f>
+        <v>MANBIOMIN</v>
       </c>
       <c r="E35" s="1">
         <v>2022</v>
@@ -8485,10 +8487,18 @@
       <c r="O35" s="72"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="66"/>
+      <c r="B36" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>MANGASMIN</v>
+      </c>
       <c r="C36" s="70"/>
-      <c r="D36" s="160"/>
-      <c r="E36" s="1"/>
+      <c r="D36" s="160" t="str">
+        <f>N13</f>
+        <v>MANGASMIN</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2022</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="H36" s="49"/>
       <c r="I36" s="92"/>
@@ -8546,7 +8556,8 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="66"/>
-      <c r="D41" s="66"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="160"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="H41" s="49"/>
@@ -8563,53 +8574,38 @@
       <c r="H42" s="49"/>
       <c r="I42" s="92"/>
       <c r="J42" s="121"/>
-      <c r="L42" t="s">
+      <c r="N42" s="70"/>
+      <c r="O42" s="72"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="121"/>
+      <c r="L43" t="s">
         <v>46</v>
       </c>
-      <c r="N42" s="70" t="s">
+      <c r="N43" s="70" t="s">
         <v>276</v>
       </c>
-      <c r="O42" s="72" t="s">
+      <c r="O43" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P43" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="66" t="str">
-        <f>N29</f>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="66" t="str">
+        <f>N30</f>
         <v>IMPOIL</v>
-      </c>
-      <c r="D43" s="66" t="str">
-        <f>N19</f>
-        <v>CONMDRIVE</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="H43" s="49">
-        <f>H29</f>
-        <v>29.234999999999999</v>
-      </c>
-      <c r="I43" s="92">
-        <f>EBF!E19</f>
-        <v>8781.4640358504003</v>
-      </c>
-      <c r="J43" s="121">
-        <v>8.76</v>
-      </c>
-      <c r="N43" s="70"/>
-      <c r="O43" s="72"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="66" t="s">
-        <v>265</v>
       </c>
       <c r="D44" s="66" t="str">
         <f>N20</f>
-        <v>CONELC</v>
+        <v>CONMDRIVE</v>
       </c>
       <c r="E44" s="1">
         <v>2022</v>
@@ -8617,58 +8613,84 @@
       <c r="F44" s="1"/>
       <c r="H44" s="49">
         <f>H30</f>
+        <v>29.234999999999999</v>
+      </c>
+      <c r="I44" s="92">
+        <f>EBF!E19</f>
+        <v>8781.4640358504003</v>
+      </c>
+      <c r="J44" s="121">
+        <v>8.76</v>
+      </c>
+      <c r="N44" s="70"/>
+      <c r="O44" s="72"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" s="66" t="str">
+        <f>N21</f>
+        <v>CONELC</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="H45" s="49">
+        <f>H31</f>
         <v>100</v>
       </c>
-      <c r="I44" s="92">
+      <c r="I45" s="92">
         <f>EBF!J19</f>
         <v>150.60848427090019</v>
       </c>
-      <c r="J44" s="121">
+      <c r="J45" s="121">
         <v>8.76</v>
       </c>
-      <c r="N44" s="70"/>
-      <c r="O44" s="72"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="48"/>
-      <c r="C46" s="1" t="s">
+      <c r="N45" s="70"/>
+      <c r="O45" s="72"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="48"/>
+      <c r="C47" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="47"/>
-      <c r="C47" s="1" t="s">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="47"/>
+      <c r="C48" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U50" s="1"/>
+    <row r="50" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8683,8 +8705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9555,8 +9577,8 @@
         <v>Furnace</v>
       </c>
       <c r="C26" s="166" t="str">
-        <f>PRI_Sector_Fuels!D30</f>
-        <v>ELC</v>
+        <f>PRI_Sector_Fuels!N14</f>
+        <v>MANELC</v>
       </c>
       <c r="D26" s="166" t="str">
         <f t="shared" si="1"/>
@@ -9586,8 +9608,8 @@
         <v>160</v>
       </c>
       <c r="C27" s="95" t="str">
-        <f>PRI_Sector_Fuels!D30</f>
-        <v>ELC</v>
+        <f>PRI_Sector_Fuels!N14</f>
+        <v>MANELC</v>
       </c>
       <c r="D27" s="166" t="str">
         <f t="shared" si="1"/>
@@ -9617,7 +9639,7 @@
         <v>160</v>
       </c>
       <c r="C28" s="93" t="str">
-        <f>PRI_Sector_Fuels!D35</f>
+        <f>PRI_Sector_Fuels!D36</f>
         <v>MANGASMIN</v>
       </c>
       <c r="D28" s="166" t="str">
@@ -9680,11 +9702,11 @@
         <v>251</v>
       </c>
       <c r="C31" s="93" t="str">
-        <f>PRI_Sector_Fuels!N19</f>
+        <f>PRI_Sector_Fuels!N20</f>
         <v>CONMDRIVE</v>
       </c>
       <c r="D31" s="93" t="str">
-        <f>PRI_Sector_Fuels!N19</f>
+        <f>PRI_Sector_Fuels!N20</f>
         <v>CONMDRIVE</v>
       </c>
       <c r="F31" s="114">
@@ -9715,11 +9737,11 @@
         <v>85</v>
       </c>
       <c r="C32" s="93" t="str">
-        <f>PRI_Sector_Fuels!N20</f>
+        <f>PRI_Sector_Fuels!N21</f>
         <v>CONELC</v>
       </c>
       <c r="D32" s="93" t="str">
-        <f>PRI_Sector_Fuels!N20</f>
+        <f>PRI_Sector_Fuels!N21</f>
         <v>CONELC</v>
       </c>
       <c r="F32" s="114">

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C12416-3676-4839-B945-E3802E7A9A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B75F39-877E-4C24-A31D-7517427919D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -7508,8 +7508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8385,8 +8385,8 @@
       </c>
       <c r="M31" s="162"/>
       <c r="N31" s="163" t="str">
-        <f>$L$30&amp;$C$7</f>
-        <v>IMPBIO</v>
+        <f>$L$31&amp;$C$7</f>
+        <v>MINBIO</v>
       </c>
       <c r="O31" s="164" t="str">
         <f>"Domestic Supply of "&amp;$D$7&amp;" "</f>
@@ -8417,8 +8417,8 @@
       </c>
       <c r="M32" s="162"/>
       <c r="N32" s="163" t="str">
-        <f>$L$30&amp;$C$8</f>
-        <v>IMPGAS</v>
+        <f>$L$32&amp;$C$8</f>
+        <v>MINGAS</v>
       </c>
       <c r="O32" s="164" t="str">
         <f>"Domestic Supply of "&amp;$D$8&amp;" "</f>
@@ -8705,7 +8705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B75F39-877E-4C24-A31D-7517427919D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01837FB2-A6A1-4134-A84D-247CF006C1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="296">
   <si>
     <t>CommName</t>
   </si>
@@ -2444,6 +2444,12 @@
   </si>
   <si>
     <t>Total manufacturing electricity supply</t>
+  </si>
+  <si>
+    <t>MANDRIVE</t>
+  </si>
+  <si>
+    <t>Manufacturing non-process electricity supply</t>
   </si>
 </sst>
 </file>
@@ -7508,8 +7514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8705,8 +8711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8921,10 +8927,18 @@
         <v>82</v>
       </c>
       <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
+      <c r="P7" s="171" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q7" s="171" t="s">
+        <v>295</v>
+      </c>
+      <c r="R7" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="S7" s="95" t="s">
+        <v>180</v>
+      </c>
       <c r="T7" s="95"/>
       <c r="U7" s="95"/>
       <c r="V7" s="95"/>
@@ -9638,8 +9652,8 @@
       <c r="B28" s="170" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="93" t="str">
-        <f>PRI_Sector_Fuels!D36</f>
+      <c r="C28" s="95" t="str">
+        <f>PRI_Sector_Fuels!N13</f>
         <v>MANGASMIN</v>
       </c>
       <c r="D28" s="166" t="str">
@@ -9666,7 +9680,13 @@
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="170"/>
+      <c r="B29" s="170" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="95" t="str">
+        <f>PRI_Sector_Fuels!N14</f>
+        <v>MANELC</v>
+      </c>
       <c r="D29" s="166"/>
       <c r="E29" s="167"/>
       <c r="F29" s="168"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01837FB2-A6A1-4134-A84D-247CF006C1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2A082C-E175-4CB6-AF2A-92A4DEC69B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="279">
   <si>
     <t>CommName</t>
   </si>
@@ -2393,57 +2393,6 @@
   </si>
   <si>
     <t>ELCGRID</t>
-  </si>
-  <si>
-    <t>WINDELC</t>
-  </si>
-  <si>
-    <t>SOLELC</t>
-  </si>
-  <si>
-    <t>Wind Electricity</t>
-  </si>
-  <si>
-    <t>Solar Electricity</t>
-  </si>
-  <si>
-    <t>SOLTHT</t>
-  </si>
-  <si>
-    <t>Solar thermal</t>
-  </si>
-  <si>
-    <t>MANBIOMIN</t>
-  </si>
-  <si>
-    <t>MANGASMIN</t>
-  </si>
-  <si>
-    <t>NGAS</t>
-  </si>
-  <si>
-    <t>WIND</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>Ngas</t>
-  </si>
-  <si>
-    <t>CSP</t>
-  </si>
-  <si>
-    <t>Solar to heat transformation technology</t>
-  </si>
-  <si>
-    <t>Furnace</t>
-  </si>
-  <si>
-    <t>Electricity to MANHEAT</t>
-  </si>
-  <si>
-    <t>Total manufacturing electricity supply</t>
   </si>
   <si>
     <t>MANDRIVE</t>
@@ -4317,13 +4266,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7450,8 +7399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:P3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7514,8 +7463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7674,20 +7623,11 @@
       </c>
     </row>
     <row r="5" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="162" t="s">
-        <v>286</v>
-      </c>
-      <c r="D5" s="162" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>167</v>
-      </c>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="162"/>
-      <c r="G5" s="7">
-        <f>EBF!P3</f>
-        <v>0</v>
-      </c>
+      <c r="G5" s="7"/>
       <c r="L5" s="66" t="s">
         <v>74</v>
       </c>
@@ -7709,20 +7649,11 @@
       <c r="T5" s="66"/>
     </row>
     <row r="6" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="162" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="162" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="81" t="s">
-        <v>167</v>
-      </c>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="162"/>
-      <c r="G6" s="7">
-        <f>EBF!P4</f>
-        <v>0</v>
-      </c>
+      <c r="G6" s="7"/>
       <c r="L6" s="66" t="s">
         <v>74</v>
       </c>
@@ -7744,20 +7675,11 @@
       <c r="T6" s="66"/>
     </row>
     <row r="7" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="162" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="162" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="81" t="s">
-        <v>167</v>
-      </c>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="162"/>
-      <c r="G7" s="7">
-        <f>EBF!P5</f>
-        <v>0</v>
-      </c>
+      <c r="G7" s="7"/>
       <c r="L7" s="66" t="s">
         <v>74</v>
       </c>
@@ -7779,20 +7701,11 @@
       <c r="T7" s="66"/>
     </row>
     <row r="8" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="162" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" s="162" t="s">
-        <v>288</v>
-      </c>
-      <c r="E8" s="81" t="s">
-        <v>167</v>
-      </c>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="162"/>
-      <c r="G8" s="7">
-        <f>EBF!P6</f>
-        <v>0</v>
-      </c>
+      <c r="G8" s="7"/>
       <c r="L8" s="66" t="s">
         <v>74</v>
       </c>
@@ -7814,114 +7727,66 @@
       <c r="T8" s="66"/>
     </row>
     <row r="9" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L9" s="163" t="s">
-        <v>74</v>
-      </c>
+      <c r="L9" s="163"/>
       <c r="M9" s="163"/>
-      <c r="N9" s="163" t="s">
-        <v>277</v>
-      </c>
-      <c r="O9" s="163" t="s">
-        <v>279</v>
-      </c>
-      <c r="P9" s="163" t="s">
-        <v>167</v>
-      </c>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
       <c r="Q9" s="163"/>
       <c r="R9" s="163"/>
       <c r="S9" s="163"/>
       <c r="T9" s="163"/>
     </row>
     <row r="10" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L10" s="163" t="s">
-        <v>74</v>
-      </c>
+      <c r="L10" s="163"/>
       <c r="M10" s="163"/>
-      <c r="N10" s="163" t="s">
-        <v>278</v>
-      </c>
-      <c r="O10" s="163" t="s">
-        <v>280</v>
-      </c>
-      <c r="P10" s="163" t="s">
-        <v>167</v>
-      </c>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
       <c r="Q10" s="163"/>
       <c r="R10" s="163"/>
       <c r="S10" s="163"/>
       <c r="T10" s="163"/>
     </row>
     <row r="11" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L11" s="163" t="s">
-        <v>74</v>
-      </c>
+      <c r="L11" s="163"/>
       <c r="M11" s="163"/>
-      <c r="N11" s="163" t="s">
-        <v>281</v>
-      </c>
-      <c r="O11" s="163" t="s">
-        <v>282</v>
-      </c>
-      <c r="P11" s="163" t="s">
-        <v>167</v>
-      </c>
+      <c r="N11" s="163"/>
+      <c r="O11" s="163"/>
+      <c r="P11" s="163"/>
       <c r="Q11" s="163"/>
       <c r="R11" s="163"/>
       <c r="S11" s="163"/>
       <c r="T11" s="163"/>
     </row>
     <row r="12" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L12" s="163" t="s">
-        <v>74</v>
-      </c>
+      <c r="L12" s="163"/>
       <c r="M12" s="163"/>
-      <c r="N12" s="163" t="s">
-        <v>283</v>
-      </c>
-      <c r="O12" s="163" t="s">
-        <v>124</v>
-      </c>
-      <c r="P12" s="163" t="s">
-        <v>167</v>
-      </c>
+      <c r="N12" s="163"/>
+      <c r="O12" s="163"/>
+      <c r="P12" s="163"/>
       <c r="Q12" s="163"/>
       <c r="R12" s="163"/>
       <c r="S12" s="163"/>
       <c r="T12" s="163"/>
     </row>
     <row r="13" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L13" s="163" t="s">
-        <v>74</v>
-      </c>
+      <c r="L13" s="163"/>
       <c r="M13" s="163"/>
-      <c r="N13" s="163" t="s">
-        <v>284</v>
-      </c>
-      <c r="O13" s="163" t="s">
-        <v>285</v>
-      </c>
-      <c r="P13" s="163" t="s">
-        <v>167</v>
-      </c>
+      <c r="N13" s="163"/>
+      <c r="O13" s="163"/>
+      <c r="P13" s="163"/>
       <c r="Q13" s="163"/>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
       <c r="T13" s="163"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L14" s="163" t="s">
-        <v>46</v>
-      </c>
+      <c r="L14" s="163"/>
       <c r="M14" s="163"/>
-      <c r="N14" s="163" t="s">
-        <v>173</v>
-      </c>
-      <c r="O14" s="163" t="s">
-        <v>293</v>
-      </c>
-      <c r="P14" s="163" t="s">
-        <v>167</v>
-      </c>
+      <c r="N14" s="163"/>
+      <c r="O14" s="163"/>
+      <c r="P14" s="163"/>
       <c r="Q14" s="66"/>
       <c r="R14" s="66"/>
       <c r="S14" s="66"/>
@@ -8386,66 +8251,32 @@
       <c r="J31" s="121">
         <v>8.76</v>
       </c>
-      <c r="L31" s="162" t="s">
-        <v>50</v>
-      </c>
+      <c r="L31" s="162"/>
       <c r="M31" s="162"/>
-      <c r="N31" s="163" t="str">
-        <f>$L$31&amp;$C$7</f>
-        <v>MINBIO</v>
-      </c>
-      <c r="O31" s="164" t="str">
-        <f>"Domestic Supply of "&amp;$D$7&amp;" "</f>
-        <v xml:space="preserve">Domestic Supply of Biomass </v>
-      </c>
-      <c r="P31" s="162" t="s">
-        <v>167</v>
-      </c>
+      <c r="N31" s="163"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="162"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="66" t="str">
-        <f t="shared" ref="B32:B36" si="2">N9</f>
-        <v>WINDELC</v>
-      </c>
+      <c r="B32" s="66"/>
       <c r="C32" s="70"/>
-      <c r="D32" s="160" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2022</v>
-      </c>
+      <c r="D32" s="160"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="H32" s="49"/>
       <c r="I32" s="92"/>
       <c r="J32" s="121"/>
-      <c r="L32" s="162" t="s">
-        <v>50</v>
-      </c>
+      <c r="L32" s="162"/>
       <c r="M32" s="162"/>
-      <c r="N32" s="163" t="str">
-        <f>$L$32&amp;$C$8</f>
-        <v>MINGAS</v>
-      </c>
-      <c r="O32" s="164" t="str">
-        <f>"Domestic Supply of "&amp;$D$8&amp;" "</f>
-        <v xml:space="preserve">Domestic Supply of Ngas </v>
-      </c>
-      <c r="P32" s="162" t="s">
-        <v>167</v>
-      </c>
+      <c r="N32" s="163"/>
+      <c r="O32" s="164"/>
+      <c r="P32" s="162"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="66" t="str">
-        <f t="shared" si="2"/>
-        <v>SOLELC</v>
-      </c>
+      <c r="B33" s="66"/>
       <c r="C33" s="70"/>
-      <c r="D33" s="160" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2022</v>
-      </c>
+      <c r="D33" s="160"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="H33" s="49"/>
       <c r="I33" s="92"/>
@@ -8454,17 +8285,10 @@
       <c r="O33" s="72"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="66" t="str">
-        <f t="shared" si="2"/>
-        <v>SOLTHT</v>
-      </c>
+      <c r="B34" s="66"/>
       <c r="C34" s="70"/>
-      <c r="D34" s="160" t="s">
-        <v>178</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2022</v>
-      </c>
+      <c r="D34" s="160"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="H34" s="49"/>
       <c r="I34" s="92"/>
@@ -8473,18 +8297,10 @@
       <c r="O34" s="72"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="66" t="str">
-        <f>N12</f>
-        <v>MANBIOMIN</v>
-      </c>
+      <c r="B35" s="66"/>
       <c r="C35" s="70"/>
-      <c r="D35" s="160" t="str">
-        <f>N12</f>
-        <v>MANBIOMIN</v>
-      </c>
-      <c r="E35" s="1">
-        <v>2022</v>
-      </c>
+      <c r="D35" s="160"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="H35" s="49"/>
       <c r="I35" s="92"/>
@@ -8493,18 +8309,10 @@
       <c r="O35" s="72"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="66" t="str">
-        <f t="shared" si="2"/>
-        <v>MANGASMIN</v>
-      </c>
+      <c r="B36" s="66"/>
       <c r="C36" s="70"/>
-      <c r="D36" s="160" t="str">
-        <f>N13</f>
-        <v>MANGASMIN</v>
-      </c>
-      <c r="E36" s="1">
-        <v>2022</v>
-      </c>
+      <c r="D36" s="160"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="H36" s="49"/>
       <c r="I36" s="92"/>
@@ -8709,10 +8517,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
-  <dimension ref="B1:V39"/>
+  <dimension ref="B1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8928,10 +8736,10 @@
       </c>
       <c r="O7" s="95"/>
       <c r="P7" s="171" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="Q7" s="171" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="R7" s="95" t="s">
         <v>167</v>
@@ -9209,7 +9017,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="E17" s="113">
-        <f>EBF!D5/(DemTechs_INDF!G17*DemTechs_INDF!F38)*1000</f>
+        <f>EBF!D5/(DemTechs_INDF!G17*DemTechs_INDF!F30)*1000</f>
         <v>937.81659640348698</v>
       </c>
       <c r="F17" s="110">
@@ -9264,7 +9072,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="E18" s="113">
-        <f>EBF!D6/(DemTechs_INDF!G18*DemTechs_INDF!F38)*1000</f>
+        <f>EBF!D6/(DemTechs_INDF!G18*DemTechs_INDF!F30)*1000</f>
         <v>655.38846855579084</v>
       </c>
       <c r="F18" s="110">
@@ -9319,7 +9127,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="E19" s="113">
-        <f>EBF!E18/(DemTechs_INDF!G19*DemTechs_INDF!F38)*1000</f>
+        <f>EBF!E18/(DemTechs_INDF!G19*DemTechs_INDF!F30)*1000</f>
         <v>396.51753552657539</v>
       </c>
       <c r="F19" s="110">
@@ -9372,7 +9180,7 @@
         <v>MANELC</v>
       </c>
       <c r="E20" s="167">
-        <f>EBF!K18/(DemTechs_INDF!G20*DemTechs_INDF!F38)*1000</f>
+        <f>EBF!K18/(DemTechs_INDF!G20*DemTechs_INDF!F30)*1000</f>
         <v>1500.3320739839382</v>
       </c>
       <c r="F20" s="168">
@@ -9390,15 +9198,6 @@
       <c r="J20" s="165">
         <v>0</v>
       </c>
-      <c r="N20" s="165" t="s">
-        <v>115</v>
-      </c>
-      <c r="P20" s="165" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q20" s="165" t="s">
-        <v>290</v>
-      </c>
       <c r="R20" s="99" t="s">
         <v>167</v>
       </c>
@@ -9409,415 +9208,148 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="99" t="str">
-        <f>P19</f>
-        <v>ELC</v>
-      </c>
-      <c r="C21" s="99" t="str">
-        <f>PRI_Sector_Fuels!N9</f>
-        <v>WINDELC</v>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="170" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="95">
+        <f>PRI_Sector_Fuels!N14</f>
+        <v>0</v>
       </c>
       <c r="D21" s="166" t="str">
-        <f t="shared" ref="D21:D22" si="0">P$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="E21" s="167">
-        <v>0</v>
-      </c>
-      <c r="F21" s="168">
-        <v>1</v>
-      </c>
-      <c r="G21" s="165">
-        <v>1</v>
-      </c>
-      <c r="H21" s="165">
-        <v>1</v>
-      </c>
-      <c r="I21" s="165">
-        <v>50</v>
-      </c>
-      <c r="J21" s="165">
-        <v>0</v>
-      </c>
-      <c r="N21" s="165" t="s">
+        <f>P$7</f>
+        <v>MANDRIVE</v>
+      </c>
+      <c r="E21" s="167"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F22" s="114"/>
+      <c r="N22" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="P21" s="165" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q21" s="165" t="s">
-        <v>292</v>
-      </c>
-      <c r="R21" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="S21" s="99" t="s">
+      <c r="P22" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="R22" s="95" t="str">
+        <f t="shared" ref="R22" si="0">$E$2</f>
+        <v>GWh</v>
+      </c>
+      <c r="S22" s="95" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="99" t="str">
-        <f>P19</f>
-        <v>ELC</v>
-      </c>
-      <c r="C22" s="99" t="str">
-        <f>PRI_Sector_Fuels!N10</f>
-        <v>SOLELC</v>
-      </c>
-      <c r="D22" s="166" t="str">
-        <f t="shared" si="0"/>
-        <v>MANELC</v>
-      </c>
-      <c r="E22" s="167">
-        <v>0</v>
-      </c>
-      <c r="F22" s="168">
-        <v>1</v>
-      </c>
-      <c r="G22" s="165">
-        <v>1</v>
-      </c>
-      <c r="H22" s="165">
-        <v>1</v>
-      </c>
-      <c r="I22" s="165">
-        <v>50</v>
-      </c>
-      <c r="J22" s="165">
-        <v>0</v>
-      </c>
-      <c r="P22" s="95"/>
-    </row>
-    <row r="23" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="99" t="str">
-        <f>P20</f>
-        <v>CSP</v>
-      </c>
-      <c r="C23" s="99" t="str">
-        <f>PRI_Sector_Fuels!N11</f>
-        <v>SOLTHT</v>
-      </c>
-      <c r="D23" s="166" t="str">
-        <f>P$5</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="E23" s="167">
-        <v>0</v>
-      </c>
-      <c r="F23" s="168">
-        <v>1</v>
-      </c>
-      <c r="G23" s="165">
-        <v>1</v>
-      </c>
-      <c r="H23" s="165">
-        <v>1</v>
-      </c>
-      <c r="I23" s="165">
-        <v>50</v>
-      </c>
-      <c r="J23" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="99" t="str">
-        <f>P17</f>
-        <v>Kiln</v>
-      </c>
-      <c r="C24" s="99" t="str">
-        <f>PRI_Sector_Fuels!N$12</f>
-        <v>MANBIOMIN</v>
-      </c>
-      <c r="D24" s="166" t="str">
-        <f t="shared" ref="D24:D28" si="1">P$5</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="E24" s="167">
-        <v>0</v>
-      </c>
-      <c r="F24" s="168">
-        <v>1</v>
-      </c>
-      <c r="G24" s="165">
-        <v>1</v>
-      </c>
-      <c r="H24" s="165">
-        <v>1</v>
-      </c>
-      <c r="I24" s="165">
-        <v>50</v>
-      </c>
-      <c r="J24" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="99" t="str">
-        <f>P18</f>
-        <v>Boiler</v>
-      </c>
-      <c r="C25" s="99" t="str">
-        <f>PRI_Sector_Fuels!N$12</f>
-        <v>MANBIOMIN</v>
-      </c>
-      <c r="D25" s="166" t="str">
-        <f t="shared" si="1"/>
-        <v>MANHEAT</v>
-      </c>
-      <c r="E25" s="167">
-        <v>0</v>
-      </c>
-      <c r="F25" s="168">
-        <v>1</v>
-      </c>
-      <c r="G25" s="165">
-        <v>1</v>
-      </c>
-      <c r="H25" s="165">
-        <v>1</v>
-      </c>
-      <c r="I25" s="165">
-        <v>50</v>
-      </c>
-      <c r="J25" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="99" t="str">
-        <f>P21</f>
-        <v>Furnace</v>
-      </c>
-      <c r="C26" s="166" t="str">
-        <f>PRI_Sector_Fuels!N14</f>
-        <v>MANELC</v>
-      </c>
-      <c r="D26" s="166" t="str">
-        <f t="shared" si="1"/>
-        <v>MANHEAT</v>
-      </c>
-      <c r="E26" s="167">
-        <v>0</v>
-      </c>
-      <c r="F26" s="168">
-        <v>1</v>
-      </c>
-      <c r="G26" s="165">
-        <v>1</v>
-      </c>
-      <c r="H26" s="165">
-        <v>1</v>
-      </c>
-      <c r="I26" s="165">
-        <v>50</v>
-      </c>
-      <c r="J26" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" s="118" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="170" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="95" t="str">
-        <f>PRI_Sector_Fuels!N14</f>
-        <v>MANELC</v>
-      </c>
-      <c r="D27" s="166" t="str">
-        <f t="shared" si="1"/>
-        <v>MANHEAT</v>
-      </c>
-      <c r="E27" s="167">
-        <v>0</v>
-      </c>
-      <c r="F27" s="168">
-        <v>1</v>
-      </c>
-      <c r="G27" s="165">
-        <v>1</v>
-      </c>
-      <c r="H27" s="165">
-        <v>1</v>
-      </c>
-      <c r="I27" s="165">
-        <v>50</v>
-      </c>
-      <c r="J27" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="170" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="95" t="str">
-        <f>PRI_Sector_Fuels!N13</f>
-        <v>MANGASMIN</v>
-      </c>
-      <c r="D28" s="166" t="str">
-        <f t="shared" si="1"/>
-        <v>MANHEAT</v>
-      </c>
-      <c r="E28" s="167">
-        <v>0</v>
-      </c>
-      <c r="F28" s="168">
-        <v>1</v>
-      </c>
-      <c r="G28" s="165">
-        <v>1</v>
-      </c>
-      <c r="H28" s="165">
-        <v>1</v>
-      </c>
-      <c r="I28" s="165">
-        <v>50</v>
-      </c>
-      <c r="J28" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="170" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="95" t="str">
-        <f>PRI_Sector_Fuels!N14</f>
-        <v>MANELC</v>
-      </c>
-      <c r="D29" s="166"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F30" s="114"/>
-      <c r="N30" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="P30" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q30" s="93" t="s">
-        <v>267</v>
-      </c>
-      <c r="R30" s="95" t="str">
-        <f t="shared" ref="R30" si="2">$E$2</f>
-        <v>GWh</v>
-      </c>
-      <c r="S30" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="T30" s="159" t="s">
+      <c r="T22" s="159" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="93" t="s">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="93" t="s">
         <v>251</v>
       </c>
-      <c r="C31" s="93" t="str">
+      <c r="C23" s="93" t="str">
         <f>PRI_Sector_Fuels!N20</f>
         <v>CONMDRIVE</v>
       </c>
-      <c r="D31" s="93" t="str">
+      <c r="D23" s="93" t="str">
         <f>PRI_Sector_Fuels!N20</f>
         <v>CONMDRIVE</v>
       </c>
-      <c r="F31" s="114">
+      <c r="F23" s="114">
         <v>1</v>
       </c>
-      <c r="G31" s="93">
+      <c r="G23" s="93">
         <v>1</v>
       </c>
-      <c r="N31" s="93" t="s">
+      <c r="N23" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="O31" s="118"/>
-      <c r="P31" s="93" t="s">
+      <c r="O23" s="118"/>
+      <c r="P23" s="93" t="s">
         <v>251</v>
       </c>
-      <c r="Q31" s="118" t="s">
+      <c r="Q23" s="118" t="s">
         <v>252</v>
       </c>
-      <c r="R31" s="119" t="s">
+      <c r="R23" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="S31" s="119" t="s">
+      <c r="S23" s="119" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="93" t="s">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="93" t="str">
+      <c r="C24" s="93" t="str">
         <f>PRI_Sector_Fuels!N21</f>
         <v>CONELC</v>
       </c>
-      <c r="D32" s="93" t="str">
+      <c r="D24" s="93" t="str">
         <f>PRI_Sector_Fuels!N21</f>
         <v>CONELC</v>
       </c>
-      <c r="F32" s="114">
+      <c r="F24" s="114">
         <v>1</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G24" s="21">
         <v>1</v>
       </c>
-      <c r="H32" s="115"/>
-      <c r="N32" s="93" t="s">
+      <c r="H24" s="115"/>
+      <c r="N24" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="P32" s="93" t="s">
+      <c r="P24" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="Q32" s="93" t="s">
+      <c r="Q24" s="93" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="115"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="112"/>
-      <c r="C34" s="93" t="s">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="H25" s="115"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="112"/>
+      <c r="C26" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="115"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="116"/>
-      <c r="C35" s="93" t="s">
+      <c r="H26" s="115"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="116"/>
+      <c r="C27" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="115"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="93" t="s">
+      <c r="H27" s="115"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E28" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="F36" s="93" t="s">
+      <c r="F28" s="93" t="s">
         <v>246</v>
       </c>
-      <c r="H36" s="115"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="93" t="s">
+      <c r="H28" s="115"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E30" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="F38" s="93">
+      <c r="F30" s="93">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E39" s="21"/>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E31" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2A082C-E175-4CB6-AF2A-92A4DEC69B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7505C0-E4BD-407C-B20B-FB56CED6138C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -7399,7 +7399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
@@ -8519,8 +8519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9212,9 +9212,9 @@
       <c r="B21" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="95">
-        <f>PRI_Sector_Fuels!N14</f>
-        <v>0</v>
+      <c r="C21" s="95" t="str">
+        <f>P6</f>
+        <v>MANELC</v>
       </c>
       <c r="D21" s="166" t="str">
         <f>P$7</f>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7505C0-E4BD-407C-B20B-FB56CED6138C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75696A4-1D84-4299-AFD0-7DE0199A00DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="292">
   <si>
     <t>CommName</t>
   </si>
@@ -2399,6 +2399,45 @@
   </si>
   <si>
     <t>Manufacturing non-process electricity supply</t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>Ngas</t>
+  </si>
+  <si>
+    <t>WINDELC</t>
+  </si>
+  <si>
+    <t>Wind Electricity</t>
+  </si>
+  <si>
+    <t>SOLELC</t>
+  </si>
+  <si>
+    <t>Solar Electricity</t>
+  </si>
+  <si>
+    <t>SOLTHT</t>
+  </si>
+  <si>
+    <t>Solar thermal</t>
+  </si>
+  <si>
+    <t>MANBIOMIN</t>
+  </si>
+  <si>
+    <t>MANGASMIN</t>
+  </si>
+  <si>
+    <t>NGAS</t>
+  </si>
+  <si>
+    <t>Total manufacturing electricity supply</t>
   </si>
 </sst>
 </file>
@@ -7463,8 +7502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7591,7 +7630,7 @@
         <v>167</v>
       </c>
       <c r="G4" s="7" t="str">
-        <f>EBF!P2</f>
+        <f>EBF!P$2</f>
         <v>TH$2022</v>
       </c>
       <c r="L4" s="69" t="s">
@@ -7623,11 +7662,20 @@
       </c>
     </row>
     <row r="5" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="81"/>
+      <c r="C5" s="162" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="162" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>167</v>
+      </c>
       <c r="F5" s="162"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="str">
+        <f>EBF!P$2</f>
+        <v>TH$2022</v>
+      </c>
       <c r="L5" s="66" t="s">
         <v>74</v>
       </c>
@@ -7649,11 +7697,20 @@
       <c r="T5" s="66"/>
     </row>
     <row r="6" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="81"/>
+      <c r="C6" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>167</v>
+      </c>
       <c r="F6" s="162"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="str">
+        <f>EBF!P$2</f>
+        <v>TH$2022</v>
+      </c>
       <c r="L6" s="66" t="s">
         <v>74</v>
       </c>
@@ -7675,11 +7732,20 @@
       <c r="T6" s="66"/>
     </row>
     <row r="7" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="81"/>
+      <c r="C7" s="162" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="162" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>167</v>
+      </c>
       <c r="F7" s="162"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="str">
+        <f>EBF!P$2</f>
+        <v>TH$2022</v>
+      </c>
       <c r="L7" s="66" t="s">
         <v>74</v>
       </c>
@@ -7701,11 +7767,20 @@
       <c r="T7" s="66"/>
     </row>
     <row r="8" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="81"/>
+      <c r="C8" s="162" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="162" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>167</v>
+      </c>
       <c r="F8" s="162"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="str">
+        <f>EBF!P$2</f>
+        <v>TH$2022</v>
+      </c>
       <c r="L8" s="66" t="s">
         <v>74</v>
       </c>
@@ -7727,67 +7802,127 @@
       <c r="T8" s="66"/>
     </row>
     <row r="9" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L9" s="163"/>
+      <c r="L9" s="163" t="s">
+        <v>74</v>
+      </c>
       <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163"/>
+      <c r="N9" s="163" t="s">
+        <v>282</v>
+      </c>
+      <c r="O9" s="163" t="s">
+        <v>283</v>
+      </c>
+      <c r="P9" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q9" s="66" t="s">
+        <v>180</v>
+      </c>
       <c r="R9" s="163"/>
       <c r="S9" s="163"/>
       <c r="T9" s="163"/>
     </row>
     <row r="10" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L10" s="163"/>
+      <c r="L10" s="163" t="s">
+        <v>74</v>
+      </c>
       <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163"/>
+      <c r="N10" s="163" t="s">
+        <v>284</v>
+      </c>
+      <c r="O10" s="163" t="s">
+        <v>285</v>
+      </c>
+      <c r="P10" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q10" s="66" t="s">
+        <v>180</v>
+      </c>
       <c r="R10" s="163"/>
       <c r="S10" s="163"/>
       <c r="T10" s="163"/>
     </row>
     <row r="11" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L11" s="163"/>
+      <c r="L11" s="163" t="s">
+        <v>74</v>
+      </c>
       <c r="M11" s="163"/>
-      <c r="N11" s="163"/>
-      <c r="O11" s="163"/>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="163"/>
+      <c r="N11" s="163" t="s">
+        <v>286</v>
+      </c>
+      <c r="O11" s="163" t="s">
+        <v>287</v>
+      </c>
+      <c r="P11" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q11" s="66" t="s">
+        <v>180</v>
+      </c>
       <c r="R11" s="163"/>
       <c r="S11" s="163"/>
       <c r="T11" s="163"/>
     </row>
     <row r="12" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L12" s="163"/>
+      <c r="L12" s="163" t="s">
+        <v>74</v>
+      </c>
       <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="163"/>
-      <c r="P12" s="163"/>
-      <c r="Q12" s="163"/>
+      <c r="N12" s="163" t="s">
+        <v>288</v>
+      </c>
+      <c r="O12" s="163" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q12" s="66" t="s">
+        <v>180</v>
+      </c>
       <c r="R12" s="163"/>
       <c r="S12" s="163"/>
       <c r="T12" s="163"/>
     </row>
     <row r="13" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L13" s="163"/>
+      <c r="L13" s="163" t="s">
+        <v>74</v>
+      </c>
       <c r="M13" s="163"/>
-      <c r="N13" s="163"/>
-      <c r="O13" s="163"/>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="163"/>
+      <c r="N13" s="163" t="s">
+        <v>289</v>
+      </c>
+      <c r="O13" s="163" t="s">
+        <v>290</v>
+      </c>
+      <c r="P13" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q13" s="66" t="s">
+        <v>180</v>
+      </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
       <c r="T13" s="163"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L14" s="163"/>
+      <c r="L14" s="163" t="s">
+        <v>46</v>
+      </c>
       <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="163"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="66"/>
+      <c r="N14" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="O14" s="163" t="s">
+        <v>291</v>
+      </c>
+      <c r="P14" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q14" s="66" t="s">
+        <v>180</v>
+      </c>
       <c r="R14" s="66"/>
       <c r="S14" s="66"/>
       <c r="T14" s="66"/>
@@ -8519,7 +8654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75696A4-1D84-4299-AFD0-7DE0199A00DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C966E9-3390-4761-A1BD-B4510A93DC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -351,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I25" authorId="2" shapeId="0" xr:uid="{CC8E5D4E-1B3A-43C8-A112-A6697F95B4CC}">
+    <comment ref="I26" authorId="2" shapeId="0" xr:uid="{CC8E5D4E-1B3A-43C8-A112-A6697F95B4CC}">
       <text>
         <r>
           <rPr>
@@ -398,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R25" authorId="2" shapeId="0" xr:uid="{B82C1148-4753-4923-93C2-C67B5D40F340}">
+    <comment ref="R26" authorId="2" shapeId="0" xr:uid="{B82C1148-4753-4923-93C2-C67B5D40F340}">
       <text>
         <r>
           <rPr>
@@ -491,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S25" authorId="1" shapeId="0" xr:uid="{968CFA1B-C5E9-492D-A0A2-485C997CC98A}">
+    <comment ref="S26" authorId="1" shapeId="0" xr:uid="{968CFA1B-C5E9-492D-A0A2-485C997CC98A}">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T25" authorId="2" shapeId="0" xr:uid="{A0615139-A259-4F4D-937C-E8C54FC43716}">
+    <comment ref="T26" authorId="2" shapeId="0" xr:uid="{A0615139-A259-4F4D-937C-E8C54FC43716}">
       <text>
         <r>
           <rPr>
@@ -579,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L26" authorId="2" shapeId="0" xr:uid="{028E65FC-6C67-4206-97D8-90E7E85C9E5E}">
+    <comment ref="L27" authorId="2" shapeId="0" xr:uid="{028E65FC-6C67-4206-97D8-90E7E85C9E5E}">
       <text>
         <r>
           <rPr>
@@ -4191,13 +4191,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>133299</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7500,10 +7500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8:Q14"/>
+    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7801,26 +7801,21 @@
       <c r="S8" s="66"/>
       <c r="T8" s="66"/>
     </row>
-    <row r="9" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L9" s="163" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163" t="s">
-        <v>282</v>
-      </c>
-      <c r="O9" s="163" t="s">
-        <v>283</v>
-      </c>
-      <c r="P9" s="163" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q9" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="R9" s="163"/>
-      <c r="S9" s="163"/>
-      <c r="T9" s="163"/>
+    <row r="9" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="7"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="160"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
     </row>
     <row r="10" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L10" s="163" t="s">
@@ -7828,10 +7823,10 @@
       </c>
       <c r="M10" s="163"/>
       <c r="N10" s="163" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O10" s="163" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P10" s="163" t="s">
         <v>167</v>
@@ -7849,10 +7844,10 @@
       </c>
       <c r="M11" s="163"/>
       <c r="N11" s="163" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O11" s="163" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P11" s="163" t="s">
         <v>167</v>
@@ -7870,10 +7865,10 @@
       </c>
       <c r="M12" s="163"/>
       <c r="N12" s="163" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O12" s="163" t="s">
-        <v>124</v>
+        <v>287</v>
       </c>
       <c r="P12" s="163" t="s">
         <v>167</v>
@@ -7891,10 +7886,10 @@
       </c>
       <c r="M13" s="163"/>
       <c r="N13" s="163" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O13" s="163" t="s">
-        <v>290</v>
+        <v>124</v>
       </c>
       <c r="P13" s="163" t="s">
         <v>167</v>
@@ -7906,16 +7901,16 @@
       <c r="S13" s="163"/>
       <c r="T13" s="163"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L14" s="163" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="M14" s="163"/>
       <c r="N14" s="163" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="O14" s="163" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P14" s="163" t="s">
         <v>167</v>
@@ -7923,41 +7918,41 @@
       <c r="Q14" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="163"/>
+      <c r="T14" s="163"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L15" s="160"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="66"/>
+      <c r="L15" s="163" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="O15" s="163" t="s">
+        <v>291</v>
+      </c>
+      <c r="P15" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q15" s="66" t="s">
+        <v>180</v>
+      </c>
       <c r="R15" s="66"/>
       <c r="S15" s="66"/>
       <c r="T15" s="66"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L17" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" s="70"/>
-      <c r="N17" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="O17" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="P17" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q17" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L16" s="160"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L18" s="66" t="s">
@@ -7965,10 +7960,10 @@
       </c>
       <c r="M18" s="70"/>
       <c r="N18" s="66" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O18" s="66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P18" s="66" t="s">
         <v>167</v>
@@ -7982,14 +7977,14 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L19" s="66" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M19" s="70"/>
       <c r="N19" s="66" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="O19" s="66" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P19" s="66" t="s">
         <v>167</v>
@@ -8003,14 +7998,14 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L20" s="66" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M20" s="70"/>
       <c r="N20" s="66" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="O20" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P20" s="66" t="s">
         <v>167</v>
@@ -8028,10 +8023,10 @@
       </c>
       <c r="M21" s="70"/>
       <c r="N21" s="66" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="O21" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P21" s="66" t="s">
         <v>167</v>
@@ -8044,272 +8039,245 @@
       <c r="T21" s="66"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L22" s="66"/>
+      <c r="L22" s="66" t="s">
+        <v>82</v>
+      </c>
       <c r="M22" s="70"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
+      <c r="N22" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="O22" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="P22" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q22" s="66" t="s">
+        <v>180</v>
+      </c>
       <c r="R22" s="66"/>
       <c r="S22" s="66"/>
       <c r="T22" s="66"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F24" s="3" t="s">
+      <c r="L24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="L24" s="65" t="s">
+      <c r="H25" s="3"/>
+      <c r="L25" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M24" s="65"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="M25" s="65"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G26" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="64" t="s">
+      <c r="H26" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="64" t="s">
+      <c r="I26" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="J25" s="78" t="s">
+      <c r="J26" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="L25" s="67" t="s">
+      <c r="L26" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="M25" s="68" t="s">
+      <c r="M26" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="67" t="s">
+      <c r="N26" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="O25" s="67" t="s">
+      <c r="O26" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="P25" s="67" t="s">
+      <c r="P26" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="Q25" s="67" t="s">
+      <c r="Q26" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="R25" s="67" t="s">
+      <c r="R26" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="S25" s="67" t="s">
+      <c r="S26" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="T25" s="67" t="s">
+      <c r="T26" s="67" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="L26" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="M26" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q26" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="S26" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="T26" s="69" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="L27" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="S27" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="T27" s="69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8" t="str">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="I27" s="8" t="str">
+      <c r="I28" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="J27" s="80"/>
-      <c r="L27" s="69" t="s">
+      <c r="J28" s="80"/>
+      <c r="L28" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="66" t="str">
-        <f>N28</f>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="66" t="str">
+        <f>N29</f>
         <v>MINCOA</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="66" t="str">
+      <c r="C29" s="1"/>
+      <c r="D29" s="66" t="str">
         <f>N5</f>
         <v>MANCOALMIN</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>2022</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G29" s="48">
         <v>2673000</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H29" s="49">
         <v>4.5449999999999999</v>
       </c>
-      <c r="I28" s="91">
+      <c r="I29" s="91">
         <f>EBF!D5</f>
         <v>4518.4003614720004</v>
       </c>
-      <c r="J28" s="121">
+      <c r="J29" s="121">
         <v>8.76</v>
       </c>
-      <c r="L28" s="66" t="str">
+      <c r="L29" s="66" t="str">
         <f>EBF!$B$5</f>
         <v>MIN</v>
-      </c>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70" t="str">
-        <f>$L$28&amp;$C$2</f>
-        <v>MINCOA</v>
-      </c>
-      <c r="O28" s="72" t="str">
-        <f>"Domestic Supply of "&amp;$D$2&amp;" "</f>
-        <v xml:space="preserve">Domestic Supply of Coal </v>
-      </c>
-      <c r="P28" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="70"/>
-      <c r="S28" s="70"/>
-      <c r="T28" s="70"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="66" t="str">
-        <f t="shared" ref="B29:B30" si="0">N29</f>
-        <v>IMPCOA</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="66" t="str">
-        <f>N6</f>
-        <v>MANCOALIMP</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="62"/>
-      <c r="H29" s="63">
-        <v>21.004999999999999</v>
-      </c>
-      <c r="I29" s="92">
-        <f>EBF!D6</f>
-        <v>3157.6616415018002</v>
-      </c>
-      <c r="J29" s="121">
-        <v>8.76</v>
-      </c>
-      <c r="L29" s="70" t="str">
-        <f>EBF!$B$6</f>
-        <v>IMP</v>
       </c>
       <c r="M29" s="70"/>
       <c r="N29" s="70" t="str">
         <f>$L$29&amp;$C$2</f>
-        <v>IMPCOA</v>
+        <v>MINCOA</v>
       </c>
       <c r="O29" s="72" t="str">
-        <f>"Import of "&amp;$D$2&amp;" "</f>
-        <v xml:space="preserve">Import of Coal </v>
+        <f>"Domestic Supply of "&amp;$D$2&amp;" "</f>
+        <v xml:space="preserve">Domestic Supply of Coal </v>
       </c>
       <c r="P29" s="70" t="s">
         <v>167</v>
@@ -8321,86 +8289,119 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="66" t="str">
+        <f t="shared" ref="B30:B31" si="0">N30</f>
+        <v>IMPCOA</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="66" t="str">
+        <f>N6</f>
+        <v>MANCOALIMP</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="62"/>
+      <c r="H30" s="63">
+        <v>21.004999999999999</v>
+      </c>
+      <c r="I30" s="92">
+        <f>EBF!D6</f>
+        <v>3157.6616415018002</v>
+      </c>
+      <c r="J30" s="121">
+        <v>8.76</v>
+      </c>
+      <c r="L30" s="70" t="str">
+        <f>EBF!$B$6</f>
+        <v>IMP</v>
+      </c>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70" t="str">
+        <f>$L$30&amp;$C$2</f>
+        <v>IMPCOA</v>
+      </c>
+      <c r="O30" s="72" t="str">
+        <f>"Import of "&amp;$D$2&amp;" "</f>
+        <v xml:space="preserve">Import of Coal </v>
+      </c>
+      <c r="P30" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="66" t="str">
         <f t="shared" si="0"/>
         <v>IMPOIL</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="66" t="str">
-        <f t="shared" ref="D30" si="1">N7</f>
+      <c r="C31" s="1"/>
+      <c r="D31" s="66" t="str">
+        <f t="shared" ref="D31" si="1">N7</f>
         <v>MANOILIMP</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <v>2022</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H31" s="49">
         <v>29.234999999999999</v>
       </c>
-      <c r="I30" s="92">
+      <c r="I31" s="92">
         <f>EBF!E18</f>
         <v>2605.1202084096003</v>
       </c>
-      <c r="J30" s="121">
+      <c r="J31" s="121">
         <v>8.76</v>
       </c>
-      <c r="L30" t="str">
+      <c r="L31" t="str">
         <f>EBF!B6</f>
         <v>IMP</v>
       </c>
-      <c r="N30" s="70" t="str">
-        <f>$L$30&amp;$C$3</f>
+      <c r="N31" s="70" t="str">
+        <f>$L$31&amp;$C$3</f>
         <v>IMPOIL</v>
       </c>
-      <c r="O30" s="72" t="str">
+      <c r="O31" s="72" t="str">
         <f>"Import of "&amp;$D$3&amp;" "</f>
         <v xml:space="preserve">Import of Oil </v>
       </c>
-      <c r="P30" t="s">
+      <c r="P31" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="66" t="str">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="66" t="str">
         <f>N8</f>
         <v>GRIDELC</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="160" t="s">
+      <c r="C32" s="70"/>
+      <c r="D32" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E32" s="1">
         <v>2022</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H32" s="49">
         <v>100</v>
       </c>
-      <c r="I31" s="92">
+      <c r="I32" s="92">
         <f>EBF!J18</f>
         <v>2861.5612011470998</v>
       </c>
-      <c r="J31" s="121">
+      <c r="J32" s="121">
         <v>8.76</v>
       </c>
-      <c r="L31" s="162"/>
-      <c r="M31" s="162"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="164"/>
-      <c r="P31" s="162"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="66"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="121"/>
       <c r="L32" s="162"/>
       <c r="M32" s="162"/>
       <c r="N32" s="163"/>
@@ -8416,8 +8417,11 @@
       <c r="H33" s="49"/>
       <c r="I33" s="92"/>
       <c r="J33" s="121"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="72"/>
+      <c r="L33" s="162"/>
+      <c r="M33" s="162"/>
+      <c r="N33" s="163"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="162"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="66"/>
@@ -8517,7 +8521,8 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="66"/>
-      <c r="D42" s="66"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="160"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="H42" s="49"/>
@@ -8534,53 +8539,38 @@
       <c r="H43" s="49"/>
       <c r="I43" s="92"/>
       <c r="J43" s="121"/>
-      <c r="L43" t="s">
+      <c r="N43" s="70"/>
+      <c r="O43" s="72"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="121"/>
+      <c r="L44" t="s">
         <v>46</v>
       </c>
-      <c r="N43" s="70" t="s">
+      <c r="N44" s="70" t="s">
         <v>276</v>
       </c>
-      <c r="O43" s="72" t="s">
+      <c r="O44" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P44" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="66" t="str">
-        <f>N30</f>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="66" t="str">
+        <f>N31</f>
         <v>IMPOIL</v>
-      </c>
-      <c r="D44" s="66" t="str">
-        <f>N20</f>
-        <v>CONMDRIVE</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="H44" s="49">
-        <f>H30</f>
-        <v>29.234999999999999</v>
-      </c>
-      <c r="I44" s="92">
-        <f>EBF!E19</f>
-        <v>8781.4640358504003</v>
-      </c>
-      <c r="J44" s="121">
-        <v>8.76</v>
-      </c>
-      <c r="N44" s="70"/>
-      <c r="O44" s="72"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="66" t="s">
-        <v>265</v>
       </c>
       <c r="D45" s="66" t="str">
         <f>N21</f>
-        <v>CONELC</v>
+        <v>CONMDRIVE</v>
       </c>
       <c r="E45" s="1">
         <v>2022</v>
@@ -8588,58 +8578,84 @@
       <c r="F45" s="1"/>
       <c r="H45" s="49">
         <f>H31</f>
+        <v>29.234999999999999</v>
+      </c>
+      <c r="I45" s="92">
+        <f>EBF!E19</f>
+        <v>8781.4640358504003</v>
+      </c>
+      <c r="J45" s="121">
+        <v>8.76</v>
+      </c>
+      <c r="N45" s="70"/>
+      <c r="O45" s="72"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="66" t="str">
+        <f>N22</f>
+        <v>CONELC</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="H46" s="49">
+        <f>H32</f>
         <v>100</v>
       </c>
-      <c r="I45" s="92">
+      <c r="I46" s="92">
         <f>EBF!J19</f>
         <v>150.60848427090019</v>
       </c>
-      <c r="J45" s="121">
+      <c r="J46" s="121">
         <v>8.76</v>
       </c>
-      <c r="N45" s="70"/>
-      <c r="O45" s="72"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="48"/>
-      <c r="C47" s="1" t="s">
+      <c r="N46" s="70"/>
+      <c r="O46" s="72"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="48"/>
+      <c r="C48" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="47"/>
-      <c r="C48" s="1" t="s">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B49" s="47"/>
+      <c r="C49" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U51" s="1"/>
+    <row r="51" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8654,7 +8670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -9389,11 +9405,11 @@
         <v>251</v>
       </c>
       <c r="C23" s="93" t="str">
-        <f>PRI_Sector_Fuels!N20</f>
+        <f>PRI_Sector_Fuels!N21</f>
         <v>CONMDRIVE</v>
       </c>
       <c r="D23" s="93" t="str">
-        <f>PRI_Sector_Fuels!N20</f>
+        <f>PRI_Sector_Fuels!N21</f>
         <v>CONMDRIVE</v>
       </c>
       <c r="F23" s="114">
@@ -9424,11 +9440,11 @@
         <v>85</v>
       </c>
       <c r="C24" s="93" t="str">
-        <f>PRI_Sector_Fuels!N21</f>
+        <f>PRI_Sector_Fuels!N22</f>
         <v>CONELC</v>
       </c>
       <c r="D24" s="93" t="str">
-        <f>PRI_Sector_Fuels!N21</f>
+        <f>PRI_Sector_Fuels!N22</f>
         <v>CONELC</v>
       </c>
       <c r="F24" s="114">
@@ -9498,7 +9514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C966E9-3390-4761-A1BD-B4510A93DC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DB16B1-7C7F-48A6-86F5-CCAD68ACAB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1133,7 +1133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T14" authorId="2" shapeId="0" xr:uid="{B8BF4189-7AEB-4804-8932-33CB73FCE7E5}">
+    <comment ref="T13" authorId="2" shapeId="0" xr:uid="{B8BF4189-7AEB-4804-8932-33CB73FCE7E5}">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U14" authorId="1" shapeId="0" xr:uid="{5D6B271C-ECB1-4F2A-B44A-CFC55CCC04E5}">
+    <comment ref="U13" authorId="1" shapeId="0" xr:uid="{5D6B271C-ECB1-4F2A-B44A-CFC55CCC04E5}">
       <text>
         <r>
           <rPr>
@@ -1251,7 +1251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V14" authorId="2" shapeId="0" xr:uid="{2D72E718-CBF9-42D3-993C-F0AD66976F32}">
+    <comment ref="V13" authorId="2" shapeId="0" xr:uid="{2D72E718-CBF9-42D3-993C-F0AD66976F32}">
       <text>
         <r>
           <rPr>
@@ -1314,7 +1314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N15" authorId="2" shapeId="0" xr:uid="{0B963EA5-F116-4DDE-B632-C6029837D6FB}">
+    <comment ref="N14" authorId="2" shapeId="0" xr:uid="{0B963EA5-F116-4DDE-B632-C6029837D6FB}">
       <text>
         <r>
           <rPr>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="291">
   <si>
     <t>CommName</t>
   </si>
@@ -2372,9 +2372,6 @@
   </si>
   <si>
     <t>Grid electricity</t>
-  </si>
-  <si>
-    <t>Manufacturing ElectricitySupply-ELC</t>
   </si>
   <si>
     <t>Electricity share</t>
@@ -4305,13 +4302,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7663,7 +7660,7 @@
     </row>
     <row r="5" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="162" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" s="162" t="s">
         <v>142</v>
@@ -7768,10 +7765,10 @@
     </row>
     <row r="8" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="162" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="162" t="s">
         <v>280</v>
-      </c>
-      <c r="D8" s="162" t="s">
-        <v>281</v>
       </c>
       <c r="E8" s="81" t="s">
         <v>167</v>
@@ -7789,7 +7786,7 @@
         <v>265</v>
       </c>
       <c r="O8" s="160" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P8" s="66" t="s">
         <v>167</v>
@@ -7823,10 +7820,10 @@
       </c>
       <c r="M10" s="163"/>
       <c r="N10" s="163" t="s">
+        <v>281</v>
+      </c>
+      <c r="O10" s="163" t="s">
         <v>282</v>
-      </c>
-      <c r="O10" s="163" t="s">
-        <v>283</v>
       </c>
       <c r="P10" s="163" t="s">
         <v>167</v>
@@ -7844,10 +7841,10 @@
       </c>
       <c r="M11" s="163"/>
       <c r="N11" s="163" t="s">
+        <v>283</v>
+      </c>
+      <c r="O11" s="163" t="s">
         <v>284</v>
-      </c>
-      <c r="O11" s="163" t="s">
-        <v>285</v>
       </c>
       <c r="P11" s="163" t="s">
         <v>167</v>
@@ -7865,10 +7862,10 @@
       </c>
       <c r="M12" s="163"/>
       <c r="N12" s="163" t="s">
+        <v>285</v>
+      </c>
+      <c r="O12" s="163" t="s">
         <v>286</v>
-      </c>
-      <c r="O12" s="163" t="s">
-        <v>287</v>
       </c>
       <c r="P12" s="163" t="s">
         <v>167</v>
@@ -7886,7 +7883,7 @@
       </c>
       <c r="M13" s="163"/>
       <c r="N13" s="163" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O13" s="163" t="s">
         <v>124</v>
@@ -7907,10 +7904,10 @@
       </c>
       <c r="M14" s="163"/>
       <c r="N14" s="163" t="s">
+        <v>288</v>
+      </c>
+      <c r="O14" s="163" t="s">
         <v>289</v>
-      </c>
-      <c r="O14" s="163" t="s">
-        <v>290</v>
       </c>
       <c r="P14" s="163" t="s">
         <v>167</v>
@@ -7931,7 +7928,7 @@
         <v>173</v>
       </c>
       <c r="O15" s="163" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P15" s="163" t="s">
         <v>167</v>
@@ -8554,7 +8551,7 @@
         <v>46</v>
       </c>
       <c r="N44" s="70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O44" s="72" t="s">
         <v>269</v>
@@ -8668,10 +8665,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
-  <dimension ref="B1:V31"/>
+  <dimension ref="B1:V30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8855,15 +8852,15 @@
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
-      <c r="N6" s="95" t="s">
+      <c r="N6" s="171" t="s">
         <v>82</v>
       </c>
       <c r="O6" s="95"/>
-      <c r="P6" s="95" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q6" s="95" t="s">
-        <v>270</v>
+      <c r="P6" s="171" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q6" s="171" t="s">
+        <v>277</v>
       </c>
       <c r="R6" s="95" t="s">
         <v>167</v>
@@ -8875,62 +8872,56 @@
       <c r="U6" s="95"/>
       <c r="V6" s="95"/>
     </row>
-    <row r="7" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="N7" s="171" t="s">
-        <v>82</v>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N7" s="95" t="s">
+        <v>155</v>
       </c>
       <c r="O7" s="95"/>
-      <c r="P7" s="171" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q7" s="171" t="s">
-        <v>278</v>
-      </c>
-      <c r="R7" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="S7" s="95" t="s">
-        <v>180</v>
-      </c>
+      <c r="P7" s="95" t="str">
+        <f>$B$2&amp;EBF!C65</f>
+        <v>MANCO2</v>
+      </c>
+      <c r="Q7" s="95" t="str">
+        <f>$C$2&amp;" "&amp;EBF!C65</f>
+        <v>Manufacturing CO2</v>
+      </c>
+      <c r="R7" s="95" t="str">
+        <f>EBF!R2</f>
+        <v>kt</v>
+      </c>
+      <c r="S7" s="95"/>
       <c r="T7" s="95"/>
       <c r="U7" s="95"/>
       <c r="V7" s="95"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N8" s="95" t="s">
-        <v>155</v>
-      </c>
+      <c r="N8" s="95"/>
       <c r="O8" s="95"/>
-      <c r="P8" s="95" t="str">
-        <f>$B$2&amp;EBF!C65</f>
-        <v>MANCO2</v>
-      </c>
-      <c r="Q8" s="95" t="str">
-        <f>$C$2&amp;" "&amp;EBF!C65</f>
-        <v>Manufacturing CO2</v>
-      </c>
-      <c r="R8" s="95" t="str">
-        <f>EBF!R2</f>
-        <v>kt</v>
-      </c>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
       <c r="S8" s="95"/>
       <c r="T8" s="95"/>
       <c r="U8" s="95"/>
       <c r="V8" s="95"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N9" s="95"/>
+      <c r="N9" s="95" t="s">
+        <v>82</v>
+      </c>
       <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
+      <c r="P9" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q9" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="R9" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="S9" s="95" t="s">
+        <v>180</v>
+      </c>
       <c r="T9" s="95"/>
       <c r="U9" s="95"/>
       <c r="V9" s="95"/>
@@ -8941,10 +8932,10 @@
       </c>
       <c r="O10" s="95"/>
       <c r="P10" s="95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="95" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R10" s="95" t="s">
         <v>167</v>
@@ -8956,223 +8947,257 @@
       <c r="U10" s="95"/>
       <c r="V10" s="95"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N11" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q11" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="R11" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="S11" s="95" t="s">
-        <v>180</v>
-      </c>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="94" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="94"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-    </row>
-    <row r="14" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
+      <c r="O12" s="94"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+    </row>
+    <row r="13" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C13" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D13" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E13" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="101" t="s">
+      <c r="F13" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="100" t="s">
+      <c r="G13" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="100" t="s">
+      <c r="H13" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="100" t="s">
+      <c r="I13" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="100" t="s">
+      <c r="J13" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="102" t="s">
+      <c r="K13" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="96" t="s">
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="97" t="s">
+      <c r="O13" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="96" t="s">
+      <c r="P13" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="Q14" s="96" t="s">
+      <c r="Q13" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="R14" s="96" t="s">
+      <c r="R13" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="S14" s="96" t="s">
+      <c r="S13" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="96" t="s">
+      <c r="T13" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="U14" s="96" t="s">
+      <c r="U13" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="V14" s="96" t="s">
+      <c r="V13" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="103" t="s">
+    <row r="14" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C14" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D14" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="103" t="s">
+      <c r="E14" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="103" t="s">
+      <c r="F14" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="G15" s="103" t="s">
+      <c r="G14" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="104" t="s">
+      <c r="H14" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="103" t="s">
+      <c r="I14" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="J15" s="103" t="s">
+      <c r="J14" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="104" t="s">
+      <c r="K14" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="V14" s="98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
       <c r="N15" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="O15" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="98" t="s">
-        <v>24</v>
-      </c>
-      <c r="T15" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="U15" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="V15" s="98" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="106" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="107" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="107"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="93" t="str">
+        <f>P$16</f>
+        <v>Kiln</v>
+      </c>
+      <c r="C16" s="93" t="str">
+        <f>PRI_Sector_Fuels!N5</f>
+        <v>MANCOALMIN</v>
+      </c>
+      <c r="D16" s="95" t="str">
+        <f>P5</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E16" s="113">
+        <f>EBF!D5/(DemTechs_INDF!G16*DemTechs_INDF!F29)*1000</f>
+        <v>937.81659640348698</v>
+      </c>
+      <c r="F16" s="110">
+        <v>0.44</v>
+      </c>
+      <c r="G16" s="111">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H16" s="111">
+        <v>0.9</v>
+      </c>
+      <c r="I16" s="136">
+        <v>30</v>
+      </c>
+      <c r="J16" s="112">
+        <v>144094</v>
+      </c>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q16" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="R16" s="95" t="str">
+        <f>$E$2</f>
+        <v>GWh</v>
+      </c>
+      <c r="S16" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="93" t="str">
-        <f>P$17</f>
+        <f>P$16</f>
         <v>Kiln</v>
       </c>
       <c r="C17" s="93" t="str">
-        <f>PRI_Sector_Fuels!N5</f>
-        <v>MANCOALMIN</v>
+        <f>PRI_Sector_Fuels!N6</f>
+        <v>MANCOALIMP</v>
       </c>
       <c r="D17" s="95" t="str">
         <f>P5</f>
         <v>MANHEAT</v>
       </c>
       <c r="E17" s="113">
-        <f>EBF!D5/(DemTechs_INDF!G17*DemTechs_INDF!F30)*1000</f>
-        <v>937.81659640348698</v>
+        <f>EBF!D6/(DemTechs_INDF!G17*DemTechs_INDF!F29)*1000</f>
+        <v>655.38846855579084</v>
       </c>
       <c r="F17" s="110">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="G17" s="111">
         <v>0.55000000000000004</v>
@@ -9193,10 +9218,10 @@
         <v>115</v>
       </c>
       <c r="P17" s="93" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="93" t="s">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="R17" s="95" t="str">
         <f>$E$2</f>
@@ -9212,295 +9237,240 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="93" t="str">
         <f>P$17</f>
-        <v>Kiln</v>
+        <v>Boiler</v>
       </c>
       <c r="C18" s="93" t="str">
-        <f>PRI_Sector_Fuels!N6</f>
-        <v>MANCOALIMP</v>
+        <f>PRI_Sector_Fuels!N7</f>
+        <v>MANOILIMP</v>
       </c>
       <c r="D18" s="95" t="str">
         <f>P5</f>
         <v>MANHEAT</v>
       </c>
       <c r="E18" s="113">
-        <f>EBF!D6/(DemTechs_INDF!G18*DemTechs_INDF!F30)*1000</f>
-        <v>655.38846855579084</v>
+        <f>EBF!E18/(DemTechs_INDF!G18*DemTechs_INDF!F29)*1000</f>
+        <v>396.51753552657539</v>
       </c>
       <c r="F18" s="110">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="G18" s="111">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H18" s="111">
+        <v>0.75</v>
+      </c>
+      <c r="H18" s="113">
         <v>0.9</v>
       </c>
-      <c r="I18" s="136">
+      <c r="I18" s="112">
         <v>30</v>
       </c>
       <c r="J18" s="112">
-        <v>144094</v>
+        <v>60000</v>
       </c>
       <c r="K18" s="112"/>
       <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
       <c r="N18" s="93" t="s">
         <v>115</v>
       </c>
       <c r="P18" s="93" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="93" t="s">
-        <v>161</v>
-      </c>
-      <c r="R18" s="95" t="str">
-        <f>$E$2</f>
-        <v>GWh</v>
-      </c>
-      <c r="S18" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="R18" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="S18" s="93" t="s">
         <v>159</v>
       </c>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="93" t="str">
+      <c r="T18" s="159" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="99" t="str">
         <f>P$18</f>
-        <v>Boiler</v>
-      </c>
-      <c r="C19" s="93" t="str">
-        <f>PRI_Sector_Fuels!N7</f>
-        <v>MANOILIMP</v>
-      </c>
-      <c r="D19" s="95" t="str">
-        <f>P5</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="E19" s="113">
-        <f>EBF!E18/(DemTechs_INDF!G19*DemTechs_INDF!F30)*1000</f>
-        <v>396.51753552657539</v>
-      </c>
-      <c r="F19" s="110">
-        <v>0.25</v>
-      </c>
-      <c r="G19" s="111">
-        <v>0.75</v>
-      </c>
-      <c r="H19" s="113">
-        <v>0.9</v>
-      </c>
-      <c r="I19" s="112">
-        <v>30</v>
-      </c>
-      <c r="J19" s="112">
-        <v>60000</v>
-      </c>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="N19" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="P19" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q19" s="93" t="s">
-        <v>267</v>
-      </c>
-      <c r="R19" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="S19" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="T19" s="159" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="99" t="str">
-        <f>P$19</f>
         <v>ELC</v>
       </c>
-      <c r="C20" s="99" t="str">
+      <c r="C19" s="99" t="str">
         <f>PRI_Sector_Fuels!N8</f>
         <v>GRIDELC</v>
       </c>
+      <c r="D19" s="166" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E19" s="167">
+        <f>EBF!K18/(DemTechs_INDF!G19*DemTechs_INDF!F29)*1000</f>
+        <v>1500.3320739839382</v>
+      </c>
+      <c r="F19" s="168">
+        <v>1</v>
+      </c>
+      <c r="G19" s="165">
+        <v>1</v>
+      </c>
+      <c r="H19" s="165">
+        <v>1</v>
+      </c>
+      <c r="I19" s="165">
+        <v>50</v>
+      </c>
+      <c r="J19" s="165">
+        <v>0</v>
+      </c>
+      <c r="R19" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="S19" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="T19" s="169" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="170" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="95" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="D20" s="166" t="str">
         <f>P$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="E20" s="167">
-        <f>EBF!K18/(DemTechs_INDF!G20*DemTechs_INDF!F30)*1000</f>
-        <v>1500.3320739839382</v>
-      </c>
-      <c r="F20" s="168">
+        <v>MANDRIVE</v>
+      </c>
+      <c r="E20" s="167"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F21" s="114"/>
+      <c r="N21" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="R21" s="95" t="str">
+        <f t="shared" ref="R21" si="0">$E$2</f>
+        <v>GWh</v>
+      </c>
+      <c r="S21" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="T21" s="159" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="93" t="str">
+        <f>PRI_Sector_Fuels!N21</f>
+        <v>CONMDRIVE</v>
+      </c>
+      <c r="D22" s="93" t="str">
+        <f>PRI_Sector_Fuels!N21</f>
+        <v>CONMDRIVE</v>
+      </c>
+      <c r="F22" s="114">
         <v>1</v>
       </c>
-      <c r="G20" s="165">
+      <c r="G22" s="93">
         <v>1</v>
       </c>
-      <c r="H20" s="165">
-        <v>1</v>
-      </c>
-      <c r="I20" s="165">
-        <v>50</v>
-      </c>
-      <c r="J20" s="165">
-        <v>0</v>
-      </c>
-      <c r="R20" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="S20" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="T20" s="169" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="170" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="95" t="str">
-        <f>P6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="D21" s="166" t="str">
-        <f>P$7</f>
-        <v>MANDRIVE</v>
-      </c>
-      <c r="E21" s="167"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F22" s="114"/>
       <c r="N22" s="93" t="s">
         <v>115</v>
       </c>
+      <c r="O22" s="118"/>
       <c r="P22" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q22" s="93" t="s">
-        <v>267</v>
-      </c>
-      <c r="R22" s="95" t="str">
-        <f t="shared" ref="R22" si="0">$E$2</f>
-        <v>GWh</v>
-      </c>
-      <c r="S22" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q22" s="118" t="s">
+        <v>252</v>
+      </c>
+      <c r="R22" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="S22" s="119" t="s">
         <v>159</v>
-      </c>
-      <c r="T22" s="159" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="93" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="C23" s="93" t="str">
-        <f>PRI_Sector_Fuels!N21</f>
-        <v>CONMDRIVE</v>
+        <f>PRI_Sector_Fuels!N22</f>
+        <v>CONELC</v>
       </c>
       <c r="D23" s="93" t="str">
-        <f>PRI_Sector_Fuels!N21</f>
-        <v>CONMDRIVE</v>
+        <f>PRI_Sector_Fuels!N22</f>
+        <v>CONELC</v>
       </c>
       <c r="F23" s="114">
         <v>1</v>
       </c>
-      <c r="G23" s="93">
+      <c r="G23" s="21">
         <v>1</v>
       </c>
+      <c r="H23" s="115"/>
       <c r="N23" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="O23" s="118"/>
       <c r="P23" s="93" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q23" s="118" t="s">
-        <v>252</v>
-      </c>
-      <c r="R23" s="119" t="s">
-        <v>167</v>
-      </c>
-      <c r="S23" s="119" t="s">
-        <v>159</v>
+        <v>85</v>
+      </c>
+      <c r="Q23" s="93" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="93" t="str">
-        <f>PRI_Sector_Fuels!N22</f>
-        <v>CONELC</v>
-      </c>
-      <c r="D24" s="93" t="str">
-        <f>PRI_Sector_Fuels!N22</f>
-        <v>CONELC</v>
-      </c>
-      <c r="F24" s="114">
-        <v>1</v>
-      </c>
-      <c r="G24" s="21">
-        <v>1</v>
-      </c>
       <c r="H24" s="115"/>
-      <c r="N24" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="P24" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q24" s="93" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="112"/>
+      <c r="C25" s="93" t="s">
+        <v>99</v>
+      </c>
       <c r="H25" s="115"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="112"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="93" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H26" s="115"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="116"/>
-      <c r="C27" s="93" t="s">
-        <v>100</v>
+      <c r="E27" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="F27" s="93" t="s">
+        <v>246</v>
       </c>
       <c r="H27" s="115"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E28" s="93" t="s">
-        <v>244</v>
-      </c>
-      <c r="F28" s="93" t="s">
-        <v>246</v>
-      </c>
-      <c r="H28" s="115"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E30" s="93" t="s">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E29" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="F30" s="93">
+      <c r="F29" s="93">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E31" s="21"/>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E30" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9514,8 +9484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A7" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9643,7 +9613,7 @@
       </c>
       <c r="L7" s="153"/>
       <c r="M7" s="155" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N7" s="130"/>
       <c r="O7" s="122" t="s">
@@ -9752,9 +9722,9 @@
       <c r="B10" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="126" t="str">
-        <f>DemTechs_INDF!P6</f>
-        <v>MANELC</v>
+      <c r="C10" s="126" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D10" s="126" t="str">
         <f>E$2</f>
@@ -9794,9 +9764,9 @@
       <c r="O10" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P10" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P10" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q10" s="93" t="s">
         <v>193</v>
@@ -9819,9 +9789,9 @@
       <c r="O11" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P11" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P11" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q11" s="93" t="s">
         <v>194</v>
@@ -9834,7 +9804,7 @@
       <c r="B12" s="126"/>
       <c r="C12" s="126"/>
       <c r="D12" s="146" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E12" s="145">
         <f>E10/(E$9+E$10)</f>
@@ -9869,9 +9839,9 @@
       <c r="O12" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P12" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P12" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q12" s="93" t="s">
         <v>195</v>
@@ -9883,7 +9853,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="D13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E13" s="145">
         <f>E9/(E$9+E$10)</f>
@@ -9917,9 +9887,9 @@
       <c r="O13" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P13" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P13" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q13" s="134" t="s">
         <v>196</v>
@@ -9932,9 +9902,9 @@
       <c r="O14" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P14" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P14" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q14" t="s">
         <v>197</v>
@@ -9947,9 +9917,9 @@
       <c r="O15" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P15" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P15" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q15" t="s">
         <v>198</v>
@@ -9963,9 +9933,9 @@
       <c r="O16" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P16" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P16" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q16" t="s">
         <v>199</v>
@@ -9978,9 +9948,9 @@
       <c r="O17" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P17" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P17" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q17" t="s">
         <v>200</v>
@@ -9993,9 +9963,9 @@
       <c r="O18" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P18" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P18" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q18" t="s">
         <v>201</v>
@@ -10009,7 +9979,7 @@
         <v>190</v>
       </c>
       <c r="C19" t="str">
-        <f>DemTechs_INDF!P10</f>
+        <f>DemTechs_INDF!P9</f>
         <v>CONELC</v>
       </c>
       <c r="D19" t="s">
@@ -10022,9 +9992,9 @@
       <c r="O19" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P19" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P19" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q19" t="s">
         <v>202</v>
@@ -10038,7 +10008,7 @@
         <v>190</v>
       </c>
       <c r="C20" t="str">
-        <f>DemTechs_INDF!P11</f>
+        <f>DemTechs_INDF!P10</f>
         <v>CONOILIMP</v>
       </c>
       <c r="D20" t="s">
@@ -10051,9 +10021,9 @@
       <c r="O20" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P20" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P20" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q20" t="s">
         <v>203</v>
@@ -10066,9 +10036,9 @@
       <c r="O21" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P21" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P21" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q21" t="s">
         <v>204</v>
@@ -10085,9 +10055,9 @@
       <c r="O22" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P22" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P22" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q22" t="s">
         <v>205</v>
@@ -10104,9 +10074,9 @@
       <c r="O23" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P23" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P23" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q23" t="s">
         <v>206</v>
@@ -10119,9 +10089,9 @@
       <c r="O24" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P24" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P24" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q24" t="s">
         <v>207</v>
@@ -10134,9 +10104,9 @@
       <c r="O25" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P25" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P25" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q25" t="s">
         <v>208</v>
@@ -10149,9 +10119,9 @@
       <c r="O26" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P26" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P26" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q26" t="s">
         <v>209</v>
@@ -10164,9 +10134,9 @@
       <c r="O27" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P27" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P27" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q27" t="s">
         <v>210</v>
@@ -10179,9 +10149,9 @@
       <c r="O28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P28" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P28" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q28" t="s">
         <v>211</v>
@@ -10194,9 +10164,9 @@
       <c r="O29" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P29" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P29" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q29" t="s">
         <v>212</v>
@@ -10209,9 +10179,9 @@
       <c r="O30" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P30" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P30" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q30" t="s">
         <v>213</v>
@@ -10224,9 +10194,9 @@
       <c r="O31" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P31" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P31" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q31" t="s">
         <v>214</v>
@@ -10239,9 +10209,9 @@
       <c r="O32" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P32" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P32" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q32" t="s">
         <v>215</v>
@@ -10254,9 +10224,9 @@
       <c r="O33" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P33" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P33" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q33" t="s">
         <v>216</v>
@@ -10269,9 +10239,9 @@
       <c r="O34" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P34" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P34" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q34" t="s">
         <v>217</v>
@@ -10284,9 +10254,9 @@
       <c r="O35" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P35" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P35" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q35" t="s">
         <v>218</v>
@@ -10299,9 +10269,9 @@
       <c r="O36" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P36" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P36" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q36" t="s">
         <v>219</v>
@@ -10314,9 +10284,9 @@
       <c r="O37" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P37" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P37" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q37" t="s">
         <v>220</v>
@@ -10329,9 +10299,9 @@
       <c r="O38" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P38" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P38" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q38" t="s">
         <v>221</v>
@@ -10344,9 +10314,9 @@
       <c r="O39" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P39" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P39" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q39" t="s">
         <v>222</v>
@@ -10359,9 +10329,9 @@
       <c r="O40" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P40" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P40" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q40" t="s">
         <v>223</v>
@@ -10374,9 +10344,9 @@
       <c r="O41" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P41" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P41" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q41" t="s">
         <v>224</v>
@@ -10389,9 +10359,9 @@
       <c r="O42" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P42" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q42" t="s">
         <v>225</v>
@@ -10404,9 +10374,9 @@
       <c r="O43" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P43" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P43" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q43" t="s">
         <v>226</v>
@@ -10419,9 +10389,9 @@
       <c r="O44" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P44" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P44" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q44" t="s">
         <v>227</v>
@@ -10434,9 +10404,9 @@
       <c r="O45" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P45" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P45" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q45" t="s">
         <v>228</v>
@@ -10449,9 +10419,9 @@
       <c r="O46" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P46" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P46" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q46" t="s">
         <v>229</v>
@@ -10464,9 +10434,9 @@
       <c r="O47" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P47" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P47" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q47" t="s">
         <v>230</v>
@@ -10479,9 +10449,9 @@
       <c r="O48" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P48" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P48" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q48" t="s">
         <v>231</v>
@@ -10494,9 +10464,9 @@
       <c r="O49" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P49" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P49" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q49" t="s">
         <v>232</v>
@@ -10509,9 +10479,9 @@
       <c r="O50" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P50" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P50" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q50" t="s">
         <v>233</v>
@@ -10524,9 +10494,9 @@
       <c r="O51" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P51" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P51" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q51" t="s">
         <v>234</v>
@@ -10539,9 +10509,9 @@
       <c r="O52" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P52" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P52" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q52" t="s">
         <v>235</v>
@@ -10554,9 +10524,9 @@
       <c r="O53" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P53" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P53" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q53" t="s">
         <v>236</v>
@@ -10569,9 +10539,9 @@
       <c r="O54" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P54" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P54" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q54" t="s">
         <v>237</v>
@@ -10584,9 +10554,9 @@
       <c r="O55" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P55" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P55" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q55" t="s">
         <v>238</v>
@@ -10599,9 +10569,9 @@
       <c r="O56" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P56" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P56" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q56" t="s">
         <v>239</v>
@@ -10614,9 +10584,9 @@
       <c r="O57" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P57" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P57" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q57" t="s">
         <v>240</v>
@@ -10629,9 +10599,9 @@
       <c r="O58" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P58" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P58" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q58" t="s">
         <v>241</v>
@@ -10644,9 +10614,9 @@
       <c r="O59" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P59" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANELC</v>
+      <c r="P59" s="1" t="e">
+        <f>DemTechs_INDF!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q59" t="s">
         <v>242</v>
@@ -10749,7 +10719,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="143" t="str">
-        <f>DemTechs_INDF!P8</f>
+        <f>DemTechs_INDF!P7</f>
         <v>MANCO2</v>
       </c>
       <c r="C8" s="144">

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DB16B1-7C7F-48A6-86F5-CCAD68ACAB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384E50CF-74E4-4A85-AC8A-52FE0A9B08A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -8667,8 +8667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D6" sqref="A6:XFD6"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9484,8 +9484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9722,10 +9722,7 @@
       <c r="B10" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="126" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C10" s="126"/>
       <c r="D10" s="126" t="str">
         <f>E$2</f>
         <v>GWh</v>
@@ -9764,9 +9761,9 @@
       <c r="O10" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P10" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P10" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q10" s="93" t="s">
         <v>193</v>
@@ -9789,9 +9786,9 @@
       <c r="O11" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P11" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P11" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q11" s="93" t="s">
         <v>194</v>
@@ -9839,9 +9836,9 @@
       <c r="O12" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P12" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P12" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q12" s="93" t="s">
         <v>195</v>
@@ -9887,9 +9884,9 @@
       <c r="O13" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P13" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P13" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q13" s="134" t="s">
         <v>196</v>
@@ -9902,9 +9899,9 @@
       <c r="O14" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P14" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P14" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q14" t="s">
         <v>197</v>
@@ -9917,9 +9914,9 @@
       <c r="O15" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P15" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P15" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q15" t="s">
         <v>198</v>
@@ -9933,9 +9930,9 @@
       <c r="O16" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P16" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P16" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q16" t="s">
         <v>199</v>
@@ -9948,9 +9945,9 @@
       <c r="O17" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P17" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P17" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q17" t="s">
         <v>200</v>
@@ -9963,9 +9960,9 @@
       <c r="O18" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P18" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P18" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q18" t="s">
         <v>201</v>
@@ -9992,9 +9989,9 @@
       <c r="O19" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P19" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P19" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q19" t="s">
         <v>202</v>
@@ -10021,9 +10018,9 @@
       <c r="O20" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P20" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P20" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q20" t="s">
         <v>203</v>
@@ -10036,9 +10033,9 @@
       <c r="O21" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P21" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P21" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q21" t="s">
         <v>204</v>
@@ -10055,9 +10052,9 @@
       <c r="O22" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P22" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P22" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q22" t="s">
         <v>205</v>
@@ -10074,9 +10071,9 @@
       <c r="O23" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P23" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P23" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q23" t="s">
         <v>206</v>
@@ -10089,9 +10086,9 @@
       <c r="O24" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P24" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P24" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q24" t="s">
         <v>207</v>
@@ -10104,9 +10101,9 @@
       <c r="O25" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P25" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P25" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q25" t="s">
         <v>208</v>
@@ -10119,9 +10116,9 @@
       <c r="O26" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P26" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P26" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q26" t="s">
         <v>209</v>
@@ -10134,9 +10131,9 @@
       <c r="O27" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P27" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P27" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q27" t="s">
         <v>210</v>
@@ -10149,9 +10146,9 @@
       <c r="O28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P28" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P28" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q28" t="s">
         <v>211</v>
@@ -10164,9 +10161,9 @@
       <c r="O29" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P29" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P29" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q29" t="s">
         <v>212</v>
@@ -10179,9 +10176,9 @@
       <c r="O30" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P30" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P30" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q30" t="s">
         <v>213</v>
@@ -10194,9 +10191,9 @@
       <c r="O31" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P31" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P31" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q31" t="s">
         <v>214</v>
@@ -10209,9 +10206,9 @@
       <c r="O32" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P32" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P32" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q32" t="s">
         <v>215</v>
@@ -10224,9 +10221,9 @@
       <c r="O33" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P33" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P33" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q33" t="s">
         <v>216</v>
@@ -10239,9 +10236,9 @@
       <c r="O34" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P34" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P34" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q34" t="s">
         <v>217</v>
@@ -10254,9 +10251,9 @@
       <c r="O35" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P35" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P35" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q35" t="s">
         <v>218</v>
@@ -10269,9 +10266,9 @@
       <c r="O36" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P36" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P36" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q36" t="s">
         <v>219</v>
@@ -10284,9 +10281,9 @@
       <c r="O37" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P37" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P37" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q37" t="s">
         <v>220</v>
@@ -10299,9 +10296,9 @@
       <c r="O38" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P38" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P38" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q38" t="s">
         <v>221</v>
@@ -10314,9 +10311,9 @@
       <c r="O39" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P39" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P39" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q39" t="s">
         <v>222</v>
@@ -10329,9 +10326,9 @@
       <c r="O40" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P40" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P40" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q40" t="s">
         <v>223</v>
@@ -10344,9 +10341,9 @@
       <c r="O41" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P41" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P41" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q41" t="s">
         <v>224</v>
@@ -10359,9 +10356,9 @@
       <c r="O42" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P42" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q42" t="s">
         <v>225</v>
@@ -10374,9 +10371,9 @@
       <c r="O43" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P43" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P43" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q43" t="s">
         <v>226</v>
@@ -10389,9 +10386,9 @@
       <c r="O44" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P44" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P44" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q44" t="s">
         <v>227</v>
@@ -10404,9 +10401,9 @@
       <c r="O45" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P45" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P45" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q45" t="s">
         <v>228</v>
@@ -10419,9 +10416,9 @@
       <c r="O46" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P46" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P46" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q46" t="s">
         <v>229</v>
@@ -10434,9 +10431,9 @@
       <c r="O47" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P47" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P47" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q47" t="s">
         <v>230</v>
@@ -10449,9 +10446,9 @@
       <c r="O48" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P48" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P48" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q48" t="s">
         <v>231</v>
@@ -10464,9 +10461,9 @@
       <c r="O49" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P49" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P49" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q49" t="s">
         <v>232</v>
@@ -10479,9 +10476,9 @@
       <c r="O50" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P50" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P50" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q50" t="s">
         <v>233</v>
@@ -10494,9 +10491,9 @@
       <c r="O51" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P51" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P51" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q51" t="s">
         <v>234</v>
@@ -10509,9 +10506,9 @@
       <c r="O52" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P52" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P52" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q52" t="s">
         <v>235</v>
@@ -10524,9 +10521,9 @@
       <c r="O53" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P53" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P53" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q53" t="s">
         <v>236</v>
@@ -10539,9 +10536,9 @@
       <c r="O54" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P54" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P54" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q54" t="s">
         <v>237</v>
@@ -10554,9 +10551,9 @@
       <c r="O55" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P55" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P55" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q55" t="s">
         <v>238</v>
@@ -10569,9 +10566,9 @@
       <c r="O56" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P56" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P56" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q56" t="s">
         <v>239</v>
@@ -10584,9 +10581,9 @@
       <c r="O57" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P57" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P57" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q57" t="s">
         <v>240</v>
@@ -10599,9 +10596,9 @@
       <c r="O58" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P58" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P58" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q58" t="s">
         <v>241</v>
@@ -10614,9 +10611,9 @@
       <c r="O59" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P59" s="1" t="e">
-        <f>DemTechs_INDF!#REF!</f>
-        <v>#REF!</v>
+      <c r="P59" s="1" t="str">
+        <f>DemTechs_INDF!P$6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="Q59" t="s">
         <v>242</v>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384E50CF-74E4-4A85-AC8A-52FE0A9B08A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1466615-09BE-4093-AB56-CBAB31040B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -351,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I26" authorId="2" shapeId="0" xr:uid="{CC8E5D4E-1B3A-43C8-A112-A6697F95B4CC}">
+    <comment ref="I25" authorId="2" shapeId="0" xr:uid="{CC8E5D4E-1B3A-43C8-A112-A6697F95B4CC}">
       <text>
         <r>
           <rPr>
@@ -398,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R26" authorId="2" shapeId="0" xr:uid="{B82C1148-4753-4923-93C2-C67B5D40F340}">
+    <comment ref="R25" authorId="2" shapeId="0" xr:uid="{B82C1148-4753-4923-93C2-C67B5D40F340}">
       <text>
         <r>
           <rPr>
@@ -491,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S26" authorId="1" shapeId="0" xr:uid="{968CFA1B-C5E9-492D-A0A2-485C997CC98A}">
+    <comment ref="S25" authorId="1" shapeId="0" xr:uid="{968CFA1B-C5E9-492D-A0A2-485C997CC98A}">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T26" authorId="2" shapeId="0" xr:uid="{A0615139-A259-4F4D-937C-E8C54FC43716}">
+    <comment ref="T25" authorId="2" shapeId="0" xr:uid="{A0615139-A259-4F4D-937C-E8C54FC43716}">
       <text>
         <r>
           <rPr>
@@ -579,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L27" authorId="2" shapeId="0" xr:uid="{028E65FC-6C67-4206-97D8-90E7E85C9E5E}">
+    <comment ref="L26" authorId="2" shapeId="0" xr:uid="{028E65FC-6C67-4206-97D8-90E7E85C9E5E}">
       <text>
         <r>
           <rPr>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="289">
   <si>
     <t>CommName</t>
   </si>
@@ -2113,9 +2113,6 @@
     <t>FIXOM</t>
   </si>
   <si>
-    <t>Inestment Cost</t>
-  </si>
-  <si>
     <t>Fixed O&amp;M Cost</t>
   </si>
   <si>
@@ -2371,9 +2368,6 @@
     <t>GRID</t>
   </si>
   <si>
-    <t>Grid electricity</t>
-  </si>
-  <si>
     <t>Electricity share</t>
   </si>
   <si>
@@ -2389,9 +2383,6 @@
     <t>Electricity from Grid</t>
   </si>
   <si>
-    <t>ELCGRID</t>
-  </si>
-  <si>
     <t>MANDRIVE</t>
   </si>
   <si>
@@ -2435,6 +2426,9 @@
   </si>
   <si>
     <t>Total manufacturing electricity supply</t>
+  </si>
+  <si>
+    <t>Investment Cost</t>
   </si>
 </sst>
 </file>
@@ -3332,9 +3326,9 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="24" fillId="17" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -4188,13 +4182,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>133299</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6193,7 +6187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -7497,10 +7491,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A12" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7618,10 +7612,10 @@
     </row>
     <row r="4" spans="2:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="161" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E4" s="81" t="s">
         <v>167</v>
@@ -7659,20 +7653,11 @@
       </c>
     </row>
     <row r="5" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="162" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="162" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>167</v>
-      </c>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="162"/>
-      <c r="G5" s="7" t="str">
-        <f>EBF!P$2</f>
-        <v>TH$2022</v>
-      </c>
+      <c r="G5" s="7"/>
       <c r="L5" s="66" t="s">
         <v>74</v>
       </c>
@@ -7694,20 +7679,11 @@
       <c r="T5" s="66"/>
     </row>
     <row r="6" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="162" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="162" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="81" t="s">
-        <v>167</v>
-      </c>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="162"/>
-      <c r="G6" s="7" t="str">
-        <f>EBF!P$2</f>
-        <v>TH$2022</v>
-      </c>
+      <c r="G6" s="7"/>
       <c r="L6" s="66" t="s">
         <v>74</v>
       </c>
@@ -7730,18 +7706,17 @@
     </row>
     <row r="7" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="162" t="s">
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="D7" s="162" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E7" s="81" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="162"/>
-      <c r="G7" s="7" t="str">
-        <f>EBF!P$2</f>
-        <v>TH$2022</v>
+      <c r="G7" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="L7" s="66" t="s">
         <v>74</v>
@@ -7765,28 +7740,27 @@
     </row>
     <row r="8" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="162" t="s">
-        <v>279</v>
+        <v>139</v>
       </c>
       <c r="D8" s="162" t="s">
-        <v>280</v>
+        <v>141</v>
       </c>
       <c r="E8" s="81" t="s">
         <v>167</v>
       </c>
       <c r="F8" s="162"/>
-      <c r="G8" s="7" t="str">
-        <f>EBF!P$2</f>
-        <v>TH$2022</v>
+      <c r="G8" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="L8" s="66" t="s">
         <v>74</v>
       </c>
       <c r="M8" s="70"/>
       <c r="N8" s="160" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O8" s="160" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P8" s="66" t="s">
         <v>167</v>
@@ -7799,11 +7773,19 @@
       <c r="T8" s="66"/>
     </row>
     <row r="9" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="81"/>
+      <c r="C9" s="162" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="162" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>167</v>
+      </c>
       <c r="F9" s="162"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="L9" s="66"/>
       <c r="M9" s="70"/>
       <c r="N9" s="160"/>
@@ -7815,15 +7797,27 @@
       <c r="T9" s="66"/>
     </row>
     <row r="10" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="162" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="162" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="162" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="162" t="s">
+        <v>125</v>
+      </c>
       <c r="L10" s="163" t="s">
         <v>74</v>
       </c>
       <c r="M10" s="163"/>
       <c r="N10" s="163" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O10" s="163" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P10" s="163" t="s">
         <v>167</v>
@@ -7841,10 +7835,10 @@
       </c>
       <c r="M11" s="163"/>
       <c r="N11" s="163" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O11" s="163" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P11" s="163" t="s">
         <v>167</v>
@@ -7862,10 +7856,10 @@
       </c>
       <c r="M12" s="163"/>
       <c r="N12" s="163" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O12" s="163" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P12" s="163" t="s">
         <v>167</v>
@@ -7883,7 +7877,7 @@
       </c>
       <c r="M13" s="163"/>
       <c r="N13" s="163" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O13" s="163" t="s">
         <v>124</v>
@@ -7904,10 +7898,10 @@
       </c>
       <c r="M14" s="163"/>
       <c r="N14" s="163" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O14" s="163" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P14" s="163" t="s">
         <v>167</v>
@@ -7928,7 +7922,7 @@
         <v>173</v>
       </c>
       <c r="O15" s="163" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P15" s="163" t="s">
         <v>167</v>
@@ -7941,26 +7935,47 @@
       <c r="T15" s="66"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L16" s="160"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="160"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
       <c r="P16" s="163"/>
       <c r="Q16" s="66"/>
       <c r="R16" s="66"/>
       <c r="S16" s="66"/>
       <c r="T16" s="66"/>
     </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L17" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="70"/>
+      <c r="N17" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="P17" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q17" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+    </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L18" s="66" t="s">
         <v>82</v>
       </c>
       <c r="M18" s="70"/>
       <c r="N18" s="66" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O18" s="66" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P18" s="66" t="s">
         <v>167</v>
@@ -7974,14 +7989,14 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L19" s="66" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M19" s="70"/>
       <c r="N19" s="66" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="O19" s="66" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P19" s="66" t="s">
         <v>167</v>
@@ -7995,14 +8010,14 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L20" s="66" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M20" s="70"/>
       <c r="N20" s="66" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="O20" s="66" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P20" s="66" t="s">
         <v>167</v>
@@ -8020,7 +8035,7 @@
       </c>
       <c r="M21" s="70"/>
       <c r="N21" s="66" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="O21" s="66" t="s">
         <v>256</v>
@@ -8036,213 +8051,242 @@
       <c r="T21" s="66"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L22" s="66" t="s">
-        <v>82</v>
-      </c>
+      <c r="L22" s="66"/>
       <c r="M22" s="70"/>
-      <c r="N22" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="O22" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="P22" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q22" s="66" t="s">
-        <v>180</v>
-      </c>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
       <c r="R22" s="66"/>
       <c r="S22" s="66"/>
       <c r="T22" s="66"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L23" s="66"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
+      <c r="L23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="F24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="L24" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="65"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="L25" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="65"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="64" t="s">
+      <c r="G25" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H25" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="64" t="s">
+      <c r="I25" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="78" t="s">
+      <c r="J25" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="L26" s="67" t="s">
+      <c r="L25" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="M26" s="68" t="s">
+      <c r="M25" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="N26" s="67" t="s">
+      <c r="N25" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="O26" s="67" t="s">
+      <c r="O25" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="67" t="s">
+      <c r="P25" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="Q26" s="67" t="s">
+      <c r="Q25" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="R26" s="67" t="s">
+      <c r="R25" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="S26" s="67" t="s">
+      <c r="S25" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="T26" s="67" t="s">
+      <c r="T25" s="67" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="S26" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="T26" s="69" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="L27" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="O27" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="P27" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="R27" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="S27" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="T27" s="69" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8" t="str">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="I28" s="8" t="str">
+      <c r="H27" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I27" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="J28" s="80"/>
-      <c r="L28" s="69" t="s">
+      <c r="J27" s="80"/>
+      <c r="L27" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="66" t="str">
+        <f>N28</f>
+        <v>MINCOA</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="66" t="str">
+        <f>N5</f>
+        <v>MANCOALMIN</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="48">
+        <v>2673000</v>
+      </c>
+      <c r="H28" s="49">
+        <v>4.5449999999999999</v>
+      </c>
+      <c r="I28" s="91">
+        <f>EBF!D5</f>
+        <v>4518.4003614720004</v>
+      </c>
+      <c r="J28" s="121">
+        <v>8.76</v>
+      </c>
+      <c r="L28" s="66" t="str">
+        <f>EBF!$B$5</f>
+        <v>MIN</v>
+      </c>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70" t="str">
+        <f>$L$28&amp;$C$2</f>
+        <v>MINCOA</v>
+      </c>
+      <c r="O28" s="72" t="str">
+        <f>"Domestic Supply of "&amp;$D$2&amp;" "</f>
+        <v xml:space="preserve">Domestic Supply of Coal </v>
+      </c>
+      <c r="P28" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="66" t="str">
-        <f>N29</f>
-        <v>MINCOA</v>
+        <f t="shared" ref="B29:B30" si="0">N29</f>
+        <v>IMPCOA</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="66" t="str">
-        <f>N5</f>
-        <v>MANCOALMIN</v>
+        <f>N6</f>
+        <v>MANCOALIMP</v>
       </c>
       <c r="E29" s="1">
         <v>2022</v>
@@ -8250,31 +8294,29 @@
       <c r="F29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="48">
-        <v>2673000</v>
-      </c>
-      <c r="H29" s="49">
-        <v>4.5449999999999999</v>
-      </c>
-      <c r="I29" s="91">
-        <f>EBF!D5</f>
-        <v>4518.4003614720004</v>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63">
+        <v>21.004999999999999</v>
+      </c>
+      <c r="I29" s="92">
+        <f>EBF!D6</f>
+        <v>3157.6616415018002</v>
       </c>
       <c r="J29" s="121">
         <v>8.76</v>
       </c>
-      <c r="L29" s="66" t="str">
-        <f>EBF!$B$5</f>
-        <v>MIN</v>
+      <c r="L29" s="70" t="str">
+        <f>EBF!$B$6</f>
+        <v>IMP</v>
       </c>
       <c r="M29" s="70"/>
       <c r="N29" s="70" t="str">
         <f>$L$29&amp;$C$2</f>
-        <v>MINCOA</v>
+        <v>IMPCOA</v>
       </c>
       <c r="O29" s="72" t="str">
-        <f>"Domestic Supply of "&amp;$D$2&amp;" "</f>
-        <v xml:space="preserve">Domestic Supply of Coal </v>
+        <f>"Import of "&amp;$D$2&amp;" "</f>
+        <v xml:space="preserve">Import of Coal </v>
       </c>
       <c r="P29" s="70" t="s">
         <v>167</v>
@@ -8286,13 +8328,13 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="66" t="str">
-        <f t="shared" ref="B30:B31" si="0">N30</f>
-        <v>IMPCOA</v>
+        <f t="shared" si="0"/>
+        <v>IMPOIL</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="66" t="str">
-        <f>N6</f>
-        <v>MANCOALIMP</v>
+        <f t="shared" ref="D30" si="1">N7</f>
+        <v>MANOILIMP</v>
       </c>
       <c r="E30" s="1">
         <v>2022</v>
@@ -8300,47 +8342,40 @@
       <c r="F30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="62"/>
-      <c r="H30" s="63">
-        <v>21.004999999999999</v>
+      <c r="H30" s="49">
+        <v>29.234999999999999</v>
       </c>
       <c r="I30" s="92">
-        <f>EBF!D6</f>
-        <v>3157.6616415018002</v>
+        <f>EBF!E18</f>
+        <v>2605.1202084096003</v>
       </c>
       <c r="J30" s="121">
         <v>8.76</v>
       </c>
-      <c r="L30" s="70" t="str">
-        <f>EBF!$B$6</f>
+      <c r="L30" t="str">
+        <f>EBF!B6</f>
         <v>IMP</v>
       </c>
-      <c r="M30" s="70"/>
       <c r="N30" s="70" t="str">
-        <f>$L$30&amp;$C$2</f>
-        <v>IMPCOA</v>
+        <f>$L$30&amp;$C$3</f>
+        <v>IMPOIL</v>
       </c>
       <c r="O30" s="72" t="str">
-        <f>"Import of "&amp;$D$2&amp;" "</f>
-        <v xml:space="preserve">Import of Coal </v>
-      </c>
-      <c r="P30" s="70" t="s">
+        <f>"Import of "&amp;$D$3&amp;" "</f>
+        <v xml:space="preserve">Import of Oil </v>
+      </c>
+      <c r="P30" t="s">
         <v>167</v>
       </c>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="70"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v>IMPOIL</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="66" t="str">
-        <f t="shared" ref="D31" si="1">N7</f>
-        <v>MANOILIMP</v>
+        <f>N8</f>
+        <v>GRIDELC</v>
+      </c>
+      <c r="C31" s="70"/>
+      <c r="D31" s="160" t="s">
+        <v>46</v>
       </c>
       <c r="E31" s="1">
         <v>2022</v>
@@ -8349,63 +8384,37 @@
         <v>103</v>
       </c>
       <c r="H31" s="49">
-        <v>29.234999999999999</v>
+        <v>100</v>
       </c>
       <c r="I31" s="92">
-        <f>EBF!E18</f>
-        <v>2605.1202084096003</v>
+        <f>EBF!J18</f>
+        <v>2861.5612011470998</v>
       </c>
       <c r="J31" s="121">
         <v>8.76</v>
       </c>
-      <c r="L31" t="str">
-        <f>EBF!B6</f>
-        <v>IMP</v>
-      </c>
-      <c r="N31" s="70" t="str">
-        <f>$L$31&amp;$C$3</f>
-        <v>IMPOIL</v>
-      </c>
-      <c r="O31" s="72" t="str">
-        <f>"Import of "&amp;$D$3&amp;" "</f>
-        <v xml:space="preserve">Import of Oil </v>
-      </c>
-      <c r="P31" t="s">
-        <v>167</v>
-      </c>
+      <c r="L31" s="162"/>
+      <c r="M31" s="162"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="162"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="66" t="str">
-        <f>N8</f>
-        <v>GRIDELC</v>
-      </c>
+      <c r="B32" s="66"/>
       <c r="C32" s="70"/>
-      <c r="D32" s="160" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="49">
-        <v>100</v>
-      </c>
-      <c r="I32" s="92">
-        <f>EBF!J18</f>
-        <v>2861.5612011470998</v>
-      </c>
-      <c r="J32" s="121">
-        <v>8.76</v>
-      </c>
+      <c r="D32" s="160"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="121"/>
       <c r="L32" s="162"/>
       <c r="M32" s="162"/>
       <c r="N32" s="163"/>
       <c r="O32" s="164"/>
       <c r="P32" s="162"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="66"/>
       <c r="C33" s="70"/>
       <c r="D33" s="160"/>
@@ -8414,13 +8423,10 @@
       <c r="H33" s="49"/>
       <c r="I33" s="92"/>
       <c r="J33" s="121"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="162"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="164"/>
-      <c r="P33" s="162"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N33" s="70"/>
+      <c r="O33" s="72"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="66"/>
       <c r="C34" s="70"/>
       <c r="D34" s="160"/>
@@ -8432,7 +8438,7 @@
       <c r="N34" s="70"/>
       <c r="O34" s="72"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="66"/>
       <c r="C35" s="70"/>
       <c r="D35" s="160"/>
@@ -8444,7 +8450,7 @@
       <c r="N35" s="70"/>
       <c r="O35" s="72"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="66"/>
       <c r="C36" s="70"/>
       <c r="D36" s="160"/>
@@ -8456,7 +8462,7 @@
       <c r="N36" s="70"/>
       <c r="O36" s="72"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="66"/>
       <c r="C37" s="70"/>
       <c r="D37" s="160"/>
@@ -8468,7 +8474,7 @@
       <c r="N37" s="70"/>
       <c r="O37" s="72"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="66"/>
       <c r="C38" s="70"/>
       <c r="D38" s="160"/>
@@ -8480,7 +8486,7 @@
       <c r="N38" s="70"/>
       <c r="O38" s="72"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="66"/>
       <c r="C39" s="70"/>
       <c r="D39" s="160"/>
@@ -8492,7 +8498,7 @@
       <c r="N39" s="70"/>
       <c r="O39" s="72"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="66"/>
       <c r="C40" s="70"/>
       <c r="D40" s="160"/>
@@ -8504,7 +8510,7 @@
       <c r="N40" s="70"/>
       <c r="O40" s="72"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="66"/>
       <c r="C41" s="70"/>
       <c r="D41" s="160"/>
@@ -8516,10 +8522,9 @@
       <c r="N41" s="70"/>
       <c r="O41" s="72"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="66"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="160"/>
+      <c r="D42" s="66"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="H42" s="49"/>
@@ -8528,7 +8533,7 @@
       <c r="N42" s="70"/>
       <c r="O42" s="72"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="66"/>
       <c r="D43" s="66"/>
       <c r="E43" s="1"/>
@@ -8539,35 +8544,40 @@
       <c r="N43" s="70"/>
       <c r="O43" s="72"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="1"/>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="66" t="str">
+        <f>N30</f>
+        <v>IMPOIL</v>
+      </c>
+      <c r="D44" s="66" t="str">
+        <f>N20</f>
+        <v>CONMDRIVE</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2022</v>
+      </c>
       <c r="F44" s="1"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="121"/>
-      <c r="L44" t="s">
-        <v>46</v>
-      </c>
-      <c r="N44" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="O44" s="72" t="s">
-        <v>269</v>
-      </c>
-      <c r="P44" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="66" t="str">
-        <f>N31</f>
-        <v>IMPOIL</v>
+      <c r="H44" s="49">
+        <f>H30</f>
+        <v>29.234999999999999</v>
+      </c>
+      <c r="I44" s="92">
+        <f>EBF!E19</f>
+        <v>8781.4640358504003</v>
+      </c>
+      <c r="J44" s="121">
+        <v>8.76</v>
+      </c>
+      <c r="N44" s="70"/>
+      <c r="O44" s="72"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="66" t="s">
+        <v>264</v>
       </c>
       <c r="D45" s="66" t="str">
         <f>N21</f>
-        <v>CONMDRIVE</v>
+        <v>CONELC</v>
       </c>
       <c r="E45" s="1">
         <v>2022</v>
@@ -8575,11 +8585,11 @@
       <c r="F45" s="1"/>
       <c r="H45" s="49">
         <f>H31</f>
-        <v>29.234999999999999</v>
+        <v>100</v>
       </c>
       <c r="I45" s="92">
-        <f>EBF!E19</f>
-        <v>8781.4640358504003</v>
+        <f>EBF!J19</f>
+        <v>150.60848427090019</v>
       </c>
       <c r="J45" s="121">
         <v>8.76</v>
@@ -8587,72 +8597,46 @@
       <c r="N45" s="70"/>
       <c r="O45" s="72"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="66" t="s">
-        <v>265</v>
-      </c>
-      <c r="D46" s="66" t="str">
-        <f>N22</f>
-        <v>CONELC</v>
-      </c>
-      <c r="E46" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="H46" s="49">
-        <f>H32</f>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="48"/>
+      <c r="C47" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="47"/>
+      <c r="C48" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I46" s="92">
-        <f>EBF!J19</f>
-        <v>150.60848427090019</v>
-      </c>
-      <c r="J46" s="121">
-        <v>8.76</v>
-      </c>
-      <c r="N46" s="70"/>
-      <c r="O46" s="72"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="48"/>
-      <c r="C48" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B49" s="47"/>
-      <c r="C49" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
+    </row>
+    <row r="50" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U51" s="1"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U52" s="1"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8667,8 +8651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V30"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="H1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8852,15 +8836,15 @@
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
-      <c r="N6" s="171" t="s">
+      <c r="N6" s="170" t="s">
         <v>82</v>
       </c>
       <c r="O6" s="95"/>
-      <c r="P6" s="171" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q6" s="171" t="s">
-        <v>277</v>
+      <c r="P6" s="170" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q6" s="170" t="s">
+        <v>274</v>
       </c>
       <c r="R6" s="95" t="s">
         <v>167</v>
@@ -8911,10 +8895,10 @@
       </c>
       <c r="O9" s="95"/>
       <c r="P9" s="95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q9" s="95" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R9" s="95" t="s">
         <v>167</v>
@@ -8932,10 +8916,10 @@
       </c>
       <c r="O10" s="95"/>
       <c r="P10" s="95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R10" s="95" t="s">
         <v>167</v>
@@ -9058,10 +9042,10 @@
         <v>121</v>
       </c>
       <c r="J14" s="103" t="s">
+        <v>288</v>
+      </c>
+      <c r="K14" s="104" t="s">
         <v>183</v>
-      </c>
-      <c r="K14" s="104" t="s">
-        <v>184</v>
       </c>
       <c r="L14" s="105"/>
       <c r="M14" s="105"/>
@@ -9100,7 +9084,7 @@
       <c r="C15" s="106"/>
       <c r="D15" s="106"/>
       <c r="E15" s="107" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F15" s="107"/>
       <c r="G15" s="107"/>
@@ -9166,7 +9150,7 @@
         <v>158</v>
       </c>
       <c r="Q16" s="93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R16" s="95" t="str">
         <f>$E$2</f>
@@ -9275,7 +9259,7 @@
         <v>46</v>
       </c>
       <c r="Q18" s="93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R18" s="93" t="s">
         <v>167</v>
@@ -9284,7 +9268,7 @@
         <v>159</v>
       </c>
       <c r="T18" s="159" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
@@ -9296,9 +9280,9 @@
         <f>PRI_Sector_Fuels!N8</f>
         <v>GRIDELC</v>
       </c>
-      <c r="D19" s="166" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="D19" s="166" t="str">
+        <f>P6</f>
+        <v>MANDRIVE</v>
       </c>
       <c r="E19" s="167">
         <f>EBF!K18/(DemTechs_INDF!G19*DemTechs_INDF!F29)*1000</f>
@@ -9319,28 +9303,12 @@
       <c r="J19" s="165">
         <v>0</v>
       </c>
-      <c r="R19" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="S19" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="T19" s="169" t="s">
-        <v>273</v>
-      </c>
+      <c r="T19" s="171"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="170" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="95" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="166" t="str">
-        <f>P$6</f>
-        <v>MANDRIVE</v>
-      </c>
+      <c r="B20" s="169"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="166"/>
       <c r="E20" s="167"/>
       <c r="F20" s="168"/>
       <c r="G20" s="165"/>
@@ -9357,7 +9325,7 @@
         <v>46</v>
       </c>
       <c r="Q21" s="93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R21" s="95" t="str">
         <f t="shared" ref="R21" si="0">$E$2</f>
@@ -9367,19 +9335,19 @@
         <v>159</v>
       </c>
       <c r="T21" s="159" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C22" s="93" t="str">
-        <f>PRI_Sector_Fuels!N21</f>
+        <f>PRI_Sector_Fuels!N20</f>
         <v>CONMDRIVE</v>
       </c>
       <c r="D22" s="93" t="str">
-        <f>PRI_Sector_Fuels!N21</f>
+        <f>PRI_Sector_Fuels!N20</f>
         <v>CONMDRIVE</v>
       </c>
       <c r="F22" s="114">
@@ -9393,10 +9361,10 @@
       </c>
       <c r="O22" s="118"/>
       <c r="P22" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q22" s="118" t="s">
         <v>251</v>
-      </c>
-      <c r="Q22" s="118" t="s">
-        <v>252</v>
       </c>
       <c r="R22" s="119" t="s">
         <v>167</v>
@@ -9410,11 +9378,11 @@
         <v>85</v>
       </c>
       <c r="C23" s="93" t="str">
-        <f>PRI_Sector_Fuels!N22</f>
+        <f>PRI_Sector_Fuels!N21</f>
         <v>CONELC</v>
       </c>
       <c r="D23" s="93" t="str">
-        <f>PRI_Sector_Fuels!N22</f>
+        <f>PRI_Sector_Fuels!N21</f>
         <v>CONELC</v>
       </c>
       <c r="F23" s="114">
@@ -9431,7 +9399,7 @@
         <v>85</v>
       </c>
       <c r="Q23" s="93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
@@ -9453,16 +9421,16 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E27" s="93" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F27" s="93" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H27" s="115"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E29" s="93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F29" s="93">
         <f>24*365</f>
@@ -9484,8 +9452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="P63" sqref="P63"/>
+    <sheetView topLeftCell="A3" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9543,13 +9511,13 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="122" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="122" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="122" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E6" s="122">
         <v>2022</v>
@@ -9585,45 +9553,45 @@
         <v>81</v>
       </c>
       <c r="C7" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="E7" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="125" t="s">
-        <v>189</v>
-      </c>
       <c r="F7" s="125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G7" s="125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H7" s="125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I7" s="125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J7" s="125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K7" s="125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L7" s="153"/>
       <c r="M7" s="155" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N7" s="130"/>
       <c r="O7" s="122" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P7" s="122" t="s">
         <v>0</v>
       </c>
       <c r="Q7" s="122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R7" s="122">
         <v>2022</v>
@@ -9663,14 +9631,14 @@
         <v>81</v>
       </c>
       <c r="P8" s="132" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="132"/>
       <c r="R8" s="132"/>
     </row>
     <row r="9" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="126" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="126" t="str">
         <f>DemTechs_INDF!P5</f>
@@ -9720,9 +9688,12 @@
     </row>
     <row r="10" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="126" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="126"/>
+        <v>189</v>
+      </c>
+      <c r="C10" s="126" t="str">
+        <f>DemTechs_INDF!P6</f>
+        <v>MANDRIVE</v>
+      </c>
       <c r="D10" s="126" t="str">
         <f>E$2</f>
         <v>GWh</v>
@@ -9759,14 +9730,14 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P10" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q10" s="93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R10" s="133">
         <v>0.75</v>
@@ -9784,14 +9755,14 @@
       </c>
       <c r="M11" s="156"/>
       <c r="O11" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P11" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q11" s="93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R11" s="133">
         <v>0.25</v>
@@ -9801,7 +9772,7 @@
       <c r="B12" s="126"/>
       <c r="C12" s="126"/>
       <c r="D12" s="146" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E12" s="145">
         <f>E10/(E$9+E$10)</f>
@@ -9834,14 +9805,14 @@
       <c r="M12" s="156"/>
       <c r="N12" s="5"/>
       <c r="O12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P12" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q12" s="93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R12" s="133">
         <v>1.0416666666666666E-2</v>
@@ -9850,7 +9821,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="D13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E13" s="145">
         <f>E9/(E$9+E$10)</f>
@@ -9882,14 +9853,14 @@
       </c>
       <c r="M13" s="156"/>
       <c r="O13" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P13" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q13" s="134" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R13" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9897,14 +9868,14 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O14" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P14" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R14" s="133">
         <v>1.0416666666666666E-2</v>
@@ -9912,14 +9883,14 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O15" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P15" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R15" s="133">
         <v>1.0416666666666666E-2</v>
@@ -9928,14 +9899,14 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E16" s="5"/>
       <c r="O16" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P16" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R16" s="133">
         <v>1.0416666666666666E-2</v>
@@ -9943,14 +9914,14 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O17" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P17" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R17" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9958,14 +9929,14 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O18" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P18" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R18" s="133">
         <v>1.0416666666666666E-2</v>
@@ -9973,7 +9944,7 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" t="str">
         <f>DemTechs_INDF!P9</f>
@@ -9987,14 +9958,14 @@
         <v>150.60848427090019</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P19" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R19" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10002,7 +9973,7 @@
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" t="str">
         <f>DemTechs_INDF!P10</f>
@@ -10016,14 +9987,14 @@
         <v>8781.4640358504003</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P20" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R20" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10031,14 +10002,14 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O21" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P21" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R21" s="135">
         <v>1.0416666666666666E-2</v>
@@ -10050,14 +10021,14 @@
         <v>99</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P22" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R22" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10069,14 +10040,14 @@
         <v>100</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P23" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R23" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10084,14 +10055,14 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P24" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R24" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10099,14 +10070,14 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P25" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R25" s="135">
         <v>1.0416666666666666E-2</v>
@@ -10114,14 +10085,14 @@
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O26" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P26" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R26" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10129,14 +10100,14 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O27" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P27" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R27" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10144,14 +10115,14 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O28" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P28" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R28" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10159,14 +10130,14 @@
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O29" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P29" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R29" s="135">
         <v>1.0416666666666666E-2</v>
@@ -10174,14 +10145,14 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O30" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P30" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R30" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10189,14 +10160,14 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O31" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P31" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R31" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10204,14 +10175,14 @@
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O32" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P32" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R32" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10219,14 +10190,14 @@
     </row>
     <row r="33" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O33" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P33" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R33" s="135">
         <v>1.0416666666666666E-2</v>
@@ -10234,14 +10205,14 @@
     </row>
     <row r="34" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O34" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P34" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R34" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10249,14 +10220,14 @@
     </row>
     <row r="35" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O35" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P35" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R35" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10264,14 +10235,14 @@
     </row>
     <row r="36" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O36" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P36" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R36" s="133">
         <v>3.125E-2</v>
@@ -10279,14 +10250,14 @@
     </row>
     <row r="37" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O37" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P37" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R37" s="135">
         <v>3.125E-2</v>
@@ -10294,14 +10265,14 @@
     </row>
     <row r="38" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O38" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P38" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R38" s="133">
         <v>3.125E-2</v>
@@ -10309,14 +10280,14 @@
     </row>
     <row r="39" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O39" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P39" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R39" s="133">
         <v>3.125E-2</v>
@@ -10324,14 +10295,14 @@
     </row>
     <row r="40" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O40" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P40" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R40" s="133">
         <v>3.125E-2</v>
@@ -10339,14 +10310,14 @@
     </row>
     <row r="41" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O41" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P41" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R41" s="135">
         <v>3.125E-2</v>
@@ -10354,14 +10325,14 @@
     </row>
     <row r="42" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O42" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P42" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R42" s="133">
         <v>3.125E-2</v>
@@ -10369,14 +10340,14 @@
     </row>
     <row r="43" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O43" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P43" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R43" s="133">
         <v>3.125E-2</v>
@@ -10384,14 +10355,14 @@
     </row>
     <row r="44" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O44" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P44" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R44" s="133">
         <v>3.125E-2</v>
@@ -10399,14 +10370,14 @@
     </row>
     <row r="45" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O45" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P45" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R45" s="135">
         <v>3.125E-2</v>
@@ -10414,14 +10385,14 @@
     </row>
     <row r="46" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O46" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P46" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R46" s="133">
         <v>3.125E-2</v>
@@ -10429,14 +10400,14 @@
     </row>
     <row r="47" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O47" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P47" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R47" s="133">
         <v>3.125E-2</v>
@@ -10444,14 +10415,14 @@
     </row>
     <row r="48" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O48" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P48" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R48" s="133">
         <v>3.125E-2</v>
@@ -10459,14 +10430,14 @@
     </row>
     <row r="49" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O49" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P49" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R49" s="135">
         <v>3.125E-2</v>
@@ -10474,14 +10445,14 @@
     </row>
     <row r="50" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O50" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P50" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R50" s="133">
         <v>3.125E-2</v>
@@ -10489,14 +10460,14 @@
     </row>
     <row r="51" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O51" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P51" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R51" s="133">
         <v>3.125E-2</v>
@@ -10504,14 +10475,14 @@
     </row>
     <row r="52" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O52" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P52" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R52" s="133">
         <v>3.125E-2</v>
@@ -10519,14 +10490,14 @@
     </row>
     <row r="53" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O53" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P53" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R53" s="135">
         <v>3.125E-2</v>
@@ -10534,14 +10505,14 @@
     </row>
     <row r="54" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O54" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P54" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R54" s="133">
         <v>3.125E-2</v>
@@ -10549,14 +10520,14 @@
     </row>
     <row r="55" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O55" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P55" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R55" s="133">
         <v>3.125E-2</v>
@@ -10564,14 +10535,14 @@
     </row>
     <row r="56" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O56" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P56" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R56" s="133">
         <v>3.125E-2</v>
@@ -10579,14 +10550,14 @@
     </row>
     <row r="57" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O57" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P57" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R57" s="135">
         <v>3.125E-2</v>
@@ -10594,14 +10565,14 @@
     </row>
     <row r="58" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O58" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P58" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R58" s="133">
         <v>3.125E-2</v>
@@ -10609,14 +10580,14 @@
     </row>
     <row r="59" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O59" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P59" s="1" t="str">
         <f>DemTechs_INDF!P$6</f>
         <v>MANDRIVE</v>
       </c>
       <c r="Q59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R59" s="133">
         <v>3.125E-2</v>
@@ -10647,7 +10618,7 @@
   <sheetData>
     <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="137" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3" s="137"/>
       <c r="D3" s="137"/>
@@ -10666,7 +10637,7 @@
     </row>
     <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="139" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" s="140"/>
     </row>
@@ -10699,16 +10670,16 @@
         <v>87</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D7" s="142" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="142" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" s="142" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G7" s="142"/>
       <c r="H7" s="142"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND_DIS - Original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1466615-09BE-4093-AB56-CBAB31040B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435CE7AB-91B9-436A-8FB3-EA8DE8871FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -351,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I25" authorId="2" shapeId="0" xr:uid="{CC8E5D4E-1B3A-43C8-A112-A6697F95B4CC}">
+    <comment ref="I22" authorId="2" shapeId="0" xr:uid="{CC8E5D4E-1B3A-43C8-A112-A6697F95B4CC}">
       <text>
         <r>
           <rPr>
@@ -398,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R25" authorId="2" shapeId="0" xr:uid="{B82C1148-4753-4923-93C2-C67B5D40F340}">
+    <comment ref="R22" authorId="2" shapeId="0" xr:uid="{B82C1148-4753-4923-93C2-C67B5D40F340}">
       <text>
         <r>
           <rPr>
@@ -491,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S25" authorId="1" shapeId="0" xr:uid="{968CFA1B-C5E9-492D-A0A2-485C997CC98A}">
+    <comment ref="S22" authorId="1" shapeId="0" xr:uid="{968CFA1B-C5E9-492D-A0A2-485C997CC98A}">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T25" authorId="2" shapeId="0" xr:uid="{A0615139-A259-4F4D-937C-E8C54FC43716}">
+    <comment ref="T22" authorId="2" shapeId="0" xr:uid="{A0615139-A259-4F4D-937C-E8C54FC43716}">
       <text>
         <r>
           <rPr>
@@ -579,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L26" authorId="2" shapeId="0" xr:uid="{028E65FC-6C67-4206-97D8-90E7E85C9E5E}">
+    <comment ref="L23" authorId="2" shapeId="0" xr:uid="{028E65FC-6C67-4206-97D8-90E7E85C9E5E}">
       <text>
         <r>
           <rPr>
@@ -1133,7 +1133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T13" authorId="2" shapeId="0" xr:uid="{B8BF4189-7AEB-4804-8932-33CB73FCE7E5}">
+    <comment ref="T15" authorId="2" shapeId="0" xr:uid="{B8BF4189-7AEB-4804-8932-33CB73FCE7E5}">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U13" authorId="1" shapeId="0" xr:uid="{5D6B271C-ECB1-4F2A-B44A-CFC55CCC04E5}">
+    <comment ref="U15" authorId="1" shapeId="0" xr:uid="{5D6B271C-ECB1-4F2A-B44A-CFC55CCC04E5}">
       <text>
         <r>
           <rPr>
@@ -1251,7 +1251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V13" authorId="2" shapeId="0" xr:uid="{2D72E718-CBF9-42D3-993C-F0AD66976F32}">
+    <comment ref="V15" authorId="2" shapeId="0" xr:uid="{2D72E718-CBF9-42D3-993C-F0AD66976F32}">
       <text>
         <r>
           <rPr>
@@ -1314,7 +1314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="2" shapeId="0" xr:uid="{0B963EA5-F116-4DDE-B632-C6029837D6FB}">
+    <comment ref="N16" authorId="2" shapeId="0" xr:uid="{0B963EA5-F116-4DDE-B632-C6029837D6FB}">
       <text>
         <r>
           <rPr>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="297">
   <si>
     <t>CommName</t>
   </si>
@@ -2023,12 +2023,6 @@
     <t>Demand1</t>
   </si>
   <si>
-    <t>MANCOALMIN</t>
-  </si>
-  <si>
-    <t>MANCOALIMP</t>
-  </si>
-  <si>
     <t>ENV</t>
   </si>
   <si>
@@ -2080,9 +2074,6 @@
     <t>Demand3</t>
   </si>
   <si>
-    <t>MANOILIMP</t>
-  </si>
-  <si>
     <t>MANELC</t>
   </si>
   <si>
@@ -2113,6 +2104,9 @@
     <t>FIXOM</t>
   </si>
   <si>
+    <t>Inestment Cost</t>
+  </si>
+  <si>
     <t>Fixed O&amp;M Cost</t>
   </si>
   <si>
@@ -2323,18 +2317,6 @@
     <t>Electricity for machine drive</t>
   </si>
   <si>
-    <t>Construction oil-imported</t>
-  </si>
-  <si>
-    <t>CONMDRIVE</t>
-  </si>
-  <si>
-    <t>Construction machine drive</t>
-  </si>
-  <si>
-    <t>Construction  electricity</t>
-  </si>
-  <si>
     <t>Manufacturing electricity</t>
   </si>
   <si>
@@ -2368,6 +2350,12 @@
     <t>GRID</t>
   </si>
   <si>
+    <t>Grid electricity</t>
+  </si>
+  <si>
+    <t>Manufacturing ElectricitySupply-ELC</t>
+  </si>
+  <si>
     <t>Electricity share</t>
   </si>
   <si>
@@ -2380,7 +2368,46 @@
     <t>DayNite</t>
   </si>
   <si>
-    <t>Electricity from Grid</t>
+    <t>WINDELC</t>
+  </si>
+  <si>
+    <t>SOLELC</t>
+  </si>
+  <si>
+    <t>Wind Electricity</t>
+  </si>
+  <si>
+    <t>Solar Electricity</t>
+  </si>
+  <si>
+    <t>SOLTHT</t>
+  </si>
+  <si>
+    <t>Solar thermal</t>
+  </si>
+  <si>
+    <t>NGAS</t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>Ngas</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>Solar to heat transformation technology</t>
+  </si>
+  <si>
+    <t>Furnace</t>
+  </si>
+  <si>
+    <t>Electricity to MANHEAT</t>
   </si>
   <si>
     <t>MANDRIVE</t>
@@ -2389,46 +2416,125 @@
     <t>Manufacturing non-process electricity supply</t>
   </si>
   <si>
-    <t>WIND</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>Ngas</t>
-  </si>
-  <si>
-    <t>WINDELC</t>
-  </si>
-  <si>
-    <t>Wind Electricity</t>
-  </si>
-  <si>
-    <t>SOLELC</t>
-  </si>
-  <si>
-    <t>Solar Electricity</t>
-  </si>
-  <si>
-    <t>SOLTHT</t>
-  </si>
-  <si>
-    <t>Solar thermal</t>
-  </si>
-  <si>
-    <t>MANBIOMIN</t>
-  </si>
-  <si>
-    <t>MANGASMIN</t>
-  </si>
-  <si>
-    <t>NGAS</t>
-  </si>
-  <si>
-    <t>Total manufacturing electricity supply</t>
-  </si>
-  <si>
-    <t>Investment Cost</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>COALMIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>COALIMP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OILIMP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BIOMIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GASMIN</t>
+    </r>
+  </si>
+  <si>
+    <t>WNDTRBN</t>
+  </si>
+  <si>
+    <t>Wind turbine</t>
+  </si>
+  <si>
+    <t>SOLPV</t>
+  </si>
+  <si>
+    <t>Solar PV</t>
+  </si>
+  <si>
+    <t>Solar themal</t>
+  </si>
+  <si>
+    <t>Manufacturing CO2</t>
+  </si>
+  <si>
+    <t>ktoe</t>
+  </si>
+  <si>
+    <t>CO2MAN</t>
   </si>
 </sst>
 </file>
@@ -2440,7 +2546,7 @@
     <numFmt numFmtId="165" formatCode="General_)"/>
     <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2622,6 +2728,18 @@
     <font>
       <sz val="14"/>
       <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3004,7 +3122,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3326,9 +3444,23 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="24" fillId="17" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="24" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="24" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -4182,13 +4314,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>133299</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4296,13 +4428,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5218,7 +5350,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>127</v>
@@ -5903,13 +6035,13 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -5955,7 +6087,7 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D40" s="18">
         <f>D18/(D18+E18)</f>
@@ -6049,7 +6181,7 @@
         <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E47" s="117">
         <f>E18/(D18+E18)</f>
@@ -6061,7 +6193,7 @@
         <v>0.25338314270268686</v>
       </c>
       <c r="L47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -6069,7 +6201,7 @@
         <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J48" s="117">
         <v>1</v>
@@ -6079,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.25">
@@ -6187,7 +6319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -6250,7 +6382,7 @@
         <v>125</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>94</v>
@@ -6259,7 +6391,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>127</v>
@@ -7144,13 +7276,13 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -7196,7 +7328,7 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D40" s="18">
         <f>D18/(D18+E18)</f>
@@ -7290,7 +7422,7 @@
         <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E47" s="117">
         <f>E18/(D18+E18)</f>
@@ -7302,7 +7434,7 @@
         <v>0.25338314270268686</v>
       </c>
       <c r="L47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -7310,7 +7442,7 @@
         <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J48" s="117">
         <v>1</v>
@@ -7320,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.25">
@@ -7429,8 +7561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7491,10 +7623,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39:X60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7550,7 +7682,7 @@
         <v>Coal</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G2" s="7" t="str">
         <f>EBF!P2</f>
@@ -7573,10 +7705,10 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G3" s="7" t="str">
         <f>EBF!P2</f>
@@ -7612,16 +7744,16 @@
     </row>
     <row r="4" spans="2:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="161" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G4" s="7" t="str">
-        <f>EBF!P$2</f>
+        <f>EBF!P2</f>
         <v>TH$2022</v>
       </c>
       <c r="L4" s="69" t="s">
@@ -7653,178 +7785,176 @@
       </c>
     </row>
     <row r="5" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="81"/>
+      <c r="C5" s="162" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="162" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>165</v>
+      </c>
       <c r="F5" s="162"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <f>EBF!P3</f>
+        <v>0</v>
+      </c>
       <c r="L5" s="66" t="s">
         <v>74</v>
       </c>
       <c r="M5" s="70"/>
-      <c r="N5" s="66" t="s">
-        <v>153</v>
+      <c r="N5" s="160" t="s">
+        <v>284</v>
       </c>
       <c r="O5" s="66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P5" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q5" s="66" t="s">
-        <v>180</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="Q5" s="66"/>
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
       <c r="T5" s="66"/>
     </row>
     <row r="6" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="81"/>
+      <c r="C6" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>165</v>
+      </c>
       <c r="F6" s="162"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <f>EBF!P4</f>
+        <v>0</v>
+      </c>
       <c r="L6" s="66" t="s">
         <v>74</v>
       </c>
       <c r="M6" s="70"/>
-      <c r="N6" s="66" t="s">
-        <v>154</v>
+      <c r="N6" s="160" t="s">
+        <v>285</v>
       </c>
       <c r="O6" s="66" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q6" s="66" t="s">
-        <v>180</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="Q6" s="66"/>
       <c r="R6" s="66"/>
       <c r="S6" s="66"/>
       <c r="T6" s="66"/>
     </row>
     <row r="7" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="162" t="s">
-        <v>275</v>
+        <v>131</v>
       </c>
       <c r="D7" s="162" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E7" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F7" s="162"/>
-      <c r="G7" s="7" t="s">
-        <v>125</v>
+      <c r="G7" s="7">
+        <f>EBF!P5</f>
+        <v>0</v>
       </c>
       <c r="L7" s="66" t="s">
         <v>74</v>
       </c>
       <c r="M7" s="70"/>
-      <c r="N7" s="66" t="s">
-        <v>172</v>
+      <c r="N7" s="160" t="s">
+        <v>286</v>
       </c>
       <c r="O7" s="66" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P7" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q7" s="66" t="s">
-        <v>180</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="Q7" s="66"/>
       <c r="R7" s="66"/>
       <c r="S7" s="66"/>
       <c r="T7" s="66"/>
     </row>
     <row r="8" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="162" t="s">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="D8" s="162" t="s">
-        <v>141</v>
+        <v>277</v>
       </c>
       <c r="E8" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F8" s="162"/>
-      <c r="G8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L8" s="66" t="s">
-        <v>74</v>
+      <c r="G8" s="7">
+        <f>EBF!P6</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="160" t="s">
+        <v>46</v>
       </c>
       <c r="M8" s="70"/>
       <c r="N8" s="160" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="O8" s="160" t="s">
-        <v>272</v>
+        <v>85</v>
       </c>
       <c r="P8" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q8" s="66" t="s">
-        <v>180</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="Q8" s="66"/>
       <c r="R8" s="66"/>
       <c r="S8" s="66"/>
       <c r="T8" s="66"/>
     </row>
     <row r="9" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="162" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="162" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="81" t="s">
-        <v>167</v>
-      </c>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="162"/>
-      <c r="G9" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" s="66"/>
+      <c r="G9" s="7"/>
+      <c r="L9" s="160" t="s">
+        <v>74</v>
+      </c>
       <c r="M9" s="70"/>
-      <c r="N9" s="160"/>
-      <c r="O9" s="160"/>
-      <c r="P9" s="66"/>
+      <c r="N9" s="160" t="s">
+        <v>272</v>
+      </c>
+      <c r="O9" s="160" t="s">
+        <v>273</v>
+      </c>
+      <c r="P9" s="160" t="s">
+        <v>165</v>
+      </c>
       <c r="Q9" s="66"/>
       <c r="R9" s="66"/>
       <c r="S9" s="66"/>
       <c r="T9" s="66"/>
     </row>
     <row r="10" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="162" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="162" t="s">
-        <v>277</v>
-      </c>
-      <c r="E10" s="162" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" s="162" t="s">
-        <v>125</v>
-      </c>
       <c r="L10" s="163" t="s">
         <v>74</v>
       </c>
       <c r="M10" s="163"/>
       <c r="N10" s="163" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O10" s="163" t="s">
-        <v>279</v>
+        <v>124</v>
       </c>
       <c r="P10" s="163" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q10" s="66" t="s">
-        <v>180</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="Q10" s="163"/>
       <c r="R10" s="163"/>
       <c r="S10" s="163"/>
       <c r="T10" s="163"/>
@@ -7835,408 +7965,463 @@
       </c>
       <c r="M11" s="163"/>
       <c r="N11" s="163" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="O11" s="163" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="P11" s="163" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q11" s="66" t="s">
-        <v>180</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="Q11" s="163"/>
       <c r="R11" s="163"/>
       <c r="S11" s="163"/>
       <c r="T11" s="163"/>
     </row>
-    <row r="12" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L12" s="163" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163" t="s">
-        <v>282</v>
-      </c>
-      <c r="O12" s="163" t="s">
-        <v>283</v>
-      </c>
-      <c r="P12" s="163" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q12" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="R12" s="163"/>
-      <c r="S12" s="163"/>
-      <c r="T12" s="163"/>
-    </row>
-    <row r="13" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L13" s="163" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="163"/>
-      <c r="N13" s="163" t="s">
-        <v>284</v>
-      </c>
-      <c r="O13" s="163" t="s">
-        <v>124</v>
-      </c>
-      <c r="P13" s="163" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q13" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="R13" s="163"/>
-      <c r="S13" s="163"/>
-      <c r="T13" s="163"/>
-    </row>
-    <row r="14" spans="2:20" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L14" s="163" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163" t="s">
-        <v>285</v>
-      </c>
-      <c r="O14" s="163" t="s">
-        <v>286</v>
-      </c>
-      <c r="P14" s="163" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q14" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="R14" s="163"/>
-      <c r="S14" s="163"/>
-      <c r="T14" s="163"/>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L12" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="70"/>
+      <c r="N12" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L13" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="70"/>
+      <c r="N13" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="O13" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="P13" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L14" s="160" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="70"/>
+      <c r="N14" s="160" t="s">
+        <v>296</v>
+      </c>
+      <c r="O14" s="160" t="s">
+        <v>294</v>
+      </c>
+      <c r="P14" s="160" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L15" s="163" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163" t="s">
-        <v>173</v>
-      </c>
-      <c r="O15" s="163" t="s">
-        <v>287</v>
-      </c>
-      <c r="P15" s="163" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q15" s="66" t="s">
-        <v>180</v>
-      </c>
+      <c r="L15" s="160"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="160"/>
+      <c r="O15" s="160"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="66"/>
       <c r="R15" s="66"/>
       <c r="S15" s="66"/>
       <c r="T15" s="66"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="163"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="160"/>
       <c r="Q16" s="66"/>
       <c r="R16" s="66"/>
       <c r="S16" s="66"/>
       <c r="T16" s="66"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L17" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" s="70"/>
-      <c r="N17" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="O17" s="66" t="s">
-        <v>258</v>
-      </c>
-      <c r="P17" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q17" s="66" t="s">
-        <v>180</v>
-      </c>
+      <c r="L17" s="179" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="179"/>
+      <c r="N17" s="179" t="s">
+        <v>268</v>
+      </c>
+      <c r="O17" s="179" t="s">
+        <v>270</v>
+      </c>
+      <c r="P17" s="179" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q17" s="66"/>
       <c r="R17" s="66"/>
       <c r="S17" s="66"/>
       <c r="T17" s="66"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L18" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" s="70"/>
-      <c r="N18" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="O18" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="P18" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q18" s="66" t="s">
-        <v>180</v>
-      </c>
+      <c r="L18" s="179" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="179"/>
+      <c r="N18" s="179" t="s">
+        <v>269</v>
+      </c>
+      <c r="O18" s="179" t="s">
+        <v>271</v>
+      </c>
+      <c r="P18" s="179" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q18" s="66"/>
       <c r="R18" s="66"/>
       <c r="S18" s="66"/>
       <c r="T18" s="66"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L19" s="66" t="s">
-        <v>74</v>
-      </c>
+      <c r="L19" s="160"/>
       <c r="M19" s="70"/>
-      <c r="N19" s="66" t="s">
-        <v>246</v>
-      </c>
-      <c r="O19" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="P19" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q19" s="66" t="s">
-        <v>180</v>
-      </c>
+      <c r="N19" s="160"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="66"/>
       <c r="R19" s="66"/>
       <c r="S19" s="66"/>
       <c r="T19" s="66"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L20" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="M20" s="70"/>
-      <c r="N20" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="O20" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="P20" s="66" t="s">
+      <c r="L20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="L21" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="65"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" s="67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="Q20" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L21" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="M21" s="70"/>
-      <c r="N21" s="66" t="s">
-        <v>247</v>
-      </c>
-      <c r="O21" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="P21" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q21" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L22" s="66"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="L24" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="65"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="L25" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="O25" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="P25" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q25" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="R25" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="S25" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="T25" s="67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="L26" s="69" t="s">
+      <c r="L23" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="M26" s="69" t="s">
+      <c r="M23" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="N26" s="69" t="s">
+      <c r="N23" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="69" t="s">
+      <c r="O23" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="69" t="s">
+      <c r="P23" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="Q26" s="69" t="s">
+      <c r="Q23" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="69" t="s">
+      <c r="R23" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="S26" s="69" t="s">
+      <c r="S23" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="T26" s="69" t="s">
+      <c r="T23" s="69" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
+    <row r="24" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8" t="str">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="I27" s="8" t="str">
+      <c r="H24" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I24" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="J27" s="80"/>
-      <c r="L27" s="69" t="s">
+      <c r="J24" s="80"/>
+      <c r="L24" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="66" t="str">
+        <f>N25</f>
+        <v>MINCOA</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="66" t="str">
+        <f>N5</f>
+        <v>MANCOALMIN</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="48">
+        <v>2673000</v>
+      </c>
+      <c r="H25" s="49">
+        <v>4.5449999999999999</v>
+      </c>
+      <c r="I25" s="91">
+        <f>EBF!D5</f>
+        <v>4518.4003614720004</v>
+      </c>
+      <c r="J25" s="121">
+        <v>8.76</v>
+      </c>
+      <c r="L25" s="66" t="str">
+        <f>EBF!$B$5</f>
+        <v>MIN</v>
+      </c>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70" t="str">
+        <f>$L$25&amp;$C$2</f>
+        <v>MINCOA</v>
+      </c>
+      <c r="O25" s="72" t="str">
+        <f>"Domestic Supply of "&amp;$D$2&amp;" "</f>
+        <v xml:space="preserve">Domestic Supply of Coal </v>
+      </c>
+      <c r="P25" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="66" t="str">
+        <f t="shared" ref="B26:B27" si="0">N26</f>
+        <v>IMPCOA</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="66" t="str">
+        <f>N6</f>
+        <v>MANCOALIMP</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63">
+        <v>21.004999999999999</v>
+      </c>
+      <c r="I26" s="92">
+        <f>EBF!D6</f>
+        <v>3157.6616415018002</v>
+      </c>
+      <c r="J26" s="121">
+        <v>8.76</v>
+      </c>
+      <c r="L26" s="70" t="str">
+        <f>EBF!$B$6</f>
+        <v>IMP</v>
+      </c>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70" t="str">
+        <f>$L$26&amp;$C$2</f>
+        <v>IMPCOA</v>
+      </c>
+      <c r="O26" s="72" t="str">
+        <f>"Import of "&amp;$D$2&amp;" "</f>
+        <v xml:space="preserve">Import of Coal </v>
+      </c>
+      <c r="P26" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>IMPOIL</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="66" t="str">
+        <f>N7</f>
+        <v>MANOILIMP</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="49">
+        <v>29.234999999999999</v>
+      </c>
+      <c r="I27" s="92">
+        <f>EBF!E18</f>
+        <v>2605.1202084096003</v>
+      </c>
+      <c r="J27" s="121">
+        <v>8.76</v>
+      </c>
+      <c r="L27" t="str">
+        <f>EBF!B6</f>
+        <v>IMP</v>
+      </c>
+      <c r="N27" s="70" t="str">
+        <f>$L$27&amp;$C$3</f>
+        <v>IMPOIL</v>
+      </c>
+      <c r="O27" s="72" t="str">
+        <f>"Import of "&amp;$D$3&amp;" "</f>
+        <v xml:space="preserve">Import of Oil </v>
+      </c>
+      <c r="P27" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="66" t="str">
-        <f>N28</f>
-        <v>MINCOA</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="66" t="str">
-        <f>N5</f>
-        <v>MANCOALMIN</v>
+        <f>N33</f>
+        <v>GRIDELC</v>
+      </c>
+      <c r="C28" s="70"/>
+      <c r="D28" s="160" t="str">
+        <f>N$8</f>
+        <v>ELC</v>
       </c>
       <c r="E28" s="1">
         <v>2022</v>
@@ -8244,201 +8429,206 @@
       <c r="F28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="48">
-        <v>2673000</v>
-      </c>
       <c r="H28" s="49">
-        <v>4.5449999999999999</v>
-      </c>
-      <c r="I28" s="91">
-        <f>EBF!D5</f>
-        <v>4518.4003614720004</v>
+        <v>100</v>
+      </c>
+      <c r="I28" s="92">
+        <f>EBF!J18</f>
+        <v>2861.5612011470998</v>
       </c>
       <c r="J28" s="121">
         <v>8.76</v>
       </c>
-      <c r="L28" s="66" t="str">
-        <f>EBF!$B$5</f>
-        <v>MIN</v>
-      </c>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70" t="str">
-        <f>$L$28&amp;$C$2</f>
-        <v>MINCOA</v>
-      </c>
-      <c r="O28" s="72" t="str">
-        <f>"Domestic Supply of "&amp;$D$2&amp;" "</f>
-        <v xml:space="preserve">Domestic Supply of Coal </v>
-      </c>
-      <c r="P28" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="70"/>
-      <c r="S28" s="70"/>
-      <c r="T28" s="70"/>
+      <c r="L28" s="162" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="162"/>
+      <c r="N28" s="163" t="str">
+        <f>$L$28&amp;$C$7</f>
+        <v>MINBIO</v>
+      </c>
+      <c r="O28" s="164" t="str">
+        <f>"Domestic Supply of "&amp;$D$7&amp;" "</f>
+        <v xml:space="preserve">Domestic Supply of Biomass </v>
+      </c>
+      <c r="P28" s="162" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="66" t="str">
-        <f t="shared" ref="B29:B30" si="0">N29</f>
-        <v>IMPCOA</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="66" t="str">
-        <f>N6</f>
-        <v>MANCOALIMP</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="62"/>
-      <c r="H29" s="63">
-        <v>21.004999999999999</v>
-      </c>
-      <c r="I29" s="92">
-        <f>EBF!D6</f>
-        <v>3157.6616415018002</v>
-      </c>
-      <c r="J29" s="121">
-        <v>8.76</v>
-      </c>
-      <c r="L29" s="70" t="str">
-        <f>EBF!$B$6</f>
-        <v>IMP</v>
-      </c>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70" t="str">
-        <f>$L$29&amp;$C$2</f>
-        <v>IMPCOA</v>
-      </c>
-      <c r="O29" s="72" t="str">
-        <f>"Import of "&amp;$D$2&amp;" "</f>
-        <v xml:space="preserve">Import of Coal </v>
-      </c>
-      <c r="P29" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
+      <c r="B29" s="175" t="str">
+        <f>N30</f>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="C29" s="175"/>
+      <c r="D29" s="160" t="str">
+        <f t="shared" ref="D29:D30" si="1">N$8</f>
+        <v>ELC</v>
+      </c>
+      <c r="E29" s="174">
+        <v>2030</v>
+      </c>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="173"/>
+      <c r="L29" s="162" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="162"/>
+      <c r="N29" s="163" t="str">
+        <f>$L$29&amp;$C$8</f>
+        <v>MINGAS</v>
+      </c>
+      <c r="O29" s="164" t="str">
+        <f>"Domestic Supply of "&amp;$D$8&amp;" "</f>
+        <v xml:space="preserve">Domestic Supply of Ngas </v>
+      </c>
+      <c r="P29" s="162" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v>IMPOIL</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="66" t="str">
-        <f t="shared" ref="D30" si="1">N7</f>
-        <v>MANOILIMP</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="49">
-        <v>29.234999999999999</v>
-      </c>
-      <c r="I30" s="92">
-        <f>EBF!E18</f>
-        <v>2605.1202084096003</v>
-      </c>
-      <c r="J30" s="121">
-        <v>8.76</v>
-      </c>
-      <c r="L30" t="str">
-        <f>EBF!B6</f>
-        <v>IMP</v>
-      </c>
-      <c r="N30" s="70" t="str">
-        <f>$L$30&amp;$C$3</f>
-        <v>IMPOIL</v>
-      </c>
-      <c r="O30" s="72" t="str">
-        <f>"Import of "&amp;$D$3&amp;" "</f>
-        <v xml:space="preserve">Import of Oil </v>
-      </c>
-      <c r="P30" t="s">
-        <v>167</v>
+      <c r="B30" s="175" t="str">
+        <f>N31</f>
+        <v>SOLPV</v>
+      </c>
+      <c r="C30" s="175"/>
+      <c r="D30" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v>ELC</v>
+      </c>
+      <c r="E30" s="174">
+        <v>2030</v>
+      </c>
+      <c r="F30" s="162"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="173"/>
+      <c r="L30" s="174" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="174"/>
+      <c r="N30" s="175" t="s">
+        <v>289</v>
+      </c>
+      <c r="O30" s="177" t="s">
+        <v>290</v>
+      </c>
+      <c r="P30" s="174" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="66" t="str">
-        <f>N8</f>
-        <v>GRIDELC</v>
-      </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="160" t="s">
+      <c r="B31" s="175" t="str">
+        <f>N32</f>
+        <v>CSP</v>
+      </c>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175" t="str">
+        <f>N9</f>
+        <v>SOLTHT</v>
+      </c>
+      <c r="E31" s="174">
+        <v>2030</v>
+      </c>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="173"/>
+      <c r="L31" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="49">
-        <v>100</v>
-      </c>
-      <c r="I31" s="92">
-        <f>EBF!J18</f>
-        <v>2861.5612011470998</v>
-      </c>
-      <c r="J31" s="121">
-        <v>8.76</v>
-      </c>
-      <c r="L31" s="162"/>
-      <c r="M31" s="162"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="164"/>
-      <c r="P31" s="162"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="O31" s="177" t="s">
+        <v>292</v>
+      </c>
+      <c r="P31" s="174" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="66"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="H32" s="49"/>
+      <c r="B32" s="175" t="str">
+        <f>N28</f>
+        <v>MINBIO</v>
+      </c>
+      <c r="C32" s="175"/>
+      <c r="D32" s="175" t="str">
+        <f>N10</f>
+        <v>MANBIOMIN</v>
+      </c>
+      <c r="E32" s="174">
+        <v>2030</v>
+      </c>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="172"/>
       <c r="I32" s="92"/>
-      <c r="J32" s="121"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="162"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="164"/>
-      <c r="P32" s="162"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="66"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="H33" s="49"/>
+      <c r="J32" s="173"/>
+      <c r="L32" s="161" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="175" t="s">
+        <v>278</v>
+      </c>
+      <c r="O32" s="177" t="s">
+        <v>293</v>
+      </c>
+      <c r="P32" s="174" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="175" t="str">
+        <f>N29</f>
+        <v>MINGAS</v>
+      </c>
+      <c r="C33" s="175"/>
+      <c r="D33" s="175" t="str">
+        <f>N11</f>
+        <v>MANGASMIN</v>
+      </c>
+      <c r="E33" s="174">
+        <v>2030</v>
+      </c>
+      <c r="F33" s="162"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="172"/>
       <c r="I33" s="92"/>
-      <c r="J33" s="121"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="72"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="66"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="160"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="H34" s="49"/>
+      <c r="J33" s="173"/>
+      <c r="L33" s="161" t="s">
+        <v>46</v>
+      </c>
+      <c r="N33" s="160" t="s">
+        <v>258</v>
+      </c>
+      <c r="O33" s="176" t="s">
+        <v>262</v>
+      </c>
+      <c r="P33" s="174" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="163"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="172"/>
       <c r="I34" s="92"/>
-      <c r="J34" s="121"/>
+      <c r="J34" s="173"/>
       <c r="N34" s="70"/>
       <c r="O34" s="72"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B35" s="66"/>
       <c r="C35" s="70"/>
       <c r="D35" s="160"/>
@@ -8450,7 +8640,7 @@
       <c r="N35" s="70"/>
       <c r="O35" s="72"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B36" s="66"/>
       <c r="C36" s="70"/>
       <c r="D36" s="160"/>
@@ -8462,7 +8652,7 @@
       <c r="N36" s="70"/>
       <c r="O36" s="72"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B37" s="66"/>
       <c r="C37" s="70"/>
       <c r="D37" s="160"/>
@@ -8474,7 +8664,7 @@
       <c r="N37" s="70"/>
       <c r="O37" s="72"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B38" s="66"/>
       <c r="C38" s="70"/>
       <c r="D38" s="160"/>
@@ -8486,10 +8676,9 @@
       <c r="N38" s="70"/>
       <c r="O38" s="72"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B39" s="66"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="160"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="H39" s="49"/>
@@ -8498,161 +8687,75 @@
       <c r="N39" s="70"/>
       <c r="O39" s="72"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="66"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="121"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="72"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="66"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="121"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="72"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="121"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="72"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="121"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="72"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="66" t="str">
-        <f>N30</f>
-        <v>IMPOIL</v>
-      </c>
-      <c r="D44" s="66" t="str">
-        <f>N20</f>
-        <v>CONMDRIVE</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="H44" s="49">
-        <f>H30</f>
-        <v>29.234999999999999</v>
-      </c>
-      <c r="I44" s="92">
-        <f>EBF!E19</f>
-        <v>8781.4640358504003</v>
-      </c>
-      <c r="J44" s="121">
-        <v>8.76</v>
-      </c>
-      <c r="N44" s="70"/>
-      <c r="O44" s="72"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="D45" s="66" t="str">
-        <f>N21</f>
-        <v>CONELC</v>
-      </c>
-      <c r="E45" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="H45" s="49">
-        <f>H31</f>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="48"/>
+      <c r="C41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S41" s="179"/>
+      <c r="T41" s="179"/>
+      <c r="U41" s="179"/>
+      <c r="V41" s="179"/>
+      <c r="W41" s="179"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="47"/>
+      <c r="C42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I45" s="92">
-        <f>EBF!J19</f>
-        <v>150.60848427090019</v>
-      </c>
-      <c r="J45" s="121">
-        <v>8.76</v>
-      </c>
-      <c r="N45" s="70"/>
-      <c r="O45" s="72"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="48"/>
-      <c r="C47" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="47"/>
-      <c r="C48" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U51" s="1"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="S42" s="179"/>
+      <c r="T42" s="179"/>
+      <c r="U42" s="179"/>
+      <c r="V42" s="179"/>
+      <c r="W42" s="179"/>
+    </row>
+    <row r="44" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N14" r:id="rId1" display="MANCO@" xr:uid="{8E657C0C-D64D-4E9E-8900-30086685D7FC}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
-  <dimension ref="B1:V30"/>
+  <dimension ref="B1:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8809,25 +8912,15 @@
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
-      <c r="N5" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="95" t="s">
-        <v>179</v>
-      </c>
-      <c r="R5" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="S5" s="95" t="s">
-        <v>180</v>
-      </c>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="178"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="178"/>
+      <c r="S5" s="178"/>
+      <c r="T5" s="178"/>
+      <c r="U5" s="178"/>
+      <c r="V5" s="178"/>
     </row>
     <row r="6" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="53"/>
@@ -8836,613 +8929,861 @@
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
-      <c r="N6" s="170" t="s">
+      <c r="N6" s="95" t="s">
         <v>82</v>
       </c>
       <c r="O6" s="95"/>
-      <c r="P6" s="170" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q6" s="170" t="s">
-        <v>274</v>
+      <c r="P6" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q6" s="95" t="s">
+        <v>176</v>
       </c>
       <c r="R6" s="95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S6" s="95" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T6" s="95"/>
       <c r="U6" s="95"/>
       <c r="V6" s="95"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
       <c r="N7" s="95" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="O7" s="95"/>
-      <c r="P7" s="95" t="str">
-        <f>$B$2&amp;EBF!C65</f>
-        <v>MANCO2</v>
-      </c>
-      <c r="Q7" s="95" t="str">
-        <f>$C$2&amp;" "&amp;EBF!C65</f>
-        <v>Manufacturing CO2</v>
-      </c>
-      <c r="R7" s="95" t="str">
-        <f>EBF!R2</f>
-        <v>kt</v>
-      </c>
-      <c r="S7" s="95"/>
+      <c r="P7" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q7" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="R7" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="S7" s="95" t="s">
+        <v>177</v>
+      </c>
       <c r="T7" s="95"/>
       <c r="U7" s="95"/>
       <c r="V7" s="95"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N8" s="95"/>
+    <row r="8" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="N8" s="171" t="s">
+        <v>82</v>
+      </c>
       <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
+      <c r="P8" s="171" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q8" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="R8" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="S8" s="95" t="s">
+        <v>177</v>
+      </c>
       <c r="T8" s="95"/>
       <c r="U8" s="95"/>
       <c r="V8" s="95"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N9" s="95" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="O9" s="95"/>
-      <c r="P9" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q9" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="R9" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="S9" s="95" t="s">
-        <v>180</v>
-      </c>
+      <c r="P9" s="95" t="str">
+        <f>$B$2&amp;EBF!C65</f>
+        <v>MANCO2</v>
+      </c>
+      <c r="Q9" s="95" t="str">
+        <f>$C$2&amp;" "&amp;EBF!C65</f>
+        <v>Manufacturing CO2</v>
+      </c>
+      <c r="R9" s="95" t="str">
+        <f>EBF!R2</f>
+        <v>kt</v>
+      </c>
+      <c r="S9" s="95"/>
       <c r="T9" s="95"/>
       <c r="U9" s="95"/>
       <c r="V9" s="95"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N10" s="95" t="s">
-        <v>82</v>
-      </c>
+      <c r="N10" s="95"/>
       <c r="O10" s="95"/>
-      <c r="P10" s="95" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q10" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="R10" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="S10" s="95" t="s">
-        <v>180</v>
-      </c>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
       <c r="T10" s="95"/>
       <c r="U10" s="95"/>
       <c r="V10" s="95"/>
     </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N11" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q11" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="R11" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="S11" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+    </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="94"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
+      <c r="N12" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q12" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="R12" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="S12" s="95" t="s">
+        <v>177</v>
+      </c>
       <c r="T12" s="95"/>
       <c r="U12" s="95"/>
       <c r="V12" s="95"/>
     </row>
-    <row r="13" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="54" t="s">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="94"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+    </row>
+    <row r="15" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C15" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D15" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E15" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="100" t="s">
+      <c r="F15" s="101" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="100" t="s">
+      <c r="H15" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="I13" s="100" t="s">
+      <c r="I15" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="100" t="s">
+      <c r="J15" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="U15" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="V15" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="K16" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="K13" s="102" t="s">
-        <v>182</v>
-      </c>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="S13" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="T13" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="U13" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="V13" s="96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="103" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="103" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="103" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="104" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="103" t="s">
-        <v>288</v>
-      </c>
-      <c r="K14" s="104" t="s">
-        <v>183</v>
-      </c>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="98" t="s">
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="98" t="s">
+      <c r="O16" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="98" t="s">
+      <c r="P16" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="Q14" s="98" t="s">
+      <c r="Q16" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="98" t="s">
+      <c r="R16" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="98" t="s">
+      <c r="S16" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="98" t="s">
+      <c r="T16" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="98" t="s">
+      <c r="U16" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="V14" s="98" t="s">
+      <c r="V16" s="98" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="106" t="s">
+    <row r="17" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="107" t="s">
-        <v>259</v>
-      </c>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="107" t="s">
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="107" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="98" t="s">
+      <c r="J17" s="107"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="98"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="93" t="str">
-        <f>P$16</f>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="93" t="str">
+        <f>P$18</f>
         <v>Kiln</v>
       </c>
-      <c r="C16" s="93" t="str">
+      <c r="C18" s="93" t="str">
         <f>PRI_Sector_Fuels!N5</f>
         <v>MANCOALMIN</v>
       </c>
-      <c r="D16" s="95" t="str">
-        <f>P5</f>
+      <c r="D18" s="95" t="str">
+        <f>PRI_Sector_Fuels!N$12</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E16" s="113">
-        <f>EBF!D5/(DemTechs_INDF!G16*DemTechs_INDF!F29)*1000</f>
+      <c r="E18" s="113">
+        <f>EBF!D5/(DemTechs_INDF!G18*DemTechs_INDF!F37)*1000</f>
         <v>937.81659640348698</v>
       </c>
-      <c r="F16" s="110">
+      <c r="F18" s="110">
         <v>0.44</v>
       </c>
-      <c r="G16" s="111">
+      <c r="G18" s="111">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H16" s="111">
+      <c r="H18" s="111">
         <v>0.9</v>
       </c>
-      <c r="I16" s="136">
+      <c r="I18" s="136">
         <v>30</v>
       </c>
-      <c r="J16" s="112">
+      <c r="J18" s="112">
         <v>144094</v>
       </c>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="93" t="s">
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="P16" s="93" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q16" s="93" t="s">
-        <v>260</v>
-      </c>
-      <c r="R16" s="95" t="str">
+      <c r="P18" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q18" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="R18" s="95" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="S16" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="93" t="str">
-        <f>P$16</f>
+      <c r="S18" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="93" t="str">
+        <f>P$18</f>
         <v>Kiln</v>
       </c>
-      <c r="C17" s="93" t="str">
+      <c r="C19" s="93" t="str">
         <f>PRI_Sector_Fuels!N6</f>
         <v>MANCOALIMP</v>
       </c>
-      <c r="D17" s="95" t="str">
-        <f>P5</f>
+      <c r="D19" s="95" t="str">
+        <f>PRI_Sector_Fuels!N$12</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E17" s="113">
-        <f>EBF!D6/(DemTechs_INDF!G17*DemTechs_INDF!F29)*1000</f>
+      <c r="E19" s="113">
+        <f>EBF!D6/(DemTechs_INDF!G19*DemTechs_INDF!F37)*1000</f>
         <v>655.38846855579084</v>
       </c>
-      <c r="F17" s="110">
+      <c r="F19" s="110">
         <v>0.31</v>
       </c>
-      <c r="G17" s="111">
+      <c r="G19" s="111">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H17" s="111">
+      <c r="H19" s="111">
         <v>0.9</v>
       </c>
-      <c r="I17" s="136">
+      <c r="I19" s="136">
         <v>30</v>
       </c>
-      <c r="J17" s="112">
+      <c r="J19" s="112">
         <v>144094</v>
       </c>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="93" t="s">
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="93" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q17" s="93" t="s">
-        <v>161</v>
-      </c>
-      <c r="R17" s="95" t="str">
+      <c r="P19" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q19" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="R19" s="95" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="S17" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="93" t="str">
-        <f>P$17</f>
+      <c r="S19" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="93" t="str">
+        <f>P$19</f>
         <v>Boiler</v>
       </c>
-      <c r="C18" s="93" t="str">
+      <c r="C20" s="93" t="str">
         <f>PRI_Sector_Fuels!N7</f>
         <v>MANOILIMP</v>
       </c>
-      <c r="D18" s="95" t="str">
-        <f>P5</f>
+      <c r="D20" s="95" t="str">
+        <f>PRI_Sector_Fuels!N$12</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E18" s="113">
-        <f>EBF!E18/(DemTechs_INDF!G18*DemTechs_INDF!F29)*1000</f>
+      <c r="E20" s="113">
+        <f>EBF!E18/(DemTechs_INDF!G20*DemTechs_INDF!F37)*1000</f>
         <v>396.51753552657539</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F20" s="110">
         <v>0.25</v>
       </c>
-      <c r="G18" s="111">
+      <c r="G20" s="111">
         <v>0.75</v>
       </c>
-      <c r="H18" s="113">
+      <c r="H20" s="113">
         <v>0.9</v>
       </c>
-      <c r="I18" s="112">
+      <c r="I20" s="112">
         <v>30</v>
       </c>
-      <c r="J18" s="112">
+      <c r="J20" s="112">
         <v>60000</v>
       </c>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="N18" s="93" t="s">
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="N20" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="P18" s="93" t="s">
+      <c r="P20" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="Q18" s="93" t="s">
-        <v>266</v>
-      </c>
-      <c r="R18" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="S18" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="T18" s="159" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="99" t="str">
-        <f>P$18</f>
+      <c r="Q20" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="R20" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="S20" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="T20" s="159" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="99" t="str">
+        <f>P21</f>
+        <v>CSP</v>
+      </c>
+      <c r="C21" s="99" t="str">
+        <f>PRI_Sector_Fuels!N9</f>
+        <v>SOLTHT</v>
+      </c>
+      <c r="D21" s="95" t="str">
+        <f>PRI_Sector_Fuels!N$12</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E21" s="167">
+        <f>EBF!K18/(DemTechs_INDF!G21*DemTechs_INDF!F37)*1000</f>
+        <v>1500.3320739839382</v>
+      </c>
+      <c r="F21" s="168">
+        <v>1</v>
+      </c>
+      <c r="G21" s="165">
+        <v>1</v>
+      </c>
+      <c r="H21" s="165">
+        <v>1</v>
+      </c>
+      <c r="I21" s="165">
+        <v>50</v>
+      </c>
+      <c r="J21" s="165">
+        <v>0</v>
+      </c>
+      <c r="N21" s="165" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" s="165" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q21" s="165" t="s">
+        <v>279</v>
+      </c>
+      <c r="R21" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="S21" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="T21" s="169" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="99" t="str">
+        <f>P20</f>
         <v>ELC</v>
       </c>
-      <c r="C19" s="99" t="str">
+      <c r="C22" s="99" t="str">
         <f>PRI_Sector_Fuels!N8</f>
-        <v>GRIDELC</v>
-      </c>
-      <c r="D19" s="166" t="str">
-        <f>P6</f>
-        <v>MANDRIVE</v>
-      </c>
-      <c r="E19" s="167">
-        <f>EBF!K18/(DemTechs_INDF!G19*DemTechs_INDF!F29)*1000</f>
-        <v>1500.3320739839382</v>
-      </c>
-      <c r="F19" s="168">
+        <v>ELC</v>
+      </c>
+      <c r="D22" s="95" t="str">
+        <f>PRI_Sector_Fuels!N$13</f>
+        <v>MANELC</v>
+      </c>
+      <c r="E22" s="167">
+        <v>0</v>
+      </c>
+      <c r="F22" s="168">
         <v>1</v>
       </c>
-      <c r="G19" s="165">
+      <c r="G22" s="165">
         <v>1</v>
       </c>
-      <c r="H19" s="165">
+      <c r="H22" s="165">
         <v>1</v>
       </c>
-      <c r="I19" s="165">
+      <c r="I22" s="165">
         <v>50</v>
       </c>
-      <c r="J19" s="165">
+      <c r="J22" s="165">
         <v>0</v>
       </c>
-      <c r="T19" s="171"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="169"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F21" s="114"/>
-      <c r="N21" s="93" t="s">
+      <c r="N22" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="P21" s="93" t="s">
+      <c r="P22" s="165" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q22" s="165" t="s">
+        <v>281</v>
+      </c>
+      <c r="R22" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="S22" s="99" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="99" t="str">
+        <f>P18</f>
+        <v>Kiln</v>
+      </c>
+      <c r="C23" s="99" t="str">
+        <f>PRI_Sector_Fuels!N$10</f>
+        <v>MANBIOMIN</v>
+      </c>
+      <c r="D23" s="95" t="str">
+        <f>PRI_Sector_Fuels!N$12</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E23" s="167">
+        <v>0</v>
+      </c>
+      <c r="F23" s="168">
+        <v>1</v>
+      </c>
+      <c r="G23" s="165">
+        <v>1</v>
+      </c>
+      <c r="H23" s="165">
+        <v>1</v>
+      </c>
+      <c r="I23" s="165">
+        <v>50</v>
+      </c>
+      <c r="J23" s="165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="99" t="str">
+        <f>P19</f>
+        <v>Boiler</v>
+      </c>
+      <c r="C24" s="99" t="str">
+        <f>PRI_Sector_Fuels!N$10</f>
+        <v>MANBIOMIN</v>
+      </c>
+      <c r="D24" s="95" t="str">
+        <f>PRI_Sector_Fuels!N$12</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E24" s="167">
+        <v>0</v>
+      </c>
+      <c r="F24" s="168">
+        <v>1</v>
+      </c>
+      <c r="G24" s="165">
+        <v>1</v>
+      </c>
+      <c r="H24" s="165">
+        <v>1</v>
+      </c>
+      <c r="I24" s="165">
+        <v>50</v>
+      </c>
+      <c r="J24" s="165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="99" t="str">
+        <f>P22</f>
+        <v>Furnace</v>
+      </c>
+      <c r="C25" s="166" t="str">
+        <f>PRI_Sector_Fuels!N8</f>
+        <v>ELC</v>
+      </c>
+      <c r="D25" s="95" t="str">
+        <f>PRI_Sector_Fuels!N$12</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E25" s="167">
+        <v>0</v>
+      </c>
+      <c r="F25" s="168">
+        <v>1</v>
+      </c>
+      <c r="G25" s="165">
+        <v>1</v>
+      </c>
+      <c r="H25" s="165">
+        <v>1</v>
+      </c>
+      <c r="I25" s="165">
+        <v>50</v>
+      </c>
+      <c r="J25" s="165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="170" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="95" t="str">
+        <f>PRI_Sector_Fuels!N8</f>
+        <v>ELC</v>
+      </c>
+      <c r="D26" s="95" t="str">
+        <f>PRI_Sector_Fuels!N$12</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E26" s="167">
+        <v>0</v>
+      </c>
+      <c r="F26" s="168">
+        <v>1</v>
+      </c>
+      <c r="G26" s="165">
+        <v>1</v>
+      </c>
+      <c r="H26" s="165">
+        <v>1</v>
+      </c>
+      <c r="I26" s="165">
+        <v>50</v>
+      </c>
+      <c r="J26" s="165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="170" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="95" t="str">
+        <f>PRI_Sector_Fuels!N11</f>
+        <v>MANGASMIN</v>
+      </c>
+      <c r="D27" s="95" t="str">
+        <f>PRI_Sector_Fuels!N$12</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E27" s="167">
+        <v>0</v>
+      </c>
+      <c r="F27" s="168">
+        <v>1</v>
+      </c>
+      <c r="G27" s="165">
+        <v>1</v>
+      </c>
+      <c r="H27" s="165">
+        <v>1</v>
+      </c>
+      <c r="I27" s="165">
+        <v>50</v>
+      </c>
+      <c r="J27" s="165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="170"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F29" s="114"/>
+      <c r="N29" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="P29" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="Q21" s="93" t="s">
-        <v>266</v>
-      </c>
-      <c r="R21" s="95" t="str">
-        <f t="shared" ref="R21" si="0">$E$2</f>
+      <c r="Q29" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="R29" s="95" t="str">
+        <f t="shared" ref="R29" si="0">$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="S21" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="T21" s="159" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="93" t="s">
+      <c r="S29" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="T29" s="159" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F30" s="114"/>
+      <c r="N30" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="O30" s="118"/>
+      <c r="P30" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q30" s="118" t="s">
+        <v>249</v>
+      </c>
+      <c r="R30" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="S30" s="119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F31" s="114"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="115"/>
+      <c r="N31" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="P31" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q31" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="93" t="str">
-        <f>PRI_Sector_Fuels!N20</f>
-        <v>CONMDRIVE</v>
-      </c>
-      <c r="D22" s="93" t="str">
-        <f>PRI_Sector_Fuels!N20</f>
-        <v>CONMDRIVE</v>
-      </c>
-      <c r="F22" s="114">
-        <v>1</v>
-      </c>
-      <c r="G22" s="93">
-        <v>1</v>
-      </c>
-      <c r="N22" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="O22" s="118"/>
-      <c r="P22" s="93" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q22" s="118" t="s">
-        <v>251</v>
-      </c>
-      <c r="R22" s="119" t="s">
-        <v>167</v>
-      </c>
-      <c r="S22" s="119" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="93" t="str">
-        <f>PRI_Sector_Fuels!N21</f>
-        <v>CONELC</v>
-      </c>
-      <c r="D23" s="93" t="str">
-        <f>PRI_Sector_Fuels!N21</f>
-        <v>CONELC</v>
-      </c>
-      <c r="F23" s="114">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21">
-        <v>1</v>
-      </c>
-      <c r="H23" s="115"/>
-      <c r="N23" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="P23" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q23" s="93" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="H24" s="115"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="112"/>
-      <c r="C25" s="93" t="s">
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="H32" s="115"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="112"/>
+      <c r="C33" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="115"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="116"/>
-      <c r="C26" s="93" t="s">
+      <c r="H33" s="115"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="116"/>
+      <c r="C34" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="115"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E27" s="93" t="s">
+      <c r="H34" s="115"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E35" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="93" t="s">
         <v>243</v>
       </c>
-      <c r="F27" s="93" t="s">
-        <v>245</v>
-      </c>
-      <c r="H27" s="115"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E29" s="93" t="s">
-        <v>244</v>
-      </c>
-      <c r="F29" s="93">
+      <c r="H35" s="115"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" s="93">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E30" s="21"/>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E38" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D22" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -9452,8 +9793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A8" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9511,13 +9852,13 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="122" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="122" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="122" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E6" s="122">
         <v>2022</v>
@@ -9553,45 +9894,45 @@
         <v>81</v>
       </c>
       <c r="C7" s="125" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="125" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="125" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="125" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="125" t="s">
-        <v>188</v>
-      </c>
       <c r="F7" s="125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G7" s="125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H7" s="125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I7" s="125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J7" s="125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K7" s="125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L7" s="153"/>
       <c r="M7" s="155" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N7" s="130"/>
       <c r="O7" s="122" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P7" s="122" t="s">
         <v>0</v>
       </c>
       <c r="Q7" s="122" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R7" s="122">
         <v>2022</v>
@@ -9604,25 +9945,25 @@
       <c r="C8" s="124"/>
       <c r="D8" s="124"/>
       <c r="E8" s="124" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F8" s="124" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" s="124" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H8" s="124" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I8" s="124" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J8" s="124" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K8" s="124" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L8" s="153"/>
       <c r="M8" s="155"/>
@@ -9631,17 +9972,17 @@
         <v>81</v>
       </c>
       <c r="P8" s="132" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="132"/>
       <c r="R8" s="132"/>
     </row>
     <row r="9" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="126" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C9" s="126" t="str">
-        <f>DemTechs_INDF!P5</f>
+        <f>DemTechs_INDF!P6</f>
         <v>MANHEAT</v>
       </c>
       <c r="D9" s="126" t="str">
@@ -9688,11 +10029,11 @@
     </row>
     <row r="10" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="126" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" s="126" t="str">
-        <f>DemTechs_INDF!P6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P7</f>
+        <v>MANELC</v>
       </c>
       <c r="D10" s="126" t="str">
         <f>E$2</f>
@@ -9730,14 +10071,14 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P10" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q10" s="93" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R10" s="133">
         <v>0.75</v>
@@ -9755,14 +10096,14 @@
       </c>
       <c r="M11" s="156"/>
       <c r="O11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q11" s="93" t="s">
         <v>191</v>
-      </c>
-      <c r="P11" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
-      </c>
-      <c r="Q11" s="93" t="s">
-        <v>193</v>
       </c>
       <c r="R11" s="133">
         <v>0.25</v>
@@ -9772,7 +10113,7 @@
       <c r="B12" s="126"/>
       <c r="C12" s="126"/>
       <c r="D12" s="146" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E12" s="145">
         <f>E10/(E$9+E$10)</f>
@@ -9805,14 +10146,14 @@
       <c r="M12" s="156"/>
       <c r="N12" s="5"/>
       <c r="O12" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P12" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q12" s="93" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R12" s="133">
         <v>1.0416666666666666E-2</v>
@@ -9821,7 +10162,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="D13" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E13" s="145">
         <f>E9/(E$9+E$10)</f>
@@ -9853,14 +10194,14 @@
       </c>
       <c r="M13" s="156"/>
       <c r="O13" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P13" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q13" s="134" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R13" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9868,14 +10209,14 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O14" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P14" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R14" s="133">
         <v>1.0416666666666666E-2</v>
@@ -9883,14 +10224,14 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O15" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P15" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R15" s="133">
         <v>1.0416666666666666E-2</v>
@@ -9899,14 +10240,14 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E16" s="5"/>
       <c r="O16" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P16" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R16" s="133">
         <v>1.0416666666666666E-2</v>
@@ -9914,14 +10255,14 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O17" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P17" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R17" s="135">
         <v>1.0416666666666666E-2</v>
@@ -9929,72 +10270,54 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O18" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P18" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R18" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" t="str">
-        <f>DemTechs_INDF!P9</f>
-        <v>CONELC</v>
-      </c>
-      <c r="D19" t="s">
-        <v>167</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="E19" s="5">
         <f>EBF!J19</f>
         <v>150.60848427090019</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P19" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R19" s="133">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" t="str">
-        <f>DemTechs_INDF!P10</f>
-        <v>CONOILIMP</v>
-      </c>
-      <c r="D20" t="s">
-        <v>167</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="E20" s="5">
         <f>EBF!E19</f>
         <v>8781.4640358504003</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P20" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R20" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10002,14 +10325,14 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O21" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P21" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="R21" s="135">
         <v>1.0416666666666666E-2</v>
@@ -10021,14 +10344,14 @@
         <v>99</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P22" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R22" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10040,14 +10363,14 @@
         <v>100</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P23" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R23" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10055,14 +10378,14 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O24" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P24" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R24" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10070,14 +10393,14 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O25" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P25" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R25" s="135">
         <v>1.0416666666666666E-2</v>
@@ -10085,14 +10408,14 @@
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O26" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P26" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R26" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10100,14 +10423,14 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O27" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P27" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="R27" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10115,14 +10438,14 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O28" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P28" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R28" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10130,14 +10453,14 @@
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O29" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P29" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R29" s="135">
         <v>1.0416666666666666E-2</v>
@@ -10145,14 +10468,14 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O30" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P30" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R30" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10160,14 +10483,14 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O31" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P31" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R31" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10175,14 +10498,14 @@
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O32" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P32" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R32" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10190,14 +10513,14 @@
     </row>
     <row r="33" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O33" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P33" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R33" s="135">
         <v>1.0416666666666666E-2</v>
@@ -10205,14 +10528,14 @@
     </row>
     <row r="34" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O34" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P34" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R34" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10220,14 +10543,14 @@
     </row>
     <row r="35" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O35" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P35" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R35" s="133">
         <v>1.0416666666666666E-2</v>
@@ -10235,14 +10558,14 @@
     </row>
     <row r="36" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O36" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P36" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R36" s="133">
         <v>3.125E-2</v>
@@ -10250,14 +10573,14 @@
     </row>
     <row r="37" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O37" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P37" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R37" s="135">
         <v>3.125E-2</v>
@@ -10265,14 +10588,14 @@
     </row>
     <row r="38" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O38" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P38" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R38" s="133">
         <v>3.125E-2</v>
@@ -10280,14 +10603,14 @@
     </row>
     <row r="39" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O39" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P39" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R39" s="133">
         <v>3.125E-2</v>
@@ -10295,14 +10618,14 @@
     </row>
     <row r="40" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O40" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P40" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R40" s="133">
         <v>3.125E-2</v>
@@ -10310,14 +10633,14 @@
     </row>
     <row r="41" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O41" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P41" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R41" s="135">
         <v>3.125E-2</v>
@@ -10325,14 +10648,14 @@
     </row>
     <row r="42" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O42" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P42" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R42" s="133">
         <v>3.125E-2</v>
@@ -10340,14 +10663,14 @@
     </row>
     <row r="43" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O43" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P43" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R43" s="133">
         <v>3.125E-2</v>
@@ -10355,14 +10678,14 @@
     </row>
     <row r="44" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O44" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P44" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R44" s="133">
         <v>3.125E-2</v>
@@ -10370,14 +10693,14 @@
     </row>
     <row r="45" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O45" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P45" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="R45" s="135">
         <v>3.125E-2</v>
@@ -10385,14 +10708,14 @@
     </row>
     <row r="46" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O46" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P46" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q46" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="R46" s="133">
         <v>3.125E-2</v>
@@ -10400,14 +10723,14 @@
     </row>
     <row r="47" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O47" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P47" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R47" s="133">
         <v>3.125E-2</v>
@@ -10415,14 +10738,14 @@
     </row>
     <row r="48" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O48" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P48" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="R48" s="133">
         <v>3.125E-2</v>
@@ -10430,14 +10753,14 @@
     </row>
     <row r="49" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O49" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P49" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q49" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R49" s="135">
         <v>3.125E-2</v>
@@ -10445,14 +10768,14 @@
     </row>
     <row r="50" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O50" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P50" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R50" s="133">
         <v>3.125E-2</v>
@@ -10460,14 +10783,14 @@
     </row>
     <row r="51" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O51" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P51" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q51" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="R51" s="133">
         <v>3.125E-2</v>
@@ -10475,14 +10798,14 @@
     </row>
     <row r="52" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O52" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P52" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R52" s="133">
         <v>3.125E-2</v>
@@ -10490,14 +10813,14 @@
     </row>
     <row r="53" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O53" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P53" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R53" s="135">
         <v>3.125E-2</v>
@@ -10505,14 +10828,14 @@
     </row>
     <row r="54" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O54" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P54" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="R54" s="133">
         <v>3.125E-2</v>
@@ -10520,14 +10843,14 @@
     </row>
     <row r="55" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O55" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P55" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R55" s="133">
         <v>3.125E-2</v>
@@ -10535,14 +10858,14 @@
     </row>
     <row r="56" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O56" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P56" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q56" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="R56" s="133">
         <v>3.125E-2</v>
@@ -10550,14 +10873,14 @@
     </row>
     <row r="57" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O57" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P57" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q57" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="R57" s="135">
         <v>3.125E-2</v>
@@ -10565,14 +10888,14 @@
     </row>
     <row r="58" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O58" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P58" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="R58" s="133">
         <v>3.125E-2</v>
@@ -10580,14 +10903,14 @@
     </row>
     <row r="59" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O59" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P59" s="1" t="str">
-        <f>DemTechs_INDF!P$6</f>
-        <v>MANDRIVE</v>
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
       </c>
       <c r="Q59" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="R59" s="133">
         <v>3.125E-2</v>
@@ -10605,7 +10928,7 @@
   <dimension ref="B3:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10618,7 +10941,7 @@
   <sheetData>
     <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="137" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C3" s="137"/>
       <c r="D3" s="137"/>
@@ -10637,7 +10960,7 @@
     </row>
     <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="139" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C5" s="140"/>
     </row>
@@ -10659,7 +10982,7 @@
       </c>
       <c r="F6" s="141" t="str">
         <f>PRI_Sector_Fuels!N8</f>
-        <v>GRIDELC</v>
+        <v>ELC</v>
       </c>
       <c r="G6" s="141"/>
       <c r="H6" s="141"/>
@@ -10670,16 +10993,16 @@
         <v>87</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D7" s="142" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E7" s="142" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F7" s="142" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G7" s="142"/>
       <c r="H7" s="142"/>
@@ -10687,7 +11010,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="143" t="str">
-        <f>DemTechs_INDF!P7</f>
+        <f>DemTechs_INDF!P9</f>
         <v>MANCO2</v>
       </c>
       <c r="C8" s="144">

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND_DIS - Original\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435CE7AB-91B9-436A-8FB3-EA8DE8871FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1628B085-45E6-48AB-9285-69E7936F4C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7625,8 +7625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="X39" sqref="X39:X60"/>
+    <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8528,8 +8528,8 @@
       </c>
       <c r="C31" s="175"/>
       <c r="D31" s="175" t="str">
-        <f>N9</f>
-        <v>SOLTHT</v>
+        <f>N12</f>
+        <v>MANHEAT</v>
       </c>
       <c r="E31" s="174">
         <v>2030</v>
@@ -8755,7 +8755,7 @@
   <dimension ref="B1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9402,8 +9402,8 @@
       <c r="N20" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="P20" s="93" t="s">
-        <v>46</v>
+      <c r="P20" s="170" t="s">
+        <v>170</v>
       </c>
       <c r="Q20" s="93" t="s">
         <v>260</v>
@@ -9472,7 +9472,7 @@
     <row r="22" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="99" t="str">
         <f>P20</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="C22" s="99" t="str">
         <f>PRI_Sector_Fuels!N8</f>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1628B085-45E6-48AB-9285-69E7936F4C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA0ABE7-3943-4C2D-8A81-A1F6C46774A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -2534,7 +2534,7 @@
     <t>ktoe</t>
   </si>
   <si>
-    <t>CO2MAN</t>
+    <t>MANCO2</t>
   </si>
 </sst>
 </file>
@@ -7625,8 +7625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8754,8 +8754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9793,7 +9793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:D20"/>
     </sheetView>
   </sheetViews>
@@ -10928,7 +10928,7 @@
   <dimension ref="B3:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,21 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA0ABE7-3943-4C2D-8A81-A1F6C46774A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390ED131-2C01-4ADC-80E8-BF235F75CC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
-    <sheet name="EBF" sheetId="133" r:id="rId2"/>
-    <sheet name="RES&amp;OBJ" sheetId="135" r:id="rId3"/>
-    <sheet name="PRI_Sector_Fuels" sheetId="137" r:id="rId4"/>
-    <sheet name="DemTechs_INDF" sheetId="143" r:id="rId5"/>
-    <sheet name="Demands" sheetId="145" r:id="rId6"/>
-    <sheet name="Emi" sheetId="146" r:id="rId7"/>
+    <sheet name="Energybalance history" sheetId="147" r:id="rId1"/>
+    <sheet name="Enrgy growth" sheetId="148" r:id="rId2"/>
+    <sheet name="TechnologydataTech" sheetId="149" r:id="rId3"/>
+    <sheet name="EBF TJ" sheetId="144" r:id="rId4"/>
+    <sheet name="EBF" sheetId="133" r:id="rId5"/>
+    <sheet name="RES&amp;OBJ" sheetId="135" r:id="rId6"/>
+    <sheet name="PRI_Sector_Fuels" sheetId="137" r:id="rId7"/>
+    <sheet name="DemTechs_INDF" sheetId="143" r:id="rId8"/>
+    <sheet name="Demands" sheetId="145" r:id="rId9"/>
+    <sheet name="Emi" sheetId="146" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -1562,7 +1566,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="471">
   <si>
     <t>CommName</t>
   </si>
@@ -2536,20 +2540,576 @@
   <si>
     <t>MANCO2</t>
   </si>
+  <si>
+    <r>
+      <t>Projected energy demand by sector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Asfaw et al. 2024)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Electricity demand projections</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF0E2841"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Gebremeskel et al. 2023) </t>
+    </r>
+  </si>
+  <si>
+    <t>Transport sector</t>
+  </si>
+  <si>
+    <t>Industry and construction</t>
+  </si>
+  <si>
+    <t>Household and other sectors</t>
+  </si>
+  <si>
+    <t>Electricity consumption in (TWh)</t>
+  </si>
+  <si>
+    <t>Electricity consumption in (ktoe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumed GDP growth rate </t>
+  </si>
+  <si>
+    <t>7,5</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector </t>
+  </si>
+  <si>
+    <t>Energy demand prediction by sector(ktoe)</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Energy demand prediction by sector(TJ)</t>
+  </si>
+  <si>
+    <t>Actual Data</t>
+  </si>
+  <si>
+    <t>Base year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projection </t>
+  </si>
+  <si>
+    <t>Industry energy consumption projection(GWh) Reference Scenario</t>
+  </si>
+  <si>
+    <t>Total Energy demand projection of Asfaw 2023</t>
+  </si>
+  <si>
+    <t>The projection in 2050 is the avarge of Asfaw(2023) 2048 and 2052 projection</t>
+  </si>
+  <si>
+    <t>Industry electricity demand projection</t>
+  </si>
+  <si>
+    <t>Total electricity demand projections of (Gebremeskel et al. 2023) for 2030 and 2050</t>
+  </si>
+  <si>
+    <t>Industry sector oilandcoal consumption</t>
+  </si>
+  <si>
+    <t>% of electricity consumption in the Industry sector</t>
+  </si>
+  <si>
+    <t>%  of other energy source consumption in the Industry</t>
+  </si>
+  <si>
+    <t>Industry Percent of total energy consumption growth between 2022 and 2050</t>
+  </si>
+  <si>
+    <t>Industry Electricity consumption growth between 2022 and 2050</t>
+  </si>
+  <si>
+    <t>Industry Coal, oil and other energy consumption growth between 2050 and 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity consumption </t>
+  </si>
+  <si>
+    <t>95% of electricity is consumed in the manufacturing sector</t>
+  </si>
+  <si>
+    <t>Oil and coal</t>
+  </si>
+  <si>
+    <t>The growth of oil and coal consumption between 2022 and 2050 in the industry sector is used to the demand of oil and coal in the manufacturing sector</t>
+  </si>
+  <si>
+    <t>Assume the oil consumption share keeps the same between 2022 and 2050</t>
+  </si>
+  <si>
+    <t>Coal domestic</t>
+  </si>
+  <si>
+    <t>Assume the domestic coal consumption share increased from 44% to 80% between 2022 and 2050 in the baseline</t>
+  </si>
+  <si>
+    <t>Coal imported</t>
+  </si>
+  <si>
+    <t>Coal total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% non/electricity consumption of Manufacturing sector </t>
+  </si>
+  <si>
+    <t>Electricity consumption share (%)</t>
+  </si>
+  <si>
+    <t>Electricity consumption growth in the Manufacturing sectorbetween 2022 and 2050</t>
+  </si>
+  <si>
+    <t>Industry Electric Consumption in TJ</t>
+  </si>
+  <si>
+    <t>Industry imported coal in TJ</t>
+  </si>
+  <si>
+    <t>Industry domestic coal in TJ</t>
+  </si>
+  <si>
+    <t>Industry oil in TJ</t>
+  </si>
+  <si>
+    <t>Total Industry Consumption</t>
+  </si>
+  <si>
+    <t>Manufacturing Electricity in TJ</t>
+  </si>
+  <si>
+    <t>Manufacturing oil imported in TJ</t>
+  </si>
+  <si>
+    <t>Manufacturing coal domestic in TJ</t>
+  </si>
+  <si>
+    <t>Manufacturing coal imported in TJ</t>
+  </si>
+  <si>
+    <t>Non/manufacturing sector Electricity Consumption TJ</t>
+  </si>
+  <si>
+    <t>Non/manufacturing sector oil Consumption TJ</t>
+  </si>
+  <si>
+    <t>Reference Scenario</t>
+  </si>
+  <si>
+    <t>CAGR</t>
+  </si>
+  <si>
+    <t>Average of 2028 and 2032</t>
+  </si>
+  <si>
+    <t>Average of 2048 and 2053</t>
+  </si>
+  <si>
+    <t>Total Industry Consumption in GWh</t>
+  </si>
+  <si>
+    <t>Projected Industry Sector energy demand in reference scenario(Asfaw)</t>
+  </si>
+  <si>
+    <t>Total Industry Electricity in GWh</t>
+  </si>
+  <si>
+    <t>Total fossilfuel Consumption in GWh</t>
+  </si>
+  <si>
+    <t>Manufacturing Electricity consumption in GWh</t>
+  </si>
+  <si>
+    <t>Electricity consumption projection of manufacturing sector 95% of electricity consumption demand of industry sector</t>
+  </si>
+  <si>
+    <t>Manufacturing Oil Consumption in GWh</t>
+  </si>
+  <si>
+    <t>Manufacturing Imported Coal Consumption in GWh</t>
+  </si>
+  <si>
+    <t>Manufacturing Domestic  Coal Consumption in GWh</t>
+  </si>
+  <si>
+    <t>Oil and coal manufacturing sector consumption total</t>
+  </si>
+  <si>
+    <t>Non/Manufacturing sector Electricity consumption in GWh</t>
+  </si>
+  <si>
+    <t>Non-Manufacturing sector oil consumption in GWh</t>
+  </si>
+  <si>
+    <t>Manufacturing sector Electricity consumption share</t>
+  </si>
+  <si>
+    <t>Manufacturing sector Oil consumption share</t>
+  </si>
+  <si>
+    <t>Manufacturing sector imported Coal consumption share</t>
+  </si>
+  <si>
+    <t>Manufacturing sector domestic coalconsumption share</t>
+  </si>
+  <si>
+    <t>Manufacturing sector fossilfuel consumption</t>
+  </si>
+  <si>
+    <t>Non-Manufacturing electricity consumptionshare</t>
+  </si>
+  <si>
+    <t>Non-Manufacturing oil consumptionshare</t>
+  </si>
+  <si>
+    <t>Non/manufacturing sector fossilfuel consumption share</t>
+  </si>
+  <si>
+    <t>Manufacturing Sector electricity consumption share as percent of total energy consumption of the industry sector</t>
+  </si>
+  <si>
+    <t>Manufacturing Sector Oil consumption share as percent of total energy consumption of the industry sector</t>
+  </si>
+  <si>
+    <t>Manufacturing Sector Coal consumption share as percent of total energy consumption of the industry sector</t>
+  </si>
+  <si>
+    <t>Oil consumption as percent of total fossilfuels</t>
+  </si>
+  <si>
+    <t>Domestic coal consumption as percent of total fossilfuels</t>
+  </si>
+  <si>
+    <t>Imported coal consumption as percent of total fossilfuels</t>
+  </si>
+  <si>
+    <t>Non-manufacturing sector electricity consumptionshare</t>
+  </si>
+  <si>
+    <t>Non-manufacturing sector oil consumptionshare</t>
+  </si>
+  <si>
+    <t>Growth rate of electricity consumption</t>
+  </si>
+  <si>
+    <t>Growth rate of oil consumption</t>
+  </si>
+  <si>
+    <t>Growth rate of imported coal consumption</t>
+  </si>
+  <si>
+    <t>Growthrate of domestic coal consumption</t>
+  </si>
+  <si>
+    <t>Structural Economic Growth scenario</t>
+  </si>
+  <si>
+    <t>High economic growth rate scenario energy demand projection from asfaw 10.5 %GDP growth rate</t>
+  </si>
+  <si>
+    <t>Manufacturing sector total energy consumption</t>
+  </si>
+  <si>
+    <t>Assumption manufacturing sector energy consumption reaches about30% total energy consumption of the manufacturing sector</t>
+  </si>
+  <si>
+    <t>Growthrate</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Installation Cost per kW</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>2024USD</t>
+  </si>
+  <si>
+    <t>LCOE per kWh</t>
+  </si>
+  <si>
+    <t>Technology learning rate</t>
+  </si>
+  <si>
+    <t>Cost reduction elasticity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar-Wind </t>
+  </si>
+  <si>
+    <t>PV-Battery</t>
+  </si>
+  <si>
+    <t>Capacity Factor</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Wold</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Avarage</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Grid Electricity</t>
+  </si>
+  <si>
+    <t>Mini grid electricity</t>
+  </si>
+  <si>
+    <t>IRENA 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source </t>
+  </si>
+  <si>
+    <t>Solar PV/roof top</t>
+  </si>
+  <si>
+    <t>2018USD</t>
+  </si>
+  <si>
+    <t>Wind/smal</t>
+  </si>
+  <si>
+    <t>Solar PV utility</t>
+  </si>
+  <si>
+    <t>Wind Utility</t>
+  </si>
+  <si>
+    <t>Gebremeskel 2023</t>
+  </si>
+  <si>
+    <t>CSP(storage)</t>
+  </si>
+  <si>
+    <t>Variable Costper KWh</t>
+  </si>
+  <si>
+    <t>Fixed cost per kW</t>
+  </si>
+  <si>
+    <t>Cpacity Factor</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avalability Factor </t>
+  </si>
+  <si>
+    <t>Capacity Credit</t>
+  </si>
+  <si>
+    <t>Life cycle</t>
+  </si>
+  <si>
+    <t>CO2 emission</t>
+  </si>
+  <si>
+    <t>kg/kWh</t>
+  </si>
+  <si>
+    <t>Nox emission</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>Fuel Price</t>
+  </si>
+  <si>
+    <t>USD/GWh</t>
+  </si>
+  <si>
+    <t>Coal Domestic</t>
+  </si>
+  <si>
+    <t>Oil import(Diesel)</t>
+  </si>
+  <si>
+    <t>Oilimported</t>
+  </si>
+  <si>
+    <t>Natural Gas imported</t>
+  </si>
+  <si>
+    <t>Customs 2022</t>
+  </si>
+  <si>
+    <t>Customs 2023</t>
+  </si>
+  <si>
+    <t>Customs 2024</t>
+  </si>
+  <si>
+    <t>Bioenergy/Biomass</t>
+  </si>
+  <si>
+    <t>Economic Life</t>
+  </si>
+  <si>
+    <t>O&amp;M Cost</t>
+  </si>
+  <si>
+    <t>Avergae</t>
+  </si>
+  <si>
+    <t>Gebremeskel 2024</t>
+  </si>
+  <si>
+    <t>Gebremeskel 2025</t>
+  </si>
+  <si>
+    <t>Gebremeskel 2026</t>
+  </si>
+  <si>
+    <t>Gebremeskel 2032</t>
+  </si>
+  <si>
+    <t>Gebremeskel 2033</t>
+  </si>
+  <si>
+    <t>Gebremeskel 2034</t>
+  </si>
+  <si>
+    <t>Gebremeskel 2035</t>
+  </si>
+  <si>
+    <t>USD2024/kWh</t>
+  </si>
+  <si>
+    <t>Battry Energy Storage</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Bioenergy/Biogas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficency </t>
+  </si>
+  <si>
+    <t>Sliper 2024</t>
+  </si>
+  <si>
+    <t>Biomass Boiler</t>
+  </si>
+  <si>
+    <t>(Alem Tafesse 2016)</t>
+  </si>
+  <si>
+    <t>Electricity Boiler</t>
+  </si>
+  <si>
+    <t>Oilboiler</t>
+  </si>
+  <si>
+    <t>Existing measured in Ethiopia</t>
+  </si>
+  <si>
+    <t>(Yosef and Bekele)</t>
+  </si>
+  <si>
+    <t>(Abdi et al. 2021)</t>
+  </si>
+  <si>
+    <t>Kiln1</t>
+  </si>
+  <si>
+    <t>(Emyat 2019)</t>
+  </si>
+  <si>
+    <t>(Eshetu Wondimu 2010)</t>
+  </si>
+  <si>
+    <t>(Adino et al. 2024)</t>
+  </si>
+  <si>
+    <t>Oilboiler1</t>
+  </si>
+  <si>
+    <t>Oilboiler2</t>
+  </si>
+  <si>
+    <t>(Samuel  G/Mariam 2009)</t>
+  </si>
+  <si>
+    <t>Oilboiler3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="General_)"/>
     <numFmt numFmtId="166" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
+    <numFmt numFmtId="169" formatCode="0.0000%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2743,8 +3303,101 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0E2841"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF0E2841"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2860,8 +3513,67 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -3085,384 +3797,677 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="6" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="7" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="6" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="7" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="19" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="17" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="20" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="18" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="6" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="6" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="17" fillId="6" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="6" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="24" fillId="13" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="25" fillId="13" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="3" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="15" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="13" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="13" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="166" fontId="8" fillId="17" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="17" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="8" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="15" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="15" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="8" borderId="10" xfId="7" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="8" borderId="10" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="8" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="13" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="14" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="7" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="24" fillId="17" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="24" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="25" fillId="17" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="25" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="25" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="40"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="38"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="34"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="23" xfId="38" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="23" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="23" xfId="34" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="23" xfId="38" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="23" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="23" xfId="34" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="23" xfId="38" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="23" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="23" xfId="34" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="167" fontId="17" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" xfId="39"/>
+    <xf numFmtId="167" fontId="17" fillId="26" borderId="0" xfId="39" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="35"/>
+    <xf numFmtId="9" fontId="1" fillId="22" borderId="0" xfId="35" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="25" borderId="0" xfId="38" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="40" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="27" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" xfId="40" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="41" fillId="27" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="35" fillId="9" borderId="0" xfId="41" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="36"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="40" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="38" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="38" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="38" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="32" fillId="25" borderId="0" xfId="38" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="32" fillId="9" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="32" fillId="21" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="37" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="28" borderId="0" xfId="37" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="40" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="29" borderId="0" xfId="40" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="38" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="34" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="40" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="30" borderId="0" xfId="40" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="38" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" xfId="41" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="34" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="40" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="14" borderId="0" xfId="40" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="38" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" xfId="41" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="34" applyFill="1"/>
+    <xf numFmtId="167" fontId="35" fillId="9" borderId="0" xfId="41" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="30" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="40" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="40" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="34">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="20% - Accent5 2" xfId="21" xr:uid="{E1B1E490-7605-42BA-88C1-54B79AE47809}"/>
     <cellStyle name="20% - Accent5 2 2" xfId="31" xr:uid="{9A77BCA1-6431-4844-B2C6-C94657613BD6}"/>
@@ -3470,17 +4475,25 @@
     <cellStyle name="20% - Accent5 3 2" xfId="32" xr:uid="{11218C35-6A74-4BF8-9F7B-075BB6A7712F}"/>
     <cellStyle name="20% - Accent5 4" xfId="26" xr:uid="{ABDC135E-9A4A-4078-8504-7FAED0F441DB}"/>
     <cellStyle name="20% - Accent5 5" xfId="33" xr:uid="{CC4422F1-4577-475D-9062-5705E5BAA574}"/>
+    <cellStyle name="40% - Accent1" xfId="34" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="36" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="37" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="38" builtinId="43"/>
+    <cellStyle name="60% - Accent1" xfId="35" builtinId="32"/>
     <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Comma 2 2" xfId="27" xr:uid="{0F81714B-A75F-4A57-A4C6-D6B684BC4CCE}"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
+    <cellStyle name="Neutral 2" xfId="41" xr:uid="{A3AE8485-95FC-41BA-AE1C-0A2FC5CEA2DA}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 3" xfId="40" xr:uid="{CEDDD2B3-6AFE-4814-8666-E4C38182B461}"/>
     <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
@@ -3489,6 +4502,7 @@
     <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Per cent" xfId="16" builtinId="5"/>
     <cellStyle name="Per cent 2" xfId="24" xr:uid="{2C564A4B-D800-4EE4-B939-9255D7A664BB}"/>
+    <cellStyle name="Per cent 3" xfId="42" xr:uid="{5844D0E0-44CC-4526-80B6-F2A16EB52199}"/>
     <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Percent 3 2" xfId="29" xr:uid="{E6B199C5-EFD9-4EA1-A159-C95FD8F6F260}"/>
@@ -3511,7 +4525,1288 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Energybalance history'!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Industry Consumption in GWh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Energybalance history'!$B$64:$Q$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Energybalance history'!$B$65:$Q$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>19578.700555555555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17444.618333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19485.127222222221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22074.805555555551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22918.588888888888</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000%">
+                  <c:v>4.1408593708299968E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16173.841000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24462.542000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30530.494500000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36598.447</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54366.760999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80381.90800000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>118468.99500000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>174233.682</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>215055.56349999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>255877.44500000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32D1-465A-A367-7D7165847BCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Energybalance history'!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manufacturing Electricity consumption in GWh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Energybalance history'!$B$64:$Q$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Energybalance history'!$B$68:$Q$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2791.0050000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2430.2799722222217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2683.0269444444443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2861.5609722222221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3440.232361111111</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000%">
+                  <c:v>5.3675278227879542E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26790</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4347.6775685872717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44555</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7333.7353602111407</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32D1-465A-A367-7D7165847BCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="14340591"/>
+        <c:axId val="14343471"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Energybalance history'!$A$64</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Year</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Energybalance history'!$B$64:$Q$64</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2024</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2028</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2030</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2032</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2036</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2040</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2044</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2050</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2052</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Energybalance history'!$B$64:$Q$64</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2024</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2028</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2030</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2032</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2036</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2040</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2044</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2050</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2052</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-32D1-465A-A367-7D7165847BCE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="14340591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14343471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="14343471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14340591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>512445</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>78106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>12383</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E40FF7F3-9621-49ED-B557-030BF500C25A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3685,7 +5980,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3859,7 +6154,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4308,7 +6603,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4422,7 +6717,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4605,7 +6900,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4685,7 +6980,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4923,6 +7218,166 @@
       <sheetData sheetId="56"/>
       <sheetData sheetId="57"/>
       <sheetData sheetId="58"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Energybalance history"/>
+      <sheetName val="Enrgy growth"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>Year</v>
+          </cell>
+          <cell r="B64">
+            <v>2019</v>
+          </cell>
+          <cell r="C64">
+            <v>2020</v>
+          </cell>
+          <cell r="D64">
+            <v>2021</v>
+          </cell>
+          <cell r="E64">
+            <v>2022</v>
+          </cell>
+          <cell r="F64">
+            <v>2023</v>
+          </cell>
+          <cell r="H64">
+            <v>2024</v>
+          </cell>
+          <cell r="I64">
+            <v>2028</v>
+          </cell>
+          <cell r="J64">
+            <v>2030</v>
+          </cell>
+          <cell r="K64">
+            <v>2032</v>
+          </cell>
+          <cell r="L64">
+            <v>2036</v>
+          </cell>
+          <cell r="M64">
+            <v>2040</v>
+          </cell>
+          <cell r="N64">
+            <v>2044</v>
+          </cell>
+          <cell r="O64">
+            <v>2048</v>
+          </cell>
+          <cell r="P64">
+            <v>2050</v>
+          </cell>
+          <cell r="Q64">
+            <v>2052</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>Total Industry Consumption in GWh</v>
+          </cell>
+          <cell r="B65">
+            <v>19578.700555555555</v>
+          </cell>
+          <cell r="C65">
+            <v>17444.618333333336</v>
+          </cell>
+          <cell r="D65">
+            <v>19485.127222222221</v>
+          </cell>
+          <cell r="E65">
+            <v>22074.805555555551</v>
+          </cell>
+          <cell r="F65">
+            <v>22918.588888888888</v>
+          </cell>
+          <cell r="G65">
+            <v>4.1408593708299968E-2</v>
+          </cell>
+          <cell r="H65">
+            <v>16173.841000000002</v>
+          </cell>
+          <cell r="I65">
+            <v>24462.542000000001</v>
+          </cell>
+          <cell r="J65">
+            <v>30530.494500000001</v>
+          </cell>
+          <cell r="K65">
+            <v>36598.447</v>
+          </cell>
+          <cell r="L65">
+            <v>54366.760999999999</v>
+          </cell>
+          <cell r="M65">
+            <v>80381.90800000001</v>
+          </cell>
+          <cell r="N65">
+            <v>118468.99500000001</v>
+          </cell>
+          <cell r="O65">
+            <v>174233.682</v>
+          </cell>
+          <cell r="P65">
+            <v>215055.56349999999</v>
+          </cell>
+          <cell r="Q65">
+            <v>255877.44500000001</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>Manufacturing Electricity consumption in GWh</v>
+          </cell>
+          <cell r="B68">
+            <v>2791.0050000000001</v>
+          </cell>
+          <cell r="C68">
+            <v>2430.2799722222217</v>
+          </cell>
+          <cell r="D68">
+            <v>2683.0269444444443</v>
+          </cell>
+          <cell r="E68">
+            <v>2861.5609722222221</v>
+          </cell>
+          <cell r="F68">
+            <v>3440.232361111111</v>
+          </cell>
+          <cell r="G68">
+            <v>5.3675278227879542E-2</v>
+          </cell>
+          <cell r="J68">
+            <v>26790</v>
+          </cell>
+          <cell r="K68">
+            <v>4347.6775685872717</v>
+          </cell>
+          <cell r="M68">
+            <v>44555</v>
+          </cell>
+          <cell r="N68">
+            <v>7333.7353602111407</v>
+          </cell>
+          <cell r="P68">
+            <v>65835</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5275,11 +7730,5279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F935A86C-D5A8-4C3D-8B36-F46BCF028A2C}">
+  <dimension ref="A1:AF140"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="99.5546875" style="181" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="181" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="181" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="181" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="181" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="181" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="181" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="181" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="182" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="183" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="181"/>
+    <col min="12" max="12" width="8.88671875" style="184"/>
+    <col min="13" max="13" width="10" style="183" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="181"/>
+    <col min="15" max="15" width="11" style="182" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="183" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="183" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="181"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="180" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="V1" s="185" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="186" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="186" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="189" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="186" t="s">
+        <v>301</v>
+      </c>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
+      <c r="V2" s="192" t="s">
+        <v>144</v>
+      </c>
+      <c r="W2" s="193" t="s">
+        <v>302</v>
+      </c>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="193" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC2" s="194"/>
+      <c r="AD2" s="194"/>
+      <c r="AE2" s="194"/>
+      <c r="AF2" s="195"/>
+    </row>
+    <row r="3" spans="1:32" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="186" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="196">
+        <v>5</v>
+      </c>
+      <c r="G3" s="196" t="s">
+        <v>305</v>
+      </c>
+      <c r="H3" s="196" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" s="197">
+        <v>10</v>
+      </c>
+      <c r="J3" s="198">
+        <v>5</v>
+      </c>
+      <c r="K3" s="196" t="s">
+        <v>305</v>
+      </c>
+      <c r="L3" s="199" t="s">
+        <v>306</v>
+      </c>
+      <c r="M3" s="198">
+        <v>10</v>
+      </c>
+      <c r="N3" s="196">
+        <v>5</v>
+      </c>
+      <c r="O3" s="197" t="s">
+        <v>305</v>
+      </c>
+      <c r="P3" s="198" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="196">
+        <v>10</v>
+      </c>
+      <c r="V3" s="200" t="s">
+        <v>307</v>
+      </c>
+      <c r="W3" s="201">
+        <v>2018</v>
+      </c>
+      <c r="X3" s="201">
+        <v>2020</v>
+      </c>
+      <c r="Y3" s="201">
+        <v>2030</v>
+      </c>
+      <c r="Z3" s="201">
+        <v>2040</v>
+      </c>
+      <c r="AA3" s="201">
+        <v>2050</v>
+      </c>
+      <c r="AB3" s="202">
+        <v>2018</v>
+      </c>
+      <c r="AC3" s="202">
+        <v>2020</v>
+      </c>
+      <c r="AD3" s="202">
+        <v>2030</v>
+      </c>
+      <c r="AE3" s="202">
+        <v>2040</v>
+      </c>
+      <c r="AF3" s="202">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="203" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="204"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="196">
+        <v>2024</v>
+      </c>
+      <c r="F4" s="205">
+        <v>5017.1000000000004</v>
+      </c>
+      <c r="G4" s="205">
+        <v>5269.2</v>
+      </c>
+      <c r="H4" s="205">
+        <v>5371.7</v>
+      </c>
+      <c r="I4" s="206">
+        <v>5527.3</v>
+      </c>
+      <c r="J4" s="207">
+        <v>1286.0999999999999</v>
+      </c>
+      <c r="K4" s="205">
+        <v>1355.1</v>
+      </c>
+      <c r="L4" s="208">
+        <v>1390.7</v>
+      </c>
+      <c r="M4" s="207">
+        <v>1716.2</v>
+      </c>
+      <c r="N4" s="205">
+        <v>40518.9</v>
+      </c>
+      <c r="O4" s="206">
+        <v>41362.699999999997</v>
+      </c>
+      <c r="P4" s="207">
+        <v>41705.800000000003</v>
+      </c>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="205">
+        <v>42226.3</v>
+      </c>
+      <c r="V4" s="200" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" s="201">
+        <v>13</v>
+      </c>
+      <c r="X4" s="201">
+        <v>15.1</v>
+      </c>
+      <c r="Y4" s="201">
+        <v>28.2</v>
+      </c>
+      <c r="Z4" s="201">
+        <v>46.9</v>
+      </c>
+      <c r="AA4" s="201">
+        <v>69.3</v>
+      </c>
+      <c r="AB4" s="202">
+        <v>1117740</v>
+      </c>
+      <c r="AC4" s="202">
+        <v>1298298</v>
+      </c>
+      <c r="AD4" s="202">
+        <v>2424636</v>
+      </c>
+      <c r="AE4" s="202">
+        <v>4032462</v>
+      </c>
+      <c r="AF4" s="202">
+        <v>5958414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="209"/>
+      <c r="B5" s="204"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="196">
+        <v>2028</v>
+      </c>
+      <c r="F5" s="205">
+        <v>6144.8</v>
+      </c>
+      <c r="G5" s="205">
+        <v>7109.3</v>
+      </c>
+      <c r="H5" s="205">
+        <v>7527.8</v>
+      </c>
+      <c r="I5" s="206">
+        <v>8192.7000000000007</v>
+      </c>
+      <c r="J5" s="207">
+        <v>1594.5</v>
+      </c>
+      <c r="K5" s="205">
+        <v>1858.3</v>
+      </c>
+      <c r="L5" s="208">
+        <v>2103.4</v>
+      </c>
+      <c r="M5" s="207">
+        <v>2580</v>
+      </c>
+      <c r="N5" s="205">
+        <v>42313.8</v>
+      </c>
+      <c r="O5" s="206">
+        <v>47520</v>
+      </c>
+      <c r="P5" s="207">
+        <v>48920.3</v>
+      </c>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="205">
+        <v>51145.3</v>
+      </c>
+      <c r="V5" s="200" t="s">
+        <v>309</v>
+      </c>
+      <c r="W5" s="201">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X5" s="201">
+        <v>6.4</v>
+      </c>
+      <c r="Y5" s="201">
+        <v>20.6</v>
+      </c>
+      <c r="Z5" s="201">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AA5" s="201">
+        <v>62.5</v>
+      </c>
+      <c r="AB5" s="202">
+        <v>395508</v>
+      </c>
+      <c r="AC5" s="202">
+        <v>550272</v>
+      </c>
+      <c r="AD5" s="202">
+        <v>1771188</v>
+      </c>
+      <c r="AE5" s="202">
+        <v>3499386</v>
+      </c>
+      <c r="AF5" s="202">
+        <v>5373750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="209"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="196">
+        <v>2032</v>
+      </c>
+      <c r="F6" s="205">
+        <v>7515.5</v>
+      </c>
+      <c r="G6" s="205">
+        <v>9566.6</v>
+      </c>
+      <c r="H6" s="205">
+        <v>10515.7</v>
+      </c>
+      <c r="I6" s="206">
+        <v>12095.1</v>
+      </c>
+      <c r="J6" s="207">
+        <v>1969.4</v>
+      </c>
+      <c r="K6" s="205">
+        <v>2530.4</v>
+      </c>
+      <c r="L6" s="208">
+        <v>3146.9</v>
+      </c>
+      <c r="M6" s="207">
+        <v>3844.6</v>
+      </c>
+      <c r="N6" s="205">
+        <v>44292.6</v>
+      </c>
+      <c r="O6" s="206">
+        <v>55742.8</v>
+      </c>
+      <c r="P6" s="207">
+        <v>58918.5</v>
+      </c>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="205">
+        <v>83322.2</v>
+      </c>
+      <c r="V6" s="200" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" s="201">
+        <v>2.6</v>
+      </c>
+      <c r="X6" s="201">
+        <v>3.1</v>
+      </c>
+      <c r="Y6" s="201">
+        <v>6.6</v>
+      </c>
+      <c r="Z6" s="201">
+        <v>12.5</v>
+      </c>
+      <c r="AA6" s="201">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="202">
+        <v>223548</v>
+      </c>
+      <c r="AC6" s="202">
+        <v>266538</v>
+      </c>
+      <c r="AD6" s="202">
+        <v>567468</v>
+      </c>
+      <c r="AE6" s="202">
+        <v>1074750</v>
+      </c>
+      <c r="AF6" s="202">
+        <v>1805580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="209"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="196">
+        <v>2036</v>
+      </c>
+      <c r="F7" s="205">
+        <v>9181.7000000000007</v>
+      </c>
+      <c r="G7" s="205">
+        <v>12848.4</v>
+      </c>
+      <c r="H7" s="205">
+        <v>14656.6</v>
+      </c>
+      <c r="I7" s="206">
+        <v>17808.599999999999</v>
+      </c>
+      <c r="J7" s="207">
+        <v>2425.1</v>
+      </c>
+      <c r="K7" s="205">
+        <v>3427.9</v>
+      </c>
+      <c r="L7" s="208">
+        <v>4674.7</v>
+      </c>
+      <c r="M7" s="207">
+        <v>5696.2</v>
+      </c>
+      <c r="N7" s="205">
+        <v>46474.2</v>
+      </c>
+      <c r="O7" s="206">
+        <v>66724.2</v>
+      </c>
+      <c r="P7" s="207">
+        <v>72774.7</v>
+      </c>
+      <c r="Q7" s="207"/>
+      <c r="R7" s="205">
+        <v>51145.3</v>
+      </c>
+      <c r="V7" s="200" t="s">
+        <v>310</v>
+      </c>
+      <c r="W7" s="201">
+        <v>0.1</v>
+      </c>
+      <c r="X7" s="201">
+        <v>0.5</v>
+      </c>
+      <c r="Y7" s="201">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z7" s="201">
+        <v>10.4</v>
+      </c>
+      <c r="AA7" s="201">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AB7" s="202">
+        <v>8598</v>
+      </c>
+      <c r="AC7" s="202">
+        <v>42990</v>
+      </c>
+      <c r="AD7" s="202">
+        <v>378312</v>
+      </c>
+      <c r="AE7" s="202">
+        <v>894192</v>
+      </c>
+      <c r="AF7" s="202">
+        <v>1410072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="209"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="196">
+        <v>2040</v>
+      </c>
+      <c r="F8" s="205">
+        <v>11207</v>
+      </c>
+      <c r="G8" s="205">
+        <v>17231</v>
+      </c>
+      <c r="H8" s="205">
+        <v>20395.2</v>
+      </c>
+      <c r="I8" s="206">
+        <v>26173.8</v>
+      </c>
+      <c r="J8" s="207">
+        <v>2980</v>
+      </c>
+      <c r="K8" s="205">
+        <v>3427.9</v>
+      </c>
+      <c r="L8" s="208">
+        <v>6911.6</v>
+      </c>
+      <c r="M8" s="207">
+        <v>8407.1</v>
+      </c>
+      <c r="N8" s="205">
+        <v>48879.4</v>
+      </c>
+      <c r="O8" s="206">
+        <v>81389.399999999994</v>
+      </c>
+      <c r="P8" s="207">
+        <v>91977.5</v>
+      </c>
+      <c r="Q8" s="207"/>
+      <c r="R8" s="205">
+        <v>111313.8</v>
+      </c>
+      <c r="V8" s="200" t="s">
+        <v>69</v>
+      </c>
+      <c r="W8" s="201">
+        <v>3.3</v>
+      </c>
+      <c r="X8" s="201">
+        <v>3.9</v>
+      </c>
+      <c r="Y8" s="201">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="201">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AA8" s="201">
+        <v>24.9</v>
+      </c>
+      <c r="AB8" s="202">
+        <v>283734</v>
+      </c>
+      <c r="AC8" s="202">
+        <v>335322</v>
+      </c>
+      <c r="AD8" s="202">
+        <v>1289700</v>
+      </c>
+      <c r="AE8" s="202">
+        <v>1753992</v>
+      </c>
+      <c r="AF8" s="202">
+        <v>2140902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="209"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="196">
+        <v>2044</v>
+      </c>
+      <c r="F9" s="205">
+        <v>13668.6</v>
+      </c>
+      <c r="G9" s="205">
+        <v>23083.9</v>
+      </c>
+      <c r="H9" s="205">
+        <v>28348.2</v>
+      </c>
+      <c r="I9" s="206">
+        <v>38421.300000000003</v>
+      </c>
+      <c r="J9" s="207">
+        <v>3652.2</v>
+      </c>
+      <c r="K9" s="205">
+        <v>4626.5</v>
+      </c>
+      <c r="L9" s="208">
+        <v>10186.5</v>
+      </c>
+      <c r="M9" s="207">
+        <v>12376.2</v>
+      </c>
+      <c r="N9" s="205">
+        <v>51531.199999999997</v>
+      </c>
+      <c r="O9" s="206">
+        <v>100974.39999999999</v>
+      </c>
+      <c r="P9" s="207">
+        <v>118589.8</v>
+      </c>
+      <c r="Q9" s="207"/>
+      <c r="R9" s="205">
+        <v>152296.29999999999</v>
+      </c>
+      <c r="V9" s="200" t="s">
+        <v>311</v>
+      </c>
+      <c r="W9" s="201">
+        <v>1.5</v>
+      </c>
+      <c r="X9" s="201">
+        <v>4.5</v>
+      </c>
+      <c r="Y9" s="201">
+        <v>13.8</v>
+      </c>
+      <c r="Z9" s="201">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="201">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="AB9" s="202">
+        <v>128970</v>
+      </c>
+      <c r="AC9" s="202">
+        <v>386910</v>
+      </c>
+      <c r="AD9" s="202">
+        <v>1186524</v>
+      </c>
+      <c r="AE9" s="202">
+        <v>2751360</v>
+      </c>
+      <c r="AF9" s="202">
+        <v>3035094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="209"/>
+      <c r="B10" s="204"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="196">
+        <v>2048</v>
+      </c>
+      <c r="F10" s="205">
+        <v>16660.8</v>
+      </c>
+      <c r="G10" s="205">
+        <v>30900.3</v>
+      </c>
+      <c r="H10" s="205">
+        <v>39369.9</v>
+      </c>
+      <c r="I10" s="206">
+        <v>56352.800000000003</v>
+      </c>
+      <c r="J10" s="207">
+        <v>4470.5</v>
+      </c>
+      <c r="K10" s="205">
+        <v>6227.2</v>
+      </c>
+      <c r="L10" s="208">
+        <v>14981.4</v>
+      </c>
+      <c r="M10" s="207">
+        <v>18187.3</v>
+      </c>
+      <c r="N10" s="205">
+        <v>54454.7</v>
+      </c>
+      <c r="O10" s="206">
+        <v>127129.60000000001</v>
+      </c>
+      <c r="P10" s="207">
+        <v>155470.6</v>
+      </c>
+      <c r="Q10" s="207"/>
+      <c r="R10" s="205">
+        <v>212298.8</v>
+      </c>
+      <c r="V10" s="200" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10" s="201">
+        <v>25.1</v>
+      </c>
+      <c r="X10" s="201">
+        <v>33.5</v>
+      </c>
+      <c r="Y10" s="201">
+        <v>88.6</v>
+      </c>
+      <c r="Z10" s="201">
+        <v>162.9</v>
+      </c>
+      <c r="AA10" s="201">
+        <v>229.4</v>
+      </c>
+      <c r="AB10" s="202">
+        <v>2158098</v>
+      </c>
+      <c r="AC10" s="202">
+        <v>2880330</v>
+      </c>
+      <c r="AD10" s="202">
+        <v>7617828</v>
+      </c>
+      <c r="AE10" s="202">
+        <v>14006142</v>
+      </c>
+      <c r="AF10" s="202">
+        <v>19723812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="210"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196">
+        <v>2052</v>
+      </c>
+      <c r="F11" s="205">
+        <v>20297.900000000001</v>
+      </c>
+      <c r="G11" s="205">
+        <v>41338.800000000003</v>
+      </c>
+      <c r="H11" s="205">
+        <v>54644.4</v>
+      </c>
+      <c r="I11" s="206">
+        <v>82606.3</v>
+      </c>
+      <c r="J11" s="207">
+        <v>5465.2</v>
+      </c>
+      <c r="K11" s="205">
+        <v>11219.6</v>
+      </c>
+      <c r="L11" s="208">
+        <v>22001.5</v>
+      </c>
+      <c r="M11" s="207">
+        <v>26695.3</v>
+      </c>
+      <c r="N11" s="205">
+        <v>57678</v>
+      </c>
+      <c r="O11" s="206">
+        <v>162059</v>
+      </c>
+      <c r="P11" s="207">
+        <v>206582.3</v>
+      </c>
+      <c r="Q11" s="207"/>
+      <c r="R11" s="205">
+        <v>300148.40000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="203" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="204"/>
+      <c r="C12" s="204"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="201">
+        <v>2024</v>
+      </c>
+      <c r="F12" s="211">
+        <v>210094.2</v>
+      </c>
+      <c r="G12" s="211">
+        <v>220653.7</v>
+      </c>
+      <c r="H12" s="211">
+        <v>224946.8</v>
+      </c>
+      <c r="I12" s="212">
+        <v>231461.1</v>
+      </c>
+      <c r="J12" s="213">
+        <v>53857.2</v>
+      </c>
+      <c r="K12" s="211">
+        <v>56745</v>
+      </c>
+      <c r="L12" s="214">
+        <v>58237</v>
+      </c>
+      <c r="M12" s="213">
+        <v>71866.8</v>
+      </c>
+      <c r="N12" s="211">
+        <v>1696773</v>
+      </c>
+      <c r="O12" s="212">
+        <v>1732105.9</v>
+      </c>
+      <c r="P12" s="213">
+        <v>1746472.4</v>
+      </c>
+      <c r="Q12" s="213"/>
+      <c r="R12" s="211">
+        <v>1768270.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="209"/>
+      <c r="B13" s="204"/>
+      <c r="C13" s="204"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="201">
+        <v>2028</v>
+      </c>
+      <c r="F13" s="211">
+        <v>257319.1</v>
+      </c>
+      <c r="G13" s="211">
+        <v>297708.5</v>
+      </c>
+      <c r="H13" s="211">
+        <v>315232.40000000002</v>
+      </c>
+      <c r="I13" s="212">
+        <v>343077.9</v>
+      </c>
+      <c r="J13" s="213">
+        <v>66772.600000000006</v>
+      </c>
+      <c r="K13" s="211">
+        <v>77818.7</v>
+      </c>
+      <c r="L13" s="214">
+        <v>88082.9</v>
+      </c>
+      <c r="M13" s="213">
+        <v>108038.5</v>
+      </c>
+      <c r="N13" s="211">
+        <v>1771933</v>
+      </c>
+      <c r="O13" s="212">
+        <v>1989948.1</v>
+      </c>
+      <c r="P13" s="213">
+        <v>2048587.1</v>
+      </c>
+      <c r="Q13" s="213"/>
+      <c r="R13" s="211">
+        <v>2141762.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="209"/>
+      <c r="B14" s="204"/>
+      <c r="C14" s="204"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="201">
+        <v>2032</v>
+      </c>
+      <c r="F14" s="211">
+        <v>314721.09999999998</v>
+      </c>
+      <c r="G14" s="211">
+        <v>400613.1</v>
+      </c>
+      <c r="H14" s="211">
+        <v>440355.9</v>
+      </c>
+      <c r="I14" s="212">
+        <v>506495.4</v>
+      </c>
+      <c r="J14" s="213">
+        <v>82471.5</v>
+      </c>
+      <c r="K14" s="211">
+        <v>105961.9</v>
+      </c>
+      <c r="L14" s="214">
+        <v>131780.6</v>
+      </c>
+      <c r="M14" s="213">
+        <v>160997.5</v>
+      </c>
+      <c r="N14" s="211">
+        <v>1854796.9</v>
+      </c>
+      <c r="O14" s="212">
+        <v>2334288.1</v>
+      </c>
+      <c r="P14" s="213">
+        <v>2467275.1</v>
+      </c>
+      <c r="Q14" s="213"/>
+      <c r="R14" s="211">
+        <v>3489204.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="209"/>
+      <c r="B15" s="204"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="201">
+        <v>2036</v>
+      </c>
+      <c r="F15" s="211">
+        <v>384493.7</v>
+      </c>
+      <c r="G15" s="211">
+        <v>538038.9</v>
+      </c>
+      <c r="H15" s="211">
+        <v>613759.19999999995</v>
+      </c>
+      <c r="I15" s="212">
+        <v>745755.4</v>
+      </c>
+      <c r="J15" s="213">
+        <v>101553.2</v>
+      </c>
+      <c r="K15" s="211">
+        <v>143545.60000000001</v>
+      </c>
+      <c r="L15" s="214">
+        <v>195758.8</v>
+      </c>
+      <c r="M15" s="213">
+        <v>238534.8</v>
+      </c>
+      <c r="N15" s="211">
+        <v>1946154.1</v>
+      </c>
+      <c r="O15" s="212">
+        <v>2794143.6</v>
+      </c>
+      <c r="P15" s="213">
+        <v>3047518.4</v>
+      </c>
+      <c r="Q15" s="213"/>
+      <c r="R15" s="211">
+        <v>2141762.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="209"/>
+      <c r="B16" s="204"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="201">
+        <v>2040</v>
+      </c>
+      <c r="F16" s="211">
+        <v>469302.8</v>
+      </c>
+      <c r="G16" s="211">
+        <v>721567.4</v>
+      </c>
+      <c r="H16" s="211">
+        <v>854071.6</v>
+      </c>
+      <c r="I16" s="212">
+        <v>1096055.7</v>
+      </c>
+      <c r="J16" s="213">
+        <v>124789.4</v>
+      </c>
+      <c r="K16" s="211">
+        <v>143545.60000000001</v>
+      </c>
+      <c r="L16" s="214">
+        <v>289428.8</v>
+      </c>
+      <c r="M16" s="213">
+        <v>352057.4</v>
+      </c>
+      <c r="N16" s="211">
+        <v>2046875.6</v>
+      </c>
+      <c r="O16" s="212">
+        <v>3408266.3</v>
+      </c>
+      <c r="P16" s="213">
+        <v>3851652.8</v>
+      </c>
+      <c r="Q16" s="213"/>
+      <c r="R16" s="211">
+        <v>4661382.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="209"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="201">
+        <v>2044</v>
+      </c>
+      <c r="F17" s="211">
+        <v>572388.19999999995</v>
+      </c>
+      <c r="G17" s="211">
+        <v>966663.3</v>
+      </c>
+      <c r="H17" s="211">
+        <v>1187110.6000000001</v>
+      </c>
+      <c r="I17" s="212">
+        <v>1608930.5</v>
+      </c>
+      <c r="J17" s="213">
+        <v>152939.70000000001</v>
+      </c>
+      <c r="K17" s="211">
+        <v>193738.3</v>
+      </c>
+      <c r="L17" s="214">
+        <v>426570.8</v>
+      </c>
+      <c r="M17" s="213">
+        <v>518265.5</v>
+      </c>
+      <c r="N17" s="211">
+        <v>2157921.2999999998</v>
+      </c>
+      <c r="O17" s="212">
+        <v>4228408.7</v>
+      </c>
+      <c r="P17" s="213">
+        <v>4966069.9000000004</v>
+      </c>
+      <c r="Q17" s="213"/>
+      <c r="R17" s="211">
+        <v>6377567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="209"/>
+      <c r="B18" s="204"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="201">
+        <v>2048</v>
+      </c>
+      <c r="F18" s="211">
+        <v>697689.7</v>
+      </c>
+      <c r="G18" s="211">
+        <v>1293981.6000000001</v>
+      </c>
+      <c r="H18" s="211">
+        <v>1648655.4</v>
+      </c>
+      <c r="I18" s="212">
+        <v>2359830.7999999998</v>
+      </c>
+      <c r="J18" s="213">
+        <v>187208.1</v>
+      </c>
+      <c r="K18" s="211">
+        <v>260768.8</v>
+      </c>
+      <c r="L18" s="214">
+        <v>627361</v>
+      </c>
+      <c r="M18" s="213">
+        <v>761611</v>
+      </c>
+      <c r="N18" s="211">
+        <v>2280348.7999999998</v>
+      </c>
+      <c r="O18" s="212">
+        <v>5323683</v>
+      </c>
+      <c r="P18" s="213">
+        <v>6510494.5999999996</v>
+      </c>
+      <c r="Q18" s="213"/>
+      <c r="R18" s="211">
+        <v>8890233.1999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="210"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="201">
+        <v>2052</v>
+      </c>
+      <c r="F19" s="211">
+        <v>849994.6</v>
+      </c>
+      <c r="G19" s="211">
+        <v>1731105.1</v>
+      </c>
+      <c r="H19" s="211">
+        <v>2288291.5</v>
+      </c>
+      <c r="I19" s="212">
+        <v>3459223.2</v>
+      </c>
+      <c r="J19" s="213">
+        <v>228861.4</v>
+      </c>
+      <c r="K19" s="211">
+        <v>469833.3</v>
+      </c>
+      <c r="L19" s="214">
+        <v>921337.5</v>
+      </c>
+      <c r="M19" s="213">
+        <v>1117893.2</v>
+      </c>
+      <c r="N19" s="211">
+        <v>2415325.4</v>
+      </c>
+      <c r="O19" s="212">
+        <v>6786388.2000000002</v>
+      </c>
+      <c r="P19" s="213">
+        <v>8650848.8000000007</v>
+      </c>
+      <c r="Q19" s="213"/>
+      <c r="R19" s="211">
+        <v>12569028.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="215" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" s="215"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="215" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" s="215"/>
+      <c r="G23" s="181" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="181">
+        <v>2019</v>
+      </c>
+      <c r="C24" s="181">
+        <v>2020</v>
+      </c>
+      <c r="D24" s="181">
+        <v>2021</v>
+      </c>
+      <c r="E24" s="181">
+        <v>2022</v>
+      </c>
+      <c r="F24" s="181">
+        <v>2023</v>
+      </c>
+      <c r="G24" s="181">
+        <v>2024</v>
+      </c>
+      <c r="H24" s="181">
+        <v>2025</v>
+      </c>
+      <c r="I24" s="182">
+        <v>2028</v>
+      </c>
+      <c r="J24" s="183">
+        <v>2030</v>
+      </c>
+      <c r="K24" s="181">
+        <v>2032</v>
+      </c>
+      <c r="L24" s="184">
+        <v>2036</v>
+      </c>
+      <c r="M24" s="183">
+        <v>2040</v>
+      </c>
+      <c r="N24" s="181">
+        <v>2044</v>
+      </c>
+      <c r="O24" s="182">
+        <v>2048</v>
+      </c>
+      <c r="P24" s="183">
+        <v>2050</v>
+      </c>
+      <c r="R24" s="181">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" s="216">
+        <f>B49+B50+B51+B52</f>
+        <v>70483.322</v>
+      </c>
+      <c r="C25" s="216">
+        <f t="shared" ref="C25:F25" si="0">C49+C50+C51+C52</f>
+        <v>62800.626000000004</v>
+      </c>
+      <c r="D25" s="216">
+        <f t="shared" si="0"/>
+        <v>70146.457999999999</v>
+      </c>
+      <c r="E25" s="216">
+        <f t="shared" si="0"/>
+        <v>79469.299999999988</v>
+      </c>
+      <c r="F25" s="216">
+        <f t="shared" si="0"/>
+        <v>82506.92</v>
+      </c>
+      <c r="G25" s="6">
+        <f>L4*11.63</f>
+        <v>16173.841000000002</v>
+      </c>
+      <c r="I25" s="6">
+        <f>L5*11.63</f>
+        <v>24462.542000000001</v>
+      </c>
+      <c r="J25" s="6">
+        <f>(I25+K25)/2</f>
+        <v>30530.494500000001</v>
+      </c>
+      <c r="K25" s="6">
+        <f>L6*11.63</f>
+        <v>36598.447</v>
+      </c>
+      <c r="L25" s="6">
+        <f>L7*11.63</f>
+        <v>54366.760999999999</v>
+      </c>
+      <c r="M25" s="6">
+        <f>L8*11.63</f>
+        <v>80381.90800000001</v>
+      </c>
+      <c r="N25" s="6">
+        <f>L9*11.63</f>
+        <v>118468.99500000001</v>
+      </c>
+      <c r="O25" s="6">
+        <f>L10*11.63</f>
+        <v>174233.682</v>
+      </c>
+      <c r="P25" s="6">
+        <f>(O25+R25)/2</f>
+        <v>215055.56349999999</v>
+      </c>
+      <c r="R25" s="6">
+        <f>L11*11.63</f>
+        <v>255877.44500000001</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="217" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="217" t="s">
+        <v>319</v>
+      </c>
+      <c r="B26" s="218">
+        <f>B49</f>
+        <v>10576.44</v>
+      </c>
+      <c r="C26" s="218">
+        <f t="shared" ref="C26:F26" si="1">C49</f>
+        <v>9209.482</v>
+      </c>
+      <c r="D26" s="218">
+        <f t="shared" si="1"/>
+        <v>10167.26</v>
+      </c>
+      <c r="E26" s="218">
+        <f t="shared" si="1"/>
+        <v>10843.81</v>
+      </c>
+      <c r="F26" s="218">
+        <f t="shared" si="1"/>
+        <v>13036.67</v>
+      </c>
+      <c r="J26" s="217">
+        <f>Y4*1000</f>
+        <v>28200</v>
+      </c>
+      <c r="M26" s="217">
+        <f>Z4*1000</f>
+        <v>46900</v>
+      </c>
+      <c r="P26" s="217">
+        <f>AA4*1000</f>
+        <v>69300</v>
+      </c>
+      <c r="S26" s="217" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="181" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27" s="181">
+        <f>(E50+E52+E51)*0.2777778</f>
+        <v>19062.637636122003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="219" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="219" t="s">
+        <v>322</v>
+      </c>
+      <c r="E28" s="220">
+        <f>E26/E25</f>
+        <v>0.1364528188872936</v>
+      </c>
+      <c r="O28" s="220">
+        <f>O26/O25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="181" t="s">
+        <v>323</v>
+      </c>
+      <c r="E29" s="221">
+        <f>1-E28</f>
+        <v>0.86354718111270645</v>
+      </c>
+      <c r="O29" s="222">
+        <f>1-O28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="223" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="223" t="s">
+        <v>324</v>
+      </c>
+      <c r="E30" s="224"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="183"/>
+      <c r="L30" s="184"/>
+      <c r="M30" s="183"/>
+      <c r="O30" s="222">
+        <f>(O25-E25)/E25</f>
+        <v>1.1924652916283398</v>
+      </c>
+      <c r="P30" s="183"/>
+      <c r="Q30" s="183"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="181" t="s">
+        <v>325</v>
+      </c>
+      <c r="E31" s="221"/>
+      <c r="O31" s="222">
+        <f>(O26-E26)/E26</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="223" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="223" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" s="224"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="183"/>
+      <c r="L32" s="184"/>
+      <c r="M32" s="183"/>
+      <c r="O32" s="222">
+        <f>((O27-E27)/E27)</f>
+        <v>-1</v>
+      </c>
+      <c r="P32" s="183"/>
+      <c r="Q32" s="183"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E33" s="221"/>
+      <c r="O33" s="222"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E34" s="221"/>
+      <c r="O34" s="222"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E35" s="221"/>
+      <c r="O35" s="222"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E36" s="221"/>
+      <c r="O36" s="222"/>
+    </row>
+    <row r="37" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="225" t="s">
+        <v>161</v>
+      </c>
+      <c r="I37" s="182"/>
+      <c r="J37" s="183"/>
+      <c r="L37" s="184"/>
+      <c r="M37" s="183"/>
+      <c r="O37" s="182"/>
+      <c r="P37" s="183"/>
+      <c r="Q37" s="183"/>
+    </row>
+    <row r="38" spans="1:20" s="226" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="226" t="s">
+        <v>327</v>
+      </c>
+      <c r="E38" s="226">
+        <f>10301.62*0.2777778</f>
+        <v>2861.5613400360003</v>
+      </c>
+      <c r="F38" s="227">
+        <f>28990435.88*0.2777778</f>
+        <v>8052899.4997874638</v>
+      </c>
+      <c r="I38" s="182"/>
+      <c r="J38" s="183"/>
+      <c r="L38" s="184"/>
+      <c r="M38" s="183"/>
+      <c r="O38" s="182"/>
+      <c r="P38" s="228"/>
+      <c r="Q38" s="228"/>
+      <c r="T38" s="226" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="225" t="s">
+        <v>329</v>
+      </c>
+      <c r="E39" s="225">
+        <f>(E56+E57+E58)*0.2777778</f>
+        <v>10281.181933605601</v>
+      </c>
+      <c r="F39" s="229"/>
+      <c r="I39" s="182"/>
+      <c r="J39" s="183"/>
+      <c r="L39" s="184"/>
+      <c r="M39" s="183"/>
+      <c r="O39" s="182"/>
+      <c r="P39" s="228"/>
+      <c r="Q39" s="228"/>
+      <c r="R39" s="229">
+        <f>(O39-E39)/E39</f>
+        <v>-1</v>
+      </c>
+      <c r="T39" s="225" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="225" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="225">
+        <f>E56*0.2777778</f>
+        <v>2605.1202084096003</v>
+      </c>
+      <c r="F40" s="229"/>
+      <c r="I40" s="182"/>
+      <c r="J40" s="183"/>
+      <c r="L40" s="184"/>
+      <c r="M40" s="183"/>
+      <c r="O40" s="182"/>
+      <c r="P40" s="183"/>
+      <c r="Q40" s="183"/>
+      <c r="R40" s="229"/>
+      <c r="T40" s="225" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="225" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" s="225">
+        <f>E57*0.2777778</f>
+        <v>4518.4003614720004</v>
+      </c>
+      <c r="F41" s="229"/>
+      <c r="I41" s="182"/>
+      <c r="J41" s="183"/>
+      <c r="L41" s="184"/>
+      <c r="M41" s="183"/>
+      <c r="O41" s="182"/>
+      <c r="P41" s="183"/>
+      <c r="Q41" s="183"/>
+      <c r="R41" s="229"/>
+      <c r="T41" s="225" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="225" t="s">
+        <v>334</v>
+      </c>
+      <c r="E42" s="225">
+        <f>E58*0.2777778</f>
+        <v>3157.6613637240002</v>
+      </c>
+      <c r="F42" s="229"/>
+      <c r="I42" s="182"/>
+      <c r="J42" s="183"/>
+      <c r="L42" s="184"/>
+      <c r="M42" s="183"/>
+      <c r="O42" s="182"/>
+      <c r="P42" s="183"/>
+      <c r="Q42" s="183"/>
+      <c r="R42" s="229"/>
+    </row>
+    <row r="43" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="225" t="s">
+        <v>335</v>
+      </c>
+      <c r="E43" s="225">
+        <f>E41+E42</f>
+        <v>7676.0617251960011</v>
+      </c>
+      <c r="F43" s="230">
+        <f>29343.096*0.2777778</f>
+        <v>8150.8606520688008</v>
+      </c>
+      <c r="G43" s="225">
+        <f>E43/0.2777778</f>
+        <v>27633.820000000003</v>
+      </c>
+      <c r="I43" s="182"/>
+      <c r="J43" s="183"/>
+      <c r="L43" s="184"/>
+      <c r="M43" s="183"/>
+      <c r="O43" s="182"/>
+      <c r="P43" s="183"/>
+      <c r="Q43" s="183"/>
+      <c r="R43" s="229"/>
+    </row>
+    <row r="44" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I44" s="182"/>
+      <c r="J44" s="183"/>
+      <c r="L44" s="184"/>
+      <c r="M44" s="183"/>
+      <c r="O44" s="182"/>
+      <c r="P44" s="183"/>
+      <c r="Q44" s="183"/>
+      <c r="R44" s="229"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="181" t="s">
+        <v>336</v>
+      </c>
+      <c r="E45" s="231">
+        <f>E39/(E38+E39)</f>
+        <v>0.78227062033730832</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="181" t="s">
+        <v>337</v>
+      </c>
+      <c r="E46" s="221">
+        <f>E38/(E38+E39)</f>
+        <v>0.21772937966269174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="225" t="s">
+        <v>338</v>
+      </c>
+      <c r="B47" s="225"/>
+      <c r="C47" s="225"/>
+      <c r="D47" s="225"/>
+      <c r="O47" s="222">
+        <f>(O38-E38)/E38</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="232" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="232" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="232">
+        <f>B24</f>
+        <v>2019</v>
+      </c>
+      <c r="C48" s="232">
+        <f t="shared" ref="C48:R48" si="2">C24</f>
+        <v>2020</v>
+      </c>
+      <c r="D48" s="232">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E48" s="232">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="F48" s="232">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="G48" s="232">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="H48" s="232">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+      <c r="I48" s="232">
+        <f t="shared" si="2"/>
+        <v>2028</v>
+      </c>
+      <c r="J48" s="232">
+        <f t="shared" si="2"/>
+        <v>2030</v>
+      </c>
+      <c r="K48" s="232">
+        <f t="shared" si="2"/>
+        <v>2032</v>
+      </c>
+      <c r="L48" s="232">
+        <f t="shared" si="2"/>
+        <v>2036</v>
+      </c>
+      <c r="M48" s="232">
+        <f t="shared" si="2"/>
+        <v>2040</v>
+      </c>
+      <c r="N48" s="232">
+        <f t="shared" si="2"/>
+        <v>2044</v>
+      </c>
+      <c r="O48" s="232">
+        <f t="shared" si="2"/>
+        <v>2048</v>
+      </c>
+      <c r="P48" s="232">
+        <f t="shared" si="2"/>
+        <v>2050</v>
+      </c>
+      <c r="R48" s="232">
+        <f t="shared" si="2"/>
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="181" t="s">
+        <v>339</v>
+      </c>
+      <c r="B49" s="233">
+        <v>10576.44</v>
+      </c>
+      <c r="C49" s="233">
+        <v>9209.482</v>
+      </c>
+      <c r="D49" s="233">
+        <v>10167.26</v>
+      </c>
+      <c r="E49" s="233">
+        <v>10843.81</v>
+      </c>
+      <c r="F49" s="233">
+        <v>13036.67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="181" t="s">
+        <v>340</v>
+      </c>
+      <c r="B50" s="233">
+        <v>15875.22</v>
+      </c>
+      <c r="C50" s="233">
+        <v>8280.7870000000003</v>
+      </c>
+      <c r="D50" s="233">
+        <v>11261.34</v>
+      </c>
+      <c r="E50" s="233">
+        <f>E58</f>
+        <v>11367.58</v>
+      </c>
+      <c r="F50" s="233">
+        <v>11367.58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="181" t="s">
+        <v>341</v>
+      </c>
+      <c r="B51" s="233">
+        <v>136.322</v>
+      </c>
+      <c r="C51" s="233">
+        <v>5783.4470000000001</v>
+      </c>
+      <c r="D51" s="233">
+        <v>6232.6379999999999</v>
+      </c>
+      <c r="E51" s="233">
+        <f>E57</f>
+        <v>16266.24</v>
+      </c>
+      <c r="F51" s="233">
+        <v>17976.259999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="181" t="s">
+        <v>342</v>
+      </c>
+      <c r="B52" s="233">
+        <v>43895.34</v>
+      </c>
+      <c r="C52" s="233">
+        <v>39526.910000000003</v>
+      </c>
+      <c r="D52" s="233">
+        <v>42485.22</v>
+      </c>
+      <c r="E52" s="233">
+        <v>40991.67</v>
+      </c>
+      <c r="F52" s="233">
+        <v>40126.410000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="181" t="s">
+        <v>343</v>
+      </c>
+      <c r="B53" s="233">
+        <f>SUM(B49:B52)</f>
+        <v>70483.322</v>
+      </c>
+      <c r="C53" s="233">
+        <f t="shared" ref="C53:F53" si="3">SUM(C49:C52)</f>
+        <v>62800.626000000004</v>
+      </c>
+      <c r="D53" s="233">
+        <f t="shared" si="3"/>
+        <v>70146.457999999999</v>
+      </c>
+      <c r="E53" s="233">
+        <f t="shared" si="3"/>
+        <v>79469.299999999988</v>
+      </c>
+      <c r="F53" s="233">
+        <f t="shared" si="3"/>
+        <v>82506.92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B54" s="233"/>
+      <c r="C54" s="233"/>
+      <c r="D54" s="233"/>
+      <c r="E54" s="233"/>
+      <c r="F54" s="233"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="181" t="s">
+        <v>344</v>
+      </c>
+      <c r="B55" s="233">
+        <f>0.95*B49</f>
+        <v>10047.618</v>
+      </c>
+      <c r="C55" s="233">
+        <f>C49*0.95</f>
+        <v>8749.0078999999987</v>
+      </c>
+      <c r="D55" s="233">
+        <f>0.95*D49</f>
+        <v>9658.896999999999</v>
+      </c>
+      <c r="E55" s="233">
+        <f>E49*0.95</f>
+        <v>10301.619499999999</v>
+      </c>
+      <c r="F55" s="233">
+        <f>0.95*F49</f>
+        <v>12384.836499999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="181" t="s">
+        <v>345</v>
+      </c>
+      <c r="B56" s="233">
+        <v>9120.0020000000004</v>
+      </c>
+      <c r="C56" s="233">
+        <f>9065.598</f>
+        <v>9065.598</v>
+      </c>
+      <c r="D56" s="233">
+        <v>9113.6</v>
+      </c>
+      <c r="E56" s="233">
+        <f>9378.432</f>
+        <v>9378.4320000000007</v>
+      </c>
+      <c r="F56" s="233">
+        <v>10051.008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="181" t="s">
+        <v>346</v>
+      </c>
+      <c r="B57" s="233">
+        <f>B51</f>
+        <v>136.322</v>
+      </c>
+      <c r="C57" s="233">
+        <f>C51</f>
+        <v>5783.4470000000001</v>
+      </c>
+      <c r="D57" s="233">
+        <f>D51</f>
+        <v>6232.6379999999999</v>
+      </c>
+      <c r="E57" s="233">
+        <v>16266.24</v>
+      </c>
+      <c r="F57" s="233">
+        <f>F51</f>
+        <v>17976.259999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="181" t="s">
+        <v>347</v>
+      </c>
+      <c r="B58" s="233">
+        <f>B50</f>
+        <v>15875.22</v>
+      </c>
+      <c r="C58" s="233">
+        <f>C50</f>
+        <v>8280.7870000000003</v>
+      </c>
+      <c r="D58" s="233">
+        <f>D50</f>
+        <v>11261.34</v>
+      </c>
+      <c r="E58" s="234">
+        <v>11367.58</v>
+      </c>
+      <c r="F58" s="233">
+        <f>F50</f>
+        <v>11367.58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B59" s="233"/>
+      <c r="C59" s="233"/>
+      <c r="D59" s="233"/>
+      <c r="E59" s="234"/>
+      <c r="F59" s="233"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="181" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" s="233">
+        <f>B49-B55</f>
+        <v>528.82200000000012</v>
+      </c>
+      <c r="C60" s="233">
+        <f t="shared" ref="C60:F60" si="4">C49-C55</f>
+        <v>460.47410000000127</v>
+      </c>
+      <c r="D60" s="233">
+        <f t="shared" si="4"/>
+        <v>508.36300000000119</v>
+      </c>
+      <c r="E60" s="233">
+        <f t="shared" si="4"/>
+        <v>542.19050000000061</v>
+      </c>
+      <c r="F60" s="233">
+        <f t="shared" si="4"/>
+        <v>651.83350000000064</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="181" t="s">
+        <v>349</v>
+      </c>
+      <c r="B61" s="233">
+        <f>B52-B56</f>
+        <v>34775.337999999996</v>
+      </c>
+      <c r="C61" s="233">
+        <f t="shared" ref="C61:F61" si="5">C52-C56</f>
+        <v>30461.312000000005</v>
+      </c>
+      <c r="D61" s="233">
+        <f t="shared" si="5"/>
+        <v>33371.620000000003</v>
+      </c>
+      <c r="E61" s="233">
+        <f t="shared" si="5"/>
+        <v>31613.237999999998</v>
+      </c>
+      <c r="F61" s="233">
+        <f t="shared" si="5"/>
+        <v>30075.402000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E62" s="235"/>
+    </row>
+    <row r="63" spans="1:17" ht="45.6" x14ac:dyDescent="0.5">
+      <c r="A63" s="236" t="s">
+        <v>350</v>
+      </c>
+      <c r="G63" s="181" t="s">
+        <v>351</v>
+      </c>
+      <c r="J63" s="237" t="s">
+        <v>352</v>
+      </c>
+      <c r="O63" s="238"/>
+      <c r="P63" s="238" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="232" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="232" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="232">
+        <v>2019</v>
+      </c>
+      <c r="C64" s="232">
+        <v>2020</v>
+      </c>
+      <c r="D64" s="232">
+        <v>2021</v>
+      </c>
+      <c r="E64" s="232">
+        <v>2022</v>
+      </c>
+      <c r="F64" s="232">
+        <v>2023</v>
+      </c>
+      <c r="H64" s="232">
+        <v>2024</v>
+      </c>
+      <c r="I64" s="182">
+        <f>I24</f>
+        <v>2028</v>
+      </c>
+      <c r="J64" s="183">
+        <f t="shared" ref="J64:P64" si="6">J24</f>
+        <v>2030</v>
+      </c>
+      <c r="K64" s="232">
+        <f t="shared" si="6"/>
+        <v>2032</v>
+      </c>
+      <c r="L64" s="184">
+        <f t="shared" si="6"/>
+        <v>2036</v>
+      </c>
+      <c r="M64" s="183">
+        <f t="shared" si="6"/>
+        <v>2040</v>
+      </c>
+      <c r="N64" s="232">
+        <f t="shared" si="6"/>
+        <v>2044</v>
+      </c>
+      <c r="O64" s="182">
+        <f t="shared" si="6"/>
+        <v>2048</v>
+      </c>
+      <c r="P64" s="183">
+        <f t="shared" si="6"/>
+        <v>2050</v>
+      </c>
+      <c r="Q64" s="183">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A65" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="B65" s="233">
+        <f>(B49+B50+B51+B52)/3.6</f>
+        <v>19578.700555555555</v>
+      </c>
+      <c r="C65" s="233">
+        <f t="shared" ref="C65:F65" si="7">(C49+C50+C51+C52)/3.6</f>
+        <v>17444.618333333336</v>
+      </c>
+      <c r="D65" s="233">
+        <f t="shared" si="7"/>
+        <v>19485.127222222221</v>
+      </c>
+      <c r="E65" s="233">
+        <f t="shared" si="7"/>
+        <v>22074.805555555551</v>
+      </c>
+      <c r="F65" s="233">
+        <f t="shared" si="7"/>
+        <v>22918.588888888888</v>
+      </c>
+      <c r="G65" s="239">
+        <f>(F65/D65)^(1/(F64-B64))-1</f>
+        <v>4.1408593708299968E-2</v>
+      </c>
+      <c r="H65" s="240">
+        <f>L4*11.63</f>
+        <v>16173.841000000002</v>
+      </c>
+      <c r="I65" s="241">
+        <f>L5*11.63</f>
+        <v>24462.542000000001</v>
+      </c>
+      <c r="J65" s="242">
+        <f>(I65+K65)/2</f>
+        <v>30530.494500000001</v>
+      </c>
+      <c r="K65" s="240">
+        <f>L6*11.63</f>
+        <v>36598.447</v>
+      </c>
+      <c r="L65" s="243">
+        <f>L7*11.63</f>
+        <v>54366.760999999999</v>
+      </c>
+      <c r="M65" s="242">
+        <f>L8*11.63</f>
+        <v>80381.90800000001</v>
+      </c>
+      <c r="N65" s="240">
+        <f>L9*11.63</f>
+        <v>118468.99500000001</v>
+      </c>
+      <c r="O65" s="241">
+        <f>L10*11.63</f>
+        <v>174233.682</v>
+      </c>
+      <c r="P65" s="242">
+        <f>(O65+Q65)/2</f>
+        <v>215055.56349999999</v>
+      </c>
+      <c r="Q65" s="242">
+        <f>L11*11.63</f>
+        <v>255877.44500000001</v>
+      </c>
+      <c r="R65" s="233"/>
+      <c r="S65" s="233" t="s">
+        <v>355</v>
+      </c>
+      <c r="T65" s="233"/>
+      <c r="U65" s="233"/>
+      <c r="V65" s="233"/>
+      <c r="W65" s="233"/>
+      <c r="X65" s="233"/>
+      <c r="Y65" s="233"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A66" s="181" t="s">
+        <v>356</v>
+      </c>
+      <c r="B66" s="233">
+        <f>B49/3.6</f>
+        <v>2937.9</v>
+      </c>
+      <c r="C66" s="233">
+        <f t="shared" ref="C66:F66" si="8">C49/3.6</f>
+        <v>2558.1894444444442</v>
+      </c>
+      <c r="D66" s="233">
+        <f t="shared" si="8"/>
+        <v>2824.2388888888891</v>
+      </c>
+      <c r="E66" s="233">
+        <f t="shared" si="8"/>
+        <v>3012.1694444444443</v>
+      </c>
+      <c r="F66" s="233">
+        <f t="shared" si="8"/>
+        <v>3621.297222222222</v>
+      </c>
+      <c r="G66" s="239">
+        <f>(F66/B66)^(1/(F64-B64))-1</f>
+        <v>5.3675278227879542E-2</v>
+      </c>
+      <c r="H66" s="240"/>
+      <c r="I66" s="241"/>
+      <c r="J66" s="242"/>
+      <c r="K66" s="240"/>
+      <c r="L66" s="243"/>
+      <c r="M66" s="242"/>
+      <c r="N66" s="240"/>
+      <c r="O66" s="241"/>
+      <c r="P66" s="242"/>
+      <c r="Q66" s="242"/>
+      <c r="R66" s="233"/>
+      <c r="S66" s="233"/>
+      <c r="T66" s="233"/>
+      <c r="U66" s="233"/>
+      <c r="V66" s="233"/>
+      <c r="W66" s="233"/>
+      <c r="X66" s="233"/>
+      <c r="Y66" s="233"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A67" s="181" t="s">
+        <v>357</v>
+      </c>
+      <c r="B67" s="233">
+        <f>(B50+B51+B52)/3.6</f>
+        <v>16640.800555555554</v>
+      </c>
+      <c r="C67" s="233">
+        <f t="shared" ref="C67:F67" si="9">(C50+C51+C52)/3.6</f>
+        <v>14886.428888888888</v>
+      </c>
+      <c r="D67" s="233">
+        <f t="shared" si="9"/>
+        <v>16660.888333333332</v>
+      </c>
+      <c r="E67" s="233">
+        <f t="shared" si="9"/>
+        <v>19062.636111111107</v>
+      </c>
+      <c r="F67" s="233">
+        <f t="shared" si="9"/>
+        <v>19297.291666666668</v>
+      </c>
+      <c r="G67" s="239">
+        <f>(F67/B67)^(1/(F64-B64))-1</f>
+        <v>3.7720834851399765E-2</v>
+      </c>
+      <c r="H67" s="240"/>
+      <c r="I67" s="241"/>
+      <c r="J67" s="242"/>
+      <c r="K67" s="240"/>
+      <c r="L67" s="243"/>
+      <c r="M67" s="242"/>
+      <c r="N67" s="240"/>
+      <c r="O67" s="241"/>
+      <c r="P67" s="242"/>
+      <c r="Q67" s="242"/>
+      <c r="R67" s="233"/>
+      <c r="S67" s="233"/>
+      <c r="T67" s="233"/>
+      <c r="U67" s="233"/>
+      <c r="V67" s="233"/>
+      <c r="W67" s="233"/>
+      <c r="X67" s="233"/>
+      <c r="Y67" s="233"/>
+    </row>
+    <row r="68" spans="1:25" s="244" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="244" t="s">
+        <v>358</v>
+      </c>
+      <c r="B68" s="245">
+        <f>B55/3.6</f>
+        <v>2791.0050000000001</v>
+      </c>
+      <c r="C68" s="245">
+        <f t="shared" ref="C68:F68" si="10">C55/3.6</f>
+        <v>2430.2799722222217</v>
+      </c>
+      <c r="D68" s="245">
+        <f t="shared" si="10"/>
+        <v>2683.0269444444443</v>
+      </c>
+      <c r="E68" s="245">
+        <f t="shared" si="10"/>
+        <v>2861.5609722222221</v>
+      </c>
+      <c r="F68" s="245">
+        <f t="shared" si="10"/>
+        <v>3440.232361111111</v>
+      </c>
+      <c r="G68" s="239">
+        <f>(F68/B68)^(1/(F64-B64))-1</f>
+        <v>5.3675278227879542E-2</v>
+      </c>
+      <c r="H68" s="245"/>
+      <c r="I68" s="245"/>
+      <c r="J68" s="245">
+        <f>J26*0.95</f>
+        <v>26790</v>
+      </c>
+      <c r="K68" s="245">
+        <f>E68*(1+G68)^(J64-E64)</f>
+        <v>4347.6775685872717</v>
+      </c>
+      <c r="L68" s="245"/>
+      <c r="M68" s="245">
+        <f>M26*0.95</f>
+        <v>44555</v>
+      </c>
+      <c r="N68" s="245">
+        <f>E68*(1+G68)^(M64-E64)</f>
+        <v>7333.7353602111407</v>
+      </c>
+      <c r="O68" s="245"/>
+      <c r="P68" s="245">
+        <f>P26*0.95</f>
+        <v>65835</v>
+      </c>
+      <c r="Q68" s="245"/>
+      <c r="S68" s="244" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" s="246" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="246" t="s">
+        <v>360</v>
+      </c>
+      <c r="B69" s="247">
+        <f t="shared" ref="B69:F71" si="11">B56/3.6</f>
+        <v>2533.3338888888889</v>
+      </c>
+      <c r="C69" s="247">
+        <f t="shared" si="11"/>
+        <v>2518.2216666666668</v>
+      </c>
+      <c r="D69" s="247">
+        <f t="shared" si="11"/>
+        <v>2531.5555555555557</v>
+      </c>
+      <c r="E69" s="247">
+        <f t="shared" si="11"/>
+        <v>2605.1200000000003</v>
+      </c>
+      <c r="F69" s="247">
+        <f t="shared" si="11"/>
+        <v>2791.9466666666667</v>
+      </c>
+      <c r="G69" s="239">
+        <f>(F69/B69)^(1/(F64-B64))-1</f>
+        <v>2.4598395095139836E-2</v>
+      </c>
+      <c r="I69" s="248"/>
+      <c r="J69" s="249"/>
+      <c r="L69" s="250"/>
+      <c r="M69" s="249"/>
+      <c r="O69" s="248"/>
+      <c r="P69" s="249"/>
+      <c r="Q69" s="249"/>
+    </row>
+    <row r="70" spans="1:25" s="251" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="251" t="s">
+        <v>361</v>
+      </c>
+      <c r="B70" s="252">
+        <f>B58/3.6</f>
+        <v>4409.7833333333328</v>
+      </c>
+      <c r="C70" s="252">
+        <f t="shared" si="11"/>
+        <v>1606.5130555555556</v>
+      </c>
+      <c r="D70" s="252">
+        <f t="shared" si="11"/>
+        <v>1731.2883333333332</v>
+      </c>
+      <c r="E70" s="252">
+        <f t="shared" si="11"/>
+        <v>4518.3999999999996</v>
+      </c>
+      <c r="F70" s="252">
+        <f t="shared" si="11"/>
+        <v>4993.4055555555551</v>
+      </c>
+      <c r="G70" s="239">
+        <f>(F70/B70)^(1/(F64-B64))-1</f>
+        <v>3.1560958665195482E-2</v>
+      </c>
+      <c r="I70" s="253"/>
+      <c r="J70" s="254"/>
+      <c r="L70" s="255"/>
+      <c r="M70" s="254"/>
+      <c r="O70" s="253"/>
+      <c r="P70" s="254"/>
+      <c r="Q70" s="254"/>
+    </row>
+    <row r="71" spans="1:25" s="256" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="256" t="s">
+        <v>362</v>
+      </c>
+      <c r="B71" s="257">
+        <f>B57/3.6</f>
+        <v>37.867222222222225</v>
+      </c>
+      <c r="C71" s="257">
+        <f t="shared" si="11"/>
+        <v>2300.2186111111109</v>
+      </c>
+      <c r="D71" s="257">
+        <f t="shared" si="11"/>
+        <v>3128.15</v>
+      </c>
+      <c r="E71" s="257">
+        <f t="shared" si="11"/>
+        <v>3157.661111111111</v>
+      </c>
+      <c r="F71" s="257">
+        <f t="shared" si="11"/>
+        <v>3157.661111111111</v>
+      </c>
+      <c r="G71" s="239">
+        <f>(F71/C71)^(1/(F64-C64))-1</f>
+        <v>0.11138739921046215</v>
+      </c>
+      <c r="I71" s="258"/>
+      <c r="J71" s="259"/>
+      <c r="L71" s="260"/>
+      <c r="M71" s="259"/>
+      <c r="O71" s="258"/>
+      <c r="P71" s="259"/>
+      <c r="Q71" s="259"/>
+    </row>
+    <row r="72" spans="1:25" s="256" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="256" t="s">
+        <v>363</v>
+      </c>
+      <c r="B72" s="257">
+        <f>B69+B70+B71</f>
+        <v>6980.9844444444434</v>
+      </c>
+      <c r="C72" s="257">
+        <f t="shared" ref="C72:F72" si="12">C69+C70+C71</f>
+        <v>6424.9533333333329</v>
+      </c>
+      <c r="D72" s="257">
+        <f t="shared" si="12"/>
+        <v>7390.9938888888883</v>
+      </c>
+      <c r="E72" s="257">
+        <f t="shared" si="12"/>
+        <v>10281.181111111111</v>
+      </c>
+      <c r="F72" s="257">
+        <f t="shared" si="12"/>
+        <v>10943.013333333332</v>
+      </c>
+      <c r="G72" s="239">
+        <f>(F72/B72)^(1/(F64-B64))-1</f>
+        <v>0.11893553034658932</v>
+      </c>
+      <c r="I72" s="258"/>
+      <c r="J72" s="259"/>
+      <c r="L72" s="260"/>
+      <c r="M72" s="259"/>
+      <c r="O72" s="258"/>
+      <c r="P72" s="259"/>
+      <c r="Q72" s="259"/>
+    </row>
+    <row r="73" spans="1:25" s="256" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="257"/>
+      <c r="C73" s="257"/>
+      <c r="D73" s="257"/>
+      <c r="E73" s="257"/>
+      <c r="F73" s="257"/>
+      <c r="G73" s="239"/>
+      <c r="I73" s="258"/>
+      <c r="J73" s="259"/>
+      <c r="L73" s="260"/>
+      <c r="M73" s="259"/>
+      <c r="O73" s="258"/>
+      <c r="P73" s="259"/>
+      <c r="Q73" s="259"/>
+    </row>
+    <row r="75" spans="1:25" s="183" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="183" t="s">
+        <v>364</v>
+      </c>
+      <c r="B75" s="261">
+        <f>B60/3.6</f>
+        <v>146.89500000000004</v>
+      </c>
+      <c r="C75" s="261">
+        <f t="shared" ref="C75:F76" si="13">C60/3.6</f>
+        <v>127.90947222222258</v>
+      </c>
+      <c r="D75" s="261">
+        <f t="shared" si="13"/>
+        <v>141.21194444444478</v>
+      </c>
+      <c r="E75" s="261">
+        <f t="shared" si="13"/>
+        <v>150.60847222222239</v>
+      </c>
+      <c r="F75" s="261">
+        <f t="shared" si="13"/>
+        <v>181.0648611111113</v>
+      </c>
+      <c r="I75" s="182"/>
+      <c r="L75" s="184"/>
+      <c r="O75" s="182"/>
+    </row>
+    <row r="76" spans="1:25" s="183" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="183" t="s">
+        <v>365</v>
+      </c>
+      <c r="B76" s="261">
+        <f>B61/3.6</f>
+        <v>9659.8161111111094</v>
+      </c>
+      <c r="C76" s="261">
+        <f t="shared" si="13"/>
+        <v>8461.4755555555566</v>
+      </c>
+      <c r="D76" s="261">
+        <f t="shared" si="13"/>
+        <v>9269.8944444444442</v>
+      </c>
+      <c r="E76" s="261">
+        <f t="shared" si="13"/>
+        <v>8781.4549999999999</v>
+      </c>
+      <c r="F76" s="261">
+        <f t="shared" si="13"/>
+        <v>8354.2783333333336</v>
+      </c>
+      <c r="I76" s="182"/>
+      <c r="L76" s="184"/>
+      <c r="O76" s="182"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A78" s="181" t="s">
+        <v>366</v>
+      </c>
+      <c r="B78" s="181">
+        <f>B68/(B68+B75)</f>
+        <v>0.95</v>
+      </c>
+      <c r="C78" s="181">
+        <f t="shared" ref="C78:F79" si="14">C68/(C68+C75)</f>
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="D78" s="181">
+        <f t="shared" si="14"/>
+        <v>0.95</v>
+      </c>
+      <c r="E78" s="181">
+        <f t="shared" si="14"/>
+        <v>0.95</v>
+      </c>
+      <c r="F78" s="181">
+        <f t="shared" si="14"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A79" s="181" t="s">
+        <v>367</v>
+      </c>
+      <c r="B79" s="221">
+        <f>B69/(B69+B76)</f>
+        <v>0.2077669748087155</v>
+      </c>
+      <c r="C79" s="221">
+        <f t="shared" si="14"/>
+        <v>0.22935256006604107</v>
+      </c>
+      <c r="D79" s="221">
+        <f t="shared" si="14"/>
+        <v>0.21451224684725653</v>
+      </c>
+      <c r="E79" s="221">
+        <f t="shared" si="14"/>
+        <v>0.22878872707552536</v>
+      </c>
+      <c r="F79" s="221">
+        <f t="shared" si="14"/>
+        <v>0.2504836091741075</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A80" s="181" t="s">
+        <v>368</v>
+      </c>
+      <c r="B80" s="221">
+        <f>B70/(B70+B71)</f>
+        <v>0.9914860167746492</v>
+      </c>
+      <c r="C80" s="221">
+        <f t="shared" ref="C80:F80" si="15">C70/(C70+C71)</f>
+        <v>0.4112166364695013</v>
+      </c>
+      <c r="D80" s="221">
+        <f t="shared" si="15"/>
+        <v>0.3562733416036078</v>
+      </c>
+      <c r="E80" s="221">
+        <f t="shared" si="15"/>
+        <v>0.58863523030836851</v>
+      </c>
+      <c r="F80" s="221">
+        <f t="shared" si="15"/>
+        <v>0.61260762054318729</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="181" t="s">
+        <v>369</v>
+      </c>
+      <c r="B81" s="221">
+        <f>B71/(B71+B70)</f>
+        <v>8.5139832253508137E-3</v>
+      </c>
+      <c r="C81" s="221">
+        <f t="shared" ref="C81:F81" si="16">C71/(C71+C70)</f>
+        <v>0.58878336353049865</v>
+      </c>
+      <c r="D81" s="221">
+        <f t="shared" si="16"/>
+        <v>0.6437266583963922</v>
+      </c>
+      <c r="E81" s="221">
+        <f t="shared" si="16"/>
+        <v>0.41136476969163155</v>
+      </c>
+      <c r="F81" s="221">
+        <f t="shared" si="16"/>
+        <v>0.38739237945681276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="181" t="s">
+        <v>370</v>
+      </c>
+      <c r="B82" s="221">
+        <f>SUM(B69:B71)/(B65-B68)</f>
+        <v>0.41583935218161766</v>
+      </c>
+      <c r="C82" s="221">
+        <f t="shared" ref="C82:F82" si="17">SUM(C69:C71)/(C65-C68)</f>
+        <v>0.4279211763319995</v>
+      </c>
+      <c r="D82" s="221">
+        <f t="shared" si="17"/>
+        <v>0.43988511952068954</v>
+      </c>
+      <c r="E82" s="221">
+        <f t="shared" si="17"/>
+        <v>0.53510905284730503</v>
+      </c>
+      <c r="F82" s="221">
+        <f t="shared" si="17"/>
+        <v>0.56180372906346965</v>
+      </c>
+      <c r="J82" s="183">
+        <f>AVERAGE(B82:F82)*(J65-J68)</f>
+        <v>1780.8931428276426</v>
+      </c>
+      <c r="M82" s="183">
+        <f>AVERAGE(B82:F82)*(M65-M68)</f>
+        <v>17057.609571653378</v>
+      </c>
+      <c r="P82" s="183">
+        <f>AVERAGE(B82:F82)*(P65-P68)</f>
+        <v>71045.654072216043</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" s="183" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="183" t="s">
+        <v>371</v>
+      </c>
+      <c r="B84" s="228">
+        <f>B75/(B75+B68)</f>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="C84" s="228">
+        <f t="shared" ref="C84:F85" si="18">C75/(C75+C68)</f>
+        <v>5.0000000000000142E-2</v>
+      </c>
+      <c r="D84" s="228">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000114E-2</v>
+      </c>
+      <c r="E84" s="228">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000058E-2</v>
+      </c>
+      <c r="F84" s="228">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000051E-2</v>
+      </c>
+      <c r="I84" s="182"/>
+      <c r="L84" s="184"/>
+      <c r="O84" s="182"/>
+    </row>
+    <row r="85" spans="1:17" s="183" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="183" t="s">
+        <v>372</v>
+      </c>
+      <c r="B85" s="228">
+        <f>B76/(B76+B69)</f>
+        <v>0.79223302519128458</v>
+      </c>
+      <c r="C85" s="228">
+        <f t="shared" si="18"/>
+        <v>0.77064743993395901</v>
+      </c>
+      <c r="D85" s="228">
+        <f t="shared" si="18"/>
+        <v>0.78548775315274344</v>
+      </c>
+      <c r="E85" s="228">
+        <f t="shared" si="18"/>
+        <v>0.77121127292447456</v>
+      </c>
+      <c r="F85" s="228">
+        <f t="shared" si="18"/>
+        <v>0.7495163908258925</v>
+      </c>
+      <c r="I85" s="182"/>
+      <c r="L85" s="184"/>
+      <c r="O85" s="182"/>
+    </row>
+    <row r="86" spans="1:17" s="183" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="183" t="s">
+        <v>373</v>
+      </c>
+      <c r="B86" s="228">
+        <f>(B75+B76)/B65</f>
+        <v>0.50088672040741777</v>
+      </c>
+      <c r="C86" s="228">
+        <f t="shared" ref="C86:F86" si="19">(C75+C76)/C65</f>
+        <v>0.49238022085958183</v>
+      </c>
+      <c r="D86" s="228">
+        <f t="shared" si="19"/>
+        <v>0.48298921949843859</v>
+      </c>
+      <c r="E86" s="228">
+        <f t="shared" si="19"/>
+        <v>0.40462705094923457</v>
+      </c>
+      <c r="F86" s="228">
+        <f t="shared" si="19"/>
+        <v>0.37242010124726516</v>
+      </c>
+      <c r="I86" s="182"/>
+      <c r="L86" s="184"/>
+      <c r="O86" s="182"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" s="181" t="s">
+        <v>374</v>
+      </c>
+      <c r="B88" s="221">
+        <f>B68/B65</f>
+        <v>0.14255312767465758</v>
+      </c>
+      <c r="C88" s="221">
+        <f t="shared" ref="C88:F88" si="20">C68/C65</f>
+        <v>0.1393140237168973</v>
+      </c>
+      <c r="D88" s="221">
+        <f t="shared" si="20"/>
+        <v>0.13769614710980846</v>
+      </c>
+      <c r="E88" s="221">
+        <f t="shared" si="20"/>
+        <v>0.12963017794292891</v>
+      </c>
+      <c r="F88" s="221">
+        <f t="shared" si="20"/>
+        <v>0.15010663954005313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" s="181" t="s">
+        <v>375</v>
+      </c>
+      <c r="B89" s="221">
+        <f>B69/B65</f>
+        <v>0.12939234050290649</v>
+      </c>
+      <c r="C89" s="221">
+        <f t="shared" ref="C89:F89" si="21">C69/C65</f>
+        <v>0.14435521709608434</v>
+      </c>
+      <c r="D89" s="221">
+        <f t="shared" si="21"/>
+        <v>0.12992245453077617</v>
+      </c>
+      <c r="E89" s="221">
+        <f t="shared" si="21"/>
+        <v>0.11801327053340099</v>
+      </c>
+      <c r="F89" s="221">
+        <f t="shared" si="21"/>
+        <v>0.12182018187080551</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" s="181" t="s">
+        <v>376</v>
+      </c>
+      <c r="B90" s="221">
+        <f>(B70+B71)/B65</f>
+        <v>0.22716781141501813</v>
+      </c>
+      <c r="C90" s="221">
+        <f t="shared" ref="C90:F90" si="22">(C70+C71)/C65</f>
+        <v>0.22395053832743639</v>
+      </c>
+      <c r="D90" s="221">
+        <f t="shared" si="22"/>
+        <v>0.24939217886097687</v>
+      </c>
+      <c r="E90" s="221">
+        <f t="shared" si="22"/>
+        <v>0.34772950057443569</v>
+      </c>
+      <c r="F90" s="221">
+        <f t="shared" si="22"/>
+        <v>0.35565307734187629</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" s="251" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="251" t="s">
+        <v>377</v>
+      </c>
+      <c r="B92" s="262">
+        <f>B69/(B$69+B$70+B$71)</f>
+        <v>0.36289063656415227</v>
+      </c>
+      <c r="C92" s="262">
+        <f t="shared" ref="C92:F92" si="23">C69/(C$69+C$70+C$71)</f>
+        <v>0.39194396223889566</v>
+      </c>
+      <c r="D92" s="262">
+        <f t="shared" si="23"/>
+        <v>0.34251896207914906</v>
+      </c>
+      <c r="E92" s="262">
+        <f t="shared" si="23"/>
+        <v>0.25338722972058014</v>
+      </c>
+      <c r="F92" s="262">
+        <f t="shared" si="23"/>
+        <v>0.25513508771502308</v>
+      </c>
+      <c r="I92" s="253"/>
+      <c r="J92" s="254"/>
+      <c r="L92" s="255"/>
+      <c r="M92" s="254"/>
+      <c r="O92" s="253"/>
+      <c r="P92" s="254"/>
+      <c r="Q92" s="254"/>
+    </row>
+    <row r="93" spans="1:17" s="251" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="251" t="s">
+        <v>378</v>
+      </c>
+      <c r="B93" s="262">
+        <f t="shared" ref="B93:F94" si="24">B70/(B$69+B$70+B$71)</f>
+        <v>0.63168502500284107</v>
+      </c>
+      <c r="C93" s="262">
+        <f t="shared" si="24"/>
+        <v>0.25004275863309344</v>
+      </c>
+      <c r="D93" s="262">
+        <f t="shared" si="24"/>
+        <v>0.23424296642106998</v>
+      </c>
+      <c r="E93" s="262">
+        <f t="shared" si="24"/>
+        <v>0.43948257998459533</v>
+      </c>
+      <c r="F93" s="262">
+        <f t="shared" si="24"/>
+        <v>0.45630992154100963</v>
+      </c>
+      <c r="I93" s="253"/>
+      <c r="J93" s="254"/>
+      <c r="L93" s="255"/>
+      <c r="M93" s="254"/>
+      <c r="O93" s="253"/>
+      <c r="P93" s="254"/>
+      <c r="Q93" s="254"/>
+    </row>
+    <row r="94" spans="1:17" s="251" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="251" t="s">
+        <v>379</v>
+      </c>
+      <c r="B94" s="262">
+        <f t="shared" si="24"/>
+        <v>5.4243384330067432E-3</v>
+      </c>
+      <c r="C94" s="262">
+        <f t="shared" si="24"/>
+        <v>0.35801327912801095</v>
+      </c>
+      <c r="D94" s="262">
+        <f t="shared" si="24"/>
+        <v>0.42323807149978104</v>
+      </c>
+      <c r="E94" s="262">
+        <f t="shared" si="24"/>
+        <v>0.30713019029482452</v>
+      </c>
+      <c r="F94" s="262">
+        <f t="shared" si="24"/>
+        <v>0.28855499074396734</v>
+      </c>
+      <c r="I94" s="253"/>
+      <c r="J94" s="254"/>
+      <c r="L94" s="255"/>
+      <c r="M94" s="254"/>
+      <c r="O94" s="253"/>
+      <c r="P94" s="254"/>
+      <c r="Q94" s="254"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B95" s="221">
+        <f>SUM(B92:B94)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C95" s="221">
+        <f t="shared" ref="C95:F95" si="25">SUM(C92:C94)</f>
+        <v>1</v>
+      </c>
+      <c r="D95" s="221">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="221">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F95" s="221">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" s="183" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="183" t="s">
+        <v>380</v>
+      </c>
+      <c r="B97" s="228">
+        <f>B75/B65</f>
+        <v>7.5027961934030314E-3</v>
+      </c>
+      <c r="C97" s="228">
+        <f t="shared" ref="C97:F97" si="26">C75/C65</f>
+        <v>7.3323170377314582E-3</v>
+      </c>
+      <c r="D97" s="228">
+        <f t="shared" si="26"/>
+        <v>7.2471656373583569E-3</v>
+      </c>
+      <c r="E97" s="228">
+        <f t="shared" si="26"/>
+        <v>6.8226409443646885E-3</v>
+      </c>
+      <c r="F97" s="228">
+        <f t="shared" si="26"/>
+        <v>7.9003494494764882E-3</v>
+      </c>
+      <c r="I97" s="182"/>
+      <c r="L97" s="184"/>
+      <c r="O97" s="182"/>
+    </row>
+    <row r="98" spans="1:19" s="183" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="183" t="s">
+        <v>381</v>
+      </c>
+      <c r="B98" s="228">
+        <f>B76/B65</f>
+        <v>0.49338392421401467</v>
+      </c>
+      <c r="C98" s="228">
+        <f t="shared" ref="C98:F98" si="27">C76/C65</f>
+        <v>0.48504790382185042</v>
+      </c>
+      <c r="D98" s="228">
+        <f t="shared" si="27"/>
+        <v>0.47574205386108021</v>
+      </c>
+      <c r="E98" s="228">
+        <f t="shared" si="27"/>
+        <v>0.39780441000486988</v>
+      </c>
+      <c r="F98" s="228">
+        <f t="shared" si="27"/>
+        <v>0.36451975179778862</v>
+      </c>
+      <c r="I98" s="182"/>
+      <c r="J98" s="183">
+        <f>AVERAGE(B98:F98)*J65</f>
+        <v>13534.156266486301</v>
+      </c>
+      <c r="L98" s="184"/>
+      <c r="O98" s="182"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A100" s="181" t="s">
+        <v>382</v>
+      </c>
+      <c r="C100" s="221">
+        <f>(C65-B65)/B65</f>
+        <v>-0.10900019723814934</v>
+      </c>
+      <c r="D100" s="221">
+        <f t="shared" ref="D100:F100" si="28">(D65-C65)/C65</f>
+        <v>0.11697068115212718</v>
+      </c>
+      <c r="E100" s="221">
+        <f t="shared" si="28"/>
+        <v>0.13290538490197162</v>
+      </c>
+      <c r="F100" s="221">
+        <f t="shared" si="28"/>
+        <v>3.8223817247666859E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A101" s="181" t="s">
+        <v>383</v>
+      </c>
+      <c r="C101" s="221">
+        <f>(C68-B68)/B68</f>
+        <v>-0.12924556845214483</v>
+      </c>
+      <c r="D101" s="221">
+        <f t="shared" ref="D101:F103" si="29">(D68-C68)/C68</f>
+        <v>0.10399911743136063</v>
+      </c>
+      <c r="E101" s="221">
+        <f t="shared" si="29"/>
+        <v>6.6542018203527786E-2</v>
+      </c>
+      <c r="F101" s="221">
+        <f t="shared" si="29"/>
+        <v>0.20222228165192865</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102" s="181" t="s">
+        <v>384</v>
+      </c>
+      <c r="C102" s="221">
+        <f>(C69-B69)/B69</f>
+        <v>-5.9653495690022177E-3</v>
+      </c>
+      <c r="D102" s="221">
+        <f t="shared" si="29"/>
+        <v>5.294962340046388E-3</v>
+      </c>
+      <c r="E102" s="221">
+        <f t="shared" si="29"/>
+        <v>2.905898876404504E-2</v>
+      </c>
+      <c r="F102" s="221">
+        <f t="shared" si="29"/>
+        <v>7.1715186504524298E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A103" s="181" t="s">
+        <v>385</v>
+      </c>
+      <c r="C103" s="221">
+        <f>(C70-B70)/B70</f>
+        <v>-0.63569342661078077</v>
+      </c>
+      <c r="D103" s="221">
+        <f t="shared" si="29"/>
+        <v>7.7668387036312278E-2</v>
+      </c>
+      <c r="E103" s="221">
+        <f t="shared" si="29"/>
+        <v>1.6098483499282328</v>
+      </c>
+      <c r="F103" s="221">
+        <f t="shared" si="29"/>
+        <v>0.1051269377557444</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="A106" s="263" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" s="232" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="232" t="str">
+        <f t="shared" ref="A107:P108" si="30">A64</f>
+        <v>Year</v>
+      </c>
+      <c r="B107" s="232">
+        <f t="shared" si="30"/>
+        <v>2019</v>
+      </c>
+      <c r="C107" s="232">
+        <f t="shared" si="30"/>
+        <v>2020</v>
+      </c>
+      <c r="D107" s="232">
+        <f t="shared" si="30"/>
+        <v>2021</v>
+      </c>
+      <c r="E107" s="232">
+        <f t="shared" si="30"/>
+        <v>2022</v>
+      </c>
+      <c r="F107" s="232">
+        <f t="shared" si="30"/>
+        <v>2023</v>
+      </c>
+      <c r="G107" s="232">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="232">
+        <f t="shared" si="30"/>
+        <v>2024</v>
+      </c>
+      <c r="I107" s="182">
+        <f t="shared" si="30"/>
+        <v>2028</v>
+      </c>
+      <c r="J107" s="183">
+        <f t="shared" si="30"/>
+        <v>2030</v>
+      </c>
+      <c r="K107" s="232">
+        <f t="shared" si="30"/>
+        <v>2032</v>
+      </c>
+      <c r="L107" s="184">
+        <f t="shared" si="30"/>
+        <v>2036</v>
+      </c>
+      <c r="M107" s="183">
+        <f t="shared" si="30"/>
+        <v>2040</v>
+      </c>
+      <c r="N107" s="232">
+        <f t="shared" si="30"/>
+        <v>2044</v>
+      </c>
+      <c r="O107" s="182">
+        <f t="shared" si="30"/>
+        <v>2048</v>
+      </c>
+      <c r="P107" s="183">
+        <f t="shared" si="30"/>
+        <v>2050</v>
+      </c>
+      <c r="Q107" s="183"/>
+      <c r="R107" s="232">
+        <f>R64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A108" s="181" t="str">
+        <f t="shared" si="30"/>
+        <v>Total Industry Consumption in GWh</v>
+      </c>
+      <c r="B108" s="181">
+        <f t="shared" si="30"/>
+        <v>19578.700555555555</v>
+      </c>
+      <c r="C108" s="181">
+        <f t="shared" si="30"/>
+        <v>17444.618333333336</v>
+      </c>
+      <c r="D108" s="181">
+        <f t="shared" si="30"/>
+        <v>19485.127222222221</v>
+      </c>
+      <c r="E108" s="181">
+        <f t="shared" si="30"/>
+        <v>22074.805555555551</v>
+      </c>
+      <c r="F108" s="181">
+        <f t="shared" si="30"/>
+        <v>22918.588888888888</v>
+      </c>
+      <c r="G108" s="181">
+        <f>M4*11.63</f>
+        <v>19959.406000000003</v>
+      </c>
+      <c r="I108" s="182">
+        <f>M5*11.63</f>
+        <v>30005.4</v>
+      </c>
+      <c r="J108" s="183">
+        <f>M6*11.63</f>
+        <v>44712.698000000004</v>
+      </c>
+      <c r="K108" s="181">
+        <f>M7*11.63</f>
+        <v>66246.805999999997</v>
+      </c>
+      <c r="L108" s="184">
+        <f>M8*11.63</f>
+        <v>97774.573000000004</v>
+      </c>
+      <c r="M108" s="183">
+        <f>M9*11.63</f>
+        <v>143935.20600000001</v>
+      </c>
+      <c r="N108" s="181">
+        <f>M10*11.63</f>
+        <v>211518.299</v>
+      </c>
+      <c r="O108" s="182">
+        <f>(N108+P108)/2</f>
+        <v>260992.31900000002</v>
+      </c>
+      <c r="P108" s="183">
+        <f>M11*11.63</f>
+        <v>310466.33900000004</v>
+      </c>
+      <c r="R108" s="181">
+        <f>R65</f>
+        <v>0</v>
+      </c>
+      <c r="S108" s="181" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109" s="181" t="s">
+        <v>388</v>
+      </c>
+      <c r="B109" s="181">
+        <f>SUM(B110:B113)</f>
+        <v>9771.9894444444453</v>
+      </c>
+      <c r="C109" s="181">
+        <f t="shared" ref="C109:F109" si="31">SUM(C110:C113)</f>
+        <v>8855.2333055555555</v>
+      </c>
+      <c r="D109" s="181">
+        <f t="shared" si="31"/>
+        <v>10074.020833333334</v>
+      </c>
+      <c r="E109" s="181">
+        <f t="shared" si="31"/>
+        <v>13142.742083333333</v>
+      </c>
+      <c r="F109" s="181">
+        <f t="shared" si="31"/>
+        <v>14383.245694444444</v>
+      </c>
+      <c r="O109" s="182">
+        <f>O108*0.3</f>
+        <v>78297.695699999997</v>
+      </c>
+      <c r="S109" s="181" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110" s="181" t="str">
+        <f t="shared" ref="A110:P113" si="32">A68</f>
+        <v>Manufacturing Electricity consumption in GWh</v>
+      </c>
+      <c r="B110" s="181">
+        <f t="shared" si="32"/>
+        <v>2791.0050000000001</v>
+      </c>
+      <c r="C110" s="181">
+        <f t="shared" si="32"/>
+        <v>2430.2799722222217</v>
+      </c>
+      <c r="D110" s="181">
+        <f t="shared" si="32"/>
+        <v>2683.0269444444443</v>
+      </c>
+      <c r="E110" s="181">
+        <f t="shared" si="32"/>
+        <v>2861.5609722222221</v>
+      </c>
+      <c r="F110" s="181">
+        <f t="shared" si="32"/>
+        <v>3440.232361111111</v>
+      </c>
+      <c r="G110" s="181">
+        <f t="shared" si="32"/>
+        <v>5.3675278227879542E-2</v>
+      </c>
+      <c r="H110" s="181">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="182">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="183">
+        <f t="shared" si="32"/>
+        <v>26790</v>
+      </c>
+      <c r="K110" s="181">
+        <f t="shared" si="32"/>
+        <v>4347.6775685872717</v>
+      </c>
+      <c r="L110" s="184">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M110" s="183">
+        <f t="shared" si="32"/>
+        <v>44555</v>
+      </c>
+      <c r="N110" s="181">
+        <f t="shared" si="32"/>
+        <v>7333.7353602111407</v>
+      </c>
+      <c r="O110" s="182">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="P110" s="183">
+        <f t="shared" si="32"/>
+        <v>65835</v>
+      </c>
+      <c r="R110" s="181">
+        <f>R68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A111" s="181" t="str">
+        <f t="shared" si="32"/>
+        <v>Manufacturing Oil Consumption in GWh</v>
+      </c>
+      <c r="B111" s="181">
+        <f t="shared" si="32"/>
+        <v>2533.3338888888889</v>
+      </c>
+      <c r="C111" s="181">
+        <f t="shared" si="32"/>
+        <v>2518.2216666666668</v>
+      </c>
+      <c r="D111" s="181">
+        <f t="shared" si="32"/>
+        <v>2531.5555555555557</v>
+      </c>
+      <c r="E111" s="181">
+        <f t="shared" si="32"/>
+        <v>2605.1200000000003</v>
+      </c>
+      <c r="F111" s="181">
+        <f t="shared" si="32"/>
+        <v>2791.9466666666667</v>
+      </c>
+      <c r="G111" s="181">
+        <f t="shared" si="32"/>
+        <v>2.4598395095139836E-2</v>
+      </c>
+      <c r="H111" s="181">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="182">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="183">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K111" s="181">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L111" s="184">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="183">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N111" s="181">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O111" s="182">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="P111" s="183">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R111" s="181">
+        <f>R69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A112" s="181" t="str">
+        <f t="shared" si="32"/>
+        <v>Manufacturing Imported Coal Consumption in GWh</v>
+      </c>
+      <c r="B112" s="181">
+        <f t="shared" si="32"/>
+        <v>4409.7833333333328</v>
+      </c>
+      <c r="C112" s="181">
+        <f t="shared" si="32"/>
+        <v>1606.5130555555556</v>
+      </c>
+      <c r="D112" s="181">
+        <f t="shared" si="32"/>
+        <v>1731.2883333333332</v>
+      </c>
+      <c r="E112" s="181">
+        <f t="shared" si="32"/>
+        <v>4518.3999999999996</v>
+      </c>
+      <c r="F112" s="181">
+        <f t="shared" si="32"/>
+        <v>4993.4055555555551</v>
+      </c>
+      <c r="G112" s="181">
+        <f t="shared" si="32"/>
+        <v>3.1560958665195482E-2</v>
+      </c>
+      <c r="H112" s="181">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="182">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="183">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K112" s="181">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="184">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="183">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N112" s="181">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O112" s="182">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="P112" s="183">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R112" s="181">
+        <f>R70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A113" s="181" t="str">
+        <f t="shared" si="32"/>
+        <v>Manufacturing Domestic  Coal Consumption in GWh</v>
+      </c>
+      <c r="B113" s="181">
+        <f t="shared" si="32"/>
+        <v>37.867222222222225</v>
+      </c>
+      <c r="C113" s="181">
+        <f t="shared" si="32"/>
+        <v>2300.2186111111109</v>
+      </c>
+      <c r="D113" s="181">
+        <f t="shared" si="32"/>
+        <v>3128.15</v>
+      </c>
+      <c r="E113" s="181">
+        <f t="shared" si="32"/>
+        <v>3157.661111111111</v>
+      </c>
+      <c r="F113" s="181">
+        <f t="shared" si="32"/>
+        <v>3157.661111111111</v>
+      </c>
+      <c r="G113" s="181">
+        <f t="shared" si="32"/>
+        <v>0.11138739921046215</v>
+      </c>
+      <c r="H113" s="181">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="182">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="183">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="181">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L113" s="184">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="183">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N113" s="181">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O113" s="182">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="P113" s="183">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R113" s="181">
+        <f>R71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A114" s="181">
+        <f t="shared" ref="A114:P114" si="33">A74</f>
+        <v>0</v>
+      </c>
+      <c r="B114" s="181">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C114" s="181">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="D114" s="181">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="E114" s="181">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="181">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="181">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="181">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="182">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="183">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K114" s="181">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="L114" s="184">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="183">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N114" s="181">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O114" s="182">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P114" s="183">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R114" s="181">
+        <f>R74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="181">
+        <f>A104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="181">
+        <f>A105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="181" t="str">
+        <f>A106</f>
+        <v>Structural Economic Growth scenario</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="181" t="str">
+        <f>A107</f>
+        <v>Year</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E959CB-7164-414F-B6F7-22B95D131062}">
+  <dimension ref="B3:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="137" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+    </row>
+    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+    </row>
+    <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B5" s="139" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="140"/>
+    </row>
+    <row r="6" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="141" t="str">
+        <f>PRI_Sector_Fuels!N5</f>
+        <v>MANCOALMIN</v>
+      </c>
+      <c r="D6" s="141" t="str">
+        <f>PRI_Sector_Fuels!N6</f>
+        <v>MANCOALIMP</v>
+      </c>
+      <c r="E6" s="141" t="str">
+        <f>PRI_Sector_Fuels!N7</f>
+        <v>MANOILIMP</v>
+      </c>
+      <c r="F6" s="141" t="str">
+        <f>PRI_Sector_Fuels!N8</f>
+        <v>ELC</v>
+      </c>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="142" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="142" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="142" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="142" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="143" t="str">
+        <f>DemTechs_INDF!P9</f>
+        <v>MANCO2</v>
+      </c>
+      <c r="C8" s="144">
+        <v>347494</v>
+      </c>
+      <c r="D8" s="144">
+        <v>347494</v>
+      </c>
+      <c r="E8" s="144">
+        <v>279515</v>
+      </c>
+      <c r="F8" s="144">
+        <v>0</v>
+      </c>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="127"/>
+      <c r="C23" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="47"/>
+      <c r="C24" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B148011-590A-4AB3-90B5-223EFB3CD02C}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="264"/>
+    <col min="2" max="6" width="7.5546875" style="181" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.33203125" style="181"/>
+    <col min="9" max="9" width="8" style="181" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" style="181" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.21875" style="181" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" style="181" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="24.21875" style="181" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="19.33203125" style="181"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I1" s="215" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="264" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" s="264" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="264" t="s">
+        <v>360</v>
+      </c>
+      <c r="M1" s="264" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1" s="264" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="264" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="181">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="181">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="181">
+        <v>2021</v>
+      </c>
+      <c r="E2" s="181">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="181">
+        <v>2023</v>
+      </c>
+      <c r="I2" s="181">
+        <v>2019</v>
+      </c>
+      <c r="J2" s="266">
+        <v>19575.922777777778</v>
+      </c>
+      <c r="K2" s="266">
+        <v>2791.0050000000001</v>
+      </c>
+      <c r="L2" s="266">
+        <v>2533.3338888888889</v>
+      </c>
+      <c r="M2" s="266">
+        <v>4409.7833333333328</v>
+      </c>
+      <c r="N2" s="266">
+        <v>35.089444444444446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="264" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="233">
+        <v>19575.922777777778</v>
+      </c>
+      <c r="C3" s="233">
+        <v>17444.618333333336</v>
+      </c>
+      <c r="D3" s="233">
+        <v>19485.127222222221</v>
+      </c>
+      <c r="E3" s="233">
+        <v>22074.805555555551</v>
+      </c>
+      <c r="F3" s="233">
+        <v>22918.588888888888</v>
+      </c>
+      <c r="I3" s="181">
+        <v>2020</v>
+      </c>
+      <c r="J3" s="266">
+        <v>17444.618333333336</v>
+      </c>
+      <c r="K3" s="266">
+        <v>2430.2799722222217</v>
+      </c>
+      <c r="L3" s="266">
+        <v>2518.2216666666668</v>
+      </c>
+      <c r="M3" s="266">
+        <v>1606.5130555555556</v>
+      </c>
+      <c r="N3" s="266">
+        <v>2300.2186111111109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="264" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="233">
+        <v>2791.0050000000001</v>
+      </c>
+      <c r="C4" s="233">
+        <v>2430.2799722222217</v>
+      </c>
+      <c r="D4" s="233">
+        <v>2683.0269444444443</v>
+      </c>
+      <c r="E4" s="233">
+        <v>2861.5609722222221</v>
+      </c>
+      <c r="F4" s="233">
+        <v>3440.232361111111</v>
+      </c>
+      <c r="I4" s="181">
+        <v>2021</v>
+      </c>
+      <c r="J4" s="266">
+        <v>19485.127222222221</v>
+      </c>
+      <c r="K4" s="266">
+        <v>2683.0269444444443</v>
+      </c>
+      <c r="L4" s="266">
+        <v>2531.5555555555557</v>
+      </c>
+      <c r="M4" s="266">
+        <v>1731.2883333333332</v>
+      </c>
+      <c r="N4" s="266">
+        <v>3128.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="264" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5" s="233">
+        <v>2533.3338888888889</v>
+      </c>
+      <c r="C5" s="233">
+        <v>2518.2216666666668</v>
+      </c>
+      <c r="D5" s="233">
+        <v>2531.5555555555557</v>
+      </c>
+      <c r="E5" s="233">
+        <v>2605.1200000000003</v>
+      </c>
+      <c r="F5" s="233">
+        <v>2791.9466666666667</v>
+      </c>
+      <c r="I5" s="181">
+        <v>2022</v>
+      </c>
+      <c r="J5" s="266">
+        <v>22074.805555555551</v>
+      </c>
+      <c r="K5" s="266">
+        <v>2861.5609722222221</v>
+      </c>
+      <c r="L5" s="266">
+        <v>2605.1200000000003</v>
+      </c>
+      <c r="M5" s="266">
+        <v>4518.3999999999996</v>
+      </c>
+      <c r="N5" s="266">
+        <v>3157.661111111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="264" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6" s="233">
+        <v>4409.7833333333328</v>
+      </c>
+      <c r="C6" s="233">
+        <v>1606.5130555555556</v>
+      </c>
+      <c r="D6" s="233">
+        <v>1731.2883333333332</v>
+      </c>
+      <c r="E6" s="233">
+        <v>4518.3999999999996</v>
+      </c>
+      <c r="F6" s="233">
+        <v>4993.4055555555551</v>
+      </c>
+      <c r="I6" s="181">
+        <v>2023</v>
+      </c>
+      <c r="J6" s="266">
+        <v>22918.588888888888</v>
+      </c>
+      <c r="K6" s="266">
+        <v>3440.232361111111</v>
+      </c>
+      <c r="L6" s="266">
+        <v>2791.9466666666667</v>
+      </c>
+      <c r="M6" s="266">
+        <v>4993.4055555555551</v>
+      </c>
+      <c r="N6" s="266">
+        <v>3157.661111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="264" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7" s="233">
+        <v>35.089444444444446</v>
+      </c>
+      <c r="C7" s="233">
+        <v>2300.2186111111109</v>
+      </c>
+      <c r="D7" s="233">
+        <v>3128.15</v>
+      </c>
+      <c r="E7" s="233">
+        <v>3157.661111111111</v>
+      </c>
+      <c r="F7" s="233">
+        <v>3157.661111111111</v>
+      </c>
+      <c r="J7" s="181" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I8" s="181">
+        <v>2019</v>
+      </c>
+      <c r="J8" s="181">
+        <f>J2/J2-1</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="181">
+        <f>K2/K2-1</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="181">
+        <f t="shared" ref="L8:N8" si="0">L2/L2-1</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="181">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="181">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I9" s="181">
+        <v>2020</v>
+      </c>
+      <c r="J9" s="221">
+        <f>J3/J2-1</f>
+        <v>-0.10887376644455604</v>
+      </c>
+      <c r="K9" s="221">
+        <f t="shared" ref="K9:N9" si="1">K3/K2-1</f>
+        <v>-0.12924556845214485</v>
+      </c>
+      <c r="L9" s="221">
+        <f t="shared" si="1"/>
+        <v>-5.9653495690021874E-3</v>
+      </c>
+      <c r="M9" s="221">
+        <f t="shared" si="1"/>
+        <v>-0.63569342661078077</v>
+      </c>
+      <c r="N9" s="221">
+        <f t="shared" si="1"/>
+        <v>64.553007393803128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I10" s="181">
+        <v>2021</v>
+      </c>
+      <c r="J10" s="221">
+        <f t="shared" ref="J10:N12" si="2">J4/J3-1</f>
+        <v>0.11697068115212716</v>
+      </c>
+      <c r="K10" s="221">
+        <f t="shared" si="2"/>
+        <v>0.10399911743136059</v>
+      </c>
+      <c r="L10" s="221">
+        <f t="shared" si="2"/>
+        <v>5.2949623400464496E-3</v>
+      </c>
+      <c r="M10" s="221">
+        <f t="shared" si="2"/>
+        <v>7.7668387036312181E-2</v>
+      </c>
+      <c r="N10" s="221">
+        <f t="shared" si="2"/>
+        <v>0.35993595777792642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I11" s="181">
+        <v>2022</v>
+      </c>
+      <c r="J11" s="221">
+        <f t="shared" si="2"/>
+        <v>0.13290538490197168</v>
+      </c>
+      <c r="K11" s="221">
+        <f t="shared" si="2"/>
+        <v>6.6542018203527675E-2</v>
+      </c>
+      <c r="L11" s="221">
+        <f t="shared" si="2"/>
+        <v>2.9058988764045113E-2</v>
+      </c>
+      <c r="M11" s="221">
+        <f t="shared" si="2"/>
+        <v>1.6098483499282326</v>
+      </c>
+      <c r="N11" s="221">
+        <f t="shared" si="2"/>
+        <v>9.4340460371500345E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I12" s="181">
+        <v>2023</v>
+      </c>
+      <c r="J12" s="221">
+        <f t="shared" si="2"/>
+        <v>3.8223817247666769E-2</v>
+      </c>
+      <c r="K12" s="221">
+        <f t="shared" si="2"/>
+        <v>0.20222228165192857</v>
+      </c>
+      <c r="L12" s="221">
+        <f t="shared" si="2"/>
+        <v>7.1715186504524242E-2</v>
+      </c>
+      <c r="M12" s="221">
+        <f t="shared" si="2"/>
+        <v>0.10512693775574444</v>
+      </c>
+      <c r="N12" s="221">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I13" s="181" t="s">
+        <v>391</v>
+      </c>
+      <c r="J13" s="265">
+        <f>AVERAGE(J9:J12)</f>
+        <v>4.4806529214302393E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I19" s="181">
+        <v>2050</v>
+      </c>
+      <c r="J19" s="181">
+        <f>J6+J6*(1+0.04)^27</f>
+        <v>89001.327900509059</v>
+      </c>
+      <c r="K19" s="233">
+        <v>255877.44500000001</v>
+      </c>
+      <c r="L19" s="233">
+        <f>-J19-K19</f>
+        <v>-344878.77290050907</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="J20" s="181">
+        <f>J5+0.04*J5*27</f>
+        <v>45915.595555555541</v>
+      </c>
+      <c r="K20" s="181">
+        <f>J20-'[2]Energybalance history'!O65</f>
+        <v>-128318.08644444446</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2866F2F4-3FF6-43E8-A26E-915582679923}">
+  <dimension ref="A1:AA53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="271" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" s="271"/>
+      <c r="I1" s="271"/>
+      <c r="J1" s="271"/>
+      <c r="K1" s="271" t="s">
+        <v>398</v>
+      </c>
+      <c r="L1" s="271"/>
+      <c r="M1" s="271" t="s">
+        <v>399</v>
+      </c>
+      <c r="N1" s="271"/>
+      <c r="O1" s="271" t="s">
+        <v>402</v>
+      </c>
+      <c r="P1" s="271"/>
+      <c r="Q1" s="271"/>
+      <c r="R1" s="271" t="s">
+        <v>402</v>
+      </c>
+      <c r="S1" s="271"/>
+      <c r="T1" s="271"/>
+      <c r="U1" s="271" t="s">
+        <v>402</v>
+      </c>
+      <c r="V1" s="271"/>
+      <c r="W1" s="271"/>
+      <c r="X1" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y1" s="271" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z1" s="271"/>
+      <c r="AA1" s="271"/>
+    </row>
+    <row r="2" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="20" t="str">
+        <f>C2</f>
+        <v>Africa</v>
+      </c>
+      <c r="H2" s="20" t="str">
+        <f>D2</f>
+        <v>World</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="J2" s="20" t="str">
+        <f>F2</f>
+        <v>Currency</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="O2" s="271" t="s">
+        <v>392</v>
+      </c>
+      <c r="P2" s="271"/>
+      <c r="Q2" s="271"/>
+      <c r="R2" s="271" t="s">
+        <v>404</v>
+      </c>
+      <c r="S2" s="271"/>
+      <c r="T2" s="271"/>
+      <c r="U2" s="271" t="s">
+        <v>403</v>
+      </c>
+      <c r="V2" s="271"/>
+      <c r="W2" s="271"/>
+      <c r="X2" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y2" s="271" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z2" s="271"/>
+      <c r="AA2" s="271"/>
+    </row>
+    <row r="3" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="O3" s="273" t="s">
+        <v>405</v>
+      </c>
+      <c r="P3" s="273" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q3" s="273" t="s">
+        <v>406</v>
+      </c>
+      <c r="R3" s="273" t="str">
+        <f>O3</f>
+        <v>Minimum</v>
+      </c>
+      <c r="S3" s="273" t="str">
+        <f t="shared" ref="S3:T3" si="0">P3</f>
+        <v>Maximum</v>
+      </c>
+      <c r="T3" s="273" t="str">
+        <f t="shared" si="0"/>
+        <v>Avarage</v>
+      </c>
+      <c r="U3" s="273" t="str">
+        <f t="shared" ref="U3" si="1">R3</f>
+        <v>Minimum</v>
+      </c>
+      <c r="V3" s="273" t="str">
+        <f t="shared" ref="V3" si="2">S3</f>
+        <v>Maximum</v>
+      </c>
+      <c r="W3" s="273" t="str">
+        <f t="shared" ref="W3" si="3">T3</f>
+        <v>Avarage</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4">
+        <v>1093</v>
+      </c>
+      <c r="D4">
+        <v>691</v>
+      </c>
+      <c r="F4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G4">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>396</v>
+      </c>
+      <c r="K4" s="270">
+        <v>0.219</v>
+      </c>
+      <c r="L4" s="270">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="M4">
+        <v>1.7</v>
+      </c>
+      <c r="N4">
+        <v>1.34</v>
+      </c>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117">
+        <v>0.17</v>
+      </c>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4">
+        <v>30</v>
+      </c>
+      <c r="AA4">
+        <f>1125/(365*24)</f>
+        <v>0.12842465753424659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5">
+        <v>2330</v>
+      </c>
+      <c r="D5">
+        <v>2267</v>
+      </c>
+      <c r="E5">
+        <v>824</v>
+      </c>
+      <c r="F5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G5">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H5">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.06</v>
+      </c>
+      <c r="J5" t="s">
+        <v>396</v>
+      </c>
+      <c r="K5" s="270"/>
+      <c r="L5" s="270"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117">
+        <v>0.48</v>
+      </c>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6">
+        <v>1333</v>
+      </c>
+      <c r="D6">
+        <v>1041</v>
+      </c>
+      <c r="E6">
+        <v>1834</v>
+      </c>
+      <c r="F6" t="s">
+        <v>396</v>
+      </c>
+      <c r="G6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>396</v>
+      </c>
+      <c r="K6" s="270">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L6" s="270">
+        <v>0.25</v>
+      </c>
+      <c r="M6">
+        <v>2.04</v>
+      </c>
+      <c r="N6">
+        <v>1.52</v>
+      </c>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117">
+        <v>0.44</v>
+      </c>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117">
+        <v>0.34</v>
+      </c>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117">
+        <v>0.38</v>
+      </c>
+      <c r="X6">
+        <v>25</v>
+      </c>
+      <c r="AA6">
+        <f>38/(365*24)</f>
+        <v>4.3378995433789955E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="272" t="s">
+        <v>400</v>
+      </c>
+      <c r="H7" s="272">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I7" s="272"/>
+      <c r="J7" t="s">
+        <v>396</v>
+      </c>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B8" s="272" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" s="272">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="I8" s="272"/>
+      <c r="J8" t="s">
+        <v>396</v>
+      </c>
+      <c r="O8" s="117">
+        <v>0.18</v>
+      </c>
+      <c r="P8" s="117">
+        <v>0.3</v>
+      </c>
+      <c r="Q8" s="117">
+        <f>(O8+P8)/2</f>
+        <v>0.24</v>
+      </c>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9" s="161" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="272">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="I9" s="272"/>
+      <c r="J9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B10" s="161" t="s">
+        <v>408</v>
+      </c>
+      <c r="I10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B11" s="161" t="s">
+        <v>409</v>
+      </c>
+      <c r="I11">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" s="161" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12">
+        <v>3677</v>
+      </c>
+      <c r="H12" s="272">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="S12">
+        <v>41</v>
+      </c>
+      <c r="X12">
+        <v>25</v>
+      </c>
+      <c r="AA12">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="161" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13">
+        <v>3242</v>
+      </c>
+      <c r="H13" s="272">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="S13">
+        <v>73</v>
+      </c>
+      <c r="X13">
+        <v>20</v>
+      </c>
+      <c r="Y13">
+        <f>0.02*D13/(365*24)</f>
+        <v>7.4018264840182649E-3</v>
+      </c>
+      <c r="Z13">
+        <f>0.06*D13/(365*24)</f>
+        <v>2.2205479452054793E-2</v>
+      </c>
+      <c r="AA13">
+        <f>(Y13+Z13)/2</f>
+        <v>1.480365296803653E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B14" s="161" t="s">
+        <v>451</v>
+      </c>
+      <c r="D14">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>A1</f>
+        <v xml:space="preserve">Source </v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" ref="B17:C17" si="4">B1</f>
+        <v>Technology Name</v>
+      </c>
+      <c r="C17" s="268" t="str">
+        <f t="shared" si="4"/>
+        <v>Installation Cost per kW</v>
+      </c>
+      <c r="D17" s="268"/>
+      <c r="E17" s="268"/>
+      <c r="F17" s="268"/>
+      <c r="G17" s="269" t="s">
+        <v>420</v>
+      </c>
+      <c r="H17" s="269" t="s">
+        <v>419</v>
+      </c>
+      <c r="I17" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="J17" s="269" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="269" t="s">
+        <v>424</v>
+      </c>
+      <c r="L17" s="269" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="269" t="s">
+        <v>425</v>
+      </c>
+      <c r="N17" s="269" t="s">
+        <v>426</v>
+      </c>
+      <c r="O17" s="269" t="s">
+        <v>428</v>
+      </c>
+      <c r="P17" s="269"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="267"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="267" t="s">
+        <v>413</v>
+      </c>
+      <c r="F18" s="267"/>
+      <c r="G18" s="269" t="s">
+        <v>413</v>
+      </c>
+      <c r="H18" s="269" t="s">
+        <v>413</v>
+      </c>
+      <c r="I18" s="267" t="s">
+        <v>422</v>
+      </c>
+      <c r="J18" s="267" t="s">
+        <v>422</v>
+      </c>
+      <c r="K18" s="267" t="s">
+        <v>422</v>
+      </c>
+      <c r="L18" s="267"/>
+      <c r="M18" s="267" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18" s="267" t="s">
+        <v>427</v>
+      </c>
+      <c r="O18" s="267" t="s">
+        <v>427</v>
+      </c>
+      <c r="P18" s="267"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>417</v>
+      </c>
+      <c r="C19" t="str">
+        <f>C2</f>
+        <v>Africa</v>
+      </c>
+      <c r="D19" t="str">
+        <f>D2</f>
+        <v>World</v>
+      </c>
+      <c r="E19" t="str">
+        <f>E2</f>
+        <v>Ethiopia</v>
+      </c>
+      <c r="F19" t="str">
+        <f>F2</f>
+        <v>Currency</v>
+      </c>
+      <c r="G19" t="str">
+        <f>I19</f>
+        <v>Ethiopia</v>
+      </c>
+      <c r="H19" t="s">
+        <v>403</v>
+      </c>
+      <c r="I19" t="str">
+        <f>I2</f>
+        <v>Ethiopia</v>
+      </c>
+      <c r="J19" t="s">
+        <v>403</v>
+      </c>
+      <c r="K19" t="s">
+        <v>403</v>
+      </c>
+      <c r="L19" t="s">
+        <v>403</v>
+      </c>
+      <c r="M19" t="s">
+        <v>391</v>
+      </c>
+      <c r="P19">
+        <f>P2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>443</v>
+      </c>
+      <c r="B20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E20">
+        <v>2770</v>
+      </c>
+      <c r="F20" t="s">
+        <v>413</v>
+      </c>
+      <c r="G20">
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>99</v>
+      </c>
+      <c r="M20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>444</v>
+      </c>
+      <c r="B21" t="s">
+        <v>395</v>
+      </c>
+      <c r="E21">
+        <v>2000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>413</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>1E-4</v>
+      </c>
+      <c r="I21">
+        <v>41</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>445</v>
+      </c>
+      <c r="B22" t="s">
+        <v>414</v>
+      </c>
+      <c r="E22">
+        <v>2900</v>
+      </c>
+      <c r="F22" t="s">
+        <v>413</v>
+      </c>
+      <c r="G22">
+        <v>46</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>97</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>446</v>
+      </c>
+      <c r="B23" t="s">
+        <v>415</v>
+      </c>
+      <c r="E23">
+        <v>1100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>413</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I23">
+        <v>25</v>
+      </c>
+      <c r="J23">
+        <v>99</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>447</v>
+      </c>
+      <c r="B24" t="s">
+        <v>416</v>
+      </c>
+      <c r="E24">
+        <v>1700</v>
+      </c>
+      <c r="F24" t="s">
+        <v>413</v>
+      </c>
+      <c r="G24">
+        <v>46</v>
+      </c>
+      <c r="H24">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="I24">
+        <v>30</v>
+      </c>
+      <c r="J24">
+        <v>97</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>448</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25">
+        <v>3333</v>
+      </c>
+      <c r="F25" t="s">
+        <v>413</v>
+      </c>
+      <c r="G25">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="H25">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="I25">
+        <v>50</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <v>38</v>
+      </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="O25">
+        <v>6.4999999999999994E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>449</v>
+      </c>
+      <c r="B26" t="s">
+        <v>418</v>
+      </c>
+      <c r="E26">
+        <v>5238</v>
+      </c>
+      <c r="F26" t="s">
+        <v>413</v>
+      </c>
+      <c r="G26">
+        <v>67.3</v>
+      </c>
+      <c r="H26">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I26">
+        <v>63</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="M26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>429</v>
+      </c>
+      <c r="B31" t="s">
+        <v>429</v>
+      </c>
+      <c r="C31" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>A19</f>
+        <v>Gebremeskel 2023</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33">
+        <f>3.89/0.0002777778</f>
+        <v>14003.99887968009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>417</v>
+      </c>
+      <c r="B34" t="s">
+        <v>435</v>
+      </c>
+      <c r="C34">
+        <f>7.66/0.0002777778</f>
+        <v>27575.997793920178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>417</v>
+      </c>
+      <c r="B35" t="s">
+        <v>433</v>
+      </c>
+      <c r="C35">
+        <f>18.8/0.0002777778</f>
+        <v>67679.994585600434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>436</v>
+      </c>
+      <c r="B36" t="s">
+        <v>434</v>
+      </c>
+      <c r="C36">
+        <f>8.121/0.0002777778</f>
+        <v>29235.597661152191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>437</v>
+      </c>
+      <c r="B37" t="s">
+        <v>432</v>
+      </c>
+      <c r="C37">
+        <f>1.263/0.0002777778</f>
+        <v>4546.7996362560289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>438</v>
+      </c>
+      <c r="B38" t="s">
+        <v>334</v>
+      </c>
+      <c r="C38">
+        <f>5.835/0.0002777778</f>
+        <v>21005.998319520135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="161" t="s">
+        <v>452</v>
+      </c>
+      <c r="B42" s="275" t="s">
+        <v>454</v>
+      </c>
+      <c r="C42" s="274" t="s">
+        <v>454</v>
+      </c>
+      <c r="D42" s="274"/>
+      <c r="E42" s="274"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="161"/>
+      <c r="B43" s="161" t="s">
+        <v>405</v>
+      </c>
+      <c r="C43" s="161" t="s">
+        <v>405</v>
+      </c>
+      <c r="D43" s="161" t="s">
+        <v>407</v>
+      </c>
+      <c r="E43" s="161" t="s">
+        <v>391</v>
+      </c>
+      <c r="F43" s="161" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="161" t="s">
+        <v>455</v>
+      </c>
+      <c r="B44" s="161" t="s">
+        <v>453</v>
+      </c>
+      <c r="E44">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="162" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="162" t="s">
+        <v>457</v>
+      </c>
+      <c r="B45" s="162" t="s">
+        <v>456</v>
+      </c>
+      <c r="C45" s="162">
+        <v>0.8</v>
+      </c>
+      <c r="D45" s="162">
+        <v>0.9</v>
+      </c>
+      <c r="E45" s="162">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="162" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="162" t="s">
+        <v>457</v>
+      </c>
+      <c r="B46" s="162" t="s">
+        <v>458</v>
+      </c>
+      <c r="C46" s="162">
+        <v>0.95</v>
+      </c>
+      <c r="D46" s="162">
+        <v>1</v>
+      </c>
+      <c r="E46" s="162">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>461</v>
+      </c>
+      <c r="B47" s="161" t="s">
+        <v>459</v>
+      </c>
+      <c r="C47">
+        <v>0.8</v>
+      </c>
+      <c r="D47">
+        <v>0.85</v>
+      </c>
+      <c r="F47">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>462</v>
+      </c>
+      <c r="B48" s="161" t="s">
+        <v>459</v>
+      </c>
+      <c r="C48">
+        <v>0.8</v>
+      </c>
+      <c r="D48">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="276" t="s">
+        <v>466</v>
+      </c>
+      <c r="B49" s="161" t="s">
+        <v>467</v>
+      </c>
+      <c r="C49">
+        <v>0.85</v>
+      </c>
+      <c r="D49">
+        <v>0.87</v>
+      </c>
+      <c r="F49">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="276" t="s">
+        <v>466</v>
+      </c>
+      <c r="B50" s="161" t="s">
+        <v>468</v>
+      </c>
+      <c r="C50">
+        <v>0.85</v>
+      </c>
+      <c r="D50">
+        <v>0.87</v>
+      </c>
+      <c r="F50">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="276" t="s">
+        <v>469</v>
+      </c>
+      <c r="B51" s="161" t="s">
+        <v>470</v>
+      </c>
+      <c r="E51">
+        <v>0.85</v>
+      </c>
+      <c r="F51">
+        <v>0.76100000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>464</v>
+      </c>
+      <c r="B52" s="161" t="s">
+        <v>463</v>
+      </c>
+      <c r="E52">
+        <v>0.51039999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="276" t="s">
+        <v>465</v>
+      </c>
+      <c r="B53" s="161" t="s">
+        <v>280</v>
+      </c>
+      <c r="E53">
+        <v>0.65</v>
+      </c>
+      <c r="F53">
+        <v>0.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+  </mergeCells>
+  <phoneticPr fontId="45" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40EA534-E44A-461C-9315-2313911B2BEB}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A20" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6315,7 +14038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R67"/>
   <sheetViews>
@@ -7551,17 +15274,17 @@
       <c r="E67" s="89"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:P3"/>
     </sheetView>
   </sheetViews>
@@ -7621,12 +15344,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A12" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8750,7 +16473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V38"/>
   <sheetViews>
@@ -9789,7 +17512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
@@ -10921,128 +18644,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E959CB-7164-414F-B6F7-22B95D131062}">
-  <dimension ref="B3:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="137" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-    </row>
-    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-    </row>
-    <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B5" s="139" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="140"/>
-    </row>
-    <row r="6" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="141" t="str">
-        <f>PRI_Sector_Fuels!N5</f>
-        <v>MANCOALMIN</v>
-      </c>
-      <c r="D6" s="141" t="str">
-        <f>PRI_Sector_Fuels!N6</f>
-        <v>MANCOALIMP</v>
-      </c>
-      <c r="E6" s="141" t="str">
-        <f>PRI_Sector_Fuels!N7</f>
-        <v>MANOILIMP</v>
-      </c>
-      <c r="F6" s="141" t="str">
-        <f>PRI_Sector_Fuels!N8</f>
-        <v>ELC</v>
-      </c>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="142" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" s="142" t="s">
-        <v>257</v>
-      </c>
-      <c r="E7" s="142" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" s="142" t="s">
-        <v>257</v>
-      </c>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="143" t="str">
-        <f>DemTechs_INDF!P9</f>
-        <v>MANCO2</v>
-      </c>
-      <c r="C8" s="144">
-        <v>347494</v>
-      </c>
-      <c r="D8" s="144">
-        <v>347494</v>
-      </c>
-      <c r="E8" s="144">
-        <v>279515</v>
-      </c>
-      <c r="F8" s="144">
-        <v>0</v>
-      </c>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="127"/>
-      <c r="C23" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="47"/>
-      <c r="C24" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390ED131-2C01-4ADC-80E8-BF235F75CC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E60B6-A861-4370-8B3B-5E22634940BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="890" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energybalance history" sheetId="147" r:id="rId1"/>
@@ -1566,7 +1566,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="471">
   <si>
     <t>CommName</t>
   </si>
@@ -2319,9 +2319,6 @@
   </si>
   <si>
     <t>Electricity for machine drive</t>
-  </si>
-  <si>
-    <t>Manufacturing electricity</t>
   </si>
   <si>
     <t>Manufacturing heat</t>
@@ -3084,6 +3081,9 @@
   </si>
   <si>
     <t>Oilboiler3</t>
+  </si>
+  <si>
+    <t>Manufacturing electricity for non-process heat</t>
   </si>
 </sst>
 </file>
@@ -3390,6 +3390,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3952,7 +3953,7 @@
     <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4299,35 +4300,8 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -4350,9 +4324,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -4367,12 +4338,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="23" xfId="34" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4449,23 +4414,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -4500,9 +4499,9 @@
     <cellStyle name="Normal 8 2" xfId="28" xr:uid="{C94D68A9-0F9F-49C7-A496-97D6E4CFF1B0}"/>
     <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Per cent" xfId="16" builtinId="5"/>
     <cellStyle name="Per cent 2" xfId="24" xr:uid="{2C564A4B-D800-4EE4-B939-9255D7A664BB}"/>
     <cellStyle name="Per cent 3" xfId="42" xr:uid="{5844D0E0-44CC-4526-80B6-F2A16EB52199}"/>
+    <cellStyle name="Percent" xfId="16" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Percent 3 2" xfId="29" xr:uid="{E6B199C5-EFD9-4EA1-A159-C95FD8F6F260}"/>
@@ -4528,7 +4527,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7239,141 +7238,10 @@
           <cell r="A64" t="str">
             <v>Year</v>
           </cell>
-          <cell r="B64">
-            <v>2019</v>
-          </cell>
-          <cell r="C64">
-            <v>2020</v>
-          </cell>
-          <cell r="D64">
-            <v>2021</v>
-          </cell>
-          <cell r="E64">
-            <v>2022</v>
-          </cell>
-          <cell r="F64">
-            <v>2023</v>
-          </cell>
-          <cell r="H64">
-            <v>2024</v>
-          </cell>
-          <cell r="I64">
-            <v>2028</v>
-          </cell>
-          <cell r="J64">
-            <v>2030</v>
-          </cell>
-          <cell r="K64">
-            <v>2032</v>
-          </cell>
-          <cell r="L64">
-            <v>2036</v>
-          </cell>
-          <cell r="M64">
-            <v>2040</v>
-          </cell>
-          <cell r="N64">
-            <v>2044</v>
-          </cell>
-          <cell r="O64">
-            <v>2048</v>
-          </cell>
-          <cell r="P64">
-            <v>2050</v>
-          </cell>
-          <cell r="Q64">
-            <v>2052</v>
-          </cell>
         </row>
         <row r="65">
-          <cell r="A65" t="str">
-            <v>Total Industry Consumption in GWh</v>
-          </cell>
-          <cell r="B65">
-            <v>19578.700555555555</v>
-          </cell>
-          <cell r="C65">
-            <v>17444.618333333336</v>
-          </cell>
-          <cell r="D65">
-            <v>19485.127222222221</v>
-          </cell>
-          <cell r="E65">
-            <v>22074.805555555551</v>
-          </cell>
-          <cell r="F65">
-            <v>22918.588888888888</v>
-          </cell>
-          <cell r="G65">
-            <v>4.1408593708299968E-2</v>
-          </cell>
-          <cell r="H65">
-            <v>16173.841000000002</v>
-          </cell>
-          <cell r="I65">
-            <v>24462.542000000001</v>
-          </cell>
-          <cell r="J65">
-            <v>30530.494500000001</v>
-          </cell>
-          <cell r="K65">
-            <v>36598.447</v>
-          </cell>
-          <cell r="L65">
-            <v>54366.760999999999</v>
-          </cell>
-          <cell r="M65">
-            <v>80381.90800000001</v>
-          </cell>
-          <cell r="N65">
-            <v>118468.99500000001</v>
-          </cell>
           <cell r="O65">
             <v>174233.682</v>
-          </cell>
-          <cell r="P65">
-            <v>215055.56349999999</v>
-          </cell>
-          <cell r="Q65">
-            <v>255877.44500000001</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>Manufacturing Electricity consumption in GWh</v>
-          </cell>
-          <cell r="B68">
-            <v>2791.0050000000001</v>
-          </cell>
-          <cell r="C68">
-            <v>2430.2799722222217</v>
-          </cell>
-          <cell r="D68">
-            <v>2683.0269444444443</v>
-          </cell>
-          <cell r="E68">
-            <v>2861.5609722222221</v>
-          </cell>
-          <cell r="F68">
-            <v>3440.232361111111</v>
-          </cell>
-          <cell r="G68">
-            <v>5.3675278227879542E-2</v>
-          </cell>
-          <cell r="J68">
-            <v>26790</v>
-          </cell>
-          <cell r="K68">
-            <v>4347.6775685872717</v>
-          </cell>
-          <cell r="M68">
-            <v>44555</v>
-          </cell>
-          <cell r="N68">
-            <v>7333.7353602111407</v>
-          </cell>
-          <cell r="P68">
-            <v>65835</v>
           </cell>
         </row>
       </sheetData>
@@ -7737,1149 +7605,1149 @@
       <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="99.5546875" style="181" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="181" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="181" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="181" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="181" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="181" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="181" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.54296875" style="181" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" style="181" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="181" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="181" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" style="181" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" style="181" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="181" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="181" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="182" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="183" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="181"/>
-    <col min="12" max="12" width="8.88671875" style="184"/>
+    <col min="11" max="11" width="8.90625" style="181"/>
+    <col min="12" max="12" width="8.90625" style="184"/>
     <col min="13" max="13" width="10" style="183" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="181"/>
+    <col min="14" max="14" width="8.90625" style="181"/>
     <col min="15" max="15" width="11" style="182" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="183" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" style="183" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="181"/>
+    <col min="18" max="16384" width="8.90625" style="181"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="180" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B1" s="180"/>
       <c r="C1" s="180"/>
       <c r="D1" s="180"/>
       <c r="V1" s="185" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="260" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="260" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="186" t="s">
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="266" t="s">
+        <v>299</v>
+      </c>
+      <c r="K2" s="267"/>
+      <c r="L2" s="267"/>
+      <c r="M2" s="268"/>
+      <c r="N2" s="260" t="s">
+        <v>300</v>
+      </c>
+      <c r="O2" s="261"/>
+      <c r="P2" s="261"/>
+      <c r="Q2" s="261"/>
+      <c r="R2" s="262"/>
+      <c r="V2" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="186" t="s">
-        <v>299</v>
-      </c>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="189" t="s">
-        <v>300</v>
-      </c>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="186" t="s">
+      <c r="W2" s="269" t="s">
         <v>301</v>
       </c>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="188"/>
-      <c r="V2" s="192" t="s">
-        <v>144</v>
-      </c>
-      <c r="W2" s="193" t="s">
+      <c r="X2" s="270"/>
+      <c r="Y2" s="270"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="271"/>
+      <c r="AB2" s="269" t="s">
         <v>302</v>
       </c>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="195"/>
-      <c r="AB2" s="193" t="s">
+      <c r="AC2" s="270"/>
+      <c r="AD2" s="270"/>
+      <c r="AE2" s="270"/>
+      <c r="AF2" s="271"/>
+    </row>
+    <row r="3" spans="1:32" ht="24.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="260" t="s">
         <v>303</v>
       </c>
-      <c r="AC2" s="194"/>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="195"/>
-    </row>
-    <row r="3" spans="1:32" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="186" t="s">
+      <c r="B3" s="261"/>
+      <c r="C3" s="261"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="187">
+        <v>5</v>
+      </c>
+      <c r="G3" s="187" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="196">
+      <c r="H3" s="187" t="s">
+        <v>305</v>
+      </c>
+      <c r="I3" s="188">
+        <v>10</v>
+      </c>
+      <c r="J3" s="189">
         <v>5</v>
       </c>
-      <c r="G3" s="196" t="s">
+      <c r="K3" s="187" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="190" t="s">
         <v>305</v>
       </c>
-      <c r="H3" s="196" t="s">
+      <c r="M3" s="189">
+        <v>10</v>
+      </c>
+      <c r="N3" s="187">
+        <v>5</v>
+      </c>
+      <c r="O3" s="188" t="s">
+        <v>304</v>
+      </c>
+      <c r="P3" s="189" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q3" s="189"/>
+      <c r="R3" s="187">
+        <v>10</v>
+      </c>
+      <c r="V3" s="191" t="s">
         <v>306</v>
       </c>
-      <c r="I3" s="197">
-        <v>10</v>
-      </c>
-      <c r="J3" s="198">
-        <v>5</v>
-      </c>
-      <c r="K3" s="196" t="s">
-        <v>305</v>
-      </c>
-      <c r="L3" s="199" t="s">
-        <v>306</v>
-      </c>
-      <c r="M3" s="198">
-        <v>10</v>
-      </c>
-      <c r="N3" s="196">
-        <v>5</v>
-      </c>
-      <c r="O3" s="197" t="s">
-        <v>305</v>
-      </c>
-      <c r="P3" s="198" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="196">
-        <v>10</v>
-      </c>
-      <c r="V3" s="200" t="s">
+      <c r="W3" s="192">
+        <v>2018</v>
+      </c>
+      <c r="X3" s="192">
+        <v>2020</v>
+      </c>
+      <c r="Y3" s="192">
+        <v>2030</v>
+      </c>
+      <c r="Z3" s="192">
+        <v>2040</v>
+      </c>
+      <c r="AA3" s="192">
+        <v>2050</v>
+      </c>
+      <c r="AB3" s="193">
+        <v>2018</v>
+      </c>
+      <c r="AC3" s="193">
+        <v>2020</v>
+      </c>
+      <c r="AD3" s="193">
+        <v>2030</v>
+      </c>
+      <c r="AE3" s="193">
+        <v>2040</v>
+      </c>
+      <c r="AF3" s="193">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="263" t="s">
         <v>307</v>
       </c>
-      <c r="W3" s="201">
-        <v>2018</v>
-      </c>
-      <c r="X3" s="201">
-        <v>2020</v>
-      </c>
-      <c r="Y3" s="201">
-        <v>2030</v>
-      </c>
-      <c r="Z3" s="201">
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="187">
+        <v>2024</v>
+      </c>
+      <c r="F4" s="195">
+        <v>5017.1000000000004</v>
+      </c>
+      <c r="G4" s="195">
+        <v>5269.2</v>
+      </c>
+      <c r="H4" s="195">
+        <v>5371.7</v>
+      </c>
+      <c r="I4" s="196">
+        <v>5527.3</v>
+      </c>
+      <c r="J4" s="197">
+        <v>1286.0999999999999</v>
+      </c>
+      <c r="K4" s="195">
+        <v>1355.1</v>
+      </c>
+      <c r="L4" s="198">
+        <v>1390.7</v>
+      </c>
+      <c r="M4" s="197">
+        <v>1716.2</v>
+      </c>
+      <c r="N4" s="195">
+        <v>40518.9</v>
+      </c>
+      <c r="O4" s="196">
+        <v>41362.699999999997</v>
+      </c>
+      <c r="P4" s="197">
+        <v>41705.800000000003</v>
+      </c>
+      <c r="Q4" s="197"/>
+      <c r="R4" s="195">
+        <v>42226.3</v>
+      </c>
+      <c r="V4" s="191" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" s="192">
+        <v>13</v>
+      </c>
+      <c r="X4" s="192">
+        <v>15.1</v>
+      </c>
+      <c r="Y4" s="192">
+        <v>28.2</v>
+      </c>
+      <c r="Z4" s="192">
+        <v>46.9</v>
+      </c>
+      <c r="AA4" s="192">
+        <v>69.3</v>
+      </c>
+      <c r="AB4" s="193">
+        <v>1117740</v>
+      </c>
+      <c r="AC4" s="193">
+        <v>1298298</v>
+      </c>
+      <c r="AD4" s="193">
+        <v>2424636</v>
+      </c>
+      <c r="AE4" s="193">
+        <v>4032462</v>
+      </c>
+      <c r="AF4" s="193">
+        <v>5958414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="264"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="187">
+        <v>2028</v>
+      </c>
+      <c r="F5" s="195">
+        <v>6144.8</v>
+      </c>
+      <c r="G5" s="195">
+        <v>7109.3</v>
+      </c>
+      <c r="H5" s="195">
+        <v>7527.8</v>
+      </c>
+      <c r="I5" s="196">
+        <v>8192.7000000000007</v>
+      </c>
+      <c r="J5" s="197">
+        <v>1594.5</v>
+      </c>
+      <c r="K5" s="195">
+        <v>1858.3</v>
+      </c>
+      <c r="L5" s="198">
+        <v>2103.4</v>
+      </c>
+      <c r="M5" s="197">
+        <v>2580</v>
+      </c>
+      <c r="N5" s="195">
+        <v>42313.8</v>
+      </c>
+      <c r="O5" s="196">
+        <v>47520</v>
+      </c>
+      <c r="P5" s="197">
+        <v>48920.3</v>
+      </c>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="195">
+        <v>51145.3</v>
+      </c>
+      <c r="V5" s="191" t="s">
+        <v>308</v>
+      </c>
+      <c r="W5" s="192">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X5" s="192">
+        <v>6.4</v>
+      </c>
+      <c r="Y5" s="192">
+        <v>20.6</v>
+      </c>
+      <c r="Z5" s="192">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AA5" s="192">
+        <v>62.5</v>
+      </c>
+      <c r="AB5" s="193">
+        <v>395508</v>
+      </c>
+      <c r="AC5" s="193">
+        <v>550272</v>
+      </c>
+      <c r="AD5" s="193">
+        <v>1771188</v>
+      </c>
+      <c r="AE5" s="193">
+        <v>3499386</v>
+      </c>
+      <c r="AF5" s="193">
+        <v>5373750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="264"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="187">
+        <v>2032</v>
+      </c>
+      <c r="F6" s="195">
+        <v>7515.5</v>
+      </c>
+      <c r="G6" s="195">
+        <v>9566.6</v>
+      </c>
+      <c r="H6" s="195">
+        <v>10515.7</v>
+      </c>
+      <c r="I6" s="196">
+        <v>12095.1</v>
+      </c>
+      <c r="J6" s="197">
+        <v>1969.4</v>
+      </c>
+      <c r="K6" s="195">
+        <v>2530.4</v>
+      </c>
+      <c r="L6" s="198">
+        <v>3146.9</v>
+      </c>
+      <c r="M6" s="197">
+        <v>3844.6</v>
+      </c>
+      <c r="N6" s="195">
+        <v>44292.6</v>
+      </c>
+      <c r="O6" s="196">
+        <v>55742.8</v>
+      </c>
+      <c r="P6" s="197">
+        <v>58918.5</v>
+      </c>
+      <c r="Q6" s="197"/>
+      <c r="R6" s="195">
+        <v>83322.2</v>
+      </c>
+      <c r="V6" s="191" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" s="192">
+        <v>2.6</v>
+      </c>
+      <c r="X6" s="192">
+        <v>3.1</v>
+      </c>
+      <c r="Y6" s="192">
+        <v>6.6</v>
+      </c>
+      <c r="Z6" s="192">
+        <v>12.5</v>
+      </c>
+      <c r="AA6" s="192">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="193">
+        <v>223548</v>
+      </c>
+      <c r="AC6" s="193">
+        <v>266538</v>
+      </c>
+      <c r="AD6" s="193">
+        <v>567468</v>
+      </c>
+      <c r="AE6" s="193">
+        <v>1074750</v>
+      </c>
+      <c r="AF6" s="193">
+        <v>1805580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="264"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="187">
+        <v>2036</v>
+      </c>
+      <c r="F7" s="195">
+        <v>9181.7000000000007</v>
+      </c>
+      <c r="G7" s="195">
+        <v>12848.4</v>
+      </c>
+      <c r="H7" s="195">
+        <v>14656.6</v>
+      </c>
+      <c r="I7" s="196">
+        <v>17808.599999999999</v>
+      </c>
+      <c r="J7" s="197">
+        <v>2425.1</v>
+      </c>
+      <c r="K7" s="195">
+        <v>3427.9</v>
+      </c>
+      <c r="L7" s="198">
+        <v>4674.7</v>
+      </c>
+      <c r="M7" s="197">
+        <v>5696.2</v>
+      </c>
+      <c r="N7" s="195">
+        <v>46474.2</v>
+      </c>
+      <c r="O7" s="196">
+        <v>66724.2</v>
+      </c>
+      <c r="P7" s="197">
+        <v>72774.7</v>
+      </c>
+      <c r="Q7" s="197"/>
+      <c r="R7" s="195">
+        <v>51145.3</v>
+      </c>
+      <c r="V7" s="191" t="s">
+        <v>309</v>
+      </c>
+      <c r="W7" s="192">
+        <v>0.1</v>
+      </c>
+      <c r="X7" s="192">
+        <v>0.5</v>
+      </c>
+      <c r="Y7" s="192">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z7" s="192">
+        <v>10.4</v>
+      </c>
+      <c r="AA7" s="192">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AB7" s="193">
+        <v>8598</v>
+      </c>
+      <c r="AC7" s="193">
+        <v>42990</v>
+      </c>
+      <c r="AD7" s="193">
+        <v>378312</v>
+      </c>
+      <c r="AE7" s="193">
+        <v>894192</v>
+      </c>
+      <c r="AF7" s="193">
+        <v>1410072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="264"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="187">
         <v>2040</v>
       </c>
-      <c r="AA3" s="201">
-        <v>2050</v>
-      </c>
-      <c r="AB3" s="202">
-        <v>2018</v>
-      </c>
-      <c r="AC3" s="202">
-        <v>2020</v>
-      </c>
-      <c r="AD3" s="202">
-        <v>2030</v>
-      </c>
-      <c r="AE3" s="202">
+      <c r="F8" s="195">
+        <v>11207</v>
+      </c>
+      <c r="G8" s="195">
+        <v>17231</v>
+      </c>
+      <c r="H8" s="195">
+        <v>20395.2</v>
+      </c>
+      <c r="I8" s="196">
+        <v>26173.8</v>
+      </c>
+      <c r="J8" s="197">
+        <v>2980</v>
+      </c>
+      <c r="K8" s="195">
+        <v>3427.9</v>
+      </c>
+      <c r="L8" s="198">
+        <v>6911.6</v>
+      </c>
+      <c r="M8" s="197">
+        <v>8407.1</v>
+      </c>
+      <c r="N8" s="195">
+        <v>48879.4</v>
+      </c>
+      <c r="O8" s="196">
+        <v>81389.399999999994</v>
+      </c>
+      <c r="P8" s="197">
+        <v>91977.5</v>
+      </c>
+      <c r="Q8" s="197"/>
+      <c r="R8" s="195">
+        <v>111313.8</v>
+      </c>
+      <c r="V8" s="191" t="s">
+        <v>69</v>
+      </c>
+      <c r="W8" s="192">
+        <v>3.3</v>
+      </c>
+      <c r="X8" s="192">
+        <v>3.9</v>
+      </c>
+      <c r="Y8" s="192">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="192">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AA8" s="192">
+        <v>24.9</v>
+      </c>
+      <c r="AB8" s="193">
+        <v>283734</v>
+      </c>
+      <c r="AC8" s="193">
+        <v>335322</v>
+      </c>
+      <c r="AD8" s="193">
+        <v>1289700</v>
+      </c>
+      <c r="AE8" s="193">
+        <v>1753992</v>
+      </c>
+      <c r="AF8" s="193">
+        <v>2140902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="264"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="187">
+        <v>2044</v>
+      </c>
+      <c r="F9" s="195">
+        <v>13668.6</v>
+      </c>
+      <c r="G9" s="195">
+        <v>23083.9</v>
+      </c>
+      <c r="H9" s="195">
+        <v>28348.2</v>
+      </c>
+      <c r="I9" s="196">
+        <v>38421.300000000003</v>
+      </c>
+      <c r="J9" s="197">
+        <v>3652.2</v>
+      </c>
+      <c r="K9" s="195">
+        <v>4626.5</v>
+      </c>
+      <c r="L9" s="198">
+        <v>10186.5</v>
+      </c>
+      <c r="M9" s="197">
+        <v>12376.2</v>
+      </c>
+      <c r="N9" s="195">
+        <v>51531.199999999997</v>
+      </c>
+      <c r="O9" s="196">
+        <v>100974.39999999999</v>
+      </c>
+      <c r="P9" s="197">
+        <v>118589.8</v>
+      </c>
+      <c r="Q9" s="197"/>
+      <c r="R9" s="195">
+        <v>152296.29999999999</v>
+      </c>
+      <c r="V9" s="191" t="s">
+        <v>310</v>
+      </c>
+      <c r="W9" s="192">
+        <v>1.5</v>
+      </c>
+      <c r="X9" s="192">
+        <v>4.5</v>
+      </c>
+      <c r="Y9" s="192">
+        <v>13.8</v>
+      </c>
+      <c r="Z9" s="192">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="192">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="AB9" s="193">
+        <v>128970</v>
+      </c>
+      <c r="AC9" s="193">
+        <v>386910</v>
+      </c>
+      <c r="AD9" s="193">
+        <v>1186524</v>
+      </c>
+      <c r="AE9" s="193">
+        <v>2751360</v>
+      </c>
+      <c r="AF9" s="193">
+        <v>3035094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="264"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="187">
+        <v>2048</v>
+      </c>
+      <c r="F10" s="195">
+        <v>16660.8</v>
+      </c>
+      <c r="G10" s="195">
+        <v>30900.3</v>
+      </c>
+      <c r="H10" s="195">
+        <v>39369.9</v>
+      </c>
+      <c r="I10" s="196">
+        <v>56352.800000000003</v>
+      </c>
+      <c r="J10" s="197">
+        <v>4470.5</v>
+      </c>
+      <c r="K10" s="195">
+        <v>6227.2</v>
+      </c>
+      <c r="L10" s="198">
+        <v>14981.4</v>
+      </c>
+      <c r="M10" s="197">
+        <v>18187.3</v>
+      </c>
+      <c r="N10" s="195">
+        <v>54454.7</v>
+      </c>
+      <c r="O10" s="196">
+        <v>127129.60000000001</v>
+      </c>
+      <c r="P10" s="197">
+        <v>155470.6</v>
+      </c>
+      <c r="Q10" s="197"/>
+      <c r="R10" s="195">
+        <v>212298.8</v>
+      </c>
+      <c r="V10" s="191" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10" s="192">
+        <v>25.1</v>
+      </c>
+      <c r="X10" s="192">
+        <v>33.5</v>
+      </c>
+      <c r="Y10" s="192">
+        <v>88.6</v>
+      </c>
+      <c r="Z10" s="192">
+        <v>162.9</v>
+      </c>
+      <c r="AA10" s="192">
+        <v>229.4</v>
+      </c>
+      <c r="AB10" s="193">
+        <v>2158098</v>
+      </c>
+      <c r="AC10" s="193">
+        <v>2880330</v>
+      </c>
+      <c r="AD10" s="193">
+        <v>7617828</v>
+      </c>
+      <c r="AE10" s="193">
+        <v>14006142</v>
+      </c>
+      <c r="AF10" s="193">
+        <v>19723812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="265"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187">
+        <v>2052</v>
+      </c>
+      <c r="F11" s="195">
+        <v>20297.900000000001</v>
+      </c>
+      <c r="G11" s="195">
+        <v>41338.800000000003</v>
+      </c>
+      <c r="H11" s="195">
+        <v>54644.4</v>
+      </c>
+      <c r="I11" s="196">
+        <v>82606.3</v>
+      </c>
+      <c r="J11" s="197">
+        <v>5465.2</v>
+      </c>
+      <c r="K11" s="195">
+        <v>11219.6</v>
+      </c>
+      <c r="L11" s="198">
+        <v>22001.5</v>
+      </c>
+      <c r="M11" s="197">
+        <v>26695.3</v>
+      </c>
+      <c r="N11" s="195">
+        <v>57678</v>
+      </c>
+      <c r="O11" s="196">
+        <v>162059</v>
+      </c>
+      <c r="P11" s="197">
+        <v>206582.3</v>
+      </c>
+      <c r="Q11" s="197"/>
+      <c r="R11" s="195">
+        <v>300148.40000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="263" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="194"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="192">
+        <v>2024</v>
+      </c>
+      <c r="F12" s="199">
+        <v>210094.2</v>
+      </c>
+      <c r="G12" s="199">
+        <v>220653.7</v>
+      </c>
+      <c r="H12" s="199">
+        <v>224946.8</v>
+      </c>
+      <c r="I12" s="200">
+        <v>231461.1</v>
+      </c>
+      <c r="J12" s="201">
+        <v>53857.2</v>
+      </c>
+      <c r="K12" s="199">
+        <v>56745</v>
+      </c>
+      <c r="L12" s="202">
+        <v>58237</v>
+      </c>
+      <c r="M12" s="201">
+        <v>71866.8</v>
+      </c>
+      <c r="N12" s="199">
+        <v>1696773</v>
+      </c>
+      <c r="O12" s="200">
+        <v>1732105.9</v>
+      </c>
+      <c r="P12" s="201">
+        <v>1746472.4</v>
+      </c>
+      <c r="Q12" s="201"/>
+      <c r="R12" s="199">
+        <v>1768270.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="264"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="192">
+        <v>2028</v>
+      </c>
+      <c r="F13" s="199">
+        <v>257319.1</v>
+      </c>
+      <c r="G13" s="199">
+        <v>297708.5</v>
+      </c>
+      <c r="H13" s="199">
+        <v>315232.40000000002</v>
+      </c>
+      <c r="I13" s="200">
+        <v>343077.9</v>
+      </c>
+      <c r="J13" s="201">
+        <v>66772.600000000006</v>
+      </c>
+      <c r="K13" s="199">
+        <v>77818.7</v>
+      </c>
+      <c r="L13" s="202">
+        <v>88082.9</v>
+      </c>
+      <c r="M13" s="201">
+        <v>108038.5</v>
+      </c>
+      <c r="N13" s="199">
+        <v>1771933</v>
+      </c>
+      <c r="O13" s="200">
+        <v>1989948.1</v>
+      </c>
+      <c r="P13" s="201">
+        <v>2048587.1</v>
+      </c>
+      <c r="Q13" s="201"/>
+      <c r="R13" s="199">
+        <v>2141762.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="264"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="192">
+        <v>2032</v>
+      </c>
+      <c r="F14" s="199">
+        <v>314721.09999999998</v>
+      </c>
+      <c r="G14" s="199">
+        <v>400613.1</v>
+      </c>
+      <c r="H14" s="199">
+        <v>440355.9</v>
+      </c>
+      <c r="I14" s="200">
+        <v>506495.4</v>
+      </c>
+      <c r="J14" s="201">
+        <v>82471.5</v>
+      </c>
+      <c r="K14" s="199">
+        <v>105961.9</v>
+      </c>
+      <c r="L14" s="202">
+        <v>131780.6</v>
+      </c>
+      <c r="M14" s="201">
+        <v>160997.5</v>
+      </c>
+      <c r="N14" s="199">
+        <v>1854796.9</v>
+      </c>
+      <c r="O14" s="200">
+        <v>2334288.1</v>
+      </c>
+      <c r="P14" s="201">
+        <v>2467275.1</v>
+      </c>
+      <c r="Q14" s="201"/>
+      <c r="R14" s="199">
+        <v>3489204.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="264"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="192">
+        <v>2036</v>
+      </c>
+      <c r="F15" s="199">
+        <v>384493.7</v>
+      </c>
+      <c r="G15" s="199">
+        <v>538038.9</v>
+      </c>
+      <c r="H15" s="199">
+        <v>613759.19999999995</v>
+      </c>
+      <c r="I15" s="200">
+        <v>745755.4</v>
+      </c>
+      <c r="J15" s="201">
+        <v>101553.2</v>
+      </c>
+      <c r="K15" s="199">
+        <v>143545.60000000001</v>
+      </c>
+      <c r="L15" s="202">
+        <v>195758.8</v>
+      </c>
+      <c r="M15" s="201">
+        <v>238534.8</v>
+      </c>
+      <c r="N15" s="199">
+        <v>1946154.1</v>
+      </c>
+      <c r="O15" s="200">
+        <v>2794143.6</v>
+      </c>
+      <c r="P15" s="201">
+        <v>3047518.4</v>
+      </c>
+      <c r="Q15" s="201"/>
+      <c r="R15" s="199">
+        <v>2141762.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="264"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="192">
         <v>2040</v>
       </c>
-      <c r="AF3" s="202">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="203" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="196">
-        <v>2024</v>
-      </c>
-      <c r="F4" s="205">
-        <v>5017.1000000000004</v>
-      </c>
-      <c r="G4" s="205">
-        <v>5269.2</v>
-      </c>
-      <c r="H4" s="205">
-        <v>5371.7</v>
-      </c>
-      <c r="I4" s="206">
-        <v>5527.3</v>
-      </c>
-      <c r="J4" s="207">
-        <v>1286.0999999999999</v>
-      </c>
-      <c r="K4" s="205">
-        <v>1355.1</v>
-      </c>
-      <c r="L4" s="208">
-        <v>1390.7</v>
-      </c>
-      <c r="M4" s="207">
-        <v>1716.2</v>
-      </c>
-      <c r="N4" s="205">
-        <v>40518.9</v>
-      </c>
-      <c r="O4" s="206">
-        <v>41362.699999999997</v>
-      </c>
-      <c r="P4" s="207">
-        <v>41705.800000000003</v>
-      </c>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="205">
-        <v>42226.3</v>
-      </c>
-      <c r="V4" s="200" t="s">
-        <v>66</v>
-      </c>
-      <c r="W4" s="201">
-        <v>13</v>
-      </c>
-      <c r="X4" s="201">
-        <v>15.1</v>
-      </c>
-      <c r="Y4" s="201">
-        <v>28.2</v>
-      </c>
-      <c r="Z4" s="201">
-        <v>46.9</v>
-      </c>
-      <c r="AA4" s="201">
-        <v>69.3</v>
-      </c>
-      <c r="AB4" s="202">
-        <v>1117740</v>
-      </c>
-      <c r="AC4" s="202">
-        <v>1298298</v>
-      </c>
-      <c r="AD4" s="202">
-        <v>2424636</v>
-      </c>
-      <c r="AE4" s="202">
-        <v>4032462</v>
-      </c>
-      <c r="AF4" s="202">
-        <v>5958414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="209"/>
-      <c r="B5" s="204"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="196">
-        <v>2028</v>
-      </c>
-      <c r="F5" s="205">
-        <v>6144.8</v>
-      </c>
-      <c r="G5" s="205">
-        <v>7109.3</v>
-      </c>
-      <c r="H5" s="205">
-        <v>7527.8</v>
-      </c>
-      <c r="I5" s="206">
-        <v>8192.7000000000007</v>
-      </c>
-      <c r="J5" s="207">
-        <v>1594.5</v>
-      </c>
-      <c r="K5" s="205">
-        <v>1858.3</v>
-      </c>
-      <c r="L5" s="208">
-        <v>2103.4</v>
-      </c>
-      <c r="M5" s="207">
-        <v>2580</v>
-      </c>
-      <c r="N5" s="205">
-        <v>42313.8</v>
-      </c>
-      <c r="O5" s="206">
-        <v>47520</v>
-      </c>
-      <c r="P5" s="207">
-        <v>48920.3</v>
-      </c>
-      <c r="Q5" s="207"/>
-      <c r="R5" s="205">
-        <v>51145.3</v>
-      </c>
-      <c r="V5" s="200" t="s">
-        <v>309</v>
-      </c>
-      <c r="W5" s="201">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="X5" s="201">
-        <v>6.4</v>
-      </c>
-      <c r="Y5" s="201">
-        <v>20.6</v>
-      </c>
-      <c r="Z5" s="201">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="AA5" s="201">
-        <v>62.5</v>
-      </c>
-      <c r="AB5" s="202">
-        <v>395508</v>
-      </c>
-      <c r="AC5" s="202">
-        <v>550272</v>
-      </c>
-      <c r="AD5" s="202">
-        <v>1771188</v>
-      </c>
-      <c r="AE5" s="202">
-        <v>3499386</v>
-      </c>
-      <c r="AF5" s="202">
-        <v>5373750</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="209"/>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="196">
-        <v>2032</v>
-      </c>
-      <c r="F6" s="205">
-        <v>7515.5</v>
-      </c>
-      <c r="G6" s="205">
-        <v>9566.6</v>
-      </c>
-      <c r="H6" s="205">
-        <v>10515.7</v>
-      </c>
-      <c r="I6" s="206">
-        <v>12095.1</v>
-      </c>
-      <c r="J6" s="207">
-        <v>1969.4</v>
-      </c>
-      <c r="K6" s="205">
-        <v>2530.4</v>
-      </c>
-      <c r="L6" s="208">
-        <v>3146.9</v>
-      </c>
-      <c r="M6" s="207">
-        <v>3844.6</v>
-      </c>
-      <c r="N6" s="205">
-        <v>44292.6</v>
-      </c>
-      <c r="O6" s="206">
-        <v>55742.8</v>
-      </c>
-      <c r="P6" s="207">
-        <v>58918.5</v>
-      </c>
-      <c r="Q6" s="207"/>
-      <c r="R6" s="205">
-        <v>83322.2</v>
-      </c>
-      <c r="V6" s="200" t="s">
-        <v>64</v>
-      </c>
-      <c r="W6" s="201">
-        <v>2.6</v>
-      </c>
-      <c r="X6" s="201">
-        <v>3.1</v>
-      </c>
-      <c r="Y6" s="201">
-        <v>6.6</v>
-      </c>
-      <c r="Z6" s="201">
-        <v>12.5</v>
-      </c>
-      <c r="AA6" s="201">
-        <v>21</v>
-      </c>
-      <c r="AB6" s="202">
-        <v>223548</v>
-      </c>
-      <c r="AC6" s="202">
-        <v>266538</v>
-      </c>
-      <c r="AD6" s="202">
-        <v>567468</v>
-      </c>
-      <c r="AE6" s="202">
-        <v>1074750</v>
-      </c>
-      <c r="AF6" s="202">
-        <v>1805580</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="209"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="196">
-        <v>2036</v>
-      </c>
-      <c r="F7" s="205">
-        <v>9181.7000000000007</v>
-      </c>
-      <c r="G7" s="205">
-        <v>12848.4</v>
-      </c>
-      <c r="H7" s="205">
-        <v>14656.6</v>
-      </c>
-      <c r="I7" s="206">
-        <v>17808.599999999999</v>
-      </c>
-      <c r="J7" s="207">
-        <v>2425.1</v>
-      </c>
-      <c r="K7" s="205">
-        <v>3427.9</v>
-      </c>
-      <c r="L7" s="208">
-        <v>4674.7</v>
-      </c>
-      <c r="M7" s="207">
-        <v>5696.2</v>
-      </c>
-      <c r="N7" s="205">
-        <v>46474.2</v>
-      </c>
-      <c r="O7" s="206">
-        <v>66724.2</v>
-      </c>
-      <c r="P7" s="207">
-        <v>72774.7</v>
-      </c>
-      <c r="Q7" s="207"/>
-      <c r="R7" s="205">
-        <v>51145.3</v>
-      </c>
-      <c r="V7" s="200" t="s">
-        <v>310</v>
-      </c>
-      <c r="W7" s="201">
-        <v>0.1</v>
-      </c>
-      <c r="X7" s="201">
-        <v>0.5</v>
-      </c>
-      <c r="Y7" s="201">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Z7" s="201">
-        <v>10.4</v>
-      </c>
-      <c r="AA7" s="201">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="AB7" s="202">
-        <v>8598</v>
-      </c>
-      <c r="AC7" s="202">
-        <v>42990</v>
-      </c>
-      <c r="AD7" s="202">
-        <v>378312</v>
-      </c>
-      <c r="AE7" s="202">
-        <v>894192</v>
-      </c>
-      <c r="AF7" s="202">
-        <v>1410072</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="209"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="196">
-        <v>2040</v>
-      </c>
-      <c r="F8" s="205">
-        <v>11207</v>
-      </c>
-      <c r="G8" s="205">
-        <v>17231</v>
-      </c>
-      <c r="H8" s="205">
-        <v>20395.2</v>
-      </c>
-      <c r="I8" s="206">
-        <v>26173.8</v>
-      </c>
-      <c r="J8" s="207">
-        <v>2980</v>
-      </c>
-      <c r="K8" s="205">
-        <v>3427.9</v>
-      </c>
-      <c r="L8" s="208">
-        <v>6911.6</v>
-      </c>
-      <c r="M8" s="207">
-        <v>8407.1</v>
-      </c>
-      <c r="N8" s="205">
-        <v>48879.4</v>
-      </c>
-      <c r="O8" s="206">
-        <v>81389.399999999994</v>
-      </c>
-      <c r="P8" s="207">
-        <v>91977.5</v>
-      </c>
-      <c r="Q8" s="207"/>
-      <c r="R8" s="205">
-        <v>111313.8</v>
-      </c>
-      <c r="V8" s="200" t="s">
-        <v>69</v>
-      </c>
-      <c r="W8" s="201">
-        <v>3.3</v>
-      </c>
-      <c r="X8" s="201">
-        <v>3.9</v>
-      </c>
-      <c r="Y8" s="201">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="201">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="AA8" s="201">
-        <v>24.9</v>
-      </c>
-      <c r="AB8" s="202">
-        <v>283734</v>
-      </c>
-      <c r="AC8" s="202">
-        <v>335322</v>
-      </c>
-      <c r="AD8" s="202">
-        <v>1289700</v>
-      </c>
-      <c r="AE8" s="202">
-        <v>1753992</v>
-      </c>
-      <c r="AF8" s="202">
-        <v>2140902</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="209"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="196">
+      <c r="F16" s="199">
+        <v>469302.8</v>
+      </c>
+      <c r="G16" s="199">
+        <v>721567.4</v>
+      </c>
+      <c r="H16" s="199">
+        <v>854071.6</v>
+      </c>
+      <c r="I16" s="200">
+        <v>1096055.7</v>
+      </c>
+      <c r="J16" s="201">
+        <v>124789.4</v>
+      </c>
+      <c r="K16" s="199">
+        <v>143545.60000000001</v>
+      </c>
+      <c r="L16" s="202">
+        <v>289428.8</v>
+      </c>
+      <c r="M16" s="201">
+        <v>352057.4</v>
+      </c>
+      <c r="N16" s="199">
+        <v>2046875.6</v>
+      </c>
+      <c r="O16" s="200">
+        <v>3408266.3</v>
+      </c>
+      <c r="P16" s="201">
+        <v>3851652.8</v>
+      </c>
+      <c r="Q16" s="201"/>
+      <c r="R16" s="199">
+        <v>4661382.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="264"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="192">
         <v>2044</v>
       </c>
-      <c r="F9" s="205">
-        <v>13668.6</v>
-      </c>
-      <c r="G9" s="205">
-        <v>23083.9</v>
-      </c>
-      <c r="H9" s="205">
-        <v>28348.2</v>
-      </c>
-      <c r="I9" s="206">
-        <v>38421.300000000003</v>
-      </c>
-      <c r="J9" s="207">
-        <v>3652.2</v>
-      </c>
-      <c r="K9" s="205">
-        <v>4626.5</v>
-      </c>
-      <c r="L9" s="208">
-        <v>10186.5</v>
-      </c>
-      <c r="M9" s="207">
-        <v>12376.2</v>
-      </c>
-      <c r="N9" s="205">
-        <v>51531.199999999997</v>
-      </c>
-      <c r="O9" s="206">
-        <v>100974.39999999999</v>
-      </c>
-      <c r="P9" s="207">
-        <v>118589.8</v>
-      </c>
-      <c r="Q9" s="207"/>
-      <c r="R9" s="205">
-        <v>152296.29999999999</v>
-      </c>
-      <c r="V9" s="200" t="s">
-        <v>311</v>
-      </c>
-      <c r="W9" s="201">
-        <v>1.5</v>
-      </c>
-      <c r="X9" s="201">
-        <v>4.5</v>
-      </c>
-      <c r="Y9" s="201">
-        <v>13.8</v>
-      </c>
-      <c r="Z9" s="201">
-        <v>32</v>
-      </c>
-      <c r="AA9" s="201">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="AB9" s="202">
-        <v>128970</v>
-      </c>
-      <c r="AC9" s="202">
-        <v>386910</v>
-      </c>
-      <c r="AD9" s="202">
-        <v>1186524</v>
-      </c>
-      <c r="AE9" s="202">
-        <v>2751360</v>
-      </c>
-      <c r="AF9" s="202">
-        <v>3035094</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="209"/>
-      <c r="B10" s="204"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="196">
+      <c r="F17" s="199">
+        <v>572388.19999999995</v>
+      </c>
+      <c r="G17" s="199">
+        <v>966663.3</v>
+      </c>
+      <c r="H17" s="199">
+        <v>1187110.6000000001</v>
+      </c>
+      <c r="I17" s="200">
+        <v>1608930.5</v>
+      </c>
+      <c r="J17" s="201">
+        <v>152939.70000000001</v>
+      </c>
+      <c r="K17" s="199">
+        <v>193738.3</v>
+      </c>
+      <c r="L17" s="202">
+        <v>426570.8</v>
+      </c>
+      <c r="M17" s="201">
+        <v>518265.5</v>
+      </c>
+      <c r="N17" s="199">
+        <v>2157921.2999999998</v>
+      </c>
+      <c r="O17" s="200">
+        <v>4228408.7</v>
+      </c>
+      <c r="P17" s="201">
+        <v>4966069.9000000004</v>
+      </c>
+      <c r="Q17" s="201"/>
+      <c r="R17" s="199">
+        <v>6377567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="264"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="192">
         <v>2048</v>
       </c>
-      <c r="F10" s="205">
-        <v>16660.8</v>
-      </c>
-      <c r="G10" s="205">
-        <v>30900.3</v>
-      </c>
-      <c r="H10" s="205">
-        <v>39369.9</v>
-      </c>
-      <c r="I10" s="206">
-        <v>56352.800000000003</v>
-      </c>
-      <c r="J10" s="207">
-        <v>4470.5</v>
-      </c>
-      <c r="K10" s="205">
-        <v>6227.2</v>
-      </c>
-      <c r="L10" s="208">
-        <v>14981.4</v>
-      </c>
-      <c r="M10" s="207">
-        <v>18187.3</v>
-      </c>
-      <c r="N10" s="205">
-        <v>54454.7</v>
-      </c>
-      <c r="O10" s="206">
-        <v>127129.60000000001</v>
-      </c>
-      <c r="P10" s="207">
-        <v>155470.6</v>
-      </c>
-      <c r="Q10" s="207"/>
-      <c r="R10" s="205">
-        <v>212298.8</v>
-      </c>
-      <c r="V10" s="200" t="s">
-        <v>48</v>
-      </c>
-      <c r="W10" s="201">
-        <v>25.1</v>
-      </c>
-      <c r="X10" s="201">
-        <v>33.5</v>
-      </c>
-      <c r="Y10" s="201">
-        <v>88.6</v>
-      </c>
-      <c r="Z10" s="201">
-        <v>162.9</v>
-      </c>
-      <c r="AA10" s="201">
-        <v>229.4</v>
-      </c>
-      <c r="AB10" s="202">
-        <v>2158098</v>
-      </c>
-      <c r="AC10" s="202">
-        <v>2880330</v>
-      </c>
-      <c r="AD10" s="202">
-        <v>7617828</v>
-      </c>
-      <c r="AE10" s="202">
-        <v>14006142</v>
-      </c>
-      <c r="AF10" s="202">
-        <v>19723812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="210"/>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196">
+      <c r="F18" s="199">
+        <v>697689.7</v>
+      </c>
+      <c r="G18" s="199">
+        <v>1293981.6000000001</v>
+      </c>
+      <c r="H18" s="199">
+        <v>1648655.4</v>
+      </c>
+      <c r="I18" s="200">
+        <v>2359830.7999999998</v>
+      </c>
+      <c r="J18" s="201">
+        <v>187208.1</v>
+      </c>
+      <c r="K18" s="199">
+        <v>260768.8</v>
+      </c>
+      <c r="L18" s="202">
+        <v>627361</v>
+      </c>
+      <c r="M18" s="201">
+        <v>761611</v>
+      </c>
+      <c r="N18" s="199">
+        <v>2280348.7999999998</v>
+      </c>
+      <c r="O18" s="200">
+        <v>5323683</v>
+      </c>
+      <c r="P18" s="201">
+        <v>6510494.5999999996</v>
+      </c>
+      <c r="Q18" s="201"/>
+      <c r="R18" s="199">
+        <v>8890233.1999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="265"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="192">
         <v>2052</v>
       </c>
-      <c r="F11" s="205">
-        <v>20297.900000000001</v>
-      </c>
-      <c r="G11" s="205">
-        <v>41338.800000000003</v>
-      </c>
-      <c r="H11" s="205">
-        <v>54644.4</v>
-      </c>
-      <c r="I11" s="206">
-        <v>82606.3</v>
-      </c>
-      <c r="J11" s="207">
-        <v>5465.2</v>
-      </c>
-      <c r="K11" s="205">
-        <v>11219.6</v>
-      </c>
-      <c r="L11" s="208">
-        <v>22001.5</v>
-      </c>
-      <c r="M11" s="207">
-        <v>26695.3</v>
-      </c>
-      <c r="N11" s="205">
-        <v>57678</v>
-      </c>
-      <c r="O11" s="206">
-        <v>162059</v>
-      </c>
-      <c r="P11" s="207">
-        <v>206582.3</v>
-      </c>
-      <c r="Q11" s="207"/>
-      <c r="R11" s="205">
-        <v>300148.40000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="203" t="s">
+      <c r="F19" s="199">
+        <v>849994.6</v>
+      </c>
+      <c r="G19" s="199">
+        <v>1731105.1</v>
+      </c>
+      <c r="H19" s="199">
+        <v>2288291.5</v>
+      </c>
+      <c r="I19" s="200">
+        <v>3459223.2</v>
+      </c>
+      <c r="J19" s="201">
+        <v>228861.4</v>
+      </c>
+      <c r="K19" s="199">
+        <v>469833.3</v>
+      </c>
+      <c r="L19" s="202">
+        <v>921337.5</v>
+      </c>
+      <c r="M19" s="201">
+        <v>1117893.2</v>
+      </c>
+      <c r="N19" s="199">
+        <v>2415325.4</v>
+      </c>
+      <c r="O19" s="200">
+        <v>6786388.2000000002</v>
+      </c>
+      <c r="P19" s="201">
+        <v>8650848.8000000007</v>
+      </c>
+      <c r="Q19" s="201"/>
+      <c r="R19" s="199">
+        <v>12569028.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B23" s="203" t="s">
         <v>312</v>
       </c>
-      <c r="B12" s="204"/>
-      <c r="C12" s="204"/>
-      <c r="D12" s="204"/>
-      <c r="E12" s="201">
-        <v>2024</v>
-      </c>
-      <c r="F12" s="211">
-        <v>210094.2</v>
-      </c>
-      <c r="G12" s="211">
-        <v>220653.7</v>
-      </c>
-      <c r="H12" s="211">
-        <v>224946.8</v>
-      </c>
-      <c r="I12" s="212">
-        <v>231461.1</v>
-      </c>
-      <c r="J12" s="213">
-        <v>53857.2</v>
-      </c>
-      <c r="K12" s="211">
-        <v>56745</v>
-      </c>
-      <c r="L12" s="214">
-        <v>58237</v>
-      </c>
-      <c r="M12" s="213">
-        <v>71866.8</v>
-      </c>
-      <c r="N12" s="211">
-        <v>1696773</v>
-      </c>
-      <c r="O12" s="212">
-        <v>1732105.9</v>
-      </c>
-      <c r="P12" s="213">
-        <v>1746472.4</v>
-      </c>
-      <c r="Q12" s="213"/>
-      <c r="R12" s="211">
-        <v>1768270.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="209"/>
-      <c r="B13" s="204"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="201">
-        <v>2028</v>
-      </c>
-      <c r="F13" s="211">
-        <v>257319.1</v>
-      </c>
-      <c r="G13" s="211">
-        <v>297708.5</v>
-      </c>
-      <c r="H13" s="211">
-        <v>315232.40000000002</v>
-      </c>
-      <c r="I13" s="212">
-        <v>343077.9</v>
-      </c>
-      <c r="J13" s="213">
-        <v>66772.600000000006</v>
-      </c>
-      <c r="K13" s="211">
-        <v>77818.7</v>
-      </c>
-      <c r="L13" s="214">
-        <v>88082.9</v>
-      </c>
-      <c r="M13" s="213">
-        <v>108038.5</v>
-      </c>
-      <c r="N13" s="211">
-        <v>1771933</v>
-      </c>
-      <c r="O13" s="212">
-        <v>1989948.1</v>
-      </c>
-      <c r="P13" s="213">
-        <v>2048587.1</v>
-      </c>
-      <c r="Q13" s="213"/>
-      <c r="R13" s="211">
-        <v>2141762.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="209"/>
-      <c r="B14" s="204"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="201">
-        <v>2032</v>
-      </c>
-      <c r="F14" s="211">
-        <v>314721.09999999998</v>
-      </c>
-      <c r="G14" s="211">
-        <v>400613.1</v>
-      </c>
-      <c r="H14" s="211">
-        <v>440355.9</v>
-      </c>
-      <c r="I14" s="212">
-        <v>506495.4</v>
-      </c>
-      <c r="J14" s="213">
-        <v>82471.5</v>
-      </c>
-      <c r="K14" s="211">
-        <v>105961.9</v>
-      </c>
-      <c r="L14" s="214">
-        <v>131780.6</v>
-      </c>
-      <c r="M14" s="213">
-        <v>160997.5</v>
-      </c>
-      <c r="N14" s="211">
-        <v>1854796.9</v>
-      </c>
-      <c r="O14" s="212">
-        <v>2334288.1</v>
-      </c>
-      <c r="P14" s="213">
-        <v>2467275.1</v>
-      </c>
-      <c r="Q14" s="213"/>
-      <c r="R14" s="211">
-        <v>3489204.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="209"/>
-      <c r="B15" s="204"/>
-      <c r="C15" s="204"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="201">
-        <v>2036</v>
-      </c>
-      <c r="F15" s="211">
-        <v>384493.7</v>
-      </c>
-      <c r="G15" s="211">
-        <v>538038.9</v>
-      </c>
-      <c r="H15" s="211">
-        <v>613759.19999999995</v>
-      </c>
-      <c r="I15" s="212">
-        <v>745755.4</v>
-      </c>
-      <c r="J15" s="213">
-        <v>101553.2</v>
-      </c>
-      <c r="K15" s="211">
-        <v>143545.60000000001</v>
-      </c>
-      <c r="L15" s="214">
-        <v>195758.8</v>
-      </c>
-      <c r="M15" s="213">
-        <v>238534.8</v>
-      </c>
-      <c r="N15" s="211">
-        <v>1946154.1</v>
-      </c>
-      <c r="O15" s="212">
-        <v>2794143.6</v>
-      </c>
-      <c r="P15" s="213">
-        <v>3047518.4</v>
-      </c>
-      <c r="Q15" s="213"/>
-      <c r="R15" s="211">
-        <v>2141762.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="209"/>
-      <c r="B16" s="204"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="201">
-        <v>2040</v>
-      </c>
-      <c r="F16" s="211">
-        <v>469302.8</v>
-      </c>
-      <c r="G16" s="211">
-        <v>721567.4</v>
-      </c>
-      <c r="H16" s="211">
-        <v>854071.6</v>
-      </c>
-      <c r="I16" s="212">
-        <v>1096055.7</v>
-      </c>
-      <c r="J16" s="213">
-        <v>124789.4</v>
-      </c>
-      <c r="K16" s="211">
-        <v>143545.60000000001</v>
-      </c>
-      <c r="L16" s="214">
-        <v>289428.8</v>
-      </c>
-      <c r="M16" s="213">
-        <v>352057.4</v>
-      </c>
-      <c r="N16" s="211">
-        <v>2046875.6</v>
-      </c>
-      <c r="O16" s="212">
-        <v>3408266.3</v>
-      </c>
-      <c r="P16" s="213">
-        <v>3851652.8</v>
-      </c>
-      <c r="Q16" s="213"/>
-      <c r="R16" s="211">
-        <v>4661382.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="209"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="201">
-        <v>2044</v>
-      </c>
-      <c r="F17" s="211">
-        <v>572388.19999999995</v>
-      </c>
-      <c r="G17" s="211">
-        <v>966663.3</v>
-      </c>
-      <c r="H17" s="211">
-        <v>1187110.6000000001</v>
-      </c>
-      <c r="I17" s="212">
-        <v>1608930.5</v>
-      </c>
-      <c r="J17" s="213">
-        <v>152939.70000000001</v>
-      </c>
-      <c r="K17" s="211">
-        <v>193738.3</v>
-      </c>
-      <c r="L17" s="214">
-        <v>426570.8</v>
-      </c>
-      <c r="M17" s="213">
-        <v>518265.5</v>
-      </c>
-      <c r="N17" s="211">
-        <v>2157921.2999999998</v>
-      </c>
-      <c r="O17" s="212">
-        <v>4228408.7</v>
-      </c>
-      <c r="P17" s="213">
-        <v>4966069.9000000004</v>
-      </c>
-      <c r="Q17" s="213"/>
-      <c r="R17" s="211">
-        <v>6377567</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="209"/>
-      <c r="B18" s="204"/>
-      <c r="C18" s="204"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="201">
-        <v>2048</v>
-      </c>
-      <c r="F18" s="211">
-        <v>697689.7</v>
-      </c>
-      <c r="G18" s="211">
-        <v>1293981.6000000001</v>
-      </c>
-      <c r="H18" s="211">
-        <v>1648655.4</v>
-      </c>
-      <c r="I18" s="212">
-        <v>2359830.7999999998</v>
-      </c>
-      <c r="J18" s="213">
-        <v>187208.1</v>
-      </c>
-      <c r="K18" s="211">
-        <v>260768.8</v>
-      </c>
-      <c r="L18" s="214">
-        <v>627361</v>
-      </c>
-      <c r="M18" s="213">
-        <v>761611</v>
-      </c>
-      <c r="N18" s="211">
-        <v>2280348.7999999998</v>
-      </c>
-      <c r="O18" s="212">
-        <v>5323683</v>
-      </c>
-      <c r="P18" s="213">
-        <v>6510494.5999999996</v>
-      </c>
-      <c r="Q18" s="213"/>
-      <c r="R18" s="211">
-        <v>8890233.1999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="210"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="201">
-        <v>2052</v>
-      </c>
-      <c r="F19" s="211">
-        <v>849994.6</v>
-      </c>
-      <c r="G19" s="211">
-        <v>1731105.1</v>
-      </c>
-      <c r="H19" s="211">
-        <v>2288291.5</v>
-      </c>
-      <c r="I19" s="212">
-        <v>3459223.2</v>
-      </c>
-      <c r="J19" s="213">
-        <v>228861.4</v>
-      </c>
-      <c r="K19" s="211">
-        <v>469833.3</v>
-      </c>
-      <c r="L19" s="214">
-        <v>921337.5</v>
-      </c>
-      <c r="M19" s="213">
-        <v>1117893.2</v>
-      </c>
-      <c r="N19" s="211">
-        <v>2415325.4</v>
-      </c>
-      <c r="O19" s="212">
-        <v>6786388.2000000002</v>
-      </c>
-      <c r="P19" s="213">
-        <v>8650848.8000000007</v>
-      </c>
-      <c r="Q19" s="213"/>
-      <c r="R19" s="211">
-        <v>12569028.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B23" s="215" t="s">
+      <c r="C23" s="203"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="203" t="s">
         <v>313</v>
       </c>
-      <c r="C23" s="215"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="215" t="s">
+      <c r="F23" s="203"/>
+      <c r="G23" s="181" t="s">
         <v>314</v>
       </c>
-      <c r="F23" s="215"/>
-      <c r="G23" s="181" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B24" s="181">
         <v>2019</v>
       </c>
@@ -8929,27 +8797,27 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B25" s="216">
+        <v>315</v>
+      </c>
+      <c r="B25" s="204">
         <f>B49+B50+B51+B52</f>
         <v>70483.322</v>
       </c>
-      <c r="C25" s="216">
+      <c r="C25" s="204">
         <f t="shared" ref="C25:F25" si="0">C49+C50+C51+C52</f>
         <v>62800.626000000004</v>
       </c>
-      <c r="D25" s="216">
+      <c r="D25" s="204">
         <f t="shared" si="0"/>
         <v>70146.457999999999</v>
       </c>
-      <c r="E25" s="216">
+      <c r="E25" s="204">
         <f t="shared" si="0"/>
         <v>79469.299999999988</v>
       </c>
-      <c r="F25" s="216">
+      <c r="F25" s="204">
         <f t="shared" si="0"/>
         <v>82506.92</v>
       </c>
@@ -8994,147 +8862,147 @@
         <v>255877.44500000001</v>
       </c>
       <c r="S25" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="X25" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="X25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:24" s="205" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="205" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" s="217" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="217" t="s">
-        <v>319</v>
-      </c>
-      <c r="B26" s="218">
+      <c r="B26" s="206">
         <f>B49</f>
         <v>10576.44</v>
       </c>
-      <c r="C26" s="218">
+      <c r="C26" s="206">
         <f t="shared" ref="C26:F26" si="1">C49</f>
         <v>9209.482</v>
       </c>
-      <c r="D26" s="218">
+      <c r="D26" s="206">
         <f t="shared" si="1"/>
         <v>10167.26</v>
       </c>
-      <c r="E26" s="218">
+      <c r="E26" s="206">
         <f t="shared" si="1"/>
         <v>10843.81</v>
       </c>
-      <c r="F26" s="218">
+      <c r="F26" s="206">
         <f t="shared" si="1"/>
         <v>13036.67</v>
       </c>
-      <c r="J26" s="217">
+      <c r="J26" s="205">
         <f>Y4*1000</f>
         <v>28200</v>
       </c>
-      <c r="M26" s="217">
+      <c r="M26" s="205">
         <f>Z4*1000</f>
         <v>46900</v>
       </c>
-      <c r="P26" s="217">
+      <c r="P26" s="205">
         <f>AA4*1000</f>
         <v>69300</v>
       </c>
-      <c r="S26" s="217" t="s">
+      <c r="S26" s="205" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" s="181" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="181" t="s">
-        <v>321</v>
       </c>
       <c r="E27" s="181">
         <f>(E50+E52+E51)*0.2777778</f>
         <v>19062.637636122003</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="219" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="219" t="s">
-        <v>322</v>
-      </c>
-      <c r="E28" s="220">
+    <row r="28" spans="1:24" s="207" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="207" t="s">
+        <v>321</v>
+      </c>
+      <c r="E28" s="208">
         <f>E26/E25</f>
         <v>0.1364528188872936</v>
       </c>
-      <c r="O28" s="220">
+      <c r="O28" s="208">
         <f>O26/O25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="181" t="s">
-        <v>323</v>
-      </c>
-      <c r="E29" s="221">
+        <v>322</v>
+      </c>
+      <c r="E29" s="209">
         <f>1-E28</f>
         <v>0.86354718111270645</v>
       </c>
-      <c r="O29" s="222">
+      <c r="O29" s="210">
         <f>1-O28</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="223" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="223" t="s">
-        <v>324</v>
-      </c>
-      <c r="E30" s="224"/>
+    <row r="30" spans="1:24" s="211" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="211" t="s">
+        <v>323</v>
+      </c>
+      <c r="E30" s="212"/>
       <c r="I30" s="182"/>
       <c r="J30" s="183"/>
       <c r="L30" s="184"/>
       <c r="M30" s="183"/>
-      <c r="O30" s="222">
+      <c r="O30" s="210">
         <f>(O25-E25)/E25</f>
         <v>1.1924652916283398</v>
       </c>
       <c r="P30" s="183"/>
       <c r="Q30" s="183"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="181" t="s">
-        <v>325</v>
-      </c>
-      <c r="E31" s="221"/>
-      <c r="O31" s="222">
+        <v>324</v>
+      </c>
+      <c r="E31" s="209"/>
+      <c r="O31" s="210">
         <f>(O26-E26)/E26</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="223" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="223" t="s">
-        <v>326</v>
-      </c>
-      <c r="E32" s="224"/>
+    <row r="32" spans="1:24" s="211" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="211" t="s">
+        <v>325</v>
+      </c>
+      <c r="E32" s="212"/>
       <c r="I32" s="182"/>
       <c r="J32" s="183"/>
       <c r="L32" s="184"/>
       <c r="M32" s="183"/>
-      <c r="O32" s="222">
+      <c r="O32" s="210">
         <f>((O27-E27)/E27)</f>
         <v>-1</v>
       </c>
       <c r="P32" s="183"/>
       <c r="Q32" s="183"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E33" s="221"/>
-      <c r="O33" s="222"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E34" s="221"/>
-      <c r="O34" s="222"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E35" s="221"/>
-      <c r="O35" s="222"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E36" s="221"/>
-      <c r="O36" s="222"/>
-    </row>
-    <row r="37" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="225" t="s">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E33" s="209"/>
+      <c r="O33" s="210"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E34" s="209"/>
+      <c r="O34" s="210"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E35" s="209"/>
+      <c r="O35" s="210"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E36" s="209"/>
+      <c r="O36" s="210"/>
+    </row>
+    <row r="37" spans="1:20" s="213" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="213" t="s">
         <v>161</v>
       </c>
       <c r="I37" s="182"/>
@@ -9145,15 +9013,15 @@
       <c r="P37" s="183"/>
       <c r="Q37" s="183"/>
     </row>
-    <row r="38" spans="1:20" s="226" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="226" t="s">
-        <v>327</v>
-      </c>
-      <c r="E38" s="226">
+    <row r="38" spans="1:20" s="214" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="214" t="s">
+        <v>326</v>
+      </c>
+      <c r="E38" s="214">
         <f>10301.62*0.2777778</f>
         <v>2861.5613400360003</v>
       </c>
-      <c r="F38" s="227">
+      <c r="F38" s="215">
         <f>28990435.88*0.2777778</f>
         <v>8052899.4997874638</v>
       </c>
@@ -9162,45 +9030,45 @@
       <c r="L38" s="184"/>
       <c r="M38" s="183"/>
       <c r="O38" s="182"/>
-      <c r="P38" s="228"/>
-      <c r="Q38" s="228"/>
-      <c r="T38" s="226" t="s">
+      <c r="P38" s="216"/>
+      <c r="Q38" s="216"/>
+      <c r="T38" s="214" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="213" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="213" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="225" t="s">
-        <v>329</v>
-      </c>
-      <c r="E39" s="225">
+      <c r="E39" s="213">
         <f>(E56+E57+E58)*0.2777778</f>
         <v>10281.181933605601</v>
       </c>
-      <c r="F39" s="229"/>
+      <c r="F39" s="217"/>
       <c r="I39" s="182"/>
       <c r="J39" s="183"/>
       <c r="L39" s="184"/>
       <c r="M39" s="183"/>
       <c r="O39" s="182"/>
-      <c r="P39" s="228"/>
-      <c r="Q39" s="228"/>
-      <c r="R39" s="229">
+      <c r="P39" s="216"/>
+      <c r="Q39" s="216"/>
+      <c r="R39" s="217">
         <f>(O39-E39)/E39</f>
         <v>-1</v>
       </c>
-      <c r="T39" s="225" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="225" t="s">
+      <c r="T39" s="213" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="213" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="213" t="s">
         <v>160</v>
       </c>
-      <c r="E40" s="225">
+      <c r="E40" s="213">
         <f>E56*0.2777778</f>
         <v>2605.1202084096003</v>
       </c>
-      <c r="F40" s="229"/>
+      <c r="F40" s="217"/>
       <c r="I40" s="182"/>
       <c r="J40" s="183"/>
       <c r="L40" s="184"/>
@@ -9208,20 +9076,20 @@
       <c r="O40" s="182"/>
       <c r="P40" s="183"/>
       <c r="Q40" s="183"/>
-      <c r="R40" s="229"/>
-      <c r="T40" s="225" t="s">
+      <c r="R40" s="217"/>
+      <c r="T40" s="213" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="213" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="213" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="225" t="s">
-        <v>332</v>
-      </c>
-      <c r="E41" s="225">
+      <c r="E41" s="213">
         <f>E57*0.2777778</f>
         <v>4518.4003614720004</v>
       </c>
-      <c r="F41" s="229"/>
+      <c r="F41" s="217"/>
       <c r="I41" s="182"/>
       <c r="J41" s="183"/>
       <c r="L41" s="184"/>
@@ -9229,20 +9097,20 @@
       <c r="O41" s="182"/>
       <c r="P41" s="183"/>
       <c r="Q41" s="183"/>
-      <c r="R41" s="229"/>
-      <c r="T41" s="225" t="s">
+      <c r="R41" s="217"/>
+      <c r="T41" s="213" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="213" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="213" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="225" t="s">
-        <v>334</v>
-      </c>
-      <c r="E42" s="225">
+      <c r="E42" s="213">
         <f>E58*0.2777778</f>
         <v>3157.6613637240002</v>
       </c>
-      <c r="F42" s="229"/>
+      <c r="F42" s="217"/>
       <c r="I42" s="182"/>
       <c r="J42" s="183"/>
       <c r="L42" s="184"/>
@@ -9250,21 +9118,21 @@
       <c r="O42" s="182"/>
       <c r="P42" s="183"/>
       <c r="Q42" s="183"/>
-      <c r="R42" s="229"/>
-    </row>
-    <row r="43" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="225" t="s">
-        <v>335</v>
-      </c>
-      <c r="E43" s="225">
+      <c r="R42" s="217"/>
+    </row>
+    <row r="43" spans="1:20" s="213" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="213" t="s">
+        <v>334</v>
+      </c>
+      <c r="E43" s="213">
         <f>E41+E42</f>
         <v>7676.0617251960011</v>
       </c>
-      <c r="F43" s="230">
+      <c r="F43" s="218">
         <f>29343.096*0.2777778</f>
         <v>8150.8606520688008</v>
       </c>
-      <c r="G43" s="225">
+      <c r="G43" s="213">
         <f>E43/0.2777778</f>
         <v>27633.820000000003</v>
       </c>
@@ -9275,9 +9143,9 @@
       <c r="O43" s="182"/>
       <c r="P43" s="183"/>
       <c r="Q43" s="183"/>
-      <c r="R43" s="229"/>
-    </row>
-    <row r="44" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R43" s="217"/>
+    </row>
+    <row r="44" spans="1:20" s="213" customFormat="1" x14ac:dyDescent="0.35">
       <c r="I44" s="182"/>
       <c r="J44" s="183"/>
       <c r="L44" s="184"/>
@@ -9285,411 +9153,411 @@
       <c r="O44" s="182"/>
       <c r="P44" s="183"/>
       <c r="Q44" s="183"/>
-      <c r="R44" s="229"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R44" s="217"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="E45" s="231">
+        <v>335</v>
+      </c>
+      <c r="E45" s="219">
         <f>E39/(E38+E39)</f>
         <v>0.78227062033730832</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="181" t="s">
-        <v>337</v>
-      </c>
-      <c r="E46" s="221">
+        <v>336</v>
+      </c>
+      <c r="E46" s="209">
         <f>E38/(E38+E39)</f>
         <v>0.21772937966269174</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="225" t="s">
-        <v>338</v>
-      </c>
-      <c r="B47" s="225"/>
-      <c r="C47" s="225"/>
-      <c r="D47" s="225"/>
-      <c r="O47" s="222">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A47" s="213" t="s">
+        <v>337</v>
+      </c>
+      <c r="B47" s="213"/>
+      <c r="C47" s="213"/>
+      <c r="D47" s="213"/>
+      <c r="O47" s="210">
         <f>(O38-E38)/E38</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="232" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="232" t="s">
+    <row r="48" spans="1:20" s="220" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="220" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="232">
+      <c r="B48" s="220">
         <f>B24</f>
         <v>2019</v>
       </c>
-      <c r="C48" s="232">
+      <c r="C48" s="220">
         <f t="shared" ref="C48:R48" si="2">C24</f>
         <v>2020</v>
       </c>
-      <c r="D48" s="232">
+      <c r="D48" s="220">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="E48" s="232">
+      <c r="E48" s="220">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="F48" s="232">
+      <c r="F48" s="220">
         <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="G48" s="232">
+      <c r="G48" s="220">
         <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="H48" s="232">
+      <c r="H48" s="220">
         <f t="shared" si="2"/>
         <v>2025</v>
       </c>
-      <c r="I48" s="232">
+      <c r="I48" s="220">
         <f t="shared" si="2"/>
         <v>2028</v>
       </c>
-      <c r="J48" s="232">
+      <c r="J48" s="220">
         <f t="shared" si="2"/>
         <v>2030</v>
       </c>
-      <c r="K48" s="232">
+      <c r="K48" s="220">
         <f t="shared" si="2"/>
         <v>2032</v>
       </c>
-      <c r="L48" s="232">
+      <c r="L48" s="220">
         <f t="shared" si="2"/>
         <v>2036</v>
       </c>
-      <c r="M48" s="232">
+      <c r="M48" s="220">
         <f t="shared" si="2"/>
         <v>2040</v>
       </c>
-      <c r="N48" s="232">
+      <c r="N48" s="220">
         <f t="shared" si="2"/>
         <v>2044</v>
       </c>
-      <c r="O48" s="232">
+      <c r="O48" s="220">
         <f t="shared" si="2"/>
         <v>2048</v>
       </c>
-      <c r="P48" s="232">
+      <c r="P48" s="220">
         <f t="shared" si="2"/>
         <v>2050</v>
       </c>
-      <c r="R48" s="232">
+      <c r="R48" s="220">
         <f t="shared" si="2"/>
         <v>2052</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="181" t="s">
+        <v>338</v>
+      </c>
+      <c r="B49" s="221">
+        <v>10576.44</v>
+      </c>
+      <c r="C49" s="221">
+        <v>9209.482</v>
+      </c>
+      <c r="D49" s="221">
+        <v>10167.26</v>
+      </c>
+      <c r="E49" s="221">
+        <v>10843.81</v>
+      </c>
+      <c r="F49" s="221">
+        <v>13036.67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="181" t="s">
         <v>339</v>
       </c>
-      <c r="B49" s="233">
-        <v>10576.44</v>
-      </c>
-      <c r="C49" s="233">
-        <v>9209.482</v>
-      </c>
-      <c r="D49" s="233">
-        <v>10167.26</v>
-      </c>
-      <c r="E49" s="233">
-        <v>10843.81</v>
-      </c>
-      <c r="F49" s="233">
-        <v>13036.67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="181" t="s">
-        <v>340</v>
-      </c>
-      <c r="B50" s="233">
+      <c r="B50" s="221">
         <v>15875.22</v>
       </c>
-      <c r="C50" s="233">
+      <c r="C50" s="221">
         <v>8280.7870000000003</v>
       </c>
-      <c r="D50" s="233">
+      <c r="D50" s="221">
         <v>11261.34</v>
       </c>
-      <c r="E50" s="233">
+      <c r="E50" s="221">
         <f>E58</f>
         <v>11367.58</v>
       </c>
-      <c r="F50" s="233">
+      <c r="F50" s="221">
         <v>11367.58</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="181" t="s">
-        <v>341</v>
-      </c>
-      <c r="B51" s="233">
+        <v>340</v>
+      </c>
+      <c r="B51" s="221">
         <v>136.322</v>
       </c>
-      <c r="C51" s="233">
+      <c r="C51" s="221">
         <v>5783.4470000000001</v>
       </c>
-      <c r="D51" s="233">
+      <c r="D51" s="221">
         <v>6232.6379999999999</v>
       </c>
-      <c r="E51" s="233">
+      <c r="E51" s="221">
         <f>E57</f>
         <v>16266.24</v>
       </c>
-      <c r="F51" s="233">
+      <c r="F51" s="221">
         <v>17976.259999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="181" t="s">
+        <v>341</v>
+      </c>
+      <c r="B52" s="221">
+        <v>43895.34</v>
+      </c>
+      <c r="C52" s="221">
+        <v>39526.910000000003</v>
+      </c>
+      <c r="D52" s="221">
+        <v>42485.22</v>
+      </c>
+      <c r="E52" s="221">
+        <v>40991.67</v>
+      </c>
+      <c r="F52" s="221">
+        <v>40126.410000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="181" t="s">
         <v>342</v>
       </c>
-      <c r="B52" s="233">
-        <v>43895.34</v>
-      </c>
-      <c r="C52" s="233">
-        <v>39526.910000000003</v>
-      </c>
-      <c r="D52" s="233">
-        <v>42485.22</v>
-      </c>
-      <c r="E52" s="233">
-        <v>40991.67</v>
-      </c>
-      <c r="F52" s="233">
-        <v>40126.410000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="181" t="s">
-        <v>343</v>
-      </c>
-      <c r="B53" s="233">
+      <c r="B53" s="221">
         <f>SUM(B49:B52)</f>
         <v>70483.322</v>
       </c>
-      <c r="C53" s="233">
+      <c r="C53" s="221">
         <f t="shared" ref="C53:F53" si="3">SUM(C49:C52)</f>
         <v>62800.626000000004</v>
       </c>
-      <c r="D53" s="233">
+      <c r="D53" s="221">
         <f t="shared" si="3"/>
         <v>70146.457999999999</v>
       </c>
-      <c r="E53" s="233">
+      <c r="E53" s="221">
         <f t="shared" si="3"/>
         <v>79469.299999999988</v>
       </c>
-      <c r="F53" s="233">
+      <c r="F53" s="221">
         <f t="shared" si="3"/>
         <v>82506.92</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B54" s="233"/>
-      <c r="C54" s="233"/>
-      <c r="D54" s="233"/>
-      <c r="E54" s="233"/>
-      <c r="F54" s="233"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B54" s="221"/>
+      <c r="C54" s="221"/>
+      <c r="D54" s="221"/>
+      <c r="E54" s="221"/>
+      <c r="F54" s="221"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="181" t="s">
-        <v>344</v>
-      </c>
-      <c r="B55" s="233">
+        <v>343</v>
+      </c>
+      <c r="B55" s="221">
         <f>0.95*B49</f>
         <v>10047.618</v>
       </c>
-      <c r="C55" s="233">
+      <c r="C55" s="221">
         <f>C49*0.95</f>
         <v>8749.0078999999987</v>
       </c>
-      <c r="D55" s="233">
+      <c r="D55" s="221">
         <f>0.95*D49</f>
         <v>9658.896999999999</v>
       </c>
-      <c r="E55" s="233">
+      <c r="E55" s="221">
         <f>E49*0.95</f>
         <v>10301.619499999999</v>
       </c>
-      <c r="F55" s="233">
+      <c r="F55" s="221">
         <f>0.95*F49</f>
         <v>12384.836499999999</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="181" t="s">
-        <v>345</v>
-      </c>
-      <c r="B56" s="233">
+        <v>344</v>
+      </c>
+      <c r="B56" s="221">
         <v>9120.0020000000004</v>
       </c>
-      <c r="C56" s="233">
+      <c r="C56" s="221">
         <f>9065.598</f>
         <v>9065.598</v>
       </c>
-      <c r="D56" s="233">
+      <c r="D56" s="221">
         <v>9113.6</v>
       </c>
-      <c r="E56" s="233">
+      <c r="E56" s="221">
         <f>9378.432</f>
         <v>9378.4320000000007</v>
       </c>
-      <c r="F56" s="233">
+      <c r="F56" s="221">
         <v>10051.008</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="181" t="s">
-        <v>346</v>
-      </c>
-      <c r="B57" s="233">
+        <v>345</v>
+      </c>
+      <c r="B57" s="221">
         <f>B51</f>
         <v>136.322</v>
       </c>
-      <c r="C57" s="233">
+      <c r="C57" s="221">
         <f>C51</f>
         <v>5783.4470000000001</v>
       </c>
-      <c r="D57" s="233">
+      <c r="D57" s="221">
         <f>D51</f>
         <v>6232.6379999999999</v>
       </c>
-      <c r="E57" s="233">
+      <c r="E57" s="221">
         <v>16266.24</v>
       </c>
-      <c r="F57" s="233">
+      <c r="F57" s="221">
         <f>F51</f>
         <v>17976.259999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="181" t="s">
-        <v>347</v>
-      </c>
-      <c r="B58" s="233">
+        <v>346</v>
+      </c>
+      <c r="B58" s="221">
         <f>B50</f>
         <v>15875.22</v>
       </c>
-      <c r="C58" s="233">
+      <c r="C58" s="221">
         <f>C50</f>
         <v>8280.7870000000003</v>
       </c>
-      <c r="D58" s="233">
+      <c r="D58" s="221">
         <f>D50</f>
         <v>11261.34</v>
       </c>
-      <c r="E58" s="234">
+      <c r="E58" s="222">
         <v>11367.58</v>
       </c>
-      <c r="F58" s="233">
+      <c r="F58" s="221">
         <f>F50</f>
         <v>11367.58</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B59" s="233"/>
-      <c r="C59" s="233"/>
-      <c r="D59" s="233"/>
-      <c r="E59" s="234"/>
-      <c r="F59" s="233"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B59" s="221"/>
+      <c r="C59" s="221"/>
+      <c r="D59" s="221"/>
+      <c r="E59" s="222"/>
+      <c r="F59" s="221"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="181" t="s">
-        <v>348</v>
-      </c>
-      <c r="B60" s="233">
+        <v>347</v>
+      </c>
+      <c r="B60" s="221">
         <f>B49-B55</f>
         <v>528.82200000000012</v>
       </c>
-      <c r="C60" s="233">
+      <c r="C60" s="221">
         <f t="shared" ref="C60:F60" si="4">C49-C55</f>
         <v>460.47410000000127</v>
       </c>
-      <c r="D60" s="233">
+      <c r="D60" s="221">
         <f t="shared" si="4"/>
         <v>508.36300000000119</v>
       </c>
-      <c r="E60" s="233">
+      <c r="E60" s="221">
         <f t="shared" si="4"/>
         <v>542.19050000000061</v>
       </c>
-      <c r="F60" s="233">
+      <c r="F60" s="221">
         <f t="shared" si="4"/>
         <v>651.83350000000064</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="181" t="s">
-        <v>349</v>
-      </c>
-      <c r="B61" s="233">
+        <v>348</v>
+      </c>
+      <c r="B61" s="221">
         <f>B52-B56</f>
         <v>34775.337999999996</v>
       </c>
-      <c r="C61" s="233">
+      <c r="C61" s="221">
         <f t="shared" ref="C61:F61" si="5">C52-C56</f>
         <v>30461.312000000005</v>
       </c>
-      <c r="D61" s="233">
+      <c r="D61" s="221">
         <f t="shared" si="5"/>
         <v>33371.620000000003</v>
       </c>
-      <c r="E61" s="233">
+      <c r="E61" s="221">
         <f t="shared" si="5"/>
         <v>31613.237999999998</v>
       </c>
-      <c r="F61" s="233">
+      <c r="F61" s="221">
         <f t="shared" si="5"/>
         <v>30075.402000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E62" s="235"/>
-    </row>
-    <row r="63" spans="1:17" ht="45.6" x14ac:dyDescent="0.5">
-      <c r="A63" s="236" t="s">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E62" s="223"/>
+    </row>
+    <row r="63" spans="1:17" ht="46" x14ac:dyDescent="0.6">
+      <c r="A63" s="224" t="s">
+        <v>349</v>
+      </c>
+      <c r="G63" s="181" t="s">
         <v>350</v>
       </c>
-      <c r="G63" s="181" t="s">
+      <c r="J63" s="225" t="s">
         <v>351</v>
       </c>
-      <c r="J63" s="237" t="s">
+      <c r="O63" s="226"/>
+      <c r="P63" s="226" t="s">
         <v>352</v>
       </c>
-      <c r="O63" s="238"/>
-      <c r="P63" s="238" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" s="232" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="232" t="s">
+    </row>
+    <row r="64" spans="1:17" s="220" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="220" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="232">
+      <c r="B64" s="220">
         <v>2019</v>
       </c>
-      <c r="C64" s="232">
+      <c r="C64" s="220">
         <v>2020</v>
       </c>
-      <c r="D64" s="232">
+      <c r="D64" s="220">
         <v>2021</v>
       </c>
-      <c r="E64" s="232">
+      <c r="E64" s="220">
         <v>2022</v>
       </c>
-      <c r="F64" s="232">
+      <c r="F64" s="220">
         <v>2023</v>
       </c>
-      <c r="H64" s="232">
+      <c r="H64" s="220">
         <v>2024</v>
       </c>
       <c r="I64" s="182">
@@ -9700,7 +9568,7 @@
         <f t="shared" ref="J64:P64" si="6">J24</f>
         <v>2030</v>
       </c>
-      <c r="K64" s="232">
+      <c r="K64" s="220">
         <f t="shared" si="6"/>
         <v>2032</v>
       </c>
@@ -9712,7 +9580,7 @@
         <f t="shared" si="6"/>
         <v>2040</v>
       </c>
-      <c r="N64" s="232">
+      <c r="N64" s="220">
         <f t="shared" si="6"/>
         <v>2044</v>
       </c>
@@ -9728,416 +9596,416 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="B65" s="233">
+        <v>353</v>
+      </c>
+      <c r="B65" s="221">
         <f>(B49+B50+B51+B52)/3.6</f>
         <v>19578.700555555555</v>
       </c>
-      <c r="C65" s="233">
+      <c r="C65" s="221">
         <f t="shared" ref="C65:F65" si="7">(C49+C50+C51+C52)/3.6</f>
         <v>17444.618333333336</v>
       </c>
-      <c r="D65" s="233">
+      <c r="D65" s="221">
         <f t="shared" si="7"/>
         <v>19485.127222222221</v>
       </c>
-      <c r="E65" s="233">
+      <c r="E65" s="221">
         <f t="shared" si="7"/>
         <v>22074.805555555551</v>
       </c>
-      <c r="F65" s="233">
+      <c r="F65" s="221">
         <f t="shared" si="7"/>
         <v>22918.588888888888</v>
       </c>
-      <c r="G65" s="239">
+      <c r="G65" s="227">
         <f>(F65/D65)^(1/(F64-B64))-1</f>
         <v>4.1408593708299968E-2</v>
       </c>
-      <c r="H65" s="240">
+      <c r="H65" s="228">
         <f>L4*11.63</f>
         <v>16173.841000000002</v>
       </c>
-      <c r="I65" s="241">
+      <c r="I65" s="229">
         <f>L5*11.63</f>
         <v>24462.542000000001</v>
       </c>
-      <c r="J65" s="242">
+      <c r="J65" s="230">
         <f>(I65+K65)/2</f>
         <v>30530.494500000001</v>
       </c>
-      <c r="K65" s="240">
+      <c r="K65" s="228">
         <f>L6*11.63</f>
         <v>36598.447</v>
       </c>
-      <c r="L65" s="243">
+      <c r="L65" s="231">
         <f>L7*11.63</f>
         <v>54366.760999999999</v>
       </c>
-      <c r="M65" s="242">
+      <c r="M65" s="230">
         <f>L8*11.63</f>
         <v>80381.90800000001</v>
       </c>
-      <c r="N65" s="240">
+      <c r="N65" s="228">
         <f>L9*11.63</f>
         <v>118468.99500000001</v>
       </c>
-      <c r="O65" s="241">
+      <c r="O65" s="229">
         <f>L10*11.63</f>
         <v>174233.682</v>
       </c>
-      <c r="P65" s="242">
+      <c r="P65" s="230">
         <f>(O65+Q65)/2</f>
         <v>215055.56349999999</v>
       </c>
-      <c r="Q65" s="242">
+      <c r="Q65" s="230">
         <f>L11*11.63</f>
         <v>255877.44500000001</v>
       </c>
-      <c r="R65" s="233"/>
-      <c r="S65" s="233" t="s">
+      <c r="R65" s="221"/>
+      <c r="S65" s="221" t="s">
+        <v>354</v>
+      </c>
+      <c r="T65" s="221"/>
+      <c r="U65" s="221"/>
+      <c r="V65" s="221"/>
+      <c r="W65" s="221"/>
+      <c r="X65" s="221"/>
+      <c r="Y65" s="221"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A66" s="181" t="s">
         <v>355</v>
       </c>
-      <c r="T65" s="233"/>
-      <c r="U65" s="233"/>
-      <c r="V65" s="233"/>
-      <c r="W65" s="233"/>
-      <c r="X65" s="233"/>
-      <c r="Y65" s="233"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A66" s="181" t="s">
-        <v>356</v>
-      </c>
-      <c r="B66" s="233">
+      <c r="B66" s="221">
         <f>B49/3.6</f>
         <v>2937.9</v>
       </c>
-      <c r="C66" s="233">
+      <c r="C66" s="221">
         <f t="shared" ref="C66:F66" si="8">C49/3.6</f>
         <v>2558.1894444444442</v>
       </c>
-      <c r="D66" s="233">
+      <c r="D66" s="221">
         <f t="shared" si="8"/>
         <v>2824.2388888888891</v>
       </c>
-      <c r="E66" s="233">
+      <c r="E66" s="221">
         <f t="shared" si="8"/>
         <v>3012.1694444444443</v>
       </c>
-      <c r="F66" s="233">
+      <c r="F66" s="221">
         <f t="shared" si="8"/>
         <v>3621.297222222222</v>
       </c>
-      <c r="G66" s="239">
+      <c r="G66" s="227">
         <f>(F66/B66)^(1/(F64-B64))-1</f>
         <v>5.3675278227879542E-2</v>
       </c>
-      <c r="H66" s="240"/>
-      <c r="I66" s="241"/>
-      <c r="J66" s="242"/>
-      <c r="K66" s="240"/>
-      <c r="L66" s="243"/>
-      <c r="M66" s="242"/>
-      <c r="N66" s="240"/>
-      <c r="O66" s="241"/>
-      <c r="P66" s="242"/>
-      <c r="Q66" s="242"/>
-      <c r="R66" s="233"/>
-      <c r="S66" s="233"/>
-      <c r="T66" s="233"/>
-      <c r="U66" s="233"/>
-      <c r="V66" s="233"/>
-      <c r="W66" s="233"/>
-      <c r="X66" s="233"/>
-      <c r="Y66" s="233"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H66" s="228"/>
+      <c r="I66" s="229"/>
+      <c r="J66" s="230"/>
+      <c r="K66" s="228"/>
+      <c r="L66" s="231"/>
+      <c r="M66" s="230"/>
+      <c r="N66" s="228"/>
+      <c r="O66" s="229"/>
+      <c r="P66" s="230"/>
+      <c r="Q66" s="230"/>
+      <c r="R66" s="221"/>
+      <c r="S66" s="221"/>
+      <c r="T66" s="221"/>
+      <c r="U66" s="221"/>
+      <c r="V66" s="221"/>
+      <c r="W66" s="221"/>
+      <c r="X66" s="221"/>
+      <c r="Y66" s="221"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="B67" s="233">
+        <v>356</v>
+      </c>
+      <c r="B67" s="221">
         <f>(B50+B51+B52)/3.6</f>
         <v>16640.800555555554</v>
       </c>
-      <c r="C67" s="233">
+      <c r="C67" s="221">
         <f t="shared" ref="C67:F67" si="9">(C50+C51+C52)/3.6</f>
         <v>14886.428888888888</v>
       </c>
-      <c r="D67" s="233">
+      <c r="D67" s="221">
         <f t="shared" si="9"/>
         <v>16660.888333333332</v>
       </c>
-      <c r="E67" s="233">
+      <c r="E67" s="221">
         <f t="shared" si="9"/>
         <v>19062.636111111107</v>
       </c>
-      <c r="F67" s="233">
+      <c r="F67" s="221">
         <f t="shared" si="9"/>
         <v>19297.291666666668</v>
       </c>
-      <c r="G67" s="239">
+      <c r="G67" s="227">
         <f>(F67/B67)^(1/(F64-B64))-1</f>
         <v>3.7720834851399765E-2</v>
       </c>
-      <c r="H67" s="240"/>
-      <c r="I67" s="241"/>
-      <c r="J67" s="242"/>
-      <c r="K67" s="240"/>
-      <c r="L67" s="243"/>
-      <c r="M67" s="242"/>
-      <c r="N67" s="240"/>
-      <c r="O67" s="241"/>
-      <c r="P67" s="242"/>
-      <c r="Q67" s="242"/>
-      <c r="R67" s="233"/>
-      <c r="S67" s="233"/>
-      <c r="T67" s="233"/>
-      <c r="U67" s="233"/>
-      <c r="V67" s="233"/>
-      <c r="W67" s="233"/>
-      <c r="X67" s="233"/>
-      <c r="Y67" s="233"/>
-    </row>
-    <row r="68" spans="1:25" s="244" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="244" t="s">
-        <v>358</v>
-      </c>
-      <c r="B68" s="245">
+      <c r="H67" s="228"/>
+      <c r="I67" s="229"/>
+      <c r="J67" s="230"/>
+      <c r="K67" s="228"/>
+      <c r="L67" s="231"/>
+      <c r="M67" s="230"/>
+      <c r="N67" s="228"/>
+      <c r="O67" s="229"/>
+      <c r="P67" s="230"/>
+      <c r="Q67" s="230"/>
+      <c r="R67" s="221"/>
+      <c r="S67" s="221"/>
+      <c r="T67" s="221"/>
+      <c r="U67" s="221"/>
+      <c r="V67" s="221"/>
+      <c r="W67" s="221"/>
+      <c r="X67" s="221"/>
+      <c r="Y67" s="221"/>
+    </row>
+    <row r="68" spans="1:25" s="232" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="232" t="s">
+        <v>357</v>
+      </c>
+      <c r="B68" s="233">
         <f>B55/3.6</f>
         <v>2791.0050000000001</v>
       </c>
-      <c r="C68" s="245">
+      <c r="C68" s="233">
         <f t="shared" ref="C68:F68" si="10">C55/3.6</f>
         <v>2430.2799722222217</v>
       </c>
-      <c r="D68" s="245">
+      <c r="D68" s="233">
         <f t="shared" si="10"/>
         <v>2683.0269444444443</v>
       </c>
-      <c r="E68" s="245">
+      <c r="E68" s="233">
         <f t="shared" si="10"/>
         <v>2861.5609722222221</v>
       </c>
-      <c r="F68" s="245">
+      <c r="F68" s="233">
         <f t="shared" si="10"/>
         <v>3440.232361111111</v>
       </c>
-      <c r="G68" s="239">
+      <c r="G68" s="227">
         <f>(F68/B68)^(1/(F64-B64))-1</f>
         <v>5.3675278227879542E-2</v>
       </c>
-      <c r="H68" s="245"/>
-      <c r="I68" s="245"/>
-      <c r="J68" s="245">
+      <c r="H68" s="233"/>
+      <c r="I68" s="233"/>
+      <c r="J68" s="233">
         <f>J26*0.95</f>
         <v>26790</v>
       </c>
-      <c r="K68" s="245">
+      <c r="K68" s="233">
         <f>E68*(1+G68)^(J64-E64)</f>
         <v>4347.6775685872717</v>
       </c>
-      <c r="L68" s="245"/>
-      <c r="M68" s="245">
+      <c r="L68" s="233"/>
+      <c r="M68" s="233">
         <f>M26*0.95</f>
         <v>44555</v>
       </c>
-      <c r="N68" s="245">
+      <c r="N68" s="233">
         <f>E68*(1+G68)^(M64-E64)</f>
         <v>7333.7353602111407</v>
       </c>
-      <c r="O68" s="245"/>
-      <c r="P68" s="245">
+      <c r="O68" s="233"/>
+      <c r="P68" s="233">
         <f>P26*0.95</f>
         <v>65835</v>
       </c>
-      <c r="Q68" s="245"/>
-      <c r="S68" s="244" t="s">
+      <c r="Q68" s="233"/>
+      <c r="S68" s="232" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" s="234" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="234" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" s="246" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="246" t="s">
-        <v>360</v>
-      </c>
-      <c r="B69" s="247">
+      <c r="B69" s="235">
         <f t="shared" ref="B69:F71" si="11">B56/3.6</f>
         <v>2533.3338888888889</v>
       </c>
-      <c r="C69" s="247">
+      <c r="C69" s="235">
         <f t="shared" si="11"/>
         <v>2518.2216666666668</v>
       </c>
-      <c r="D69" s="247">
+      <c r="D69" s="235">
         <f t="shared" si="11"/>
         <v>2531.5555555555557</v>
       </c>
-      <c r="E69" s="247">
+      <c r="E69" s="235">
         <f t="shared" si="11"/>
         <v>2605.1200000000003</v>
       </c>
-      <c r="F69" s="247">
+      <c r="F69" s="235">
         <f t="shared" si="11"/>
         <v>2791.9466666666667</v>
       </c>
-      <c r="G69" s="239">
+      <c r="G69" s="227">
         <f>(F69/B69)^(1/(F64-B64))-1</f>
         <v>2.4598395095139836E-2</v>
       </c>
-      <c r="I69" s="248"/>
-      <c r="J69" s="249"/>
-      <c r="L69" s="250"/>
-      <c r="M69" s="249"/>
-      <c r="O69" s="248"/>
-      <c r="P69" s="249"/>
-      <c r="Q69" s="249"/>
-    </row>
-    <row r="70" spans="1:25" s="251" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="251" t="s">
-        <v>361</v>
-      </c>
-      <c r="B70" s="252">
+      <c r="I69" s="236"/>
+      <c r="J69" s="237"/>
+      <c r="L69" s="238"/>
+      <c r="M69" s="237"/>
+      <c r="O69" s="236"/>
+      <c r="P69" s="237"/>
+      <c r="Q69" s="237"/>
+    </row>
+    <row r="70" spans="1:25" s="239" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="239" t="s">
+        <v>360</v>
+      </c>
+      <c r="B70" s="240">
         <f>B58/3.6</f>
         <v>4409.7833333333328</v>
       </c>
-      <c r="C70" s="252">
+      <c r="C70" s="240">
         <f t="shared" si="11"/>
         <v>1606.5130555555556</v>
       </c>
-      <c r="D70" s="252">
+      <c r="D70" s="240">
         <f t="shared" si="11"/>
         <v>1731.2883333333332</v>
       </c>
-      <c r="E70" s="252">
+      <c r="E70" s="240">
         <f t="shared" si="11"/>
         <v>4518.3999999999996</v>
       </c>
-      <c r="F70" s="252">
+      <c r="F70" s="240">
         <f t="shared" si="11"/>
         <v>4993.4055555555551</v>
       </c>
-      <c r="G70" s="239">
+      <c r="G70" s="227">
         <f>(F70/B70)^(1/(F64-B64))-1</f>
         <v>3.1560958665195482E-2</v>
       </c>
-      <c r="I70" s="253"/>
-      <c r="J70" s="254"/>
-      <c r="L70" s="255"/>
-      <c r="M70" s="254"/>
-      <c r="O70" s="253"/>
-      <c r="P70" s="254"/>
-      <c r="Q70" s="254"/>
-    </row>
-    <row r="71" spans="1:25" s="256" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="256" t="s">
-        <v>362</v>
-      </c>
-      <c r="B71" s="257">
+      <c r="I70" s="241"/>
+      <c r="J70" s="242"/>
+      <c r="L70" s="243"/>
+      <c r="M70" s="242"/>
+      <c r="O70" s="241"/>
+      <c r="P70" s="242"/>
+      <c r="Q70" s="242"/>
+    </row>
+    <row r="71" spans="1:25" s="244" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="244" t="s">
+        <v>361</v>
+      </c>
+      <c r="B71" s="245">
         <f>B57/3.6</f>
         <v>37.867222222222225</v>
       </c>
-      <c r="C71" s="257">
+      <c r="C71" s="245">
         <f t="shared" si="11"/>
         <v>2300.2186111111109</v>
       </c>
-      <c r="D71" s="257">
+      <c r="D71" s="245">
         <f t="shared" si="11"/>
         <v>3128.15</v>
       </c>
-      <c r="E71" s="257">
+      <c r="E71" s="245">
         <f t="shared" si="11"/>
         <v>3157.661111111111</v>
       </c>
-      <c r="F71" s="257">
+      <c r="F71" s="245">
         <f t="shared" si="11"/>
         <v>3157.661111111111</v>
       </c>
-      <c r="G71" s="239">
+      <c r="G71" s="227">
         <f>(F71/C71)^(1/(F64-C64))-1</f>
         <v>0.11138739921046215</v>
       </c>
-      <c r="I71" s="258"/>
-      <c r="J71" s="259"/>
-      <c r="L71" s="260"/>
-      <c r="M71" s="259"/>
-      <c r="O71" s="258"/>
-      <c r="P71" s="259"/>
-      <c r="Q71" s="259"/>
-    </row>
-    <row r="72" spans="1:25" s="256" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="256" t="s">
-        <v>363</v>
-      </c>
-      <c r="B72" s="257">
+      <c r="I71" s="246"/>
+      <c r="J71" s="247"/>
+      <c r="L71" s="248"/>
+      <c r="M71" s="247"/>
+      <c r="O71" s="246"/>
+      <c r="P71" s="247"/>
+      <c r="Q71" s="247"/>
+    </row>
+    <row r="72" spans="1:25" s="244" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="244" t="s">
+        <v>362</v>
+      </c>
+      <c r="B72" s="245">
         <f>B69+B70+B71</f>
         <v>6980.9844444444434</v>
       </c>
-      <c r="C72" s="257">
+      <c r="C72" s="245">
         <f t="shared" ref="C72:F72" si="12">C69+C70+C71</f>
         <v>6424.9533333333329</v>
       </c>
-      <c r="D72" s="257">
+      <c r="D72" s="245">
         <f t="shared" si="12"/>
         <v>7390.9938888888883</v>
       </c>
-      <c r="E72" s="257">
+      <c r="E72" s="245">
         <f t="shared" si="12"/>
         <v>10281.181111111111</v>
       </c>
-      <c r="F72" s="257">
+      <c r="F72" s="245">
         <f t="shared" si="12"/>
         <v>10943.013333333332</v>
       </c>
-      <c r="G72" s="239">
+      <c r="G72" s="227">
         <f>(F72/B72)^(1/(F64-B64))-1</f>
         <v>0.11893553034658932</v>
       </c>
-      <c r="I72" s="258"/>
-      <c r="J72" s="259"/>
-      <c r="L72" s="260"/>
-      <c r="M72" s="259"/>
-      <c r="O72" s="258"/>
-      <c r="P72" s="259"/>
-      <c r="Q72" s="259"/>
-    </row>
-    <row r="73" spans="1:25" s="256" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="257"/>
-      <c r="C73" s="257"/>
-      <c r="D73" s="257"/>
-      <c r="E73" s="257"/>
-      <c r="F73" s="257"/>
-      <c r="G73" s="239"/>
-      <c r="I73" s="258"/>
-      <c r="J73" s="259"/>
-      <c r="L73" s="260"/>
-      <c r="M73" s="259"/>
-      <c r="O73" s="258"/>
-      <c r="P73" s="259"/>
-      <c r="Q73" s="259"/>
-    </row>
-    <row r="75" spans="1:25" s="183" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I72" s="246"/>
+      <c r="J72" s="247"/>
+      <c r="L72" s="248"/>
+      <c r="M72" s="247"/>
+      <c r="O72" s="246"/>
+      <c r="P72" s="247"/>
+      <c r="Q72" s="247"/>
+    </row>
+    <row r="73" spans="1:25" s="244" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="245"/>
+      <c r="C73" s="245"/>
+      <c r="D73" s="245"/>
+      <c r="E73" s="245"/>
+      <c r="F73" s="245"/>
+      <c r="G73" s="227"/>
+      <c r="I73" s="246"/>
+      <c r="J73" s="247"/>
+      <c r="L73" s="248"/>
+      <c r="M73" s="247"/>
+      <c r="O73" s="246"/>
+      <c r="P73" s="247"/>
+      <c r="Q73" s="247"/>
+    </row>
+    <row r="75" spans="1:25" s="183" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="183" t="s">
-        <v>364</v>
-      </c>
-      <c r="B75" s="261">
+        <v>363</v>
+      </c>
+      <c r="B75" s="249">
         <f>B60/3.6</f>
         <v>146.89500000000004</v>
       </c>
-      <c r="C75" s="261">
+      <c r="C75" s="249">
         <f t="shared" ref="C75:F76" si="13">C60/3.6</f>
         <v>127.90947222222258</v>
       </c>
-      <c r="D75" s="261">
+      <c r="D75" s="249">
         <f t="shared" si="13"/>
         <v>141.21194444444478</v>
       </c>
-      <c r="E75" s="261">
+      <c r="E75" s="249">
         <f t="shared" si="13"/>
         <v>150.60847222222239</v>
       </c>
-      <c r="F75" s="261">
+      <c r="F75" s="249">
         <f t="shared" si="13"/>
         <v>181.0648611111113</v>
       </c>
@@ -10145,27 +10013,27 @@
       <c r="L75" s="184"/>
       <c r="O75" s="182"/>
     </row>
-    <row r="76" spans="1:25" s="183" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" s="183" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="183" t="s">
-        <v>365</v>
-      </c>
-      <c r="B76" s="261">
+        <v>364</v>
+      </c>
+      <c r="B76" s="249">
         <f>B61/3.6</f>
         <v>9659.8161111111094</v>
       </c>
-      <c r="C76" s="261">
+      <c r="C76" s="249">
         <f t="shared" si="13"/>
         <v>8461.4755555555566</v>
       </c>
-      <c r="D76" s="261">
+      <c r="D76" s="249">
         <f t="shared" si="13"/>
         <v>9269.8944444444442</v>
       </c>
-      <c r="E76" s="261">
+      <c r="E76" s="249">
         <f t="shared" si="13"/>
         <v>8781.4549999999999</v>
       </c>
-      <c r="F76" s="261">
+      <c r="F76" s="249">
         <f t="shared" si="13"/>
         <v>8354.2783333333336</v>
       </c>
@@ -10173,9 +10041,9 @@
       <c r="L76" s="184"/>
       <c r="O76" s="182"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A78" s="181" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B78" s="181">
         <f>B68/(B68+B75)</f>
@@ -10198,102 +10066,102 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A79" s="181" t="s">
-        <v>367</v>
-      </c>
-      <c r="B79" s="221">
+        <v>366</v>
+      </c>
+      <c r="B79" s="209">
         <f>B69/(B69+B76)</f>
         <v>0.2077669748087155</v>
       </c>
-      <c r="C79" s="221">
+      <c r="C79" s="209">
         <f t="shared" si="14"/>
         <v>0.22935256006604107</v>
       </c>
-      <c r="D79" s="221">
+      <c r="D79" s="209">
         <f t="shared" si="14"/>
         <v>0.21451224684725653</v>
       </c>
-      <c r="E79" s="221">
+      <c r="E79" s="209">
         <f t="shared" si="14"/>
         <v>0.22878872707552536</v>
       </c>
-      <c r="F79" s="221">
+      <c r="F79" s="209">
         <f t="shared" si="14"/>
         <v>0.2504836091741075</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A80" s="181" t="s">
-        <v>368</v>
-      </c>
-      <c r="B80" s="221">
+        <v>367</v>
+      </c>
+      <c r="B80" s="209">
         <f>B70/(B70+B71)</f>
         <v>0.9914860167746492</v>
       </c>
-      <c r="C80" s="221">
+      <c r="C80" s="209">
         <f t="shared" ref="C80:F80" si="15">C70/(C70+C71)</f>
         <v>0.4112166364695013</v>
       </c>
-      <c r="D80" s="221">
+      <c r="D80" s="209">
         <f t="shared" si="15"/>
         <v>0.3562733416036078</v>
       </c>
-      <c r="E80" s="221">
+      <c r="E80" s="209">
         <f t="shared" si="15"/>
         <v>0.58863523030836851</v>
       </c>
-      <c r="F80" s="221">
+      <c r="F80" s="209">
         <f t="shared" si="15"/>
         <v>0.61260762054318729</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="181" t="s">
-        <v>369</v>
-      </c>
-      <c r="B81" s="221">
+        <v>368</v>
+      </c>
+      <c r="B81" s="209">
         <f>B71/(B71+B70)</f>
         <v>8.5139832253508137E-3</v>
       </c>
-      <c r="C81" s="221">
+      <c r="C81" s="209">
         <f t="shared" ref="C81:F81" si="16">C71/(C71+C70)</f>
         <v>0.58878336353049865</v>
       </c>
-      <c r="D81" s="221">
+      <c r="D81" s="209">
         <f t="shared" si="16"/>
         <v>0.6437266583963922</v>
       </c>
-      <c r="E81" s="221">
+      <c r="E81" s="209">
         <f t="shared" si="16"/>
         <v>0.41136476969163155</v>
       </c>
-      <c r="F81" s="221">
+      <c r="F81" s="209">
         <f t="shared" si="16"/>
         <v>0.38739237945681276</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="181" t="s">
-        <v>370</v>
-      </c>
-      <c r="B82" s="221">
+        <v>369</v>
+      </c>
+      <c r="B82" s="209">
         <f>SUM(B69:B71)/(B65-B68)</f>
         <v>0.41583935218161766</v>
       </c>
-      <c r="C82" s="221">
+      <c r="C82" s="209">
         <f t="shared" ref="C82:F82" si="17">SUM(C69:C71)/(C65-C68)</f>
         <v>0.4279211763319995</v>
       </c>
-      <c r="D82" s="221">
+      <c r="D82" s="209">
         <f t="shared" si="17"/>
         <v>0.43988511952068954</v>
       </c>
-      <c r="E82" s="221">
+      <c r="E82" s="209">
         <f t="shared" si="17"/>
         <v>0.53510905284730503</v>
       </c>
-      <c r="F82" s="221">
+      <c r="F82" s="209">
         <f t="shared" si="17"/>
         <v>0.56180372906346965</v>
       </c>
@@ -10310,27 +10178,27 @@
         <v>71045.654072216043</v>
       </c>
     </row>
-    <row r="84" spans="1:17" s="183" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" s="183" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="183" t="s">
-        <v>371</v>
-      </c>
-      <c r="B84" s="228">
+        <v>370</v>
+      </c>
+      <c r="B84" s="216">
         <f>B75/(B75+B68)</f>
         <v>5.000000000000001E-2</v>
       </c>
-      <c r="C84" s="228">
+      <c r="C84" s="216">
         <f t="shared" ref="C84:F85" si="18">C75/(C75+C68)</f>
         <v>5.0000000000000142E-2</v>
       </c>
-      <c r="D84" s="228">
+      <c r="D84" s="216">
         <f t="shared" si="18"/>
         <v>5.0000000000000114E-2</v>
       </c>
-      <c r="E84" s="228">
+      <c r="E84" s="216">
         <f t="shared" si="18"/>
         <v>5.0000000000000058E-2</v>
       </c>
-      <c r="F84" s="228">
+      <c r="F84" s="216">
         <f t="shared" si="18"/>
         <v>5.0000000000000051E-2</v>
       </c>
@@ -10338,27 +10206,27 @@
       <c r="L84" s="184"/>
       <c r="O84" s="182"/>
     </row>
-    <row r="85" spans="1:17" s="183" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" s="183" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="183" t="s">
-        <v>372</v>
-      </c>
-      <c r="B85" s="228">
+        <v>371</v>
+      </c>
+      <c r="B85" s="216">
         <f>B76/(B76+B69)</f>
         <v>0.79223302519128458</v>
       </c>
-      <c r="C85" s="228">
+      <c r="C85" s="216">
         <f t="shared" si="18"/>
         <v>0.77064743993395901</v>
       </c>
-      <c r="D85" s="228">
+      <c r="D85" s="216">
         <f t="shared" si="18"/>
         <v>0.78548775315274344</v>
       </c>
-      <c r="E85" s="228">
+      <c r="E85" s="216">
         <f t="shared" si="18"/>
         <v>0.77121127292447456</v>
       </c>
-      <c r="F85" s="228">
+      <c r="F85" s="216">
         <f t="shared" si="18"/>
         <v>0.7495163908258925</v>
       </c>
@@ -10366,27 +10234,27 @@
       <c r="L85" s="184"/>
       <c r="O85" s="182"/>
     </row>
-    <row r="86" spans="1:17" s="183" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" s="183" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="183" t="s">
-        <v>373</v>
-      </c>
-      <c r="B86" s="228">
+        <v>372</v>
+      </c>
+      <c r="B86" s="216">
         <f>(B75+B76)/B65</f>
         <v>0.50088672040741777</v>
       </c>
-      <c r="C86" s="228">
+      <c r="C86" s="216">
         <f t="shared" ref="C86:F86" si="19">(C75+C76)/C65</f>
         <v>0.49238022085958183</v>
       </c>
-      <c r="D86" s="228">
+      <c r="D86" s="216">
         <f t="shared" si="19"/>
         <v>0.48298921949843859</v>
       </c>
-      <c r="E86" s="228">
+      <c r="E86" s="216">
         <f t="shared" si="19"/>
         <v>0.40462705094923457</v>
       </c>
-      <c r="F86" s="228">
+      <c r="F86" s="216">
         <f t="shared" si="19"/>
         <v>0.37242010124726516</v>
       </c>
@@ -10394,220 +10262,220 @@
       <c r="L86" s="184"/>
       <c r="O86" s="182"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="181" t="s">
-        <v>374</v>
-      </c>
-      <c r="B88" s="221">
+        <v>373</v>
+      </c>
+      <c r="B88" s="209">
         <f>B68/B65</f>
         <v>0.14255312767465758</v>
       </c>
-      <c r="C88" s="221">
+      <c r="C88" s="209">
         <f t="shared" ref="C88:F88" si="20">C68/C65</f>
         <v>0.1393140237168973</v>
       </c>
-      <c r="D88" s="221">
+      <c r="D88" s="209">
         <f t="shared" si="20"/>
         <v>0.13769614710980846</v>
       </c>
-      <c r="E88" s="221">
+      <c r="E88" s="209">
         <f t="shared" si="20"/>
         <v>0.12963017794292891</v>
       </c>
-      <c r="F88" s="221">
+      <c r="F88" s="209">
         <f t="shared" si="20"/>
         <v>0.15010663954005313</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="181" t="s">
-        <v>375</v>
-      </c>
-      <c r="B89" s="221">
+        <v>374</v>
+      </c>
+      <c r="B89" s="209">
         <f>B69/B65</f>
         <v>0.12939234050290649</v>
       </c>
-      <c r="C89" s="221">
+      <c r="C89" s="209">
         <f t="shared" ref="C89:F89" si="21">C69/C65</f>
         <v>0.14435521709608434</v>
       </c>
-      <c r="D89" s="221">
+      <c r="D89" s="209">
         <f t="shared" si="21"/>
         <v>0.12992245453077617</v>
       </c>
-      <c r="E89" s="221">
+      <c r="E89" s="209">
         <f t="shared" si="21"/>
         <v>0.11801327053340099</v>
       </c>
-      <c r="F89" s="221">
+      <c r="F89" s="209">
         <f t="shared" si="21"/>
         <v>0.12182018187080551</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="181" t="s">
-        <v>376</v>
-      </c>
-      <c r="B90" s="221">
+        <v>375</v>
+      </c>
+      <c r="B90" s="209">
         <f>(B70+B71)/B65</f>
         <v>0.22716781141501813</v>
       </c>
-      <c r="C90" s="221">
+      <c r="C90" s="209">
         <f t="shared" ref="C90:F90" si="22">(C70+C71)/C65</f>
         <v>0.22395053832743639</v>
       </c>
-      <c r="D90" s="221">
+      <c r="D90" s="209">
         <f t="shared" si="22"/>
         <v>0.24939217886097687</v>
       </c>
-      <c r="E90" s="221">
+      <c r="E90" s="209">
         <f t="shared" si="22"/>
         <v>0.34772950057443569</v>
       </c>
-      <c r="F90" s="221">
+      <c r="F90" s="209">
         <f t="shared" si="22"/>
         <v>0.35565307734187629</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="251" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="251" t="s">
-        <v>377</v>
-      </c>
-      <c r="B92" s="262">
+    <row r="92" spans="1:17" s="239" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="239" t="s">
+        <v>376</v>
+      </c>
+      <c r="B92" s="250">
         <f>B69/(B$69+B$70+B$71)</f>
         <v>0.36289063656415227</v>
       </c>
-      <c r="C92" s="262">
+      <c r="C92" s="250">
         <f t="shared" ref="C92:F92" si="23">C69/(C$69+C$70+C$71)</f>
         <v>0.39194396223889566</v>
       </c>
-      <c r="D92" s="262">
+      <c r="D92" s="250">
         <f t="shared" si="23"/>
         <v>0.34251896207914906</v>
       </c>
-      <c r="E92" s="262">
+      <c r="E92" s="250">
         <f t="shared" si="23"/>
         <v>0.25338722972058014</v>
       </c>
-      <c r="F92" s="262">
+      <c r="F92" s="250">
         <f t="shared" si="23"/>
         <v>0.25513508771502308</v>
       </c>
-      <c r="I92" s="253"/>
-      <c r="J92" s="254"/>
-      <c r="L92" s="255"/>
-      <c r="M92" s="254"/>
-      <c r="O92" s="253"/>
-      <c r="P92" s="254"/>
-      <c r="Q92" s="254"/>
-    </row>
-    <row r="93" spans="1:17" s="251" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="251" t="s">
-        <v>378</v>
-      </c>
-      <c r="B93" s="262">
+      <c r="I92" s="241"/>
+      <c r="J92" s="242"/>
+      <c r="L92" s="243"/>
+      <c r="M92" s="242"/>
+      <c r="O92" s="241"/>
+      <c r="P92" s="242"/>
+      <c r="Q92" s="242"/>
+    </row>
+    <row r="93" spans="1:17" s="239" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="239" t="s">
+        <v>377</v>
+      </c>
+      <c r="B93" s="250">
         <f t="shared" ref="B93:F94" si="24">B70/(B$69+B$70+B$71)</f>
         <v>0.63168502500284107</v>
       </c>
-      <c r="C93" s="262">
+      <c r="C93" s="250">
         <f t="shared" si="24"/>
         <v>0.25004275863309344</v>
       </c>
-      <c r="D93" s="262">
+      <c r="D93" s="250">
         <f t="shared" si="24"/>
         <v>0.23424296642106998</v>
       </c>
-      <c r="E93" s="262">
+      <c r="E93" s="250">
         <f t="shared" si="24"/>
         <v>0.43948257998459533</v>
       </c>
-      <c r="F93" s="262">
+      <c r="F93" s="250">
         <f t="shared" si="24"/>
         <v>0.45630992154100963</v>
       </c>
-      <c r="I93" s="253"/>
-      <c r="J93" s="254"/>
-      <c r="L93" s="255"/>
-      <c r="M93" s="254"/>
-      <c r="O93" s="253"/>
-      <c r="P93" s="254"/>
-      <c r="Q93" s="254"/>
-    </row>
-    <row r="94" spans="1:17" s="251" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="251" t="s">
-        <v>379</v>
-      </c>
-      <c r="B94" s="262">
+      <c r="I93" s="241"/>
+      <c r="J93" s="242"/>
+      <c r="L93" s="243"/>
+      <c r="M93" s="242"/>
+      <c r="O93" s="241"/>
+      <c r="P93" s="242"/>
+      <c r="Q93" s="242"/>
+    </row>
+    <row r="94" spans="1:17" s="239" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="239" t="s">
+        <v>378</v>
+      </c>
+      <c r="B94" s="250">
         <f t="shared" si="24"/>
         <v>5.4243384330067432E-3</v>
       </c>
-      <c r="C94" s="262">
+      <c r="C94" s="250">
         <f t="shared" si="24"/>
         <v>0.35801327912801095</v>
       </c>
-      <c r="D94" s="262">
+      <c r="D94" s="250">
         <f t="shared" si="24"/>
         <v>0.42323807149978104</v>
       </c>
-      <c r="E94" s="262">
+      <c r="E94" s="250">
         <f t="shared" si="24"/>
         <v>0.30713019029482452</v>
       </c>
-      <c r="F94" s="262">
+      <c r="F94" s="250">
         <f t="shared" si="24"/>
         <v>0.28855499074396734</v>
       </c>
-      <c r="I94" s="253"/>
-      <c r="J94" s="254"/>
-      <c r="L94" s="255"/>
-      <c r="M94" s="254"/>
-      <c r="O94" s="253"/>
-      <c r="P94" s="254"/>
-      <c r="Q94" s="254"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B95" s="221">
+      <c r="I94" s="241"/>
+      <c r="J94" s="242"/>
+      <c r="L94" s="243"/>
+      <c r="M94" s="242"/>
+      <c r="O94" s="241"/>
+      <c r="P94" s="242"/>
+      <c r="Q94" s="242"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B95" s="209">
         <f>SUM(B92:B94)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="C95" s="221">
+      <c r="C95" s="209">
         <f t="shared" ref="C95:F95" si="25">SUM(C92:C94)</f>
         <v>1</v>
       </c>
-      <c r="D95" s="221">
+      <c r="D95" s="209">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="E95" s="221">
+      <c r="E95" s="209">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="F95" s="221">
+      <c r="F95" s="209">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:19" s="183" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" s="183" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="183" t="s">
-        <v>380</v>
-      </c>
-      <c r="B97" s="228">
+        <v>379</v>
+      </c>
+      <c r="B97" s="216">
         <f>B75/B65</f>
         <v>7.5027961934030314E-3</v>
       </c>
-      <c r="C97" s="228">
+      <c r="C97" s="216">
         <f t="shared" ref="C97:F97" si="26">C75/C65</f>
         <v>7.3323170377314582E-3</v>
       </c>
-      <c r="D97" s="228">
+      <c r="D97" s="216">
         <f t="shared" si="26"/>
         <v>7.2471656373583569E-3</v>
       </c>
-      <c r="E97" s="228">
+      <c r="E97" s="216">
         <f t="shared" si="26"/>
         <v>6.8226409443646885E-3</v>
       </c>
-      <c r="F97" s="228">
+      <c r="F97" s="216">
         <f t="shared" si="26"/>
         <v>7.9003494494764882E-3</v>
       </c>
@@ -10615,27 +10483,27 @@
       <c r="L97" s="184"/>
       <c r="O97" s="182"/>
     </row>
-    <row r="98" spans="1:19" s="183" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" s="183" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="183" t="s">
-        <v>381</v>
-      </c>
-      <c r="B98" s="228">
+        <v>380</v>
+      </c>
+      <c r="B98" s="216">
         <f>B76/B65</f>
         <v>0.49338392421401467</v>
       </c>
-      <c r="C98" s="228">
+      <c r="C98" s="216">
         <f t="shared" ref="C98:F98" si="27">C76/C65</f>
         <v>0.48504790382185042</v>
       </c>
-      <c r="D98" s="228">
+      <c r="D98" s="216">
         <f t="shared" si="27"/>
         <v>0.47574205386108021</v>
       </c>
-      <c r="E98" s="228">
+      <c r="E98" s="216">
         <f t="shared" si="27"/>
         <v>0.39780441000486988</v>
       </c>
-      <c r="F98" s="228">
+      <c r="F98" s="216">
         <f t="shared" si="27"/>
         <v>0.36451975179778862</v>
       </c>
@@ -10647,125 +10515,125 @@
       <c r="L98" s="184"/>
       <c r="O98" s="182"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="181" t="s">
-        <v>382</v>
-      </c>
-      <c r="C100" s="221">
+        <v>381</v>
+      </c>
+      <c r="C100" s="209">
         <f>(C65-B65)/B65</f>
         <v>-0.10900019723814934</v>
       </c>
-      <c r="D100" s="221">
+      <c r="D100" s="209">
         <f t="shared" ref="D100:F100" si="28">(D65-C65)/C65</f>
         <v>0.11697068115212718</v>
       </c>
-      <c r="E100" s="221">
+      <c r="E100" s="209">
         <f t="shared" si="28"/>
         <v>0.13290538490197162</v>
       </c>
-      <c r="F100" s="221">
+      <c r="F100" s="209">
         <f t="shared" si="28"/>
         <v>3.8223817247666859E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="181" t="s">
-        <v>383</v>
-      </c>
-      <c r="C101" s="221">
+        <v>382</v>
+      </c>
+      <c r="C101" s="209">
         <f>(C68-B68)/B68</f>
         <v>-0.12924556845214483</v>
       </c>
-      <c r="D101" s="221">
+      <c r="D101" s="209">
         <f t="shared" ref="D101:F103" si="29">(D68-C68)/C68</f>
         <v>0.10399911743136063</v>
       </c>
-      <c r="E101" s="221">
+      <c r="E101" s="209">
         <f t="shared" si="29"/>
         <v>6.6542018203527786E-2</v>
       </c>
-      <c r="F101" s="221">
+      <c r="F101" s="209">
         <f t="shared" si="29"/>
         <v>0.20222228165192865</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="C102" s="221">
+        <v>383</v>
+      </c>
+      <c r="C102" s="209">
         <f>(C69-B69)/B69</f>
         <v>-5.9653495690022177E-3</v>
       </c>
-      <c r="D102" s="221">
+      <c r="D102" s="209">
         <f t="shared" si="29"/>
         <v>5.294962340046388E-3</v>
       </c>
-      <c r="E102" s="221">
+      <c r="E102" s="209">
         <f t="shared" si="29"/>
         <v>2.905898876404504E-2</v>
       </c>
-      <c r="F102" s="221">
+      <c r="F102" s="209">
         <f t="shared" si="29"/>
         <v>7.1715186504524298E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="181" t="s">
-        <v>385</v>
-      </c>
-      <c r="C103" s="221">
+        <v>384</v>
+      </c>
+      <c r="C103" s="209">
         <f>(C70-B70)/B70</f>
         <v>-0.63569342661078077</v>
       </c>
-      <c r="D103" s="221">
+      <c r="D103" s="209">
         <f t="shared" si="29"/>
         <v>7.7668387036312278E-2</v>
       </c>
-      <c r="E103" s="221">
+      <c r="E103" s="209">
         <f t="shared" si="29"/>
         <v>1.6098483499282328</v>
       </c>
-      <c r="F103" s="221">
+      <c r="F103" s="209">
         <f t="shared" si="29"/>
         <v>0.1051269377557444</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="21" x14ac:dyDescent="0.4">
-      <c r="A106" s="263" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" s="232" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="232" t="str">
+    <row r="106" spans="1:19" ht="21" x14ac:dyDescent="0.5">
+      <c r="A106" s="251" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" s="220" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="220" t="str">
         <f t="shared" ref="A107:P108" si="30">A64</f>
         <v>Year</v>
       </c>
-      <c r="B107" s="232">
+      <c r="B107" s="220">
         <f t="shared" si="30"/>
         <v>2019</v>
       </c>
-      <c r="C107" s="232">
+      <c r="C107" s="220">
         <f t="shared" si="30"/>
         <v>2020</v>
       </c>
-      <c r="D107" s="232">
+      <c r="D107" s="220">
         <f t="shared" si="30"/>
         <v>2021</v>
       </c>
-      <c r="E107" s="232">
+      <c r="E107" s="220">
         <f t="shared" si="30"/>
         <v>2022</v>
       </c>
-      <c r="F107" s="232">
+      <c r="F107" s="220">
         <f t="shared" si="30"/>
         <v>2023</v>
       </c>
-      <c r="G107" s="232">
+      <c r="G107" s="220">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="H107" s="232">
+      <c r="H107" s="220">
         <f t="shared" si="30"/>
         <v>2024</v>
       </c>
@@ -10777,7 +10645,7 @@
         <f t="shared" si="30"/>
         <v>2030</v>
       </c>
-      <c r="K107" s="232">
+      <c r="K107" s="220">
         <f t="shared" si="30"/>
         <v>2032</v>
       </c>
@@ -10789,7 +10657,7 @@
         <f t="shared" si="30"/>
         <v>2040</v>
       </c>
-      <c r="N107" s="232">
+      <c r="N107" s="220">
         <f t="shared" si="30"/>
         <v>2044</v>
       </c>
@@ -10802,12 +10670,12 @@
         <v>2050</v>
       </c>
       <c r="Q107" s="183"/>
-      <c r="R107" s="232">
+      <c r="R107" s="220">
         <f>R64</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="181" t="str">
         <f t="shared" si="30"/>
         <v>Total Industry Consumption in GWh</v>
@@ -10873,12 +10741,12 @@
         <v>0</v>
       </c>
       <c r="S108" s="181" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A109" s="181" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="181" t="s">
-        <v>388</v>
       </c>
       <c r="B109" s="181">
         <f>SUM(B110:B113)</f>
@@ -10905,10 +10773,10 @@
         <v>78297.695699999997</v>
       </c>
       <c r="S109" s="181" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="181" t="str">
         <f t="shared" ref="A110:P113" si="32">A68</f>
         <v>Manufacturing Electricity consumption in GWh</v>
@@ -10978,7 +10846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="181" t="str">
         <f t="shared" si="32"/>
         <v>Manufacturing Oil Consumption in GWh</v>
@@ -11048,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="181" t="str">
         <f t="shared" si="32"/>
         <v>Manufacturing Imported Coal Consumption in GWh</v>
@@ -11118,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" s="181" t="str">
         <f t="shared" si="32"/>
         <v>Manufacturing Domestic  Coal Consumption in GWh</v>
@@ -11188,7 +11056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114" s="181">
         <f t="shared" ref="A114:P114" si="33">A74</f>
         <v>0</v>
@@ -11258,25 +11126,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="181">
         <f>A104</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="181">
         <f>A105</f>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="181" t="str">
         <f>A106</f>
         <v>Structural Economic Growth scenario</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="181" t="str">
         <f>A107</f>
         <v>Year</v>
@@ -11284,15 +11152,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A19"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="AB2:AF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11307,17 +11175,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="137" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="137"/>
       <c r="D3" s="137"/>
@@ -11326,7 +11194,7 @@
       <c r="G3" s="137"/>
       <c r="H3" s="137"/>
     </row>
-    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="138"/>
       <c r="C4" s="138"/>
       <c r="D4" s="138"/>
@@ -11334,13 +11202,13 @@
       <c r="F4" s="138"/>
       <c r="G4" s="138"/>
     </row>
-    <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B5" s="139" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5" s="140"/>
     </row>
-    <row r="6" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="141" t="s">
         <v>0</v>
       </c>
@@ -11358,33 +11226,33 @@
       </c>
       <c r="F6" s="141" t="str">
         <f>PRI_Sector_Fuels!N8</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="G6" s="141"/>
       <c r="H6" s="141"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="142" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D7" s="142" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E7" s="142" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7" s="142" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G7" s="142"/>
       <c r="H7" s="142"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="13" x14ac:dyDescent="0.25">
       <c r="B8" s="143" t="str">
         <f>DemTechs_INDF!P9</f>
         <v>MANCO2</v>
@@ -11431,41 +11299,41 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="264"/>
-    <col min="2" max="6" width="7.5546875" style="181" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.33203125" style="181"/>
+    <col min="1" max="1" width="19.36328125" style="252"/>
+    <col min="2" max="6" width="7.54296875" style="181" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.36328125" style="181"/>
     <col min="9" max="9" width="8" style="181" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" style="181" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.21875" style="181" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" style="181" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="24.21875" style="181" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="19.33203125" style="181"/>
+    <col min="10" max="10" width="20.1796875" style="181" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1796875" style="181" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" style="181" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="24.1796875" style="181" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="19.36328125" style="181"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="I1" s="215" t="s">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="I1" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="264" t="s">
-        <v>343</v>
-      </c>
-      <c r="K1" s="264" t="s">
-        <v>358</v>
-      </c>
-      <c r="L1" s="264" t="s">
+      <c r="J1" s="252" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" s="252" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="252" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1" s="252" t="s">
         <v>360</v>
       </c>
-      <c r="M1" s="264" t="s">
+      <c r="N1" s="252" t="s">
         <v>361</v>
       </c>
-      <c r="N1" s="264" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="264" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="252" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="181">
@@ -11486,198 +11354,198 @@
       <c r="I2" s="181">
         <v>2019</v>
       </c>
-      <c r="J2" s="266">
+      <c r="J2" s="254">
         <v>19575.922777777778</v>
       </c>
-      <c r="K2" s="266">
+      <c r="K2" s="254">
         <v>2791.0050000000001</v>
       </c>
-      <c r="L2" s="266">
+      <c r="L2" s="254">
         <v>2533.3338888888889</v>
       </c>
-      <c r="M2" s="266">
+      <c r="M2" s="254">
         <v>4409.7833333333328</v>
       </c>
-      <c r="N2" s="266">
+      <c r="N2" s="254">
         <v>35.089444444444446</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="264" t="s">
-        <v>343</v>
-      </c>
-      <c r="B3" s="233">
+    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="252" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="221">
         <v>19575.922777777778</v>
       </c>
-      <c r="C3" s="233">
+      <c r="C3" s="221">
         <v>17444.618333333336</v>
       </c>
-      <c r="D3" s="233">
+      <c r="D3" s="221">
         <v>19485.127222222221</v>
       </c>
-      <c r="E3" s="233">
+      <c r="E3" s="221">
         <v>22074.805555555551</v>
       </c>
-      <c r="F3" s="233">
+      <c r="F3" s="221">
         <v>22918.588888888888</v>
       </c>
       <c r="I3" s="181">
         <v>2020</v>
       </c>
-      <c r="J3" s="266">
+      <c r="J3" s="254">
         <v>17444.618333333336</v>
       </c>
-      <c r="K3" s="266">
+      <c r="K3" s="254">
         <v>2430.2799722222217</v>
       </c>
-      <c r="L3" s="266">
+      <c r="L3" s="254">
         <v>2518.2216666666668</v>
       </c>
-      <c r="M3" s="266">
+      <c r="M3" s="254">
         <v>1606.5130555555556</v>
       </c>
-      <c r="N3" s="266">
+      <c r="N3" s="254">
         <v>2300.2186111111109</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="264" t="s">
-        <v>358</v>
-      </c>
-      <c r="B4" s="233">
+    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="252" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="221">
         <v>2791.0050000000001</v>
       </c>
-      <c r="C4" s="233">
+      <c r="C4" s="221">
         <v>2430.2799722222217</v>
       </c>
-      <c r="D4" s="233">
+      <c r="D4" s="221">
         <v>2683.0269444444443</v>
       </c>
-      <c r="E4" s="233">
+      <c r="E4" s="221">
         <v>2861.5609722222221</v>
       </c>
-      <c r="F4" s="233">
+      <c r="F4" s="221">
         <v>3440.232361111111</v>
       </c>
       <c r="I4" s="181">
         <v>2021</v>
       </c>
-      <c r="J4" s="266">
+      <c r="J4" s="254">
         <v>19485.127222222221</v>
       </c>
-      <c r="K4" s="266">
+      <c r="K4" s="254">
         <v>2683.0269444444443</v>
       </c>
-      <c r="L4" s="266">
+      <c r="L4" s="254">
         <v>2531.5555555555557</v>
       </c>
-      <c r="M4" s="266">
+      <c r="M4" s="254">
         <v>1731.2883333333332</v>
       </c>
-      <c r="N4" s="266">
+      <c r="N4" s="254">
         <v>3128.15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="264" t="s">
-        <v>360</v>
-      </c>
-      <c r="B5" s="233">
+    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="252" t="s">
+        <v>359</v>
+      </c>
+      <c r="B5" s="221">
         <v>2533.3338888888889</v>
       </c>
-      <c r="C5" s="233">
+      <c r="C5" s="221">
         <v>2518.2216666666668</v>
       </c>
-      <c r="D5" s="233">
+      <c r="D5" s="221">
         <v>2531.5555555555557</v>
       </c>
-      <c r="E5" s="233">
+      <c r="E5" s="221">
         <v>2605.1200000000003</v>
       </c>
-      <c r="F5" s="233">
+      <c r="F5" s="221">
         <v>2791.9466666666667</v>
       </c>
       <c r="I5" s="181">
         <v>2022</v>
       </c>
-      <c r="J5" s="266">
+      <c r="J5" s="254">
         <v>22074.805555555551</v>
       </c>
-      <c r="K5" s="266">
+      <c r="K5" s="254">
         <v>2861.5609722222221</v>
       </c>
-      <c r="L5" s="266">
+      <c r="L5" s="254">
         <v>2605.1200000000003</v>
       </c>
-      <c r="M5" s="266">
+      <c r="M5" s="254">
         <v>4518.3999999999996</v>
       </c>
-      <c r="N5" s="266">
+      <c r="N5" s="254">
         <v>3157.661111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="264" t="s">
-        <v>361</v>
-      </c>
-      <c r="B6" s="233">
+    <row r="6" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="252" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" s="221">
         <v>4409.7833333333328</v>
       </c>
-      <c r="C6" s="233">
+      <c r="C6" s="221">
         <v>1606.5130555555556</v>
       </c>
-      <c r="D6" s="233">
+      <c r="D6" s="221">
         <v>1731.2883333333332</v>
       </c>
-      <c r="E6" s="233">
+      <c r="E6" s="221">
         <v>4518.3999999999996</v>
       </c>
-      <c r="F6" s="233">
+      <c r="F6" s="221">
         <v>4993.4055555555551</v>
       </c>
       <c r="I6" s="181">
         <v>2023</v>
       </c>
-      <c r="J6" s="266">
+      <c r="J6" s="254">
         <v>22918.588888888888</v>
       </c>
-      <c r="K6" s="266">
+      <c r="K6" s="254">
         <v>3440.232361111111</v>
       </c>
-      <c r="L6" s="266">
+      <c r="L6" s="254">
         <v>2791.9466666666667</v>
       </c>
-      <c r="M6" s="266">
+      <c r="M6" s="254">
         <v>4993.4055555555551</v>
       </c>
-      <c r="N6" s="266">
+      <c r="N6" s="254">
         <v>3157.661111111111</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="264" t="s">
-        <v>362</v>
-      </c>
-      <c r="B7" s="233">
+    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="252" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" s="221">
         <v>35.089444444444446</v>
       </c>
-      <c r="C7" s="233">
+      <c r="C7" s="221">
         <v>2300.2186111111109</v>
       </c>
-      <c r="D7" s="233">
+      <c r="D7" s="221">
         <v>3128.15</v>
       </c>
-      <c r="E7" s="233">
+      <c r="E7" s="221">
         <v>3157.661111111111</v>
       </c>
-      <c r="F7" s="233">
+      <c r="F7" s="221">
         <v>3157.661111111111</v>
       </c>
       <c r="J7" s="181" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I8" s="181">
         <v>2019</v>
       </c>
@@ -11702,116 +11570,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I9" s="181">
         <v>2020</v>
       </c>
-      <c r="J9" s="221">
+      <c r="J9" s="209">
         <f>J3/J2-1</f>
         <v>-0.10887376644455604</v>
       </c>
-      <c r="K9" s="221">
+      <c r="K9" s="209">
         <f t="shared" ref="K9:N9" si="1">K3/K2-1</f>
         <v>-0.12924556845214485</v>
       </c>
-      <c r="L9" s="221">
+      <c r="L9" s="209">
         <f t="shared" si="1"/>
         <v>-5.9653495690021874E-3</v>
       </c>
-      <c r="M9" s="221">
+      <c r="M9" s="209">
         <f t="shared" si="1"/>
         <v>-0.63569342661078077</v>
       </c>
-      <c r="N9" s="221">
+      <c r="N9" s="209">
         <f t="shared" si="1"/>
         <v>64.553007393803128</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I10" s="181">
         <v>2021</v>
       </c>
-      <c r="J10" s="221">
+      <c r="J10" s="209">
         <f t="shared" ref="J10:N12" si="2">J4/J3-1</f>
         <v>0.11697068115212716</v>
       </c>
-      <c r="K10" s="221">
+      <c r="K10" s="209">
         <f t="shared" si="2"/>
         <v>0.10399911743136059</v>
       </c>
-      <c r="L10" s="221">
+      <c r="L10" s="209">
         <f t="shared" si="2"/>
         <v>5.2949623400464496E-3</v>
       </c>
-      <c r="M10" s="221">
+      <c r="M10" s="209">
         <f t="shared" si="2"/>
         <v>7.7668387036312181E-2</v>
       </c>
-      <c r="N10" s="221">
+      <c r="N10" s="209">
         <f t="shared" si="2"/>
         <v>0.35993595777792642</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I11" s="181">
         <v>2022</v>
       </c>
-      <c r="J11" s="221">
+      <c r="J11" s="209">
         <f t="shared" si="2"/>
         <v>0.13290538490197168</v>
       </c>
-      <c r="K11" s="221">
+      <c r="K11" s="209">
         <f t="shared" si="2"/>
         <v>6.6542018203527675E-2</v>
       </c>
-      <c r="L11" s="221">
+      <c r="L11" s="209">
         <f t="shared" si="2"/>
         <v>2.9058988764045113E-2</v>
       </c>
-      <c r="M11" s="221">
+      <c r="M11" s="209">
         <f t="shared" si="2"/>
         <v>1.6098483499282326</v>
       </c>
-      <c r="N11" s="221">
+      <c r="N11" s="209">
         <f t="shared" si="2"/>
         <v>9.4340460371500345E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I12" s="181">
         <v>2023</v>
       </c>
-      <c r="J12" s="221">
+      <c r="J12" s="209">
         <f t="shared" si="2"/>
         <v>3.8223817247666769E-2</v>
       </c>
-      <c r="K12" s="221">
+      <c r="K12" s="209">
         <f t="shared" si="2"/>
         <v>0.20222228165192857</v>
       </c>
-      <c r="L12" s="221">
+      <c r="L12" s="209">
         <f t="shared" si="2"/>
         <v>7.1715186504524242E-2</v>
       </c>
-      <c r="M12" s="221">
+      <c r="M12" s="209">
         <f t="shared" si="2"/>
         <v>0.10512693775574444</v>
       </c>
-      <c r="N12" s="221">
+      <c r="N12" s="209">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I13" s="181" t="s">
-        <v>391</v>
-      </c>
-      <c r="J13" s="265">
+        <v>390</v>
+      </c>
+      <c r="J13" s="253">
         <f>AVERAGE(J9:J12)</f>
         <v>4.4806529214302393E-2</v>
       </c>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I19" s="181">
         <v>2050</v>
       </c>
@@ -11819,15 +11687,15 @@
         <f>J6+J6*(1+0.04)^27</f>
         <v>89001.327900509059</v>
       </c>
-      <c r="K19" s="233">
+      <c r="K19" s="221">
         <v>255877.44500000001</v>
       </c>
-      <c r="L19" s="233">
+      <c r="L19" s="221">
         <f>-J19-K19</f>
         <v>-344878.77290050907</v>
       </c>
     </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:12" x14ac:dyDescent="0.35">
       <c r="J20" s="181">
         <f>J5+0.04*J5*27</f>
         <v>45915.595555555541</v>
@@ -11846,95 +11714,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2866F2F4-3FF6-43E8-A26E-915582679923}">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="271" t="s">
-        <v>394</v>
-      </c>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271" t="s">
+      <c r="C1" s="272" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272" t="s">
+        <v>396</v>
+      </c>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272" t="s">
         <v>397</v>
       </c>
-      <c r="H1" s="271"/>
-      <c r="I1" s="271"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="271" t="s">
+      <c r="L1" s="272"/>
+      <c r="M1" s="272" t="s">
         <v>398</v>
       </c>
-      <c r="L1" s="271"/>
-      <c r="M1" s="271" t="s">
-        <v>399</v>
-      </c>
-      <c r="N1" s="271"/>
-      <c r="O1" s="271" t="s">
+      <c r="N1" s="272"/>
+      <c r="O1" s="272" t="s">
+        <v>401</v>
+      </c>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
+      <c r="R1" s="272" t="s">
+        <v>401</v>
+      </c>
+      <c r="S1" s="272"/>
+      <c r="T1" s="272"/>
+      <c r="U1" s="272" t="s">
+        <v>401</v>
+      </c>
+      <c r="V1" s="272"/>
+      <c r="W1" s="272"/>
+      <c r="X1" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y1" s="272" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z1" s="272"/>
+      <c r="AA1" s="272"/>
+    </row>
+    <row r="2" spans="1:27" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>402</v>
-      </c>
-      <c r="P1" s="271"/>
-      <c r="Q1" s="271"/>
-      <c r="R1" s="271" t="s">
-        <v>402</v>
-      </c>
-      <c r="S1" s="271"/>
-      <c r="T1" s="271"/>
-      <c r="U1" s="271" t="s">
-        <v>402</v>
-      </c>
-      <c r="V1" s="271"/>
-      <c r="W1" s="271"/>
-      <c r="X1" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="Y1" s="271" t="s">
-        <v>441</v>
-      </c>
-      <c r="Z1" s="271"/>
-      <c r="AA1" s="271"/>
-    </row>
-    <row r="2" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>403</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>91</v>
@@ -11948,95 +11816,95 @@
         <v>World</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J2" s="20" t="str">
         <f>F2</f>
         <v>Currency</v>
       </c>
       <c r="K2" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="O2" s="271" t="s">
-        <v>392</v>
-      </c>
-      <c r="P2" s="271"/>
-      <c r="Q2" s="271"/>
-      <c r="R2" s="271" t="s">
-        <v>404</v>
-      </c>
-      <c r="S2" s="271"/>
-      <c r="T2" s="271"/>
-      <c r="U2" s="271" t="s">
+      <c r="O2" s="272" t="s">
+        <v>391</v>
+      </c>
+      <c r="P2" s="272"/>
+      <c r="Q2" s="272"/>
+      <c r="R2" s="272" t="s">
         <v>403</v>
       </c>
-      <c r="V2" s="271"/>
-      <c r="W2" s="271"/>
+      <c r="S2" s="272"/>
+      <c r="T2" s="272"/>
+      <c r="U2" s="272" t="s">
+        <v>402</v>
+      </c>
+      <c r="V2" s="272"/>
+      <c r="W2" s="272"/>
       <c r="X2" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Y2" s="271" t="s">
-        <v>450</v>
-      </c>
-      <c r="Z2" s="271"/>
-      <c r="AA2" s="271"/>
-    </row>
-    <row r="3" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="272" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z2" s="272"/>
+      <c r="AA2" s="272"/>
+    </row>
+    <row r="3" spans="1:27" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="O3" s="273" t="s">
+        <v>409</v>
+      </c>
+      <c r="O3" s="257" t="s">
+        <v>404</v>
+      </c>
+      <c r="P3" s="257" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q3" s="257" t="s">
         <v>405</v>
       </c>
-      <c r="P3" s="273" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q3" s="273" t="s">
-        <v>406</v>
-      </c>
-      <c r="R3" s="273" t="str">
+      <c r="R3" s="257" t="str">
         <f>O3</f>
         <v>Minimum</v>
       </c>
-      <c r="S3" s="273" t="str">
+      <c r="S3" s="257" t="str">
         <f t="shared" ref="S3:T3" si="0">P3</f>
         <v>Maximum</v>
       </c>
-      <c r="T3" s="273" t="str">
+      <c r="T3" s="257" t="str">
         <f t="shared" si="0"/>
         <v>Avarage</v>
       </c>
-      <c r="U3" s="273" t="str">
+      <c r="U3" s="257" t="str">
         <f t="shared" ref="U3" si="1">R3</f>
         <v>Minimum</v>
       </c>
-      <c r="V3" s="273" t="str">
+      <c r="V3" s="257" t="str">
         <f t="shared" ref="V3" si="2">S3</f>
         <v>Maximum</v>
       </c>
-      <c r="W3" s="273" t="str">
+      <c r="W3" s="257" t="str">
         <f t="shared" ref="W3" si="3">T3</f>
         <v>Avarage</v>
       </c>
       <c r="Y3" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AA3" s="20" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4">
         <v>1093</v>
@@ -12045,7 +11913,7 @@
         <v>691</v>
       </c>
       <c r="F4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G4">
         <v>7.3999999999999996E-2</v>
@@ -12054,12 +11922,12 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>396</v>
-      </c>
-      <c r="K4" s="270">
+        <v>395</v>
+      </c>
+      <c r="K4" s="256">
         <v>0.219</v>
       </c>
-      <c r="L4" s="270">
+      <c r="L4" s="256">
         <v>0.33800000000000002</v>
       </c>
       <c r="M4">
@@ -12087,12 +11955,12 @@
         <v>0.12842465753424659</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C5">
         <v>2330</v>
@@ -12104,7 +11972,7 @@
         <v>824</v>
       </c>
       <c r="F5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G5">
         <v>6.2E-2</v>
@@ -12116,10 +11984,10 @@
         <v>0.06</v>
       </c>
       <c r="J5" t="s">
-        <v>396</v>
-      </c>
-      <c r="K5" s="270"/>
-      <c r="L5" s="270"/>
+        <v>395</v>
+      </c>
+      <c r="K5" s="256"/>
+      <c r="L5" s="256"/>
       <c r="O5" s="117"/>
       <c r="P5" s="117"/>
       <c r="Q5" s="117"/>
@@ -12134,9 +12002,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
         <v>142</v>
@@ -12151,7 +12019,7 @@
         <v>1834</v>
       </c>
       <c r="F6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G6">
         <v>5.0999999999999997E-2</v>
@@ -12163,12 +12031,12 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="J6" t="s">
-        <v>396</v>
-      </c>
-      <c r="K6" s="270">
+        <v>395</v>
+      </c>
+      <c r="K6" s="256">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="L6" s="270">
+      <c r="L6" s="256">
         <v>0.25</v>
       </c>
       <c r="M6">
@@ -12200,19 +12068,19 @@
         <v>4.3378995433789955E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="B7" s="272" t="s">
-        <v>400</v>
-      </c>
-      <c r="H7" s="272">
+        <v>409</v>
+      </c>
+      <c r="B7" s="258" t="s">
+        <v>399</v>
+      </c>
+      <c r="H7" s="258">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I7" s="272"/>
+      <c r="I7" s="258"/>
       <c r="J7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O7" s="117"/>
       <c r="P7" s="117"/>
@@ -12224,19 +12092,19 @@
       <c r="V7" s="117"/>
       <c r="W7" s="117"/>
     </row>
-    <row r="8" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="B8" s="272" t="s">
-        <v>401</v>
-      </c>
-      <c r="H8" s="272">
+        <v>409</v>
+      </c>
+      <c r="B8" s="258" t="s">
+        <v>400</v>
+      </c>
+      <c r="H8" s="258">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="I8" s="272"/>
+      <c r="I8" s="258"/>
       <c r="J8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O8" s="117">
         <v>0.18</v>
@@ -12255,54 +12123,54 @@
       <c r="V8" s="117"/>
       <c r="W8" s="117"/>
     </row>
-    <row r="9" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B9" s="161" t="s">
         <v>174</v>
       </c>
-      <c r="H9" s="272">
+      <c r="H9" s="258">
         <v>0.11899999999999999</v>
       </c>
-      <c r="I9" s="272"/>
+      <c r="I9" s="258"/>
       <c r="J9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B10" s="161" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B11" s="161" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I11">
         <v>0.33</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B12" s="161" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D12">
         <v>3677</v>
       </c>
-      <c r="H12" s="272">
+      <c r="H12" s="258">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="S12">
@@ -12315,17 +12183,17 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B13" s="161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D13">
         <v>3242</v>
       </c>
-      <c r="H13" s="272">
+      <c r="H13" s="258">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="S13">
@@ -12347,12 +12215,12 @@
         <v>1.480365296803653E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B14" s="161" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D14">
         <v>192</v>
@@ -12367,79 +12235,78 @@
         <f t="shared" ref="B17:C17" si="4">B1</f>
         <v>Technology Name</v>
       </c>
-      <c r="C17" s="268" t="str">
+      <c r="C17" s="274" t="str">
         <f t="shared" si="4"/>
         <v>Installation Cost per kW</v>
       </c>
-      <c r="D17" s="268"/>
-      <c r="E17" s="268"/>
-      <c r="F17" s="268"/>
-      <c r="G17" s="269" t="s">
+      <c r="D17" s="274"/>
+      <c r="E17" s="274"/>
+      <c r="F17" s="274"/>
+      <c r="G17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H17" t="s">
+        <v>418</v>
+      </c>
+      <c r="I17" t="s">
         <v>420</v>
       </c>
-      <c r="H17" s="269" t="s">
-        <v>419</v>
-      </c>
-      <c r="I17" s="269" t="s">
+      <c r="J17" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" t="s">
+        <v>423</v>
+      </c>
+      <c r="L17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" t="s">
+        <v>424</v>
+      </c>
+      <c r="N17" t="s">
+        <v>425</v>
+      </c>
+      <c r="O17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="255"/>
+      <c r="D18" s="255"/>
+      <c r="E18" s="255" t="s">
+        <v>412</v>
+      </c>
+      <c r="F18" s="255"/>
+      <c r="G18" t="s">
+        <v>412</v>
+      </c>
+      <c r="H18" t="s">
+        <v>412</v>
+      </c>
+      <c r="I18" s="255" t="s">
         <v>421</v>
       </c>
-      <c r="J17" s="269" t="s">
-        <v>423</v>
-      </c>
-      <c r="K17" s="269" t="s">
-        <v>424</v>
-      </c>
-      <c r="L17" s="269" t="s">
-        <v>112</v>
-      </c>
-      <c r="M17" s="269" t="s">
-        <v>425</v>
-      </c>
-      <c r="N17" s="269" t="s">
+      <c r="J18" s="255" t="s">
+        <v>421</v>
+      </c>
+      <c r="K18" s="255" t="s">
+        <v>421</v>
+      </c>
+      <c r="L18" s="255"/>
+      <c r="M18" s="255" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18" s="255" t="s">
         <v>426</v>
       </c>
-      <c r="O17" s="269" t="s">
-        <v>428</v>
-      </c>
-      <c r="P17" s="269"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C18" s="267"/>
-      <c r="D18" s="267"/>
-      <c r="E18" s="267" t="s">
-        <v>413</v>
-      </c>
-      <c r="F18" s="267"/>
-      <c r="G18" s="269" t="s">
-        <v>413</v>
-      </c>
-      <c r="H18" s="269" t="s">
-        <v>413</v>
-      </c>
-      <c r="I18" s="267" t="s">
-        <v>422</v>
-      </c>
-      <c r="J18" s="267" t="s">
-        <v>422</v>
-      </c>
-      <c r="K18" s="267" t="s">
-        <v>422</v>
-      </c>
-      <c r="L18" s="267"/>
-      <c r="M18" s="267" t="s">
-        <v>114</v>
-      </c>
-      <c r="N18" s="267" t="s">
-        <v>427</v>
-      </c>
-      <c r="O18" s="267" t="s">
-        <v>427</v>
-      </c>
-      <c r="P18" s="267"/>
+      <c r="O18" s="255" t="s">
+        <v>426</v>
+      </c>
+      <c r="P18" s="255"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C19" t="str">
         <f>C2</f>
@@ -12462,23 +12329,23 @@
         <v>Ethiopia</v>
       </c>
       <c r="H19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I19" t="str">
         <f>I2</f>
         <v>Ethiopia</v>
       </c>
       <c r="J19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P19">
         <f>P2</f>
@@ -12487,16 +12354,16 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E20">
         <v>2770</v>
       </c>
       <c r="F20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G20">
         <v>21</v>
@@ -12516,16 +12383,16 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E21">
         <v>2000</v>
       </c>
       <c r="F21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G21">
         <v>18</v>
@@ -12545,16 +12412,16 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E22">
         <v>2900</v>
       </c>
       <c r="F22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G22">
         <v>46</v>
@@ -12574,16 +12441,16 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E23">
         <v>1100</v>
       </c>
       <c r="F23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G23">
         <v>21</v>
@@ -12606,16 +12473,16 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E24">
         <v>1700</v>
       </c>
       <c r="F24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G24">
         <v>46</v>
@@ -12638,7 +12505,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B25" t="s">
         <v>124</v>
@@ -12647,7 +12514,7 @@
         <v>3333</v>
       </c>
       <c r="F25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G25">
         <v>75.599999999999994</v>
@@ -12676,16 +12543,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E26">
         <v>5238</v>
       </c>
       <c r="F26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G26">
         <v>67.3</v>
@@ -12708,18 +12575,18 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>428</v>
+      </c>
+      <c r="B31" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" t="s">
         <v>429</v>
-      </c>
-      <c r="B31" t="s">
-        <v>429</v>
-      </c>
-      <c r="C31" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -12737,10 +12604,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C34">
         <f>7.66/0.0002777778</f>
@@ -12749,10 +12616,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C35">
         <f>18.8/0.0002777778</f>
@@ -12761,10 +12628,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C36">
         <f>8.121/0.0002777778</f>
@@ -12773,10 +12640,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B37" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C37">
         <f>1.263/0.0002777778</f>
@@ -12785,10 +12652,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C38">
         <f>5.835/0.0002777778</f>
@@ -12797,41 +12664,41 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="161" t="s">
-        <v>452</v>
-      </c>
-      <c r="B42" s="275" t="s">
-        <v>454</v>
-      </c>
-      <c r="C42" s="274" t="s">
-        <v>454</v>
-      </c>
-      <c r="D42" s="274"/>
-      <c r="E42" s="274"/>
+        <v>451</v>
+      </c>
+      <c r="B42" s="161" t="s">
+        <v>453</v>
+      </c>
+      <c r="C42" s="273" t="s">
+        <v>453</v>
+      </c>
+      <c r="D42" s="273"/>
+      <c r="E42" s="273"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="161"/>
       <c r="B43" s="161" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C43" s="161" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D43" s="161" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E43" s="161" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F43" s="161" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="161" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B44" s="161" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E44">
         <v>0.35</v>
@@ -12839,10 +12706,10 @@
     </row>
     <row r="45" spans="1:6" s="162" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="162" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B45" s="162" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C45" s="162">
         <v>0.8</v>
@@ -12856,10 +12723,10 @@
     </row>
     <row r="46" spans="1:6" s="162" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="162" t="s">
+        <v>456</v>
+      </c>
+      <c r="B46" s="162" t="s">
         <v>457</v>
-      </c>
-      <c r="B46" s="162" t="s">
-        <v>458</v>
       </c>
       <c r="C46" s="162">
         <v>0.95</v>
@@ -12873,10 +12740,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B47" s="161" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C47">
         <v>0.8</v>
@@ -12890,10 +12757,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B48" s="161" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C48">
         <v>0.8</v>
@@ -12902,12 +12769,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="276" t="s">
+    <row r="49" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A49" s="259" t="s">
+        <v>465</v>
+      </c>
+      <c r="B49" s="161" t="s">
         <v>466</v>
-      </c>
-      <c r="B49" s="161" t="s">
-        <v>467</v>
       </c>
       <c r="C49">
         <v>0.85</v>
@@ -12919,12 +12786,12 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="276" t="s">
-        <v>466</v>
+    <row r="50" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A50" s="259" t="s">
+        <v>465</v>
       </c>
       <c r="B50" s="161" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C50">
         <v>0.85</v>
@@ -12936,12 +12803,12 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="276" t="s">
+    <row r="51" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A51" s="259" t="s">
+        <v>468</v>
+      </c>
+      <c r="B51" s="161" t="s">
         <v>469</v>
-      </c>
-      <c r="B51" s="161" t="s">
-        <v>470</v>
       </c>
       <c r="E51">
         <v>0.85</v>
@@ -12952,21 +12819,21 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B52" s="161" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E52">
         <v>0.51039999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="276" t="s">
-        <v>465</v>
+    <row r="53" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A53" s="259" t="s">
+        <v>464</v>
       </c>
       <c r="B53" s="161" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E53">
         <v>0.65</v>
@@ -13005,25 +12872,25 @@
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="10" width="13.36328125" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="O1" s="12" t="s">
         <v>90</v>
       </c>
@@ -13037,7 +12904,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D2" s="27" t="s">
         <v>44</v>
       </c>
@@ -13070,7 +12937,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
         <v>174</v>
@@ -13109,7 +12976,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="29" t="s">
         <v>50</v>
       </c>
@@ -13144,7 +13011,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="29" t="s">
         <v>52</v>
       </c>
@@ -13169,7 +13036,7 @@
         <v>225037.94899999999</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B7" s="29" t="s">
         <v>128</v>
       </c>
@@ -13187,7 +13054,7 @@
       </c>
       <c r="K7" s="26"/>
     </row>
-    <row r="8" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B8" s="55" t="s">
         <v>116</v>
       </c>
@@ -13227,7 +13094,7 @@
         <v>2102286.7409999999</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="61" t="s">
         <v>54</v>
@@ -13241,7 +13108,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="39"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
         <v>55</v>
       </c>
@@ -13262,7 +13129,7 @@
         <v>-209</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
         <v>46</v>
       </c>
@@ -13295,7 +13162,7 @@
         <v>6292.8000000000102</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="29" t="s">
         <v>58</v>
       </c>
@@ -13324,7 +13191,7 @@
         <v>-1977483.48</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="23"/>
       <c r="C13" s="38" t="s">
         <v>59</v>
@@ -13362,7 +13229,7 @@
         <v>-1971399.6799999999</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="23"/>
       <c r="C14" s="61" t="s">
         <v>60</v>
@@ -13376,7 +13243,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="39"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="29" t="s">
         <v>61</v>
       </c>
@@ -13401,7 +13268,7 @@
         <v>1415286.2489999998</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
         <v>63</v>
       </c>
@@ -13426,7 +13293,7 @@
         <v>27360.052000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="29" t="s">
         <v>65</v>
       </c>
@@ -13445,7 +13312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
         <v>133</v>
       </c>
@@ -13470,7 +13337,7 @@
         <v>47314.468500000003</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
         <v>135</v>
       </c>
@@ -13493,7 +13360,7 @@
         <v>32155.458499999997</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
         <v>67</v>
       </c>
@@ -13514,7 +13381,7 @@
         <v>7289.8130000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="29" t="s">
         <v>68</v>
       </c>
@@ -13539,7 +13406,7 @@
         <v>100932.34299999999</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="29" t="s">
         <v>70</v>
       </c>
@@ -13560,7 +13427,7 @@
         <v>7289.8130000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="29" t="s">
         <v>83</v>
       </c>
@@ -13581,7 +13448,7 @@
         <v>4304.424</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="29" t="s">
         <v>84</v>
       </c>
@@ -13602,7 +13469,7 @@
         <v>45897</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B25" s="55" t="s">
         <v>86</v>
       </c>
@@ -13654,7 +13521,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C28" s="35" t="s">
         <v>98</v>
       </c>
@@ -13824,7 +13691,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="D44" s="27" t="s">
         <v>44</v>
       </c>
@@ -13847,7 +13714,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>144</v>
       </c>
@@ -13997,7 +13864,7 @@
       <c r="J63" s="117"/>
       <c r="K63" s="120"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C65" s="82" t="s">
         <v>147</v>
       </c>
@@ -14008,7 +13875,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" ht="13" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>146</v>
       </c>
@@ -14022,7 +13889,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" ht="13" x14ac:dyDescent="0.3">
       <c r="B67" s="29" t="s">
         <v>133</v>
       </c>
@@ -14046,25 +13913,25 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="10" width="13.36328125" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="O1" s="12" t="s">
         <v>90</v>
       </c>
@@ -14078,7 +13945,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D2" s="27" t="s">
         <v>44</v>
       </c>
@@ -14111,7 +13978,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
         <v>174</v>
@@ -14150,7 +14017,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="29" t="s">
         <v>50</v>
       </c>
@@ -14191,7 +14058,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="29" t="s">
         <v>52</v>
       </c>
@@ -14231,7 +14098,7 @@
         <v>62510.546389732197</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B7" s="29" t="s">
         <v>128</v>
       </c>
@@ -14268,7 +14135,7 @@
       </c>
       <c r="K7" s="26"/>
     </row>
-    <row r="8" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B8" s="55" t="s">
         <v>116</v>
       </c>
@@ -14308,7 +14175,7 @@
         <v>583968.58588414988</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="61" t="s">
         <v>54</v>
@@ -14322,7 +14189,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="39"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
         <v>55</v>
       </c>
@@ -14341,7 +14208,7 @@
       </c>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="29" t="s">
         <v>46</v>
       </c>
@@ -14363,7 +14230,7 @@
       <c r="J11" s="131"/>
       <c r="K11" s="131"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="29" t="s">
         <v>58</v>
       </c>
@@ -14403,7 +14270,7 @@
         <v>-549301.01061074401</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="23"/>
       <c r="C13" s="38" t="s">
         <v>59</v>
@@ -14429,7 +14296,7 @@
         <v>-549301.01061074401</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="23"/>
       <c r="C14" s="61" t="s">
         <v>60</v>
@@ -14443,7 +14310,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="39"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="29" t="s">
         <v>61</v>
       </c>
@@ -14483,7 +14350,7 @@
         <v>393135.1006174722</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
         <v>63</v>
       </c>
@@ -14523,7 +14390,7 @@
         <v>7600.0150524456003</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="29" t="s">
         <v>65</v>
       </c>
@@ -14563,7 +14430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="151" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" s="151" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="147" t="s">
         <v>133</v>
       </c>
@@ -14603,7 +14470,7 @@
         <v>13142.9089680993</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
         <v>135</v>
       </c>
@@ -14643,7 +14510,7 @@
         <v>8932.0725201213008</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
         <v>67</v>
       </c>
@@ -14683,7 +14550,7 @@
         <v>2024.9482175514001</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="29" t="s">
         <v>68</v>
       </c>
@@ -14723,7 +14590,7 @@
         <v>28036.764187385401</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="29" t="s">
         <v>70</v>
       </c>
@@ -14763,7 +14630,7 @@
         <v>2024.9482175514001</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="29" t="s">
         <v>83</v>
       </c>
@@ -14803,7 +14670,7 @@
         <v>1195.6734289872002</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="29" t="s">
         <v>84</v>
       </c>
@@ -14843,7 +14710,7 @@
         <v>12749.167686600002</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B25" s="55" t="s">
         <v>86</v>
       </c>
@@ -14895,7 +14762,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C28" s="35" t="s">
         <v>98</v>
       </c>
@@ -15065,7 +14932,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="D44" s="27" t="s">
         <v>44</v>
       </c>
@@ -15088,7 +14955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>144</v>
       </c>
@@ -15238,7 +15105,7 @@
       <c r="J63" s="117"/>
       <c r="K63" s="120"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C65" s="82" t="s">
         <v>147</v>
       </c>
@@ -15249,7 +15116,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" ht="13" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>146</v>
       </c>
@@ -15263,7 +15130,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" ht="13" x14ac:dyDescent="0.3">
       <c r="B67" s="29" t="s">
         <v>133</v>
       </c>
@@ -15288,16 +15155,16 @@
       <selection activeCell="K2" sqref="K2:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="1.90625" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" customWidth="1"/>
+    <col min="12" max="12" width="6.6328125" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.4">
       <c r="B2" s="50" t="s">
         <v>102</v>
       </c>
@@ -15305,22 +15172,22 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.4">
       <c r="K3" s="50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="18" x14ac:dyDescent="0.4">
       <c r="B14" s="50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="13" x14ac:dyDescent="0.3">
       <c r="D16" s="51" t="s">
         <v>119</v>
       </c>
@@ -15348,35 +15215,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" customWidth="1"/>
     <col min="11" max="11" width="2" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" customWidth="1"/>
-    <col min="14" max="14" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.109375" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.08984375" customWidth="1"/>
+    <col min="14" max="14" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.08984375" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" customWidth="1"/>
+    <col min="18" max="18" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="29" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>75</v>
       </c>
@@ -15394,7 +15261,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="str">
         <f>EBF!D2</f>
@@ -15423,7 +15290,7 @@
       <c r="S2" s="66"/>
       <c r="T2" s="66"/>
     </row>
-    <row r="3" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>45</v>
       </c>
@@ -15465,12 +15332,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="161" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E4" s="81" t="s">
         <v>165</v>
@@ -15507,9 +15374,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C5" s="162" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" s="162" t="s">
         <v>142</v>
@@ -15527,7 +15394,7 @@
       </c>
       <c r="M5" s="70"/>
       <c r="N5" s="160" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O5" s="66" t="s">
         <v>171</v>
@@ -15540,7 +15407,7 @@
       <c r="S5" s="66"/>
       <c r="T5" s="66"/>
     </row>
-    <row r="6" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C6" s="162" t="s">
         <v>139</v>
       </c>
@@ -15560,7 +15427,7 @@
       </c>
       <c r="M6" s="70"/>
       <c r="N6" s="160" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O6" s="66" t="s">
         <v>172</v>
@@ -15573,7 +15440,7 @@
       <c r="S6" s="66"/>
       <c r="T6" s="66"/>
     </row>
-    <row r="7" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C7" s="162" t="s">
         <v>131</v>
       </c>
@@ -15593,7 +15460,7 @@
       </c>
       <c r="M7" s="70"/>
       <c r="N7" s="160" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O7" s="66" t="s">
         <v>173</v>
@@ -15606,12 +15473,12 @@
       <c r="S7" s="66"/>
       <c r="T7" s="66"/>
     </row>
-    <row r="8" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C8" s="162" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="162" t="s">
         <v>276</v>
-      </c>
-      <c r="D8" s="162" t="s">
-        <v>277</v>
       </c>
       <c r="E8" s="81" t="s">
         <v>165</v>
@@ -15626,7 +15493,7 @@
       </c>
       <c r="M8" s="70"/>
       <c r="N8" s="160" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="O8" s="160" t="s">
         <v>85</v>
@@ -15639,7 +15506,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="66"/>
     </row>
-    <row r="9" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C9" s="162"/>
       <c r="D9" s="162"/>
       <c r="E9" s="81"/>
@@ -15650,10 +15517,10 @@
       </c>
       <c r="M9" s="70"/>
       <c r="N9" s="160" t="s">
+        <v>271</v>
+      </c>
+      <c r="O9" s="160" t="s">
         <v>272</v>
-      </c>
-      <c r="O9" s="160" t="s">
-        <v>273</v>
       </c>
       <c r="P9" s="160" t="s">
         <v>165</v>
@@ -15669,7 +15536,7 @@
       </c>
       <c r="M10" s="163"/>
       <c r="N10" s="163" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O10" s="163" t="s">
         <v>124</v>
@@ -15688,10 +15555,10 @@
       </c>
       <c r="M11" s="163"/>
       <c r="N11" s="163" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O11" s="163" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P11" s="163" t="s">
         <v>165</v>
@@ -15710,7 +15577,7 @@
         <v>175</v>
       </c>
       <c r="O12" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P12" s="66" t="s">
         <v>165</v>
@@ -15725,11 +15592,11 @@
         <v>82</v>
       </c>
       <c r="M13" s="70"/>
-      <c r="N13" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="O13" s="66" t="s">
-        <v>251</v>
+      <c r="N13" s="160" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="160" t="s">
+        <v>470</v>
       </c>
       <c r="P13" s="66" t="s">
         <v>165</v>
@@ -15745,13 +15612,13 @@
       </c>
       <c r="M14" s="70"/>
       <c r="N14" s="160" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O14" s="160" t="s">
+        <v>293</v>
+      </c>
+      <c r="P14" s="160" t="s">
         <v>294</v>
-      </c>
-      <c r="P14" s="160" t="s">
-        <v>295</v>
       </c>
       <c r="Q14" s="66"/>
       <c r="R14" s="66"/>
@@ -15786,10 +15653,10 @@
       </c>
       <c r="M17" s="179"/>
       <c r="N17" s="179" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O17" s="179" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P17" s="179" t="s">
         <v>165</v>
@@ -15805,10 +15672,10 @@
       </c>
       <c r="M18" s="179"/>
       <c r="N18" s="179" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O18" s="179" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P18" s="179" t="s">
         <v>165</v>
@@ -15839,7 +15706,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="F21" s="3" t="s">
         <v>13</v>
       </c>
@@ -15856,7 +15723,7 @@
       <c r="S21" s="70"/>
       <c r="T21" s="70"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -15912,7 +15779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>39</v>
       </c>
@@ -15964,7 +15831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>87</v>
       </c>
@@ -16144,7 +16011,7 @@
       <c r="C28" s="70"/>
       <c r="D28" s="160" t="str">
         <f>N$8</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="E28" s="1">
         <v>2022</v>
@@ -16186,7 +16053,7 @@
       <c r="C29" s="175"/>
       <c r="D29" s="160" t="str">
         <f t="shared" ref="D29:D30" si="1">N$8</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="E29" s="174">
         <v>2030</v>
@@ -16220,7 +16087,7 @@
       <c r="C30" s="175"/>
       <c r="D30" s="160" t="str">
         <f t="shared" si="1"/>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="E30" s="174">
         <v>2030</v>
@@ -16235,10 +16102,10 @@
       </c>
       <c r="M30" s="174"/>
       <c r="N30" s="175" t="s">
+        <v>288</v>
+      </c>
+      <c r="O30" s="177" t="s">
         <v>289</v>
-      </c>
-      <c r="O30" s="177" t="s">
-        <v>290</v>
       </c>
       <c r="P30" s="174" t="s">
         <v>165</v>
@@ -16267,10 +16134,10 @@
       </c>
       <c r="M31" s="174"/>
       <c r="N31" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="O31" s="177" t="s">
         <v>291</v>
-      </c>
-      <c r="O31" s="177" t="s">
-        <v>292</v>
       </c>
       <c r="P31" s="174" t="s">
         <v>165</v>
@@ -16298,10 +16165,10 @@
         <v>50</v>
       </c>
       <c r="N32" s="175" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O32" s="177" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P32" s="174" t="s">
         <v>165</v>
@@ -16329,10 +16196,10 @@
         <v>46</v>
       </c>
       <c r="N33" s="160" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O33" s="176" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P33" s="174" t="s">
         <v>165</v>
@@ -16477,36 +16344,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V38"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="93" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="93" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" style="93" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="93" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="93" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" style="93" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="93" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" style="93" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="93" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.109375" style="93" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="93" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" style="93" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="93" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="63.88671875" style="93" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.21875" style="93" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" style="93" customWidth="1"/>
-    <col min="20" max="20" width="13.44140625" style="93" customWidth="1"/>
-    <col min="21" max="21" width="13.88671875" style="93" customWidth="1"/>
-    <col min="22" max="22" width="8.44140625" style="93" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="93"/>
+    <col min="6" max="6" width="13.08984375" style="93" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" style="93" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" style="93" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" style="93" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.08984375" style="93" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" style="93" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.08984375" style="93" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" style="93" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="63.90625" style="93" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1796875" style="93" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6328125" style="93" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="93" customWidth="1"/>
+    <col min="21" max="21" width="13.90625" style="93" customWidth="1"/>
+    <col min="22" max="22" width="8.453125" style="93" customWidth="1"/>
+    <col min="23" max="16384" width="8.90625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
@@ -16527,7 +16394,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" ht="31" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="str">
         <f>EBF!B18</f>
         <v>MAN</v>
@@ -16564,7 +16431,7 @@
       <c r="U2" s="95"/>
       <c r="V2" s="95"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="N3" s="96" t="s">
         <v>7</v>
       </c>
@@ -16593,7 +16460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -16628,7 +16495,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
@@ -16645,7 +16512,7 @@
       <c r="U5" s="178"/>
       <c r="V5" s="178"/>
     </row>
-    <row r="6" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -16672,7 +16539,7 @@
       <c r="U6" s="95"/>
       <c r="V6" s="95"/>
     </row>
-    <row r="7" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -16687,7 +16554,7 @@
         <v>170</v>
       </c>
       <c r="Q7" s="95" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R7" s="95" t="s">
         <v>165</v>
@@ -16699,7 +16566,7 @@
       <c r="U7" s="95"/>
       <c r="V7" s="95"/>
     </row>
-    <row r="8" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
@@ -16711,10 +16578,10 @@
       </c>
       <c r="O8" s="95"/>
       <c r="P8" s="171" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q8" s="171" t="s">
         <v>282</v>
-      </c>
-      <c r="Q8" s="171" t="s">
-        <v>283</v>
       </c>
       <c r="R8" s="95" t="s">
         <v>165</v>
@@ -16801,7 +16668,7 @@
       <c r="U12" s="95"/>
       <c r="V12" s="95"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
@@ -16825,7 +16692,7 @@
       <c r="U14" s="95"/>
       <c r="V14" s="95"/>
     </row>
-    <row r="15" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="54" t="s">
         <v>1</v>
       </c>
@@ -16886,7 +16753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="103" t="s">
         <v>39</v>
       </c>
@@ -16947,14 +16814,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="106" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="106"/>
       <c r="D17" s="106"/>
       <c r="E17" s="107" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F17" s="107"/>
       <c r="G17" s="107"/>
@@ -17020,7 +16887,7 @@
         <v>156</v>
       </c>
       <c r="Q18" s="93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R18" s="95" t="str">
         <f>$E$2</f>
@@ -17088,7 +16955,7 @@
       <c r="U19" s="95"/>
       <c r="V19" s="95"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="93" t="str">
         <f>P$19</f>
         <v>Boiler</v>
@@ -17129,7 +16996,7 @@
         <v>170</v>
       </c>
       <c r="Q20" s="93" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R20" s="93" t="s">
         <v>165</v>
@@ -17138,12 +17005,12 @@
         <v>157</v>
       </c>
       <c r="T20" s="159" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="99" t="str">
-        <f>P21</f>
+        <f>P28</f>
         <v>CSP</v>
       </c>
       <c r="C21" s="99" t="str">
@@ -17177,19 +17044,16 @@
         <v>115</v>
       </c>
       <c r="P21" s="165" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q21" s="165" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R21" s="99" t="s">
         <v>165</v>
       </c>
       <c r="S21" s="99" t="s">
         <v>157</v>
-      </c>
-      <c r="T21" s="169" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="22" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
@@ -17199,11 +17063,11 @@
       </c>
       <c r="C22" s="99" t="str">
         <f>PRI_Sector_Fuels!N8</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="D22" s="95" t="str">
         <f>PRI_Sector_Fuels!N$13</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="E22" s="167">
         <v>0</v>
@@ -17222,21 +17086,6 @@
       </c>
       <c r="J22" s="165">
         <v>0</v>
-      </c>
-      <c r="N22" s="165" t="s">
-        <v>115</v>
-      </c>
-      <c r="P22" s="165" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q22" s="165" t="s">
-        <v>281</v>
-      </c>
-      <c r="R22" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="S22" s="99" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
@@ -17305,12 +17154,12 @@
     </row>
     <row r="25" spans="2:22" s="165" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99" t="str">
-        <f>P22</f>
+        <f>P21</f>
         <v>Furnace</v>
       </c>
       <c r="C25" s="166" t="str">
         <f>PRI_Sector_Fuels!N8</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="D25" s="95" t="str">
         <f>PRI_Sector_Fuels!N$12</f>
@@ -17341,7 +17190,7 @@
       </c>
       <c r="C26" s="95" t="str">
         <f>PRI_Sector_Fuels!N8</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="D26" s="95" t="str">
         <f>PRI_Sector_Fuels!N$12</f>
@@ -17397,7 +17246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="170"/>
       <c r="C28" s="95"/>
       <c r="D28" s="166"/>
@@ -17407,8 +17256,27 @@
       <c r="H28" s="165"/>
       <c r="I28" s="165"/>
       <c r="J28" s="165"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N28" s="165" t="s">
+        <v>115</v>
+      </c>
+      <c r="O28" s="165"/>
+      <c r="P28" s="165" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q28" s="165" t="s">
+        <v>278</v>
+      </c>
+      <c r="R28" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="S28" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="T28" s="169" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="F29" s="114"/>
       <c r="N29" s="93" t="s">
         <v>115</v>
@@ -17417,7 +17285,7 @@
         <v>46</v>
       </c>
       <c r="Q29" s="93" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R29" s="95" t="str">
         <f t="shared" ref="R29" si="0">$E$2</f>
@@ -17427,7 +17295,7 @@
         <v>157</v>
       </c>
       <c r="T29" s="159" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
@@ -17517,21 +17385,21 @@
   <dimension ref="B1:R59"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:D20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
@@ -17548,7 +17416,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>82</v>
       </c>
@@ -17566,14 +17434,14 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K3" s="154"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="C5" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="123"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="122" t="s">
         <v>182</v>
       </c>
@@ -17612,7 +17480,7 @@
       </c>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="2:18" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="30.5" x14ac:dyDescent="0.25">
       <c r="B7" s="125" t="s">
         <v>81</v>
       </c>
@@ -17645,7 +17513,7 @@
       </c>
       <c r="L7" s="153"/>
       <c r="M7" s="155" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N7" s="130"/>
       <c r="O7" s="122" t="s">
@@ -17661,7 +17529,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="124" t="s">
         <v>87</v>
       </c>
@@ -17700,7 +17568,7 @@
       <c r="Q8" s="132"/>
       <c r="R8" s="132"/>
     </row>
-    <row r="9" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="126" t="s">
         <v>187</v>
       </c>
@@ -17750,13 +17618,12 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="126" t="str">
-        <f>DemTechs_INDF!P7</f>
-        <v>MANELC</v>
+      <c r="C10" s="146" t="s">
+        <v>46</v>
       </c>
       <c r="D10" s="126" t="str">
         <f>E$2</f>
@@ -17807,7 +17674,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="126"/>
       <c r="C11" s="126"/>
       <c r="D11" s="126"/>
@@ -17836,7 +17703,7 @@
       <c r="B12" s="126"/>
       <c r="C12" s="126"/>
       <c r="D12" s="146" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="145">
         <f>E10/(E$9+E$10)</f>
@@ -17885,7 +17752,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="D13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E13" s="145">
         <f>E9/(E$9+E$10)</f>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\INDIND\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E60B6-A861-4370-8B3B-5E22634940BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C84E60B6-A861-4370-8B3B-5E22634940BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{365473A6-CE76-4234-A097-925E38A2F494}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="890" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-420" yWindow="470" windowWidth="21600" windowHeight="11250" tabRatio="890" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energybalance history" sheetId="147" r:id="rId1"/>
@@ -1566,7 +1566,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="472">
   <si>
     <t>CommName</t>
   </si>
@@ -3084,6 +3084,9 @@
   </si>
   <si>
     <t>Manufacturing electricity for non-process heat</t>
+  </si>
+  <si>
+    <t>Aggrigate electricity demand of manufacturing sector</t>
   </si>
 </sst>
 </file>
@@ -4420,24 +4423,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -4448,6 +4433,15 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4455,6 +4449,15 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7639,58 +7642,58 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="263" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="260" t="s">
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="263" t="s">
         <v>298</v>
       </c>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="266" t="s">
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="260" t="s">
         <v>299</v>
       </c>
-      <c r="K2" s="267"/>
-      <c r="L2" s="267"/>
-      <c r="M2" s="268"/>
-      <c r="N2" s="260" t="s">
+      <c r="K2" s="261"/>
+      <c r="L2" s="261"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="263" t="s">
         <v>300</v>
       </c>
-      <c r="O2" s="261"/>
-      <c r="P2" s="261"/>
-      <c r="Q2" s="261"/>
-      <c r="R2" s="262"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="264"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="265"/>
       <c r="V2" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="W2" s="269" t="s">
+      <c r="W2" s="266" t="s">
         <v>301</v>
       </c>
-      <c r="X2" s="270"/>
-      <c r="Y2" s="270"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="271"/>
-      <c r="AB2" s="269" t="s">
+      <c r="X2" s="267"/>
+      <c r="Y2" s="267"/>
+      <c r="Z2" s="267"/>
+      <c r="AA2" s="268"/>
+      <c r="AB2" s="266" t="s">
         <v>302</v>
       </c>
-      <c r="AC2" s="270"/>
-      <c r="AD2" s="270"/>
-      <c r="AE2" s="270"/>
-      <c r="AF2" s="271"/>
+      <c r="AC2" s="267"/>
+      <c r="AD2" s="267"/>
+      <c r="AE2" s="267"/>
+      <c r="AF2" s="268"/>
     </row>
     <row r="3" spans="1:32" ht="24.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="260" t="s">
+      <c r="A3" s="263" t="s">
         <v>303</v>
       </c>
-      <c r="B3" s="261"/>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="262"/>
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="265"/>
       <c r="F3" s="187">
         <v>5</v>
       </c>
@@ -7763,7 +7766,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="269" t="s">
         <v>307</v>
       </c>
       <c r="B4" s="194"/>
@@ -7844,7 +7847,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="264"/>
+      <c r="A5" s="270"/>
       <c r="B5" s="194"/>
       <c r="C5" s="194"/>
       <c r="D5" s="194"/>
@@ -7923,7 +7926,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="264"/>
+      <c r="A6" s="270"/>
       <c r="B6" s="194"/>
       <c r="C6" s="194"/>
       <c r="D6" s="194"/>
@@ -8002,7 +8005,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="264"/>
+      <c r="A7" s="270"/>
       <c r="B7" s="194"/>
       <c r="C7" s="194"/>
       <c r="D7" s="194"/>
@@ -8081,7 +8084,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="264"/>
+      <c r="A8" s="270"/>
       <c r="B8" s="194"/>
       <c r="C8" s="194"/>
       <c r="D8" s="194"/>
@@ -8160,7 +8163,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="264"/>
+      <c r="A9" s="270"/>
       <c r="B9" s="194"/>
       <c r="C9" s="194"/>
       <c r="D9" s="194"/>
@@ -8239,7 +8242,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="264"/>
+      <c r="A10" s="270"/>
       <c r="B10" s="194"/>
       <c r="C10" s="194"/>
       <c r="D10" s="194"/>
@@ -8318,7 +8321,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="265"/>
+      <c r="A11" s="271"/>
       <c r="B11" s="187"/>
       <c r="C11" s="187"/>
       <c r="D11" s="187"/>
@@ -8364,7 +8367,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="263" t="s">
+      <c r="A12" s="269" t="s">
         <v>311</v>
       </c>
       <c r="B12" s="194"/>
@@ -8412,7 +8415,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="264"/>
+      <c r="A13" s="270"/>
       <c r="B13" s="194"/>
       <c r="C13" s="194"/>
       <c r="D13" s="194"/>
@@ -8458,7 +8461,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="264"/>
+      <c r="A14" s="270"/>
       <c r="B14" s="194"/>
       <c r="C14" s="194"/>
       <c r="D14" s="194"/>
@@ -8504,7 +8507,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="264"/>
+      <c r="A15" s="270"/>
       <c r="B15" s="194"/>
       <c r="C15" s="194"/>
       <c r="D15" s="194"/>
@@ -8550,7 +8553,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="264"/>
+      <c r="A16" s="270"/>
       <c r="B16" s="194"/>
       <c r="C16" s="194"/>
       <c r="D16" s="194"/>
@@ -8596,7 +8599,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="264"/>
+      <c r="A17" s="270"/>
       <c r="B17" s="194"/>
       <c r="C17" s="194"/>
       <c r="D17" s="194"/>
@@ -8642,7 +8645,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="264"/>
+      <c r="A18" s="270"/>
       <c r="B18" s="194"/>
       <c r="C18" s="194"/>
       <c r="D18" s="194"/>
@@ -8688,7 +8691,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="265"/>
+      <c r="A19" s="271"/>
       <c r="B19" s="187"/>
       <c r="C19" s="187"/>
       <c r="D19" s="187"/>
@@ -11152,15 +11155,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="W2:AA2"/>
     <mergeCell ref="AB2:AF2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11226,7 +11229,7 @@
       </c>
       <c r="F6" s="141" t="str">
         <f>PRI_Sector_Fuels!N8</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="G6" s="141"/>
       <c r="H6" s="141"/>
@@ -15215,8 +15218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -15493,10 +15496,10 @@
       </c>
       <c r="M8" s="70"/>
       <c r="N8" s="160" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="O8" s="160" t="s">
-        <v>85</v>
+        <v>471</v>
       </c>
       <c r="P8" s="66" t="s">
         <v>165</v>
@@ -15593,7 +15596,7 @@
       </c>
       <c r="M13" s="70"/>
       <c r="N13" s="160" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="O13" s="160" t="s">
         <v>470</v>
@@ -16011,7 +16014,7 @@
       <c r="C28" s="70"/>
       <c r="D28" s="160" t="str">
         <f>N$8</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="E28" s="1">
         <v>2022</v>
@@ -16053,7 +16056,7 @@
       <c r="C29" s="175"/>
       <c r="D29" s="160" t="str">
         <f t="shared" ref="D29:D30" si="1">N$8</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="E29" s="174">
         <v>2030</v>
@@ -16087,7 +16090,7 @@
       <c r="C30" s="175"/>
       <c r="D30" s="160" t="str">
         <f t="shared" si="1"/>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="E30" s="174">
         <v>2030</v>
@@ -16344,8 +16347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -17063,11 +17066,11 @@
       </c>
       <c r="C22" s="99" t="str">
         <f>PRI_Sector_Fuels!N8</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="D22" s="95" t="str">
         <f>PRI_Sector_Fuels!N$13</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="E22" s="167">
         <v>0</v>
@@ -17159,7 +17162,7 @@
       </c>
       <c r="C25" s="166" t="str">
         <f>PRI_Sector_Fuels!N8</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="D25" s="95" t="str">
         <f>PRI_Sector_Fuels!N$12</f>
@@ -17190,7 +17193,7 @@
       </c>
       <c r="C26" s="95" t="str">
         <f>PRI_Sector_Fuels!N8</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="D26" s="95" t="str">
         <f>PRI_Sector_Fuels!N$12</f>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390ED131-2C01-4ADC-80E8-BF235F75CC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B33C585-481F-4856-B95F-6CA6F70F0F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="890" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energybalance history" sheetId="147" r:id="rId1"/>
     <sheet name="Enrgy growth" sheetId="148" r:id="rId2"/>
     <sheet name="TechnologydataTech" sheetId="149" r:id="rId3"/>
-    <sheet name="EBF TJ" sheetId="144" r:id="rId4"/>
-    <sheet name="EBF" sheetId="133" r:id="rId5"/>
-    <sheet name="RES&amp;OBJ" sheetId="135" r:id="rId6"/>
-    <sheet name="PRI_Sector_Fuels" sheetId="137" r:id="rId7"/>
-    <sheet name="DemTechs_INDF" sheetId="143" r:id="rId8"/>
-    <sheet name="Demands" sheetId="145" r:id="rId9"/>
-    <sheet name="Emi" sheetId="146" r:id="rId10"/>
+    <sheet name="DMD_TECH_Profile" sheetId="150" r:id="rId4"/>
+    <sheet name="EBF TJ" sheetId="144" r:id="rId5"/>
+    <sheet name="EBF" sheetId="133" r:id="rId6"/>
+    <sheet name="RES&amp;OBJ" sheetId="135" r:id="rId7"/>
+    <sheet name="PRI_Sector_Fuels" sheetId="137" r:id="rId8"/>
+    <sheet name="DemTechs_INDF" sheetId="143" r:id="rId9"/>
+    <sheet name="Demands" sheetId="145" r:id="rId10"/>
+    <sheet name="Emi" sheetId="146" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -1566,7 +1567,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="492">
   <si>
     <t>CommName</t>
   </si>
@@ -3085,6 +3086,69 @@
   <si>
     <t>Oilboiler3</t>
   </si>
+  <si>
+    <t>Mossie et al 2025a</t>
+  </si>
+  <si>
+    <t>2022 USD (Ethiopia Customs)</t>
+  </si>
+  <si>
+    <t>Life time</t>
+  </si>
+  <si>
+    <t>More than 20 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit and  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COST  </t>
+  </si>
+  <si>
+    <t>2022 USD per unit(Ethiopia Customs)</t>
+  </si>
+  <si>
+    <t>2010 Euro per ton clinker</t>
+  </si>
+  <si>
+    <t>Avalability</t>
+  </si>
+  <si>
+    <t>Avalability factor</t>
+  </si>
+  <si>
+    <t>CSP with storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology </t>
+  </si>
+  <si>
+    <t>Input share_up</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>FIXO&amp;M Cost</t>
+  </si>
+  <si>
+    <t>Average theoretical</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>TH$USD/MW</t>
+  </si>
+  <si>
+    <t>TH$USD/MWh</t>
+  </si>
+  <si>
+    <t>Electric Boiler</t>
+  </si>
+  <si>
+    <t>Bioenergy</t>
+  </si>
 </sst>
 </file>
 
@@ -3099,10 +3163,17 @@
     <numFmt numFmtId="169" formatCode="0.0000%"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3395,6 +3466,22 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="31">
@@ -3907,407 +3994,520 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="6" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="7" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="6" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="7" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="20" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="21" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="19" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="18" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="19" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="6" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="20" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="19" fillId="6" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="25" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="25" fillId="13" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="26" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="26" fillId="13" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="3" borderId="3" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="3" borderId="3" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="4" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="15" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="13" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="10" fillId="15" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="13" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="17" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="166" fontId="10" fillId="17" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="9" fillId="15" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="15" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="8" borderId="10" xfId="7" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="8" borderId="10" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="9" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="14" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="15" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="9" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="25" fillId="17" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="25" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="25" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="26" fillId="17" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="26" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="26" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="3" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="3" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="40" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="40"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="38"/>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="41"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="34"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="40"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="38"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="34"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="23" xfId="38" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="23" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="23" xfId="34" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="23" xfId="38" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="23" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="23" xfId="34" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="23" xfId="38" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="23" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="23" xfId="34" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="167" fontId="18" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" xfId="39"/>
+    <xf numFmtId="167" fontId="18" fillId="26" borderId="0" xfId="39" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="35"/>
+    <xf numFmtId="9" fontId="2" fillId="22" borderId="0" xfId="35" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="25" borderId="0" xfId="38" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="40" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="27" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" xfId="40" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="42" fillId="27" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="36" fillId="9" borderId="0" xfId="41" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="36"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="40" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="38" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="38" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="33" fillId="25" borderId="0" xfId="38" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="33" fillId="9" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="33" fillId="21" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="37" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="28" borderId="0" xfId="37" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="40" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="29" borderId="0" xfId="40" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="38" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="34" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="40" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="30" borderId="0" xfId="40" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="38" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" xfId="41" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="34" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="40" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="14" borderId="0" xfId="40" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="38" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="41" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="34" applyFill="1"/>
+    <xf numFmtId="167" fontId="36" fillId="9" borderId="0" xfId="41" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="30" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="40" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="40" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -4317,157 +4517,55 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="23" xfId="38" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="23" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="23" xfId="34" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="23" xfId="38" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="23" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="23" xfId="34" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="23" xfId="38" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="23" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="23" xfId="34" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="167" fontId="17" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" xfId="39"/>
-    <xf numFmtId="167" fontId="17" fillId="26" borderId="0" xfId="39" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="35"/>
-    <xf numFmtId="9" fontId="1" fillId="22" borderId="0" xfId="35" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="25" borderId="0" xfId="38" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="40" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="27" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="40" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" xfId="40" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="41" fillId="27" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="35" fillId="9" borderId="0" xfId="41" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="36"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="40" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="40" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="40" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="38" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="38" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="32" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="32" fillId="25" borderId="0" xfId="38" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="32" fillId="9" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="32" fillId="21" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="37" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="28" borderId="0" xfId="37" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="40" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="29" borderId="0" xfId="40" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="38" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="34" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="40" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="30" borderId="0" xfId="40" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="38" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" xfId="41" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="34" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="40" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="14" borderId="0" xfId="40" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="38" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" xfId="41" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="34" applyFill="1"/>
-    <xf numFmtId="167" fontId="35" fillId="9" borderId="0" xfId="41" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="30" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="40" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="40" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="40" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="40" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="15" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="16" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="20% - Accent5 2" xfId="21" xr:uid="{E1B1E490-7605-42BA-88C1-54B79AE47809}"/>
     <cellStyle name="20% - Accent5 2 2" xfId="31" xr:uid="{9A77BCA1-6431-4844-B2C6-C94657613BD6}"/>
@@ -4496,6 +4594,7 @@
     <cellStyle name="Normal 3" xfId="40" xr:uid="{CEDDD2B3-6AFE-4814-8666-E4C38182B461}"/>
     <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 5" xfId="43" xr:uid="{9B24544E-46B7-4242-A279-2C6B291390AD}"/>
     <cellStyle name="Normal 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Normal 8 2" xfId="28" xr:uid="{C94D68A9-0F9F-49C7-A496-97D6E4CFF1B0}"/>
     <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
@@ -4503,6 +4602,7 @@
     <cellStyle name="Per cent" xfId="16" builtinId="5"/>
     <cellStyle name="Per cent 2" xfId="24" xr:uid="{2C564A4B-D800-4EE4-B939-9255D7A664BB}"/>
     <cellStyle name="Per cent 3" xfId="42" xr:uid="{5844D0E0-44CC-4526-80B6-F2A16EB52199}"/>
+    <cellStyle name="Per cent 4" xfId="44" xr:uid="{F100120E-24A2-486A-9D7C-7F4FED9F73B8}"/>
     <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Percent 3 2" xfId="29" xr:uid="{E6B199C5-EFD9-4EA1-A159-C95FD8F6F260}"/>
@@ -7235,145 +7335,9 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>Year</v>
-          </cell>
-          <cell r="B64">
-            <v>2019</v>
-          </cell>
-          <cell r="C64">
-            <v>2020</v>
-          </cell>
-          <cell r="D64">
-            <v>2021</v>
-          </cell>
-          <cell r="E64">
-            <v>2022</v>
-          </cell>
-          <cell r="F64">
-            <v>2023</v>
-          </cell>
-          <cell r="H64">
-            <v>2024</v>
-          </cell>
-          <cell r="I64">
-            <v>2028</v>
-          </cell>
-          <cell r="J64">
-            <v>2030</v>
-          </cell>
-          <cell r="K64">
-            <v>2032</v>
-          </cell>
-          <cell r="L64">
-            <v>2036</v>
-          </cell>
-          <cell r="M64">
-            <v>2040</v>
-          </cell>
-          <cell r="N64">
-            <v>2044</v>
-          </cell>
-          <cell r="O64">
-            <v>2048</v>
-          </cell>
-          <cell r="P64">
-            <v>2050</v>
-          </cell>
-          <cell r="Q64">
-            <v>2052</v>
-          </cell>
-        </row>
         <row r="65">
-          <cell r="A65" t="str">
-            <v>Total Industry Consumption in GWh</v>
-          </cell>
-          <cell r="B65">
-            <v>19578.700555555555</v>
-          </cell>
-          <cell r="C65">
-            <v>17444.618333333336</v>
-          </cell>
-          <cell r="D65">
-            <v>19485.127222222221</v>
-          </cell>
-          <cell r="E65">
-            <v>22074.805555555551</v>
-          </cell>
-          <cell r="F65">
-            <v>22918.588888888888</v>
-          </cell>
-          <cell r="G65">
-            <v>4.1408593708299968E-2</v>
-          </cell>
-          <cell r="H65">
-            <v>16173.841000000002</v>
-          </cell>
-          <cell r="I65">
-            <v>24462.542000000001</v>
-          </cell>
-          <cell r="J65">
-            <v>30530.494500000001</v>
-          </cell>
-          <cell r="K65">
-            <v>36598.447</v>
-          </cell>
-          <cell r="L65">
-            <v>54366.760999999999</v>
-          </cell>
-          <cell r="M65">
-            <v>80381.90800000001</v>
-          </cell>
-          <cell r="N65">
-            <v>118468.99500000001</v>
-          </cell>
           <cell r="O65">
             <v>174233.682</v>
-          </cell>
-          <cell r="P65">
-            <v>215055.56349999999</v>
-          </cell>
-          <cell r="Q65">
-            <v>255877.44500000001</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>Manufacturing Electricity consumption in GWh</v>
-          </cell>
-          <cell r="B68">
-            <v>2791.0050000000001</v>
-          </cell>
-          <cell r="C68">
-            <v>2430.2799722222217</v>
-          </cell>
-          <cell r="D68">
-            <v>2683.0269444444443</v>
-          </cell>
-          <cell r="E68">
-            <v>2861.5609722222221</v>
-          </cell>
-          <cell r="F68">
-            <v>3440.232361111111</v>
-          </cell>
-          <cell r="G68">
-            <v>5.3675278227879542E-2</v>
-          </cell>
-          <cell r="J68">
-            <v>26790</v>
-          </cell>
-          <cell r="K68">
-            <v>4347.6775685872717</v>
-          </cell>
-          <cell r="M68">
-            <v>44555</v>
-          </cell>
-          <cell r="N68">
-            <v>7333.7353602111407</v>
-          </cell>
-          <cell r="P68">
-            <v>65835</v>
           </cell>
         </row>
       </sheetData>
@@ -7771,1110 +7735,1110 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="260" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="186" t="s">
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="260" t="s">
         <v>299</v>
       </c>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="189" t="s">
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="266" t="s">
         <v>300</v>
       </c>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="186" t="s">
+      <c r="K2" s="267"/>
+      <c r="L2" s="267"/>
+      <c r="M2" s="268"/>
+      <c r="N2" s="260" t="s">
         <v>301</v>
       </c>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="188"/>
-      <c r="V2" s="192" t="s">
+      <c r="O2" s="261"/>
+      <c r="P2" s="261"/>
+      <c r="Q2" s="261"/>
+      <c r="R2" s="262"/>
+      <c r="V2" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="W2" s="193" t="s">
+      <c r="W2" s="269" t="s">
         <v>302</v>
       </c>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="195"/>
-      <c r="AB2" s="193" t="s">
+      <c r="X2" s="270"/>
+      <c r="Y2" s="270"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="271"/>
+      <c r="AB2" s="269" t="s">
         <v>303</v>
       </c>
-      <c r="AC2" s="194"/>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="195"/>
+      <c r="AC2" s="270"/>
+      <c r="AD2" s="270"/>
+      <c r="AE2" s="270"/>
+      <c r="AF2" s="271"/>
     </row>
     <row r="3" spans="1:32" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="260" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="196">
+      <c r="B3" s="261"/>
+      <c r="C3" s="261"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="187">
         <v>5</v>
       </c>
-      <c r="G3" s="196" t="s">
+      <c r="G3" s="187" t="s">
         <v>305</v>
       </c>
-      <c r="H3" s="196" t="s">
+      <c r="H3" s="187" t="s">
         <v>306</v>
       </c>
-      <c r="I3" s="197">
+      <c r="I3" s="188">
         <v>10</v>
       </c>
-      <c r="J3" s="198">
+      <c r="J3" s="189">
         <v>5</v>
       </c>
-      <c r="K3" s="196" t="s">
+      <c r="K3" s="187" t="s">
         <v>305</v>
       </c>
-      <c r="L3" s="199" t="s">
+      <c r="L3" s="190" t="s">
         <v>306</v>
       </c>
-      <c r="M3" s="198">
+      <c r="M3" s="189">
         <v>10</v>
       </c>
-      <c r="N3" s="196">
+      <c r="N3" s="187">
         <v>5</v>
       </c>
-      <c r="O3" s="197" t="s">
+      <c r="O3" s="188" t="s">
         <v>305</v>
       </c>
-      <c r="P3" s="198" t="s">
+      <c r="P3" s="189" t="s">
         <v>306</v>
       </c>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="196">
+      <c r="Q3" s="189"/>
+      <c r="R3" s="187">
         <v>10</v>
       </c>
-      <c r="V3" s="200" t="s">
+      <c r="V3" s="191" t="s">
         <v>307</v>
       </c>
-      <c r="W3" s="201">
+      <c r="W3" s="192">
         <v>2018</v>
       </c>
-      <c r="X3" s="201">
+      <c r="X3" s="192">
         <v>2020</v>
       </c>
-      <c r="Y3" s="201">
+      <c r="Y3" s="192">
         <v>2030</v>
       </c>
-      <c r="Z3" s="201">
+      <c r="Z3" s="192">
         <v>2040</v>
       </c>
-      <c r="AA3" s="201">
+      <c r="AA3" s="192">
         <v>2050</v>
       </c>
-      <c r="AB3" s="202">
+      <c r="AB3" s="193">
         <v>2018</v>
       </c>
-      <c r="AC3" s="202">
+      <c r="AC3" s="193">
         <v>2020</v>
       </c>
-      <c r="AD3" s="202">
+      <c r="AD3" s="193">
         <v>2030</v>
       </c>
-      <c r="AE3" s="202">
+      <c r="AE3" s="193">
         <v>2040</v>
       </c>
-      <c r="AF3" s="202">
+      <c r="AF3" s="193">
         <v>2050</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="263" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="196">
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="187">
         <v>2024</v>
       </c>
-      <c r="F4" s="205">
+      <c r="F4" s="195">
         <v>5017.1000000000004</v>
       </c>
-      <c r="G4" s="205">
+      <c r="G4" s="195">
         <v>5269.2</v>
       </c>
-      <c r="H4" s="205">
+      <c r="H4" s="195">
         <v>5371.7</v>
       </c>
-      <c r="I4" s="206">
+      <c r="I4" s="196">
         <v>5527.3</v>
       </c>
-      <c r="J4" s="207">
+      <c r="J4" s="197">
         <v>1286.0999999999999</v>
       </c>
-      <c r="K4" s="205">
+      <c r="K4" s="195">
         <v>1355.1</v>
       </c>
-      <c r="L4" s="208">
+      <c r="L4" s="198">
         <v>1390.7</v>
       </c>
-      <c r="M4" s="207">
+      <c r="M4" s="197">
         <v>1716.2</v>
       </c>
-      <c r="N4" s="205">
+      <c r="N4" s="195">
         <v>40518.9</v>
       </c>
-      <c r="O4" s="206">
+      <c r="O4" s="196">
         <v>41362.699999999997</v>
       </c>
-      <c r="P4" s="207">
+      <c r="P4" s="197">
         <v>41705.800000000003</v>
       </c>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="205">
+      <c r="Q4" s="197"/>
+      <c r="R4" s="195">
         <v>42226.3</v>
       </c>
-      <c r="V4" s="200" t="s">
+      <c r="V4" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="W4" s="201">
+      <c r="W4" s="192">
         <v>13</v>
       </c>
-      <c r="X4" s="201">
+      <c r="X4" s="192">
         <v>15.1</v>
       </c>
-      <c r="Y4" s="201">
+      <c r="Y4" s="192">
         <v>28.2</v>
       </c>
-      <c r="Z4" s="201">
+      <c r="Z4" s="192">
         <v>46.9</v>
       </c>
-      <c r="AA4" s="201">
+      <c r="AA4" s="192">
         <v>69.3</v>
       </c>
-      <c r="AB4" s="202">
+      <c r="AB4" s="193">
         <v>1117740</v>
       </c>
-      <c r="AC4" s="202">
+      <c r="AC4" s="193">
         <v>1298298</v>
       </c>
-      <c r="AD4" s="202">
+      <c r="AD4" s="193">
         <v>2424636</v>
       </c>
-      <c r="AE4" s="202">
+      <c r="AE4" s="193">
         <v>4032462</v>
       </c>
-      <c r="AF4" s="202">
+      <c r="AF4" s="193">
         <v>5958414</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="209"/>
-      <c r="B5" s="204"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="196">
+      <c r="A5" s="264"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="187">
         <v>2028</v>
       </c>
-      <c r="F5" s="205">
+      <c r="F5" s="195">
         <v>6144.8</v>
       </c>
-      <c r="G5" s="205">
+      <c r="G5" s="195">
         <v>7109.3</v>
       </c>
-      <c r="H5" s="205">
+      <c r="H5" s="195">
         <v>7527.8</v>
       </c>
-      <c r="I5" s="206">
+      <c r="I5" s="196">
         <v>8192.7000000000007</v>
       </c>
-      <c r="J5" s="207">
+      <c r="J5" s="197">
         <v>1594.5</v>
       </c>
-      <c r="K5" s="205">
+      <c r="K5" s="195">
         <v>1858.3</v>
       </c>
-      <c r="L5" s="208">
+      <c r="L5" s="198">
         <v>2103.4</v>
       </c>
-      <c r="M5" s="207">
+      <c r="M5" s="197">
         <v>2580</v>
       </c>
-      <c r="N5" s="205">
+      <c r="N5" s="195">
         <v>42313.8</v>
       </c>
-      <c r="O5" s="206">
+      <c r="O5" s="196">
         <v>47520</v>
       </c>
-      <c r="P5" s="207">
+      <c r="P5" s="197">
         <v>48920.3</v>
       </c>
-      <c r="Q5" s="207"/>
-      <c r="R5" s="205">
+      <c r="Q5" s="197"/>
+      <c r="R5" s="195">
         <v>51145.3</v>
       </c>
-      <c r="V5" s="200" t="s">
+      <c r="V5" s="191" t="s">
         <v>309</v>
       </c>
-      <c r="W5" s="201">
+      <c r="W5" s="192">
         <v>4.5999999999999996</v>
       </c>
-      <c r="X5" s="201">
+      <c r="X5" s="192">
         <v>6.4</v>
       </c>
-      <c r="Y5" s="201">
+      <c r="Y5" s="192">
         <v>20.6</v>
       </c>
-      <c r="Z5" s="201">
+      <c r="Z5" s="192">
         <v>40.700000000000003</v>
       </c>
-      <c r="AA5" s="201">
+      <c r="AA5" s="192">
         <v>62.5</v>
       </c>
-      <c r="AB5" s="202">
+      <c r="AB5" s="193">
         <v>395508</v>
       </c>
-      <c r="AC5" s="202">
+      <c r="AC5" s="193">
         <v>550272</v>
       </c>
-      <c r="AD5" s="202">
+      <c r="AD5" s="193">
         <v>1771188</v>
       </c>
-      <c r="AE5" s="202">
+      <c r="AE5" s="193">
         <v>3499386</v>
       </c>
-      <c r="AF5" s="202">
+      <c r="AF5" s="193">
         <v>5373750</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="209"/>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="196">
+      <c r="A6" s="264"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="187">
         <v>2032</v>
       </c>
-      <c r="F6" s="205">
+      <c r="F6" s="195">
         <v>7515.5</v>
       </c>
-      <c r="G6" s="205">
+      <c r="G6" s="195">
         <v>9566.6</v>
       </c>
-      <c r="H6" s="205">
+      <c r="H6" s="195">
         <v>10515.7</v>
       </c>
-      <c r="I6" s="206">
+      <c r="I6" s="196">
         <v>12095.1</v>
       </c>
-      <c r="J6" s="207">
+      <c r="J6" s="197">
         <v>1969.4</v>
       </c>
-      <c r="K6" s="205">
+      <c r="K6" s="195">
         <v>2530.4</v>
       </c>
-      <c r="L6" s="208">
+      <c r="L6" s="198">
         <v>3146.9</v>
       </c>
-      <c r="M6" s="207">
+      <c r="M6" s="197">
         <v>3844.6</v>
       </c>
-      <c r="N6" s="205">
+      <c r="N6" s="195">
         <v>44292.6</v>
       </c>
-      <c r="O6" s="206">
+      <c r="O6" s="196">
         <v>55742.8</v>
       </c>
-      <c r="P6" s="207">
+      <c r="P6" s="197">
         <v>58918.5</v>
       </c>
-      <c r="Q6" s="207"/>
-      <c r="R6" s="205">
+      <c r="Q6" s="197"/>
+      <c r="R6" s="195">
         <v>83322.2</v>
       </c>
-      <c r="V6" s="200" t="s">
+      <c r="V6" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="201">
+      <c r="W6" s="192">
         <v>2.6</v>
       </c>
-      <c r="X6" s="201">
+      <c r="X6" s="192">
         <v>3.1</v>
       </c>
-      <c r="Y6" s="201">
+      <c r="Y6" s="192">
         <v>6.6</v>
       </c>
-      <c r="Z6" s="201">
+      <c r="Z6" s="192">
         <v>12.5</v>
       </c>
-      <c r="AA6" s="201">
+      <c r="AA6" s="192">
         <v>21</v>
       </c>
-      <c r="AB6" s="202">
+      <c r="AB6" s="193">
         <v>223548</v>
       </c>
-      <c r="AC6" s="202">
+      <c r="AC6" s="193">
         <v>266538</v>
       </c>
-      <c r="AD6" s="202">
+      <c r="AD6" s="193">
         <v>567468</v>
       </c>
-      <c r="AE6" s="202">
+      <c r="AE6" s="193">
         <v>1074750</v>
       </c>
-      <c r="AF6" s="202">
+      <c r="AF6" s="193">
         <v>1805580</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="209"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="196">
+      <c r="A7" s="264"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="187">
         <v>2036</v>
       </c>
-      <c r="F7" s="205">
+      <c r="F7" s="195">
         <v>9181.7000000000007</v>
       </c>
-      <c r="G7" s="205">
+      <c r="G7" s="195">
         <v>12848.4</v>
       </c>
-      <c r="H7" s="205">
+      <c r="H7" s="195">
         <v>14656.6</v>
       </c>
-      <c r="I7" s="206">
+      <c r="I7" s="196">
         <v>17808.599999999999</v>
       </c>
-      <c r="J7" s="207">
+      <c r="J7" s="197">
         <v>2425.1</v>
       </c>
-      <c r="K7" s="205">
+      <c r="K7" s="195">
         <v>3427.9</v>
       </c>
-      <c r="L7" s="208">
+      <c r="L7" s="198">
         <v>4674.7</v>
       </c>
-      <c r="M7" s="207">
+      <c r="M7" s="197">
         <v>5696.2</v>
       </c>
-      <c r="N7" s="205">
+      <c r="N7" s="195">
         <v>46474.2</v>
       </c>
-      <c r="O7" s="206">
+      <c r="O7" s="196">
         <v>66724.2</v>
       </c>
-      <c r="P7" s="207">
+      <c r="P7" s="197">
         <v>72774.7</v>
       </c>
-      <c r="Q7" s="207"/>
-      <c r="R7" s="205">
+      <c r="Q7" s="197"/>
+      <c r="R7" s="195">
         <v>51145.3</v>
       </c>
-      <c r="V7" s="200" t="s">
+      <c r="V7" s="191" t="s">
         <v>310</v>
       </c>
-      <c r="W7" s="201">
+      <c r="W7" s="192">
         <v>0.1</v>
       </c>
-      <c r="X7" s="201">
+      <c r="X7" s="192">
         <v>0.5</v>
       </c>
-      <c r="Y7" s="201">
+      <c r="Y7" s="192">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Z7" s="201">
+      <c r="Z7" s="192">
         <v>10.4</v>
       </c>
-      <c r="AA7" s="201">
+      <c r="AA7" s="192">
         <v>16.399999999999999</v>
       </c>
-      <c r="AB7" s="202">
+      <c r="AB7" s="193">
         <v>8598</v>
       </c>
-      <c r="AC7" s="202">
+      <c r="AC7" s="193">
         <v>42990</v>
       </c>
-      <c r="AD7" s="202">
+      <c r="AD7" s="193">
         <v>378312</v>
       </c>
-      <c r="AE7" s="202">
+      <c r="AE7" s="193">
         <v>894192</v>
       </c>
-      <c r="AF7" s="202">
+      <c r="AF7" s="193">
         <v>1410072</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="209"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="196">
+      <c r="A8" s="264"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="187">
         <v>2040</v>
       </c>
-      <c r="F8" s="205">
+      <c r="F8" s="195">
         <v>11207</v>
       </c>
-      <c r="G8" s="205">
+      <c r="G8" s="195">
         <v>17231</v>
       </c>
-      <c r="H8" s="205">
+      <c r="H8" s="195">
         <v>20395.2</v>
       </c>
-      <c r="I8" s="206">
+      <c r="I8" s="196">
         <v>26173.8</v>
       </c>
-      <c r="J8" s="207">
+      <c r="J8" s="197">
         <v>2980</v>
       </c>
-      <c r="K8" s="205">
+      <c r="K8" s="195">
         <v>3427.9</v>
       </c>
-      <c r="L8" s="208">
+      <c r="L8" s="198">
         <v>6911.6</v>
       </c>
-      <c r="M8" s="207">
+      <c r="M8" s="197">
         <v>8407.1</v>
       </c>
-      <c r="N8" s="205">
+      <c r="N8" s="195">
         <v>48879.4</v>
       </c>
-      <c r="O8" s="206">
+      <c r="O8" s="196">
         <v>81389.399999999994</v>
       </c>
-      <c r="P8" s="207">
+      <c r="P8" s="197">
         <v>91977.5</v>
       </c>
-      <c r="Q8" s="207"/>
-      <c r="R8" s="205">
+      <c r="Q8" s="197"/>
+      <c r="R8" s="195">
         <v>111313.8</v>
       </c>
-      <c r="V8" s="200" t="s">
+      <c r="V8" s="191" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="201">
+      <c r="W8" s="192">
         <v>3.3</v>
       </c>
-      <c r="X8" s="201">
+      <c r="X8" s="192">
         <v>3.9</v>
       </c>
-      <c r="Y8" s="201">
+      <c r="Y8" s="192">
         <v>15</v>
       </c>
-      <c r="Z8" s="201">
+      <c r="Z8" s="192">
         <v>20.399999999999999</v>
       </c>
-      <c r="AA8" s="201">
+      <c r="AA8" s="192">
         <v>24.9</v>
       </c>
-      <c r="AB8" s="202">
+      <c r="AB8" s="193">
         <v>283734</v>
       </c>
-      <c r="AC8" s="202">
+      <c r="AC8" s="193">
         <v>335322</v>
       </c>
-      <c r="AD8" s="202">
+      <c r="AD8" s="193">
         <v>1289700</v>
       </c>
-      <c r="AE8" s="202">
+      <c r="AE8" s="193">
         <v>1753992</v>
       </c>
-      <c r="AF8" s="202">
+      <c r="AF8" s="193">
         <v>2140902</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="209"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="196">
+      <c r="A9" s="264"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="187">
         <v>2044</v>
       </c>
-      <c r="F9" s="205">
+      <c r="F9" s="195">
         <v>13668.6</v>
       </c>
-      <c r="G9" s="205">
+      <c r="G9" s="195">
         <v>23083.9</v>
       </c>
-      <c r="H9" s="205">
+      <c r="H9" s="195">
         <v>28348.2</v>
       </c>
-      <c r="I9" s="206">
+      <c r="I9" s="196">
         <v>38421.300000000003</v>
       </c>
-      <c r="J9" s="207">
+      <c r="J9" s="197">
         <v>3652.2</v>
       </c>
-      <c r="K9" s="205">
+      <c r="K9" s="195">
         <v>4626.5</v>
       </c>
-      <c r="L9" s="208">
+      <c r="L9" s="198">
         <v>10186.5</v>
       </c>
-      <c r="M9" s="207">
+      <c r="M9" s="197">
         <v>12376.2</v>
       </c>
-      <c r="N9" s="205">
+      <c r="N9" s="195">
         <v>51531.199999999997</v>
       </c>
-      <c r="O9" s="206">
+      <c r="O9" s="196">
         <v>100974.39999999999</v>
       </c>
-      <c r="P9" s="207">
+      <c r="P9" s="197">
         <v>118589.8</v>
       </c>
-      <c r="Q9" s="207"/>
-      <c r="R9" s="205">
+      <c r="Q9" s="197"/>
+      <c r="R9" s="195">
         <v>152296.29999999999</v>
       </c>
-      <c r="V9" s="200" t="s">
+      <c r="V9" s="191" t="s">
         <v>311</v>
       </c>
-      <c r="W9" s="201">
+      <c r="W9" s="192">
         <v>1.5</v>
       </c>
-      <c r="X9" s="201">
+      <c r="X9" s="192">
         <v>4.5</v>
       </c>
-      <c r="Y9" s="201">
+      <c r="Y9" s="192">
         <v>13.8</v>
       </c>
-      <c r="Z9" s="201">
+      <c r="Z9" s="192">
         <v>32</v>
       </c>
-      <c r="AA9" s="201">
+      <c r="AA9" s="192">
         <v>35.299999999999997</v>
       </c>
-      <c r="AB9" s="202">
+      <c r="AB9" s="193">
         <v>128970</v>
       </c>
-      <c r="AC9" s="202">
+      <c r="AC9" s="193">
         <v>386910</v>
       </c>
-      <c r="AD9" s="202">
+      <c r="AD9" s="193">
         <v>1186524</v>
       </c>
-      <c r="AE9" s="202">
+      <c r="AE9" s="193">
         <v>2751360</v>
       </c>
-      <c r="AF9" s="202">
+      <c r="AF9" s="193">
         <v>3035094</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="209"/>
-      <c r="B10" s="204"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="196">
+      <c r="A10" s="264"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="187">
         <v>2048</v>
       </c>
-      <c r="F10" s="205">
+      <c r="F10" s="195">
         <v>16660.8</v>
       </c>
-      <c r="G10" s="205">
+      <c r="G10" s="195">
         <v>30900.3</v>
       </c>
-      <c r="H10" s="205">
+      <c r="H10" s="195">
         <v>39369.9</v>
       </c>
-      <c r="I10" s="206">
+      <c r="I10" s="196">
         <v>56352.800000000003</v>
       </c>
-      <c r="J10" s="207">
+      <c r="J10" s="197">
         <v>4470.5</v>
       </c>
-      <c r="K10" s="205">
+      <c r="K10" s="195">
         <v>6227.2</v>
       </c>
-      <c r="L10" s="208">
+      <c r="L10" s="198">
         <v>14981.4</v>
       </c>
-      <c r="M10" s="207">
+      <c r="M10" s="197">
         <v>18187.3</v>
       </c>
-      <c r="N10" s="205">
+      <c r="N10" s="195">
         <v>54454.7</v>
       </c>
-      <c r="O10" s="206">
+      <c r="O10" s="196">
         <v>127129.60000000001</v>
       </c>
-      <c r="P10" s="207">
+      <c r="P10" s="197">
         <v>155470.6</v>
       </c>
-      <c r="Q10" s="207"/>
-      <c r="R10" s="205">
+      <c r="Q10" s="197"/>
+      <c r="R10" s="195">
         <v>212298.8</v>
       </c>
-      <c r="V10" s="200" t="s">
+      <c r="V10" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="W10" s="201">
+      <c r="W10" s="192">
         <v>25.1</v>
       </c>
-      <c r="X10" s="201">
+      <c r="X10" s="192">
         <v>33.5</v>
       </c>
-      <c r="Y10" s="201">
+      <c r="Y10" s="192">
         <v>88.6</v>
       </c>
-      <c r="Z10" s="201">
+      <c r="Z10" s="192">
         <v>162.9</v>
       </c>
-      <c r="AA10" s="201">
+      <c r="AA10" s="192">
         <v>229.4</v>
       </c>
-      <c r="AB10" s="202">
+      <c r="AB10" s="193">
         <v>2158098</v>
       </c>
-      <c r="AC10" s="202">
+      <c r="AC10" s="193">
         <v>2880330</v>
       </c>
-      <c r="AD10" s="202">
+      <c r="AD10" s="193">
         <v>7617828</v>
       </c>
-      <c r="AE10" s="202">
+      <c r="AE10" s="193">
         <v>14006142</v>
       </c>
-      <c r="AF10" s="202">
+      <c r="AF10" s="193">
         <v>19723812</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="210"/>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196">
+      <c r="A11" s="265"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187">
         <v>2052</v>
       </c>
-      <c r="F11" s="205">
+      <c r="F11" s="195">
         <v>20297.900000000001</v>
       </c>
-      <c r="G11" s="205">
+      <c r="G11" s="195">
         <v>41338.800000000003</v>
       </c>
-      <c r="H11" s="205">
+      <c r="H11" s="195">
         <v>54644.4</v>
       </c>
-      <c r="I11" s="206">
+      <c r="I11" s="196">
         <v>82606.3</v>
       </c>
-      <c r="J11" s="207">
+      <c r="J11" s="197">
         <v>5465.2</v>
       </c>
-      <c r="K11" s="205">
+      <c r="K11" s="195">
         <v>11219.6</v>
       </c>
-      <c r="L11" s="208">
+      <c r="L11" s="198">
         <v>22001.5</v>
       </c>
-      <c r="M11" s="207">
+      <c r="M11" s="197">
         <v>26695.3</v>
       </c>
-      <c r="N11" s="205">
+      <c r="N11" s="195">
         <v>57678</v>
       </c>
-      <c r="O11" s="206">
+      <c r="O11" s="196">
         <v>162059</v>
       </c>
-      <c r="P11" s="207">
+      <c r="P11" s="197">
         <v>206582.3</v>
       </c>
-      <c r="Q11" s="207"/>
-      <c r="R11" s="205">
+      <c r="Q11" s="197"/>
+      <c r="R11" s="195">
         <v>300148.40000000002</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="203" t="s">
+      <c r="A12" s="263" t="s">
         <v>312</v>
       </c>
-      <c r="B12" s="204"/>
-      <c r="C12" s="204"/>
-      <c r="D12" s="204"/>
-      <c r="E12" s="201">
+      <c r="B12" s="194"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="192">
         <v>2024</v>
       </c>
-      <c r="F12" s="211">
+      <c r="F12" s="199">
         <v>210094.2</v>
       </c>
-      <c r="G12" s="211">
+      <c r="G12" s="199">
         <v>220653.7</v>
       </c>
-      <c r="H12" s="211">
+      <c r="H12" s="199">
         <v>224946.8</v>
       </c>
-      <c r="I12" s="212">
+      <c r="I12" s="200">
         <v>231461.1</v>
       </c>
-      <c r="J12" s="213">
+      <c r="J12" s="201">
         <v>53857.2</v>
       </c>
-      <c r="K12" s="211">
+      <c r="K12" s="199">
         <v>56745</v>
       </c>
-      <c r="L12" s="214">
+      <c r="L12" s="202">
         <v>58237</v>
       </c>
-      <c r="M12" s="213">
+      <c r="M12" s="201">
         <v>71866.8</v>
       </c>
-      <c r="N12" s="211">
+      <c r="N12" s="199">
         <v>1696773</v>
       </c>
-      <c r="O12" s="212">
+      <c r="O12" s="200">
         <v>1732105.9</v>
       </c>
-      <c r="P12" s="213">
+      <c r="P12" s="201">
         <v>1746472.4</v>
       </c>
-      <c r="Q12" s="213"/>
-      <c r="R12" s="211">
+      <c r="Q12" s="201"/>
+      <c r="R12" s="199">
         <v>1768270.5</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="209"/>
-      <c r="B13" s="204"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="201">
+      <c r="A13" s="264"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="192">
         <v>2028</v>
       </c>
-      <c r="F13" s="211">
+      <c r="F13" s="199">
         <v>257319.1</v>
       </c>
-      <c r="G13" s="211">
+      <c r="G13" s="199">
         <v>297708.5</v>
       </c>
-      <c r="H13" s="211">
+      <c r="H13" s="199">
         <v>315232.40000000002</v>
       </c>
-      <c r="I13" s="212">
+      <c r="I13" s="200">
         <v>343077.9</v>
       </c>
-      <c r="J13" s="213">
+      <c r="J13" s="201">
         <v>66772.600000000006</v>
       </c>
-      <c r="K13" s="211">
+      <c r="K13" s="199">
         <v>77818.7</v>
       </c>
-      <c r="L13" s="214">
+      <c r="L13" s="202">
         <v>88082.9</v>
       </c>
-      <c r="M13" s="213">
+      <c r="M13" s="201">
         <v>108038.5</v>
       </c>
-      <c r="N13" s="211">
+      <c r="N13" s="199">
         <v>1771933</v>
       </c>
-      <c r="O13" s="212">
+      <c r="O13" s="200">
         <v>1989948.1</v>
       </c>
-      <c r="P13" s="213">
+      <c r="P13" s="201">
         <v>2048587.1</v>
       </c>
-      <c r="Q13" s="213"/>
-      <c r="R13" s="211">
+      <c r="Q13" s="201"/>
+      <c r="R13" s="199">
         <v>2141762.6</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="209"/>
-      <c r="B14" s="204"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="201">
+      <c r="A14" s="264"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="192">
         <v>2032</v>
       </c>
-      <c r="F14" s="211">
+      <c r="F14" s="199">
         <v>314721.09999999998</v>
       </c>
-      <c r="G14" s="211">
+      <c r="G14" s="199">
         <v>400613.1</v>
       </c>
-      <c r="H14" s="211">
+      <c r="H14" s="199">
         <v>440355.9</v>
       </c>
-      <c r="I14" s="212">
+      <c r="I14" s="200">
         <v>506495.4</v>
       </c>
-      <c r="J14" s="213">
+      <c r="J14" s="201">
         <v>82471.5</v>
       </c>
-      <c r="K14" s="211">
+      <c r="K14" s="199">
         <v>105961.9</v>
       </c>
-      <c r="L14" s="214">
+      <c r="L14" s="202">
         <v>131780.6</v>
       </c>
-      <c r="M14" s="213">
+      <c r="M14" s="201">
         <v>160997.5</v>
       </c>
-      <c r="N14" s="211">
+      <c r="N14" s="199">
         <v>1854796.9</v>
       </c>
-      <c r="O14" s="212">
+      <c r="O14" s="200">
         <v>2334288.1</v>
       </c>
-      <c r="P14" s="213">
+      <c r="P14" s="201">
         <v>2467275.1</v>
       </c>
-      <c r="Q14" s="213"/>
-      <c r="R14" s="211">
+      <c r="Q14" s="201"/>
+      <c r="R14" s="199">
         <v>3489204.8</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="209"/>
-      <c r="B15" s="204"/>
-      <c r="C15" s="204"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="201">
+      <c r="A15" s="264"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="192">
         <v>2036</v>
       </c>
-      <c r="F15" s="211">
+      <c r="F15" s="199">
         <v>384493.7</v>
       </c>
-      <c r="G15" s="211">
+      <c r="G15" s="199">
         <v>538038.9</v>
       </c>
-      <c r="H15" s="211">
+      <c r="H15" s="199">
         <v>613759.19999999995</v>
       </c>
-      <c r="I15" s="212">
+      <c r="I15" s="200">
         <v>745755.4</v>
       </c>
-      <c r="J15" s="213">
+      <c r="J15" s="201">
         <v>101553.2</v>
       </c>
-      <c r="K15" s="211">
+      <c r="K15" s="199">
         <v>143545.60000000001</v>
       </c>
-      <c r="L15" s="214">
+      <c r="L15" s="202">
         <v>195758.8</v>
       </c>
-      <c r="M15" s="213">
+      <c r="M15" s="201">
         <v>238534.8</v>
       </c>
-      <c r="N15" s="211">
+      <c r="N15" s="199">
         <v>1946154.1</v>
       </c>
-      <c r="O15" s="212">
+      <c r="O15" s="200">
         <v>2794143.6</v>
       </c>
-      <c r="P15" s="213">
+      <c r="P15" s="201">
         <v>3047518.4</v>
       </c>
-      <c r="Q15" s="213"/>
-      <c r="R15" s="211">
+      <c r="Q15" s="201"/>
+      <c r="R15" s="199">
         <v>2141762.6</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="209"/>
-      <c r="B16" s="204"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="201">
+      <c r="A16" s="264"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="192">
         <v>2040</v>
       </c>
-      <c r="F16" s="211">
+      <c r="F16" s="199">
         <v>469302.8</v>
       </c>
-      <c r="G16" s="211">
+      <c r="G16" s="199">
         <v>721567.4</v>
       </c>
-      <c r="H16" s="211">
+      <c r="H16" s="199">
         <v>854071.6</v>
       </c>
-      <c r="I16" s="212">
+      <c r="I16" s="200">
         <v>1096055.7</v>
       </c>
-      <c r="J16" s="213">
+      <c r="J16" s="201">
         <v>124789.4</v>
       </c>
-      <c r="K16" s="211">
+      <c r="K16" s="199">
         <v>143545.60000000001</v>
       </c>
-      <c r="L16" s="214">
+      <c r="L16" s="202">
         <v>289428.8</v>
       </c>
-      <c r="M16" s="213">
+      <c r="M16" s="201">
         <v>352057.4</v>
       </c>
-      <c r="N16" s="211">
+      <c r="N16" s="199">
         <v>2046875.6</v>
       </c>
-      <c r="O16" s="212">
+      <c r="O16" s="200">
         <v>3408266.3</v>
       </c>
-      <c r="P16" s="213">
+      <c r="P16" s="201">
         <v>3851652.8</v>
       </c>
-      <c r="Q16" s="213"/>
-      <c r="R16" s="211">
+      <c r="Q16" s="201"/>
+      <c r="R16" s="199">
         <v>4661382.3</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="209"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="201">
+      <c r="A17" s="264"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="192">
         <v>2044</v>
       </c>
-      <c r="F17" s="211">
+      <c r="F17" s="199">
         <v>572388.19999999995</v>
       </c>
-      <c r="G17" s="211">
+      <c r="G17" s="199">
         <v>966663.3</v>
       </c>
-      <c r="H17" s="211">
+      <c r="H17" s="199">
         <v>1187110.6000000001</v>
       </c>
-      <c r="I17" s="212">
+      <c r="I17" s="200">
         <v>1608930.5</v>
       </c>
-      <c r="J17" s="213">
+      <c r="J17" s="201">
         <v>152939.70000000001</v>
       </c>
-      <c r="K17" s="211">
+      <c r="K17" s="199">
         <v>193738.3</v>
       </c>
-      <c r="L17" s="214">
+      <c r="L17" s="202">
         <v>426570.8</v>
       </c>
-      <c r="M17" s="213">
+      <c r="M17" s="201">
         <v>518265.5</v>
       </c>
-      <c r="N17" s="211">
+      <c r="N17" s="199">
         <v>2157921.2999999998</v>
       </c>
-      <c r="O17" s="212">
+      <c r="O17" s="200">
         <v>4228408.7</v>
       </c>
-      <c r="P17" s="213">
+      <c r="P17" s="201">
         <v>4966069.9000000004</v>
       </c>
-      <c r="Q17" s="213"/>
-      <c r="R17" s="211">
+      <c r="Q17" s="201"/>
+      <c r="R17" s="199">
         <v>6377567</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="209"/>
-      <c r="B18" s="204"/>
-      <c r="C18" s="204"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="201">
+      <c r="A18" s="264"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="192">
         <v>2048</v>
       </c>
-      <c r="F18" s="211">
+      <c r="F18" s="199">
         <v>697689.7</v>
       </c>
-      <c r="G18" s="211">
+      <c r="G18" s="199">
         <v>1293981.6000000001</v>
       </c>
-      <c r="H18" s="211">
+      <c r="H18" s="199">
         <v>1648655.4</v>
       </c>
-      <c r="I18" s="212">
+      <c r="I18" s="200">
         <v>2359830.7999999998</v>
       </c>
-      <c r="J18" s="213">
+      <c r="J18" s="201">
         <v>187208.1</v>
       </c>
-      <c r="K18" s="211">
+      <c r="K18" s="199">
         <v>260768.8</v>
       </c>
-      <c r="L18" s="214">
+      <c r="L18" s="202">
         <v>627361</v>
       </c>
-      <c r="M18" s="213">
+      <c r="M18" s="201">
         <v>761611</v>
       </c>
-      <c r="N18" s="211">
+      <c r="N18" s="199">
         <v>2280348.7999999998</v>
       </c>
-      <c r="O18" s="212">
+      <c r="O18" s="200">
         <v>5323683</v>
       </c>
-      <c r="P18" s="213">
+      <c r="P18" s="201">
         <v>6510494.5999999996</v>
       </c>
-      <c r="Q18" s="213"/>
-      <c r="R18" s="211">
+      <c r="Q18" s="201"/>
+      <c r="R18" s="199">
         <v>8890233.1999999993</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="210"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="201">
+      <c r="A19" s="265"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="192">
         <v>2052</v>
       </c>
-      <c r="F19" s="211">
+      <c r="F19" s="199">
         <v>849994.6</v>
       </c>
-      <c r="G19" s="211">
+      <c r="G19" s="199">
         <v>1731105.1</v>
       </c>
-      <c r="H19" s="211">
+      <c r="H19" s="199">
         <v>2288291.5</v>
       </c>
-      <c r="I19" s="212">
+      <c r="I19" s="200">
         <v>3459223.2</v>
       </c>
-      <c r="J19" s="213">
+      <c r="J19" s="201">
         <v>228861.4</v>
       </c>
-      <c r="K19" s="211">
+      <c r="K19" s="199">
         <v>469833.3</v>
       </c>
-      <c r="L19" s="214">
+      <c r="L19" s="202">
         <v>921337.5</v>
       </c>
-      <c r="M19" s="213">
+      <c r="M19" s="201">
         <v>1117893.2</v>
       </c>
-      <c r="N19" s="211">
+      <c r="N19" s="199">
         <v>2415325.4</v>
       </c>
-      <c r="O19" s="212">
+      <c r="O19" s="200">
         <v>6786388.2000000002</v>
       </c>
-      <c r="P19" s="213">
+      <c r="P19" s="201">
         <v>8650848.8000000007</v>
       </c>
-      <c r="Q19" s="213"/>
-      <c r="R19" s="211">
+      <c r="Q19" s="201"/>
+      <c r="R19" s="199">
         <v>12569028.1</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B23" s="215" t="s">
+      <c r="B23" s="203" t="s">
         <v>313</v>
       </c>
-      <c r="C23" s="215"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="215" t="s">
+      <c r="C23" s="203"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="203" t="s">
         <v>314</v>
       </c>
-      <c r="F23" s="215"/>
+      <c r="F23" s="203"/>
       <c r="G23" s="181" t="s">
         <v>315</v>
       </c>
@@ -8933,23 +8897,23 @@
       <c r="A25" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B25" s="216">
+      <c r="B25" s="204">
         <f>B49+B50+B51+B52</f>
         <v>70483.322</v>
       </c>
-      <c r="C25" s="216">
+      <c r="C25" s="204">
         <f t="shared" ref="C25:F25" si="0">C49+C50+C51+C52</f>
         <v>62800.626000000004</v>
       </c>
-      <c r="D25" s="216">
+      <c r="D25" s="204">
         <f t="shared" si="0"/>
         <v>70146.457999999999</v>
       </c>
-      <c r="E25" s="216">
+      <c r="E25" s="204">
         <f t="shared" si="0"/>
         <v>79469.299999999988</v>
       </c>
-      <c r="F25" s="216">
+      <c r="F25" s="204">
         <f t="shared" si="0"/>
         <v>82506.92</v>
       </c>
@@ -9000,43 +8964,43 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="217" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="217" t="s">
+    <row r="26" spans="1:24" s="205" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="205" t="s">
         <v>319</v>
       </c>
-      <c r="B26" s="218">
+      <c r="B26" s="206">
         <f>B49</f>
         <v>10576.44</v>
       </c>
-      <c r="C26" s="218">
+      <c r="C26" s="206">
         <f t="shared" ref="C26:F26" si="1">C49</f>
         <v>9209.482</v>
       </c>
-      <c r="D26" s="218">
+      <c r="D26" s="206">
         <f t="shared" si="1"/>
         <v>10167.26</v>
       </c>
-      <c r="E26" s="218">
+      <c r="E26" s="206">
         <f t="shared" si="1"/>
         <v>10843.81</v>
       </c>
-      <c r="F26" s="218">
+      <c r="F26" s="206">
         <f t="shared" si="1"/>
         <v>13036.67</v>
       </c>
-      <c r="J26" s="217">
+      <c r="J26" s="205">
         <f>Y4*1000</f>
         <v>28200</v>
       </c>
-      <c r="M26" s="217">
+      <c r="M26" s="205">
         <f>Z4*1000</f>
         <v>46900</v>
       </c>
-      <c r="P26" s="217">
+      <c r="P26" s="205">
         <f>AA4*1000</f>
         <v>69300</v>
       </c>
-      <c r="S26" s="217" t="s">
+      <c r="S26" s="205" t="s">
         <v>320</v>
       </c>
     </row>
@@ -9049,15 +9013,15 @@
         <v>19062.637636122003</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="219" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="219" t="s">
+    <row r="28" spans="1:24" s="207" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="207" t="s">
         <v>322</v>
       </c>
-      <c r="E28" s="220">
+      <c r="E28" s="208">
         <f>E26/E25</f>
         <v>0.1364528188872936</v>
       </c>
-      <c r="O28" s="220">
+      <c r="O28" s="208">
         <f>O26/O25</f>
         <v>0</v>
       </c>
@@ -9066,25 +9030,25 @@
       <c r="A29" s="181" t="s">
         <v>323</v>
       </c>
-      <c r="E29" s="221">
+      <c r="E29" s="209">
         <f>1-E28</f>
         <v>0.86354718111270645</v>
       </c>
-      <c r="O29" s="222">
+      <c r="O29" s="210">
         <f>1-O28</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="223" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="223" t="s">
+    <row r="30" spans="1:24" s="211" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="211" t="s">
         <v>324</v>
       </c>
-      <c r="E30" s="224"/>
+      <c r="E30" s="212"/>
       <c r="I30" s="182"/>
       <c r="J30" s="183"/>
       <c r="L30" s="184"/>
       <c r="M30" s="183"/>
-      <c r="O30" s="222">
+      <c r="O30" s="210">
         <f>(O25-E25)/E25</f>
         <v>1.1924652916283398</v>
       </c>
@@ -9095,22 +9059,22 @@
       <c r="A31" s="181" t="s">
         <v>325</v>
       </c>
-      <c r="E31" s="221"/>
-      <c r="O31" s="222">
+      <c r="E31" s="209"/>
+      <c r="O31" s="210">
         <f>(O26-E26)/E26</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="223" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="223" t="s">
+    <row r="32" spans="1:24" s="211" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="211" t="s">
         <v>326</v>
       </c>
-      <c r="E32" s="224"/>
+      <c r="E32" s="212"/>
       <c r="I32" s="182"/>
       <c r="J32" s="183"/>
       <c r="L32" s="184"/>
       <c r="M32" s="183"/>
-      <c r="O32" s="222">
+      <c r="O32" s="210">
         <f>((O27-E27)/E27)</f>
         <v>-1</v>
       </c>
@@ -9118,23 +9082,23 @@
       <c r="Q32" s="183"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E33" s="221"/>
-      <c r="O33" s="222"/>
+      <c r="E33" s="209"/>
+      <c r="O33" s="210"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E34" s="221"/>
-      <c r="O34" s="222"/>
+      <c r="E34" s="209"/>
+      <c r="O34" s="210"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E35" s="221"/>
-      <c r="O35" s="222"/>
+      <c r="E35" s="209"/>
+      <c r="O35" s="210"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E36" s="221"/>
-      <c r="O36" s="222"/>
-    </row>
-    <row r="37" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="225" t="s">
+      <c r="E36" s="209"/>
+      <c r="O36" s="210"/>
+    </row>
+    <row r="37" spans="1:20" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="213" t="s">
         <v>161</v>
       </c>
       <c r="I37" s="182"/>
@@ -9145,15 +9109,15 @@
       <c r="P37" s="183"/>
       <c r="Q37" s="183"/>
     </row>
-    <row r="38" spans="1:20" s="226" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="226" t="s">
+    <row r="38" spans="1:20" s="214" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="214" t="s">
         <v>327</v>
       </c>
-      <c r="E38" s="226">
+      <c r="E38" s="214">
         <f>10301.62*0.2777778</f>
         <v>2861.5613400360003</v>
       </c>
-      <c r="F38" s="227">
+      <c r="F38" s="215">
         <f>28990435.88*0.2777778</f>
         <v>8052899.4997874638</v>
       </c>
@@ -9162,45 +9126,45 @@
       <c r="L38" s="184"/>
       <c r="M38" s="183"/>
       <c r="O38" s="182"/>
-      <c r="P38" s="228"/>
-      <c r="Q38" s="228"/>
-      <c r="T38" s="226" t="s">
+      <c r="P38" s="216"/>
+      <c r="Q38" s="216"/>
+      <c r="T38" s="214" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="225" t="s">
+    <row r="39" spans="1:20" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="213" t="s">
         <v>329</v>
       </c>
-      <c r="E39" s="225">
+      <c r="E39" s="213">
         <f>(E56+E57+E58)*0.2777778</f>
         <v>10281.181933605601</v>
       </c>
-      <c r="F39" s="229"/>
+      <c r="F39" s="217"/>
       <c r="I39" s="182"/>
       <c r="J39" s="183"/>
       <c r="L39" s="184"/>
       <c r="M39" s="183"/>
       <c r="O39" s="182"/>
-      <c r="P39" s="228"/>
-      <c r="Q39" s="228"/>
-      <c r="R39" s="229">
+      <c r="P39" s="216"/>
+      <c r="Q39" s="216"/>
+      <c r="R39" s="217">
         <f>(O39-E39)/E39</f>
         <v>-1</v>
       </c>
-      <c r="T39" s="225" t="s">
+      <c r="T39" s="213" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="225" t="s">
+    <row r="40" spans="1:20" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="213" t="s">
         <v>160</v>
       </c>
-      <c r="E40" s="225">
+      <c r="E40" s="213">
         <f>E56*0.2777778</f>
         <v>2605.1202084096003</v>
       </c>
-      <c r="F40" s="229"/>
+      <c r="F40" s="217"/>
       <c r="I40" s="182"/>
       <c r="J40" s="183"/>
       <c r="L40" s="184"/>
@@ -9208,20 +9172,20 @@
       <c r="O40" s="182"/>
       <c r="P40" s="183"/>
       <c r="Q40" s="183"/>
-      <c r="R40" s="229"/>
-      <c r="T40" s="225" t="s">
+      <c r="R40" s="217"/>
+      <c r="T40" s="213" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="225" t="s">
+    <row r="41" spans="1:20" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="213" t="s">
         <v>332</v>
       </c>
-      <c r="E41" s="225">
+      <c r="E41" s="213">
         <f>E57*0.2777778</f>
         <v>4518.4003614720004</v>
       </c>
-      <c r="F41" s="229"/>
+      <c r="F41" s="217"/>
       <c r="I41" s="182"/>
       <c r="J41" s="183"/>
       <c r="L41" s="184"/>
@@ -9229,20 +9193,20 @@
       <c r="O41" s="182"/>
       <c r="P41" s="183"/>
       <c r="Q41" s="183"/>
-      <c r="R41" s="229"/>
-      <c r="T41" s="225" t="s">
+      <c r="R41" s="217"/>
+      <c r="T41" s="213" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="225" t="s">
+    <row r="42" spans="1:20" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="213" t="s">
         <v>334</v>
       </c>
-      <c r="E42" s="225">
+      <c r="E42" s="213">
         <f>E58*0.2777778</f>
         <v>3157.6613637240002</v>
       </c>
-      <c r="F42" s="229"/>
+      <c r="F42" s="217"/>
       <c r="I42" s="182"/>
       <c r="J42" s="183"/>
       <c r="L42" s="184"/>
@@ -9250,21 +9214,21 @@
       <c r="O42" s="182"/>
       <c r="P42" s="183"/>
       <c r="Q42" s="183"/>
-      <c r="R42" s="229"/>
-    </row>
-    <row r="43" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="225" t="s">
+      <c r="R42" s="217"/>
+    </row>
+    <row r="43" spans="1:20" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="213" t="s">
         <v>335</v>
       </c>
-      <c r="E43" s="225">
+      <c r="E43" s="213">
         <f>E41+E42</f>
         <v>7676.0617251960011</v>
       </c>
-      <c r="F43" s="230">
+      <c r="F43" s="218">
         <f>29343.096*0.2777778</f>
         <v>8150.8606520688008</v>
       </c>
-      <c r="G43" s="225">
+      <c r="G43" s="213">
         <f>E43/0.2777778</f>
         <v>27633.820000000003</v>
       </c>
@@ -9275,9 +9239,9 @@
       <c r="O43" s="182"/>
       <c r="P43" s="183"/>
       <c r="Q43" s="183"/>
-      <c r="R43" s="229"/>
-    </row>
-    <row r="44" spans="1:20" s="225" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R43" s="217"/>
+    </row>
+    <row r="44" spans="1:20" s="213" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I44" s="182"/>
       <c r="J44" s="183"/>
       <c r="L44" s="184"/>
@@ -9285,13 +9249,13 @@
       <c r="O44" s="182"/>
       <c r="P44" s="183"/>
       <c r="Q44" s="183"/>
-      <c r="R44" s="229"/>
+      <c r="R44" s="217"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="E45" s="231">
+      <c r="E45" s="219">
         <f>E39/(E38+E39)</f>
         <v>0.78227062033730832</v>
       </c>
@@ -9300,88 +9264,88 @@
       <c r="A46" s="181" t="s">
         <v>337</v>
       </c>
-      <c r="E46" s="221">
+      <c r="E46" s="209">
         <f>E38/(E38+E39)</f>
         <v>0.21772937966269174</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="225" t="s">
+      <c r="A47" s="213" t="s">
         <v>338</v>
       </c>
-      <c r="B47" s="225"/>
-      <c r="C47" s="225"/>
-      <c r="D47" s="225"/>
-      <c r="O47" s="222">
+      <c r="B47" s="213"/>
+      <c r="C47" s="213"/>
+      <c r="D47" s="213"/>
+      <c r="O47" s="210">
         <f>(O38-E38)/E38</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="232" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="232" t="s">
+    <row r="48" spans="1:20" s="220" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="220" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="232">
+      <c r="B48" s="220">
         <f>B24</f>
         <v>2019</v>
       </c>
-      <c r="C48" s="232">
+      <c r="C48" s="220">
         <f t="shared" ref="C48:R48" si="2">C24</f>
         <v>2020</v>
       </c>
-      <c r="D48" s="232">
+      <c r="D48" s="220">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="E48" s="232">
+      <c r="E48" s="220">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="F48" s="232">
+      <c r="F48" s="220">
         <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="G48" s="232">
+      <c r="G48" s="220">
         <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="H48" s="232">
+      <c r="H48" s="220">
         <f t="shared" si="2"/>
         <v>2025</v>
       </c>
-      <c r="I48" s="232">
+      <c r="I48" s="220">
         <f t="shared" si="2"/>
         <v>2028</v>
       </c>
-      <c r="J48" s="232">
+      <c r="J48" s="220">
         <f t="shared" si="2"/>
         <v>2030</v>
       </c>
-      <c r="K48" s="232">
+      <c r="K48" s="220">
         <f t="shared" si="2"/>
         <v>2032</v>
       </c>
-      <c r="L48" s="232">
+      <c r="L48" s="220">
         <f t="shared" si="2"/>
         <v>2036</v>
       </c>
-      <c r="M48" s="232">
+      <c r="M48" s="220">
         <f t="shared" si="2"/>
         <v>2040</v>
       </c>
-      <c r="N48" s="232">
+      <c r="N48" s="220">
         <f t="shared" si="2"/>
         <v>2044</v>
       </c>
-      <c r="O48" s="232">
+      <c r="O48" s="220">
         <f t="shared" si="2"/>
         <v>2048</v>
       </c>
-      <c r="P48" s="232">
+      <c r="P48" s="220">
         <f t="shared" si="2"/>
         <v>2050</v>
       </c>
-      <c r="R48" s="232">
+      <c r="R48" s="220">
         <f t="shared" si="2"/>
         <v>2052</v>
       </c>
@@ -9390,19 +9354,19 @@
       <c r="A49" s="181" t="s">
         <v>339</v>
       </c>
-      <c r="B49" s="233">
+      <c r="B49" s="221">
         <v>10576.44</v>
       </c>
-      <c r="C49" s="233">
+      <c r="C49" s="221">
         <v>9209.482</v>
       </c>
-      <c r="D49" s="233">
+      <c r="D49" s="221">
         <v>10167.26</v>
       </c>
-      <c r="E49" s="233">
+      <c r="E49" s="221">
         <v>10843.81</v>
       </c>
-      <c r="F49" s="233">
+      <c r="F49" s="221">
         <v>13036.67</v>
       </c>
     </row>
@@ -9410,20 +9374,20 @@
       <c r="A50" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="B50" s="233">
+      <c r="B50" s="221">
         <v>15875.22</v>
       </c>
-      <c r="C50" s="233">
+      <c r="C50" s="221">
         <v>8280.7870000000003</v>
       </c>
-      <c r="D50" s="233">
+      <c r="D50" s="221">
         <v>11261.34</v>
       </c>
-      <c r="E50" s="233">
+      <c r="E50" s="221">
         <f>E58</f>
         <v>11367.58</v>
       </c>
-      <c r="F50" s="233">
+      <c r="F50" s="221">
         <v>11367.58</v>
       </c>
     </row>
@@ -9431,20 +9395,20 @@
       <c r="A51" s="181" t="s">
         <v>341</v>
       </c>
-      <c r="B51" s="233">
+      <c r="B51" s="221">
         <v>136.322</v>
       </c>
-      <c r="C51" s="233">
+      <c r="C51" s="221">
         <v>5783.4470000000001</v>
       </c>
-      <c r="D51" s="233">
+      <c r="D51" s="221">
         <v>6232.6379999999999</v>
       </c>
-      <c r="E51" s="233">
+      <c r="E51" s="221">
         <f>E57</f>
         <v>16266.24</v>
       </c>
-      <c r="F51" s="233">
+      <c r="F51" s="221">
         <v>17976.259999999998</v>
       </c>
     </row>
@@ -9452,19 +9416,19 @@
       <c r="A52" s="181" t="s">
         <v>342</v>
       </c>
-      <c r="B52" s="233">
+      <c r="B52" s="221">
         <v>43895.34</v>
       </c>
-      <c r="C52" s="233">
+      <c r="C52" s="221">
         <v>39526.910000000003</v>
       </c>
-      <c r="D52" s="233">
+      <c r="D52" s="221">
         <v>42485.22</v>
       </c>
-      <c r="E52" s="233">
+      <c r="E52" s="221">
         <v>40991.67</v>
       </c>
-      <c r="F52" s="233">
+      <c r="F52" s="221">
         <v>40126.410000000003</v>
       </c>
     </row>
@@ -9472,55 +9436,55 @@
       <c r="A53" s="181" t="s">
         <v>343</v>
       </c>
-      <c r="B53" s="233">
+      <c r="B53" s="221">
         <f>SUM(B49:B52)</f>
         <v>70483.322</v>
       </c>
-      <c r="C53" s="233">
+      <c r="C53" s="221">
         <f t="shared" ref="C53:F53" si="3">SUM(C49:C52)</f>
         <v>62800.626000000004</v>
       </c>
-      <c r="D53" s="233">
+      <c r="D53" s="221">
         <f t="shared" si="3"/>
         <v>70146.457999999999</v>
       </c>
-      <c r="E53" s="233">
+      <c r="E53" s="221">
         <f t="shared" si="3"/>
         <v>79469.299999999988</v>
       </c>
-      <c r="F53" s="233">
+      <c r="F53" s="221">
         <f t="shared" si="3"/>
         <v>82506.92</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B54" s="233"/>
-      <c r="C54" s="233"/>
-      <c r="D54" s="233"/>
-      <c r="E54" s="233"/>
-      <c r="F54" s="233"/>
+      <c r="B54" s="221"/>
+      <c r="C54" s="221"/>
+      <c r="D54" s="221"/>
+      <c r="E54" s="221"/>
+      <c r="F54" s="221"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="181" t="s">
         <v>344</v>
       </c>
-      <c r="B55" s="233">
+      <c r="B55" s="221">
         <f>0.95*B49</f>
         <v>10047.618</v>
       </c>
-      <c r="C55" s="233">
+      <c r="C55" s="221">
         <f>C49*0.95</f>
         <v>8749.0078999999987</v>
       </c>
-      <c r="D55" s="233">
+      <c r="D55" s="221">
         <f>0.95*D49</f>
         <v>9658.896999999999</v>
       </c>
-      <c r="E55" s="233">
+      <c r="E55" s="221">
         <f>E49*0.95</f>
         <v>10301.619499999999</v>
       </c>
-      <c r="F55" s="233">
+      <c r="F55" s="221">
         <f>0.95*F49</f>
         <v>12384.836499999999</v>
       </c>
@@ -9529,21 +9493,21 @@
       <c r="A56" s="181" t="s">
         <v>345</v>
       </c>
-      <c r="B56" s="233">
+      <c r="B56" s="221">
         <v>9120.0020000000004</v>
       </c>
-      <c r="C56" s="233">
+      <c r="C56" s="221">
         <f>9065.598</f>
         <v>9065.598</v>
       </c>
-      <c r="D56" s="233">
+      <c r="D56" s="221">
         <v>9113.6</v>
       </c>
-      <c r="E56" s="233">
+      <c r="E56" s="221">
         <f>9378.432</f>
         <v>9378.4320000000007</v>
       </c>
-      <c r="F56" s="233">
+      <c r="F56" s="221">
         <v>10051.008</v>
       </c>
     </row>
@@ -9551,22 +9515,22 @@
       <c r="A57" s="181" t="s">
         <v>346</v>
       </c>
-      <c r="B57" s="233">
+      <c r="B57" s="221">
         <f>B51</f>
         <v>136.322</v>
       </c>
-      <c r="C57" s="233">
+      <c r="C57" s="221">
         <f>C51</f>
         <v>5783.4470000000001</v>
       </c>
-      <c r="D57" s="233">
+      <c r="D57" s="221">
         <f>D51</f>
         <v>6232.6379999999999</v>
       </c>
-      <c r="E57" s="233">
+      <c r="E57" s="221">
         <v>16266.24</v>
       </c>
-      <c r="F57" s="233">
+      <c r="F57" s="221">
         <f>F51</f>
         <v>17976.259999999998</v>
       </c>
@@ -9575,54 +9539,54 @@
       <c r="A58" s="181" t="s">
         <v>347</v>
       </c>
-      <c r="B58" s="233">
+      <c r="B58" s="221">
         <f>B50</f>
         <v>15875.22</v>
       </c>
-      <c r="C58" s="233">
+      <c r="C58" s="221">
         <f>C50</f>
         <v>8280.7870000000003</v>
       </c>
-      <c r="D58" s="233">
+      <c r="D58" s="221">
         <f>D50</f>
         <v>11261.34</v>
       </c>
-      <c r="E58" s="234">
+      <c r="E58" s="222">
         <v>11367.58</v>
       </c>
-      <c r="F58" s="233">
+      <c r="F58" s="221">
         <f>F50</f>
         <v>11367.58</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B59" s="233"/>
-      <c r="C59" s="233"/>
-      <c r="D59" s="233"/>
-      <c r="E59" s="234"/>
-      <c r="F59" s="233"/>
+      <c r="B59" s="221"/>
+      <c r="C59" s="221"/>
+      <c r="D59" s="221"/>
+      <c r="E59" s="222"/>
+      <c r="F59" s="221"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="181" t="s">
         <v>348</v>
       </c>
-      <c r="B60" s="233">
+      <c r="B60" s="221">
         <f>B49-B55</f>
         <v>528.82200000000012</v>
       </c>
-      <c r="C60" s="233">
+      <c r="C60" s="221">
         <f t="shared" ref="C60:F60" si="4">C49-C55</f>
         <v>460.47410000000127</v>
       </c>
-      <c r="D60" s="233">
+      <c r="D60" s="221">
         <f t="shared" si="4"/>
         <v>508.36300000000119</v>
       </c>
-      <c r="E60" s="233">
+      <c r="E60" s="221">
         <f t="shared" si="4"/>
         <v>542.19050000000061</v>
       </c>
-      <c r="F60" s="233">
+      <c r="F60" s="221">
         <f t="shared" si="4"/>
         <v>651.83350000000064</v>
       </c>
@@ -9631,65 +9595,65 @@
       <c r="A61" s="181" t="s">
         <v>349</v>
       </c>
-      <c r="B61" s="233">
+      <c r="B61" s="221">
         <f>B52-B56</f>
         <v>34775.337999999996</v>
       </c>
-      <c r="C61" s="233">
+      <c r="C61" s="221">
         <f t="shared" ref="C61:F61" si="5">C52-C56</f>
         <v>30461.312000000005</v>
       </c>
-      <c r="D61" s="233">
+      <c r="D61" s="221">
         <f t="shared" si="5"/>
         <v>33371.620000000003</v>
       </c>
-      <c r="E61" s="233">
+      <c r="E61" s="221">
         <f t="shared" si="5"/>
         <v>31613.237999999998</v>
       </c>
-      <c r="F61" s="233">
+      <c r="F61" s="221">
         <f t="shared" si="5"/>
         <v>30075.402000000002</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E62" s="235"/>
+      <c r="E62" s="223"/>
     </row>
     <row r="63" spans="1:17" ht="45.6" x14ac:dyDescent="0.5">
-      <c r="A63" s="236" t="s">
+      <c r="A63" s="224" t="s">
         <v>350</v>
       </c>
       <c r="G63" s="181" t="s">
         <v>351</v>
       </c>
-      <c r="J63" s="237" t="s">
+      <c r="J63" s="225" t="s">
         <v>352</v>
       </c>
-      <c r="O63" s="238"/>
-      <c r="P63" s="238" t="s">
+      <c r="O63" s="226"/>
+      <c r="P63" s="226" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="232" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="232" t="s">
+    <row r="64" spans="1:17" s="220" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="220" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="232">
+      <c r="B64" s="220">
         <v>2019</v>
       </c>
-      <c r="C64" s="232">
+      <c r="C64" s="220">
         <v>2020</v>
       </c>
-      <c r="D64" s="232">
+      <c r="D64" s="220">
         <v>2021</v>
       </c>
-      <c r="E64" s="232">
+      <c r="E64" s="220">
         <v>2022</v>
       </c>
-      <c r="F64" s="232">
+      <c r="F64" s="220">
         <v>2023</v>
       </c>
-      <c r="H64" s="232">
+      <c r="H64" s="220">
         <v>2024</v>
       </c>
       <c r="I64" s="182">
@@ -9700,7 +9664,7 @@
         <f t="shared" ref="J64:P64" si="6">J24</f>
         <v>2030</v>
       </c>
-      <c r="K64" s="232">
+      <c r="K64" s="220">
         <f t="shared" si="6"/>
         <v>2032</v>
       </c>
@@ -9712,7 +9676,7 @@
         <f t="shared" si="6"/>
         <v>2040</v>
       </c>
-      <c r="N64" s="232">
+      <c r="N64" s="220">
         <f t="shared" si="6"/>
         <v>2044</v>
       </c>
@@ -9732,412 +9696,412 @@
       <c r="A65" s="181" t="s">
         <v>354</v>
       </c>
-      <c r="B65" s="233">
+      <c r="B65" s="221">
         <f>(B49+B50+B51+B52)/3.6</f>
         <v>19578.700555555555</v>
       </c>
-      <c r="C65" s="233">
+      <c r="C65" s="221">
         <f t="shared" ref="C65:F65" si="7">(C49+C50+C51+C52)/3.6</f>
         <v>17444.618333333336</v>
       </c>
-      <c r="D65" s="233">
+      <c r="D65" s="221">
         <f t="shared" si="7"/>
         <v>19485.127222222221</v>
       </c>
-      <c r="E65" s="233">
+      <c r="E65" s="221">
         <f t="shared" si="7"/>
         <v>22074.805555555551</v>
       </c>
-      <c r="F65" s="233">
+      <c r="F65" s="221">
         <f t="shared" si="7"/>
         <v>22918.588888888888</v>
       </c>
-      <c r="G65" s="239">
+      <c r="G65" s="227">
         <f>(F65/D65)^(1/(F64-B64))-1</f>
         <v>4.1408593708299968E-2</v>
       </c>
-      <c r="H65" s="240">
+      <c r="H65" s="228">
         <f>L4*11.63</f>
         <v>16173.841000000002</v>
       </c>
-      <c r="I65" s="241">
+      <c r="I65" s="229">
         <f>L5*11.63</f>
         <v>24462.542000000001</v>
       </c>
-      <c r="J65" s="242">
+      <c r="J65" s="230">
         <f>(I65+K65)/2</f>
         <v>30530.494500000001</v>
       </c>
-      <c r="K65" s="240">
+      <c r="K65" s="228">
         <f>L6*11.63</f>
         <v>36598.447</v>
       </c>
-      <c r="L65" s="243">
+      <c r="L65" s="231">
         <f>L7*11.63</f>
         <v>54366.760999999999</v>
       </c>
-      <c r="M65" s="242">
+      <c r="M65" s="230">
         <f>L8*11.63</f>
         <v>80381.90800000001</v>
       </c>
-      <c r="N65" s="240">
+      <c r="N65" s="228">
         <f>L9*11.63</f>
         <v>118468.99500000001</v>
       </c>
-      <c r="O65" s="241">
+      <c r="O65" s="229">
         <f>L10*11.63</f>
         <v>174233.682</v>
       </c>
-      <c r="P65" s="242">
+      <c r="P65" s="230">
         <f>(O65+Q65)/2</f>
         <v>215055.56349999999</v>
       </c>
-      <c r="Q65" s="242">
+      <c r="Q65" s="230">
         <f>L11*11.63</f>
         <v>255877.44500000001</v>
       </c>
-      <c r="R65" s="233"/>
-      <c r="S65" s="233" t="s">
+      <c r="R65" s="221"/>
+      <c r="S65" s="221" t="s">
         <v>355</v>
       </c>
-      <c r="T65" s="233"/>
-      <c r="U65" s="233"/>
-      <c r="V65" s="233"/>
-      <c r="W65" s="233"/>
-      <c r="X65" s="233"/>
-      <c r="Y65" s="233"/>
+      <c r="T65" s="221"/>
+      <c r="U65" s="221"/>
+      <c r="V65" s="221"/>
+      <c r="W65" s="221"/>
+      <c r="X65" s="221"/>
+      <c r="Y65" s="221"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="181" t="s">
         <v>356</v>
       </c>
-      <c r="B66" s="233">
+      <c r="B66" s="221">
         <f>B49/3.6</f>
         <v>2937.9</v>
       </c>
-      <c r="C66" s="233">
+      <c r="C66" s="221">
         <f t="shared" ref="C66:F66" si="8">C49/3.6</f>
         <v>2558.1894444444442</v>
       </c>
-      <c r="D66" s="233">
+      <c r="D66" s="221">
         <f t="shared" si="8"/>
         <v>2824.2388888888891</v>
       </c>
-      <c r="E66" s="233">
+      <c r="E66" s="221">
         <f t="shared" si="8"/>
         <v>3012.1694444444443</v>
       </c>
-      <c r="F66" s="233">
+      <c r="F66" s="221">
         <f t="shared" si="8"/>
         <v>3621.297222222222</v>
       </c>
-      <c r="G66" s="239">
+      <c r="G66" s="227">
         <f>(F66/B66)^(1/(F64-B64))-1</f>
         <v>5.3675278227879542E-2</v>
       </c>
-      <c r="H66" s="240"/>
-      <c r="I66" s="241"/>
-      <c r="J66" s="242"/>
-      <c r="K66" s="240"/>
-      <c r="L66" s="243"/>
-      <c r="M66" s="242"/>
-      <c r="N66" s="240"/>
-      <c r="O66" s="241"/>
-      <c r="P66" s="242"/>
-      <c r="Q66" s="242"/>
-      <c r="R66" s="233"/>
-      <c r="S66" s="233"/>
-      <c r="T66" s="233"/>
-      <c r="U66" s="233"/>
-      <c r="V66" s="233"/>
-      <c r="W66" s="233"/>
-      <c r="X66" s="233"/>
-      <c r="Y66" s="233"/>
+      <c r="H66" s="228"/>
+      <c r="I66" s="229"/>
+      <c r="J66" s="230"/>
+      <c r="K66" s="228"/>
+      <c r="L66" s="231"/>
+      <c r="M66" s="230"/>
+      <c r="N66" s="228"/>
+      <c r="O66" s="229"/>
+      <c r="P66" s="230"/>
+      <c r="Q66" s="230"/>
+      <c r="R66" s="221"/>
+      <c r="S66" s="221"/>
+      <c r="T66" s="221"/>
+      <c r="U66" s="221"/>
+      <c r="V66" s="221"/>
+      <c r="W66" s="221"/>
+      <c r="X66" s="221"/>
+      <c r="Y66" s="221"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="B67" s="233">
+      <c r="B67" s="221">
         <f>(B50+B51+B52)/3.6</f>
         <v>16640.800555555554</v>
       </c>
-      <c r="C67" s="233">
+      <c r="C67" s="221">
         <f t="shared" ref="C67:F67" si="9">(C50+C51+C52)/3.6</f>
         <v>14886.428888888888</v>
       </c>
-      <c r="D67" s="233">
+      <c r="D67" s="221">
         <f t="shared" si="9"/>
         <v>16660.888333333332</v>
       </c>
-      <c r="E67" s="233">
+      <c r="E67" s="221">
         <f t="shared" si="9"/>
         <v>19062.636111111107</v>
       </c>
-      <c r="F67" s="233">
+      <c r="F67" s="221">
         <f t="shared" si="9"/>
         <v>19297.291666666668</v>
       </c>
-      <c r="G67" s="239">
+      <c r="G67" s="227">
         <f>(F67/B67)^(1/(F64-B64))-1</f>
         <v>3.7720834851399765E-2</v>
       </c>
-      <c r="H67" s="240"/>
-      <c r="I67" s="241"/>
-      <c r="J67" s="242"/>
-      <c r="K67" s="240"/>
-      <c r="L67" s="243"/>
-      <c r="M67" s="242"/>
-      <c r="N67" s="240"/>
-      <c r="O67" s="241"/>
-      <c r="P67" s="242"/>
-      <c r="Q67" s="242"/>
-      <c r="R67" s="233"/>
-      <c r="S67" s="233"/>
-      <c r="T67" s="233"/>
-      <c r="U67" s="233"/>
-      <c r="V67" s="233"/>
-      <c r="W67" s="233"/>
-      <c r="X67" s="233"/>
-      <c r="Y67" s="233"/>
-    </row>
-    <row r="68" spans="1:25" s="244" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="244" t="s">
+      <c r="H67" s="228"/>
+      <c r="I67" s="229"/>
+      <c r="J67" s="230"/>
+      <c r="K67" s="228"/>
+      <c r="L67" s="231"/>
+      <c r="M67" s="230"/>
+      <c r="N67" s="228"/>
+      <c r="O67" s="229"/>
+      <c r="P67" s="230"/>
+      <c r="Q67" s="230"/>
+      <c r="R67" s="221"/>
+      <c r="S67" s="221"/>
+      <c r="T67" s="221"/>
+      <c r="U67" s="221"/>
+      <c r="V67" s="221"/>
+      <c r="W67" s="221"/>
+      <c r="X67" s="221"/>
+      <c r="Y67" s="221"/>
+    </row>
+    <row r="68" spans="1:25" s="232" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="232" t="s">
         <v>358</v>
       </c>
-      <c r="B68" s="245">
+      <c r="B68" s="233">
         <f>B55/3.6</f>
         <v>2791.0050000000001</v>
       </c>
-      <c r="C68" s="245">
+      <c r="C68" s="233">
         <f t="shared" ref="C68:F68" si="10">C55/3.6</f>
         <v>2430.2799722222217</v>
       </c>
-      <c r="D68" s="245">
+      <c r="D68" s="233">
         <f t="shared" si="10"/>
         <v>2683.0269444444443</v>
       </c>
-      <c r="E68" s="245">
+      <c r="E68" s="233">
         <f t="shared" si="10"/>
         <v>2861.5609722222221</v>
       </c>
-      <c r="F68" s="245">
+      <c r="F68" s="233">
         <f t="shared" si="10"/>
         <v>3440.232361111111</v>
       </c>
-      <c r="G68" s="239">
+      <c r="G68" s="227">
         <f>(F68/B68)^(1/(F64-B64))-1</f>
         <v>5.3675278227879542E-2</v>
       </c>
-      <c r="H68" s="245"/>
-      <c r="I68" s="245"/>
-      <c r="J68" s="245">
+      <c r="H68" s="233"/>
+      <c r="I68" s="233"/>
+      <c r="J68" s="233">
         <f>J26*0.95</f>
         <v>26790</v>
       </c>
-      <c r="K68" s="245">
+      <c r="K68" s="233">
         <f>E68*(1+G68)^(J64-E64)</f>
         <v>4347.6775685872717</v>
       </c>
-      <c r="L68" s="245"/>
-      <c r="M68" s="245">
+      <c r="L68" s="233"/>
+      <c r="M68" s="233">
         <f>M26*0.95</f>
         <v>44555</v>
       </c>
-      <c r="N68" s="245">
+      <c r="N68" s="233">
         <f>E68*(1+G68)^(M64-E64)</f>
         <v>7333.7353602111407</v>
       </c>
-      <c r="O68" s="245"/>
-      <c r="P68" s="245">
+      <c r="O68" s="233"/>
+      <c r="P68" s="233">
         <f>P26*0.95</f>
         <v>65835</v>
       </c>
-      <c r="Q68" s="245"/>
-      <c r="S68" s="244" t="s">
+      <c r="Q68" s="233"/>
+      <c r="S68" s="232" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="69" spans="1:25" s="246" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="246" t="s">
+    <row r="69" spans="1:25" s="234" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="234" t="s">
         <v>360</v>
       </c>
-      <c r="B69" s="247">
+      <c r="B69" s="235">
         <f t="shared" ref="B69:F71" si="11">B56/3.6</f>
         <v>2533.3338888888889</v>
       </c>
-      <c r="C69" s="247">
+      <c r="C69" s="235">
         <f t="shared" si="11"/>
         <v>2518.2216666666668</v>
       </c>
-      <c r="D69" s="247">
+      <c r="D69" s="235">
         <f t="shared" si="11"/>
         <v>2531.5555555555557</v>
       </c>
-      <c r="E69" s="247">
+      <c r="E69" s="235">
         <f t="shared" si="11"/>
         <v>2605.1200000000003</v>
       </c>
-      <c r="F69" s="247">
+      <c r="F69" s="235">
         <f t="shared" si="11"/>
         <v>2791.9466666666667</v>
       </c>
-      <c r="G69" s="239">
+      <c r="G69" s="227">
         <f>(F69/B69)^(1/(F64-B64))-1</f>
         <v>2.4598395095139836E-2</v>
       </c>
-      <c r="I69" s="248"/>
-      <c r="J69" s="249"/>
-      <c r="L69" s="250"/>
-      <c r="M69" s="249"/>
-      <c r="O69" s="248"/>
-      <c r="P69" s="249"/>
-      <c r="Q69" s="249"/>
-    </row>
-    <row r="70" spans="1:25" s="251" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="251" t="s">
+      <c r="I69" s="236"/>
+      <c r="J69" s="237"/>
+      <c r="L69" s="238"/>
+      <c r="M69" s="237"/>
+      <c r="O69" s="236"/>
+      <c r="P69" s="237"/>
+      <c r="Q69" s="237"/>
+    </row>
+    <row r="70" spans="1:25" s="239" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="239" t="s">
         <v>361</v>
       </c>
-      <c r="B70" s="252">
+      <c r="B70" s="240">
         <f>B58/3.6</f>
         <v>4409.7833333333328</v>
       </c>
-      <c r="C70" s="252">
+      <c r="C70" s="240">
         <f t="shared" si="11"/>
         <v>1606.5130555555556</v>
       </c>
-      <c r="D70" s="252">
+      <c r="D70" s="240">
         <f t="shared" si="11"/>
         <v>1731.2883333333332</v>
       </c>
-      <c r="E70" s="252">
+      <c r="E70" s="240">
         <f t="shared" si="11"/>
         <v>4518.3999999999996</v>
       </c>
-      <c r="F70" s="252">
+      <c r="F70" s="240">
         <f t="shared" si="11"/>
         <v>4993.4055555555551</v>
       </c>
-      <c r="G70" s="239">
+      <c r="G70" s="227">
         <f>(F70/B70)^(1/(F64-B64))-1</f>
         <v>3.1560958665195482E-2</v>
       </c>
-      <c r="I70" s="253"/>
-      <c r="J70" s="254"/>
-      <c r="L70" s="255"/>
-      <c r="M70" s="254"/>
-      <c r="O70" s="253"/>
-      <c r="P70" s="254"/>
-      <c r="Q70" s="254"/>
-    </row>
-    <row r="71" spans="1:25" s="256" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="256" t="s">
+      <c r="I70" s="241"/>
+      <c r="J70" s="242"/>
+      <c r="L70" s="243"/>
+      <c r="M70" s="242"/>
+      <c r="O70" s="241"/>
+      <c r="P70" s="242"/>
+      <c r="Q70" s="242"/>
+    </row>
+    <row r="71" spans="1:25" s="244" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="244" t="s">
         <v>362</v>
       </c>
-      <c r="B71" s="257">
+      <c r="B71" s="245">
         <f>B57/3.6</f>
         <v>37.867222222222225</v>
       </c>
-      <c r="C71" s="257">
+      <c r="C71" s="245">
         <f t="shared" si="11"/>
         <v>2300.2186111111109</v>
       </c>
-      <c r="D71" s="257">
+      <c r="D71" s="245">
         <f t="shared" si="11"/>
         <v>3128.15</v>
       </c>
-      <c r="E71" s="257">
+      <c r="E71" s="245">
         <f t="shared" si="11"/>
         <v>3157.661111111111</v>
       </c>
-      <c r="F71" s="257">
+      <c r="F71" s="245">
         <f t="shared" si="11"/>
         <v>3157.661111111111</v>
       </c>
-      <c r="G71" s="239">
+      <c r="G71" s="227">
         <f>(F71/C71)^(1/(F64-C64))-1</f>
         <v>0.11138739921046215</v>
       </c>
-      <c r="I71" s="258"/>
-      <c r="J71" s="259"/>
-      <c r="L71" s="260"/>
-      <c r="M71" s="259"/>
-      <c r="O71" s="258"/>
-      <c r="P71" s="259"/>
-      <c r="Q71" s="259"/>
-    </row>
-    <row r="72" spans="1:25" s="256" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="256" t="s">
+      <c r="I71" s="246"/>
+      <c r="J71" s="247"/>
+      <c r="L71" s="248"/>
+      <c r="M71" s="247"/>
+      <c r="O71" s="246"/>
+      <c r="P71" s="247"/>
+      <c r="Q71" s="247"/>
+    </row>
+    <row r="72" spans="1:25" s="244" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="244" t="s">
         <v>363</v>
       </c>
-      <c r="B72" s="257">
+      <c r="B72" s="245">
         <f>B69+B70+B71</f>
         <v>6980.9844444444434</v>
       </c>
-      <c r="C72" s="257">
+      <c r="C72" s="245">
         <f t="shared" ref="C72:F72" si="12">C69+C70+C71</f>
         <v>6424.9533333333329</v>
       </c>
-      <c r="D72" s="257">
+      <c r="D72" s="245">
         <f t="shared" si="12"/>
         <v>7390.9938888888883</v>
       </c>
-      <c r="E72" s="257">
+      <c r="E72" s="245">
         <f t="shared" si="12"/>
         <v>10281.181111111111</v>
       </c>
-      <c r="F72" s="257">
+      <c r="F72" s="245">
         <f t="shared" si="12"/>
         <v>10943.013333333332</v>
       </c>
-      <c r="G72" s="239">
+      <c r="G72" s="227">
         <f>(F72/B72)^(1/(F64-B64))-1</f>
         <v>0.11893553034658932</v>
       </c>
-      <c r="I72" s="258"/>
-      <c r="J72" s="259"/>
-      <c r="L72" s="260"/>
-      <c r="M72" s="259"/>
-      <c r="O72" s="258"/>
-      <c r="P72" s="259"/>
-      <c r="Q72" s="259"/>
-    </row>
-    <row r="73" spans="1:25" s="256" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="257"/>
-      <c r="C73" s="257"/>
-      <c r="D73" s="257"/>
-      <c r="E73" s="257"/>
-      <c r="F73" s="257"/>
-      <c r="G73" s="239"/>
-      <c r="I73" s="258"/>
-      <c r="J73" s="259"/>
-      <c r="L73" s="260"/>
-      <c r="M73" s="259"/>
-      <c r="O73" s="258"/>
-      <c r="P73" s="259"/>
-      <c r="Q73" s="259"/>
+      <c r="I72" s="246"/>
+      <c r="J72" s="247"/>
+      <c r="L72" s="248"/>
+      <c r="M72" s="247"/>
+      <c r="O72" s="246"/>
+      <c r="P72" s="247"/>
+      <c r="Q72" s="247"/>
+    </row>
+    <row r="73" spans="1:25" s="244" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="245"/>
+      <c r="C73" s="245"/>
+      <c r="D73" s="245"/>
+      <c r="E73" s="245"/>
+      <c r="F73" s="245"/>
+      <c r="G73" s="227"/>
+      <c r="I73" s="246"/>
+      <c r="J73" s="247"/>
+      <c r="L73" s="248"/>
+      <c r="M73" s="247"/>
+      <c r="O73" s="246"/>
+      <c r="P73" s="247"/>
+      <c r="Q73" s="247"/>
     </row>
     <row r="75" spans="1:25" s="183" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="183" t="s">
         <v>364</v>
       </c>
-      <c r="B75" s="261">
+      <c r="B75" s="249">
         <f>B60/3.6</f>
         <v>146.89500000000004</v>
       </c>
-      <c r="C75" s="261">
+      <c r="C75" s="249">
         <f t="shared" ref="C75:F76" si="13">C60/3.6</f>
         <v>127.90947222222258</v>
       </c>
-      <c r="D75" s="261">
+      <c r="D75" s="249">
         <f t="shared" si="13"/>
         <v>141.21194444444478</v>
       </c>
-      <c r="E75" s="261">
+      <c r="E75" s="249">
         <f t="shared" si="13"/>
         <v>150.60847222222239</v>
       </c>
-      <c r="F75" s="261">
+      <c r="F75" s="249">
         <f t="shared" si="13"/>
         <v>181.0648611111113</v>
       </c>
@@ -10149,23 +10113,23 @@
       <c r="A76" s="183" t="s">
         <v>365</v>
       </c>
-      <c r="B76" s="261">
+      <c r="B76" s="249">
         <f>B61/3.6</f>
         <v>9659.8161111111094</v>
       </c>
-      <c r="C76" s="261">
+      <c r="C76" s="249">
         <f t="shared" si="13"/>
         <v>8461.4755555555566</v>
       </c>
-      <c r="D76" s="261">
+      <c r="D76" s="249">
         <f t="shared" si="13"/>
         <v>9269.8944444444442</v>
       </c>
-      <c r="E76" s="261">
+      <c r="E76" s="249">
         <f t="shared" si="13"/>
         <v>8781.4549999999999</v>
       </c>
-      <c r="F76" s="261">
+      <c r="F76" s="249">
         <f t="shared" si="13"/>
         <v>8354.2783333333336</v>
       </c>
@@ -10202,23 +10166,23 @@
       <c r="A79" s="181" t="s">
         <v>367</v>
       </c>
-      <c r="B79" s="221">
+      <c r="B79" s="209">
         <f>B69/(B69+B76)</f>
         <v>0.2077669748087155</v>
       </c>
-      <c r="C79" s="221">
+      <c r="C79" s="209">
         <f t="shared" si="14"/>
         <v>0.22935256006604107</v>
       </c>
-      <c r="D79" s="221">
+      <c r="D79" s="209">
         <f t="shared" si="14"/>
         <v>0.21451224684725653</v>
       </c>
-      <c r="E79" s="221">
+      <c r="E79" s="209">
         <f t="shared" si="14"/>
         <v>0.22878872707552536</v>
       </c>
-      <c r="F79" s="221">
+      <c r="F79" s="209">
         <f t="shared" si="14"/>
         <v>0.2504836091741075</v>
       </c>
@@ -10227,23 +10191,23 @@
       <c r="A80" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="B80" s="221">
+      <c r="B80" s="209">
         <f>B70/(B70+B71)</f>
         <v>0.9914860167746492</v>
       </c>
-      <c r="C80" s="221">
+      <c r="C80" s="209">
         <f t="shared" ref="C80:F80" si="15">C70/(C70+C71)</f>
         <v>0.4112166364695013</v>
       </c>
-      <c r="D80" s="221">
+      <c r="D80" s="209">
         <f t="shared" si="15"/>
         <v>0.3562733416036078</v>
       </c>
-      <c r="E80" s="221">
+      <c r="E80" s="209">
         <f t="shared" si="15"/>
         <v>0.58863523030836851</v>
       </c>
-      <c r="F80" s="221">
+      <c r="F80" s="209">
         <f t="shared" si="15"/>
         <v>0.61260762054318729</v>
       </c>
@@ -10252,23 +10216,23 @@
       <c r="A81" s="181" t="s">
         <v>369</v>
       </c>
-      <c r="B81" s="221">
+      <c r="B81" s="209">
         <f>B71/(B71+B70)</f>
         <v>8.5139832253508137E-3</v>
       </c>
-      <c r="C81" s="221">
+      <c r="C81" s="209">
         <f t="shared" ref="C81:F81" si="16">C71/(C71+C70)</f>
         <v>0.58878336353049865</v>
       </c>
-      <c r="D81" s="221">
+      <c r="D81" s="209">
         <f t="shared" si="16"/>
         <v>0.6437266583963922</v>
       </c>
-      <c r="E81" s="221">
+      <c r="E81" s="209">
         <f t="shared" si="16"/>
         <v>0.41136476969163155</v>
       </c>
-      <c r="F81" s="221">
+      <c r="F81" s="209">
         <f t="shared" si="16"/>
         <v>0.38739237945681276</v>
       </c>
@@ -10277,23 +10241,23 @@
       <c r="A82" s="181" t="s">
         <v>370</v>
       </c>
-      <c r="B82" s="221">
+      <c r="B82" s="209">
         <f>SUM(B69:B71)/(B65-B68)</f>
         <v>0.41583935218161766</v>
       </c>
-      <c r="C82" s="221">
+      <c r="C82" s="209">
         <f t="shared" ref="C82:F82" si="17">SUM(C69:C71)/(C65-C68)</f>
         <v>0.4279211763319995</v>
       </c>
-      <c r="D82" s="221">
+      <c r="D82" s="209">
         <f t="shared" si="17"/>
         <v>0.43988511952068954</v>
       </c>
-      <c r="E82" s="221">
+      <c r="E82" s="209">
         <f t="shared" si="17"/>
         <v>0.53510905284730503</v>
       </c>
-      <c r="F82" s="221">
+      <c r="F82" s="209">
         <f t="shared" si="17"/>
         <v>0.56180372906346965</v>
       </c>
@@ -10314,23 +10278,23 @@
       <c r="A84" s="183" t="s">
         <v>371</v>
       </c>
-      <c r="B84" s="228">
+      <c r="B84" s="216">
         <f>B75/(B75+B68)</f>
         <v>5.000000000000001E-2</v>
       </c>
-      <c r="C84" s="228">
+      <c r="C84" s="216">
         <f t="shared" ref="C84:F85" si="18">C75/(C75+C68)</f>
         <v>5.0000000000000142E-2</v>
       </c>
-      <c r="D84" s="228">
+      <c r="D84" s="216">
         <f t="shared" si="18"/>
         <v>5.0000000000000114E-2</v>
       </c>
-      <c r="E84" s="228">
+      <c r="E84" s="216">
         <f t="shared" si="18"/>
         <v>5.0000000000000058E-2</v>
       </c>
-      <c r="F84" s="228">
+      <c r="F84" s="216">
         <f t="shared" si="18"/>
         <v>5.0000000000000051E-2</v>
       </c>
@@ -10342,23 +10306,23 @@
       <c r="A85" s="183" t="s">
         <v>372</v>
       </c>
-      <c r="B85" s="228">
+      <c r="B85" s="216">
         <f>B76/(B76+B69)</f>
         <v>0.79223302519128458</v>
       </c>
-      <c r="C85" s="228">
+      <c r="C85" s="216">
         <f t="shared" si="18"/>
         <v>0.77064743993395901</v>
       </c>
-      <c r="D85" s="228">
+      <c r="D85" s="216">
         <f t="shared" si="18"/>
         <v>0.78548775315274344</v>
       </c>
-      <c r="E85" s="228">
+      <c r="E85" s="216">
         <f t="shared" si="18"/>
         <v>0.77121127292447456</v>
       </c>
-      <c r="F85" s="228">
+      <c r="F85" s="216">
         <f t="shared" si="18"/>
         <v>0.7495163908258925</v>
       </c>
@@ -10370,23 +10334,23 @@
       <c r="A86" s="183" t="s">
         <v>373</v>
       </c>
-      <c r="B86" s="228">
+      <c r="B86" s="216">
         <f>(B75+B76)/B65</f>
         <v>0.50088672040741777</v>
       </c>
-      <c r="C86" s="228">
+      <c r="C86" s="216">
         <f t="shared" ref="C86:F86" si="19">(C75+C76)/C65</f>
         <v>0.49238022085958183</v>
       </c>
-      <c r="D86" s="228">
+      <c r="D86" s="216">
         <f t="shared" si="19"/>
         <v>0.48298921949843859</v>
       </c>
-      <c r="E86" s="228">
+      <c r="E86" s="216">
         <f t="shared" si="19"/>
         <v>0.40462705094923457</v>
       </c>
-      <c r="F86" s="228">
+      <c r="F86" s="216">
         <f t="shared" si="19"/>
         <v>0.37242010124726516</v>
       </c>
@@ -10398,23 +10362,23 @@
       <c r="A88" s="181" t="s">
         <v>374</v>
       </c>
-      <c r="B88" s="221">
+      <c r="B88" s="209">
         <f>B68/B65</f>
         <v>0.14255312767465758</v>
       </c>
-      <c r="C88" s="221">
+      <c r="C88" s="209">
         <f t="shared" ref="C88:F88" si="20">C68/C65</f>
         <v>0.1393140237168973</v>
       </c>
-      <c r="D88" s="221">
+      <c r="D88" s="209">
         <f t="shared" si="20"/>
         <v>0.13769614710980846</v>
       </c>
-      <c r="E88" s="221">
+      <c r="E88" s="209">
         <f t="shared" si="20"/>
         <v>0.12963017794292891</v>
       </c>
-      <c r="F88" s="221">
+      <c r="F88" s="209">
         <f t="shared" si="20"/>
         <v>0.15010663954005313</v>
       </c>
@@ -10423,23 +10387,23 @@
       <c r="A89" s="181" t="s">
         <v>375</v>
       </c>
-      <c r="B89" s="221">
+      <c r="B89" s="209">
         <f>B69/B65</f>
         <v>0.12939234050290649</v>
       </c>
-      <c r="C89" s="221">
+      <c r="C89" s="209">
         <f t="shared" ref="C89:F89" si="21">C69/C65</f>
         <v>0.14435521709608434</v>
       </c>
-      <c r="D89" s="221">
+      <c r="D89" s="209">
         <f t="shared" si="21"/>
         <v>0.12992245453077617</v>
       </c>
-      <c r="E89" s="221">
+      <c r="E89" s="209">
         <f t="shared" si="21"/>
         <v>0.11801327053340099</v>
       </c>
-      <c r="F89" s="221">
+      <c r="F89" s="209">
         <f t="shared" si="21"/>
         <v>0.12182018187080551</v>
       </c>
@@ -10448,141 +10412,141 @@
       <c r="A90" s="181" t="s">
         <v>376</v>
       </c>
-      <c r="B90" s="221">
+      <c r="B90" s="209">
         <f>(B70+B71)/B65</f>
         <v>0.22716781141501813</v>
       </c>
-      <c r="C90" s="221">
+      <c r="C90" s="209">
         <f t="shared" ref="C90:F90" si="22">(C70+C71)/C65</f>
         <v>0.22395053832743639</v>
       </c>
-      <c r="D90" s="221">
+      <c r="D90" s="209">
         <f t="shared" si="22"/>
         <v>0.24939217886097687</v>
       </c>
-      <c r="E90" s="221">
+      <c r="E90" s="209">
         <f t="shared" si="22"/>
         <v>0.34772950057443569</v>
       </c>
-      <c r="F90" s="221">
+      <c r="F90" s="209">
         <f t="shared" si="22"/>
         <v>0.35565307734187629</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="251" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="251" t="s">
+    <row r="92" spans="1:17" s="239" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="239" t="s">
         <v>377</v>
       </c>
-      <c r="B92" s="262">
+      <c r="B92" s="250">
         <f>B69/(B$69+B$70+B$71)</f>
         <v>0.36289063656415227</v>
       </c>
-      <c r="C92" s="262">
+      <c r="C92" s="250">
         <f t="shared" ref="C92:F92" si="23">C69/(C$69+C$70+C$71)</f>
         <v>0.39194396223889566</v>
       </c>
-      <c r="D92" s="262">
+      <c r="D92" s="250">
         <f t="shared" si="23"/>
         <v>0.34251896207914906</v>
       </c>
-      <c r="E92" s="262">
+      <c r="E92" s="250">
         <f t="shared" si="23"/>
         <v>0.25338722972058014</v>
       </c>
-      <c r="F92" s="262">
+      <c r="F92" s="250">
         <f t="shared" si="23"/>
         <v>0.25513508771502308</v>
       </c>
-      <c r="I92" s="253"/>
-      <c r="J92" s="254"/>
-      <c r="L92" s="255"/>
-      <c r="M92" s="254"/>
-      <c r="O92" s="253"/>
-      <c r="P92" s="254"/>
-      <c r="Q92" s="254"/>
-    </row>
-    <row r="93" spans="1:17" s="251" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="251" t="s">
+      <c r="I92" s="241"/>
+      <c r="J92" s="242"/>
+      <c r="L92" s="243"/>
+      <c r="M92" s="242"/>
+      <c r="O92" s="241"/>
+      <c r="P92" s="242"/>
+      <c r="Q92" s="242"/>
+    </row>
+    <row r="93" spans="1:17" s="239" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="239" t="s">
         <v>378</v>
       </c>
-      <c r="B93" s="262">
+      <c r="B93" s="250">
         <f t="shared" ref="B93:F94" si="24">B70/(B$69+B$70+B$71)</f>
         <v>0.63168502500284107</v>
       </c>
-      <c r="C93" s="262">
+      <c r="C93" s="250">
         <f t="shared" si="24"/>
         <v>0.25004275863309344</v>
       </c>
-      <c r="D93" s="262">
+      <c r="D93" s="250">
         <f t="shared" si="24"/>
         <v>0.23424296642106998</v>
       </c>
-      <c r="E93" s="262">
+      <c r="E93" s="250">
         <f t="shared" si="24"/>
         <v>0.43948257998459533</v>
       </c>
-      <c r="F93" s="262">
+      <c r="F93" s="250">
         <f t="shared" si="24"/>
         <v>0.45630992154100963</v>
       </c>
-      <c r="I93" s="253"/>
-      <c r="J93" s="254"/>
-      <c r="L93" s="255"/>
-      <c r="M93" s="254"/>
-      <c r="O93" s="253"/>
-      <c r="P93" s="254"/>
-      <c r="Q93" s="254"/>
-    </row>
-    <row r="94" spans="1:17" s="251" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="251" t="s">
+      <c r="I93" s="241"/>
+      <c r="J93" s="242"/>
+      <c r="L93" s="243"/>
+      <c r="M93" s="242"/>
+      <c r="O93" s="241"/>
+      <c r="P93" s="242"/>
+      <c r="Q93" s="242"/>
+    </row>
+    <row r="94" spans="1:17" s="239" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="239" t="s">
         <v>379</v>
       </c>
-      <c r="B94" s="262">
+      <c r="B94" s="250">
         <f t="shared" si="24"/>
         <v>5.4243384330067432E-3</v>
       </c>
-      <c r="C94" s="262">
+      <c r="C94" s="250">
         <f t="shared" si="24"/>
         <v>0.35801327912801095</v>
       </c>
-      <c r="D94" s="262">
+      <c r="D94" s="250">
         <f t="shared" si="24"/>
         <v>0.42323807149978104</v>
       </c>
-      <c r="E94" s="262">
+      <c r="E94" s="250">
         <f t="shared" si="24"/>
         <v>0.30713019029482452</v>
       </c>
-      <c r="F94" s="262">
+      <c r="F94" s="250">
         <f t="shared" si="24"/>
         <v>0.28855499074396734</v>
       </c>
-      <c r="I94" s="253"/>
-      <c r="J94" s="254"/>
-      <c r="L94" s="255"/>
-      <c r="M94" s="254"/>
-      <c r="O94" s="253"/>
-      <c r="P94" s="254"/>
-      <c r="Q94" s="254"/>
+      <c r="I94" s="241"/>
+      <c r="J94" s="242"/>
+      <c r="L94" s="243"/>
+      <c r="M94" s="242"/>
+      <c r="O94" s="241"/>
+      <c r="P94" s="242"/>
+      <c r="Q94" s="242"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B95" s="221">
+      <c r="B95" s="209">
         <f>SUM(B92:B94)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="C95" s="221">
+      <c r="C95" s="209">
         <f t="shared" ref="C95:F95" si="25">SUM(C92:C94)</f>
         <v>1</v>
       </c>
-      <c r="D95" s="221">
+      <c r="D95" s="209">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="E95" s="221">
+      <c r="E95" s="209">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="F95" s="221">
+      <c r="F95" s="209">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
@@ -10591,23 +10555,23 @@
       <c r="A97" s="183" t="s">
         <v>380</v>
       </c>
-      <c r="B97" s="228">
+      <c r="B97" s="216">
         <f>B75/B65</f>
         <v>7.5027961934030314E-3</v>
       </c>
-      <c r="C97" s="228">
+      <c r="C97" s="216">
         <f t="shared" ref="C97:F97" si="26">C75/C65</f>
         <v>7.3323170377314582E-3</v>
       </c>
-      <c r="D97" s="228">
+      <c r="D97" s="216">
         <f t="shared" si="26"/>
         <v>7.2471656373583569E-3</v>
       </c>
-      <c r="E97" s="228">
+      <c r="E97" s="216">
         <f t="shared" si="26"/>
         <v>6.8226409443646885E-3</v>
       </c>
-      <c r="F97" s="228">
+      <c r="F97" s="216">
         <f t="shared" si="26"/>
         <v>7.9003494494764882E-3</v>
       </c>
@@ -10619,23 +10583,23 @@
       <c r="A98" s="183" t="s">
         <v>381</v>
       </c>
-      <c r="B98" s="228">
+      <c r="B98" s="216">
         <f>B76/B65</f>
         <v>0.49338392421401467</v>
       </c>
-      <c r="C98" s="228">
+      <c r="C98" s="216">
         <f t="shared" ref="C98:F98" si="27">C76/C65</f>
         <v>0.48504790382185042</v>
       </c>
-      <c r="D98" s="228">
+      <c r="D98" s="216">
         <f t="shared" si="27"/>
         <v>0.47574205386108021</v>
       </c>
-      <c r="E98" s="228">
+      <c r="E98" s="216">
         <f t="shared" si="27"/>
         <v>0.39780441000486988</v>
       </c>
-      <c r="F98" s="228">
+      <c r="F98" s="216">
         <f t="shared" si="27"/>
         <v>0.36451975179778862</v>
       </c>
@@ -10651,19 +10615,19 @@
       <c r="A100" s="181" t="s">
         <v>382</v>
       </c>
-      <c r="C100" s="221">
+      <c r="C100" s="209">
         <f>(C65-B65)/B65</f>
         <v>-0.10900019723814934</v>
       </c>
-      <c r="D100" s="221">
+      <c r="D100" s="209">
         <f t="shared" ref="D100:F100" si="28">(D65-C65)/C65</f>
         <v>0.11697068115212718</v>
       </c>
-      <c r="E100" s="221">
+      <c r="E100" s="209">
         <f t="shared" si="28"/>
         <v>0.13290538490197162</v>
       </c>
-      <c r="F100" s="221">
+      <c r="F100" s="209">
         <f t="shared" si="28"/>
         <v>3.8223817247666859E-2</v>
       </c>
@@ -10672,19 +10636,19 @@
       <c r="A101" s="181" t="s">
         <v>383</v>
       </c>
-      <c r="C101" s="221">
+      <c r="C101" s="209">
         <f>(C68-B68)/B68</f>
         <v>-0.12924556845214483</v>
       </c>
-      <c r="D101" s="221">
+      <c r="D101" s="209">
         <f t="shared" ref="D101:F103" si="29">(D68-C68)/C68</f>
         <v>0.10399911743136063</v>
       </c>
-      <c r="E101" s="221">
+      <c r="E101" s="209">
         <f t="shared" si="29"/>
         <v>6.6542018203527786E-2</v>
       </c>
-      <c r="F101" s="221">
+      <c r="F101" s="209">
         <f t="shared" si="29"/>
         <v>0.20222228165192865</v>
       </c>
@@ -10693,19 +10657,19 @@
       <c r="A102" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="C102" s="221">
+      <c r="C102" s="209">
         <f>(C69-B69)/B69</f>
         <v>-5.9653495690022177E-3</v>
       </c>
-      <c r="D102" s="221">
+      <c r="D102" s="209">
         <f t="shared" si="29"/>
         <v>5.294962340046388E-3</v>
       </c>
-      <c r="E102" s="221">
+      <c r="E102" s="209">
         <f t="shared" si="29"/>
         <v>2.905898876404504E-2</v>
       </c>
-      <c r="F102" s="221">
+      <c r="F102" s="209">
         <f t="shared" si="29"/>
         <v>7.1715186504524298E-2</v>
       </c>
@@ -10714,58 +10678,58 @@
       <c r="A103" s="181" t="s">
         <v>385</v>
       </c>
-      <c r="C103" s="221">
+      <c r="C103" s="209">
         <f>(C70-B70)/B70</f>
         <v>-0.63569342661078077</v>
       </c>
-      <c r="D103" s="221">
+      <c r="D103" s="209">
         <f t="shared" si="29"/>
         <v>7.7668387036312278E-2</v>
       </c>
-      <c r="E103" s="221">
+      <c r="E103" s="209">
         <f t="shared" si="29"/>
         <v>1.6098483499282328</v>
       </c>
-      <c r="F103" s="221">
+      <c r="F103" s="209">
         <f t="shared" si="29"/>
         <v>0.1051269377557444</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="21" x14ac:dyDescent="0.4">
-      <c r="A106" s="263" t="s">
+      <c r="A106" s="251" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="107" spans="1:19" s="232" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="232" t="str">
+    <row r="107" spans="1:19" s="220" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="220" t="str">
         <f t="shared" ref="A107:P108" si="30">A64</f>
         <v>Year</v>
       </c>
-      <c r="B107" s="232">
+      <c r="B107" s="220">
         <f t="shared" si="30"/>
         <v>2019</v>
       </c>
-      <c r="C107" s="232">
+      <c r="C107" s="220">
         <f t="shared" si="30"/>
         <v>2020</v>
       </c>
-      <c r="D107" s="232">
+      <c r="D107" s="220">
         <f t="shared" si="30"/>
         <v>2021</v>
       </c>
-      <c r="E107" s="232">
+      <c r="E107" s="220">
         <f t="shared" si="30"/>
         <v>2022</v>
       </c>
-      <c r="F107" s="232">
+      <c r="F107" s="220">
         <f t="shared" si="30"/>
         <v>2023</v>
       </c>
-      <c r="G107" s="232">
+      <c r="G107" s="220">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="H107" s="232">
+      <c r="H107" s="220">
         <f t="shared" si="30"/>
         <v>2024</v>
       </c>
@@ -10777,7 +10741,7 @@
         <f t="shared" si="30"/>
         <v>2030</v>
       </c>
-      <c r="K107" s="232">
+      <c r="K107" s="220">
         <f t="shared" si="30"/>
         <v>2032</v>
       </c>
@@ -10789,7 +10753,7 @@
         <f t="shared" si="30"/>
         <v>2040</v>
       </c>
-      <c r="N107" s="232">
+      <c r="N107" s="220">
         <f t="shared" si="30"/>
         <v>2044</v>
       </c>
@@ -10802,7 +10766,7 @@
         <v>2050</v>
       </c>
       <c r="Q107" s="183"/>
-      <c r="R107" s="232">
+      <c r="R107" s="220">
         <f>R64</f>
         <v>0</v>
       </c>
@@ -11284,15 +11248,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A19"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="AB2:AF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11300,6 +11264,1140 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
+  <dimension ref="B1:R59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="str">
+        <f>EBF!Q2</f>
+        <v>GWh</v>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f>EBF!P2</f>
+        <v>TH$2022</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K3" s="154"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="123"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="122" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="122" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="122">
+        <v>2022</v>
+      </c>
+      <c r="F6" s="122">
+        <v>2025</v>
+      </c>
+      <c r="G6" s="122">
+        <v>2030</v>
+      </c>
+      <c r="H6" s="122">
+        <v>2035</v>
+      </c>
+      <c r="I6" s="122">
+        <v>2040</v>
+      </c>
+      <c r="J6" s="122">
+        <v>2045</v>
+      </c>
+      <c r="K6" s="122">
+        <v>2050</v>
+      </c>
+      <c r="L6" s="152"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="129"/>
+      <c r="Q6" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="2:18" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B7" s="125" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="125" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="125" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="L7" s="153"/>
+      <c r="M7" s="155" t="s">
+        <v>266</v>
+      </c>
+      <c r="N7" s="130"/>
+      <c r="O7" s="122" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="122" t="s">
+        <v>188</v>
+      </c>
+      <c r="R7" s="122">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="L8" s="153"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="132" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="132" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+    </row>
+    <row r="9" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="126" t="str">
+        <f>DemTechs_INDF!P6</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="D9" s="126" t="str">
+        <f>E$2</f>
+        <v>GWh</v>
+      </c>
+      <c r="E9" s="128">
+        <f>EBF!D18+EBF!E18</f>
+        <v>10281.3477669522</v>
+      </c>
+      <c r="F9" s="128">
+        <f>$E$9*(1+$M$9)^(F6-$E$6)</f>
+        <v>14405.897122659175</v>
+      </c>
+      <c r="G9" s="128">
+        <f t="shared" ref="G9:K9" si="0">$E$9*(1+$M$9)^(G6-$E$6)</f>
+        <v>25274.975404905261</v>
+      </c>
+      <c r="H9" s="128">
+        <f t="shared" si="0"/>
+        <v>44344.644160602315</v>
+      </c>
+      <c r="I9" s="128">
+        <f t="shared" si="0"/>
+        <v>77802.151504717243</v>
+      </c>
+      <c r="J9" s="128">
+        <f t="shared" si="0"/>
+        <v>136502.95076988969</v>
+      </c>
+      <c r="K9" s="128">
+        <f t="shared" si="0"/>
+        <v>239492.80589955384</v>
+      </c>
+      <c r="M9" s="157">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="126" t="str">
+        <f>DemTechs_INDF!P7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="D10" s="126" t="str">
+        <f>E$2</f>
+        <v>GWh</v>
+      </c>
+      <c r="E10" s="128">
+        <f>EBF!J18</f>
+        <v>2861.5612011470998</v>
+      </c>
+      <c r="F10" s="128">
+        <f>$E$10*(1+$M$10)^(F6-$E$6)</f>
+        <v>3350.6176459935423</v>
+      </c>
+      <c r="G10" s="128">
+        <f t="shared" ref="G10:K10" si="1">$E$10*(1+$M$10)^(G6-$E$6)</f>
+        <v>4358.4084284728824</v>
+      </c>
+      <c r="H10" s="128">
+        <f t="shared" si="1"/>
+        <v>5669.320118366044</v>
+      </c>
+      <c r="I10" s="128">
+        <f t="shared" si="1"/>
+        <v>7374.5246990933629</v>
+      </c>
+      <c r="J10" s="128">
+        <f t="shared" si="1"/>
+        <v>9592.6166457525742</v>
+      </c>
+      <c r="K10" s="128">
+        <f t="shared" si="1"/>
+        <v>12477.860996747662</v>
+      </c>
+      <c r="M10" s="158">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q10" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="R10" s="133">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="K11" s="5">
+        <f>K9+K10</f>
+        <v>251970.6668963015</v>
+      </c>
+      <c r="M11" s="156"/>
+      <c r="O11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q11" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="R11" s="133">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="146" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="145">
+        <f>E10/(E$9+E$10)</f>
+        <v>0.21772662415091906</v>
+      </c>
+      <c r="F12" s="145">
+        <f>F10/(F$9+F$10)</f>
+        <v>0.18869793366819429</v>
+      </c>
+      <c r="G12" s="145">
+        <f t="shared" ref="G12:K12" si="2">G10/(G$9+G$10)</f>
+        <v>0.14707764907913431</v>
+      </c>
+      <c r="H12" s="145">
+        <f t="shared" si="2"/>
+        <v>0.11335474402196269</v>
+      </c>
+      <c r="I12" s="145">
+        <f t="shared" si="2"/>
+        <v>8.6579155559529136E-2</v>
+      </c>
+      <c r="J12" s="145">
+        <f t="shared" si="2"/>
+        <v>6.5659874665886034E-2</v>
+      </c>
+      <c r="K12" s="145">
+        <f t="shared" si="2"/>
+        <v>4.9521085729724738E-2</v>
+      </c>
+      <c r="M12" s="156"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q12" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="R12" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="D13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="145">
+        <f>E9/(E$9+E$10)</f>
+        <v>0.78227337584908085</v>
+      </c>
+      <c r="F13" s="145">
+        <f>F9/(F$9+F$10)</f>
+        <v>0.81130206633180579</v>
+      </c>
+      <c r="G13" s="145">
+        <f t="shared" ref="G13:K13" si="3">G9/(G$9+G$10)</f>
+        <v>0.85292235092086577</v>
+      </c>
+      <c r="H13" s="145">
+        <f t="shared" si="3"/>
+        <v>0.88664525597803734</v>
+      </c>
+      <c r="I13" s="145">
+        <f t="shared" si="3"/>
+        <v>0.91342084444047078</v>
+      </c>
+      <c r="J13" s="145">
+        <f t="shared" si="3"/>
+        <v>0.93434012533411404</v>
+      </c>
+      <c r="K13" s="145">
+        <f t="shared" si="3"/>
+        <v>0.95047891427027531</v>
+      </c>
+      <c r="M13" s="156"/>
+      <c r="O13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q13" s="134" t="s">
+        <v>193</v>
+      </c>
+      <c r="R13" s="135">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>194</v>
+      </c>
+      <c r="R14" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>195</v>
+      </c>
+      <c r="R15" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="E16" s="5"/>
+      <c r="O16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>196</v>
+      </c>
+      <c r="R16" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P17" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>197</v>
+      </c>
+      <c r="R17" s="135">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P18" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>198</v>
+      </c>
+      <c r="R18" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="E19" s="5">
+        <f>EBF!J19</f>
+        <v>150.60848427090019</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P19" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>199</v>
+      </c>
+      <c r="R19" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="E20" s="5">
+        <f>EBF!E19</f>
+        <v>8781.4640358504003</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P20" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>200</v>
+      </c>
+      <c r="R20" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P21" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>201</v>
+      </c>
+      <c r="R21" s="135">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="127"/>
+      <c r="C22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>202</v>
+      </c>
+      <c r="R22" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="47"/>
+      <c r="C23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P23" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>203</v>
+      </c>
+      <c r="R23" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>204</v>
+      </c>
+      <c r="R24" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>205</v>
+      </c>
+      <c r="R25" s="135">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>206</v>
+      </c>
+      <c r="R26" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>207</v>
+      </c>
+      <c r="R27" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P28" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>208</v>
+      </c>
+      <c r="R28" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P29" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>209</v>
+      </c>
+      <c r="R29" s="135">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P30" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>210</v>
+      </c>
+      <c r="R30" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P31" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>211</v>
+      </c>
+      <c r="R31" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P32" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>212</v>
+      </c>
+      <c r="R32" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>213</v>
+      </c>
+      <c r="R33" s="135">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>214</v>
+      </c>
+      <c r="R34" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>215</v>
+      </c>
+      <c r="R35" s="133">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>216</v>
+      </c>
+      <c r="R36" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P37" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>217</v>
+      </c>
+      <c r="R37" s="135">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>218</v>
+      </c>
+      <c r="R38" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P39" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>219</v>
+      </c>
+      <c r="R39" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P40" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>220</v>
+      </c>
+      <c r="R40" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P41" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>221</v>
+      </c>
+      <c r="R41" s="135">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P42" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>222</v>
+      </c>
+      <c r="R42" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P43" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>223</v>
+      </c>
+      <c r="R43" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O44" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P44" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>224</v>
+      </c>
+      <c r="R44" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P45" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>225</v>
+      </c>
+      <c r="R45" s="135">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O46" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P46" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>226</v>
+      </c>
+      <c r="R46" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O47" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P47" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>227</v>
+      </c>
+      <c r="R47" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P48" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>228</v>
+      </c>
+      <c r="R48" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P49" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>229</v>
+      </c>
+      <c r="R49" s="135">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O50" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P50" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>230</v>
+      </c>
+      <c r="R50" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O51" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P51" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>231</v>
+      </c>
+      <c r="R51" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O52" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P52" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>232</v>
+      </c>
+      <c r="R52" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O53" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P53" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>233</v>
+      </c>
+      <c r="R53" s="135">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P54" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>234</v>
+      </c>
+      <c r="R54" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P55" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>235</v>
+      </c>
+      <c r="R55" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O56" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P56" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>236</v>
+      </c>
+      <c r="R56" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O57" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P57" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>237</v>
+      </c>
+      <c r="R57" s="135">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O58" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P58" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>238</v>
+      </c>
+      <c r="R58" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O59" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P59" s="1" t="str">
+        <f>DemTechs_INDF!P$7</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>239</v>
+      </c>
+      <c r="R59" s="133">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E959CB-7164-414F-B6F7-22B95D131062}">
   <dimension ref="B3:I24"/>
   <sheetViews>
@@ -11433,7 +12531,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="264"/>
+    <col min="1" max="1" width="19.33203125" style="252"/>
     <col min="2" max="6" width="7.5546875" style="181" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="19.33203125" style="181"/>
     <col min="9" max="9" width="8" style="181" bestFit="1" customWidth="1"/>
@@ -11445,27 +12543,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="I1" s="215" t="s">
+      <c r="I1" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="264" t="s">
+      <c r="J1" s="252" t="s">
         <v>343</v>
       </c>
-      <c r="K1" s="264" t="s">
+      <c r="K1" s="252" t="s">
         <v>358</v>
       </c>
-      <c r="L1" s="264" t="s">
+      <c r="L1" s="252" t="s">
         <v>360</v>
       </c>
-      <c r="M1" s="264" t="s">
+      <c r="M1" s="252" t="s">
         <v>361</v>
       </c>
-      <c r="N1" s="264" t="s">
+      <c r="N1" s="252" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="252" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="181">
@@ -11486,191 +12584,191 @@
       <c r="I2" s="181">
         <v>2019</v>
       </c>
-      <c r="J2" s="266">
+      <c r="J2" s="254">
         <v>19575.922777777778</v>
       </c>
-      <c r="K2" s="266">
+      <c r="K2" s="254">
         <v>2791.0050000000001</v>
       </c>
-      <c r="L2" s="266">
+      <c r="L2" s="254">
         <v>2533.3338888888889</v>
       </c>
-      <c r="M2" s="266">
+      <c r="M2" s="254">
         <v>4409.7833333333328</v>
       </c>
-      <c r="N2" s="266">
+      <c r="N2" s="254">
         <v>35.089444444444446</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="264" t="s">
+      <c r="A3" s="252" t="s">
         <v>343</v>
       </c>
-      <c r="B3" s="233">
+      <c r="B3" s="221">
         <v>19575.922777777778</v>
       </c>
-      <c r="C3" s="233">
+      <c r="C3" s="221">
         <v>17444.618333333336</v>
       </c>
-      <c r="D3" s="233">
+      <c r="D3" s="221">
         <v>19485.127222222221</v>
       </c>
-      <c r="E3" s="233">
+      <c r="E3" s="221">
         <v>22074.805555555551</v>
       </c>
-      <c r="F3" s="233">
+      <c r="F3" s="221">
         <v>22918.588888888888</v>
       </c>
       <c r="I3" s="181">
         <v>2020</v>
       </c>
-      <c r="J3" s="266">
+      <c r="J3" s="254">
         <v>17444.618333333336</v>
       </c>
-      <c r="K3" s="266">
+      <c r="K3" s="254">
         <v>2430.2799722222217</v>
       </c>
-      <c r="L3" s="266">
+      <c r="L3" s="254">
         <v>2518.2216666666668</v>
       </c>
-      <c r="M3" s="266">
+      <c r="M3" s="254">
         <v>1606.5130555555556</v>
       </c>
-      <c r="N3" s="266">
+      <c r="N3" s="254">
         <v>2300.2186111111109</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="264" t="s">
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="252" t="s">
         <v>358</v>
       </c>
-      <c r="B4" s="233">
+      <c r="B4" s="221">
         <v>2791.0050000000001</v>
       </c>
-      <c r="C4" s="233">
+      <c r="C4" s="221">
         <v>2430.2799722222217</v>
       </c>
-      <c r="D4" s="233">
+      <c r="D4" s="221">
         <v>2683.0269444444443</v>
       </c>
-      <c r="E4" s="233">
+      <c r="E4" s="221">
         <v>2861.5609722222221</v>
       </c>
-      <c r="F4" s="233">
+      <c r="F4" s="221">
         <v>3440.232361111111</v>
       </c>
       <c r="I4" s="181">
         <v>2021</v>
       </c>
-      <c r="J4" s="266">
+      <c r="J4" s="254">
         <v>19485.127222222221</v>
       </c>
-      <c r="K4" s="266">
+      <c r="K4" s="254">
         <v>2683.0269444444443</v>
       </c>
-      <c r="L4" s="266">
+      <c r="L4" s="254">
         <v>2531.5555555555557</v>
       </c>
-      <c r="M4" s="266">
+      <c r="M4" s="254">
         <v>1731.2883333333332</v>
       </c>
-      <c r="N4" s="266">
+      <c r="N4" s="254">
         <v>3128.15</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="264" t="s">
+      <c r="A5" s="252" t="s">
         <v>360</v>
       </c>
-      <c r="B5" s="233">
+      <c r="B5" s="221">
         <v>2533.3338888888889</v>
       </c>
-      <c r="C5" s="233">
+      <c r="C5" s="221">
         <v>2518.2216666666668</v>
       </c>
-      <c r="D5" s="233">
+      <c r="D5" s="221">
         <v>2531.5555555555557</v>
       </c>
-      <c r="E5" s="233">
+      <c r="E5" s="221">
         <v>2605.1200000000003</v>
       </c>
-      <c r="F5" s="233">
+      <c r="F5" s="221">
         <v>2791.9466666666667</v>
       </c>
       <c r="I5" s="181">
         <v>2022</v>
       </c>
-      <c r="J5" s="266">
+      <c r="J5" s="254">
         <v>22074.805555555551</v>
       </c>
-      <c r="K5" s="266">
+      <c r="K5" s="254">
         <v>2861.5609722222221</v>
       </c>
-      <c r="L5" s="266">
+      <c r="L5" s="254">
         <v>2605.1200000000003</v>
       </c>
-      <c r="M5" s="266">
+      <c r="M5" s="254">
         <v>4518.3999999999996</v>
       </c>
-      <c r="N5" s="266">
+      <c r="N5" s="254">
         <v>3157.661111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="264" t="s">
+    <row r="6" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="252" t="s">
         <v>361</v>
       </c>
-      <c r="B6" s="233">
+      <c r="B6" s="221">
         <v>4409.7833333333328</v>
       </c>
-      <c r="C6" s="233">
+      <c r="C6" s="221">
         <v>1606.5130555555556</v>
       </c>
-      <c r="D6" s="233">
+      <c r="D6" s="221">
         <v>1731.2883333333332</v>
       </c>
-      <c r="E6" s="233">
+      <c r="E6" s="221">
         <v>4518.3999999999996</v>
       </c>
-      <c r="F6" s="233">
+      <c r="F6" s="221">
         <v>4993.4055555555551</v>
       </c>
       <c r="I6" s="181">
         <v>2023</v>
       </c>
-      <c r="J6" s="266">
+      <c r="J6" s="254">
         <v>22918.588888888888</v>
       </c>
-      <c r="K6" s="266">
+      <c r="K6" s="254">
         <v>3440.232361111111</v>
       </c>
-      <c r="L6" s="266">
+      <c r="L6" s="254">
         <v>2791.9466666666667</v>
       </c>
-      <c r="M6" s="266">
+      <c r="M6" s="254">
         <v>4993.4055555555551</v>
       </c>
-      <c r="N6" s="266">
+      <c r="N6" s="254">
         <v>3157.661111111111</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="264" t="s">
+    <row r="7" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="252" t="s">
         <v>362</v>
       </c>
-      <c r="B7" s="233">
+      <c r="B7" s="221">
         <v>35.089444444444446</v>
       </c>
-      <c r="C7" s="233">
+      <c r="C7" s="221">
         <v>2300.2186111111109</v>
       </c>
-      <c r="D7" s="233">
+      <c r="D7" s="221">
         <v>3128.15</v>
       </c>
-      <c r="E7" s="233">
+      <c r="E7" s="221">
         <v>3157.661111111111</v>
       </c>
-      <c r="F7" s="233">
+      <c r="F7" s="221">
         <v>3157.661111111111</v>
       </c>
       <c r="J7" s="181" t="s">
@@ -11706,23 +12804,23 @@
       <c r="I9" s="181">
         <v>2020</v>
       </c>
-      <c r="J9" s="221">
+      <c r="J9" s="209">
         <f>J3/J2-1</f>
         <v>-0.10887376644455604</v>
       </c>
-      <c r="K9" s="221">
+      <c r="K9" s="209">
         <f t="shared" ref="K9:N9" si="1">K3/K2-1</f>
         <v>-0.12924556845214485</v>
       </c>
-      <c r="L9" s="221">
+      <c r="L9" s="209">
         <f t="shared" si="1"/>
         <v>-5.9653495690021874E-3</v>
       </c>
-      <c r="M9" s="221">
+      <c r="M9" s="209">
         <f t="shared" si="1"/>
         <v>-0.63569342661078077</v>
       </c>
-      <c r="N9" s="221">
+      <c r="N9" s="209">
         <f t="shared" si="1"/>
         <v>64.553007393803128</v>
       </c>
@@ -11731,23 +12829,23 @@
       <c r="I10" s="181">
         <v>2021</v>
       </c>
-      <c r="J10" s="221">
+      <c r="J10" s="209">
         <f t="shared" ref="J10:N12" si="2">J4/J3-1</f>
         <v>0.11697068115212716</v>
       </c>
-      <c r="K10" s="221">
+      <c r="K10" s="209">
         <f t="shared" si="2"/>
         <v>0.10399911743136059</v>
       </c>
-      <c r="L10" s="221">
+      <c r="L10" s="209">
         <f t="shared" si="2"/>
         <v>5.2949623400464496E-3</v>
       </c>
-      <c r="M10" s="221">
+      <c r="M10" s="209">
         <f t="shared" si="2"/>
         <v>7.7668387036312181E-2</v>
       </c>
-      <c r="N10" s="221">
+      <c r="N10" s="209">
         <f t="shared" si="2"/>
         <v>0.35993595777792642</v>
       </c>
@@ -11756,23 